--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C149DA46-3E20-40C5-BC41-668E95972D6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6D1874-8C47-4A8D-A6C6-DC691505BBAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
+    <workbookView xWindow="7230" yWindow="1230" windowWidth="21600" windowHeight="11505" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="PCB Inv. Checks" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_200151011034HC">Sheet1!$B$75</definedName>
+    <definedName name="_200151011034HC">Inventory!$B$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="373">
   <si>
     <t>Item#</t>
   </si>
@@ -502,70 +503,725 @@
 LR: &lt; 30,000 ohm/m</t>
   </si>
   <si>
+    <t>44/12 dtex + 113/32 PET
+Ag Nylon + PET
+LR: &lt; 30,000 ohm/m</t>
+  </si>
+  <si>
+    <t>78/18 dtex Zturns
+Ag Nylon
+LR: &lt; 25,000 ohm/m</t>
+  </si>
+  <si>
+    <t>200121235364HCB</t>
+  </si>
+  <si>
+    <t>235/36 dtex 4 ply HCB</t>
+  </si>
+  <si>
+    <t>22/7 dtex + 110 PET 3 ply
+Ag Nylon + PET
+LR: &lt; 200,000 kohm/m</t>
+  </si>
+  <si>
+    <t>117/17 dtex 2 ply +B
+LR: &lt; 3,000 ohm/m</t>
+  </si>
+  <si>
+    <t>44/12 dtex Zturns
+Ag Nylon
+LR: &lt; 10,000 ohm/m</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>INVENTORY AS OF 2/26/2021</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t># Needed</t>
+  </si>
+  <si>
+    <t>Location(s)</t>
+  </si>
+  <si>
+    <t>22 Ohm 2010 Resistor</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>22 Ohm 0805 Resistor</t>
+  </si>
+  <si>
+    <t># in Inv.</t>
+  </si>
+  <si>
+    <t>1k Ohm 0805 Resistor</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R6, R14, R15</t>
+  </si>
+  <si>
+    <t>1.47k Ohm 0805 Resistor</t>
+  </si>
+  <si>
+    <t>4.7k Ohm 0805 Resistor</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10, R11</t>
+  </si>
+  <si>
+    <t>5.1k Ohm 0805 Resistor</t>
+  </si>
+  <si>
+    <t>R12, R13</t>
+  </si>
+  <si>
+    <t>10k Ohm 0805 Resistor</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>MCU
+(FemaVitalsMonitor.kicad_pcb)</t>
+  </si>
+  <si>
+    <t>100k Ohm 0805 Resistor</t>
+  </si>
+  <si>
+    <t>R3, R4, R7, R8</t>
+  </si>
+  <si>
+    <t>1 uF 0805 Capacitor</t>
+  </si>
+  <si>
+    <t>C1, C6</t>
+  </si>
+  <si>
+    <t>10 uF 0805 Capacitor</t>
+  </si>
+  <si>
+    <t>0.1 uF 0805 Capacitor</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C2, C3, C4, C5, C7</t>
+  </si>
+  <si>
+    <t>MBR120 1A 20V Diode</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SM5817 1A 20V Diode</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Orange LED - Pkg:1206</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Dome Lens LED 0805</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>AlInGaP Red LED 0805</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>LEDs/Diodes</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>ATmega32U4-MU</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>RFM69HCW LoRa Transmitter</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>uFL Coaxial Connectors</t>
+  </si>
+  <si>
+    <t>U4, U8</t>
+  </si>
+  <si>
+    <t>NEO-M8</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>MCP73831T Battery Management</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>24AA32A</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>USB Connnector</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>Many</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>22 Ohms</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_2010_5025Metric_Pad1.40x2.65mm_HandSolder</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>100k Ohms</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>10k Ohms</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>1k Ohms</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>1.47k Ohms</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>4.7k Ohms</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>5.1k Ohms</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>1 uF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>10 uF</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>0.1 uF</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>MBR120</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-123F</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_1206_3216Metric_Pad1.42x1.75mm_HandSolder</t>
+  </si>
+  <si>
+    <t>SM5817PL-TP</t>
+  </si>
+  <si>
+    <t>SOD3716X120N</t>
+  </si>
+  <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>APTD2012LSURCK</t>
+  </si>
+  <si>
+    <t>LEDM2012X120N</t>
+  </si>
+  <si>
+    <t>Package_DFN_QFN:QFN-44-1EP_7x7mm_P0.5mm_EP5.2x5.2mm</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>AP2112K-3.3</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23-5</t>
+  </si>
+  <si>
+    <t>RFM69HCW</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>uFL</t>
+  </si>
+  <si>
+    <t>Connector_Coaxial:U.FL_Hirose_U.FL-R-SMT-1_Vertical</t>
+  </si>
+  <si>
+    <t>MCP73831-2-OT</t>
+  </si>
+  <si>
+    <t>Package_SO:SOIJ-8_5.3x5.3mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Conn_01x08</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x08_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>USB_C_Receptacle_USB2.0</t>
+  </si>
+  <si>
+    <t>Connector_USB:USB_C_Receptacle_GCT_USB4085</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>8MHz</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:AWSCR800CELBC10T3</t>
+  </si>
+  <si>
+    <t>SW_DIP_x01</t>
+  </si>
+  <si>
+    <t>Button_Switch_THT:SW_PUSH_6mm_H7.3mm</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>AS11AH</t>
+  </si>
+  <si>
+    <t>22 uH</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MCU PCB (FEMAVitalsMonitor.kicad_pcb) Components List </t>
+    </r>
     <r>
       <rPr>
         <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Link:</t>
+      <t>- from Drive</t>
+    </r>
+  </si>
+  <si>
+    <t>PCB Inventory Checks</t>
+  </si>
+  <si>
+    <t>20k Ohms</t>
+  </si>
+  <si>
+    <t>49.9k Ohms</t>
+  </si>
+  <si>
+    <t>20 Ohms</t>
+  </si>
+  <si>
+    <t>300 Ohms</t>
+  </si>
+  <si>
+    <t>750k Ohms</t>
+  </si>
+  <si>
+    <t>Packages</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>47 nF</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>22 uF</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>1.0 uF</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>AD5933</t>
+  </si>
+  <si>
+    <t>Package_SO:SSOP-16_5.3x6.2mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>ADG849</t>
+  </si>
+  <si>
+    <t>AD8606</t>
+  </si>
+  <si>
+    <t>Package_SO:MSOP-8_3x3mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>MAX30101EFD</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:14-LEAD-OESIP</t>
+  </si>
+  <si>
+    <t>PAM2401</t>
+  </si>
+  <si>
+    <t>MAX32664GTGA+T</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>LP5951MG-1.8/NOPB</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-353_SC-70-5_Handsoldering</t>
+  </si>
+  <si>
+    <t>Electrode +</t>
+  </si>
+  <si>
+    <t>Electrode -</t>
+  </si>
+  <si>
+    <t>ABS07W-32.768kHz-D-1-T</t>
+  </si>
+  <si>
+    <t>ABS07AIG32768kHz71T</t>
+  </si>
+  <si>
+    <t>2.2 uH</t>
+  </si>
+  <si>
+    <t>Conn_01x04</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x04_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Body Temp Sensor Components List - </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> https://www.shieldextrading.net/products/yarns-threads/</t>
+      <t>from Drive</t>
     </r>
   </si>
   <si>
-    <t>44/12 dtex + 113/32 PET
-Ag Nylon + PET
-LR: &lt; 30,000 ohm/m</t>
-  </si>
-  <si>
-    <t>78/18 dtex Zturns
-Ag Nylon
-LR: &lt; 25,000 ohm/m</t>
-  </si>
-  <si>
-    <t>200121235364HCB</t>
-  </si>
-  <si>
-    <t>235/36 dtex 4 ply HCB</t>
-  </si>
-  <si>
-    <t>22/7 dtex + 110 PET 3 ply
-Ag Nylon + PET
-LR: &lt; 200,000 kohm/m</t>
-  </si>
-  <si>
-    <t>117/17 dtex 2 ply +B
-LR: &lt; 3,000 ohm/m</t>
-  </si>
-  <si>
-    <t>44/12 dtex Zturns
-Ag Nylon
-LR: &lt; 10,000 ohm/m</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>INVENTORY AS OF 2/26/2021</t>
+    <r>
+      <t xml:space="preserve">Impedance Analysis Pulse Oximeter Components List - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from Drive</t>
+    </r>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>20 Ohm 2010 Resistor</t>
+  </si>
+  <si>
+    <t>300 Ohm 0805 Resistor</t>
+  </si>
+  <si>
+    <t>4.7k Ohm Resistor</t>
+  </si>
+  <si>
+    <t>R1, R4</t>
+  </si>
+  <si>
+    <t>R12, R13, R16</t>
+  </si>
+  <si>
+    <t>20k Ohm 0805 Resistor</t>
+  </si>
+  <si>
+    <t>R3, R8</t>
+  </si>
+  <si>
+    <t>R4, R5, R6, R7</t>
+  </si>
+  <si>
+    <t>49.9k Ohm 0805 Resistor</t>
+  </si>
+  <si>
+    <t>R9, R14</t>
+  </si>
+  <si>
+    <t>750k Ohm 0805 Resistor</t>
+  </si>
+  <si>
+    <t>0.1uF 0805 Capacitor</t>
+  </si>
+  <si>
+    <t>C3-C8, C10-C13</t>
+  </si>
+  <si>
+    <t>C18-C20</t>
+  </si>
+  <si>
+    <t>C1, C14, C16, C17</t>
+  </si>
+  <si>
+    <t>22 uF 0805 Capacitor</t>
+  </si>
+  <si>
+    <t>47 nF 0805 Capacitor</t>
+  </si>
+  <si>
+    <t>Impedance Analysis Pulse Oximeter
+(ImpedanceRev1.0.kicad_pcb)</t>
+  </si>
+  <si>
+    <t>U3, U4</t>
+  </si>
+  <si>
+    <t>MAX30101EFD+ - Pulse Oximeter</t>
+  </si>
+  <si>
+    <t>PAM2401 - Voltage Regulator</t>
+  </si>
+  <si>
+    <t>MAX32664GTGA+T - P. Ox. Hub</t>
+  </si>
+  <si>
+    <t>LP5951MG-1.8/NOPB - Voltage Regulator</t>
+  </si>
+  <si>
+    <t>ABS07W32 - Crystal Oscillator</t>
+  </si>
+  <si>
+    <t>2.2 uH 0805 Inductor</t>
+  </si>
+  <si>
+    <t>Loose in tote</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>BME280 - Temp Sensor</t>
+  </si>
+  <si>
+    <t>Conn01x04</t>
+  </si>
+  <si>
+    <t>Color Legend</t>
+  </si>
+  <si>
+    <t>Not in inventory</t>
+  </si>
+  <si>
+    <t>in MCU box</t>
+  </si>
+  <si>
+    <t>Body Temp Sensor
+(BodyTempSensor.kicad_pcb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,16 +1269,86 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -648,11 +1374,555 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -721,20 +1991,490 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,6 +2482,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF666699"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFCC6600"/>
+      <color rgb="FF00CC66"/>
+      <color rgb="FF009999"/>
+      <color rgb="FFCC3300"/>
+      <color rgb="FF33CCFF"/>
+      <color rgb="FF6600FF"/>
+      <color rgb="FFD60093"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1050,10 +2803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AA6548-4DFA-4405-951F-1160BBC52D4F}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,17 +2817,25 @@
     <col min="4" max="4" width="4.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="15" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1085,16 +2846,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1112,9 +2878,14 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="155"/>
       <c r="B4" s="5" t="s">
         <v>95</v>
       </c>
@@ -1127,9 +2898,14 @@
       <c r="E4" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="155"/>
       <c r="B5" s="7" t="s">
         <v>127</v>
       </c>
@@ -1145,9 +2921,21 @@
       <c r="F5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="153" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -1162,9 +2950,14 @@
       <c r="E7" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="153"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -1177,9 +2970,14 @@
       <c r="E8" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="153"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -1192,9 +2990,14 @@
       <c r="E9" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="153"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -1207,9 +3010,14 @@
       <c r="E10" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="153"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -1222,9 +3030,14 @@
       <c r="E11" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="153"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -1237,8 +3050,20 @@
       <c r="E12" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+    </row>
+    <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>18</v>
       </c>
@@ -1254,9 +3079,21 @@
       <c r="E14" s="11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="153" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1268,9 +3105,14 @@
       <c r="D16" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="153"/>
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1280,9 +3122,14 @@
       <c r="D17" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="153"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1292,9 +3139,14 @@
       <c r="D18" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="153"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
@@ -1304,9 +3156,14 @@
       <c r="D19" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="153"/>
       <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
@@ -1316,9 +3173,14 @@
       <c r="D20" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="153"/>
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
@@ -1328,9 +3190,14 @@
       <c r="D21" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="153"/>
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
@@ -1340,9 +3207,14 @@
       <c r="D22" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="153"/>
       <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1352,9 +3224,14 @@
       <c r="D23" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="153"/>
       <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
@@ -1364,9 +3241,14 @@
       <c r="D24" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="153"/>
       <c r="B25" s="5" t="s">
         <v>40</v>
       </c>
@@ -1376,9 +3258,14 @@
       <c r="D25" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="153"/>
       <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
@@ -1388,9 +3275,14 @@
       <c r="D26" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="153"/>
       <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
@@ -1400,9 +3292,21 @@
       <c r="D27" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+    </row>
+    <row r="28" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="153" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1414,9 +3318,14 @@
       <c r="D29" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="153"/>
       <c r="B30" s="5" t="s">
         <v>47</v>
       </c>
@@ -1426,9 +3335,14 @@
       <c r="D30" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="153"/>
       <c r="B31" s="5" t="s">
         <v>44</v>
       </c>
@@ -1438,9 +3352,14 @@
       <c r="D31" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="153"/>
       <c r="B32" s="5" t="s">
         <v>50</v>
       </c>
@@ -1450,9 +3369,14 @@
       <c r="D32" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="153"/>
       <c r="B33" s="5" t="s">
         <v>53</v>
       </c>
@@ -1462,9 +3386,14 @@
       <c r="D33" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="153"/>
       <c r="B34" s="5" t="s">
         <v>55</v>
       </c>
@@ -1477,9 +3406,14 @@
       <c r="E34" s="15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="153" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -1492,8 +3426,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="153"/>
       <c r="B37" s="5" t="s">
         <v>61</v>
       </c>
@@ -1504,8 +3438,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="153" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -1524,8 +3458,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="153"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -1539,8 +3473,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="153"/>
       <c r="B41" s="5" t="s">
         <v>84</v>
       </c>
@@ -1554,8 +3488,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="153"/>
       <c r="B42" s="5" t="s">
         <v>101</v>
       </c>
@@ -1572,7 +3506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>104</v>
       </c>
@@ -1583,8 +3517,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+    <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="156" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -1600,8 +3534,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="156"/>
       <c r="B46" s="5" t="s">
         <v>80</v>
       </c>
@@ -1615,12 +3549,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="156" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -1637,7 +3571,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
+      <c r="A49" s="156"/>
       <c r="B49" s="5" t="s">
         <v>140</v>
       </c>
@@ -1649,7 +3583,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="153" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -1666,7 +3600,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
+      <c r="A52" s="153"/>
       <c r="B52" s="5" t="s">
         <v>73</v>
       </c>
@@ -1678,7 +3612,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
+      <c r="A53" s="153"/>
       <c r="B53" s="5" t="s">
         <v>75</v>
       </c>
@@ -1690,7 +3624,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
+      <c r="A54" s="153"/>
       <c r="B54" s="5" t="s">
         <v>82</v>
       </c>
@@ -1702,22 +3636,22 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="153"/>
+      <c r="B55" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="25">
         <v>4</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="39" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
+      <c r="A56" s="153"/>
       <c r="B56" s="5" t="s">
         <v>91</v>
       </c>
@@ -1729,7 +3663,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
+      <c r="A57" s="153"/>
       <c r="B57" s="5" t="s">
         <v>93</v>
       </c>
@@ -1741,7 +3675,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
+      <c r="A58" s="153"/>
       <c r="B58" s="5" t="s">
         <v>109</v>
       </c>
@@ -1753,7 +3687,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
+      <c r="A59" s="153"/>
       <c r="B59" s="5" t="s">
         <v>111</v>
       </c>
@@ -1765,7 +3699,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
+      <c r="A60" s="153"/>
       <c r="B60" s="9" t="s">
         <v>113</v>
       </c>
@@ -1780,7 +3714,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
+      <c r="A61" s="153"/>
       <c r="B61" s="5" t="s">
         <v>118</v>
       </c>
@@ -1795,22 +3729,22 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="5" t="s">
+      <c r="A62" s="153"/>
+      <c r="B62" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="25">
         <v>4</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="39" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
+      <c r="A63" s="153"/>
       <c r="B63" s="5" t="s">
         <v>123</v>
       </c>
@@ -1825,7 +3759,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
+      <c r="A64" s="153"/>
       <c r="B64" s="5" t="s">
         <v>130</v>
       </c>
@@ -1840,7 +3774,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
+      <c r="A65" s="153"/>
       <c r="B65" s="5" t="s">
         <v>133</v>
       </c>
@@ -1855,7 +3789,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
+      <c r="A66" s="153"/>
       <c r="B66" s="5" t="s">
         <v>136</v>
       </c>
@@ -1870,7 +3804,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="25"/>
+      <c r="A67" s="153"/>
       <c r="B67" s="5" t="s">
         <v>142</v>
       </c>
@@ -1885,7 +3819,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="25"/>
+      <c r="A68" s="153"/>
       <c r="B68" s="9" t="s">
         <v>145</v>
       </c>
@@ -1900,7 +3834,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="153" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -1917,7 +3851,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="25"/>
+      <c r="A71" s="153"/>
       <c r="B71" s="5" t="s">
         <v>102</v>
       </c>
@@ -1929,7 +3863,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
+      <c r="A72" s="153"/>
       <c r="B72" s="5" t="s">
         <v>115</v>
       </c>
@@ -1941,16 +3875,11 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G73" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="153" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -1966,9 +3895,12 @@
         <v>151</v>
       </c>
       <c r="G74" s="3"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
+      <c r="A75" s="153"/>
       <c r="B75" s="17">
         <v>2601151022113</v>
       </c>
@@ -1983,7 +3915,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
+      <c r="A76" s="153"/>
       <c r="B76" s="17">
         <v>261151044113</v>
       </c>
@@ -1994,11 +3926,11 @@
         <v>1</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
+      <c r="A77" s="153"/>
       <c r="B77" s="17">
         <v>20012107818</v>
       </c>
@@ -2009,13 +3941,13 @@
         <v>1</v>
       </c>
       <c r="E77" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="153"/>
+      <c r="B78" s="17" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="25"/>
-      <c r="B78" s="17" t="s">
-        <v>156</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>150</v>
@@ -2024,11 +3956,11 @@
         <v>1</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
+      <c r="A79" s="153"/>
       <c r="B79" s="18">
         <v>260151022110</v>
       </c>
@@ -2039,11 +3971,11 @@
         <v>1</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="25"/>
+      <c r="A80" s="153"/>
       <c r="B80" s="17">
         <v>260121011717</v>
       </c>
@@ -2054,11 +3986,11 @@
         <v>1</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="25"/>
+      <c r="A81" s="153"/>
       <c r="B81" s="17">
         <v>20012104412</v>
       </c>
@@ -2069,14 +4001,11 @@
         <v>1</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="A51:A68"/>
-    <mergeCell ref="A48:A49"/>
+  <mergeCells count="12">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A29:A34"/>
@@ -2087,6 +4016,3226 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A51:A68"/>
+    <mergeCell ref="A48:A49"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
+  <dimension ref="A1:AD92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="40.7109375" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="6"/>
+    <col min="16" max="16" width="15.7109375" style="52" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="35.7109375" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="194" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="196"/>
+      <c r="H1" s="173" t="s">
+        <v>369</v>
+      </c>
+      <c r="I1" s="174"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="197"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="199"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="158" t="s">
+        <v>370</v>
+      </c>
+      <c r="J2" s="159"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="200"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="202"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="158" t="s">
+        <v>365</v>
+      </c>
+      <c r="J3" s="159"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="205" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="160" t="s">
+        <v>371</v>
+      </c>
+      <c r="J4" s="161"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="176" t="s">
+        <v>357</v>
+      </c>
+      <c r="M4" s="177"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="185" t="s">
+        <v>372</v>
+      </c>
+      <c r="W4" s="186"/>
+      <c r="X4" s="186"/>
+      <c r="Y4" s="186"/>
+      <c r="Z4" s="187"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="33"/>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="207"/>
+      <c r="B5" s="207"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="208"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="33"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="188"/>
+      <c r="W5" s="189"/>
+      <c r="X5" s="189"/>
+      <c r="Y5" s="189"/>
+      <c r="Z5" s="190"/>
+      <c r="AA5" s="96"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="L6" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q6" s="45"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="X6" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y6" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z6" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA6" s="96"/>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="203" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="135" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="72">
+        <v>2</v>
+      </c>
+      <c r="D7" s="72">
+        <v>0</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="33"/>
+      <c r="L7" s="182" t="s">
+        <v>339</v>
+      </c>
+      <c r="M7" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="N7" s="92">
+        <v>1</v>
+      </c>
+      <c r="O7" s="92">
+        <v>5</v>
+      </c>
+      <c r="P7" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q7" s="45"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" s="122" t="s">
+        <v>342</v>
+      </c>
+      <c r="X7" s="123">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="123">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="124" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA7" s="96"/>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="203"/>
+      <c r="B8" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1</v>
+      </c>
+      <c r="D8" s="36">
+        <v>5</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="33"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="N8" s="51">
+        <v>1</v>
+      </c>
+      <c r="O8" s="51">
+        <v>5</v>
+      </c>
+      <c r="P8" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q8" s="45"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="X8" s="120">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="120">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="121" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA8" s="96"/>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="203"/>
+      <c r="B9" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="36">
+        <v>3</v>
+      </c>
+      <c r="D9" s="36">
+        <v>10</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="134"/>
+      <c r="G9" s="33"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="N9" s="113">
+        <v>3</v>
+      </c>
+      <c r="O9" s="113">
+        <v>20</v>
+      </c>
+      <c r="P9" s="114" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q9" s="45"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="130" t="s">
+        <v>200</v>
+      </c>
+      <c r="W9" s="131" t="s">
+        <v>367</v>
+      </c>
+      <c r="X9" s="132">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="132">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="133" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA9" s="96"/>
+    </row>
+    <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="203"/>
+      <c r="B10" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+      <c r="D10" s="36">
+        <v>5</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="134"/>
+      <c r="G10" s="33"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="N10" s="113">
+        <v>2</v>
+      </c>
+      <c r="O10" s="113">
+        <v>10</v>
+      </c>
+      <c r="P10" s="114" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="45"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="129" t="s">
+        <v>213</v>
+      </c>
+      <c r="W10" s="145" t="s">
+        <v>368</v>
+      </c>
+      <c r="X10" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" s="144" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA10" s="96"/>
+    </row>
+    <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="203"/>
+      <c r="B11" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="36">
+        <v>2</v>
+      </c>
+      <c r="D11" s="36">
+        <v>20</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="134"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="N11" s="51">
+        <v>2</v>
+      </c>
+      <c r="O11" s="51">
+        <v>5</v>
+      </c>
+      <c r="P11" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q11" s="45"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="33"/>
+    </row>
+    <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="203"/>
+      <c r="B12" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="36">
+        <v>2</v>
+      </c>
+      <c r="D12" s="36">
+        <v>5</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="134"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="N12" s="51">
+        <v>4</v>
+      </c>
+      <c r="O12" s="51">
+        <v>10</v>
+      </c>
+      <c r="P12" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q12" s="45"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="33"/>
+    </row>
+    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="203"/>
+      <c r="B13" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="36">
+        <v>1</v>
+      </c>
+      <c r="D13" s="36">
+        <v>10</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="134"/>
+      <c r="L13" s="183"/>
+      <c r="M13" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="N13" s="113">
+        <v>2</v>
+      </c>
+      <c r="O13" s="113">
+        <v>20</v>
+      </c>
+      <c r="P13" s="114" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q13" s="45"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="96"/>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="209"/>
+      <c r="B14" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="137">
+        <v>4</v>
+      </c>
+      <c r="D14" s="137">
+        <v>20</v>
+      </c>
+      <c r="E14" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="134"/>
+      <c r="L14" s="184"/>
+      <c r="M14" s="94" t="s">
+        <v>350</v>
+      </c>
+      <c r="N14" s="78">
+        <v>1</v>
+      </c>
+      <c r="O14" s="78">
+        <v>5</v>
+      </c>
+      <c r="P14" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q14" s="45"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="96"/>
+      <c r="Z14" s="96"/>
+      <c r="AA14" s="96"/>
+      <c r="AB14" s="96"/>
+      <c r="AC14" s="96"/>
+    </row>
+    <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="210" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="51">
+        <v>1</v>
+      </c>
+      <c r="D15" s="51">
+        <v>30</v>
+      </c>
+      <c r="E15" s="141" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="134"/>
+      <c r="L15" s="168" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="115" t="s">
+        <v>351</v>
+      </c>
+      <c r="N15" s="113">
+        <v>10</v>
+      </c>
+      <c r="O15" s="113">
+        <v>30</v>
+      </c>
+      <c r="P15" s="114" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q15" s="45"/>
+      <c r="V15" s="162" t="s">
+        <v>337</v>
+      </c>
+      <c r="W15" s="163"/>
+      <c r="X15" s="163"/>
+      <c r="Y15" s="163"/>
+      <c r="Z15" s="163"/>
+      <c r="AA15" s="163"/>
+      <c r="AB15" s="163"/>
+      <c r="AC15" s="164"/>
+    </row>
+    <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="203"/>
+      <c r="B16" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="36">
+        <v>2</v>
+      </c>
+      <c r="D16" s="36">
+        <v>15</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="134"/>
+      <c r="L16" s="169"/>
+      <c r="M16" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="N16" s="113">
+        <v>3</v>
+      </c>
+      <c r="O16" s="113">
+        <v>15</v>
+      </c>
+      <c r="P16" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q16" s="45"/>
+      <c r="S16" s="33"/>
+      <c r="V16" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="105"/>
+      <c r="AA16" s="105"/>
+      <c r="AB16" s="105"/>
+      <c r="AC16" s="150"/>
+    </row>
+    <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="209"/>
+      <c r="B17" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="137">
+        <v>5</v>
+      </c>
+      <c r="D17" s="137">
+        <v>20</v>
+      </c>
+      <c r="E17" s="139" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="134"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="N17" s="113">
+        <v>4</v>
+      </c>
+      <c r="O17" s="113">
+        <v>20</v>
+      </c>
+      <c r="P17" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q17" s="45"/>
+      <c r="V17" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="W17" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="X17" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="106"/>
+    </row>
+    <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="210" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="36">
+        <v>1</v>
+      </c>
+      <c r="D18" s="36">
+        <v>5</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="134"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="N18" s="51">
+        <v>1</v>
+      </c>
+      <c r="O18" s="51">
+        <v>5</v>
+      </c>
+      <c r="P18" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q18" s="45"/>
+      <c r="V18" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="W18" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="X18" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="102"/>
+      <c r="AB18" s="102"/>
+      <c r="AC18" s="109"/>
+    </row>
+    <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="203"/>
+      <c r="B19" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="36">
+        <v>1</v>
+      </c>
+      <c r="D19" s="36">
+        <v>5</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="134"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="94" t="s">
+        <v>356</v>
+      </c>
+      <c r="N19" s="78">
+        <v>1</v>
+      </c>
+      <c r="O19" s="78">
+        <v>5</v>
+      </c>
+      <c r="P19" s="79" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q19" s="45"/>
+      <c r="V19" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="W19" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="X19" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="109"/>
+    </row>
+    <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="203"/>
+      <c r="B20" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="36">
+        <v>1</v>
+      </c>
+      <c r="D20" s="36">
+        <v>4</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="134"/>
+      <c r="L20" s="168" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" s="112" t="s">
+        <v>318</v>
+      </c>
+      <c r="N20" s="75">
+        <v>1</v>
+      </c>
+      <c r="O20" s="75">
+        <v>1</v>
+      </c>
+      <c r="P20" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q20" s="45"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="109"/>
+    </row>
+    <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="203"/>
+      <c r="B21" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="36">
+        <v>1</v>
+      </c>
+      <c r="D21" s="36">
+        <v>5</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="134"/>
+      <c r="L21" s="169"/>
+      <c r="M21" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="N21" s="51">
+        <v>2</v>
+      </c>
+      <c r="O21" s="51">
+        <v>5</v>
+      </c>
+      <c r="P21" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q21" s="45"/>
+      <c r="V21" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="109"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="209"/>
+      <c r="B22" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="137">
+        <v>1</v>
+      </c>
+      <c r="D22" s="137">
+        <v>4</v>
+      </c>
+      <c r="E22" s="139" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="134"/>
+      <c r="L22" s="169"/>
+      <c r="M22" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="N22" s="51">
+        <v>1</v>
+      </c>
+      <c r="O22" s="51">
+        <v>4</v>
+      </c>
+      <c r="P22" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q22" s="45"/>
+      <c r="V22" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="W22" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="X22" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="102"/>
+      <c r="AA22" s="102"/>
+      <c r="AB22" s="102"/>
+      <c r="AC22" s="109"/>
+    </row>
+    <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="210" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="34">
+        <v>1</v>
+      </c>
+      <c r="D23" s="34">
+        <v>1</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="134"/>
+      <c r="L23" s="169"/>
+      <c r="M23" s="112" t="s">
+        <v>359</v>
+      </c>
+      <c r="N23" s="75">
+        <v>1</v>
+      </c>
+      <c r="O23" s="75">
+        <v>3</v>
+      </c>
+      <c r="P23" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q23" s="45"/>
+      <c r="V23" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="W23" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="X23" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="109"/>
+    </row>
+    <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="203"/>
+      <c r="B24" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="36">
+        <v>1</v>
+      </c>
+      <c r="D24" s="36">
+        <v>2</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="134"/>
+      <c r="L24" s="169"/>
+      <c r="M24" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="N24" s="51">
+        <v>1</v>
+      </c>
+      <c r="O24" s="51">
+        <v>4</v>
+      </c>
+      <c r="P24" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q24" s="45"/>
+      <c r="V24" s="108" t="s">
+        <v>248</v>
+      </c>
+      <c r="W24" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="X24" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y24" s="102"/>
+      <c r="Z24" s="102"/>
+      <c r="AA24" s="102"/>
+      <c r="AB24" s="102"/>
+      <c r="AC24" s="109"/>
+    </row>
+    <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="203"/>
+      <c r="B25" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="36">
+        <v>2</v>
+      </c>
+      <c r="D25" s="36">
+        <v>5</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="134"/>
+      <c r="L25" s="169"/>
+      <c r="M25" s="74" t="s">
+        <v>361</v>
+      </c>
+      <c r="N25" s="75">
+        <v>1</v>
+      </c>
+      <c r="O25" s="75">
+        <v>2</v>
+      </c>
+      <c r="P25" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q25" s="45"/>
+      <c r="V25" s="108"/>
+      <c r="W25" s="102"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="102"/>
+      <c r="Z25" s="102"/>
+      <c r="AA25" s="102"/>
+      <c r="AB25" s="102"/>
+      <c r="AC25" s="109"/>
+    </row>
+    <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="203"/>
+      <c r="B26" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="36">
+        <v>1</v>
+      </c>
+      <c r="D26" s="36">
+        <v>1</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" s="134"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="77" t="s">
+        <v>362</v>
+      </c>
+      <c r="N26" s="78">
+        <v>1</v>
+      </c>
+      <c r="O26" s="78">
+        <v>4</v>
+      </c>
+      <c r="P26" s="79" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q26" s="45"/>
+      <c r="V26" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="102"/>
+      <c r="AC26" s="109"/>
+    </row>
+    <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="203"/>
+      <c r="B27" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="36">
+        <v>1</v>
+      </c>
+      <c r="D27" s="36">
+        <v>4</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="134"/>
+      <c r="L27" s="171" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="87" t="s">
+        <v>363</v>
+      </c>
+      <c r="N27" s="88">
+        <v>1</v>
+      </c>
+      <c r="O27" s="88">
+        <v>4</v>
+      </c>
+      <c r="P27" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q27" s="45"/>
+      <c r="V27" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="W27" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="X27" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="102"/>
+      <c r="AA27" s="102"/>
+      <c r="AB27" s="102"/>
+      <c r="AC27" s="109"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="209"/>
+      <c r="B28" s="140" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="138">
+        <v>1</v>
+      </c>
+      <c r="D28" s="138">
+        <v>4</v>
+      </c>
+      <c r="E28" s="142" t="s">
+        <v>212</v>
+      </c>
+      <c r="F28" s="134"/>
+      <c r="L28" s="172"/>
+      <c r="M28" s="116" t="s">
+        <v>364</v>
+      </c>
+      <c r="N28" s="117">
+        <v>1</v>
+      </c>
+      <c r="O28" s="117">
+        <v>4</v>
+      </c>
+      <c r="P28" s="118" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q28" s="45"/>
+      <c r="V28" s="108" t="s">
+        <v>202</v>
+      </c>
+      <c r="W28" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="X28" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="102"/>
+      <c r="AA28" s="102"/>
+      <c r="AB28" s="102"/>
+      <c r="AC28" s="109"/>
+    </row>
+    <row r="29" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="203" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="36">
+        <v>1</v>
+      </c>
+      <c r="D29" s="36">
+        <v>4</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29" s="134"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="45"/>
+      <c r="V29" s="108"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="102"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="102"/>
+      <c r="AC29" s="109"/>
+    </row>
+    <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="203"/>
+      <c r="B30" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="36">
+        <v>1</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="134"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="45"/>
+      <c r="V30" s="108" t="s">
+        <v>213</v>
+      </c>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="102"/>
+      <c r="AB30" s="102"/>
+      <c r="AC30" s="109"/>
+    </row>
+    <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="204"/>
+      <c r="B31" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="C31" s="44">
+        <v>1</v>
+      </c>
+      <c r="D31" s="44">
+        <v>4</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="46"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="45"/>
+      <c r="U31" s="96"/>
+      <c r="V31" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="W31" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="X31" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="109"/>
+      <c r="AD31" s="96"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="42"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="41"/>
+      <c r="U32" s="96"/>
+      <c r="V32" s="125" t="s">
+        <v>278</v>
+      </c>
+      <c r="W32" s="126" t="s">
+        <v>335</v>
+      </c>
+      <c r="X32" s="127" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y32" s="126"/>
+      <c r="Z32" s="126"/>
+      <c r="AA32" s="126"/>
+      <c r="AB32" s="126"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="96"/>
+    </row>
+    <row r="33" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="191" t="s">
+        <v>295</v>
+      </c>
+      <c r="C33" s="192"/>
+      <c r="D33" s="192"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="192"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="146"/>
+      <c r="L33" s="165" t="s">
+        <v>338</v>
+      </c>
+      <c r="M33" s="166"/>
+      <c r="N33" s="166"/>
+      <c r="O33" s="166"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="166"/>
+      <c r="R33" s="166"/>
+      <c r="S33" s="167"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="96"/>
+      <c r="X33" s="96"/>
+      <c r="Y33" s="96"/>
+      <c r="Z33" s="96"/>
+      <c r="AA33" s="96"/>
+      <c r="AB33" s="96"/>
+      <c r="AC33" s="152"/>
+      <c r="AD33" s="27"/>
+    </row>
+    <row r="34" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="33"/>
+      <c r="L34" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="96"/>
+      <c r="V34" s="96"/>
+      <c r="W34" s="96"/>
+      <c r="X34" s="96"/>
+      <c r="Y34" s="96"/>
+      <c r="Z34" s="96"/>
+      <c r="AA34" s="96"/>
+      <c r="AB34" s="96"/>
+      <c r="AC34" s="96"/>
+      <c r="AD34" s="151"/>
+    </row>
+    <row r="35" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="33"/>
+      <c r="L35" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="M35" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="N35" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="O35" s="102"/>
+      <c r="P35" s="102"/>
+      <c r="Q35" s="102"/>
+      <c r="R35" s="102"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="107"/>
+      <c r="U35" s="96"/>
+      <c r="V35" s="96"/>
+      <c r="W35" s="96"/>
+      <c r="X35" s="96"/>
+      <c r="Y35" s="96"/>
+      <c r="Z35" s="96"/>
+      <c r="AA35" s="96"/>
+      <c r="AB35" s="96"/>
+      <c r="AC35" s="96"/>
+      <c r="AD35" s="107"/>
+    </row>
+    <row r="36" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="27"/>
+      <c r="L36" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="M36" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="N36" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="O36" s="102"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="102"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="96"/>
+      <c r="AC36" s="96"/>
+      <c r="AD36" s="107"/>
+    </row>
+    <row r="37" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="27"/>
+      <c r="L37" s="108" t="s">
+        <v>226</v>
+      </c>
+      <c r="M37" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="N37" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="O37" s="102"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="102"/>
+      <c r="S37" s="109"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="96"/>
+      <c r="AD37" s="107"/>
+    </row>
+    <row r="38" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="90" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="M38" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="N38" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="O38" s="102"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="102"/>
+      <c r="S38" s="109"/>
+      <c r="T38" s="107"/>
+      <c r="U38" s="96"/>
+      <c r="AD38" s="107"/>
+    </row>
+    <row r="39" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="M39" s="102" t="s">
+        <v>298</v>
+      </c>
+      <c r="N39" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="O39" s="102"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="R39" s="102"/>
+      <c r="S39" s="109"/>
+      <c r="T39" s="107"/>
+      <c r="U39" s="96"/>
+      <c r="AD39" s="107"/>
+    </row>
+    <row r="40" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="M40" s="102" t="s">
+        <v>298</v>
+      </c>
+      <c r="N40" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="O40" s="102"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="102"/>
+      <c r="S40" s="109"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="96"/>
+      <c r="AD40" s="107"/>
+    </row>
+    <row r="41" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="108" t="s">
+        <v>232</v>
+      </c>
+      <c r="M41" s="102" t="s">
+        <v>298</v>
+      </c>
+      <c r="N41" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="O41" s="102"/>
+      <c r="P41" s="102"/>
+      <c r="Q41" s="102"/>
+      <c r="R41" s="102"/>
+      <c r="S41" s="109"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="96"/>
+      <c r="AD41" s="107"/>
+    </row>
+    <row r="42" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="108" t="s">
+        <v>234</v>
+      </c>
+      <c r="M42" s="102" t="s">
+        <v>298</v>
+      </c>
+      <c r="N42" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="O42" s="102"/>
+      <c r="P42" s="102"/>
+      <c r="Q42" s="102"/>
+      <c r="R42" s="102"/>
+      <c r="S42" s="109"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="96"/>
+      <c r="AD42" s="107"/>
+    </row>
+    <row r="43" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="108" t="s">
+        <v>235</v>
+      </c>
+      <c r="M43" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="N43" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="O43" s="102"/>
+      <c r="P43" s="102"/>
+      <c r="Q43" s="102"/>
+      <c r="R43" s="102"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="61"/>
+      <c r="U43" s="96"/>
+      <c r="AD43" s="107"/>
+    </row>
+    <row r="44" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="108" t="s">
+        <v>174</v>
+      </c>
+      <c r="M44" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="N44" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="O44" s="102"/>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="102"/>
+      <c r="R44" s="102"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="61"/>
+      <c r="U44" s="96"/>
+      <c r="AD44" s="107"/>
+    </row>
+    <row r="45" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="108" t="s">
+        <v>237</v>
+      </c>
+      <c r="M45" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="N45" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="O45" s="102"/>
+      <c r="P45" s="102"/>
+      <c r="Q45" s="102"/>
+      <c r="R45" s="102"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="96"/>
+      <c r="AD45" s="107"/>
+    </row>
+    <row r="46" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="108" t="s">
+        <v>239</v>
+      </c>
+      <c r="M46" s="102" t="s">
+        <v>300</v>
+      </c>
+      <c r="N46" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="O46" s="102"/>
+      <c r="P46" s="102"/>
+      <c r="Q46" s="102"/>
+      <c r="R46" s="102"/>
+      <c r="S46" s="109"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="96"/>
+      <c r="AD46" s="107"/>
+    </row>
+    <row r="47" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="M47" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="N47" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="O47" s="102"/>
+      <c r="P47" s="102"/>
+      <c r="Q47" s="102"/>
+      <c r="R47" s="102"/>
+      <c r="S47" s="109"/>
+      <c r="T47" s="61"/>
+      <c r="U47" s="96"/>
+      <c r="AD47" s="107"/>
+    </row>
+    <row r="48" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="M48" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="N48" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="O48" s="102"/>
+      <c r="P48" s="102"/>
+      <c r="Q48" s="102"/>
+      <c r="R48" s="102"/>
+      <c r="S48" s="109"/>
+      <c r="T48" s="61"/>
+      <c r="U48" s="96"/>
+      <c r="AD48" s="107"/>
+    </row>
+    <row r="49" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="90" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="M49" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="N49" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="O49" s="102"/>
+      <c r="P49" s="102"/>
+      <c r="Q49" s="102"/>
+      <c r="R49" s="102"/>
+      <c r="S49" s="109"/>
+      <c r="T49" s="61"/>
+      <c r="U49" s="96"/>
+      <c r="AD49" s="107"/>
+    </row>
+    <row r="50" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="M50" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="N50" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="O50" s="102"/>
+      <c r="P50" s="102"/>
+      <c r="Q50" s="102"/>
+      <c r="R50" s="102"/>
+      <c r="S50" s="109"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="96"/>
+      <c r="AD50" s="107"/>
+    </row>
+    <row r="51" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="96"/>
+      <c r="L51" s="108" t="s">
+        <v>170</v>
+      </c>
+      <c r="M51" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="N51" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="O51" s="102"/>
+      <c r="P51" s="102"/>
+      <c r="Q51" s="102"/>
+      <c r="R51" s="102"/>
+      <c r="S51" s="109"/>
+      <c r="T51" s="61"/>
+      <c r="U51" s="96"/>
+      <c r="AD51" s="96"/>
+    </row>
+    <row r="52" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="90"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="102"/>
+      <c r="N52" s="102"/>
+      <c r="O52" s="102"/>
+      <c r="P52" s="102"/>
+      <c r="Q52" s="102"/>
+      <c r="R52" s="102"/>
+      <c r="S52" s="109"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="96"/>
+      <c r="AD52" s="96"/>
+    </row>
+    <row r="53" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="M53" s="102"/>
+      <c r="N53" s="102"/>
+      <c r="O53" s="102"/>
+      <c r="P53" s="102"/>
+      <c r="Q53" s="102"/>
+      <c r="R53" s="102"/>
+      <c r="S53" s="109"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="96"/>
+      <c r="AD53" s="96"/>
+    </row>
+    <row r="54" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="M54" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="N54" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="O54" s="102"/>
+      <c r="P54" s="102"/>
+      <c r="Q54" s="102"/>
+      <c r="R54" s="102"/>
+      <c r="S54" s="109"/>
+      <c r="T54" s="61"/>
+    </row>
+    <row r="55" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="90" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="M55" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="N55" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O55" s="102"/>
+      <c r="P55" s="102"/>
+      <c r="Q55" s="102"/>
+      <c r="R55" s="102"/>
+      <c r="S55" s="109"/>
+      <c r="T55" s="61"/>
+    </row>
+    <row r="56" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="90" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="108" t="s">
+        <v>250</v>
+      </c>
+      <c r="M56" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="N56" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O56" s="102"/>
+      <c r="P56" s="102"/>
+      <c r="Q56" s="102"/>
+      <c r="R56" s="102"/>
+      <c r="S56" s="109"/>
+      <c r="T56" s="61"/>
+    </row>
+    <row r="57" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="90" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="108" t="s">
+        <v>251</v>
+      </c>
+      <c r="M57" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="N57" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O57" s="102"/>
+      <c r="P57" s="102"/>
+      <c r="Q57" s="102"/>
+      <c r="R57" s="102"/>
+      <c r="S57" s="109"/>
+      <c r="T57" s="61"/>
+    </row>
+    <row r="58" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="90" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="108" t="s">
+        <v>252</v>
+      </c>
+      <c r="M58" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="N58" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O58" s="102"/>
+      <c r="P58" s="102"/>
+      <c r="Q58" s="102"/>
+      <c r="R58" s="102"/>
+      <c r="S58" s="109"/>
+      <c r="T58" s="61"/>
+    </row>
+    <row r="59" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="M59" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="N59" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O59" s="102"/>
+      <c r="P59" s="102"/>
+      <c r="Q59" s="102"/>
+      <c r="R59" s="102"/>
+      <c r="S59" s="109"/>
+      <c r="T59" s="61"/>
+    </row>
+    <row r="60" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="96"/>
+      <c r="L60" s="108" t="s">
+        <v>254</v>
+      </c>
+      <c r="M60" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="N60" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O60" s="102"/>
+      <c r="P60" s="102"/>
+      <c r="Q60" s="102"/>
+      <c r="R60" s="102"/>
+      <c r="S60" s="109"/>
+      <c r="T60" s="107"/>
+    </row>
+    <row r="61" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="108" t="s">
+        <v>187</v>
+      </c>
+      <c r="M61" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="N61" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O61" s="102"/>
+      <c r="P61" s="102"/>
+      <c r="Q61" s="102"/>
+      <c r="R61" s="102"/>
+      <c r="S61" s="109"/>
+      <c r="T61" s="107"/>
+    </row>
+    <row r="62" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="108" t="s">
+        <v>303</v>
+      </c>
+      <c r="M62" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="N62" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O62" s="102"/>
+      <c r="P62" s="102"/>
+      <c r="Q62" s="102"/>
+      <c r="R62" s="102"/>
+      <c r="S62" s="109"/>
+      <c r="T62" s="107"/>
+    </row>
+    <row r="63" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="96"/>
+      <c r="L63" s="108" t="s">
+        <v>305</v>
+      </c>
+      <c r="M63" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="N63" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O63" s="102"/>
+      <c r="P63" s="102"/>
+      <c r="Q63" s="102"/>
+      <c r="R63" s="102"/>
+      <c r="S63" s="109"/>
+      <c r="T63" s="107"/>
+    </row>
+    <row r="64" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="96"/>
+      <c r="L64" s="108" t="s">
+        <v>306</v>
+      </c>
+      <c r="M64" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="N64" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O64" s="102"/>
+      <c r="P64" s="102"/>
+      <c r="Q64" s="102"/>
+      <c r="R64" s="102"/>
+      <c r="S64" s="109"/>
+      <c r="T64" s="107"/>
+    </row>
+    <row r="65" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="96"/>
+      <c r="L65" s="108" t="s">
+        <v>307</v>
+      </c>
+      <c r="M65" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="N65" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O65" s="102"/>
+      <c r="P65" s="102"/>
+      <c r="Q65" s="102"/>
+      <c r="R65" s="102"/>
+      <c r="S65" s="109"/>
+      <c r="T65" s="107"/>
+    </row>
+    <row r="66" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="96"/>
+      <c r="L66" s="108" t="s">
+        <v>308</v>
+      </c>
+      <c r="M66" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="N66" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O66" s="102"/>
+      <c r="P66" s="102"/>
+      <c r="Q66" s="102"/>
+      <c r="R66" s="102"/>
+      <c r="S66" s="109"/>
+      <c r="T66" s="107"/>
+    </row>
+    <row r="67" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="96"/>
+      <c r="L67" s="108" t="s">
+        <v>309</v>
+      </c>
+      <c r="M67" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="N67" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O67" s="102"/>
+      <c r="P67" s="102"/>
+      <c r="Q67" s="102"/>
+      <c r="R67" s="102"/>
+      <c r="S67" s="109"/>
+      <c r="T67" s="107"/>
+    </row>
+    <row r="68" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="96"/>
+      <c r="L68" s="108" t="s">
+        <v>310</v>
+      </c>
+      <c r="M68" s="102" t="s">
+        <v>311</v>
+      </c>
+      <c r="N68" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O68" s="102"/>
+      <c r="P68" s="102"/>
+      <c r="Q68" s="102"/>
+      <c r="R68" s="102"/>
+      <c r="S68" s="109"/>
+      <c r="T68" s="107"/>
+    </row>
+    <row r="69" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="96"/>
+      <c r="L69" s="108" t="s">
+        <v>312</v>
+      </c>
+      <c r="M69" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="N69" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O69" s="102"/>
+      <c r="P69" s="102"/>
+      <c r="Q69" s="102"/>
+      <c r="R69" s="102"/>
+      <c r="S69" s="109"/>
+      <c r="T69" s="107"/>
+    </row>
+    <row r="70" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="96"/>
+      <c r="L70" s="108" t="s">
+        <v>313</v>
+      </c>
+      <c r="M70" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="N70" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O70" s="102"/>
+      <c r="P70" s="102"/>
+      <c r="Q70" s="102"/>
+      <c r="R70" s="102"/>
+      <c r="S70" s="109"/>
+      <c r="T70" s="107"/>
+    </row>
+    <row r="71" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="32"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="96"/>
+      <c r="L71" s="108" t="s">
+        <v>314</v>
+      </c>
+      <c r="M71" s="102" t="s">
+        <v>315</v>
+      </c>
+      <c r="N71" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O71" s="102"/>
+      <c r="P71" s="102"/>
+      <c r="Q71" s="102"/>
+      <c r="R71" s="102"/>
+      <c r="S71" s="109"/>
+      <c r="T71" s="107"/>
+    </row>
+    <row r="72" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="96"/>
+      <c r="L72" s="108" t="s">
+        <v>316</v>
+      </c>
+      <c r="M72" s="102" t="s">
+        <v>315</v>
+      </c>
+      <c r="N72" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O72" s="102"/>
+      <c r="P72" s="102"/>
+      <c r="Q72" s="102"/>
+      <c r="R72" s="102"/>
+      <c r="S72" s="109"/>
+      <c r="T72" s="107"/>
+    </row>
+    <row r="73" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="96"/>
+      <c r="L73" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="M73" s="102" t="s">
+        <v>315</v>
+      </c>
+      <c r="N73" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O73" s="102"/>
+      <c r="P73" s="102"/>
+      <c r="Q73" s="102"/>
+      <c r="R73" s="102"/>
+      <c r="S73" s="109"/>
+      <c r="T73" s="107"/>
+    </row>
+    <row r="74" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="96"/>
+      <c r="L74" s="108"/>
+      <c r="M74" s="102"/>
+      <c r="N74" s="102"/>
+      <c r="O74" s="102"/>
+      <c r="P74" s="102"/>
+      <c r="Q74" s="102"/>
+      <c r="R74" s="102"/>
+      <c r="S74" s="109"/>
+      <c r="T74" s="107"/>
+    </row>
+    <row r="75" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="80" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" s="81" t="s">
+        <v>270</v>
+      </c>
+      <c r="E75" s="81"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="81"/>
+      <c r="I75" s="82"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="96"/>
+      <c r="L75" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="M75" s="102"/>
+      <c r="N75" s="102"/>
+      <c r="O75" s="102"/>
+      <c r="P75" s="102"/>
+      <c r="Q75" s="102"/>
+      <c r="R75" s="102"/>
+      <c r="S75" s="109"/>
+      <c r="T75" s="107"/>
+    </row>
+    <row r="76" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="96"/>
+      <c r="L76" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="M76" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="N76" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="O76" s="102"/>
+      <c r="P76" s="102"/>
+      <c r="Q76" s="102"/>
+      <c r="R76" s="102"/>
+      <c r="S76" s="109"/>
+      <c r="T76" s="107"/>
+    </row>
+    <row r="77" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="96"/>
+      <c r="L77" s="108" t="s">
+        <v>268</v>
+      </c>
+      <c r="M77" s="102" t="s">
+        <v>318</v>
+      </c>
+      <c r="N77" s="110" t="s">
+        <v>319</v>
+      </c>
+      <c r="O77" s="102"/>
+      <c r="P77" s="102"/>
+      <c r="Q77" s="102"/>
+      <c r="R77" s="102"/>
+      <c r="S77" s="109"/>
+      <c r="T77" s="107"/>
+    </row>
+    <row r="78" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="96"/>
+      <c r="L78" s="108" t="s">
+        <v>204</v>
+      </c>
+      <c r="M78" s="102" t="s">
+        <v>320</v>
+      </c>
+      <c r="N78" s="102" t="s">
+        <v>320</v>
+      </c>
+      <c r="O78" s="102"/>
+      <c r="P78" s="102"/>
+      <c r="Q78" s="102"/>
+      <c r="R78" s="102"/>
+      <c r="S78" s="109"/>
+      <c r="T78" s="107"/>
+    </row>
+    <row r="79" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="96"/>
+      <c r="L79" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="M79" s="102" t="s">
+        <v>320</v>
+      </c>
+      <c r="N79" s="102" t="s">
+        <v>320</v>
+      </c>
+      <c r="O79" s="102"/>
+      <c r="P79" s="102"/>
+      <c r="Q79" s="102"/>
+      <c r="R79" s="102"/>
+      <c r="S79" s="109"/>
+      <c r="T79" s="107"/>
+    </row>
+    <row r="80" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="96"/>
+      <c r="L80" s="108" t="s">
+        <v>210</v>
+      </c>
+      <c r="M80" s="102" t="s">
+        <v>321</v>
+      </c>
+      <c r="N80" s="110" t="s">
+        <v>322</v>
+      </c>
+      <c r="O80" s="102"/>
+      <c r="P80" s="102"/>
+      <c r="Q80" s="102"/>
+      <c r="R80" s="102"/>
+      <c r="S80" s="109"/>
+      <c r="T80" s="107"/>
+    </row>
+    <row r="81" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="96"/>
+      <c r="L81" s="108" t="s">
+        <v>208</v>
+      </c>
+      <c r="M81" s="102" t="s">
+        <v>323</v>
+      </c>
+      <c r="N81" s="110" t="s">
+        <v>324</v>
+      </c>
+      <c r="O81" s="102"/>
+      <c r="P81" s="102"/>
+      <c r="Q81" s="102"/>
+      <c r="R81" s="102"/>
+      <c r="S81" s="109"/>
+      <c r="T81" s="107"/>
+    </row>
+    <row r="82" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="32"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="96"/>
+      <c r="L82" s="108" t="s">
+        <v>212</v>
+      </c>
+      <c r="M82" s="102" t="s">
+        <v>325</v>
+      </c>
+      <c r="N82" s="110" t="s">
+        <v>322</v>
+      </c>
+      <c r="O82" s="102"/>
+      <c r="P82" s="102"/>
+      <c r="Q82" s="102"/>
+      <c r="R82" s="102"/>
+      <c r="S82" s="109"/>
+      <c r="T82" s="107"/>
+    </row>
+    <row r="83" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="96"/>
+      <c r="L83" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="M83" s="102" t="s">
+        <v>326</v>
+      </c>
+      <c r="N83" s="110" t="s">
+        <v>326</v>
+      </c>
+      <c r="O83" s="102"/>
+      <c r="P83" s="102"/>
+      <c r="Q83" s="102"/>
+      <c r="R83" s="102"/>
+      <c r="S83" s="109"/>
+      <c r="T83" s="107"/>
+    </row>
+    <row r="84" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="27"/>
+      <c r="L84" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="M84" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="N84" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="O84" s="57"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="57"/>
+      <c r="R84" s="57"/>
+      <c r="S84" s="62"/>
+      <c r="T84" s="61"/>
+    </row>
+    <row r="85" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="C85" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="D85" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="E85" s="81"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="81"/>
+      <c r="H85" s="81"/>
+      <c r="I85" s="82"/>
+      <c r="J85" s="27"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="57"/>
+      <c r="N85" s="57"/>
+      <c r="O85" s="57"/>
+      <c r="P85" s="57"/>
+      <c r="Q85" s="57"/>
+      <c r="R85" s="57"/>
+      <c r="S85" s="62"/>
+      <c r="T85" s="61"/>
+    </row>
+    <row r="86" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="80" t="s">
+        <v>281</v>
+      </c>
+      <c r="C86" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="D86" s="81" t="s">
+        <v>283</v>
+      </c>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81"/>
+      <c r="H86" s="81"/>
+      <c r="I86" s="82"/>
+      <c r="J86" s="27"/>
+      <c r="L86" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M86" s="57"/>
+      <c r="N86" s="57"/>
+      <c r="O86" s="57"/>
+      <c r="P86" s="57"/>
+      <c r="Q86" s="57"/>
+      <c r="R86" s="57"/>
+      <c r="S86" s="62"/>
+      <c r="T86" s="61"/>
+    </row>
+    <row r="87" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="27"/>
+      <c r="L87" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="M87" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="N87" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="O87" s="57"/>
+      <c r="P87" s="57"/>
+      <c r="Q87" s="57"/>
+      <c r="R87" s="57"/>
+      <c r="S87" s="62"/>
+      <c r="T87" s="61"/>
+    </row>
+    <row r="88" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="C88" s="81" t="s">
+        <v>287</v>
+      </c>
+      <c r="D88" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="E88" s="81"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="81"/>
+      <c r="H88" s="81"/>
+      <c r="I88" s="82"/>
+      <c r="J88" s="27"/>
+      <c r="L88" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="M88" s="84" t="s">
+        <v>282</v>
+      </c>
+      <c r="N88" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="O88" s="84"/>
+      <c r="P88" s="84"/>
+      <c r="Q88" s="84"/>
+      <c r="R88" s="84"/>
+      <c r="S88" s="86"/>
+      <c r="T88" s="61"/>
+    </row>
+    <row r="89" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="27"/>
+      <c r="L89" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="M89" s="84" t="s">
+        <v>330</v>
+      </c>
+      <c r="N89" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="O89" s="84"/>
+      <c r="P89" s="84"/>
+      <c r="Q89" s="84"/>
+      <c r="R89" s="84"/>
+      <c r="S89" s="86"/>
+      <c r="T89" s="61"/>
+    </row>
+    <row r="90" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="D90" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="81"/>
+      <c r="H90" s="81"/>
+      <c r="I90" s="82"/>
+      <c r="J90" s="27"/>
+      <c r="L90" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="M90" s="84" t="s">
+        <v>331</v>
+      </c>
+      <c r="N90" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="O90" s="84"/>
+      <c r="P90" s="84"/>
+      <c r="Q90" s="84"/>
+      <c r="R90" s="84"/>
+      <c r="S90" s="86"/>
+      <c r="T90" s="61"/>
+    </row>
+    <row r="91" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="27"/>
+      <c r="L91" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="M91" s="57" t="s">
+        <v>332</v>
+      </c>
+      <c r="N91" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="O91" s="57"/>
+      <c r="P91" s="57"/>
+      <c r="Q91" s="57"/>
+      <c r="R91" s="57"/>
+      <c r="S91" s="62"/>
+      <c r="T91" s="61"/>
+    </row>
+    <row r="92" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L92" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="M92" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="N92" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="O92" s="64"/>
+      <c r="P92" s="64"/>
+      <c r="Q92" s="64"/>
+      <c r="R92" s="64"/>
+      <c r="S92" s="66"/>
+      <c r="T92" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L33:S33"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6D1874-8C47-4A8D-A6C6-DC691505BBAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B12E63A-2830-48BF-AC3A-BB6311307E76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="1230" windowWidth="21600" windowHeight="11505" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="376">
   <si>
     <t>Item#</t>
   </si>
@@ -1215,6 +1215,15 @@
   <si>
     <t>Body Temp Sensor
 (BodyTempSensor.kicad_pcb</t>
+  </si>
+  <si>
+    <t>AD5933 - Impedance Analyzer</t>
+  </si>
+  <si>
+    <t>ADG849 Switch</t>
+  </si>
+  <si>
+    <t>AD8606 - Op Amp</t>
   </si>
 </sst>
 </file>
@@ -2302,20 +2311,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2361,120 +2484,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2805,7 +2814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AA6548-4DFA-4405-951F-1160BBC52D4F}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -2823,12 +2832,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="153" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
       <c r="I1" s="70"/>
       <c r="J1" s="70"/>
       <c r="K1" s="70"/>
@@ -2860,7 +2869,7 @@
       <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="156" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2885,7 +2894,7 @@
       <c r="M3" s="70"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="155"/>
+      <c r="A4" s="157"/>
       <c r="B4" s="5" t="s">
         <v>95</v>
       </c>
@@ -2905,7 +2914,7 @@
       <c r="M4" s="70"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="155"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="7" t="s">
         <v>127</v>
       </c>
@@ -2935,7 +2944,7 @@
       <c r="M6" s="70"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="154" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -2957,7 +2966,7 @@
       <c r="M7" s="70"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
+      <c r="A8" s="154"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -2977,7 +2986,7 @@
       <c r="M8" s="70"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
+      <c r="A9" s="154"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -2997,7 +3006,7 @@
       <c r="M9" s="70"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="153"/>
+      <c r="A10" s="154"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3017,7 +3026,7 @@
       <c r="M10" s="70"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
+      <c r="A11" s="154"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3037,7 +3046,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="153"/>
+      <c r="A12" s="154"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3093,7 +3102,7 @@
       <c r="M15" s="70"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -3112,7 +3121,7 @@
       <c r="M16" s="70"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="153"/>
+      <c r="A17" s="154"/>
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
@@ -3129,7 +3138,7 @@
       <c r="M17" s="70"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="153"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -3146,7 +3155,7 @@
       <c r="M18" s="70"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="153"/>
+      <c r="A19" s="154"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
@@ -3163,7 +3172,7 @@
       <c r="M19" s="70"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="153"/>
+      <c r="A20" s="154"/>
       <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
@@ -3180,7 +3189,7 @@
       <c r="M20" s="70"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="153"/>
+      <c r="A21" s="154"/>
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
@@ -3197,7 +3206,7 @@
       <c r="M21" s="70"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="153"/>
+      <c r="A22" s="154"/>
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
@@ -3214,7 +3223,7 @@
       <c r="M22" s="70"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="153"/>
+      <c r="A23" s="154"/>
       <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
@@ -3231,7 +3240,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="153"/>
+      <c r="A24" s="154"/>
       <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
@@ -3248,7 +3257,7 @@
       <c r="M24" s="70"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="153"/>
+      <c r="A25" s="154"/>
       <c r="B25" s="5" t="s">
         <v>40</v>
       </c>
@@ -3265,7 +3274,7 @@
       <c r="M25" s="70"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="153"/>
+      <c r="A26" s="154"/>
       <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
@@ -3282,7 +3291,7 @@
       <c r="M26" s="70"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="153"/>
+      <c r="A27" s="154"/>
       <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
@@ -3306,7 +3315,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="153" t="s">
+      <c r="A29" s="154" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3325,7 +3334,7 @@
       <c r="M29" s="70"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="153"/>
+      <c r="A30" s="154"/>
       <c r="B30" s="5" t="s">
         <v>47</v>
       </c>
@@ -3342,7 +3351,7 @@
       <c r="M30" s="70"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="153"/>
+      <c r="A31" s="154"/>
       <c r="B31" s="5" t="s">
         <v>44</v>
       </c>
@@ -3359,7 +3368,7 @@
       <c r="M31" s="70"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="153"/>
+      <c r="A32" s="154"/>
       <c r="B32" s="5" t="s">
         <v>50</v>
       </c>
@@ -3376,7 +3385,7 @@
       <c r="M32" s="70"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="153"/>
+      <c r="A33" s="154"/>
       <c r="B33" s="5" t="s">
         <v>53</v>
       </c>
@@ -3393,7 +3402,7 @@
       <c r="M33" s="70"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="153"/>
+      <c r="A34" s="154"/>
       <c r="B34" s="5" t="s">
         <v>55</v>
       </c>
@@ -3413,7 +3422,7 @@
       <c r="M34" s="70"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="153" t="s">
+      <c r="A36" s="154" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3427,7 +3436,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="153"/>
+      <c r="A37" s="154"/>
       <c r="B37" s="5" t="s">
         <v>61</v>
       </c>
@@ -3439,7 +3448,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="153" t="s">
+      <c r="A39" s="154" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -3459,7 +3468,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="153"/>
+      <c r="A40" s="154"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3474,7 +3483,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="153"/>
+      <c r="A41" s="154"/>
       <c r="B41" s="5" t="s">
         <v>84</v>
       </c>
@@ -3489,7 +3498,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="153"/>
+      <c r="A42" s="154"/>
       <c r="B42" s="5" t="s">
         <v>101</v>
       </c>
@@ -3518,7 +3527,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="156" t="s">
+      <c r="A45" s="155" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -3535,7 +3544,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="156"/>
+      <c r="A46" s="155"/>
       <c r="B46" s="5" t="s">
         <v>80</v>
       </c>
@@ -3554,7 +3563,7 @@
       <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="156" t="s">
+      <c r="A48" s="155" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -3571,7 +3580,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="156"/>
+      <c r="A49" s="155"/>
       <c r="B49" s="5" t="s">
         <v>140</v>
       </c>
@@ -3583,7 +3592,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="153" t="s">
+      <c r="A51" s="154" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3600,7 +3609,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="153"/>
+      <c r="A52" s="154"/>
       <c r="B52" s="5" t="s">
         <v>73</v>
       </c>
@@ -3612,7 +3621,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="153"/>
+      <c r="A53" s="154"/>
       <c r="B53" s="5" t="s">
         <v>75</v>
       </c>
@@ -3624,7 +3633,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="153"/>
+      <c r="A54" s="154"/>
       <c r="B54" s="5" t="s">
         <v>82</v>
       </c>
@@ -3636,7 +3645,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="153"/>
+      <c r="A55" s="154"/>
       <c r="B55" s="38" t="s">
         <v>88</v>
       </c>
@@ -3651,7 +3660,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="153"/>
+      <c r="A56" s="154"/>
       <c r="B56" s="5" t="s">
         <v>91</v>
       </c>
@@ -3663,7 +3672,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="153"/>
+      <c r="A57" s="154"/>
       <c r="B57" s="5" t="s">
         <v>93</v>
       </c>
@@ -3675,7 +3684,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="153"/>
+      <c r="A58" s="154"/>
       <c r="B58" s="5" t="s">
         <v>109</v>
       </c>
@@ -3687,7 +3696,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="153"/>
+      <c r="A59" s="154"/>
       <c r="B59" s="5" t="s">
         <v>111</v>
       </c>
@@ -3699,7 +3708,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="153"/>
+      <c r="A60" s="154"/>
       <c r="B60" s="9" t="s">
         <v>113</v>
       </c>
@@ -3714,7 +3723,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="153"/>
+      <c r="A61" s="154"/>
       <c r="B61" s="5" t="s">
         <v>118</v>
       </c>
@@ -3729,7 +3738,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="153"/>
+      <c r="A62" s="154"/>
       <c r="B62" s="38" t="s">
         <v>121</v>
       </c>
@@ -3744,7 +3753,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="153"/>
+      <c r="A63" s="154"/>
       <c r="B63" s="5" t="s">
         <v>123</v>
       </c>
@@ -3759,7 +3768,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="153"/>
+      <c r="A64" s="154"/>
       <c r="B64" s="5" t="s">
         <v>130</v>
       </c>
@@ -3774,7 +3783,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="153"/>
+      <c r="A65" s="154"/>
       <c r="B65" s="5" t="s">
         <v>133</v>
       </c>
@@ -3789,7 +3798,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="153"/>
+      <c r="A66" s="154"/>
       <c r="B66" s="5" t="s">
         <v>136</v>
       </c>
@@ -3804,7 +3813,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="153"/>
+      <c r="A67" s="154"/>
       <c r="B67" s="5" t="s">
         <v>142</v>
       </c>
@@ -3819,7 +3828,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="153"/>
+      <c r="A68" s="154"/>
       <c r="B68" s="9" t="s">
         <v>145</v>
       </c>
@@ -3834,7 +3843,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="153" t="s">
+      <c r="A70" s="154" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -3851,7 +3860,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="153"/>
+      <c r="A71" s="154"/>
       <c r="B71" s="5" t="s">
         <v>102</v>
       </c>
@@ -3863,7 +3872,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="153"/>
+      <c r="A72" s="154"/>
       <c r="B72" s="5" t="s">
         <v>115</v>
       </c>
@@ -3879,7 +3888,7 @@
       <c r="H73" s="26"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="153" t="s">
+      <c r="A74" s="154" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -3900,7 +3909,7 @@
       <c r="K74" s="26"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="153"/>
+      <c r="A75" s="154"/>
       <c r="B75" s="17">
         <v>2601151022113</v>
       </c>
@@ -3915,7 +3924,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="153"/>
+      <c r="A76" s="154"/>
       <c r="B76" s="17">
         <v>261151044113</v>
       </c>
@@ -3930,7 +3939,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="153"/>
+      <c r="A77" s="154"/>
       <c r="B77" s="17">
         <v>20012107818</v>
       </c>
@@ -3945,7 +3954,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="153"/>
+      <c r="A78" s="154"/>
       <c r="B78" s="17" t="s">
         <v>155</v>
       </c>
@@ -3960,7 +3969,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="153"/>
+      <c r="A79" s="154"/>
       <c r="B79" s="18">
         <v>260151022110</v>
       </c>
@@ -3975,7 +3984,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="153"/>
+      <c r="A80" s="154"/>
       <c r="B80" s="17">
         <v>260121011717</v>
       </c>
@@ -3990,7 +3999,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="153"/>
+      <c r="A81" s="154"/>
       <c r="B81" s="17">
         <v>20012104412</v>
       </c>
@@ -4006,11 +4015,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4018,6 +4022,11 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4028,8 +4037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AD92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4047,106 +4056,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="179" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="196"/>
-      <c r="H1" s="173" t="s">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
+      <c r="H1" s="158" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="174"/>
-      <c r="J1" s="175"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="160"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="197"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="184"/>
       <c r="H2" s="80"/>
-      <c r="I2" s="158" t="s">
+      <c r="I2" s="196" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="159"/>
+      <c r="J2" s="197"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="200"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="202"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="187"/>
       <c r="H3" s="148"/>
-      <c r="I3" s="158" t="s">
+      <c r="I3" s="196" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="159"/>
+      <c r="J3" s="197"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="190" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="206"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
       <c r="F4" s="45"/>
       <c r="G4" s="33"/>
       <c r="H4" s="149"/>
-      <c r="I4" s="160" t="s">
+      <c r="I4" s="198" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="161"/>
+      <c r="J4" s="199"/>
       <c r="K4" s="147"/>
-      <c r="L4" s="176" t="s">
+      <c r="L4" s="161" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="178"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="163"/>
       <c r="Q4" s="45"/>
       <c r="R4" s="96"/>
       <c r="U4" s="96"/>
-      <c r="V4" s="185" t="s">
+      <c r="V4" s="170" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="186"/>
-      <c r="X4" s="186"/>
-      <c r="Y4" s="186"/>
-      <c r="Z4" s="187"/>
+      <c r="W4" s="171"/>
+      <c r="X4" s="171"/>
+      <c r="Y4" s="171"/>
+      <c r="Z4" s="172"/>
       <c r="AA4" s="96"/>
       <c r="AB4" s="33"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="207"/>
-      <c r="B5" s="207"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="208"/>
+      <c r="A5" s="192"/>
+      <c r="B5" s="192"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="193"/>
       <c r="F5" s="45"/>
       <c r="G5" s="33"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
-      <c r="P5" s="181"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="165"/>
+      <c r="O5" s="165"/>
+      <c r="P5" s="166"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="96"/>
       <c r="U5" s="96"/>
-      <c r="V5" s="188"/>
-      <c r="W5" s="189"/>
-      <c r="X5" s="189"/>
-      <c r="Y5" s="189"/>
-      <c r="Z5" s="190"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="174"/>
+      <c r="X5" s="174"/>
+      <c r="Y5" s="174"/>
+      <c r="Z5" s="175"/>
       <c r="AA5" s="96"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4202,7 +4211,7 @@
       <c r="AA6" s="96"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="188" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="135" t="s">
@@ -4219,7 +4228,7 @@
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="33"/>
-      <c r="L7" s="182" t="s">
+      <c r="L7" s="167" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="91" t="s">
@@ -4254,7 +4263,7 @@
       <c r="AA7" s="96"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="203"/>
+      <c r="A8" s="188"/>
       <c r="B8" s="27" t="s">
         <v>167</v>
       </c>
@@ -4269,7 +4278,7 @@
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="33"/>
-      <c r="L8" s="183"/>
+      <c r="L8" s="168"/>
       <c r="M8" s="27" t="s">
         <v>341</v>
       </c>
@@ -4302,7 +4311,7 @@
       <c r="AA8" s="96"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="203"/>
+      <c r="A9" s="188"/>
       <c r="B9" s="27" t="s">
         <v>169</v>
       </c>
@@ -4317,7 +4326,7 @@
       </c>
       <c r="F9" s="134"/>
       <c r="G9" s="33"/>
-      <c r="L9" s="183"/>
+      <c r="L9" s="168"/>
       <c r="M9" s="73" t="s">
         <v>173</v>
       </c>
@@ -4350,7 +4359,7 @@
       <c r="AA9" s="96"/>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="203"/>
+      <c r="A10" s="188"/>
       <c r="B10" s="27" t="s">
         <v>172</v>
       </c>
@@ -4365,7 +4374,7 @@
       </c>
       <c r="F10" s="134"/>
       <c r="G10" s="33"/>
-      <c r="L10" s="183"/>
+      <c r="L10" s="168"/>
       <c r="M10" s="73" t="s">
         <v>178</v>
       </c>
@@ -4398,7 +4407,7 @@
       <c r="AA10" s="96"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="203"/>
+      <c r="A11" s="188"/>
       <c r="B11" s="27" t="s">
         <v>173</v>
       </c>
@@ -4412,7 +4421,7 @@
         <v>175</v>
       </c>
       <c r="F11" s="134"/>
-      <c r="L11" s="183"/>
+      <c r="L11" s="168"/>
       <c r="M11" s="27" t="s">
         <v>345</v>
       </c>
@@ -4435,7 +4444,7 @@
       <c r="AA11" s="33"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="203"/>
+      <c r="A12" s="188"/>
       <c r="B12" s="27" t="s">
         <v>176</v>
       </c>
@@ -4449,7 +4458,7 @@
         <v>177</v>
       </c>
       <c r="F12" s="134"/>
-      <c r="L12" s="183"/>
+      <c r="L12" s="168"/>
       <c r="M12" s="27" t="s">
         <v>348</v>
       </c>
@@ -4472,7 +4481,7 @@
       <c r="AA12" s="33"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="203"/>
+      <c r="A13" s="188"/>
       <c r="B13" s="27" t="s">
         <v>178</v>
       </c>
@@ -4486,7 +4495,7 @@
         <v>179</v>
       </c>
       <c r="F13" s="134"/>
-      <c r="L13" s="183"/>
+      <c r="L13" s="168"/>
       <c r="M13" s="73" t="s">
         <v>181</v>
       </c>
@@ -4509,7 +4518,7 @@
       <c r="AB13" s="96"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="209"/>
+      <c r="A14" s="194"/>
       <c r="B14" s="94" t="s">
         <v>181</v>
       </c>
@@ -4523,7 +4532,7 @@
         <v>182</v>
       </c>
       <c r="F14" s="134"/>
-      <c r="L14" s="184"/>
+      <c r="L14" s="169"/>
       <c r="M14" s="94" t="s">
         <v>350</v>
       </c>
@@ -4547,7 +4556,7 @@
       <c r="AC14" s="96"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="210" t="s">
+      <c r="A15" s="195" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="95" t="s">
@@ -4563,7 +4572,7 @@
         <v>187</v>
       </c>
       <c r="F15" s="134"/>
-      <c r="L15" s="168" t="s">
+      <c r="L15" s="206" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="115" t="s">
@@ -4579,19 +4588,19 @@
         <v>352</v>
       </c>
       <c r="Q15" s="45"/>
-      <c r="V15" s="162" t="s">
+      <c r="V15" s="200" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="163"/>
-      <c r="X15" s="163"/>
-      <c r="Y15" s="163"/>
-      <c r="Z15" s="163"/>
-      <c r="AA15" s="163"/>
-      <c r="AB15" s="163"/>
-      <c r="AC15" s="164"/>
+      <c r="W15" s="201"/>
+      <c r="X15" s="201"/>
+      <c r="Y15" s="201"/>
+      <c r="Z15" s="201"/>
+      <c r="AA15" s="201"/>
+      <c r="AB15" s="201"/>
+      <c r="AC15" s="202"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="203"/>
+      <c r="A16" s="188"/>
       <c r="B16" s="27" t="s">
         <v>183</v>
       </c>
@@ -4605,7 +4614,7 @@
         <v>184</v>
       </c>
       <c r="F16" s="134"/>
-      <c r="L16" s="169"/>
+      <c r="L16" s="207"/>
       <c r="M16" s="73" t="s">
         <v>183</v>
       </c>
@@ -4632,7 +4641,7 @@
       <c r="AC16" s="150"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="209"/>
+      <c r="A17" s="194"/>
       <c r="B17" s="94" t="s">
         <v>185</v>
       </c>
@@ -4646,7 +4655,7 @@
         <v>188</v>
       </c>
       <c r="F17" s="134"/>
-      <c r="L17" s="169"/>
+      <c r="L17" s="207"/>
       <c r="M17" s="73" t="s">
         <v>185</v>
       </c>
@@ -4676,7 +4685,7 @@
       <c r="AC17" s="106"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="210" t="s">
+      <c r="A18" s="195" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -4692,7 +4701,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="134"/>
-      <c r="L18" s="169"/>
+      <c r="L18" s="207"/>
       <c r="M18" s="27" t="s">
         <v>355</v>
       </c>
@@ -4722,7 +4731,7 @@
       <c r="AC18" s="109"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="203"/>
+      <c r="A19" s="188"/>
       <c r="B19" s="27" t="s">
         <v>191</v>
       </c>
@@ -4736,7 +4745,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="134"/>
-      <c r="L19" s="170"/>
+      <c r="L19" s="208"/>
       <c r="M19" s="94" t="s">
         <v>356</v>
       </c>
@@ -4766,7 +4775,7 @@
       <c r="AC19" s="109"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="203"/>
+      <c r="A20" s="188"/>
       <c r="B20" s="27" t="s">
         <v>193</v>
       </c>
@@ -4780,11 +4789,11 @@
         <v>194</v>
       </c>
       <c r="F20" s="134"/>
-      <c r="L20" s="168" t="s">
+      <c r="L20" s="206" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="112" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="N20" s="75">
         <v>1</v>
@@ -4806,7 +4815,7 @@
       <c r="AC20" s="109"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="203"/>
+      <c r="A21" s="188"/>
       <c r="B21" s="27" t="s">
         <v>195</v>
       </c>
@@ -4820,9 +4829,9 @@
         <v>196</v>
       </c>
       <c r="F21" s="134"/>
-      <c r="L21" s="169"/>
+      <c r="L21" s="207"/>
       <c r="M21" s="27" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="N21" s="51">
         <v>2</v>
@@ -4846,7 +4855,7 @@
       <c r="AC21" s="109"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="209"/>
+      <c r="A22" s="194"/>
       <c r="B22" s="94" t="s">
         <v>197</v>
       </c>
@@ -4860,9 +4869,9 @@
         <v>198</v>
       </c>
       <c r="F22" s="134"/>
-      <c r="L22" s="169"/>
+      <c r="L22" s="207"/>
       <c r="M22" s="27" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="N22" s="51">
         <v>1</v>
@@ -4890,7 +4899,7 @@
       <c r="AC22" s="109"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="210" t="s">
+      <c r="A23" s="195" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="33" t="s">
@@ -4906,7 +4915,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="134"/>
-      <c r="L23" s="169"/>
+      <c r="L23" s="207"/>
       <c r="M23" s="112" t="s">
         <v>359</v>
       </c>
@@ -4936,7 +4945,7 @@
       <c r="AC23" s="109"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="203"/>
+      <c r="A24" s="188"/>
       <c r="B24" s="27" t="s">
         <v>203</v>
       </c>
@@ -4950,7 +4959,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="134"/>
-      <c r="L24" s="169"/>
+      <c r="L24" s="207"/>
       <c r="M24" s="27" t="s">
         <v>360</v>
       </c>
@@ -4980,7 +4989,7 @@
       <c r="AC24" s="109"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="203"/>
+      <c r="A25" s="188"/>
       <c r="B25" s="27" t="s">
         <v>205</v>
       </c>
@@ -4994,7 +5003,7 @@
         <v>206</v>
       </c>
       <c r="F25" s="134"/>
-      <c r="L25" s="169"/>
+      <c r="L25" s="207"/>
       <c r="M25" s="74" t="s">
         <v>361</v>
       </c>
@@ -5018,7 +5027,7 @@
       <c r="AC25" s="109"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="203"/>
+      <c r="A26" s="188"/>
       <c r="B26" s="27" t="s">
         <v>207</v>
       </c>
@@ -5032,7 +5041,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="134"/>
-      <c r="L26" s="170"/>
+      <c r="L26" s="208"/>
       <c r="M26" s="77" t="s">
         <v>362</v>
       </c>
@@ -5058,7 +5067,7 @@
       <c r="AC26" s="109"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="203"/>
+      <c r="A27" s="188"/>
       <c r="B27" s="27" t="s">
         <v>209</v>
       </c>
@@ -5072,7 +5081,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="134"/>
-      <c r="L27" s="171" t="s">
+      <c r="L27" s="209" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="87" t="s">
@@ -5104,7 +5113,7 @@
       <c r="AC27" s="109"/>
     </row>
     <row r="28" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="209"/>
+      <c r="A28" s="194"/>
       <c r="B28" s="140" t="s">
         <v>211</v>
       </c>
@@ -5118,7 +5127,7 @@
         <v>212</v>
       </c>
       <c r="F28" s="134"/>
-      <c r="L28" s="172"/>
+      <c r="L28" s="210"/>
       <c r="M28" s="116" t="s">
         <v>364</v>
       </c>
@@ -5148,7 +5157,7 @@
       <c r="AC28" s="109"/>
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="203" t="s">
+      <c r="A29" s="188" t="s">
         <v>213</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -5181,7 +5190,7 @@
       <c r="AC29" s="109"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="203"/>
+      <c r="A30" s="188"/>
       <c r="B30" s="27" t="s">
         <v>216</v>
       </c>
@@ -5214,7 +5223,7 @@
       <c r="AC30" s="109"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="204"/>
+      <c r="A31" s="189"/>
       <c r="B31" s="43" t="s">
         <v>364</v>
       </c>
@@ -5284,27 +5293,27 @@
       <c r="AD32" s="96"/>
     </row>
     <row r="33" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="191" t="s">
+      <c r="B33" s="176" t="s">
         <v>295</v>
       </c>
-      <c r="C33" s="192"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="193"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="178"/>
       <c r="J33" s="146"/>
-      <c r="L33" s="165" t="s">
+      <c r="L33" s="203" t="s">
         <v>338</v>
       </c>
-      <c r="M33" s="166"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="166"/>
-      <c r="Q33" s="166"/>
-      <c r="R33" s="166"/>
-      <c r="S33" s="167"/>
+      <c r="M33" s="204"/>
+      <c r="N33" s="204"/>
+      <c r="O33" s="204"/>
+      <c r="P33" s="204"/>
+      <c r="Q33" s="204"/>
+      <c r="R33" s="204"/>
+      <c r="S33" s="205"/>
       <c r="U33" s="96"/>
       <c r="V33" s="96"/>
       <c r="W33" s="96"/>
@@ -7216,6 +7225,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L33:S33"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L28"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L4:P5"/>
     <mergeCell ref="L7:L14"/>
@@ -7232,10 +7245,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L33:S33"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B12E63A-2830-48BF-AC3A-BB6311307E76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0470DB64-D9BE-4225-829D-C0307D794463}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="377">
   <si>
     <t>Item#</t>
   </si>
@@ -1224,6 +1224,9 @@
   </si>
   <si>
     <t>AD8606 - Op Amp</t>
+  </si>
+  <si>
+    <t>AP2112K-3.3 Voltage Regulator</t>
   </si>
 </sst>
 </file>
@@ -1931,7 +1934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2484,6 +2487,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4035,10 +4044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
-  <dimension ref="A1:AD92"/>
+  <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5112,77 +5121,74 @@
       <c r="AB27" s="102"/>
       <c r="AC27" s="109"/>
     </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="194"/>
-      <c r="B28" s="140" t="s">
-        <v>211</v>
-      </c>
-      <c r="C28" s="138">
+    <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="188"/>
+      <c r="B28" s="81" t="s">
+        <v>376</v>
+      </c>
+      <c r="C28" s="212">
         <v>1</v>
       </c>
-      <c r="D28" s="138">
-        <v>4</v>
-      </c>
-      <c r="E28" s="142" t="s">
-        <v>212</v>
+      <c r="D28" s="212">
+        <v>0</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>268</v>
       </c>
       <c r="F28" s="134"/>
-      <c r="L28" s="210"/>
-      <c r="M28" s="116" t="s">
-        <v>364</v>
-      </c>
-      <c r="N28" s="117">
-        <v>1</v>
-      </c>
-      <c r="O28" s="117">
-        <v>4</v>
-      </c>
-      <c r="P28" s="118" t="s">
-        <v>219</v>
-      </c>
+      <c r="L28" s="211"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="54"/>
       <c r="Q28" s="45"/>
-      <c r="V28" s="108" t="s">
-        <v>202</v>
-      </c>
-      <c r="W28" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="X28" s="102" t="s">
-        <v>131</v>
-      </c>
+      <c r="V28" s="108"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
       <c r="Y28" s="102"/>
       <c r="Z28" s="102"/>
       <c r="AA28" s="102"/>
       <c r="AB28" s="102"/>
       <c r="AC28" s="109"/>
     </row>
-    <row r="29" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="188" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="C29" s="36">
+    <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="194"/>
+      <c r="B29" s="140" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="138">
         <v>1</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="138">
         <v>4</v>
       </c>
-      <c r="E29" s="48" t="s">
-        <v>215</v>
+      <c r="E29" s="142" t="s">
+        <v>212</v>
       </c>
       <c r="F29" s="134"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="55"/>
+      <c r="L29" s="210"/>
+      <c r="M29" s="116" t="s">
+        <v>364</v>
+      </c>
+      <c r="N29" s="117">
+        <v>1</v>
+      </c>
+      <c r="O29" s="117">
+        <v>4</v>
+      </c>
+      <c r="P29" s="118" t="s">
+        <v>219</v>
+      </c>
       <c r="Q29" s="45"/>
-      <c r="V29" s="108"/>
-      <c r="W29" s="102"/>
-      <c r="X29" s="102"/>
+      <c r="V29" s="108" t="s">
+        <v>202</v>
+      </c>
+      <c r="W29" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="X29" s="102" t="s">
+        <v>131</v>
+      </c>
       <c r="Y29" s="102"/>
       <c r="Z29" s="102"/>
       <c r="AA29" s="102"/>
@@ -5190,30 +5196,30 @@
       <c r="AC29" s="109"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="188"/>
+      <c r="A30" s="188" t="s">
+        <v>213</v>
+      </c>
       <c r="B30" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C30" s="36">
         <v>1</v>
       </c>
-      <c r="D30" s="34" t="s">
-        <v>217</v>
+      <c r="D30" s="36">
+        <v>4</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F30" s="134"/>
       <c r="K30" s="33"/>
       <c r="L30" s="35"/>
       <c r="M30" s="27"/>
       <c r="N30" s="51"/>
-      <c r="O30" s="50"/>
+      <c r="O30" s="51"/>
       <c r="P30" s="55"/>
       <c r="Q30" s="45"/>
-      <c r="V30" s="108" t="s">
-        <v>213</v>
-      </c>
+      <c r="V30" s="108"/>
       <c r="W30" s="102"/>
       <c r="X30" s="102"/>
       <c r="Y30" s="102"/>
@@ -5223,131 +5229,130 @@
       <c r="AC30" s="109"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="189"/>
-      <c r="B31" s="43" t="s">
-        <v>364</v>
-      </c>
-      <c r="C31" s="44">
+      <c r="A31" s="188"/>
+      <c r="B31" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="36">
         <v>1</v>
       </c>
-      <c r="D31" s="44">
-        <v>4</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="F31" s="46"/>
+      <c r="D31" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="134"/>
       <c r="K31" s="33"/>
       <c r="L31" s="35"/>
-      <c r="M31" s="40"/>
+      <c r="M31" s="27"/>
       <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
+      <c r="O31" s="50"/>
       <c r="P31" s="55"/>
       <c r="Q31" s="45"/>
-      <c r="U31" s="96"/>
       <c r="V31" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="W31" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="X31" s="102" t="s">
-        <v>222</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
       <c r="Y31" s="102"/>
       <c r="Z31" s="102"/>
       <c r="AA31" s="102"/>
       <c r="AB31" s="102"/>
       <c r="AC31" s="109"/>
-      <c r="AD31" s="96"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="42"/>
+    </row>
+    <row r="32" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="189"/>
+      <c r="B32" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" s="44">
+        <v>1</v>
+      </c>
+      <c r="D32" s="44">
+        <v>4</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" s="46"/>
       <c r="K32" s="33"/>
-      <c r="L32" s="37"/>
+      <c r="L32" s="35"/>
       <c r="M32" s="40"/>
       <c r="N32" s="51"/>
       <c r="O32" s="51"/>
       <c r="P32" s="55"/>
-      <c r="Q32" s="41"/>
+      <c r="Q32" s="45"/>
       <c r="U32" s="96"/>
-      <c r="V32" s="125" t="s">
+      <c r="V32" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="W32" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="X32" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="102"/>
+      <c r="AA32" s="102"/>
+      <c r="AB32" s="102"/>
+      <c r="AC32" s="109"/>
+      <c r="AD32" s="96"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="42"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="41"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="125" t="s">
         <v>278</v>
       </c>
-      <c r="W32" s="126" t="s">
+      <c r="W33" s="126" t="s">
         <v>335</v>
       </c>
-      <c r="X32" s="127" t="s">
+      <c r="X33" s="127" t="s">
         <v>336</v>
       </c>
-      <c r="Y32" s="126"/>
-      <c r="Z32" s="126"/>
-      <c r="AA32" s="126"/>
-      <c r="AB32" s="126"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="96"/>
-    </row>
-    <row r="33" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="176" t="s">
+      <c r="Y33" s="126"/>
+      <c r="Z33" s="126"/>
+      <c r="AA33" s="126"/>
+      <c r="AB33" s="126"/>
+      <c r="AC33" s="128"/>
+      <c r="AD33" s="96"/>
+    </row>
+    <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="176" t="s">
         <v>295</v>
       </c>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="146"/>
-      <c r="L33" s="203" t="s">
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="146"/>
+      <c r="L34" s="203" t="s">
         <v>338</v>
       </c>
-      <c r="M33" s="204"/>
-      <c r="N33" s="204"/>
-      <c r="O33" s="204"/>
-      <c r="P33" s="204"/>
-      <c r="Q33" s="204"/>
-      <c r="R33" s="204"/>
-      <c r="S33" s="205"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="96"/>
-      <c r="AB33" s="96"/>
-      <c r="AC33" s="152"/>
-      <c r="AD33" s="27"/>
-    </row>
-    <row r="34" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="33"/>
-      <c r="L34" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="61"/>
+      <c r="M34" s="204"/>
+      <c r="N34" s="204"/>
+      <c r="O34" s="204"/>
+      <c r="P34" s="204"/>
+      <c r="Q34" s="204"/>
+      <c r="R34" s="204"/>
+      <c r="S34" s="205"/>
       <c r="U34" s="96"/>
       <c r="V34" s="96"/>
       <c r="W34" s="96"/>
@@ -5356,40 +5361,32 @@
       <c r="Z34" s="96"/>
       <c r="AA34" s="96"/>
       <c r="AB34" s="96"/>
-      <c r="AC34" s="96"/>
-      <c r="AD34" s="151"/>
-    </row>
-    <row r="35" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC34" s="152"/>
+      <c r="AD34" s="27"/>
+    </row>
+    <row r="35" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>222</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="30"/>
       <c r="J35" s="33"/>
-      <c r="L35" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="M35" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="N35" s="102" t="s">
-        <v>222</v>
-      </c>
-      <c r="O35" s="102"/>
-      <c r="P35" s="102"/>
-      <c r="Q35" s="102"/>
-      <c r="R35" s="102"/>
-      <c r="S35" s="109"/>
-      <c r="T35" s="107"/>
+      <c r="L35" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="61"/>
       <c r="U35" s="96"/>
       <c r="V35" s="96"/>
       <c r="W35" s="96"/>
@@ -5399,32 +5396,32 @@
       <c r="AA35" s="96"/>
       <c r="AB35" s="96"/>
       <c r="AC35" s="96"/>
-      <c r="AD35" s="107"/>
-    </row>
-    <row r="36" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="80" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="81" t="s">
-        <v>224</v>
-      </c>
-      <c r="D36" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="27"/>
+      <c r="AD35" s="151"/>
+    </row>
+    <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="33"/>
       <c r="L36" s="108" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M36" s="102" t="s">
-        <v>231</v>
-      </c>
-      <c r="N36" s="110" t="s">
-        <v>229</v>
+        <v>221</v>
+      </c>
+      <c r="N36" s="102" t="s">
+        <v>222</v>
       </c>
       <c r="O36" s="102"/>
       <c r="P36" s="102"/>
@@ -5433,12 +5430,19 @@
       <c r="S36" s="109"/>
       <c r="T36" s="107"/>
       <c r="U36" s="96"/>
+      <c r="V36" s="96"/>
+      <c r="W36" s="96"/>
+      <c r="X36" s="96"/>
+      <c r="Y36" s="96"/>
+      <c r="Z36" s="96"/>
+      <c r="AA36" s="96"/>
+      <c r="AB36" s="96"/>
       <c r="AC36" s="96"/>
       <c r="AD36" s="107"/>
     </row>
-    <row r="37" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="80" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C37" s="81" t="s">
         <v>224</v>
@@ -5453,7 +5457,7 @@
       <c r="I37" s="82"/>
       <c r="J37" s="27"/>
       <c r="L37" s="108" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M37" s="102" t="s">
         <v>231</v>
@@ -5468,30 +5472,30 @@
       <c r="S37" s="109"/>
       <c r="T37" s="107"/>
       <c r="U37" s="96"/>
+      <c r="AC37" s="96"/>
       <c r="AD37" s="107"/>
     </row>
-    <row r="38" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="90" t="s">
-        <v>227</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="48"/>
+    <row r="38" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="82"/>
       <c r="J38" s="27"/>
-      <c r="K38" s="96"/>
       <c r="L38" s="108" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M38" s="102" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="N38" s="110" t="s">
         <v>229</v>
@@ -5505,9 +5509,9 @@
       <c r="U38" s="96"/>
       <c r="AD38" s="107"/>
     </row>
-    <row r="39" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="90" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>228</v>
@@ -5523,10 +5527,10 @@
       <c r="J39" s="27"/>
       <c r="K39" s="96"/>
       <c r="L39" s="108" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M39" s="102" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N39" s="110" t="s">
         <v>229</v>
@@ -5540,12 +5544,12 @@
       <c r="U39" s="96"/>
       <c r="AD39" s="107"/>
     </row>
-    <row r="40" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="90" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>229</v>
@@ -5558,7 +5562,7 @@
       <c r="J40" s="27"/>
       <c r="K40" s="96"/>
       <c r="L40" s="108" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="M40" s="102" t="s">
         <v>298</v>
@@ -5575,12 +5579,12 @@
       <c r="U40" s="96"/>
       <c r="AD40" s="107"/>
     </row>
-    <row r="41" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="90" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>229</v>
@@ -5593,7 +5597,7 @@
       <c r="J41" s="27"/>
       <c r="K41" s="96"/>
       <c r="L41" s="108" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="M41" s="102" t="s">
         <v>298</v>
@@ -5606,16 +5610,16 @@
       <c r="Q41" s="102"/>
       <c r="R41" s="102"/>
       <c r="S41" s="109"/>
-      <c r="T41" s="61"/>
+      <c r="T41" s="107"/>
       <c r="U41" s="96"/>
       <c r="AD41" s="107"/>
     </row>
-    <row r="42" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>229</v>
@@ -5628,7 +5632,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="96"/>
       <c r="L42" s="108" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M42" s="102" t="s">
         <v>298</v>
@@ -5645,9 +5649,9 @@
       <c r="U42" s="96"/>
       <c r="AD42" s="107"/>
     </row>
-    <row r="43" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="90" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>228</v>
@@ -5663,10 +5667,10 @@
       <c r="J43" s="27"/>
       <c r="K43" s="96"/>
       <c r="L43" s="108" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M43" s="102" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N43" s="110" t="s">
         <v>229</v>
@@ -5680,12 +5684,12 @@
       <c r="U43" s="96"/>
       <c r="AD43" s="107"/>
     </row>
-    <row r="44" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="90" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D44" s="27" t="s">
         <v>229</v>
@@ -5698,10 +5702,10 @@
       <c r="J44" s="27"/>
       <c r="K44" s="96"/>
       <c r="L44" s="108" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="M44" s="102" t="s">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="N44" s="110" t="s">
         <v>229</v>
@@ -5715,12 +5719,12 @@
       <c r="U44" s="96"/>
       <c r="AD44" s="107"/>
     </row>
-    <row r="45" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="90" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D45" s="27" t="s">
         <v>229</v>
@@ -5733,13 +5737,13 @@
       <c r="J45" s="27"/>
       <c r="K45" s="96"/>
       <c r="L45" s="108" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="M45" s="102" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="N45" s="110" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="O45" s="102"/>
       <c r="P45" s="102"/>
@@ -5750,9 +5754,9 @@
       <c r="U45" s="96"/>
       <c r="AD45" s="107"/>
     </row>
-    <row r="46" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="90" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>238</v>
@@ -5768,13 +5772,13 @@
       <c r="J46" s="27"/>
       <c r="K46" s="96"/>
       <c r="L46" s="108" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M46" s="102" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N46" s="110" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O46" s="102"/>
       <c r="P46" s="102"/>
@@ -5785,12 +5789,12 @@
       <c r="U46" s="96"/>
       <c r="AD46" s="107"/>
     </row>
-    <row r="47" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D47" s="27" t="s">
         <v>229</v>
@@ -5803,10 +5807,10 @@
       <c r="J47" s="27"/>
       <c r="K47" s="96"/>
       <c r="L47" s="108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M47" s="102" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="N47" s="110" t="s">
         <v>229</v>
@@ -5820,9 +5824,9 @@
       <c r="U47" s="96"/>
       <c r="AD47" s="107"/>
     </row>
-    <row r="48" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="90" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>241</v>
@@ -5838,7 +5842,7 @@
       <c r="J48" s="27"/>
       <c r="K48" s="96"/>
       <c r="L48" s="108" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M48" s="102" t="s">
         <v>238</v>
@@ -5857,10 +5861,10 @@
     </row>
     <row r="49" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="90" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D49" s="27" t="s">
         <v>229</v>
@@ -5873,10 +5877,10 @@
       <c r="J49" s="27"/>
       <c r="K49" s="96"/>
       <c r="L49" s="108" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M49" s="102" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="N49" s="110" t="s">
         <v>229</v>
@@ -5892,7 +5896,7 @@
     </row>
     <row r="50" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="90" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>233</v>
@@ -5908,10 +5912,10 @@
       <c r="J50" s="27"/>
       <c r="K50" s="96"/>
       <c r="L50" s="108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M50" s="102" t="s">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="N50" s="110" t="s">
         <v>229</v>
@@ -5927,10 +5931,10 @@
     </row>
     <row r="51" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="90" t="s">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>229</v>
@@ -5943,10 +5947,10 @@
       <c r="J51" s="27"/>
       <c r="K51" s="96"/>
       <c r="L51" s="108" t="s">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="M51" s="102" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="N51" s="110" t="s">
         <v>229</v>
@@ -5958,12 +5962,18 @@
       <c r="S51" s="109"/>
       <c r="T51" s="61"/>
       <c r="U51" s="96"/>
-      <c r="AD51" s="96"/>
+      <c r="AD51" s="107"/>
     </row>
     <row r="52" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="90"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="B52" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>229</v>
+      </c>
       <c r="E52" s="27"/>
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
@@ -5971,9 +5981,15 @@
       <c r="I52" s="48"/>
       <c r="J52" s="27"/>
       <c r="K52" s="96"/>
-      <c r="L52" s="108"/>
-      <c r="M52" s="102"/>
-      <c r="N52" s="102"/>
+      <c r="L52" s="108" t="s">
+        <v>170</v>
+      </c>
+      <c r="M52" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="N52" s="110" t="s">
+        <v>229</v>
+      </c>
       <c r="O52" s="102"/>
       <c r="P52" s="102"/>
       <c r="Q52" s="102"/>
@@ -5984,9 +6000,7 @@
       <c r="AD52" s="96"/>
     </row>
     <row r="53" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="90" t="s">
-        <v>36</v>
-      </c>
+      <c r="B53" s="90"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
@@ -5996,9 +6010,7 @@
       <c r="I53" s="48"/>
       <c r="J53" s="27"/>
       <c r="K53" s="96"/>
-      <c r="L53" s="111" t="s">
-        <v>36</v>
-      </c>
+      <c r="L53" s="108"/>
       <c r="M53" s="102"/>
       <c r="N53" s="102"/>
       <c r="O53" s="102"/>
@@ -6012,14 +6024,10 @@
     </row>
     <row r="54" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="90" t="s">
-        <v>220</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>222</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="27"/>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
@@ -6027,31 +6035,29 @@
       <c r="I54" s="48"/>
       <c r="J54" s="27"/>
       <c r="K54" s="96"/>
-      <c r="L54" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="M54" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="N54" s="102" t="s">
-        <v>302</v>
-      </c>
+      <c r="L54" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="M54" s="102"/>
+      <c r="N54" s="102"/>
       <c r="O54" s="102"/>
       <c r="P54" s="102"/>
       <c r="Q54" s="102"/>
       <c r="R54" s="102"/>
       <c r="S54" s="109"/>
       <c r="T54" s="61"/>
+      <c r="U54" s="96"/>
+      <c r="AD54" s="96"/>
     </row>
     <row r="55" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="90" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
@@ -6061,13 +6067,13 @@
       <c r="J55" s="27"/>
       <c r="K55" s="96"/>
       <c r="L55" s="108" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="M55" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="N55" s="110" t="s">
-        <v>247</v>
+        <v>221</v>
+      </c>
+      <c r="N55" s="102" t="s">
+        <v>302</v>
       </c>
       <c r="O55" s="102"/>
       <c r="P55" s="102"/>
@@ -6078,10 +6084,10 @@
     </row>
     <row r="56" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="90" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>247</v>
@@ -6094,10 +6100,10 @@
       <c r="J56" s="27"/>
       <c r="K56" s="96"/>
       <c r="L56" s="108" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M56" s="102" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N56" s="110" t="s">
         <v>247</v>
@@ -6111,7 +6117,7 @@
     </row>
     <row r="57" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="90" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C57" s="27" t="s">
         <v>249</v>
@@ -6127,7 +6133,7 @@
       <c r="J57" s="27"/>
       <c r="K57" s="96"/>
       <c r="L57" s="108" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M57" s="102" t="s">
         <v>255</v>
@@ -6144,7 +6150,7 @@
     </row>
     <row r="58" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>249</v>
@@ -6160,7 +6166,7 @@
       <c r="J58" s="27"/>
       <c r="K58" s="96"/>
       <c r="L58" s="108" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M58" s="102" t="s">
         <v>255</v>
@@ -6177,7 +6183,7 @@
     </row>
     <row r="59" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C59" s="27" t="s">
         <v>249</v>
@@ -6193,7 +6199,7 @@
       <c r="J59" s="27"/>
       <c r="K59" s="96"/>
       <c r="L59" s="108" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M59" s="102" t="s">
         <v>255</v>
@@ -6210,10 +6216,10 @@
     </row>
     <row r="60" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="90" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D60" s="27" t="s">
         <v>247</v>
@@ -6226,7 +6232,7 @@
       <c r="J60" s="27"/>
       <c r="K60" s="96"/>
       <c r="L60" s="108" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M60" s="102" t="s">
         <v>255</v>
@@ -6239,14 +6245,14 @@
       <c r="Q60" s="102"/>
       <c r="R60" s="102"/>
       <c r="S60" s="109"/>
-      <c r="T60" s="107"/>
+      <c r="T60" s="61"/>
     </row>
     <row r="61" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>247</v>
@@ -6259,7 +6265,7 @@
       <c r="J61" s="27"/>
       <c r="K61" s="96"/>
       <c r="L61" s="108" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="M61" s="102" t="s">
         <v>255</v>
@@ -6276,10 +6282,10 @@
     </row>
     <row r="62" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="90" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D62" s="27" t="s">
         <v>247</v>
@@ -6292,10 +6298,10 @@
       <c r="J62" s="27"/>
       <c r="K62" s="96"/>
       <c r="L62" s="108" t="s">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="M62" s="102" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="N62" s="110" t="s">
         <v>247</v>
@@ -6308,21 +6314,27 @@
       <c r="T62" s="107"/>
     </row>
     <row r="63" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="33"/>
+      <c r="B63" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="27"/>
       <c r="K63" s="96"/>
       <c r="L63" s="108" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M63" s="102" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="N63" s="110" t="s">
         <v>247</v>
@@ -6335,9 +6347,7 @@
       <c r="T63" s="107"/>
     </row>
     <row r="64" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="32" t="s">
-        <v>256</v>
-      </c>
+      <c r="B64" s="32"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
@@ -6348,7 +6358,7 @@
       <c r="J64" s="33"/>
       <c r="K64" s="96"/>
       <c r="L64" s="108" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M64" s="102" t="s">
         <v>255</v>
@@ -6365,14 +6375,10 @@
     </row>
     <row r="65" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="D65" s="33" t="s">
-        <v>222</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
       <c r="E65" s="33"/>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -6381,7 +6387,7 @@
       <c r="J65" s="33"/>
       <c r="K65" s="96"/>
       <c r="L65" s="108" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M65" s="102" t="s">
         <v>255</v>
@@ -6398,13 +6404,13 @@
     </row>
     <row r="66" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="32" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="E66" s="33"/>
       <c r="F66" s="33"/>
@@ -6414,7 +6420,7 @@
       <c r="J66" s="33"/>
       <c r="K66" s="96"/>
       <c r="L66" s="108" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M66" s="102" t="s">
         <v>255</v>
@@ -6431,13 +6437,13 @@
     </row>
     <row r="67" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="32" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E67" s="33"/>
       <c r="F67" s="33"/>
@@ -6447,10 +6453,10 @@
       <c r="J67" s="33"/>
       <c r="K67" s="96"/>
       <c r="L67" s="108" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M67" s="102" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N67" s="110" t="s">
         <v>247</v>
@@ -6464,13 +6470,13 @@
     </row>
     <row r="68" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E68" s="33"/>
       <c r="F68" s="33"/>
@@ -6480,10 +6486,10 @@
       <c r="J68" s="33"/>
       <c r="K68" s="96"/>
       <c r="L68" s="108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M68" s="102" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="N68" s="110" t="s">
         <v>247</v>
@@ -6497,13 +6503,13 @@
     </row>
     <row r="69" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="32" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E69" s="33"/>
       <c r="F69" s="33"/>
@@ -6513,10 +6519,10 @@
       <c r="J69" s="33"/>
       <c r="K69" s="96"/>
       <c r="L69" s="108" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M69" s="102" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="N69" s="110" t="s">
         <v>247</v>
@@ -6530,13 +6536,13 @@
     </row>
     <row r="70" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E70" s="33"/>
       <c r="F70" s="33"/>
@@ -6546,7 +6552,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="96"/>
       <c r="L70" s="108" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M70" s="102" t="s">
         <v>249</v>
@@ -6562,9 +6568,15 @@
       <c r="T70" s="107"/>
     </row>
     <row r="71" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="32"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
+      <c r="B71" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>266</v>
+      </c>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -6573,10 +6585,10 @@
       <c r="J71" s="33"/>
       <c r="K71" s="96"/>
       <c r="L71" s="108" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M71" s="102" t="s">
-        <v>315</v>
+        <v>249</v>
       </c>
       <c r="N71" s="110" t="s">
         <v>247</v>
@@ -6589,9 +6601,7 @@
       <c r="T71" s="107"/>
     </row>
     <row r="72" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="32" t="s">
-        <v>200</v>
-      </c>
+      <c r="B72" s="32"/>
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
       <c r="E72" s="33"/>
@@ -6602,7 +6612,7 @@
       <c r="J72" s="33"/>
       <c r="K72" s="96"/>
       <c r="L72" s="108" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M72" s="102" t="s">
         <v>315</v>
@@ -6619,14 +6629,10 @@
     </row>
     <row r="73" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C73" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="D73" s="33" t="s">
-        <v>222</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
       <c r="E73" s="33"/>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -6635,7 +6641,7 @@
       <c r="J73" s="33"/>
       <c r="K73" s="96"/>
       <c r="L73" s="108" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M73" s="102" t="s">
         <v>315</v>
@@ -6652,13 +6658,13 @@
     </row>
     <row r="74" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="32" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="E74" s="33"/>
       <c r="F74" s="33"/>
@@ -6667,9 +6673,15 @@
       <c r="I74" s="30"/>
       <c r="J74" s="33"/>
       <c r="K74" s="96"/>
-      <c r="L74" s="108"/>
-      <c r="M74" s="102"/>
-      <c r="N74" s="102"/>
+      <c r="L74" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="M74" s="102" t="s">
+        <v>315</v>
+      </c>
+      <c r="N74" s="110" t="s">
+        <v>247</v>
+      </c>
       <c r="O74" s="102"/>
       <c r="P74" s="102"/>
       <c r="Q74" s="102"/>
@@ -6678,25 +6690,23 @@
       <c r="T74" s="107"/>
     </row>
     <row r="75" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="80" t="s">
-        <v>268</v>
-      </c>
-      <c r="C75" s="81" t="s">
-        <v>269</v>
-      </c>
-      <c r="D75" s="81" t="s">
-        <v>270</v>
-      </c>
-      <c r="E75" s="81"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="81"/>
-      <c r="I75" s="82"/>
-      <c r="J75" s="27"/>
+      <c r="B75" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="33"/>
       <c r="K75" s="96"/>
-      <c r="L75" s="108" t="s">
-        <v>200</v>
-      </c>
+      <c r="L75" s="108"/>
       <c r="M75" s="102"/>
       <c r="N75" s="102"/>
       <c r="O75" s="102"/>
@@ -6707,31 +6717,27 @@
       <c r="T75" s="107"/>
     </row>
     <row r="76" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D76" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="30"/>
+      <c r="B76" s="80" t="s">
+        <v>268</v>
+      </c>
+      <c r="C76" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="D76" s="81" t="s">
+        <v>270</v>
+      </c>
+      <c r="E76" s="81"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="81"/>
+      <c r="H76" s="81"/>
+      <c r="I76" s="82"/>
       <c r="J76" s="27"/>
       <c r="K76" s="96"/>
       <c r="L76" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="M76" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="N76" s="102" t="s">
-        <v>302</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M76" s="102"/>
+      <c r="N76" s="102"/>
       <c r="O76" s="102"/>
       <c r="P76" s="102"/>
       <c r="Q76" s="102"/>
@@ -6741,13 +6747,13 @@
     </row>
     <row r="77" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="32" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E77" s="33"/>
       <c r="F77" s="33"/>
@@ -6757,13 +6763,13 @@
       <c r="J77" s="27"/>
       <c r="K77" s="96"/>
       <c r="L77" s="108" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="M77" s="102" t="s">
-        <v>318</v>
-      </c>
-      <c r="N77" s="110" t="s">
-        <v>319</v>
+        <v>221</v>
+      </c>
+      <c r="N77" s="102" t="s">
+        <v>302</v>
       </c>
       <c r="O77" s="102"/>
       <c r="P77" s="102"/>
@@ -6774,13 +6780,13 @@
     </row>
     <row r="78" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="32" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E78" s="33"/>
       <c r="F78" s="33"/>
@@ -6790,13 +6796,13 @@
       <c r="J78" s="27"/>
       <c r="K78" s="96"/>
       <c r="L78" s="108" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="M78" s="102" t="s">
-        <v>320</v>
-      </c>
-      <c r="N78" s="102" t="s">
-        <v>320</v>
+        <v>318</v>
+      </c>
+      <c r="N78" s="110" t="s">
+        <v>319</v>
       </c>
       <c r="O78" s="102"/>
       <c r="P78" s="102"/>
@@ -6807,13 +6813,13 @@
     </row>
     <row r="79" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="E79" s="33"/>
       <c r="F79" s="33"/>
@@ -6823,7 +6829,7 @@
       <c r="J79" s="27"/>
       <c r="K79" s="96"/>
       <c r="L79" s="108" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="M79" s="102" t="s">
         <v>320</v>
@@ -6840,13 +6846,13 @@
     </row>
     <row r="80" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="32" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c r="E80" s="33"/>
       <c r="F80" s="33"/>
@@ -6856,13 +6862,13 @@
       <c r="J80" s="27"/>
       <c r="K80" s="96"/>
       <c r="L80" s="108" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M80" s="102" t="s">
-        <v>321</v>
-      </c>
-      <c r="N80" s="110" t="s">
-        <v>322</v>
+        <v>320</v>
+      </c>
+      <c r="N80" s="102" t="s">
+        <v>320</v>
       </c>
       <c r="O80" s="102"/>
       <c r="P80" s="102"/>
@@ -6873,13 +6879,13 @@
     </row>
     <row r="81" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="32" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E81" s="33"/>
       <c r="F81" s="33"/>
@@ -6889,13 +6895,13 @@
       <c r="J81" s="27"/>
       <c r="K81" s="96"/>
       <c r="L81" s="108" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M81" s="102" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N81" s="110" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O81" s="102"/>
       <c r="P81" s="102"/>
@@ -6905,9 +6911,15 @@
       <c r="T81" s="107"/>
     </row>
     <row r="82" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="32"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
+      <c r="B82" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="E82" s="33"/>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -6916,13 +6928,13 @@
       <c r="J82" s="27"/>
       <c r="K82" s="96"/>
       <c r="L82" s="108" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M82" s="102" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N82" s="110" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O82" s="102"/>
       <c r="P82" s="102"/>
@@ -6932,9 +6944,7 @@
       <c r="T82" s="107"/>
     </row>
     <row r="83" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="32" t="s">
-        <v>213</v>
-      </c>
+      <c r="B83" s="32"/>
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33"/>
@@ -6945,13 +6955,13 @@
       <c r="J83" s="27"/>
       <c r="K83" s="96"/>
       <c r="L83" s="108" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="M83" s="102" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N83" s="110" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O83" s="102"/>
       <c r="P83" s="102"/>
@@ -6962,55 +6972,58 @@
     </row>
     <row r="84" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="D84" s="33" t="s">
-        <v>222</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
       <c r="E84" s="33"/>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
       <c r="H84" s="33"/>
       <c r="I84" s="30"/>
       <c r="J84" s="27"/>
-      <c r="L84" s="60" t="s">
+      <c r="K84" s="96"/>
+      <c r="L84" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="M84" s="102" t="s">
+        <v>326</v>
+      </c>
+      <c r="N84" s="110" t="s">
+        <v>326</v>
+      </c>
+      <c r="O84" s="102"/>
+      <c r="P84" s="102"/>
+      <c r="Q84" s="102"/>
+      <c r="R84" s="102"/>
+      <c r="S84" s="109"/>
+      <c r="T84" s="107"/>
+    </row>
+    <row r="85" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="27"/>
+      <c r="L85" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="M84" s="57" t="s">
+      <c r="M85" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="N84" s="58" t="s">
+      <c r="N85" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="O84" s="57"/>
-      <c r="P84" s="57"/>
-      <c r="Q84" s="57"/>
-      <c r="R84" s="57"/>
-      <c r="S84" s="62"/>
-      <c r="T84" s="61"/>
-    </row>
-    <row r="85" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="80" t="s">
-        <v>278</v>
-      </c>
-      <c r="C85" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="D85" s="81" t="s">
-        <v>280</v>
-      </c>
-      <c r="E85" s="81"/>
-      <c r="F85" s="81"/>
-      <c r="G85" s="81"/>
-      <c r="H85" s="81"/>
-      <c r="I85" s="82"/>
-      <c r="J85" s="27"/>
-      <c r="L85" s="60"/>
-      <c r="M85" s="57"/>
-      <c r="N85" s="57"/>
       <c r="O85" s="57"/>
       <c r="P85" s="57"/>
       <c r="Q85" s="57"/>
@@ -7020,13 +7033,13 @@
     </row>
     <row r="86" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="80" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C86" s="81" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D86" s="81" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E86" s="81"/>
       <c r="F86" s="81"/>
@@ -7034,9 +7047,7 @@
       <c r="H86" s="81"/>
       <c r="I86" s="82"/>
       <c r="J86" s="27"/>
-      <c r="L86" s="60" t="s">
-        <v>213</v>
-      </c>
+      <c r="L86" s="60"/>
       <c r="M86" s="57"/>
       <c r="N86" s="57"/>
       <c r="O86" s="57"/>
@@ -7047,30 +7058,26 @@
       <c r="T86" s="61"/>
     </row>
     <row r="87" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="C87" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="D87" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="30"/>
+      <c r="B87" s="80" t="s">
+        <v>281</v>
+      </c>
+      <c r="C87" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="D87" s="81" t="s">
+        <v>283</v>
+      </c>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="82"/>
       <c r="J87" s="27"/>
       <c r="L87" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="M87" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="N87" s="57" t="s">
-        <v>302</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M87" s="57"/>
+      <c r="N87" s="57"/>
       <c r="O87" s="57"/>
       <c r="P87" s="57"/>
       <c r="Q87" s="57"/>
@@ -7079,61 +7086,61 @@
       <c r="T87" s="61"/>
     </row>
     <row r="88" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="80" t="s">
+      <c r="B88" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="27"/>
+      <c r="L88" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="M88" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="N88" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="O88" s="57"/>
+      <c r="P88" s="57"/>
+      <c r="Q88" s="57"/>
+      <c r="R88" s="57"/>
+      <c r="S88" s="62"/>
+      <c r="T88" s="61"/>
+    </row>
+    <row r="89" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="80" t="s">
         <v>286</v>
       </c>
-      <c r="C88" s="81" t="s">
+      <c r="C89" s="81" t="s">
         <v>287</v>
       </c>
-      <c r="D88" s="81" t="s">
+      <c r="D89" s="81" t="s">
         <v>288</v>
       </c>
-      <c r="E88" s="81"/>
-      <c r="F88" s="81"/>
-      <c r="G88" s="81"/>
-      <c r="H88" s="81"/>
-      <c r="I88" s="82"/>
-      <c r="J88" s="27"/>
-      <c r="L88" s="83" t="s">
-        <v>278</v>
-      </c>
-      <c r="M88" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="N88" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="O88" s="84"/>
-      <c r="P88" s="84"/>
-      <c r="Q88" s="84"/>
-      <c r="R88" s="84"/>
-      <c r="S88" s="86"/>
-      <c r="T88" s="61"/>
-    </row>
-    <row r="89" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C89" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="D89" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="30"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="81"/>
+      <c r="I89" s="82"/>
       <c r="J89" s="27"/>
       <c r="L89" s="83" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M89" s="84" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="N89" s="85" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
@@ -7143,26 +7150,26 @@
       <c r="T89" s="61"/>
     </row>
     <row r="90" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="80" t="s">
-        <v>291</v>
-      </c>
-      <c r="C90" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="D90" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="E90" s="81"/>
-      <c r="F90" s="81"/>
-      <c r="G90" s="81"/>
-      <c r="H90" s="81"/>
-      <c r="I90" s="82"/>
+      <c r="B90" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="30"/>
       <c r="J90" s="27"/>
       <c r="L90" s="83" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="M90" s="84" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N90" s="85" t="s">
         <v>280</v>
@@ -7175,72 +7182,104 @@
       <c r="T90" s="61"/>
     </row>
     <row r="91" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="C91" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="D91" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="E91" s="81"/>
+      <c r="F91" s="81"/>
+      <c r="G91" s="81"/>
+      <c r="H91" s="81"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="27"/>
+      <c r="L91" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="M91" s="84" t="s">
+        <v>331</v>
+      </c>
+      <c r="N91" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="O91" s="84"/>
+      <c r="P91" s="84"/>
+      <c r="Q91" s="84"/>
+      <c r="R91" s="84"/>
+      <c r="S91" s="86"/>
+      <c r="T91" s="61"/>
+    </row>
+    <row r="92" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C92" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D92" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="27"/>
-      <c r="L91" s="60" t="s">
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="27"/>
+      <c r="L92" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="M91" s="57" t="s">
+      <c r="M92" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="N91" s="58" t="s">
+      <c r="N92" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="O91" s="57"/>
-      <c r="P91" s="57"/>
-      <c r="Q91" s="57"/>
-      <c r="R91" s="57"/>
-      <c r="S91" s="62"/>
-      <c r="T91" s="61"/>
-    </row>
-    <row r="92" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L92" s="63" t="s">
+      <c r="O92" s="57"/>
+      <c r="P92" s="57"/>
+      <c r="Q92" s="57"/>
+      <c r="R92" s="57"/>
+      <c r="S92" s="62"/>
+      <c r="T92" s="61"/>
+    </row>
+    <row r="93" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L93" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="M92" s="64" t="s">
+      <c r="M93" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="N92" s="65" t="s">
+      <c r="N93" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="O92" s="64"/>
-      <c r="P92" s="64"/>
-      <c r="Q92" s="64"/>
-      <c r="R92" s="64"/>
-      <c r="S92" s="66"/>
-      <c r="T92" s="61"/>
+      <c r="O93" s="64"/>
+      <c r="P93" s="64"/>
+      <c r="Q93" s="64"/>
+      <c r="R93" s="64"/>
+      <c r="S93" s="66"/>
+      <c r="T93" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L33:S33"/>
+    <mergeCell ref="L34:S34"/>
     <mergeCell ref="L15:L19"/>
     <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L27:L29"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L4:P5"/>
     <mergeCell ref="L7:L14"/>
     <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:F3"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A23:A29"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0470DB64-D9BE-4225-829D-C0307D794463}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2A026B-8FA0-4ED4-9838-D844046D0597}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
@@ -1322,7 +1322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1332,12 +1332,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,7 +1928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2115,41 +2109,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2215,21 +2205,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2246,16 +2236,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2274,7 +2264,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2290,21 +2279,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2491,9 +2480,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2841,12 +2831,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
       <c r="I1" s="70"/>
       <c r="J1" s="70"/>
       <c r="K1" s="70"/>
@@ -2878,7 +2868,7 @@
       <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="153" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2903,7 +2893,7 @@
       <c r="M3" s="70"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157"/>
+      <c r="A4" s="154"/>
       <c r="B4" s="5" t="s">
         <v>95</v>
       </c>
@@ -2923,7 +2913,7 @@
       <c r="M4" s="70"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
+      <c r="A5" s="154"/>
       <c r="B5" s="7" t="s">
         <v>127</v>
       </c>
@@ -2953,7 +2943,7 @@
       <c r="M6" s="70"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="151" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -2975,7 +2965,7 @@
       <c r="M7" s="70"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="154"/>
+      <c r="A8" s="151"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -2995,7 +2985,7 @@
       <c r="M8" s="70"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="154"/>
+      <c r="A9" s="151"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3015,7 +3005,7 @@
       <c r="M9" s="70"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="154"/>
+      <c r="A10" s="151"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3035,7 +3025,7 @@
       <c r="M10" s="70"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="154"/>
+      <c r="A11" s="151"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3055,7 +3045,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="154"/>
+      <c r="A12" s="151"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3111,7 +3101,7 @@
       <c r="M15" s="70"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="151" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -3130,7 +3120,7 @@
       <c r="M16" s="70"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="154"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
@@ -3147,7 +3137,7 @@
       <c r="M17" s="70"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="151"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -3164,7 +3154,7 @@
       <c r="M18" s="70"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
+      <c r="A19" s="151"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
@@ -3181,7 +3171,7 @@
       <c r="M19" s="70"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="154"/>
+      <c r="A20" s="151"/>
       <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
@@ -3198,7 +3188,7 @@
       <c r="M20" s="70"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="154"/>
+      <c r="A21" s="151"/>
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
@@ -3215,7 +3205,7 @@
       <c r="M21" s="70"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
+      <c r="A22" s="151"/>
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
@@ -3232,7 +3222,7 @@
       <c r="M22" s="70"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="154"/>
+      <c r="A23" s="151"/>
       <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
@@ -3249,7 +3239,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="154"/>
+      <c r="A24" s="151"/>
       <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
@@ -3266,7 +3256,7 @@
       <c r="M24" s="70"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="154"/>
+      <c r="A25" s="151"/>
       <c r="B25" s="5" t="s">
         <v>40</v>
       </c>
@@ -3283,7 +3273,7 @@
       <c r="M25" s="70"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="154"/>
+      <c r="A26" s="151"/>
       <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
@@ -3300,7 +3290,7 @@
       <c r="M26" s="70"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="154"/>
+      <c r="A27" s="151"/>
       <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
@@ -3324,7 +3314,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="154" t="s">
+      <c r="A29" s="151" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3343,7 +3333,7 @@
       <c r="M29" s="70"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="154"/>
+      <c r="A30" s="151"/>
       <c r="B30" s="5" t="s">
         <v>47</v>
       </c>
@@ -3360,7 +3350,7 @@
       <c r="M30" s="70"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="154"/>
+      <c r="A31" s="151"/>
       <c r="B31" s="5" t="s">
         <v>44</v>
       </c>
@@ -3377,7 +3367,7 @@
       <c r="M31" s="70"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="154"/>
+      <c r="A32" s="151"/>
       <c r="B32" s="5" t="s">
         <v>50</v>
       </c>
@@ -3394,7 +3384,7 @@
       <c r="M32" s="70"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="154"/>
+      <c r="A33" s="151"/>
       <c r="B33" s="5" t="s">
         <v>53</v>
       </c>
@@ -3411,7 +3401,7 @@
       <c r="M33" s="70"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="154"/>
+      <c r="A34" s="151"/>
       <c r="B34" s="5" t="s">
         <v>55</v>
       </c>
@@ -3431,7 +3421,7 @@
       <c r="M34" s="70"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="154" t="s">
+      <c r="A36" s="151" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3445,7 +3435,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="154"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="5" t="s">
         <v>61</v>
       </c>
@@ -3457,7 +3447,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="154" t="s">
+      <c r="A39" s="151" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -3477,7 +3467,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="154"/>
+      <c r="A40" s="151"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3492,7 +3482,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="154"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="5" t="s">
         <v>84</v>
       </c>
@@ -3507,7 +3497,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="154"/>
+      <c r="A42" s="151"/>
       <c r="B42" s="5" t="s">
         <v>101</v>
       </c>
@@ -3536,7 +3526,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="152" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -3553,7 +3543,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="155"/>
+      <c r="A46" s="152"/>
       <c r="B46" s="5" t="s">
         <v>80</v>
       </c>
@@ -3572,7 +3562,7 @@
       <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="155" t="s">
+      <c r="A48" s="152" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -3589,7 +3579,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="155"/>
+      <c r="A49" s="152"/>
       <c r="B49" s="5" t="s">
         <v>140</v>
       </c>
@@ -3601,7 +3591,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="154" t="s">
+      <c r="A51" s="151" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3618,7 +3608,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="154"/>
+      <c r="A52" s="151"/>
       <c r="B52" s="5" t="s">
         <v>73</v>
       </c>
@@ -3630,7 +3620,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="154"/>
+      <c r="A53" s="151"/>
       <c r="B53" s="5" t="s">
         <v>75</v>
       </c>
@@ -3642,7 +3632,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="154"/>
+      <c r="A54" s="151"/>
       <c r="B54" s="5" t="s">
         <v>82</v>
       </c>
@@ -3654,7 +3644,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="154"/>
+      <c r="A55" s="151"/>
       <c r="B55" s="38" t="s">
         <v>88</v>
       </c>
@@ -3669,7 +3659,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="154"/>
+      <c r="A56" s="151"/>
       <c r="B56" s="5" t="s">
         <v>91</v>
       </c>
@@ -3681,7 +3671,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="154"/>
+      <c r="A57" s="151"/>
       <c r="B57" s="5" t="s">
         <v>93</v>
       </c>
@@ -3693,7 +3683,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="154"/>
+      <c r="A58" s="151"/>
       <c r="B58" s="5" t="s">
         <v>109</v>
       </c>
@@ -3705,7 +3695,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="154"/>
+      <c r="A59" s="151"/>
       <c r="B59" s="5" t="s">
         <v>111</v>
       </c>
@@ -3717,7 +3707,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="154"/>
+      <c r="A60" s="151"/>
       <c r="B60" s="9" t="s">
         <v>113</v>
       </c>
@@ -3732,7 +3722,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="154"/>
+      <c r="A61" s="151"/>
       <c r="B61" s="5" t="s">
         <v>118</v>
       </c>
@@ -3747,7 +3737,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="154"/>
+      <c r="A62" s="151"/>
       <c r="B62" s="38" t="s">
         <v>121</v>
       </c>
@@ -3762,7 +3752,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="154"/>
+      <c r="A63" s="151"/>
       <c r="B63" s="5" t="s">
         <v>123</v>
       </c>
@@ -3777,7 +3767,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="154"/>
+      <c r="A64" s="151"/>
       <c r="B64" s="5" t="s">
         <v>130</v>
       </c>
@@ -3792,7 +3782,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="154"/>
+      <c r="A65" s="151"/>
       <c r="B65" s="5" t="s">
         <v>133</v>
       </c>
@@ -3807,7 +3797,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="154"/>
+      <c r="A66" s="151"/>
       <c r="B66" s="5" t="s">
         <v>136</v>
       </c>
@@ -3822,7 +3812,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="154"/>
+      <c r="A67" s="151"/>
       <c r="B67" s="5" t="s">
         <v>142</v>
       </c>
@@ -3837,7 +3827,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="154"/>
+      <c r="A68" s="151"/>
       <c r="B68" s="9" t="s">
         <v>145</v>
       </c>
@@ -3852,7 +3842,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="154" t="s">
+      <c r="A70" s="151" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -3869,7 +3859,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="154"/>
+      <c r="A71" s="151"/>
       <c r="B71" s="5" t="s">
         <v>102</v>
       </c>
@@ -3881,7 +3871,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="154"/>
+      <c r="A72" s="151"/>
       <c r="B72" s="5" t="s">
         <v>115</v>
       </c>
@@ -3897,7 +3887,7 @@
       <c r="H73" s="26"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="154" t="s">
+      <c r="A74" s="151" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -3918,7 +3908,7 @@
       <c r="K74" s="26"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="154"/>
+      <c r="A75" s="151"/>
       <c r="B75" s="17">
         <v>2601151022113</v>
       </c>
@@ -3933,7 +3923,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="154"/>
+      <c r="A76" s="151"/>
       <c r="B76" s="17">
         <v>261151044113</v>
       </c>
@@ -3948,7 +3938,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="154"/>
+      <c r="A77" s="151"/>
       <c r="B77" s="17">
         <v>20012107818</v>
       </c>
@@ -3963,7 +3953,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="154"/>
+      <c r="A78" s="151"/>
       <c r="B78" s="17" t="s">
         <v>155</v>
       </c>
@@ -3978,7 +3968,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="154"/>
+      <c r="A79" s="151"/>
       <c r="B79" s="18">
         <v>260151022110</v>
       </c>
@@ -3993,7 +3983,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="154"/>
+      <c r="A80" s="151"/>
       <c r="B80" s="17">
         <v>260121011717</v>
       </c>
@@ -4008,7 +3998,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="154"/>
+      <c r="A81" s="151"/>
       <c r="B81" s="17">
         <v>20012104412</v>
       </c>
@@ -4046,8 +4036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4065,110 +4055,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="176" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
-      <c r="H1" s="158" t="s">
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="178"/>
+      <c r="H1" s="155" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="159"/>
-      <c r="J1" s="160"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="157"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="182"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="184"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="196" t="s">
+      <c r="A2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="181"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="193" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="197"/>
+      <c r="J2" s="194"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="185"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="187"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="196" t="s">
+      <c r="A3" s="182"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="184"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="193" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="197"/>
+      <c r="J3" s="194"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="187" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="188"/>
       <c r="F4" s="45"/>
       <c r="G4" s="33"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="198" t="s">
+      <c r="H4" s="146"/>
+      <c r="I4" s="195" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="199"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="161" t="s">
+      <c r="J4" s="196"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="158" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="163"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="160"/>
       <c r="Q4" s="45"/>
-      <c r="R4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="170" t="s">
+      <c r="R4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="167" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="171"/>
-      <c r="X4" s="171"/>
-      <c r="Y4" s="171"/>
-      <c r="Z4" s="172"/>
-      <c r="AA4" s="96"/>
+      <c r="W4" s="168"/>
+      <c r="X4" s="168"/>
+      <c r="Y4" s="168"/>
+      <c r="Z4" s="169"/>
+      <c r="AA4" s="94"/>
       <c r="AB4" s="33"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="192"/>
-      <c r="B5" s="192"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="193"/>
+      <c r="A5" s="189"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="190"/>
       <c r="F5" s="45"/>
       <c r="G5" s="33"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="165"/>
-      <c r="N5" s="165"/>
-      <c r="O5" s="165"/>
-      <c r="P5" s="166"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="163"/>
       <c r="Q5" s="45"/>
-      <c r="R5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="174"/>
-      <c r="X5" s="174"/>
-      <c r="Y5" s="174"/>
-      <c r="Z5" s="175"/>
-      <c r="AA5" s="96"/>
+      <c r="R5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="172"/>
+      <c r="AA5" s="94"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="133" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -4201,78 +4191,78 @@
         <v>164</v>
       </c>
       <c r="Q6" s="45"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="97" t="s">
+      <c r="U6" s="94"/>
+      <c r="V6" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="W6" s="98" t="s">
+      <c r="W6" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="X6" s="99" t="s">
+      <c r="X6" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="Y6" s="99" t="s">
+      <c r="Y6" s="97" t="s">
         <v>168</v>
       </c>
       <c r="Z6" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="AA6" s="96"/>
+      <c r="AA6" s="94"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="210" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="209">
         <v>2</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="209">
         <v>0</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="79" t="s">
         <v>166</v>
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="33"/>
-      <c r="L7" s="167" t="s">
+      <c r="L7" s="164" t="s">
         <v>339</v>
       </c>
-      <c r="M7" s="91" t="s">
+      <c r="M7" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="N7" s="92">
+      <c r="N7" s="90">
         <v>1</v>
       </c>
-      <c r="O7" s="92">
+      <c r="O7" s="90">
         <v>5</v>
       </c>
-      <c r="P7" s="93" t="s">
+      <c r="P7" s="91" t="s">
         <v>237</v>
       </c>
       <c r="Q7" s="45"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="100" t="s">
+      <c r="U7" s="94"/>
+      <c r="V7" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="122" t="s">
+      <c r="W7" s="120" t="s">
         <v>342</v>
       </c>
-      <c r="X7" s="123">
+      <c r="X7" s="121">
         <v>2</v>
       </c>
-      <c r="Y7" s="123">
+      <c r="Y7" s="121">
         <v>20</v>
       </c>
-      <c r="Z7" s="124" t="s">
+      <c r="Z7" s="122" t="s">
         <v>343</v>
       </c>
-      <c r="AA7" s="96"/>
+      <c r="AA7" s="94"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="188"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="27" t="s">
         <v>167</v>
       </c>
@@ -4287,7 +4277,7 @@
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="33"/>
-      <c r="L8" s="168"/>
+      <c r="L8" s="165"/>
       <c r="M8" s="27" t="s">
         <v>341</v>
       </c>
@@ -4301,26 +4291,26 @@
         <v>239</v>
       </c>
       <c r="Q8" s="45"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="101" t="s">
+      <c r="U8" s="94"/>
+      <c r="V8" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="119" t="s">
+      <c r="W8" s="117" t="s">
         <v>351</v>
       </c>
-      <c r="X8" s="120">
+      <c r="X8" s="118">
         <v>2</v>
       </c>
-      <c r="Y8" s="120">
+      <c r="Y8" s="118">
         <v>30</v>
       </c>
-      <c r="Z8" s="121" t="s">
+      <c r="Z8" s="119" t="s">
         <v>366</v>
       </c>
-      <c r="AA8" s="96"/>
+      <c r="AA8" s="94"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="188"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="27" t="s">
         <v>169</v>
       </c>
@@ -4333,42 +4323,42 @@
       <c r="E9" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="134"/>
+      <c r="F9" s="132"/>
       <c r="G9" s="33"/>
-      <c r="L9" s="168"/>
-      <c r="M9" s="73" t="s">
+      <c r="L9" s="165"/>
+      <c r="M9" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="N9" s="113">
+      <c r="N9" s="111">
         <v>3</v>
       </c>
-      <c r="O9" s="113">
+      <c r="O9" s="111">
         <v>20</v>
       </c>
-      <c r="P9" s="114" t="s">
+      <c r="P9" s="112" t="s">
         <v>344</v>
       </c>
       <c r="Q9" s="45"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="130" t="s">
+      <c r="U9" s="94"/>
+      <c r="V9" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="W9" s="131" t="s">
+      <c r="W9" s="129" t="s">
         <v>367</v>
       </c>
-      <c r="X9" s="132">
+      <c r="X9" s="130">
         <v>1</v>
       </c>
-      <c r="Y9" s="132">
+      <c r="Y9" s="130">
         <v>5</v>
       </c>
-      <c r="Z9" s="133" t="s">
+      <c r="Z9" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="AA9" s="96"/>
+      <c r="AA9" s="94"/>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="188"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="27" t="s">
         <v>172</v>
       </c>
@@ -4381,42 +4371,42 @@
       <c r="E10" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="134"/>
+      <c r="F10" s="132"/>
       <c r="G10" s="33"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="73" t="s">
+      <c r="L10" s="165"/>
+      <c r="M10" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="N10" s="113">
+      <c r="N10" s="111">
         <v>2</v>
       </c>
-      <c r="O10" s="113">
+      <c r="O10" s="111">
         <v>10</v>
       </c>
-      <c r="P10" s="114" t="s">
+      <c r="P10" s="112" t="s">
         <v>166</v>
       </c>
       <c r="Q10" s="45"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="129" t="s">
+      <c r="U10" s="94"/>
+      <c r="V10" s="127" t="s">
         <v>213</v>
       </c>
-      <c r="W10" s="145" t="s">
+      <c r="W10" s="142" t="s">
         <v>368</v>
       </c>
-      <c r="X10" s="143" t="s">
+      <c r="X10" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" s="143" t="s">
+      <c r="Y10" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="144" t="s">
+      <c r="Z10" s="141" t="s">
         <v>278</v>
       </c>
-      <c r="AA10" s="96"/>
+      <c r="AA10" s="94"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="188"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="27" t="s">
         <v>173</v>
       </c>
@@ -4429,8 +4419,8 @@
       <c r="E11" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="134"/>
-      <c r="L11" s="168"/>
+      <c r="F11" s="132"/>
+      <c r="L11" s="165"/>
       <c r="M11" s="27" t="s">
         <v>345</v>
       </c>
@@ -4453,7 +4443,7 @@
       <c r="AA11" s="33"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="188"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="27" t="s">
         <v>176</v>
       </c>
@@ -4466,8 +4456,8 @@
       <c r="E12" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="134"/>
-      <c r="L12" s="168"/>
+      <c r="F12" s="132"/>
+      <c r="L12" s="165"/>
       <c r="M12" s="27" t="s">
         <v>348</v>
       </c>
@@ -4481,7 +4471,7 @@
         <v>347</v>
       </c>
       <c r="Q12" s="45"/>
-      <c r="U12" s="96"/>
+      <c r="U12" s="94"/>
       <c r="V12" s="35"/>
       <c r="W12" s="27"/>
       <c r="X12" s="51"/>
@@ -4490,7 +4480,7 @@
       <c r="AA12" s="33"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="188"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="27" t="s">
         <v>178</v>
       </c>
@@ -4503,72 +4493,72 @@
       <c r="E13" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="134"/>
-      <c r="L13" s="168"/>
-      <c r="M13" s="73" t="s">
+      <c r="F13" s="132"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="N13" s="113">
+      <c r="N13" s="111">
         <v>2</v>
       </c>
-      <c r="O13" s="113">
+      <c r="O13" s="111">
         <v>20</v>
       </c>
-      <c r="P13" s="114" t="s">
+      <c r="P13" s="112" t="s">
         <v>349</v>
       </c>
       <c r="Q13" s="45"/>
-      <c r="V13" s="103"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="40"/>
       <c r="X13" s="51"/>
       <c r="Y13" s="51"/>
       <c r="Z13" s="55"/>
       <c r="AA13" s="27"/>
-      <c r="AB13" s="96"/>
+      <c r="AB13" s="94"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="194"/>
-      <c r="B14" s="94" t="s">
+      <c r="A14" s="191"/>
+      <c r="B14" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="137">
+      <c r="C14" s="134">
         <v>4</v>
       </c>
-      <c r="D14" s="137">
+      <c r="D14" s="134">
         <v>20</v>
       </c>
-      <c r="E14" s="139" t="s">
+      <c r="E14" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="134"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="94" t="s">
+      <c r="F14" s="132"/>
+      <c r="L14" s="166"/>
+      <c r="M14" s="92" t="s">
         <v>350</v>
       </c>
-      <c r="N14" s="78">
+      <c r="N14" s="76">
         <v>1</v>
       </c>
-      <c r="O14" s="78">
+      <c r="O14" s="76">
         <v>5</v>
       </c>
-      <c r="P14" s="79" t="s">
+      <c r="P14" s="77" t="s">
         <v>244</v>
       </c>
       <c r="Q14" s="45"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="192" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="93" t="s">
         <v>186</v>
       </c>
       <c r="C15" s="51">
@@ -4577,39 +4567,39 @@
       <c r="D15" s="51">
         <v>30</v>
       </c>
-      <c r="E15" s="141" t="s">
+      <c r="E15" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="L15" s="206" t="s">
+      <c r="F15" s="132"/>
+      <c r="L15" s="203" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="115" t="s">
+      <c r="M15" s="113" t="s">
         <v>351</v>
       </c>
-      <c r="N15" s="113">
+      <c r="N15" s="111">
         <v>10</v>
       </c>
-      <c r="O15" s="113">
+      <c r="O15" s="111">
         <v>30</v>
       </c>
-      <c r="P15" s="114" t="s">
+      <c r="P15" s="112" t="s">
         <v>352</v>
       </c>
       <c r="Q15" s="45"/>
-      <c r="V15" s="200" t="s">
+      <c r="V15" s="197" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="201"/>
-      <c r="X15" s="201"/>
-      <c r="Y15" s="201"/>
-      <c r="Z15" s="201"/>
-      <c r="AA15" s="201"/>
-      <c r="AB15" s="201"/>
-      <c r="AC15" s="202"/>
+      <c r="W15" s="198"/>
+      <c r="X15" s="198"/>
+      <c r="Y15" s="198"/>
+      <c r="Z15" s="198"/>
+      <c r="AA15" s="198"/>
+      <c r="AB15" s="198"/>
+      <c r="AC15" s="199"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="188"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="27" t="s">
         <v>183</v>
       </c>
@@ -4622,79 +4612,79 @@
       <c r="E16" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="134"/>
-      <c r="L16" s="207"/>
-      <c r="M16" s="73" t="s">
+      <c r="F16" s="132"/>
+      <c r="L16" s="204"/>
+      <c r="M16" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="N16" s="113">
+      <c r="N16" s="111">
         <v>3</v>
       </c>
-      <c r="O16" s="113">
+      <c r="O16" s="111">
         <v>15</v>
       </c>
-      <c r="P16" s="114" t="s">
+      <c r="P16" s="112" t="s">
         <v>353</v>
       </c>
       <c r="Q16" s="45"/>
       <c r="S16" s="33"/>
-      <c r="V16" s="104" t="s">
+      <c r="V16" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="W16" s="105"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="105"/>
-      <c r="Z16" s="105"/>
-      <c r="AA16" s="105"/>
-      <c r="AB16" s="105"/>
-      <c r="AC16" s="150"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="103"/>
+      <c r="Z16" s="103"/>
+      <c r="AA16" s="103"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="147"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="194"/>
-      <c r="B17" s="94" t="s">
+      <c r="A17" s="191"/>
+      <c r="B17" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="137">
+      <c r="C17" s="134">
         <v>5</v>
       </c>
-      <c r="D17" s="137">
+      <c r="D17" s="134">
         <v>20</v>
       </c>
-      <c r="E17" s="139" t="s">
+      <c r="E17" s="136" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="134"/>
-      <c r="L17" s="207"/>
-      <c r="M17" s="73" t="s">
+      <c r="F17" s="132"/>
+      <c r="L17" s="204"/>
+      <c r="M17" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="N17" s="113">
+      <c r="N17" s="111">
         <v>4</v>
       </c>
-      <c r="O17" s="113">
+      <c r="O17" s="111">
         <v>20</v>
       </c>
-      <c r="P17" s="114" t="s">
+      <c r="P17" s="112" t="s">
         <v>354</v>
       </c>
       <c r="Q17" s="45"/>
-      <c r="V17" s="108" t="s">
+      <c r="V17" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="W17" s="102" t="s">
+      <c r="W17" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="X17" s="102" t="s">
+      <c r="X17" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="Y17" s="102"/>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="102"/>
-      <c r="AB17" s="102"/>
-      <c r="AC17" s="106"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="100"/>
+      <c r="AB17" s="100"/>
+      <c r="AC17" s="104"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="195" t="s">
+      <c r="A18" s="192" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -4709,8 +4699,8 @@
       <c r="E18" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="134"/>
-      <c r="L18" s="207"/>
+      <c r="F18" s="132"/>
+      <c r="L18" s="204"/>
       <c r="M18" s="27" t="s">
         <v>355</v>
       </c>
@@ -4724,23 +4714,23 @@
         <v>310</v>
       </c>
       <c r="Q18" s="45"/>
-      <c r="V18" s="108" t="s">
+      <c r="V18" s="106" t="s">
         <v>223</v>
       </c>
-      <c r="W18" s="102" t="s">
+      <c r="W18" s="100" t="s">
         <v>238</v>
       </c>
-      <c r="X18" s="110" t="s">
+      <c r="X18" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="102"/>
-      <c r="AB18" s="102"/>
-      <c r="AC18" s="109"/>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="100"/>
+      <c r="AB18" s="100"/>
+      <c r="AC18" s="107"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="188"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="27" t="s">
         <v>191</v>
       </c>
@@ -4753,38 +4743,38 @@
       <c r="E19" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="134"/>
-      <c r="L19" s="208"/>
-      <c r="M19" s="94" t="s">
+      <c r="F19" s="132"/>
+      <c r="L19" s="205"/>
+      <c r="M19" s="92" t="s">
         <v>356</v>
       </c>
-      <c r="N19" s="78">
+      <c r="N19" s="76">
         <v>1</v>
       </c>
-      <c r="O19" s="78">
+      <c r="O19" s="76">
         <v>5</v>
       </c>
-      <c r="P19" s="79" t="s">
+      <c r="P19" s="77" t="s">
         <v>303</v>
       </c>
       <c r="Q19" s="45"/>
-      <c r="V19" s="108" t="s">
+      <c r="V19" s="106" t="s">
         <v>230</v>
       </c>
-      <c r="W19" s="102" t="s">
+      <c r="W19" s="100" t="s">
         <v>238</v>
       </c>
-      <c r="X19" s="110" t="s">
+      <c r="X19" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="Y19" s="102"/>
-      <c r="Z19" s="102"/>
-      <c r="AA19" s="102"/>
-      <c r="AB19" s="102"/>
-      <c r="AC19" s="109"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="100"/>
+      <c r="AB19" s="100"/>
+      <c r="AC19" s="107"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="188"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="27" t="s">
         <v>193</v>
       </c>
@@ -4797,34 +4787,34 @@
       <c r="E20" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="134"/>
-      <c r="L20" s="206" t="s">
+      <c r="F20" s="132"/>
+      <c r="L20" s="203" t="s">
         <v>200</v>
       </c>
-      <c r="M20" s="112" t="s">
+      <c r="M20" s="110" t="s">
         <v>373</v>
       </c>
-      <c r="N20" s="75">
+      <c r="N20" s="73">
         <v>1</v>
       </c>
-      <c r="O20" s="75">
+      <c r="O20" s="73">
         <v>1</v>
       </c>
-      <c r="P20" s="76" t="s">
+      <c r="P20" s="74" t="s">
         <v>268</v>
       </c>
       <c r="Q20" s="45"/>
-      <c r="V20" s="108"/>
-      <c r="W20" s="102"/>
-      <c r="X20" s="102"/>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="102"/>
-      <c r="AA20" s="102"/>
-      <c r="AB20" s="102"/>
-      <c r="AC20" s="109"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="100"/>
+      <c r="AB20" s="100"/>
+      <c r="AC20" s="107"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="188"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="27" t="s">
         <v>195</v>
       </c>
@@ -4837,8 +4827,8 @@
       <c r="E21" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="134"/>
-      <c r="L21" s="207"/>
+      <c r="F21" s="132"/>
+      <c r="L21" s="204"/>
       <c r="M21" s="27" t="s">
         <v>374</v>
       </c>
@@ -4852,33 +4842,33 @@
         <v>358</v>
       </c>
       <c r="Q21" s="45"/>
-      <c r="V21" s="111" t="s">
+      <c r="V21" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="W21" s="102"/>
-      <c r="X21" s="102"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="102"/>
-      <c r="AA21" s="102"/>
-      <c r="AB21" s="102"/>
-      <c r="AC21" s="109"/>
+      <c r="W21" s="100"/>
+      <c r="X21" s="100"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="100"/>
+      <c r="AA21" s="100"/>
+      <c r="AB21" s="100"/>
+      <c r="AC21" s="107"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="194"/>
-      <c r="B22" s="94" t="s">
+      <c r="A22" s="191"/>
+      <c r="B22" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="137">
+      <c r="C22" s="134">
         <v>1</v>
       </c>
-      <c r="D22" s="137">
+      <c r="D22" s="134">
         <v>4</v>
       </c>
-      <c r="E22" s="139" t="s">
+      <c r="E22" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="134"/>
-      <c r="L22" s="207"/>
+      <c r="F22" s="132"/>
+      <c r="L22" s="204"/>
       <c r="M22" s="27" t="s">
         <v>375</v>
       </c>
@@ -4892,23 +4882,23 @@
         <v>210</v>
       </c>
       <c r="Q22" s="45"/>
-      <c r="V22" s="108" t="s">
+      <c r="V22" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="W22" s="102" t="s">
+      <c r="W22" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="X22" s="102" t="s">
+      <c r="X22" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="Y22" s="102"/>
-      <c r="Z22" s="102"/>
-      <c r="AA22" s="102"/>
-      <c r="AB22" s="102"/>
-      <c r="AC22" s="109"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="100"/>
+      <c r="AB22" s="100"/>
+      <c r="AC22" s="107"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="195" t="s">
+      <c r="A23" s="192" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="33" t="s">
@@ -4923,38 +4913,38 @@
       <c r="E23" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="134"/>
-      <c r="L23" s="207"/>
-      <c r="M23" s="112" t="s">
+      <c r="F23" s="132"/>
+      <c r="L23" s="204"/>
+      <c r="M23" s="110" t="s">
         <v>359</v>
       </c>
-      <c r="N23" s="75">
+      <c r="N23" s="73">
         <v>1</v>
       </c>
-      <c r="O23" s="75">
+      <c r="O23" s="73">
         <v>3</v>
       </c>
-      <c r="P23" s="76" t="s">
+      <c r="P23" s="74" t="s">
         <v>208</v>
       </c>
       <c r="Q23" s="45"/>
-      <c r="V23" s="108" t="s">
+      <c r="V23" s="106" t="s">
         <v>245</v>
       </c>
-      <c r="W23" s="102" t="s">
+      <c r="W23" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="X23" s="110" t="s">
+      <c r="X23" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="Y23" s="102"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="102"/>
-      <c r="AB23" s="102"/>
-      <c r="AC23" s="109"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="100"/>
+      <c r="AB23" s="100"/>
+      <c r="AC23" s="107"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="188"/>
+      <c r="A24" s="185"/>
       <c r="B24" s="27" t="s">
         <v>203</v>
       </c>
@@ -4967,8 +4957,8 @@
       <c r="E24" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="134"/>
-      <c r="L24" s="207"/>
+      <c r="F24" s="132"/>
+      <c r="L24" s="204"/>
       <c r="M24" s="27" t="s">
         <v>360</v>
       </c>
@@ -4982,23 +4972,23 @@
         <v>212</v>
       </c>
       <c r="Q24" s="45"/>
-      <c r="V24" s="108" t="s">
+      <c r="V24" s="106" t="s">
         <v>248</v>
       </c>
-      <c r="W24" s="102" t="s">
+      <c r="W24" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="X24" s="110" t="s">
+      <c r="X24" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="Y24" s="102"/>
-      <c r="Z24" s="102"/>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="102"/>
-      <c r="AC24" s="109"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="107"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="188"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="27" t="s">
         <v>205</v>
       </c>
@@ -5011,32 +5001,32 @@
       <c r="E25" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="F25" s="134"/>
-      <c r="L25" s="207"/>
-      <c r="M25" s="74" t="s">
+      <c r="F25" s="132"/>
+      <c r="L25" s="204"/>
+      <c r="M25" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="N25" s="75">
+      <c r="N25" s="73">
         <v>1</v>
       </c>
-      <c r="O25" s="75">
+      <c r="O25" s="73">
         <v>2</v>
       </c>
-      <c r="P25" s="76" t="s">
+      <c r="P25" s="74" t="s">
         <v>277</v>
       </c>
       <c r="Q25" s="45"/>
-      <c r="V25" s="108"/>
-      <c r="W25" s="102"/>
-      <c r="X25" s="102"/>
-      <c r="Y25" s="102"/>
-      <c r="Z25" s="102"/>
-      <c r="AA25" s="102"/>
-      <c r="AB25" s="102"/>
-      <c r="AC25" s="109"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="100"/>
+      <c r="X25" s="100"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="100"/>
+      <c r="AB25" s="100"/>
+      <c r="AC25" s="107"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="188"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="27" t="s">
         <v>207</v>
       </c>
@@ -5049,34 +5039,34 @@
       <c r="E26" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="F26" s="134"/>
-      <c r="L26" s="208"/>
-      <c r="M26" s="77" t="s">
+      <c r="F26" s="132"/>
+      <c r="L26" s="205"/>
+      <c r="M26" s="75" t="s">
         <v>362</v>
       </c>
-      <c r="N26" s="78">
+      <c r="N26" s="76">
         <v>1</v>
       </c>
-      <c r="O26" s="78">
+      <c r="O26" s="76">
         <v>4</v>
       </c>
-      <c r="P26" s="79" t="s">
+      <c r="P26" s="77" t="s">
         <v>327</v>
       </c>
       <c r="Q26" s="45"/>
-      <c r="V26" s="108" t="s">
+      <c r="V26" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="W26" s="102"/>
-      <c r="X26" s="102"/>
-      <c r="Y26" s="102"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="102"/>
-      <c r="AC26" s="109"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="100"/>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="107"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="188"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="27" t="s">
         <v>209</v>
       </c>
@@ -5089,129 +5079,129 @@
       <c r="E27" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="F27" s="134"/>
-      <c r="L27" s="209" t="s">
+      <c r="F27" s="132"/>
+      <c r="L27" s="206" t="s">
         <v>213</v>
       </c>
-      <c r="M27" s="87" t="s">
+      <c r="M27" s="85" t="s">
         <v>363</v>
       </c>
-      <c r="N27" s="88">
+      <c r="N27" s="86">
         <v>1</v>
       </c>
-      <c r="O27" s="88">
+      <c r="O27" s="86">
         <v>4</v>
       </c>
-      <c r="P27" s="89" t="s">
+      <c r="P27" s="87" t="s">
         <v>286</v>
       </c>
       <c r="Q27" s="45"/>
-      <c r="V27" s="108" t="s">
+      <c r="V27" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="W27" s="102" t="s">
+      <c r="W27" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="X27" s="102" t="s">
+      <c r="X27" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="Y27" s="102"/>
-      <c r="Z27" s="102"/>
-      <c r="AA27" s="102"/>
-      <c r="AB27" s="102"/>
-      <c r="AC27" s="109"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="100"/>
+      <c r="AB27" s="100"/>
+      <c r="AC27" s="107"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="188"/>
-      <c r="B28" s="81" t="s">
+      <c r="A28" s="185"/>
+      <c r="B28" s="79" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="212">
+      <c r="C28" s="209">
         <v>1</v>
       </c>
-      <c r="D28" s="212">
+      <c r="D28" s="209">
         <v>0</v>
       </c>
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="134"/>
-      <c r="L28" s="211"/>
+      <c r="F28" s="132"/>
+      <c r="L28" s="208"/>
       <c r="M28" s="27"/>
       <c r="N28" s="51"/>
       <c r="O28" s="51"/>
       <c r="P28" s="54"/>
       <c r="Q28" s="45"/>
-      <c r="V28" s="108"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="102"/>
-      <c r="Y28" s="102"/>
-      <c r="Z28" s="102"/>
-      <c r="AA28" s="102"/>
-      <c r="AB28" s="102"/>
-      <c r="AC28" s="109"/>
+      <c r="V28" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="W28" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="X28" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="107"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="194"/>
-      <c r="B29" s="140" t="s">
+      <c r="A29" s="191"/>
+      <c r="B29" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="138">
+      <c r="C29" s="135">
         <v>1</v>
       </c>
-      <c r="D29" s="138">
+      <c r="D29" s="135">
         <v>4</v>
       </c>
-      <c r="E29" s="142" t="s">
+      <c r="E29" s="139" t="s">
         <v>212</v>
       </c>
-      <c r="F29" s="134"/>
-      <c r="L29" s="210"/>
-      <c r="M29" s="116" t="s">
+      <c r="F29" s="132"/>
+      <c r="L29" s="207"/>
+      <c r="M29" s="114" t="s">
         <v>364</v>
       </c>
-      <c r="N29" s="117">
+      <c r="N29" s="115">
         <v>1</v>
       </c>
-      <c r="O29" s="117">
+      <c r="O29" s="115">
         <v>4</v>
       </c>
-      <c r="P29" s="118" t="s">
+      <c r="P29" s="116" t="s">
         <v>219</v>
       </c>
       <c r="Q29" s="45"/>
-      <c r="V29" s="108" t="s">
-        <v>202</v>
-      </c>
-      <c r="W29" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="X29" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y29" s="102"/>
-      <c r="Z29" s="102"/>
-      <c r="AA29" s="102"/>
-      <c r="AB29" s="102"/>
-      <c r="AC29" s="109"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100"/>
+      <c r="AA29" s="100"/>
+      <c r="AB29" s="100"/>
+      <c r="AC29" s="107"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="188" t="s">
+      <c r="A30" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="209">
         <v>1</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="209">
         <v>4</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="134"/>
+      <c r="F30" s="132"/>
       <c r="K30" s="33"/>
       <c r="L30" s="35"/>
       <c r="M30" s="27"/>
@@ -5219,17 +5209,19 @@
       <c r="O30" s="51"/>
       <c r="P30" s="55"/>
       <c r="Q30" s="45"/>
-      <c r="V30" s="108"/>
-      <c r="W30" s="102"/>
-      <c r="X30" s="102"/>
-      <c r="Y30" s="102"/>
-      <c r="Z30" s="102"/>
-      <c r="AA30" s="102"/>
-      <c r="AB30" s="102"/>
-      <c r="AC30" s="109"/>
+      <c r="V30" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="W30" s="100"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="100"/>
+      <c r="AB30" s="100"/>
+      <c r="AC30" s="107"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="188"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="27" t="s">
         <v>216</v>
       </c>
@@ -5242,7 +5234,7 @@
       <c r="E31" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="F31" s="134"/>
+      <c r="F31" s="132"/>
       <c r="K31" s="33"/>
       <c r="L31" s="35"/>
       <c r="M31" s="27"/>
@@ -5250,19 +5242,23 @@
       <c r="O31" s="50"/>
       <c r="P31" s="55"/>
       <c r="Q31" s="45"/>
-      <c r="V31" s="108" t="s">
-        <v>213</v>
-      </c>
-      <c r="W31" s="102"/>
-      <c r="X31" s="102"/>
-      <c r="Y31" s="102"/>
-      <c r="Z31" s="102"/>
-      <c r="AA31" s="102"/>
-      <c r="AB31" s="102"/>
-      <c r="AC31" s="109"/>
-    </row>
-    <row r="32" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="189"/>
+      <c r="V31" s="106" t="s">
+        <v>220</v>
+      </c>
+      <c r="W31" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="X31" s="100" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="100"/>
+      <c r="AB31" s="100"/>
+      <c r="AC31" s="107"/>
+    </row>
+    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="186"/>
       <c r="B32" s="43" t="s">
         <v>364</v>
       </c>
@@ -5283,22 +5279,22 @@
       <c r="O32" s="51"/>
       <c r="P32" s="55"/>
       <c r="Q32" s="45"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="W32" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="X32" s="102" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y32" s="102"/>
-      <c r="Z32" s="102"/>
-      <c r="AA32" s="102"/>
-      <c r="AB32" s="102"/>
-      <c r="AC32" s="109"/>
-      <c r="AD32" s="96"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="123" t="s">
+        <v>278</v>
+      </c>
+      <c r="W32" s="124" t="s">
+        <v>335</v>
+      </c>
+      <c r="X32" s="125" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y32" s="124"/>
+      <c r="Z32" s="124"/>
+      <c r="AA32" s="124"/>
+      <c r="AB32" s="124"/>
+      <c r="AC32" s="126"/>
+      <c r="AD32" s="94"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
@@ -5314,54 +5310,48 @@
       <c r="O33" s="51"/>
       <c r="P33" s="55"/>
       <c r="Q33" s="41"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="125" t="s">
-        <v>278</v>
-      </c>
-      <c r="W33" s="126" t="s">
-        <v>335</v>
-      </c>
-      <c r="X33" s="127" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y33" s="126"/>
-      <c r="Z33" s="126"/>
-      <c r="AA33" s="126"/>
-      <c r="AB33" s="126"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="96"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="149"/>
+      <c r="AD33" s="94"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="173" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="146"/>
-      <c r="L34" s="203" t="s">
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="143"/>
+      <c r="L34" s="200" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="204"/>
-      <c r="N34" s="204"/>
-      <c r="O34" s="204"/>
-      <c r="P34" s="204"/>
-      <c r="Q34" s="204"/>
-      <c r="R34" s="204"/>
-      <c r="S34" s="205"/>
-      <c r="U34" s="96"/>
-      <c r="V34" s="96"/>
-      <c r="W34" s="96"/>
-      <c r="X34" s="96"/>
-      <c r="Y34" s="96"/>
-      <c r="Z34" s="96"/>
-      <c r="AA34" s="96"/>
-      <c r="AB34" s="96"/>
-      <c r="AC34" s="152"/>
+      <c r="M34" s="201"/>
+      <c r="N34" s="201"/>
+      <c r="O34" s="201"/>
+      <c r="P34" s="201"/>
+      <c r="Q34" s="201"/>
+      <c r="R34" s="201"/>
+      <c r="S34" s="202"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
       <c r="AD34" s="27"/>
     </row>
     <row r="35" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5387,16 +5377,16 @@
       <c r="R35" s="68"/>
       <c r="S35" s="69"/>
       <c r="T35" s="61"/>
-      <c r="U35" s="96"/>
-      <c r="V35" s="96"/>
-      <c r="W35" s="96"/>
-      <c r="X35" s="96"/>
-      <c r="Y35" s="96"/>
-      <c r="Z35" s="96"/>
-      <c r="AA35" s="96"/>
-      <c r="AB35" s="96"/>
-      <c r="AC35" s="96"/>
-      <c r="AD35" s="151"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="148"/>
     </row>
     <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="32" t="s">
@@ -5414,103 +5404,95 @@
       <c r="H36" s="33"/>
       <c r="I36" s="30"/>
       <c r="J36" s="33"/>
-      <c r="L36" s="108" t="s">
+      <c r="L36" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="M36" s="102" t="s">
+      <c r="M36" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="N36" s="102" t="s">
+      <c r="N36" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="O36" s="102"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="102"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="107"/>
-      <c r="U36" s="96"/>
-      <c r="V36" s="96"/>
-      <c r="W36" s="96"/>
-      <c r="X36" s="96"/>
-      <c r="Y36" s="96"/>
-      <c r="Z36" s="96"/>
-      <c r="AA36" s="96"/>
-      <c r="AB36" s="96"/>
-      <c r="AC36" s="96"/>
-      <c r="AD36" s="107"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="100"/>
+      <c r="Q36" s="100"/>
+      <c r="R36" s="100"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="105"/>
+      <c r="U36" s="94"/>
+      <c r="AC36" s="94"/>
+      <c r="AD36" s="105"/>
     </row>
     <row r="37" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="82"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="80"/>
       <c r="J37" s="27"/>
-      <c r="L37" s="108" t="s">
+      <c r="L37" s="106" t="s">
         <v>223</v>
       </c>
-      <c r="M37" s="102" t="s">
+      <c r="M37" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="N37" s="110" t="s">
+      <c r="N37" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="O37" s="102"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="102"/>
-      <c r="S37" s="109"/>
-      <c r="T37" s="107"/>
-      <c r="U37" s="96"/>
-      <c r="AC37" s="96"/>
-      <c r="AD37" s="107"/>
+      <c r="O37" s="100"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="100"/>
+      <c r="R37" s="100"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="105"/>
+      <c r="U37" s="94"/>
+      <c r="AD37" s="105"/>
     </row>
     <row r="38" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="D38" s="81" t="s">
+      <c r="D38" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="82"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="80"/>
       <c r="J38" s="27"/>
-      <c r="L38" s="108" t="s">
+      <c r="L38" s="106" t="s">
         <v>226</v>
       </c>
-      <c r="M38" s="102" t="s">
+      <c r="M38" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="N38" s="110" t="s">
+      <c r="N38" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="O38" s="102"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="102"/>
-      <c r="S38" s="109"/>
-      <c r="T38" s="107"/>
-      <c r="U38" s="96"/>
-      <c r="AD38" s="107"/>
+      <c r="O38" s="100"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="100"/>
+      <c r="R38" s="100"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="105"/>
+      <c r="U38" s="94"/>
+      <c r="AD38" s="105"/>
     </row>
     <row r="39" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="88" t="s">
         <v>227</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -5525,27 +5507,27 @@
       <c r="H39" s="27"/>
       <c r="I39" s="48"/>
       <c r="J39" s="27"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="108" t="s">
+      <c r="K39" s="94"/>
+      <c r="L39" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="M39" s="102" t="s">
+      <c r="M39" s="100" t="s">
         <v>297</v>
       </c>
-      <c r="N39" s="110" t="s">
+      <c r="N39" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="O39" s="102"/>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="102"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="107"/>
-      <c r="U39" s="96"/>
-      <c r="AD39" s="107"/>
+      <c r="O39" s="100"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="100"/>
+      <c r="R39" s="100"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="105"/>
+      <c r="U39" s="94"/>
+      <c r="AD39" s="105"/>
     </row>
     <row r="40" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="88" t="s">
         <v>230</v>
       </c>
       <c r="C40" s="27" t="s">
@@ -5560,27 +5542,27 @@
       <c r="H40" s="27"/>
       <c r="I40" s="48"/>
       <c r="J40" s="27"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="108" t="s">
+      <c r="K40" s="94"/>
+      <c r="L40" s="106" t="s">
         <v>230</v>
       </c>
-      <c r="M40" s="102" t="s">
+      <c r="M40" s="100" t="s">
         <v>298</v>
       </c>
-      <c r="N40" s="110" t="s">
+      <c r="N40" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="O40" s="102"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="102"/>
-      <c r="S40" s="109"/>
-      <c r="T40" s="107"/>
-      <c r="U40" s="96"/>
-      <c r="AD40" s="107"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="105"/>
+      <c r="U40" s="94"/>
+      <c r="AD40" s="105"/>
     </row>
     <row r="41" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="88" t="s">
         <v>179</v>
       </c>
       <c r="C41" s="27" t="s">
@@ -5595,27 +5577,27 @@
       <c r="H41" s="27"/>
       <c r="I41" s="48"/>
       <c r="J41" s="27"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="108" t="s">
+      <c r="K41" s="94"/>
+      <c r="L41" s="106" t="s">
         <v>179</v>
       </c>
-      <c r="M41" s="102" t="s">
+      <c r="M41" s="100" t="s">
         <v>298</v>
       </c>
-      <c r="N41" s="110" t="s">
+      <c r="N41" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="O41" s="102"/>
-      <c r="P41" s="102"/>
-      <c r="Q41" s="102"/>
-      <c r="R41" s="102"/>
-      <c r="S41" s="109"/>
-      <c r="T41" s="107"/>
-      <c r="U41" s="96"/>
-      <c r="AD41" s="107"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="100"/>
+      <c r="Q41" s="100"/>
+      <c r="R41" s="100"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="105"/>
+      <c r="U41" s="94"/>
+      <c r="AD41" s="105"/>
     </row>
     <row r="42" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="88" t="s">
         <v>232</v>
       </c>
       <c r="C42" s="27" t="s">
@@ -5630,27 +5612,27 @@
       <c r="H42" s="27"/>
       <c r="I42" s="48"/>
       <c r="J42" s="27"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="108" t="s">
+      <c r="K42" s="94"/>
+      <c r="L42" s="106" t="s">
         <v>232</v>
       </c>
-      <c r="M42" s="102" t="s">
+      <c r="M42" s="100" t="s">
         <v>298</v>
       </c>
-      <c r="N42" s="110" t="s">
+      <c r="N42" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="O42" s="102"/>
-      <c r="P42" s="102"/>
-      <c r="Q42" s="102"/>
-      <c r="R42" s="102"/>
-      <c r="S42" s="109"/>
+      <c r="O42" s="100"/>
+      <c r="P42" s="100"/>
+      <c r="Q42" s="100"/>
+      <c r="R42" s="100"/>
+      <c r="S42" s="107"/>
       <c r="T42" s="61"/>
-      <c r="U42" s="96"/>
-      <c r="AD42" s="107"/>
+      <c r="U42" s="94"/>
+      <c r="AD42" s="105"/>
     </row>
     <row r="43" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="88" t="s">
         <v>234</v>
       </c>
       <c r="C43" s="27" t="s">
@@ -5665,27 +5647,27 @@
       <c r="H43" s="27"/>
       <c r="I43" s="48"/>
       <c r="J43" s="27"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="108" t="s">
+      <c r="K43" s="94"/>
+      <c r="L43" s="106" t="s">
         <v>234</v>
       </c>
-      <c r="M43" s="102" t="s">
+      <c r="M43" s="100" t="s">
         <v>298</v>
       </c>
-      <c r="N43" s="110" t="s">
+      <c r="N43" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="O43" s="102"/>
-      <c r="P43" s="102"/>
-      <c r="Q43" s="102"/>
-      <c r="R43" s="102"/>
-      <c r="S43" s="109"/>
+      <c r="O43" s="100"/>
+      <c r="P43" s="100"/>
+      <c r="Q43" s="100"/>
+      <c r="R43" s="100"/>
+      <c r="S43" s="107"/>
       <c r="T43" s="61"/>
-      <c r="U43" s="96"/>
-      <c r="AD43" s="107"/>
+      <c r="U43" s="94"/>
+      <c r="AD43" s="105"/>
     </row>
     <row r="44" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="90" t="s">
+      <c r="B44" s="88" t="s">
         <v>235</v>
       </c>
       <c r="C44" s="27" t="s">
@@ -5700,27 +5682,27 @@
       <c r="H44" s="27"/>
       <c r="I44" s="48"/>
       <c r="J44" s="27"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="108" t="s">
+      <c r="K44" s="94"/>
+      <c r="L44" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="M44" s="102" t="s">
+      <c r="M44" s="100" t="s">
         <v>297</v>
       </c>
-      <c r="N44" s="110" t="s">
+      <c r="N44" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="O44" s="102"/>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="102"/>
-      <c r="R44" s="102"/>
-      <c r="S44" s="109"/>
+      <c r="O44" s="100"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="107"/>
       <c r="T44" s="61"/>
-      <c r="U44" s="96"/>
-      <c r="AD44" s="107"/>
+      <c r="U44" s="94"/>
+      <c r="AD44" s="105"/>
     </row>
     <row r="45" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="88" t="s">
         <v>174</v>
       </c>
       <c r="C45" s="27" t="s">
@@ -5735,27 +5717,27 @@
       <c r="H45" s="27"/>
       <c r="I45" s="48"/>
       <c r="J45" s="27"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="108" t="s">
+      <c r="K45" s="94"/>
+      <c r="L45" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="M45" s="102" t="s">
+      <c r="M45" s="100" t="s">
         <v>228</v>
       </c>
-      <c r="N45" s="110" t="s">
+      <c r="N45" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="O45" s="102"/>
-      <c r="P45" s="102"/>
-      <c r="Q45" s="102"/>
-      <c r="R45" s="102"/>
-      <c r="S45" s="109"/>
+      <c r="O45" s="100"/>
+      <c r="P45" s="100"/>
+      <c r="Q45" s="100"/>
+      <c r="R45" s="100"/>
+      <c r="S45" s="107"/>
       <c r="T45" s="61"/>
-      <c r="U45" s="96"/>
-      <c r="AD45" s="107"/>
+      <c r="U45" s="94"/>
+      <c r="AD45" s="105"/>
     </row>
     <row r="46" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="88" t="s">
         <v>237</v>
       </c>
       <c r="C46" s="27" t="s">
@@ -5770,27 +5752,27 @@
       <c r="H46" s="27"/>
       <c r="I46" s="48"/>
       <c r="J46" s="27"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="108" t="s">
+      <c r="K46" s="94"/>
+      <c r="L46" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="M46" s="102" t="s">
+      <c r="M46" s="100" t="s">
         <v>299</v>
       </c>
-      <c r="N46" s="110" t="s">
+      <c r="N46" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="O46" s="102"/>
-      <c r="P46" s="102"/>
-      <c r="Q46" s="102"/>
-      <c r="R46" s="102"/>
-      <c r="S46" s="109"/>
+      <c r="O46" s="100"/>
+      <c r="P46" s="100"/>
+      <c r="Q46" s="100"/>
+      <c r="R46" s="100"/>
+      <c r="S46" s="107"/>
       <c r="T46" s="61"/>
-      <c r="U46" s="96"/>
-      <c r="AD46" s="107"/>
+      <c r="U46" s="94"/>
+      <c r="AD46" s="105"/>
     </row>
     <row r="47" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="90" t="s">
+      <c r="B47" s="88" t="s">
         <v>239</v>
       </c>
       <c r="C47" s="27" t="s">
@@ -5805,27 +5787,27 @@
       <c r="H47" s="27"/>
       <c r="I47" s="48"/>
       <c r="J47" s="27"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="108" t="s">
+      <c r="K47" s="94"/>
+      <c r="L47" s="106" t="s">
         <v>239</v>
       </c>
-      <c r="M47" s="102" t="s">
+      <c r="M47" s="100" t="s">
         <v>300</v>
       </c>
-      <c r="N47" s="110" t="s">
+      <c r="N47" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="O47" s="102"/>
-      <c r="P47" s="102"/>
-      <c r="Q47" s="102"/>
-      <c r="R47" s="102"/>
-      <c r="S47" s="109"/>
+      <c r="O47" s="100"/>
+      <c r="P47" s="100"/>
+      <c r="Q47" s="100"/>
+      <c r="R47" s="100"/>
+      <c r="S47" s="107"/>
       <c r="T47" s="61"/>
-      <c r="U47" s="96"/>
-      <c r="AD47" s="107"/>
+      <c r="U47" s="94"/>
+      <c r="AD47" s="105"/>
     </row>
     <row r="48" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="90" t="s">
+      <c r="B48" s="88" t="s">
         <v>240</v>
       </c>
       <c r="C48" s="27" t="s">
@@ -5840,27 +5822,27 @@
       <c r="H48" s="27"/>
       <c r="I48" s="48"/>
       <c r="J48" s="27"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="108" t="s">
+      <c r="K48" s="94"/>
+      <c r="L48" s="106" t="s">
         <v>240</v>
       </c>
-      <c r="M48" s="102" t="s">
+      <c r="M48" s="100" t="s">
         <v>238</v>
       </c>
-      <c r="N48" s="110" t="s">
+      <c r="N48" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="O48" s="102"/>
-      <c r="P48" s="102"/>
-      <c r="Q48" s="102"/>
-      <c r="R48" s="102"/>
-      <c r="S48" s="109"/>
+      <c r="O48" s="100"/>
+      <c r="P48" s="100"/>
+      <c r="Q48" s="100"/>
+      <c r="R48" s="100"/>
+      <c r="S48" s="107"/>
       <c r="T48" s="61"/>
-      <c r="U48" s="96"/>
-      <c r="AD48" s="107"/>
+      <c r="U48" s="94"/>
+      <c r="AD48" s="105"/>
     </row>
     <row r="49" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="88" t="s">
         <v>242</v>
       </c>
       <c r="C49" s="27" t="s">
@@ -5875,27 +5857,27 @@
       <c r="H49" s="27"/>
       <c r="I49" s="48"/>
       <c r="J49" s="27"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="108" t="s">
+      <c r="K49" s="94"/>
+      <c r="L49" s="106" t="s">
         <v>242</v>
       </c>
-      <c r="M49" s="102" t="s">
+      <c r="M49" s="100" t="s">
         <v>238</v>
       </c>
-      <c r="N49" s="110" t="s">
+      <c r="N49" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="O49" s="102"/>
-      <c r="P49" s="102"/>
-      <c r="Q49" s="102"/>
-      <c r="R49" s="102"/>
-      <c r="S49" s="109"/>
+      <c r="O49" s="100"/>
+      <c r="P49" s="100"/>
+      <c r="Q49" s="100"/>
+      <c r="R49" s="100"/>
+      <c r="S49" s="107"/>
       <c r="T49" s="61"/>
-      <c r="U49" s="96"/>
-      <c r="AD49" s="107"/>
+      <c r="U49" s="94"/>
+      <c r="AD49" s="105"/>
     </row>
     <row r="50" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="88" t="s">
         <v>243</v>
       </c>
       <c r="C50" s="27" t="s">
@@ -5910,27 +5892,27 @@
       <c r="H50" s="27"/>
       <c r="I50" s="48"/>
       <c r="J50" s="27"/>
-      <c r="K50" s="96"/>
-      <c r="L50" s="108" t="s">
+      <c r="K50" s="94"/>
+      <c r="L50" s="106" t="s">
         <v>243</v>
       </c>
-      <c r="M50" s="102" t="s">
+      <c r="M50" s="100" t="s">
         <v>228</v>
       </c>
-      <c r="N50" s="110" t="s">
+      <c r="N50" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="O50" s="102"/>
-      <c r="P50" s="102"/>
-      <c r="Q50" s="102"/>
-      <c r="R50" s="102"/>
-      <c r="S50" s="109"/>
+      <c r="O50" s="100"/>
+      <c r="P50" s="100"/>
+      <c r="Q50" s="100"/>
+      <c r="R50" s="100"/>
+      <c r="S50" s="107"/>
       <c r="T50" s="61"/>
-      <c r="U50" s="96"/>
-      <c r="AD50" s="107"/>
+      <c r="U50" s="94"/>
+      <c r="AD50" s="105"/>
     </row>
     <row r="51" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="90" t="s">
+      <c r="B51" s="88" t="s">
         <v>244</v>
       </c>
       <c r="C51" s="27" t="s">
@@ -5945,27 +5927,27 @@
       <c r="H51" s="27"/>
       <c r="I51" s="48"/>
       <c r="J51" s="27"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="108" t="s">
+      <c r="K51" s="94"/>
+      <c r="L51" s="106" t="s">
         <v>244</v>
       </c>
-      <c r="M51" s="102" t="s">
+      <c r="M51" s="100" t="s">
         <v>301</v>
       </c>
-      <c r="N51" s="110" t="s">
+      <c r="N51" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="O51" s="102"/>
-      <c r="P51" s="102"/>
-      <c r="Q51" s="102"/>
-      <c r="R51" s="102"/>
-      <c r="S51" s="109"/>
+      <c r="O51" s="100"/>
+      <c r="P51" s="100"/>
+      <c r="Q51" s="100"/>
+      <c r="R51" s="100"/>
+      <c r="S51" s="107"/>
       <c r="T51" s="61"/>
-      <c r="U51" s="96"/>
-      <c r="AD51" s="107"/>
+      <c r="U51" s="94"/>
+      <c r="AD51" s="105"/>
     </row>
     <row r="52" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="90" t="s">
+      <c r="B52" s="88" t="s">
         <v>170</v>
       </c>
       <c r="C52" s="27" t="s">
@@ -5980,27 +5962,27 @@
       <c r="H52" s="27"/>
       <c r="I52" s="48"/>
       <c r="J52" s="27"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="108" t="s">
+      <c r="K52" s="94"/>
+      <c r="L52" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="M52" s="102" t="s">
+      <c r="M52" s="100" t="s">
         <v>238</v>
       </c>
-      <c r="N52" s="110" t="s">
+      <c r="N52" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="O52" s="102"/>
-      <c r="P52" s="102"/>
-      <c r="Q52" s="102"/>
-      <c r="R52" s="102"/>
-      <c r="S52" s="109"/>
+      <c r="O52" s="100"/>
+      <c r="P52" s="100"/>
+      <c r="Q52" s="100"/>
+      <c r="R52" s="100"/>
+      <c r="S52" s="107"/>
       <c r="T52" s="61"/>
-      <c r="U52" s="96"/>
-      <c r="AD52" s="96"/>
+      <c r="U52" s="94"/>
+      <c r="AD52" s="94"/>
     </row>
     <row r="53" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="90"/>
+      <c r="B53" s="88"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
@@ -6009,21 +5991,21 @@
       <c r="H53" s="27"/>
       <c r="I53" s="48"/>
       <c r="J53" s="27"/>
-      <c r="K53" s="96"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="102"/>
-      <c r="N53" s="102"/>
-      <c r="O53" s="102"/>
-      <c r="P53" s="102"/>
-      <c r="Q53" s="102"/>
-      <c r="R53" s="102"/>
-      <c r="S53" s="109"/>
+      <c r="K53" s="94"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
+      <c r="O53" s="100"/>
+      <c r="P53" s="100"/>
+      <c r="Q53" s="100"/>
+      <c r="R53" s="100"/>
+      <c r="S53" s="107"/>
       <c r="T53" s="61"/>
-      <c r="U53" s="96"/>
-      <c r="AD53" s="96"/>
+      <c r="U53" s="94"/>
+      <c r="AD53" s="94"/>
     </row>
     <row r="54" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="90" t="s">
+      <c r="B54" s="88" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="27"/>
@@ -6034,23 +6016,23 @@
       <c r="H54" s="27"/>
       <c r="I54" s="48"/>
       <c r="J54" s="27"/>
-      <c r="K54" s="96"/>
-      <c r="L54" s="111" t="s">
+      <c r="K54" s="94"/>
+      <c r="L54" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="M54" s="102"/>
-      <c r="N54" s="102"/>
-      <c r="O54" s="102"/>
-      <c r="P54" s="102"/>
-      <c r="Q54" s="102"/>
-      <c r="R54" s="102"/>
-      <c r="S54" s="109"/>
+      <c r="M54" s="100"/>
+      <c r="N54" s="100"/>
+      <c r="O54" s="100"/>
+      <c r="P54" s="100"/>
+      <c r="Q54" s="100"/>
+      <c r="R54" s="100"/>
+      <c r="S54" s="107"/>
       <c r="T54" s="61"/>
-      <c r="U54" s="96"/>
-      <c r="AD54" s="96"/>
+      <c r="U54" s="94"/>
+      <c r="AD54" s="94"/>
     </row>
     <row r="55" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="88" t="s">
         <v>220</v>
       </c>
       <c r="C55" s="27" t="s">
@@ -6065,25 +6047,25 @@
       <c r="H55" s="27"/>
       <c r="I55" s="48"/>
       <c r="J55" s="27"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="108" t="s">
+      <c r="K55" s="94"/>
+      <c r="L55" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="M55" s="102" t="s">
+      <c r="M55" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="N55" s="102" t="s">
+      <c r="N55" s="100" t="s">
         <v>302</v>
       </c>
-      <c r="O55" s="102"/>
-      <c r="P55" s="102"/>
-      <c r="Q55" s="102"/>
-      <c r="R55" s="102"/>
-      <c r="S55" s="109"/>
+      <c r="O55" s="100"/>
+      <c r="P55" s="100"/>
+      <c r="Q55" s="100"/>
+      <c r="R55" s="100"/>
+      <c r="S55" s="107"/>
       <c r="T55" s="61"/>
     </row>
     <row r="56" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="90" t="s">
+      <c r="B56" s="88" t="s">
         <v>245</v>
       </c>
       <c r="C56" s="27" t="s">
@@ -6098,25 +6080,25 @@
       <c r="H56" s="27"/>
       <c r="I56" s="48"/>
       <c r="J56" s="27"/>
-      <c r="K56" s="96"/>
-      <c r="L56" s="108" t="s">
+      <c r="K56" s="94"/>
+      <c r="L56" s="106" t="s">
         <v>245</v>
       </c>
-      <c r="M56" s="102" t="s">
+      <c r="M56" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="N56" s="110" t="s">
+      <c r="N56" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O56" s="102"/>
-      <c r="P56" s="102"/>
-      <c r="Q56" s="102"/>
-      <c r="R56" s="102"/>
-      <c r="S56" s="109"/>
+      <c r="O56" s="100"/>
+      <c r="P56" s="100"/>
+      <c r="Q56" s="100"/>
+      <c r="R56" s="100"/>
+      <c r="S56" s="107"/>
       <c r="T56" s="61"/>
     </row>
     <row r="57" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="90" t="s">
+      <c r="B57" s="88" t="s">
         <v>248</v>
       </c>
       <c r="C57" s="27" t="s">
@@ -6131,25 +6113,25 @@
       <c r="H57" s="27"/>
       <c r="I57" s="48"/>
       <c r="J57" s="27"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="108" t="s">
+      <c r="K57" s="94"/>
+      <c r="L57" s="106" t="s">
         <v>250</v>
       </c>
-      <c r="M57" s="102" t="s">
+      <c r="M57" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="N57" s="110" t="s">
+      <c r="N57" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O57" s="102"/>
-      <c r="P57" s="102"/>
-      <c r="Q57" s="102"/>
-      <c r="R57" s="102"/>
-      <c r="S57" s="109"/>
+      <c r="O57" s="100"/>
+      <c r="P57" s="100"/>
+      <c r="Q57" s="100"/>
+      <c r="R57" s="100"/>
+      <c r="S57" s="107"/>
       <c r="T57" s="61"/>
     </row>
     <row r="58" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="90" t="s">
+      <c r="B58" s="88" t="s">
         <v>250</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -6164,25 +6146,25 @@
       <c r="H58" s="27"/>
       <c r="I58" s="48"/>
       <c r="J58" s="27"/>
-      <c r="K58" s="96"/>
-      <c r="L58" s="108" t="s">
+      <c r="K58" s="94"/>
+      <c r="L58" s="106" t="s">
         <v>251</v>
       </c>
-      <c r="M58" s="102" t="s">
+      <c r="M58" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="N58" s="110" t="s">
+      <c r="N58" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O58" s="102"/>
-      <c r="P58" s="102"/>
-      <c r="Q58" s="102"/>
-      <c r="R58" s="102"/>
-      <c r="S58" s="109"/>
+      <c r="O58" s="100"/>
+      <c r="P58" s="100"/>
+      <c r="Q58" s="100"/>
+      <c r="R58" s="100"/>
+      <c r="S58" s="107"/>
       <c r="T58" s="61"/>
     </row>
     <row r="59" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="90" t="s">
+      <c r="B59" s="88" t="s">
         <v>251</v>
       </c>
       <c r="C59" s="27" t="s">
@@ -6197,25 +6179,25 @@
       <c r="H59" s="27"/>
       <c r="I59" s="48"/>
       <c r="J59" s="27"/>
-      <c r="K59" s="96"/>
-      <c r="L59" s="108" t="s">
+      <c r="K59" s="94"/>
+      <c r="L59" s="106" t="s">
         <v>252</v>
       </c>
-      <c r="M59" s="102" t="s">
+      <c r="M59" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="N59" s="110" t="s">
+      <c r="N59" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O59" s="102"/>
-      <c r="P59" s="102"/>
-      <c r="Q59" s="102"/>
-      <c r="R59" s="102"/>
-      <c r="S59" s="109"/>
+      <c r="O59" s="100"/>
+      <c r="P59" s="100"/>
+      <c r="Q59" s="100"/>
+      <c r="R59" s="100"/>
+      <c r="S59" s="107"/>
       <c r="T59" s="61"/>
     </row>
     <row r="60" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="90" t="s">
+      <c r="B60" s="88" t="s">
         <v>252</v>
       </c>
       <c r="C60" s="27" t="s">
@@ -6230,25 +6212,25 @@
       <c r="H60" s="27"/>
       <c r="I60" s="48"/>
       <c r="J60" s="27"/>
-      <c r="K60" s="96"/>
-      <c r="L60" s="108" t="s">
+      <c r="K60" s="94"/>
+      <c r="L60" s="106" t="s">
         <v>253</v>
       </c>
-      <c r="M60" s="102" t="s">
+      <c r="M60" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="N60" s="110" t="s">
+      <c r="N60" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O60" s="102"/>
-      <c r="P60" s="102"/>
-      <c r="Q60" s="102"/>
-      <c r="R60" s="102"/>
-      <c r="S60" s="109"/>
+      <c r="O60" s="100"/>
+      <c r="P60" s="100"/>
+      <c r="Q60" s="100"/>
+      <c r="R60" s="100"/>
+      <c r="S60" s="107"/>
       <c r="T60" s="61"/>
     </row>
     <row r="61" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="90" t="s">
+      <c r="B61" s="88" t="s">
         <v>253</v>
       </c>
       <c r="C61" s="27" t="s">
@@ -6263,25 +6245,25 @@
       <c r="H61" s="27"/>
       <c r="I61" s="48"/>
       <c r="J61" s="27"/>
-      <c r="K61" s="96"/>
-      <c r="L61" s="108" t="s">
+      <c r="K61" s="94"/>
+      <c r="L61" s="106" t="s">
         <v>254</v>
       </c>
-      <c r="M61" s="102" t="s">
+      <c r="M61" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="N61" s="110" t="s">
+      <c r="N61" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O61" s="102"/>
-      <c r="P61" s="102"/>
-      <c r="Q61" s="102"/>
-      <c r="R61" s="102"/>
-      <c r="S61" s="109"/>
-      <c r="T61" s="107"/>
+      <c r="O61" s="100"/>
+      <c r="P61" s="100"/>
+      <c r="Q61" s="100"/>
+      <c r="R61" s="100"/>
+      <c r="S61" s="107"/>
+      <c r="T61" s="105"/>
     </row>
     <row r="62" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="90" t="s">
+      <c r="B62" s="88" t="s">
         <v>254</v>
       </c>
       <c r="C62" s="27" t="s">
@@ -6296,25 +6278,25 @@
       <c r="H62" s="27"/>
       <c r="I62" s="48"/>
       <c r="J62" s="27"/>
-      <c r="K62" s="96"/>
-      <c r="L62" s="108" t="s">
+      <c r="K62" s="94"/>
+      <c r="L62" s="106" t="s">
         <v>187</v>
       </c>
-      <c r="M62" s="102" t="s">
+      <c r="M62" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="N62" s="110" t="s">
+      <c r="N62" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O62" s="102"/>
-      <c r="P62" s="102"/>
-      <c r="Q62" s="102"/>
-      <c r="R62" s="102"/>
-      <c r="S62" s="109"/>
-      <c r="T62" s="107"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="100"/>
+      <c r="Q62" s="100"/>
+      <c r="R62" s="100"/>
+      <c r="S62" s="107"/>
+      <c r="T62" s="105"/>
     </row>
     <row r="63" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="90" t="s">
+      <c r="B63" s="88" t="s">
         <v>187</v>
       </c>
       <c r="C63" s="27" t="s">
@@ -6329,22 +6311,22 @@
       <c r="H63" s="27"/>
       <c r="I63" s="48"/>
       <c r="J63" s="27"/>
-      <c r="K63" s="96"/>
-      <c r="L63" s="108" t="s">
+      <c r="K63" s="94"/>
+      <c r="L63" s="106" t="s">
         <v>303</v>
       </c>
-      <c r="M63" s="102" t="s">
+      <c r="M63" s="100" t="s">
         <v>304</v>
       </c>
-      <c r="N63" s="110" t="s">
+      <c r="N63" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O63" s="102"/>
-      <c r="P63" s="102"/>
-      <c r="Q63" s="102"/>
-      <c r="R63" s="102"/>
-      <c r="S63" s="109"/>
-      <c r="T63" s="107"/>
+      <c r="O63" s="100"/>
+      <c r="P63" s="100"/>
+      <c r="Q63" s="100"/>
+      <c r="R63" s="100"/>
+      <c r="S63" s="107"/>
+      <c r="T63" s="105"/>
     </row>
     <row r="64" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="32"/>
@@ -6356,22 +6338,22 @@
       <c r="H64" s="33"/>
       <c r="I64" s="30"/>
       <c r="J64" s="33"/>
-      <c r="K64" s="96"/>
-      <c r="L64" s="108" t="s">
+      <c r="K64" s="94"/>
+      <c r="L64" s="106" t="s">
         <v>305</v>
       </c>
-      <c r="M64" s="102" t="s">
+      <c r="M64" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="N64" s="110" t="s">
+      <c r="N64" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O64" s="102"/>
-      <c r="P64" s="102"/>
-      <c r="Q64" s="102"/>
-      <c r="R64" s="102"/>
-      <c r="S64" s="109"/>
-      <c r="T64" s="107"/>
+      <c r="O64" s="100"/>
+      <c r="P64" s="100"/>
+      <c r="Q64" s="100"/>
+      <c r="R64" s="100"/>
+      <c r="S64" s="107"/>
+      <c r="T64" s="105"/>
     </row>
     <row r="65" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="32" t="s">
@@ -6385,22 +6367,22 @@
       <c r="H65" s="33"/>
       <c r="I65" s="30"/>
       <c r="J65" s="33"/>
-      <c r="K65" s="96"/>
-      <c r="L65" s="108" t="s">
+      <c r="K65" s="94"/>
+      <c r="L65" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="M65" s="102" t="s">
+      <c r="M65" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="N65" s="110" t="s">
+      <c r="N65" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O65" s="102"/>
-      <c r="P65" s="102"/>
-      <c r="Q65" s="102"/>
-      <c r="R65" s="102"/>
-      <c r="S65" s="109"/>
-      <c r="T65" s="107"/>
+      <c r="O65" s="100"/>
+      <c r="P65" s="100"/>
+      <c r="Q65" s="100"/>
+      <c r="R65" s="100"/>
+      <c r="S65" s="107"/>
+      <c r="T65" s="105"/>
     </row>
     <row r="66" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="32" t="s">
@@ -6418,22 +6400,22 @@
       <c r="H66" s="33"/>
       <c r="I66" s="30"/>
       <c r="J66" s="33"/>
-      <c r="K66" s="96"/>
-      <c r="L66" s="108" t="s">
+      <c r="K66" s="94"/>
+      <c r="L66" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="M66" s="102" t="s">
+      <c r="M66" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="N66" s="110" t="s">
+      <c r="N66" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O66" s="102"/>
-      <c r="P66" s="102"/>
-      <c r="Q66" s="102"/>
-      <c r="R66" s="102"/>
-      <c r="S66" s="109"/>
-      <c r="T66" s="107"/>
+      <c r="O66" s="100"/>
+      <c r="P66" s="100"/>
+      <c r="Q66" s="100"/>
+      <c r="R66" s="100"/>
+      <c r="S66" s="107"/>
+      <c r="T66" s="105"/>
     </row>
     <row r="67" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="32" t="s">
@@ -6451,22 +6433,22 @@
       <c r="H67" s="33"/>
       <c r="I67" s="30"/>
       <c r="J67" s="33"/>
-      <c r="K67" s="96"/>
-      <c r="L67" s="108" t="s">
+      <c r="K67" s="94"/>
+      <c r="L67" s="106" t="s">
         <v>308</v>
       </c>
-      <c r="M67" s="102" t="s">
+      <c r="M67" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="N67" s="110" t="s">
+      <c r="N67" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O67" s="102"/>
-      <c r="P67" s="102"/>
-      <c r="Q67" s="102"/>
-      <c r="R67" s="102"/>
-      <c r="S67" s="109"/>
-      <c r="T67" s="107"/>
+      <c r="O67" s="100"/>
+      <c r="P67" s="100"/>
+      <c r="Q67" s="100"/>
+      <c r="R67" s="100"/>
+      <c r="S67" s="107"/>
+      <c r="T67" s="105"/>
     </row>
     <row r="68" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="32" t="s">
@@ -6484,22 +6466,22 @@
       <c r="H68" s="33"/>
       <c r="I68" s="30"/>
       <c r="J68" s="33"/>
-      <c r="K68" s="96"/>
-      <c r="L68" s="108" t="s">
+      <c r="K68" s="94"/>
+      <c r="L68" s="106" t="s">
         <v>309</v>
       </c>
-      <c r="M68" s="102" t="s">
+      <c r="M68" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="N68" s="110" t="s">
+      <c r="N68" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O68" s="102"/>
-      <c r="P68" s="102"/>
-      <c r="Q68" s="102"/>
-      <c r="R68" s="102"/>
-      <c r="S68" s="109"/>
-      <c r="T68" s="107"/>
+      <c r="O68" s="100"/>
+      <c r="P68" s="100"/>
+      <c r="Q68" s="100"/>
+      <c r="R68" s="100"/>
+      <c r="S68" s="107"/>
+      <c r="T68" s="105"/>
     </row>
     <row r="69" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="32" t="s">
@@ -6517,22 +6499,22 @@
       <c r="H69" s="33"/>
       <c r="I69" s="30"/>
       <c r="J69" s="33"/>
-      <c r="K69" s="96"/>
-      <c r="L69" s="108" t="s">
+      <c r="K69" s="94"/>
+      <c r="L69" s="106" t="s">
         <v>310</v>
       </c>
-      <c r="M69" s="102" t="s">
+      <c r="M69" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="N69" s="110" t="s">
+      <c r="N69" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O69" s="102"/>
-      <c r="P69" s="102"/>
-      <c r="Q69" s="102"/>
-      <c r="R69" s="102"/>
-      <c r="S69" s="109"/>
-      <c r="T69" s="107"/>
+      <c r="O69" s="100"/>
+      <c r="P69" s="100"/>
+      <c r="Q69" s="100"/>
+      <c r="R69" s="100"/>
+      <c r="S69" s="107"/>
+      <c r="T69" s="105"/>
     </row>
     <row r="70" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="32" t="s">
@@ -6550,22 +6532,22 @@
       <c r="H70" s="33"/>
       <c r="I70" s="30"/>
       <c r="J70" s="33"/>
-      <c r="K70" s="96"/>
-      <c r="L70" s="108" t="s">
+      <c r="K70" s="94"/>
+      <c r="L70" s="106" t="s">
         <v>312</v>
       </c>
-      <c r="M70" s="102" t="s">
+      <c r="M70" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="N70" s="110" t="s">
+      <c r="N70" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O70" s="102"/>
-      <c r="P70" s="102"/>
-      <c r="Q70" s="102"/>
-      <c r="R70" s="102"/>
-      <c r="S70" s="109"/>
-      <c r="T70" s="107"/>
+      <c r="O70" s="100"/>
+      <c r="P70" s="100"/>
+      <c r="Q70" s="100"/>
+      <c r="R70" s="100"/>
+      <c r="S70" s="107"/>
+      <c r="T70" s="105"/>
     </row>
     <row r="71" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="32" t="s">
@@ -6583,22 +6565,22 @@
       <c r="H71" s="33"/>
       <c r="I71" s="30"/>
       <c r="J71" s="33"/>
-      <c r="K71" s="96"/>
-      <c r="L71" s="108" t="s">
+      <c r="K71" s="94"/>
+      <c r="L71" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="M71" s="102" t="s">
+      <c r="M71" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="N71" s="110" t="s">
+      <c r="N71" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O71" s="102"/>
-      <c r="P71" s="102"/>
-      <c r="Q71" s="102"/>
-      <c r="R71" s="102"/>
-      <c r="S71" s="109"/>
-      <c r="T71" s="107"/>
+      <c r="O71" s="100"/>
+      <c r="P71" s="100"/>
+      <c r="Q71" s="100"/>
+      <c r="R71" s="100"/>
+      <c r="S71" s="107"/>
+      <c r="T71" s="105"/>
     </row>
     <row r="72" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="32"/>
@@ -6610,22 +6592,22 @@
       <c r="H72" s="33"/>
       <c r="I72" s="30"/>
       <c r="J72" s="33"/>
-      <c r="K72" s="96"/>
-      <c r="L72" s="108" t="s">
+      <c r="K72" s="94"/>
+      <c r="L72" s="106" t="s">
         <v>314</v>
       </c>
-      <c r="M72" s="102" t="s">
+      <c r="M72" s="100" t="s">
         <v>315</v>
       </c>
-      <c r="N72" s="110" t="s">
+      <c r="N72" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O72" s="102"/>
-      <c r="P72" s="102"/>
-      <c r="Q72" s="102"/>
-      <c r="R72" s="102"/>
-      <c r="S72" s="109"/>
-      <c r="T72" s="107"/>
+      <c r="O72" s="100"/>
+      <c r="P72" s="100"/>
+      <c r="Q72" s="100"/>
+      <c r="R72" s="100"/>
+      <c r="S72" s="107"/>
+      <c r="T72" s="105"/>
     </row>
     <row r="73" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="32" t="s">
@@ -6639,22 +6621,22 @@
       <c r="H73" s="33"/>
       <c r="I73" s="30"/>
       <c r="J73" s="33"/>
-      <c r="K73" s="96"/>
-      <c r="L73" s="108" t="s">
+      <c r="K73" s="94"/>
+      <c r="L73" s="106" t="s">
         <v>316</v>
       </c>
-      <c r="M73" s="102" t="s">
+      <c r="M73" s="100" t="s">
         <v>315</v>
       </c>
-      <c r="N73" s="110" t="s">
+      <c r="N73" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O73" s="102"/>
-      <c r="P73" s="102"/>
-      <c r="Q73" s="102"/>
-      <c r="R73" s="102"/>
-      <c r="S73" s="109"/>
-      <c r="T73" s="107"/>
+      <c r="O73" s="100"/>
+      <c r="P73" s="100"/>
+      <c r="Q73" s="100"/>
+      <c r="R73" s="100"/>
+      <c r="S73" s="107"/>
+      <c r="T73" s="105"/>
     </row>
     <row r="74" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="32" t="s">
@@ -6672,22 +6654,22 @@
       <c r="H74" s="33"/>
       <c r="I74" s="30"/>
       <c r="J74" s="33"/>
-      <c r="K74" s="96"/>
-      <c r="L74" s="108" t="s">
+      <c r="K74" s="94"/>
+      <c r="L74" s="106" t="s">
         <v>317</v>
       </c>
-      <c r="M74" s="102" t="s">
+      <c r="M74" s="100" t="s">
         <v>315</v>
       </c>
-      <c r="N74" s="110" t="s">
+      <c r="N74" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O74" s="102"/>
-      <c r="P74" s="102"/>
-      <c r="Q74" s="102"/>
-      <c r="R74" s="102"/>
-      <c r="S74" s="109"/>
-      <c r="T74" s="107"/>
+      <c r="O74" s="100"/>
+      <c r="P74" s="100"/>
+      <c r="Q74" s="100"/>
+      <c r="R74" s="100"/>
+      <c r="S74" s="107"/>
+      <c r="T74" s="105"/>
     </row>
     <row r="75" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="32" t="s">
@@ -6705,45 +6687,45 @@
       <c r="H75" s="33"/>
       <c r="I75" s="30"/>
       <c r="J75" s="33"/>
-      <c r="K75" s="96"/>
-      <c r="L75" s="108"/>
-      <c r="M75" s="102"/>
-      <c r="N75" s="102"/>
-      <c r="O75" s="102"/>
-      <c r="P75" s="102"/>
-      <c r="Q75" s="102"/>
-      <c r="R75" s="102"/>
-      <c r="S75" s="109"/>
-      <c r="T75" s="107"/>
+      <c r="K75" s="94"/>
+      <c r="L75" s="106"/>
+      <c r="M75" s="100"/>
+      <c r="N75" s="100"/>
+      <c r="O75" s="100"/>
+      <c r="P75" s="100"/>
+      <c r="Q75" s="100"/>
+      <c r="R75" s="100"/>
+      <c r="S75" s="107"/>
+      <c r="T75" s="105"/>
     </row>
     <row r="76" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="80" t="s">
+      <c r="B76" s="78" t="s">
         <v>268</v>
       </c>
-      <c r="C76" s="81" t="s">
+      <c r="C76" s="79" t="s">
         <v>269</v>
       </c>
-      <c r="D76" s="81" t="s">
+      <c r="D76" s="79" t="s">
         <v>270</v>
       </c>
-      <c r="E76" s="81"/>
-      <c r="F76" s="81"/>
-      <c r="G76" s="81"/>
-      <c r="H76" s="81"/>
-      <c r="I76" s="82"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="80"/>
       <c r="J76" s="27"/>
-      <c r="K76" s="96"/>
-      <c r="L76" s="108" t="s">
+      <c r="K76" s="94"/>
+      <c r="L76" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="M76" s="102"/>
-      <c r="N76" s="102"/>
-      <c r="O76" s="102"/>
-      <c r="P76" s="102"/>
-      <c r="Q76" s="102"/>
-      <c r="R76" s="102"/>
-      <c r="S76" s="109"/>
-      <c r="T76" s="107"/>
+      <c r="M76" s="100"/>
+      <c r="N76" s="100"/>
+      <c r="O76" s="100"/>
+      <c r="P76" s="100"/>
+      <c r="Q76" s="100"/>
+      <c r="R76" s="100"/>
+      <c r="S76" s="107"/>
+      <c r="T76" s="105"/>
     </row>
     <row r="77" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="32" t="s">
@@ -6761,22 +6743,22 @@
       <c r="H77" s="33"/>
       <c r="I77" s="30"/>
       <c r="J77" s="27"/>
-      <c r="K77" s="96"/>
-      <c r="L77" s="108" t="s">
+      <c r="K77" s="94"/>
+      <c r="L77" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="M77" s="102" t="s">
+      <c r="M77" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="N77" s="102" t="s">
+      <c r="N77" s="100" t="s">
         <v>302</v>
       </c>
-      <c r="O77" s="102"/>
-      <c r="P77" s="102"/>
-      <c r="Q77" s="102"/>
-      <c r="R77" s="102"/>
-      <c r="S77" s="109"/>
-      <c r="T77" s="107"/>
+      <c r="O77" s="100"/>
+      <c r="P77" s="100"/>
+      <c r="Q77" s="100"/>
+      <c r="R77" s="100"/>
+      <c r="S77" s="107"/>
+      <c r="T77" s="105"/>
     </row>
     <row r="78" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="32" t="s">
@@ -6794,22 +6776,22 @@
       <c r="H78" s="33"/>
       <c r="I78" s="30"/>
       <c r="J78" s="27"/>
-      <c r="K78" s="96"/>
-      <c r="L78" s="108" t="s">
+      <c r="K78" s="94"/>
+      <c r="L78" s="106" t="s">
         <v>268</v>
       </c>
-      <c r="M78" s="102" t="s">
+      <c r="M78" s="100" t="s">
         <v>318</v>
       </c>
-      <c r="N78" s="110" t="s">
+      <c r="N78" s="108" t="s">
         <v>319</v>
       </c>
-      <c r="O78" s="102"/>
-      <c r="P78" s="102"/>
-      <c r="Q78" s="102"/>
-      <c r="R78" s="102"/>
-      <c r="S78" s="109"/>
-      <c r="T78" s="107"/>
+      <c r="O78" s="100"/>
+      <c r="P78" s="100"/>
+      <c r="Q78" s="100"/>
+      <c r="R78" s="100"/>
+      <c r="S78" s="107"/>
+      <c r="T78" s="105"/>
     </row>
     <row r="79" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="32" t="s">
@@ -6827,22 +6809,22 @@
       <c r="H79" s="33"/>
       <c r="I79" s="30"/>
       <c r="J79" s="27"/>
-      <c r="K79" s="96"/>
-      <c r="L79" s="108" t="s">
+      <c r="K79" s="94"/>
+      <c r="L79" s="106" t="s">
         <v>204</v>
       </c>
-      <c r="M79" s="102" t="s">
+      <c r="M79" s="100" t="s">
         <v>320</v>
       </c>
-      <c r="N79" s="102" t="s">
+      <c r="N79" s="100" t="s">
         <v>320</v>
       </c>
-      <c r="O79" s="102"/>
-      <c r="P79" s="102"/>
-      <c r="Q79" s="102"/>
-      <c r="R79" s="102"/>
-      <c r="S79" s="109"/>
-      <c r="T79" s="107"/>
+      <c r="O79" s="100"/>
+      <c r="P79" s="100"/>
+      <c r="Q79" s="100"/>
+      <c r="R79" s="100"/>
+      <c r="S79" s="107"/>
+      <c r="T79" s="105"/>
     </row>
     <row r="80" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="32" t="s">
@@ -6860,22 +6842,22 @@
       <c r="H80" s="33"/>
       <c r="I80" s="30"/>
       <c r="J80" s="27"/>
-      <c r="K80" s="96"/>
-      <c r="L80" s="108" t="s">
+      <c r="K80" s="94"/>
+      <c r="L80" s="106" t="s">
         <v>272</v>
       </c>
-      <c r="M80" s="102" t="s">
+      <c r="M80" s="100" t="s">
         <v>320</v>
       </c>
-      <c r="N80" s="102" t="s">
+      <c r="N80" s="100" t="s">
         <v>320</v>
       </c>
-      <c r="O80" s="102"/>
-      <c r="P80" s="102"/>
-      <c r="Q80" s="102"/>
-      <c r="R80" s="102"/>
-      <c r="S80" s="109"/>
-      <c r="T80" s="107"/>
+      <c r="O80" s="100"/>
+      <c r="P80" s="100"/>
+      <c r="Q80" s="100"/>
+      <c r="R80" s="100"/>
+      <c r="S80" s="107"/>
+      <c r="T80" s="105"/>
     </row>
     <row r="81" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="32" t="s">
@@ -6893,22 +6875,22 @@
       <c r="H81" s="33"/>
       <c r="I81" s="30"/>
       <c r="J81" s="27"/>
-      <c r="K81" s="96"/>
-      <c r="L81" s="108" t="s">
+      <c r="K81" s="94"/>
+      <c r="L81" s="106" t="s">
         <v>210</v>
       </c>
-      <c r="M81" s="102" t="s">
+      <c r="M81" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="N81" s="110" t="s">
+      <c r="N81" s="108" t="s">
         <v>322</v>
       </c>
-      <c r="O81" s="102"/>
-      <c r="P81" s="102"/>
-      <c r="Q81" s="102"/>
-      <c r="R81" s="102"/>
-      <c r="S81" s="109"/>
-      <c r="T81" s="107"/>
+      <c r="O81" s="100"/>
+      <c r="P81" s="100"/>
+      <c r="Q81" s="100"/>
+      <c r="R81" s="100"/>
+      <c r="S81" s="107"/>
+      <c r="T81" s="105"/>
     </row>
     <row r="82" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="32" t="s">
@@ -6926,22 +6908,22 @@
       <c r="H82" s="33"/>
       <c r="I82" s="30"/>
       <c r="J82" s="27"/>
-      <c r="K82" s="96"/>
-      <c r="L82" s="108" t="s">
+      <c r="K82" s="94"/>
+      <c r="L82" s="106" t="s">
         <v>208</v>
       </c>
-      <c r="M82" s="102" t="s">
+      <c r="M82" s="100" t="s">
         <v>323</v>
       </c>
-      <c r="N82" s="110" t="s">
+      <c r="N82" s="108" t="s">
         <v>324</v>
       </c>
-      <c r="O82" s="102"/>
-      <c r="P82" s="102"/>
-      <c r="Q82" s="102"/>
-      <c r="R82" s="102"/>
-      <c r="S82" s="109"/>
-      <c r="T82" s="107"/>
+      <c r="O82" s="100"/>
+      <c r="P82" s="100"/>
+      <c r="Q82" s="100"/>
+      <c r="R82" s="100"/>
+      <c r="S82" s="107"/>
+      <c r="T82" s="105"/>
     </row>
     <row r="83" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="32"/>
@@ -6953,22 +6935,22 @@
       <c r="H83" s="33"/>
       <c r="I83" s="30"/>
       <c r="J83" s="27"/>
-      <c r="K83" s="96"/>
-      <c r="L83" s="108" t="s">
+      <c r="K83" s="94"/>
+      <c r="L83" s="106" t="s">
         <v>212</v>
       </c>
-      <c r="M83" s="102" t="s">
+      <c r="M83" s="100" t="s">
         <v>325</v>
       </c>
-      <c r="N83" s="110" t="s">
+      <c r="N83" s="108" t="s">
         <v>322</v>
       </c>
-      <c r="O83" s="102"/>
-      <c r="P83" s="102"/>
-      <c r="Q83" s="102"/>
-      <c r="R83" s="102"/>
-      <c r="S83" s="109"/>
-      <c r="T83" s="107"/>
+      <c r="O83" s="100"/>
+      <c r="P83" s="100"/>
+      <c r="Q83" s="100"/>
+      <c r="R83" s="100"/>
+      <c r="S83" s="107"/>
+      <c r="T83" s="105"/>
     </row>
     <row r="84" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="32" t="s">
@@ -6982,22 +6964,22 @@
       <c r="H84" s="33"/>
       <c r="I84" s="30"/>
       <c r="J84" s="27"/>
-      <c r="K84" s="96"/>
-      <c r="L84" s="108" t="s">
+      <c r="K84" s="94"/>
+      <c r="L84" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="M84" s="102" t="s">
+      <c r="M84" s="100" t="s">
         <v>326</v>
       </c>
-      <c r="N84" s="110" t="s">
+      <c r="N84" s="108" t="s">
         <v>326</v>
       </c>
-      <c r="O84" s="102"/>
-      <c r="P84" s="102"/>
-      <c r="Q84" s="102"/>
-      <c r="R84" s="102"/>
-      <c r="S84" s="109"/>
-      <c r="T84" s="107"/>
+      <c r="O84" s="100"/>
+      <c r="P84" s="100"/>
+      <c r="Q84" s="100"/>
+      <c r="R84" s="100"/>
+      <c r="S84" s="107"/>
+      <c r="T84" s="105"/>
     </row>
     <row r="85" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="32" t="s">
@@ -7032,20 +7014,20 @@
       <c r="T85" s="61"/>
     </row>
     <row r="86" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="80" t="s">
+      <c r="B86" s="78" t="s">
         <v>278</v>
       </c>
-      <c r="C86" s="81" t="s">
+      <c r="C86" s="79" t="s">
         <v>279</v>
       </c>
-      <c r="D86" s="81" t="s">
+      <c r="D86" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81"/>
-      <c r="H86" s="81"/>
-      <c r="I86" s="82"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="79"/>
+      <c r="H86" s="79"/>
+      <c r="I86" s="80"/>
       <c r="J86" s="27"/>
       <c r="L86" s="60"/>
       <c r="M86" s="57"/>
@@ -7058,20 +7040,20 @@
       <c r="T86" s="61"/>
     </row>
     <row r="87" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="80" t="s">
+      <c r="B87" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="C87" s="81" t="s">
+      <c r="C87" s="79" t="s">
         <v>282</v>
       </c>
-      <c r="D87" s="81" t="s">
+      <c r="D87" s="79" t="s">
         <v>283</v>
       </c>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="H87" s="81"/>
-      <c r="I87" s="82"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="H87" s="79"/>
+      <c r="I87" s="80"/>
       <c r="J87" s="27"/>
       <c r="L87" s="60" t="s">
         <v>213</v>
@@ -7086,20 +7068,20 @@
       <c r="T87" s="61"/>
     </row>
     <row r="88" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="79" t="s">
         <v>284</v>
       </c>
-      <c r="D88" s="33" t="s">
+      <c r="D88" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="30"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="80"/>
       <c r="J88" s="27"/>
       <c r="L88" s="60" t="s">
         <v>220</v>
@@ -7118,35 +7100,35 @@
       <c r="T88" s="61"/>
     </row>
     <row r="89" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="80" t="s">
+      <c r="B89" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C89" s="81" t="s">
+      <c r="C89" s="79" t="s">
         <v>287</v>
       </c>
-      <c r="D89" s="81" t="s">
+      <c r="D89" s="79" t="s">
         <v>288</v>
       </c>
-      <c r="E89" s="81"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="81"/>
-      <c r="H89" s="81"/>
-      <c r="I89" s="82"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="79"/>
+      <c r="H89" s="79"/>
+      <c r="I89" s="80"/>
       <c r="J89" s="27"/>
-      <c r="L89" s="83" t="s">
+      <c r="L89" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="M89" s="84" t="s">
+      <c r="M89" s="82" t="s">
         <v>282</v>
       </c>
-      <c r="N89" s="85" t="s">
+      <c r="N89" s="83" t="s">
         <v>283</v>
       </c>
-      <c r="O89" s="84"/>
-      <c r="P89" s="84"/>
-      <c r="Q89" s="84"/>
-      <c r="R89" s="84"/>
-      <c r="S89" s="86"/>
+      <c r="O89" s="82"/>
+      <c r="P89" s="82"/>
+      <c r="Q89" s="82"/>
+      <c r="R89" s="82"/>
+      <c r="S89" s="84"/>
       <c r="T89" s="61"/>
     </row>
     <row r="90" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7165,52 +7147,52 @@
       <c r="H90" s="33"/>
       <c r="I90" s="30"/>
       <c r="J90" s="27"/>
-      <c r="L90" s="83" t="s">
+      <c r="L90" s="81" t="s">
         <v>281</v>
       </c>
-      <c r="M90" s="84" t="s">
+      <c r="M90" s="82" t="s">
         <v>330</v>
       </c>
-      <c r="N90" s="85" t="s">
+      <c r="N90" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="O90" s="84"/>
-      <c r="P90" s="84"/>
-      <c r="Q90" s="84"/>
-      <c r="R90" s="84"/>
-      <c r="S90" s="86"/>
+      <c r="O90" s="82"/>
+      <c r="P90" s="82"/>
+      <c r="Q90" s="82"/>
+      <c r="R90" s="82"/>
+      <c r="S90" s="84"/>
       <c r="T90" s="61"/>
     </row>
     <row r="91" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="80" t="s">
+      <c r="B91" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="C91" s="81" t="s">
+      <c r="C91" s="79" t="s">
         <v>292</v>
       </c>
-      <c r="D91" s="81" t="s">
+      <c r="D91" s="79" t="s">
         <v>292</v>
       </c>
-      <c r="E91" s="81"/>
-      <c r="F91" s="81"/>
-      <c r="G91" s="81"/>
-      <c r="H91" s="81"/>
-      <c r="I91" s="82"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="79"/>
+      <c r="H91" s="79"/>
+      <c r="I91" s="80"/>
       <c r="J91" s="27"/>
-      <c r="L91" s="83" t="s">
+      <c r="L91" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="M91" s="84" t="s">
+      <c r="M91" s="82" t="s">
         <v>331</v>
       </c>
-      <c r="N91" s="85" t="s">
+      <c r="N91" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="O91" s="84"/>
-      <c r="P91" s="84"/>
-      <c r="Q91" s="84"/>
-      <c r="R91" s="84"/>
-      <c r="S91" s="86"/>
+      <c r="O91" s="82"/>
+      <c r="P91" s="82"/>
+      <c r="Q91" s="82"/>
+      <c r="R91" s="82"/>
+      <c r="S91" s="84"/>
       <c r="T91" s="61"/>
     </row>
     <row r="92" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2A026B-8FA0-4ED4-9838-D844046D0597}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F397091F-588C-4878-9539-A0701D197DB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="382">
   <si>
     <t>Item#</t>
   </si>
@@ -1227,6 +1227,21 @@
   </si>
   <si>
     <t>AP2112K-3.3 Voltage Regulator</t>
+  </si>
+  <si>
+    <t>24AA32A - EEPROM</t>
+  </si>
+  <si>
+    <t># used b/w 3 PCBs</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>? - ordered new ones</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +1943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1937,9 +1952,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2303,6 +2315,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2318,6 +2334,132 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2354,136 +2496,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2813,35 +2831,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AA6548-4DFA-4405-951F-1160BBC52D4F}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="210" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="151" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2850,1165 +2868,1329 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
+      <c r="G3" s="210">
+        <v>1</v>
+      </c>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="154"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="155"/>
+      <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
+      <c r="G4" s="210">
+        <v>1</v>
+      </c>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="154"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="155"/>
+      <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>129</v>
       </c>
       <c r="F5" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="G5" s="210">
+        <v>0</v>
+      </c>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="152" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="G7" s="210" t="s">
+        <v>379</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="151"/>
+      <c r="A8" s="152"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="G8" s="210" t="s">
+        <v>379</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="151"/>
+      <c r="A9" s="152"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
+      <c r="G9" s="210" t="s">
+        <v>379</v>
+      </c>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="151"/>
+      <c r="A10" s="152"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
+      <c r="G10" s="210" t="s">
+        <v>379</v>
+      </c>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="151"/>
+      <c r="A11" s="152"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
+      <c r="G11" s="210" t="s">
+        <v>379</v>
+      </c>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="151"/>
+      <c r="A12" s="152"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>2</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
+      <c r="G12" s="210" t="s">
+        <v>379</v>
+      </c>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
     </row>
     <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>3</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
+      <c r="G14" s="210">
+        <v>1</v>
+      </c>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
+      <c r="G16" s="211">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="151"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="152"/>
+      <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
+      <c r="G17" s="211">
+        <v>2</v>
+      </c>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="151"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="152"/>
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
+      <c r="G18" s="211">
+        <v>1</v>
+      </c>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="151"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="152"/>
+      <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>10</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
+      <c r="G19" s="211">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="151"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="152"/>
+      <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>10</v>
       </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
+      <c r="G20" s="211">
+        <f>1+2</f>
+        <v>3</v>
+      </c>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="151"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="152"/>
+      <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
+      <c r="G21" s="211">
+        <v>1</v>
+      </c>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="151"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="152"/>
+      <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>20</v>
       </c>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
+      <c r="G22" s="211">
+        <f>2+4</f>
+        <v>6</v>
+      </c>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="151"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="152"/>
+      <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>20</v>
       </c>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
+      <c r="G23" s="211">
+        <f>2+3+2</f>
+        <v>7</v>
+      </c>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="151"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="152"/>
+      <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>10</v>
       </c>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
+      <c r="G24" s="211">
+        <v>4</v>
+      </c>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="151"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="152"/>
+      <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
+      <c r="G25" s="211">
+        <v>1</v>
+      </c>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="151"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="152"/>
+      <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
+      <c r="G26" s="211">
+        <v>1</v>
+      </c>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="151"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="152"/>
+      <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
+      <c r="G27" s="211">
+        <v>2</v>
+      </c>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
     </row>
     <row r="28" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="151" t="s">
+      <c r="A29" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>15</v>
       </c>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
+      <c r="G29" s="211">
+        <f>2+3</f>
+        <v>5</v>
+      </c>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="151"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="152"/>
+      <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>5</v>
       </c>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
+      <c r="G30" s="211">
+        <v>1</v>
+      </c>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="151"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="152"/>
+      <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>5</v>
       </c>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
+      <c r="G31" s="211">
+        <v>1</v>
+      </c>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="151"/>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="152"/>
+      <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>30</v>
       </c>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
+      <c r="G32" s="211">
+        <v>14</v>
+      </c>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="151"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="152"/>
+      <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>20</v>
       </c>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
+      <c r="G33" s="211">
+        <v>9</v>
+      </c>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="151"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="152"/>
+      <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>0</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
+      <c r="G34" s="210" t="s">
+        <v>379</v>
+      </c>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="151" t="s">
+      <c r="A36" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>4</v>
       </c>
+      <c r="G36" s="210">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="151"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="152"/>
+      <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>4</v>
       </c>
+      <c r="G37" s="210" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="151" t="s">
+      <c r="A39" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>67</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
       </c>
+      <c r="G39" s="210">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="151"/>
+      <c r="A40" s="152"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>2</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="14" t="s">
         <v>86</v>
       </c>
+      <c r="G40" s="210">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="151"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="152"/>
+      <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>2</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="14" t="s">
         <v>85</v>
       </c>
+      <c r="G41" s="210">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="151"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="152"/>
+      <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>2</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="14" t="s">
         <v>86</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
       </c>
+      <c r="G42" s="210">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="6">
-        <v>1</v>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="210" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="152" t="s">
+      <c r="A45" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>5</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="14" t="s">
         <v>78</v>
       </c>
+      <c r="G45" s="210">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="152"/>
-      <c r="B46" s="5" t="s">
+      <c r="A46" s="153"/>
+      <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>5</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="14" t="s">
         <v>81</v>
       </c>
+      <c r="G46" s="210">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="152" t="s">
+      <c r="A48" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="152"/>
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="153"/>
+      <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="151" t="s">
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="152" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>15</v>
       </c>
       <c r="F51" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="151"/>
-      <c r="B52" s="5" t="s">
+      <c r="G51" s="210" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="152"/>
+      <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="151"/>
-      <c r="B53" s="5" t="s">
+      <c r="G52" s="210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="152"/>
+      <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="151"/>
-      <c r="B54" s="5" t="s">
+      <c r="G53" s="210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="152"/>
+      <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="151"/>
-      <c r="B55" s="38" t="s">
+      <c r="G54" s="210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="152"/>
+      <c r="B55" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55" s="24">
         <v>4</v>
       </c>
-      <c r="E55" s="39" t="s">
+      <c r="E55" s="38" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="151"/>
-      <c r="B56" s="5" t="s">
+      <c r="G55" s="210" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="152"/>
+      <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="151"/>
-      <c r="B57" s="5" t="s">
+      <c r="G56" s="210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="152"/>
+      <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="151"/>
-      <c r="B58" s="5" t="s">
+      <c r="G57" s="210" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="152"/>
+      <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="151"/>
-      <c r="B59" s="5" t="s">
+      <c r="G58" s="210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="152"/>
+      <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="151"/>
-      <c r="B60" s="9" t="s">
+      <c r="G59" s="210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="152"/>
+      <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>9</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="151"/>
-      <c r="B61" s="5" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="152"/>
+      <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>4</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="14" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="151"/>
-      <c r="B62" s="38" t="s">
+      <c r="G61" s="210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="152"/>
+      <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="25">
+      <c r="D62" s="24">
         <v>4</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E62" s="38" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="151"/>
-      <c r="B63" s="5" t="s">
+      <c r="G62" s="210" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="152"/>
+      <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>4</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="14" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="151"/>
-      <c r="B64" s="5" t="s">
+      <c r="G63" s="210" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="152"/>
+      <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>5</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="14" t="s">
         <v>132</v>
       </c>
+      <c r="G64" s="210">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="151"/>
-      <c r="B65" s="5" t="s">
+      <c r="A65" s="152"/>
+      <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>4</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="14" t="s">
         <v>135</v>
       </c>
+      <c r="G65" s="210">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="151"/>
-      <c r="B66" s="5" t="s">
+      <c r="A66" s="152"/>
+      <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>12</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="14" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="151"/>
-      <c r="B67" s="5" t="s">
+      <c r="A67" s="152"/>
+      <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D67" s="6">
-        <v>1</v>
-      </c>
-      <c r="E67" s="15" t="s">
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="14" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="151"/>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="152"/>
+      <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D68" s="6">
-        <v>1</v>
-      </c>
-      <c r="E68" s="10" t="s">
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="151" t="s">
+      <c r="A70" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="6">
-        <v>1</v>
-      </c>
-      <c r="E70" s="15" t="s">
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="14" t="s">
         <v>100</v>
       </c>
+      <c r="G70" s="210">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="151"/>
-      <c r="B71" s="5" t="s">
+      <c r="A71" s="152"/>
+      <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="151"/>
-      <c r="B72" s="5" t="s">
+      <c r="A72" s="152"/>
+      <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="151" t="s">
+      <c r="A74" s="152" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D74" s="6">
-        <v>1</v>
-      </c>
-      <c r="E74" s="10" t="s">
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G74" s="3"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
+      <c r="G74" s="211"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="151"/>
-      <c r="B75" s="17">
+      <c r="A75" s="152"/>
+      <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="6">
-        <v>1</v>
-      </c>
-      <c r="E75" s="10" t="s">
+      <c r="D75" s="5">
+        <v>1</v>
+      </c>
+      <c r="E75" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="151"/>
-      <c r="B76" s="17">
+      <c r="A76" s="152"/>
+      <c r="B76" s="16">
         <v>261151044113</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D76" s="6">
-        <v>1</v>
-      </c>
-      <c r="E76" s="10" t="s">
+      <c r="D76" s="5">
+        <v>1</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="151"/>
-      <c r="B77" s="17">
+      <c r="A77" s="152"/>
+      <c r="B77" s="16">
         <v>20012107818</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D77" s="6">
-        <v>1</v>
-      </c>
-      <c r="E77" s="10" t="s">
+      <c r="D77" s="5">
+        <v>1</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="151"/>
-      <c r="B78" s="17" t="s">
+      <c r="A78" s="152"/>
+      <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="6">
-        <v>1</v>
-      </c>
-      <c r="E78" s="10" t="s">
+      <c r="D78" s="5">
+        <v>1</v>
+      </c>
+      <c r="E78" s="9" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="151"/>
-      <c r="B79" s="18">
+      <c r="A79" s="152"/>
+      <c r="B79" s="17">
         <v>260151022110</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D79" s="6">
-        <v>1</v>
-      </c>
-      <c r="E79" s="10" t="s">
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="151"/>
-      <c r="B80" s="17">
+      <c r="A80" s="152"/>
+      <c r="B80" s="16">
         <v>260121011717</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D80" s="6">
-        <v>1</v>
-      </c>
-      <c r="E80" s="10" t="s">
+      <c r="D80" s="5">
+        <v>1</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="151"/>
-      <c r="B81" s="17">
+      <c r="A81" s="152"/>
+      <c r="B81" s="16">
         <v>20012104412</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D81" s="6">
-        <v>1</v>
-      </c>
-      <c r="E81" s="10" t="s">
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4036,8 +4218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4045,123 +4227,123 @@
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="5" customWidth="1"/>
     <col min="13" max="13" width="40.7109375" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="6"/>
-    <col min="16" max="16" width="15.7109375" style="52" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="5"/>
+    <col min="16" max="16" width="15.7109375" style="51" customWidth="1"/>
     <col min="22" max="22" width="12.7109375" customWidth="1"/>
     <col min="23" max="23" width="35.7109375" customWidth="1"/>
     <col min="26" max="26" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="165" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="178"/>
-      <c r="H1" s="155" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="167"/>
+      <c r="H1" s="198" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="156"/>
-      <c r="J1" s="157"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="200"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="179"/>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="181"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="193" t="s">
+      <c r="A2" s="168"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="170"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="182" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="194"/>
+      <c r="J2" s="183"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="182"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="184"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="193" t="s">
+      <c r="A3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="173"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="182" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="194"/>
+      <c r="J3" s="183"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="176" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="195" t="s">
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="184" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="196"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="158" t="s">
+      <c r="J4" s="185"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="201" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="167" t="s">
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="156" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="168"/>
-      <c r="Z4" s="169"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="33"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="157"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="189"/>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="33"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="170"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="94"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="32"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="205"/>
+      <c r="O5" s="205"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="160"/>
+      <c r="X5" s="160"/>
+      <c r="Y5" s="160"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -4170,15 +4352,15 @@
       <c r="D6" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="L6" s="49" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="L6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="28" t="s">
         <v>162</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -4187,3068 +4369,3065 @@
       <c r="O6" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="P6" s="53" t="s">
+      <c r="P6" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="Q6" s="45"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="95" t="s">
+      <c r="Q6" s="44"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="W6" s="96" t="s">
+      <c r="W6" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="X6" s="97" t="s">
+      <c r="X6" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="Y6" s="97" t="s">
+      <c r="Y6" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="Z6" s="56" t="s">
+      <c r="Z6" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="AA6" s="94"/>
+      <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="209">
+      <c r="C7" s="149">
         <v>2</v>
       </c>
-      <c r="D7" s="209">
+      <c r="D7" s="149">
         <v>0</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="33"/>
-      <c r="L7" s="164" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="32"/>
+      <c r="L7" s="207" t="s">
         <v>339</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="M7" s="88" t="s">
         <v>340</v>
       </c>
-      <c r="N7" s="90">
-        <v>1</v>
-      </c>
-      <c r="O7" s="90">
+      <c r="N7" s="89">
+        <v>1</v>
+      </c>
+      <c r="O7" s="89">
         <v>5</v>
       </c>
-      <c r="P7" s="91" t="s">
+      <c r="P7" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="Q7" s="45"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="98" t="s">
+      <c r="Q7" s="44"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="120" t="s">
+      <c r="W7" s="119" t="s">
         <v>342</v>
       </c>
-      <c r="X7" s="121">
+      <c r="X7" s="120">
         <v>2</v>
       </c>
-      <c r="Y7" s="121">
+      <c r="Y7" s="120">
         <v>20</v>
       </c>
-      <c r="Z7" s="122" t="s">
+      <c r="Z7" s="121" t="s">
         <v>343</v>
       </c>
-      <c r="AA7" s="94"/>
+      <c r="AA7" s="93"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="174"/>
+      <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="36">
-        <v>1</v>
-      </c>
-      <c r="D8" s="36">
+      <c r="C8" s="35">
+        <v>1</v>
+      </c>
+      <c r="D8" s="35">
         <v>5</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="33"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="27" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="32"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="N8" s="51">
-        <v>1</v>
-      </c>
-      <c r="O8" s="51">
+      <c r="N8" s="50">
+        <v>1</v>
+      </c>
+      <c r="O8" s="50">
         <v>5</v>
       </c>
-      <c r="P8" s="54" t="s">
+      <c r="P8" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="Q8" s="45"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="99" t="s">
+      <c r="Q8" s="44"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="117" t="s">
+      <c r="W8" s="116" t="s">
         <v>351</v>
       </c>
-      <c r="X8" s="118">
+      <c r="X8" s="117">
         <v>2</v>
       </c>
-      <c r="Y8" s="118">
+      <c r="Y8" s="117">
         <v>30</v>
       </c>
-      <c r="Z8" s="119" t="s">
+      <c r="Z8" s="118" t="s">
         <v>366</v>
       </c>
-      <c r="AA8" s="94"/>
+      <c r="AA8" s="93"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="174"/>
+      <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>3</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="35">
         <v>10</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="132"/>
-      <c r="G9" s="33"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="71" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="32"/>
+      <c r="L9" s="208"/>
+      <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="N9" s="111">
+      <c r="N9" s="110">
         <v>3</v>
       </c>
-      <c r="O9" s="111">
+      <c r="O9" s="110">
         <v>20</v>
       </c>
-      <c r="P9" s="112" t="s">
+      <c r="P9" s="111" t="s">
         <v>344</v>
       </c>
-      <c r="Q9" s="45"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="128" t="s">
+      <c r="Q9" s="44"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="W9" s="129" t="s">
+      <c r="W9" s="128" t="s">
         <v>367</v>
       </c>
-      <c r="X9" s="130">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="130">
+      <c r="X9" s="129">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="129">
         <v>5</v>
       </c>
-      <c r="Z9" s="131" t="s">
+      <c r="Z9" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="AA9" s="94"/>
+      <c r="AA9" s="93"/>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="174"/>
+      <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="36">
-        <v>1</v>
-      </c>
-      <c r="D10" s="36">
+      <c r="C10" s="35">
+        <v>1</v>
+      </c>
+      <c r="D10" s="35">
         <v>5</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="132"/>
-      <c r="G10" s="33"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="71" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="32"/>
+      <c r="L10" s="208"/>
+      <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="N10" s="111">
+      <c r="N10" s="110">
         <v>2</v>
       </c>
-      <c r="O10" s="111">
+      <c r="O10" s="110">
         <v>10</v>
       </c>
-      <c r="P10" s="112" t="s">
+      <c r="P10" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="Q10" s="45"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="127" t="s">
+      <c r="Q10" s="44"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="W10" s="142" t="s">
+      <c r="W10" s="141" t="s">
         <v>368</v>
       </c>
-      <c r="X10" s="140" t="s">
+      <c r="X10" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" s="140" t="s">
+      <c r="Y10" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="141" t="s">
+      <c r="Z10" s="140" t="s">
         <v>278</v>
       </c>
-      <c r="AA10" s="94"/>
+      <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="174"/>
+      <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>2</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="35">
         <v>20</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="132"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="27" t="s">
+      <c r="F11" s="14"/>
+      <c r="L11" s="208"/>
+      <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="N11" s="51">
+      <c r="N11" s="50">
         <v>2</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="50">
         <v>5</v>
       </c>
-      <c r="P11" s="54" t="s">
+      <c r="P11" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="Q11" s="45"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="33"/>
+      <c r="Q11" s="44"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="185"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="174"/>
+      <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>2</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <v>5</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="132"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="27" t="s">
+      <c r="F12" s="14"/>
+      <c r="L12" s="208"/>
+      <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="N12" s="51">
+      <c r="N12" s="50">
         <v>4</v>
       </c>
-      <c r="O12" s="51">
+      <c r="O12" s="50">
         <v>10</v>
       </c>
-      <c r="P12" s="54" t="s">
+      <c r="P12" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="Q12" s="45"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="33"/>
+      <c r="Q12" s="44"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="185"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="174"/>
+      <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="36">
-        <v>1</v>
-      </c>
-      <c r="D13" s="36">
+      <c r="C13" s="35">
+        <v>1</v>
+      </c>
+      <c r="D13" s="35">
         <v>10</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="132"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="71" t="s">
+      <c r="F13" s="14"/>
+      <c r="L13" s="208"/>
+      <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="N13" s="111">
+      <c r="N13" s="110">
         <v>2</v>
       </c>
-      <c r="O13" s="111">
+      <c r="O13" s="110">
         <v>20</v>
       </c>
-      <c r="P13" s="112" t="s">
+      <c r="P13" s="111" t="s">
         <v>349</v>
       </c>
-      <c r="Q13" s="45"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="94"/>
+      <c r="Q13" s="44"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="191"/>
-      <c r="B14" s="92" t="s">
+      <c r="A14" s="180"/>
+      <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="133">
         <v>4</v>
       </c>
-      <c r="D14" s="134">
+      <c r="D14" s="133">
         <v>20</v>
       </c>
-      <c r="E14" s="136" t="s">
+      <c r="E14" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="132"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="92" t="s">
+      <c r="F14" s="14"/>
+      <c r="L14" s="209"/>
+      <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="N14" s="76">
-        <v>1</v>
-      </c>
-      <c r="O14" s="76">
+      <c r="N14" s="75">
+        <v>1</v>
+      </c>
+      <c r="O14" s="75">
         <v>5</v>
       </c>
-      <c r="P14" s="77" t="s">
+      <c r="P14" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="Q14" s="45"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
+      <c r="Q14" s="44"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="192" t="s">
+      <c r="A15" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="51">
-        <v>1</v>
-      </c>
-      <c r="D15" s="51">
+      <c r="C15" s="50">
+        <v>1</v>
+      </c>
+      <c r="D15" s="50">
         <v>30</v>
       </c>
-      <c r="E15" s="138" t="s">
+      <c r="E15" s="137" t="s">
         <v>187</v>
       </c>
-      <c r="F15" s="132"/>
-      <c r="L15" s="203" t="s">
+      <c r="F15" s="14"/>
+      <c r="L15" s="192" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="113" t="s">
+      <c r="M15" s="112" t="s">
         <v>351</v>
       </c>
-      <c r="N15" s="111">
+      <c r="N15" s="110">
         <v>10</v>
       </c>
-      <c r="O15" s="111">
+      <c r="O15" s="110">
         <v>30</v>
       </c>
-      <c r="P15" s="112" t="s">
+      <c r="P15" s="111" t="s">
         <v>352</v>
       </c>
-      <c r="Q15" s="45"/>
-      <c r="V15" s="197" t="s">
+      <c r="Q15" s="44"/>
+      <c r="V15" s="186" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="198"/>
-      <c r="X15" s="198"/>
-      <c r="Y15" s="198"/>
-      <c r="Z15" s="198"/>
-      <c r="AA15" s="198"/>
-      <c r="AB15" s="198"/>
-      <c r="AC15" s="199"/>
+      <c r="W15" s="187"/>
+      <c r="X15" s="187"/>
+      <c r="Y15" s="187"/>
+      <c r="Z15" s="187"/>
+      <c r="AA15" s="187"/>
+      <c r="AB15" s="187"/>
+      <c r="AC15" s="188"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="185"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="174"/>
+      <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>2</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="35">
         <v>15</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="132"/>
-      <c r="L16" s="204"/>
-      <c r="M16" s="71" t="s">
+      <c r="F16" s="14"/>
+      <c r="L16" s="193"/>
+      <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="N16" s="111">
+      <c r="N16" s="110">
         <v>3</v>
       </c>
-      <c r="O16" s="111">
+      <c r="O16" s="110">
         <v>15</v>
       </c>
-      <c r="P16" s="112" t="s">
+      <c r="P16" s="111" t="s">
         <v>353</v>
       </c>
-      <c r="Q16" s="45"/>
-      <c r="S16" s="33"/>
-      <c r="V16" s="102" t="s">
+      <c r="Q16" s="44"/>
+      <c r="S16" s="32"/>
+      <c r="V16" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="W16" s="103"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="147"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="146"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="191"/>
-      <c r="B17" s="92" t="s">
+      <c r="A17" s="180"/>
+      <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="134">
+      <c r="C17" s="133">
         <v>5</v>
       </c>
-      <c r="D17" s="134">
+      <c r="D17" s="133">
         <v>20</v>
       </c>
-      <c r="E17" s="136" t="s">
+      <c r="E17" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="132"/>
-      <c r="L17" s="204"/>
-      <c r="M17" s="71" t="s">
+      <c r="F17" s="14"/>
+      <c r="L17" s="193"/>
+      <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="N17" s="111">
+      <c r="N17" s="110">
         <v>4</v>
       </c>
-      <c r="O17" s="111">
+      <c r="O17" s="110">
         <v>20</v>
       </c>
-      <c r="P17" s="112" t="s">
+      <c r="P17" s="111" t="s">
         <v>354</v>
       </c>
-      <c r="Q17" s="45"/>
-      <c r="V17" s="106" t="s">
+      <c r="Q17" s="44"/>
+      <c r="V17" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="W17" s="100" t="s">
+      <c r="W17" s="99" t="s">
         <v>221</v>
       </c>
-      <c r="X17" s="100" t="s">
+      <c r="X17" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="Y17" s="100"/>
-      <c r="Z17" s="100"/>
-      <c r="AA17" s="100"/>
-      <c r="AB17" s="100"/>
-      <c r="AC17" s="104"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="99"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="192" t="s">
+      <c r="A18" s="181" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="36">
-        <v>1</v>
-      </c>
-      <c r="D18" s="36">
+      <c r="C18" s="35">
+        <v>1</v>
+      </c>
+      <c r="D18" s="35">
         <v>5</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="132"/>
-      <c r="L18" s="204"/>
-      <c r="M18" s="27" t="s">
+      <c r="F18" s="14"/>
+      <c r="L18" s="193"/>
+      <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="N18" s="51">
-        <v>1</v>
-      </c>
-      <c r="O18" s="51">
+      <c r="N18" s="50">
+        <v>1</v>
+      </c>
+      <c r="O18" s="50">
         <v>5</v>
       </c>
-      <c r="P18" s="54" t="s">
+      <c r="P18" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="Q18" s="45"/>
-      <c r="V18" s="106" t="s">
+      <c r="Q18" s="44"/>
+      <c r="V18" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="W18" s="100" t="s">
+      <c r="W18" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="X18" s="108" t="s">
+      <c r="X18" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="Y18" s="100"/>
-      <c r="Z18" s="100"/>
-      <c r="AA18" s="100"/>
-      <c r="AB18" s="100"/>
-      <c r="AC18" s="107"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="185"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="174"/>
+      <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="36">
-        <v>1</v>
-      </c>
-      <c r="D19" s="36">
+      <c r="C19" s="35">
+        <v>1</v>
+      </c>
+      <c r="D19" s="35">
         <v>5</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="L19" s="205"/>
-      <c r="M19" s="92" t="s">
+      <c r="F19" s="131"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
-      <c r="N19" s="76">
-        <v>1</v>
-      </c>
-      <c r="O19" s="76">
+      <c r="N19" s="75">
+        <v>1</v>
+      </c>
+      <c r="O19" s="75">
         <v>5</v>
       </c>
-      <c r="P19" s="77" t="s">
+      <c r="P19" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="Q19" s="45"/>
-      <c r="V19" s="106" t="s">
+      <c r="Q19" s="44"/>
+      <c r="V19" s="105" t="s">
         <v>230</v>
       </c>
-      <c r="W19" s="100" t="s">
+      <c r="W19" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="X19" s="108" t="s">
+      <c r="X19" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="Y19" s="100"/>
-      <c r="Z19" s="100"/>
-      <c r="AA19" s="100"/>
-      <c r="AB19" s="100"/>
-      <c r="AC19" s="107"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="185"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="174"/>
+      <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="36">
-        <v>1</v>
-      </c>
-      <c r="D20" s="36">
+      <c r="C20" s="35">
+        <v>1</v>
+      </c>
+      <c r="D20" s="35">
         <v>4</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="132"/>
-      <c r="L20" s="203" t="s">
+      <c r="F20" s="131"/>
+      <c r="L20" s="192" t="s">
         <v>200</v>
       </c>
-      <c r="M20" s="110" t="s">
+      <c r="M20" s="109" t="s">
         <v>373</v>
       </c>
-      <c r="N20" s="73">
-        <v>1</v>
-      </c>
-      <c r="O20" s="73">
-        <v>1</v>
-      </c>
-      <c r="P20" s="74" t="s">
+      <c r="N20" s="72">
+        <v>1</v>
+      </c>
+      <c r="O20" s="72">
+        <v>1</v>
+      </c>
+      <c r="P20" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="Q20" s="45"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="100"/>
-      <c r="Z20" s="100"/>
-      <c r="AA20" s="100"/>
-      <c r="AB20" s="100"/>
-      <c r="AC20" s="107"/>
+      <c r="Q20" s="44"/>
+      <c r="V20" s="105"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="185"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="174"/>
+      <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="36">
-        <v>1</v>
-      </c>
-      <c r="D21" s="36">
+      <c r="C21" s="35">
+        <v>1</v>
+      </c>
+      <c r="D21" s="35">
         <v>5</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="132"/>
-      <c r="L21" s="204"/>
-      <c r="M21" s="27" t="s">
+      <c r="F21" s="131"/>
+      <c r="L21" s="193"/>
+      <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="N21" s="51">
+      <c r="N21" s="50">
         <v>2</v>
       </c>
-      <c r="O21" s="51">
+      <c r="O21" s="50">
         <v>5</v>
       </c>
-      <c r="P21" s="54" t="s">
+      <c r="P21" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="Q21" s="45"/>
-      <c r="V21" s="109" t="s">
+      <c r="Q21" s="44"/>
+      <c r="V21" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="W21" s="100"/>
-      <c r="X21" s="100"/>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="100"/>
-      <c r="AA21" s="100"/>
-      <c r="AB21" s="100"/>
-      <c r="AC21" s="107"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="191"/>
-      <c r="B22" s="92" t="s">
+      <c r="A22" s="180"/>
+      <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="134">
-        <v>1</v>
-      </c>
-      <c r="D22" s="134">
+      <c r="C22" s="133">
+        <v>1</v>
+      </c>
+      <c r="D22" s="133">
         <v>4</v>
       </c>
-      <c r="E22" s="136" t="s">
+      <c r="E22" s="135" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="132"/>
-      <c r="L22" s="204"/>
-      <c r="M22" s="27" t="s">
+      <c r="F22" s="131"/>
+      <c r="L22" s="193"/>
+      <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="N22" s="51">
-        <v>1</v>
-      </c>
-      <c r="O22" s="51">
+      <c r="N22" s="50">
+        <v>1</v>
+      </c>
+      <c r="O22" s="50">
         <v>4</v>
       </c>
-      <c r="P22" s="54" t="s">
+      <c r="P22" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="Q22" s="45"/>
-      <c r="V22" s="106" t="s">
+      <c r="Q22" s="44"/>
+      <c r="V22" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="W22" s="100" t="s">
+      <c r="W22" s="99" t="s">
         <v>221</v>
       </c>
-      <c r="X22" s="100" t="s">
+      <c r="X22" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="100"/>
-      <c r="AA22" s="100"/>
-      <c r="AB22" s="100"/>
-      <c r="AC22" s="107"/>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="192" t="s">
+      <c r="A23" s="181" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="34">
-        <v>1</v>
-      </c>
-      <c r="D23" s="34">
-        <v>1</v>
-      </c>
-      <c r="E23" s="30" t="s">
+      <c r="C23" s="33">
+        <v>1</v>
+      </c>
+      <c r="D23" s="33">
+        <v>1</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="132"/>
-      <c r="L23" s="204"/>
-      <c r="M23" s="110" t="s">
+      <c r="F23" s="131"/>
+      <c r="L23" s="193"/>
+      <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
-      <c r="N23" s="73">
-        <v>1</v>
-      </c>
-      <c r="O23" s="73">
+      <c r="N23" s="72">
+        <v>1</v>
+      </c>
+      <c r="O23" s="72">
         <v>3</v>
       </c>
-      <c r="P23" s="74" t="s">
+      <c r="P23" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="Q23" s="45"/>
-      <c r="V23" s="106" t="s">
+      <c r="Q23" s="44"/>
+      <c r="V23" s="105" t="s">
         <v>245</v>
       </c>
-      <c r="W23" s="100" t="s">
+      <c r="W23" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="X23" s="108" t="s">
+      <c r="X23" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="Y23" s="100"/>
-      <c r="Z23" s="100"/>
-      <c r="AA23" s="100"/>
-      <c r="AB23" s="100"/>
-      <c r="AC23" s="107"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="185"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="174"/>
+      <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="36">
-        <v>1</v>
-      </c>
-      <c r="D24" s="36">
+      <c r="C24" s="35">
+        <v>1</v>
+      </c>
+      <c r="D24" s="35">
         <v>2</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="132"/>
-      <c r="L24" s="204"/>
-      <c r="M24" s="27" t="s">
+      <c r="F24" s="131"/>
+      <c r="L24" s="193"/>
+      <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="N24" s="51">
-        <v>1</v>
-      </c>
-      <c r="O24" s="51">
+      <c r="N24" s="50">
+        <v>1</v>
+      </c>
+      <c r="O24" s="50">
         <v>4</v>
       </c>
-      <c r="P24" s="54" t="s">
+      <c r="P24" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="Q24" s="45"/>
-      <c r="V24" s="106" t="s">
+      <c r="Q24" s="44"/>
+      <c r="V24" s="105" t="s">
         <v>248</v>
       </c>
-      <c r="W24" s="100" t="s">
+      <c r="W24" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="X24" s="108" t="s">
+      <c r="X24" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="100"/>
-      <c r="AC24" s="107"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="185"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="174"/>
+      <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="35">
         <v>2</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="35">
         <v>5</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="F25" s="132"/>
-      <c r="L25" s="204"/>
-      <c r="M25" s="72" t="s">
+      <c r="F25" s="131"/>
+      <c r="L25" s="193"/>
+      <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
-      <c r="N25" s="73">
-        <v>1</v>
-      </c>
-      <c r="O25" s="73">
+      <c r="N25" s="72">
+        <v>1</v>
+      </c>
+      <c r="O25" s="72">
         <v>2</v>
       </c>
-      <c r="P25" s="74" t="s">
+      <c r="P25" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="Q25" s="45"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="100"/>
-      <c r="X25" s="100"/>
-      <c r="Y25" s="100"/>
-      <c r="Z25" s="100"/>
-      <c r="AA25" s="100"/>
-      <c r="AB25" s="100"/>
-      <c r="AC25" s="107"/>
+      <c r="Q25" s="44"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="185"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="174"/>
+      <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="36">
-        <v>1</v>
-      </c>
-      <c r="D26" s="36">
-        <v>1</v>
-      </c>
-      <c r="E26" s="48" t="s">
+      <c r="C26" s="35">
+        <v>1</v>
+      </c>
+      <c r="D26" s="35">
+        <v>1</v>
+      </c>
+      <c r="E26" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F26" s="132"/>
-      <c r="L26" s="205"/>
-      <c r="M26" s="75" t="s">
+      <c r="F26" s="131"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
-      <c r="N26" s="76">
-        <v>1</v>
-      </c>
-      <c r="O26" s="76">
+      <c r="N26" s="75">
+        <v>1</v>
+      </c>
+      <c r="O26" s="75">
         <v>4</v>
       </c>
-      <c r="P26" s="77" t="s">
+      <c r="P26" s="76" t="s">
         <v>327</v>
       </c>
-      <c r="Q26" s="45"/>
-      <c r="V26" s="106" t="s">
+      <c r="Q26" s="44"/>
+      <c r="V26" s="105" t="s">
         <v>200</v>
       </c>
-      <c r="W26" s="100"/>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="100"/>
-      <c r="Z26" s="100"/>
-      <c r="AA26" s="100"/>
-      <c r="AB26" s="100"/>
-      <c r="AC26" s="107"/>
+      <c r="W26" s="99"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="99"/>
+      <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="185"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="174"/>
+      <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C27" s="36">
-        <v>1</v>
-      </c>
-      <c r="D27" s="36">
+      <c r="C27" s="35">
+        <v>1</v>
+      </c>
+      <c r="D27" s="35">
         <v>4</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="F27" s="132"/>
-      <c r="L27" s="206" t="s">
+      <c r="F27" s="131"/>
+      <c r="L27" s="195" t="s">
         <v>213</v>
       </c>
-      <c r="M27" s="85" t="s">
+      <c r="M27" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="N27" s="86">
-        <v>1</v>
-      </c>
-      <c r="O27" s="86">
+      <c r="N27" s="85">
+        <v>1</v>
+      </c>
+      <c r="O27" s="85">
         <v>4</v>
       </c>
-      <c r="P27" s="87" t="s">
+      <c r="P27" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="Q27" s="45"/>
-      <c r="V27" s="106" t="s">
+      <c r="Q27" s="44"/>
+      <c r="V27" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="W27" s="100" t="s">
+      <c r="W27" s="99" t="s">
         <v>221</v>
       </c>
-      <c r="X27" s="100" t="s">
+      <c r="X27" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="Y27" s="100"/>
-      <c r="Z27" s="100"/>
-      <c r="AA27" s="100"/>
-      <c r="AB27" s="100"/>
-      <c r="AC27" s="107"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="99"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="99"/>
+      <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="185"/>
-      <c r="B28" s="79" t="s">
+      <c r="A28" s="174"/>
+      <c r="B28" s="78" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="209">
-        <v>1</v>
-      </c>
-      <c r="D28" s="209">
+      <c r="C28" s="149">
+        <v>1</v>
+      </c>
+      <c r="D28" s="149">
         <v>0</v>
       </c>
-      <c r="E28" s="80" t="s">
+      <c r="E28" s="79" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="132"/>
-      <c r="L28" s="208"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="45"/>
-      <c r="V28" s="106" t="s">
+      <c r="F28" s="131"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="44"/>
+      <c r="V28" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="W28" s="100" t="s">
+      <c r="W28" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="X28" s="100" t="s">
+      <c r="X28" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="100"/>
-      <c r="AB28" s="100"/>
-      <c r="AC28" s="107"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="99"/>
+      <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="191"/>
-      <c r="B29" s="137" t="s">
+      <c r="A29" s="180"/>
+      <c r="B29" s="136" t="s">
+        <v>377</v>
+      </c>
+      <c r="C29" s="134">
+        <v>1</v>
+      </c>
+      <c r="D29" s="134">
+        <v>4</v>
+      </c>
+      <c r="E29" s="138" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="131"/>
+      <c r="L29" s="197"/>
+      <c r="M29" s="113" t="s">
+        <v>364</v>
+      </c>
+      <c r="N29" s="114">
+        <v>1</v>
+      </c>
+      <c r="O29" s="114">
+        <v>4</v>
+      </c>
+      <c r="P29" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q29" s="44"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="99"/>
+      <c r="X29" s="99"/>
+      <c r="Y29" s="99"/>
+      <c r="Z29" s="99"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="99"/>
+      <c r="AC29" s="106"/>
+    </row>
+    <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="174" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="149">
+        <v>1</v>
+      </c>
+      <c r="D30" s="149">
+        <v>4</v>
+      </c>
+      <c r="E30" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" s="131"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="44"/>
+      <c r="V30" s="105" t="s">
+        <v>213</v>
+      </c>
+      <c r="W30" s="99"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="99"/>
+      <c r="AB30" s="99"/>
+      <c r="AC30" s="106"/>
+    </row>
+    <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="174"/>
+      <c r="B31" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="35">
+        <v>1</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="131"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="44"/>
+      <c r="V31" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="W31" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="X31" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y31" s="99"/>
+      <c r="Z31" s="99"/>
+      <c r="AA31" s="99"/>
+      <c r="AB31" s="99"/>
+      <c r="AC31" s="106"/>
+    </row>
+    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="175"/>
+      <c r="B32" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" s="43">
+        <v>1</v>
+      </c>
+      <c r="D32" s="43">
+        <v>4</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" s="45"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="44"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="122" t="s">
+        <v>278</v>
+      </c>
+      <c r="W32" s="123" t="s">
+        <v>335</v>
+      </c>
+      <c r="X32" s="124" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y32" s="123"/>
+      <c r="Z32" s="123"/>
+      <c r="AA32" s="123"/>
+      <c r="AB32" s="123"/>
+      <c r="AC32" s="125"/>
+      <c r="AD32" s="93"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="41"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="40"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="93"/>
+    </row>
+    <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="162" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="142"/>
+      <c r="L34" s="189" t="s">
+        <v>338</v>
+      </c>
+      <c r="M34" s="190"/>
+      <c r="N34" s="190"/>
+      <c r="O34" s="190"/>
+      <c r="P34" s="190"/>
+      <c r="Q34" s="190"/>
+      <c r="R34" s="190"/>
+      <c r="S34" s="191"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="93"/>
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="93"/>
+      <c r="AD34" s="26"/>
+    </row>
+    <row r="35" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="32"/>
+      <c r="L35" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="147"/>
+    </row>
+    <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="32"/>
+      <c r="L36" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="M36" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="N36" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="99"/>
+      <c r="S36" s="106"/>
+      <c r="T36" s="104"/>
+      <c r="U36" s="93"/>
+      <c r="AC36" s="93"/>
+      <c r="AD36" s="104"/>
+    </row>
+    <row r="37" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="26"/>
+      <c r="L37" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="M37" s="99" t="s">
+        <v>231</v>
+      </c>
+      <c r="N37" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="O37" s="99"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="106"/>
+      <c r="T37" s="104"/>
+      <c r="U37" s="93"/>
+      <c r="AD37" s="104"/>
+    </row>
+    <row r="38" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="26"/>
+      <c r="L38" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="M38" s="99" t="s">
+        <v>231</v>
+      </c>
+      <c r="N38" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="O38" s="99"/>
+      <c r="P38" s="99"/>
+      <c r="Q38" s="99"/>
+      <c r="R38" s="99"/>
+      <c r="S38" s="106"/>
+      <c r="T38" s="104"/>
+      <c r="U38" s="93"/>
+      <c r="AD38" s="104"/>
+    </row>
+    <row r="39" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="M39" s="99" t="s">
+        <v>297</v>
+      </c>
+      <c r="N39" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="O39" s="99"/>
+      <c r="P39" s="99"/>
+      <c r="Q39" s="99"/>
+      <c r="R39" s="99"/>
+      <c r="S39" s="106"/>
+      <c r="T39" s="104"/>
+      <c r="U39" s="93"/>
+      <c r="AD39" s="104"/>
+    </row>
+    <row r="40" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="M40" s="99" t="s">
+        <v>298</v>
+      </c>
+      <c r="N40" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="99"/>
+      <c r="R40" s="99"/>
+      <c r="S40" s="106"/>
+      <c r="T40" s="104"/>
+      <c r="U40" s="93"/>
+      <c r="AD40" s="104"/>
+    </row>
+    <row r="41" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="M41" s="99" t="s">
+        <v>298</v>
+      </c>
+      <c r="N41" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="O41" s="99"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="99"/>
+      <c r="R41" s="99"/>
+      <c r="S41" s="106"/>
+      <c r="T41" s="104"/>
+      <c r="U41" s="93"/>
+      <c r="AD41" s="104"/>
+    </row>
+    <row r="42" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="M42" s="99" t="s">
+        <v>298</v>
+      </c>
+      <c r="N42" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="O42" s="99"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="99"/>
+      <c r="R42" s="99"/>
+      <c r="S42" s="106"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="93"/>
+      <c r="AD42" s="104"/>
+    </row>
+    <row r="43" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="M43" s="99" t="s">
+        <v>298</v>
+      </c>
+      <c r="N43" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="O43" s="99"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="99"/>
+      <c r="S43" s="106"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="93"/>
+      <c r="AD43" s="104"/>
+    </row>
+    <row r="44" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="87" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="M44" s="99" t="s">
+        <v>297</v>
+      </c>
+      <c r="N44" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="99"/>
+      <c r="R44" s="99"/>
+      <c r="S44" s="106"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="93"/>
+      <c r="AD44" s="104"/>
+    </row>
+    <row r="45" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="M45" s="99" t="s">
+        <v>228</v>
+      </c>
+      <c r="N45" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="O45" s="99"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="99"/>
+      <c r="R45" s="99"/>
+      <c r="S45" s="106"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="93"/>
+      <c r="AD45" s="104"/>
+    </row>
+    <row r="46" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="M46" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="N46" s="107" t="s">
+        <v>225</v>
+      </c>
+      <c r="O46" s="99"/>
+      <c r="P46" s="99"/>
+      <c r="Q46" s="99"/>
+      <c r="R46" s="99"/>
+      <c r="S46" s="106"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="93"/>
+      <c r="AD46" s="104"/>
+    </row>
+    <row r="47" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="93"/>
+      <c r="L47" s="105" t="s">
+        <v>239</v>
+      </c>
+      <c r="M47" s="99" t="s">
+        <v>300</v>
+      </c>
+      <c r="N47" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="O47" s="99"/>
+      <c r="P47" s="99"/>
+      <c r="Q47" s="99"/>
+      <c r="R47" s="99"/>
+      <c r="S47" s="106"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="93"/>
+      <c r="AD47" s="104"/>
+    </row>
+    <row r="48" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="105" t="s">
+        <v>240</v>
+      </c>
+      <c r="M48" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="N48" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="99"/>
+      <c r="S48" s="106"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="93"/>
+      <c r="AD48" s="104"/>
+    </row>
+    <row r="49" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="M49" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="N49" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="O49" s="99"/>
+      <c r="P49" s="99"/>
+      <c r="Q49" s="99"/>
+      <c r="R49" s="99"/>
+      <c r="S49" s="106"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="93"/>
+      <c r="AD49" s="104"/>
+    </row>
+    <row r="50" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="M50" s="99" t="s">
+        <v>228</v>
+      </c>
+      <c r="N50" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="O50" s="99"/>
+      <c r="P50" s="99"/>
+      <c r="Q50" s="99"/>
+      <c r="R50" s="99"/>
+      <c r="S50" s="106"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="93"/>
+      <c r="AD50" s="104"/>
+    </row>
+    <row r="51" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="M51" s="99" t="s">
+        <v>301</v>
+      </c>
+      <c r="N51" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="O51" s="99"/>
+      <c r="P51" s="99"/>
+      <c r="Q51" s="99"/>
+      <c r="R51" s="99"/>
+      <c r="S51" s="106"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="93"/>
+      <c r="AD51" s="104"/>
+    </row>
+    <row r="52" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="M52" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="N52" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="O52" s="99"/>
+      <c r="P52" s="99"/>
+      <c r="Q52" s="99"/>
+      <c r="R52" s="99"/>
+      <c r="S52" s="106"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="93"/>
+      <c r="AD52" s="93"/>
+    </row>
+    <row r="53" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="87"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="93"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="99"/>
+      <c r="N53" s="99"/>
+      <c r="O53" s="99"/>
+      <c r="P53" s="99"/>
+      <c r="Q53" s="99"/>
+      <c r="R53" s="99"/>
+      <c r="S53" s="106"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="93"/>
+      <c r="AD53" s="93"/>
+    </row>
+    <row r="54" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="93"/>
+      <c r="L54" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="M54" s="99"/>
+      <c r="N54" s="99"/>
+      <c r="O54" s="99"/>
+      <c r="P54" s="99"/>
+      <c r="Q54" s="99"/>
+      <c r="R54" s="99"/>
+      <c r="S54" s="106"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="93"/>
+      <c r="AD54" s="93"/>
+    </row>
+    <row r="55" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="87" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="93"/>
+      <c r="L55" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="M55" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="N55" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="O55" s="99"/>
+      <c r="P55" s="99"/>
+      <c r="Q55" s="99"/>
+      <c r="R55" s="99"/>
+      <c r="S55" s="106"/>
+      <c r="T55" s="60"/>
+    </row>
+    <row r="56" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="93"/>
+      <c r="L56" s="105" t="s">
+        <v>245</v>
+      </c>
+      <c r="M56" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="N56" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O56" s="99"/>
+      <c r="P56" s="99"/>
+      <c r="Q56" s="99"/>
+      <c r="R56" s="99"/>
+      <c r="S56" s="106"/>
+      <c r="T56" s="60"/>
+    </row>
+    <row r="57" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="M57" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="N57" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O57" s="99"/>
+      <c r="P57" s="99"/>
+      <c r="Q57" s="99"/>
+      <c r="R57" s="99"/>
+      <c r="S57" s="106"/>
+      <c r="T57" s="60"/>
+    </row>
+    <row r="58" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="93"/>
+      <c r="L58" s="105" t="s">
+        <v>251</v>
+      </c>
+      <c r="M58" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="N58" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O58" s="99"/>
+      <c r="P58" s="99"/>
+      <c r="Q58" s="99"/>
+      <c r="R58" s="99"/>
+      <c r="S58" s="106"/>
+      <c r="T58" s="60"/>
+    </row>
+    <row r="59" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="105" t="s">
+        <v>252</v>
+      </c>
+      <c r="M59" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="N59" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O59" s="99"/>
+      <c r="P59" s="99"/>
+      <c r="Q59" s="99"/>
+      <c r="R59" s="99"/>
+      <c r="S59" s="106"/>
+      <c r="T59" s="60"/>
+    </row>
+    <row r="60" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="87" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="93"/>
+      <c r="L60" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="M60" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="N60" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O60" s="99"/>
+      <c r="P60" s="99"/>
+      <c r="Q60" s="99"/>
+      <c r="R60" s="99"/>
+      <c r="S60" s="106"/>
+      <c r="T60" s="60"/>
+    </row>
+    <row r="61" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="M61" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="N61" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O61" s="99"/>
+      <c r="P61" s="99"/>
+      <c r="Q61" s="99"/>
+      <c r="R61" s="99"/>
+      <c r="S61" s="106"/>
+      <c r="T61" s="104"/>
+    </row>
+    <row r="62" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="93"/>
+      <c r="L62" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="M62" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="N62" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O62" s="99"/>
+      <c r="P62" s="99"/>
+      <c r="Q62" s="99"/>
+      <c r="R62" s="99"/>
+      <c r="S62" s="106"/>
+      <c r="T62" s="104"/>
+    </row>
+    <row r="63" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="93"/>
+      <c r="L63" s="105" t="s">
+        <v>303</v>
+      </c>
+      <c r="M63" s="99" t="s">
+        <v>304</v>
+      </c>
+      <c r="N63" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O63" s="99"/>
+      <c r="P63" s="99"/>
+      <c r="Q63" s="99"/>
+      <c r="R63" s="99"/>
+      <c r="S63" s="106"/>
+      <c r="T63" s="104"/>
+    </row>
+    <row r="64" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="93"/>
+      <c r="L64" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="M64" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="N64" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O64" s="99"/>
+      <c r="P64" s="99"/>
+      <c r="Q64" s="99"/>
+      <c r="R64" s="99"/>
+      <c r="S64" s="106"/>
+      <c r="T64" s="104"/>
+    </row>
+    <row r="65" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="93"/>
+      <c r="L65" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="M65" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="N65" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O65" s="99"/>
+      <c r="P65" s="99"/>
+      <c r="Q65" s="99"/>
+      <c r="R65" s="99"/>
+      <c r="S65" s="106"/>
+      <c r="T65" s="104"/>
+    </row>
+    <row r="66" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="105" t="s">
+        <v>307</v>
+      </c>
+      <c r="M66" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="N66" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O66" s="99"/>
+      <c r="P66" s="99"/>
+      <c r="Q66" s="99"/>
+      <c r="R66" s="99"/>
+      <c r="S66" s="106"/>
+      <c r="T66" s="104"/>
+    </row>
+    <row r="67" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="93"/>
+      <c r="L67" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="M67" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="N67" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O67" s="99"/>
+      <c r="P67" s="99"/>
+      <c r="Q67" s="99"/>
+      <c r="R67" s="99"/>
+      <c r="S67" s="106"/>
+      <c r="T67" s="104"/>
+    </row>
+    <row r="68" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="93"/>
+      <c r="L68" s="105" t="s">
+        <v>309</v>
+      </c>
+      <c r="M68" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="N68" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O68" s="99"/>
+      <c r="P68" s="99"/>
+      <c r="Q68" s="99"/>
+      <c r="R68" s="99"/>
+      <c r="S68" s="106"/>
+      <c r="T68" s="104"/>
+    </row>
+    <row r="69" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="93"/>
+      <c r="L69" s="105" t="s">
+        <v>310</v>
+      </c>
+      <c r="M69" s="99" t="s">
+        <v>311</v>
+      </c>
+      <c r="N69" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O69" s="99"/>
+      <c r="P69" s="99"/>
+      <c r="Q69" s="99"/>
+      <c r="R69" s="99"/>
+      <c r="S69" s="106"/>
+      <c r="T69" s="104"/>
+    </row>
+    <row r="70" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="93"/>
+      <c r="L70" s="105" t="s">
+        <v>312</v>
+      </c>
+      <c r="M70" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="N70" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O70" s="99"/>
+      <c r="P70" s="99"/>
+      <c r="Q70" s="99"/>
+      <c r="R70" s="99"/>
+      <c r="S70" s="106"/>
+      <c r="T70" s="104"/>
+    </row>
+    <row r="71" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="93"/>
+      <c r="L71" s="105" t="s">
+        <v>313</v>
+      </c>
+      <c r="M71" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="N71" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O71" s="99"/>
+      <c r="P71" s="99"/>
+      <c r="Q71" s="99"/>
+      <c r="R71" s="99"/>
+      <c r="S71" s="106"/>
+      <c r="T71" s="104"/>
+    </row>
+    <row r="72" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="31"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="93"/>
+      <c r="L72" s="105" t="s">
+        <v>314</v>
+      </c>
+      <c r="M72" s="99" t="s">
+        <v>315</v>
+      </c>
+      <c r="N72" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O72" s="99"/>
+      <c r="P72" s="99"/>
+      <c r="Q72" s="99"/>
+      <c r="R72" s="99"/>
+      <c r="S72" s="106"/>
+      <c r="T72" s="104"/>
+    </row>
+    <row r="73" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="93"/>
+      <c r="L73" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="M73" s="99" t="s">
+        <v>315</v>
+      </c>
+      <c r="N73" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O73" s="99"/>
+      <c r="P73" s="99"/>
+      <c r="Q73" s="99"/>
+      <c r="R73" s="99"/>
+      <c r="S73" s="106"/>
+      <c r="T73" s="104"/>
+    </row>
+    <row r="74" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="93"/>
+      <c r="L74" s="105" t="s">
+        <v>317</v>
+      </c>
+      <c r="M74" s="99" t="s">
+        <v>315</v>
+      </c>
+      <c r="N74" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O74" s="99"/>
+      <c r="P74" s="99"/>
+      <c r="Q74" s="99"/>
+      <c r="R74" s="99"/>
+      <c r="S74" s="106"/>
+      <c r="T74" s="104"/>
+    </row>
+    <row r="75" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="93"/>
+      <c r="L75" s="105"/>
+      <c r="M75" s="99"/>
+      <c r="N75" s="99"/>
+      <c r="O75" s="99"/>
+      <c r="P75" s="99"/>
+      <c r="Q75" s="99"/>
+      <c r="R75" s="99"/>
+      <c r="S75" s="106"/>
+      <c r="T75" s="104"/>
+    </row>
+    <row r="76" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="C76" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="D76" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="E76" s="78"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="78"/>
+      <c r="H76" s="78"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="93"/>
+      <c r="L76" s="105" t="s">
+        <v>200</v>
+      </c>
+      <c r="M76" s="99"/>
+      <c r="N76" s="99"/>
+      <c r="O76" s="99"/>
+      <c r="P76" s="99"/>
+      <c r="Q76" s="99"/>
+      <c r="R76" s="99"/>
+      <c r="S76" s="106"/>
+      <c r="T76" s="104"/>
+    </row>
+    <row r="77" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="93"/>
+      <c r="L77" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="M77" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="N77" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="O77" s="99"/>
+      <c r="P77" s="99"/>
+      <c r="Q77" s="99"/>
+      <c r="R77" s="99"/>
+      <c r="S77" s="106"/>
+      <c r="T77" s="104"/>
+    </row>
+    <row r="78" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D78" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="93"/>
+      <c r="L78" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="M78" s="99" t="s">
+        <v>318</v>
+      </c>
+      <c r="N78" s="107" t="s">
+        <v>319</v>
+      </c>
+      <c r="O78" s="99"/>
+      <c r="P78" s="99"/>
+      <c r="Q78" s="99"/>
+      <c r="R78" s="99"/>
+      <c r="S78" s="106"/>
+      <c r="T78" s="104"/>
+    </row>
+    <row r="79" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="D79" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="93"/>
+      <c r="L79" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="M79" s="99" t="s">
+        <v>320</v>
+      </c>
+      <c r="N79" s="99" t="s">
+        <v>320</v>
+      </c>
+      <c r="O79" s="99"/>
+      <c r="P79" s="99"/>
+      <c r="Q79" s="99"/>
+      <c r="R79" s="99"/>
+      <c r="S79" s="106"/>
+      <c r="T79" s="104"/>
+    </row>
+    <row r="80" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="93"/>
+      <c r="L80" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="M80" s="99" t="s">
+        <v>320</v>
+      </c>
+      <c r="N80" s="99" t="s">
+        <v>320</v>
+      </c>
+      <c r="O80" s="99"/>
+      <c r="P80" s="99"/>
+      <c r="Q80" s="99"/>
+      <c r="R80" s="99"/>
+      <c r="S80" s="106"/>
+      <c r="T80" s="104"/>
+    </row>
+    <row r="81" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="135">
-        <v>1</v>
-      </c>
-      <c r="D29" s="135">
-        <v>4</v>
-      </c>
-      <c r="E29" s="139" t="s">
+      <c r="D81" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="93"/>
+      <c r="L81" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="M81" s="99" t="s">
+        <v>321</v>
+      </c>
+      <c r="N81" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="O81" s="99"/>
+      <c r="P81" s="99"/>
+      <c r="Q81" s="99"/>
+      <c r="R81" s="99"/>
+      <c r="S81" s="106"/>
+      <c r="T81" s="104"/>
+    </row>
+    <row r="82" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D82" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="93"/>
+      <c r="L82" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="M82" s="99" t="s">
+        <v>323</v>
+      </c>
+      <c r="N82" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="O82" s="99"/>
+      <c r="P82" s="99"/>
+      <c r="Q82" s="99"/>
+      <c r="R82" s="99"/>
+      <c r="S82" s="106"/>
+      <c r="T82" s="104"/>
+    </row>
+    <row r="83" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="31"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="93"/>
+      <c r="L83" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="F29" s="132"/>
-      <c r="L29" s="207"/>
-      <c r="M29" s="114" t="s">
-        <v>364</v>
-      </c>
-      <c r="N29" s="115">
-        <v>1</v>
-      </c>
-      <c r="O29" s="115">
-        <v>4</v>
-      </c>
-      <c r="P29" s="116" t="s">
+      <c r="M83" s="99" t="s">
+        <v>325</v>
+      </c>
+      <c r="N83" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="O83" s="99"/>
+      <c r="P83" s="99"/>
+      <c r="Q83" s="99"/>
+      <c r="R83" s="99"/>
+      <c r="S83" s="106"/>
+      <c r="T83" s="104"/>
+    </row>
+    <row r="84" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="93"/>
+      <c r="L84" s="105" t="s">
+        <v>277</v>
+      </c>
+      <c r="M84" s="99" t="s">
+        <v>326</v>
+      </c>
+      <c r="N84" s="107" t="s">
+        <v>326</v>
+      </c>
+      <c r="O84" s="99"/>
+      <c r="P84" s="99"/>
+      <c r="Q84" s="99"/>
+      <c r="R84" s="99"/>
+      <c r="S84" s="106"/>
+      <c r="T84" s="104"/>
+    </row>
+    <row r="85" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="26"/>
+      <c r="L85" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="M85" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="N85" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="O85" s="56"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="56"/>
+      <c r="S85" s="61"/>
+      <c r="T85" s="60"/>
+    </row>
+    <row r="86" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="C86" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="D86" s="78" t="s">
+        <v>280</v>
+      </c>
+      <c r="E86" s="78"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="78"/>
+      <c r="H86" s="78"/>
+      <c r="I86" s="79"/>
+      <c r="J86" s="26"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="56"/>
+      <c r="S86" s="61"/>
+      <c r="T86" s="60"/>
+    </row>
+    <row r="87" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="C87" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="D87" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="E87" s="78"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="78"/>
+      <c r="H87" s="78"/>
+      <c r="I87" s="79"/>
+      <c r="J87" s="26"/>
+      <c r="L87" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="56"/>
+      <c r="P87" s="56"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="56"/>
+      <c r="S87" s="61"/>
+      <c r="T87" s="60"/>
+    </row>
+    <row r="88" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="D88" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E88" s="78"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="78"/>
+      <c r="H88" s="78"/>
+      <c r="I88" s="79"/>
+      <c r="J88" s="26"/>
+      <c r="L88" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="M88" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="N88" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="O88" s="56"/>
+      <c r="P88" s="56"/>
+      <c r="Q88" s="56"/>
+      <c r="R88" s="56"/>
+      <c r="S88" s="61"/>
+      <c r="T88" s="60"/>
+    </row>
+    <row r="89" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="C89" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="D89" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="E89" s="78"/>
+      <c r="F89" s="78"/>
+      <c r="G89" s="78"/>
+      <c r="H89" s="78"/>
+      <c r="I89" s="79"/>
+      <c r="J89" s="26"/>
+      <c r="L89" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="M89" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="N89" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="O89" s="81"/>
+      <c r="P89" s="81"/>
+      <c r="Q89" s="81"/>
+      <c r="R89" s="81"/>
+      <c r="S89" s="83"/>
+      <c r="T89" s="60"/>
+    </row>
+    <row r="90" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="D90" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="26"/>
+      <c r="L90" s="80" t="s">
+        <v>281</v>
+      </c>
+      <c r="M90" s="81" t="s">
+        <v>330</v>
+      </c>
+      <c r="N90" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="O90" s="81"/>
+      <c r="P90" s="81"/>
+      <c r="Q90" s="81"/>
+      <c r="R90" s="81"/>
+      <c r="S90" s="83"/>
+      <c r="T90" s="60"/>
+    </row>
+    <row r="91" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="C91" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="D91" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="E91" s="78"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="78"/>
+      <c r="H91" s="78"/>
+      <c r="I91" s="79"/>
+      <c r="J91" s="26"/>
+      <c r="L91" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="M91" s="81" t="s">
+        <v>331</v>
+      </c>
+      <c r="N91" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="O91" s="81"/>
+      <c r="P91" s="81"/>
+      <c r="Q91" s="81"/>
+      <c r="R91" s="81"/>
+      <c r="S91" s="83"/>
+      <c r="T91" s="60"/>
+    </row>
+    <row r="92" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="Q29" s="45"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="100"/>
-      <c r="X29" s="100"/>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="100"/>
-      <c r="AA29" s="100"/>
-      <c r="AB29" s="100"/>
-      <c r="AC29" s="107"/>
-    </row>
-    <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="185" t="s">
-        <v>213</v>
-      </c>
-      <c r="B30" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" s="209">
-        <v>1</v>
-      </c>
-      <c r="D30" s="209">
-        <v>4</v>
-      </c>
-      <c r="E30" s="80" t="s">
-        <v>215</v>
-      </c>
-      <c r="F30" s="132"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="45"/>
-      <c r="V30" s="106" t="s">
-        <v>213</v>
-      </c>
-      <c r="W30" s="100"/>
-      <c r="X30" s="100"/>
-      <c r="Y30" s="100"/>
-      <c r="Z30" s="100"/>
-      <c r="AA30" s="100"/>
-      <c r="AB30" s="100"/>
-      <c r="AC30" s="107"/>
-    </row>
-    <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="185"/>
-      <c r="B31" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" s="36">
-        <v>1</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="F31" s="132"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="45"/>
-      <c r="V31" s="106" t="s">
-        <v>220</v>
-      </c>
-      <c r="W31" s="100" t="s">
-        <v>221</v>
-      </c>
-      <c r="X31" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y31" s="100"/>
-      <c r="Z31" s="100"/>
-      <c r="AA31" s="100"/>
-      <c r="AB31" s="100"/>
-      <c r="AC31" s="107"/>
-    </row>
-    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="186"/>
-      <c r="B32" s="43" t="s">
-        <v>364</v>
-      </c>
-      <c r="C32" s="44">
-        <v>1</v>
-      </c>
-      <c r="D32" s="44">
-        <v>4</v>
-      </c>
-      <c r="E32" s="28" t="s">
+      <c r="C92" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="26"/>
+      <c r="L92" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="M92" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="N92" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="O92" s="56"/>
+      <c r="P92" s="56"/>
+      <c r="Q92" s="56"/>
+      <c r="R92" s="56"/>
+      <c r="S92" s="61"/>
+      <c r="T92" s="60"/>
+    </row>
+    <row r="93" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L93" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="F32" s="46"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="45"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="123" t="s">
-        <v>278</v>
-      </c>
-      <c r="W32" s="124" t="s">
-        <v>335</v>
-      </c>
-      <c r="X32" s="125" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y32" s="124"/>
-      <c r="Z32" s="124"/>
-      <c r="AA32" s="124"/>
-      <c r="AB32" s="124"/>
-      <c r="AC32" s="126"/>
-      <c r="AD32" s="94"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="42"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="41"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="149"/>
-      <c r="AD33" s="94"/>
-    </row>
-    <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="173" t="s">
-        <v>295</v>
-      </c>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="143"/>
-      <c r="L34" s="200" t="s">
-        <v>338</v>
-      </c>
-      <c r="M34" s="201"/>
-      <c r="N34" s="201"/>
-      <c r="O34" s="201"/>
-      <c r="P34" s="201"/>
-      <c r="Q34" s="201"/>
-      <c r="R34" s="201"/>
-      <c r="S34" s="202"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="27"/>
-    </row>
-    <row r="35" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="33"/>
-      <c r="L35" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="61"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="94"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="148"/>
-    </row>
-    <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="33"/>
-      <c r="L36" s="106" t="s">
-        <v>220</v>
-      </c>
-      <c r="M36" s="100" t="s">
-        <v>221</v>
-      </c>
-      <c r="N36" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="O36" s="100"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="100"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="105"/>
-      <c r="U36" s="94"/>
-      <c r="AC36" s="94"/>
-      <c r="AD36" s="105"/>
-    </row>
-    <row r="37" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="27"/>
-      <c r="L37" s="106" t="s">
-        <v>223</v>
-      </c>
-      <c r="M37" s="100" t="s">
-        <v>231</v>
-      </c>
-      <c r="N37" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="O37" s="100"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="100"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="105"/>
-      <c r="U37" s="94"/>
-      <c r="AD37" s="105"/>
-    </row>
-    <row r="38" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="D38" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="27"/>
-      <c r="L38" s="106" t="s">
-        <v>226</v>
-      </c>
-      <c r="M38" s="100" t="s">
-        <v>231</v>
-      </c>
-      <c r="N38" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="O38" s="100"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="100"/>
-      <c r="S38" s="107"/>
-      <c r="T38" s="105"/>
-      <c r="U38" s="94"/>
-      <c r="AD38" s="105"/>
-    </row>
-    <row r="39" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="88" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="106" t="s">
-        <v>227</v>
-      </c>
-      <c r="M39" s="100" t="s">
-        <v>297</v>
-      </c>
-      <c r="N39" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="O39" s="100"/>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="100"/>
-      <c r="R39" s="100"/>
-      <c r="S39" s="107"/>
-      <c r="T39" s="105"/>
-      <c r="U39" s="94"/>
-      <c r="AD39" s="105"/>
-    </row>
-    <row r="40" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="88" t="s">
-        <v>230</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="106" t="s">
-        <v>230</v>
-      </c>
-      <c r="M40" s="100" t="s">
-        <v>298</v>
-      </c>
-      <c r="N40" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="O40" s="100"/>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="100"/>
-      <c r="R40" s="100"/>
-      <c r="S40" s="107"/>
-      <c r="T40" s="105"/>
-      <c r="U40" s="94"/>
-      <c r="AD40" s="105"/>
-    </row>
-    <row r="41" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="106" t="s">
-        <v>179</v>
-      </c>
-      <c r="M41" s="100" t="s">
-        <v>298</v>
-      </c>
-      <c r="N41" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
-      <c r="Q41" s="100"/>
-      <c r="R41" s="100"/>
-      <c r="S41" s="107"/>
-      <c r="T41" s="105"/>
-      <c r="U41" s="94"/>
-      <c r="AD41" s="105"/>
-    </row>
-    <row r="42" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="88" t="s">
-        <v>232</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="106" t="s">
-        <v>232</v>
-      </c>
-      <c r="M42" s="100" t="s">
-        <v>298</v>
-      </c>
-      <c r="N42" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="O42" s="100"/>
-      <c r="P42" s="100"/>
-      <c r="Q42" s="100"/>
-      <c r="R42" s="100"/>
-      <c r="S42" s="107"/>
-      <c r="T42" s="61"/>
-      <c r="U42" s="94"/>
-      <c r="AD42" s="105"/>
-    </row>
-    <row r="43" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="88" t="s">
-        <v>234</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="106" t="s">
-        <v>234</v>
-      </c>
-      <c r="M43" s="100" t="s">
-        <v>298</v>
-      </c>
-      <c r="N43" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="O43" s="100"/>
-      <c r="P43" s="100"/>
-      <c r="Q43" s="100"/>
-      <c r="R43" s="100"/>
-      <c r="S43" s="107"/>
-      <c r="T43" s="61"/>
-      <c r="U43" s="94"/>
-      <c r="AD43" s="105"/>
-    </row>
-    <row r="44" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="88" t="s">
-        <v>235</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="106" t="s">
-        <v>235</v>
-      </c>
-      <c r="M44" s="100" t="s">
-        <v>297</v>
-      </c>
-      <c r="N44" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="O44" s="100"/>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="100"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="107"/>
-      <c r="T44" s="61"/>
-      <c r="U44" s="94"/>
-      <c r="AD44" s="105"/>
-    </row>
-    <row r="45" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="106" t="s">
-        <v>174</v>
-      </c>
-      <c r="M45" s="100" t="s">
-        <v>228</v>
-      </c>
-      <c r="N45" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="O45" s="100"/>
-      <c r="P45" s="100"/>
-      <c r="Q45" s="100"/>
-      <c r="R45" s="100"/>
-      <c r="S45" s="107"/>
-      <c r="T45" s="61"/>
-      <c r="U45" s="94"/>
-      <c r="AD45" s="105"/>
-    </row>
-    <row r="46" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="88" t="s">
-        <v>237</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="106" t="s">
-        <v>237</v>
-      </c>
-      <c r="M46" s="100" t="s">
-        <v>299</v>
-      </c>
-      <c r="N46" s="108" t="s">
-        <v>225</v>
-      </c>
-      <c r="O46" s="100"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="100"/>
-      <c r="S46" s="107"/>
-      <c r="T46" s="61"/>
-      <c r="U46" s="94"/>
-      <c r="AD46" s="105"/>
-    </row>
-    <row r="47" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="106" t="s">
-        <v>239</v>
-      </c>
-      <c r="M47" s="100" t="s">
-        <v>300</v>
-      </c>
-      <c r="N47" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="O47" s="100"/>
-      <c r="P47" s="100"/>
-      <c r="Q47" s="100"/>
-      <c r="R47" s="100"/>
-      <c r="S47" s="107"/>
-      <c r="T47" s="61"/>
-      <c r="U47" s="94"/>
-      <c r="AD47" s="105"/>
-    </row>
-    <row r="48" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="106" t="s">
-        <v>240</v>
-      </c>
-      <c r="M48" s="100" t="s">
-        <v>238</v>
-      </c>
-      <c r="N48" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="O48" s="100"/>
-      <c r="P48" s="100"/>
-      <c r="Q48" s="100"/>
-      <c r="R48" s="100"/>
-      <c r="S48" s="107"/>
-      <c r="T48" s="61"/>
-      <c r="U48" s="94"/>
-      <c r="AD48" s="105"/>
-    </row>
-    <row r="49" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="106" t="s">
-        <v>242</v>
-      </c>
-      <c r="M49" s="100" t="s">
-        <v>238</v>
-      </c>
-      <c r="N49" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="O49" s="100"/>
-      <c r="P49" s="100"/>
-      <c r="Q49" s="100"/>
-      <c r="R49" s="100"/>
-      <c r="S49" s="107"/>
-      <c r="T49" s="61"/>
-      <c r="U49" s="94"/>
-      <c r="AD49" s="105"/>
-    </row>
-    <row r="50" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="88" t="s">
-        <v>243</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="106" t="s">
-        <v>243</v>
-      </c>
-      <c r="M50" s="100" t="s">
-        <v>228</v>
-      </c>
-      <c r="N50" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="O50" s="100"/>
-      <c r="P50" s="100"/>
-      <c r="Q50" s="100"/>
-      <c r="R50" s="100"/>
-      <c r="S50" s="107"/>
-      <c r="T50" s="61"/>
-      <c r="U50" s="94"/>
-      <c r="AD50" s="105"/>
-    </row>
-    <row r="51" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="88" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="106" t="s">
-        <v>244</v>
-      </c>
-      <c r="M51" s="100" t="s">
-        <v>301</v>
-      </c>
-      <c r="N51" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="O51" s="100"/>
-      <c r="P51" s="100"/>
-      <c r="Q51" s="100"/>
-      <c r="R51" s="100"/>
-      <c r="S51" s="107"/>
-      <c r="T51" s="61"/>
-      <c r="U51" s="94"/>
-      <c r="AD51" s="105"/>
-    </row>
-    <row r="52" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="106" t="s">
-        <v>170</v>
-      </c>
-      <c r="M52" s="100" t="s">
-        <v>238</v>
-      </c>
-      <c r="N52" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="O52" s="100"/>
-      <c r="P52" s="100"/>
-      <c r="Q52" s="100"/>
-      <c r="R52" s="100"/>
-      <c r="S52" s="107"/>
-      <c r="T52" s="61"/>
-      <c r="U52" s="94"/>
-      <c r="AD52" s="94"/>
-    </row>
-    <row r="53" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="88"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="100"/>
-      <c r="N53" s="100"/>
-      <c r="O53" s="100"/>
-      <c r="P53" s="100"/>
-      <c r="Q53" s="100"/>
-      <c r="R53" s="100"/>
-      <c r="S53" s="107"/>
-      <c r="T53" s="61"/>
-      <c r="U53" s="94"/>
-      <c r="AD53" s="94"/>
-    </row>
-    <row r="54" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="109" t="s">
-        <v>36</v>
-      </c>
-      <c r="M54" s="100"/>
-      <c r="N54" s="100"/>
-      <c r="O54" s="100"/>
-      <c r="P54" s="100"/>
-      <c r="Q54" s="100"/>
-      <c r="R54" s="100"/>
-      <c r="S54" s="107"/>
-      <c r="T54" s="61"/>
-      <c r="U54" s="94"/>
-      <c r="AD54" s="94"/>
-    </row>
-    <row r="55" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="88" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="106" t="s">
-        <v>220</v>
-      </c>
-      <c r="M55" s="100" t="s">
-        <v>221</v>
-      </c>
-      <c r="N55" s="100" t="s">
-        <v>302</v>
-      </c>
-      <c r="O55" s="100"/>
-      <c r="P55" s="100"/>
-      <c r="Q55" s="100"/>
-      <c r="R55" s="100"/>
-      <c r="S55" s="107"/>
-      <c r="T55" s="61"/>
-    </row>
-    <row r="56" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="88" t="s">
-        <v>245</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="106" t="s">
-        <v>245</v>
-      </c>
-      <c r="M56" s="100" t="s">
-        <v>249</v>
-      </c>
-      <c r="N56" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O56" s="100"/>
-      <c r="P56" s="100"/>
-      <c r="Q56" s="100"/>
-      <c r="R56" s="100"/>
-      <c r="S56" s="107"/>
-      <c r="T56" s="61"/>
-    </row>
-    <row r="57" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="106" t="s">
-        <v>250</v>
-      </c>
-      <c r="M57" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="N57" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O57" s="100"/>
-      <c r="P57" s="100"/>
-      <c r="Q57" s="100"/>
-      <c r="R57" s="100"/>
-      <c r="S57" s="107"/>
-      <c r="T57" s="61"/>
-    </row>
-    <row r="58" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="88" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="106" t="s">
-        <v>251</v>
-      </c>
-      <c r="M58" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="N58" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O58" s="100"/>
-      <c r="P58" s="100"/>
-      <c r="Q58" s="100"/>
-      <c r="R58" s="100"/>
-      <c r="S58" s="107"/>
-      <c r="T58" s="61"/>
-    </row>
-    <row r="59" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="88" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="106" t="s">
-        <v>252</v>
-      </c>
-      <c r="M59" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="N59" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O59" s="100"/>
-      <c r="P59" s="100"/>
-      <c r="Q59" s="100"/>
-      <c r="R59" s="100"/>
-      <c r="S59" s="107"/>
-      <c r="T59" s="61"/>
-    </row>
-    <row r="60" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="88" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="94"/>
-      <c r="L60" s="106" t="s">
-        <v>253</v>
-      </c>
-      <c r="M60" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="N60" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O60" s="100"/>
-      <c r="P60" s="100"/>
-      <c r="Q60" s="100"/>
-      <c r="R60" s="100"/>
-      <c r="S60" s="107"/>
-      <c r="T60" s="61"/>
-    </row>
-    <row r="61" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="94"/>
-      <c r="L61" s="106" t="s">
-        <v>254</v>
-      </c>
-      <c r="M61" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="N61" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O61" s="100"/>
-      <c r="P61" s="100"/>
-      <c r="Q61" s="100"/>
-      <c r="R61" s="100"/>
-      <c r="S61" s="107"/>
-      <c r="T61" s="105"/>
-    </row>
-    <row r="62" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="88" t="s">
-        <v>254</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="94"/>
-      <c r="L62" s="106" t="s">
-        <v>187</v>
-      </c>
-      <c r="M62" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="N62" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O62" s="100"/>
-      <c r="P62" s="100"/>
-      <c r="Q62" s="100"/>
-      <c r="R62" s="100"/>
-      <c r="S62" s="107"/>
-      <c r="T62" s="105"/>
-    </row>
-    <row r="63" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="94"/>
-      <c r="L63" s="106" t="s">
-        <v>303</v>
-      </c>
-      <c r="M63" s="100" t="s">
-        <v>304</v>
-      </c>
-      <c r="N63" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O63" s="100"/>
-      <c r="P63" s="100"/>
-      <c r="Q63" s="100"/>
-      <c r="R63" s="100"/>
-      <c r="S63" s="107"/>
-      <c r="T63" s="105"/>
-    </row>
-    <row r="64" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="94"/>
-      <c r="L64" s="106" t="s">
-        <v>305</v>
-      </c>
-      <c r="M64" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="N64" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O64" s="100"/>
-      <c r="P64" s="100"/>
-      <c r="Q64" s="100"/>
-      <c r="R64" s="100"/>
-      <c r="S64" s="107"/>
-      <c r="T64" s="105"/>
-    </row>
-    <row r="65" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="94"/>
-      <c r="L65" s="106" t="s">
-        <v>306</v>
-      </c>
-      <c r="M65" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="N65" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O65" s="100"/>
-      <c r="P65" s="100"/>
-      <c r="Q65" s="100"/>
-      <c r="R65" s="100"/>
-      <c r="S65" s="107"/>
-      <c r="T65" s="105"/>
-    </row>
-    <row r="66" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="94"/>
-      <c r="L66" s="106" t="s">
-        <v>307</v>
-      </c>
-      <c r="M66" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="N66" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O66" s="100"/>
-      <c r="P66" s="100"/>
-      <c r="Q66" s="100"/>
-      <c r="R66" s="100"/>
-      <c r="S66" s="107"/>
-      <c r="T66" s="105"/>
-    </row>
-    <row r="67" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="94"/>
-      <c r="L67" s="106" t="s">
-        <v>308</v>
-      </c>
-      <c r="M67" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="N67" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O67" s="100"/>
-      <c r="P67" s="100"/>
-      <c r="Q67" s="100"/>
-      <c r="R67" s="100"/>
-      <c r="S67" s="107"/>
-      <c r="T67" s="105"/>
-    </row>
-    <row r="68" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="94"/>
-      <c r="L68" s="106" t="s">
-        <v>309</v>
-      </c>
-      <c r="M68" s="100" t="s">
-        <v>249</v>
-      </c>
-      <c r="N68" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O68" s="100"/>
-      <c r="P68" s="100"/>
-      <c r="Q68" s="100"/>
-      <c r="R68" s="100"/>
-      <c r="S68" s="107"/>
-      <c r="T68" s="105"/>
-    </row>
-    <row r="69" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="94"/>
-      <c r="L69" s="106" t="s">
-        <v>310</v>
-      </c>
-      <c r="M69" s="100" t="s">
-        <v>311</v>
-      </c>
-      <c r="N69" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O69" s="100"/>
-      <c r="P69" s="100"/>
-      <c r="Q69" s="100"/>
-      <c r="R69" s="100"/>
-      <c r="S69" s="107"/>
-      <c r="T69" s="105"/>
-    </row>
-    <row r="70" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="94"/>
-      <c r="L70" s="106" t="s">
-        <v>312</v>
-      </c>
-      <c r="M70" s="100" t="s">
-        <v>249</v>
-      </c>
-      <c r="N70" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O70" s="100"/>
-      <c r="P70" s="100"/>
-      <c r="Q70" s="100"/>
-      <c r="R70" s="100"/>
-      <c r="S70" s="107"/>
-      <c r="T70" s="105"/>
-    </row>
-    <row r="71" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="D71" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="106" t="s">
-        <v>313</v>
-      </c>
-      <c r="M71" s="100" t="s">
-        <v>249</v>
-      </c>
-      <c r="N71" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O71" s="100"/>
-      <c r="P71" s="100"/>
-      <c r="Q71" s="100"/>
-      <c r="R71" s="100"/>
-      <c r="S71" s="107"/>
-      <c r="T71" s="105"/>
-    </row>
-    <row r="72" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="32"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="106" t="s">
-        <v>314</v>
-      </c>
-      <c r="M72" s="100" t="s">
-        <v>315</v>
-      </c>
-      <c r="N72" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O72" s="100"/>
-      <c r="P72" s="100"/>
-      <c r="Q72" s="100"/>
-      <c r="R72" s="100"/>
-      <c r="S72" s="107"/>
-      <c r="T72" s="105"/>
-    </row>
-    <row r="73" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="106" t="s">
-        <v>316</v>
-      </c>
-      <c r="M73" s="100" t="s">
-        <v>315</v>
-      </c>
-      <c r="N73" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O73" s="100"/>
-      <c r="P73" s="100"/>
-      <c r="Q73" s="100"/>
-      <c r="R73" s="100"/>
-      <c r="S73" s="107"/>
-      <c r="T73" s="105"/>
-    </row>
-    <row r="74" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C74" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="94"/>
-      <c r="L74" s="106" t="s">
-        <v>317</v>
-      </c>
-      <c r="M74" s="100" t="s">
-        <v>315</v>
-      </c>
-      <c r="N74" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="O74" s="100"/>
-      <c r="P74" s="100"/>
-      <c r="Q74" s="100"/>
-      <c r="R74" s="100"/>
-      <c r="S74" s="107"/>
-      <c r="T74" s="105"/>
-    </row>
-    <row r="75" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="C75" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="D75" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="94"/>
-      <c r="L75" s="106"/>
-      <c r="M75" s="100"/>
-      <c r="N75" s="100"/>
-      <c r="O75" s="100"/>
-      <c r="P75" s="100"/>
-      <c r="Q75" s="100"/>
-      <c r="R75" s="100"/>
-      <c r="S75" s="107"/>
-      <c r="T75" s="105"/>
-    </row>
-    <row r="76" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="78" t="s">
-        <v>268</v>
-      </c>
-      <c r="C76" s="79" t="s">
-        <v>269</v>
-      </c>
-      <c r="D76" s="79" t="s">
-        <v>270</v>
-      </c>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="79"/>
-      <c r="H76" s="79"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="94"/>
-      <c r="L76" s="106" t="s">
-        <v>200</v>
-      </c>
-      <c r="M76" s="100"/>
-      <c r="N76" s="100"/>
-      <c r="O76" s="100"/>
-      <c r="P76" s="100"/>
-      <c r="Q76" s="100"/>
-      <c r="R76" s="100"/>
-      <c r="S76" s="107"/>
-      <c r="T76" s="105"/>
-    </row>
-    <row r="77" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D77" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="94"/>
-      <c r="L77" s="106" t="s">
-        <v>220</v>
-      </c>
-      <c r="M77" s="100" t="s">
-        <v>221</v>
-      </c>
-      <c r="N77" s="100" t="s">
-        <v>302</v>
-      </c>
-      <c r="O77" s="100"/>
-      <c r="P77" s="100"/>
-      <c r="Q77" s="100"/>
-      <c r="R77" s="100"/>
-      <c r="S77" s="107"/>
-      <c r="T77" s="105"/>
-    </row>
-    <row r="78" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="D78" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="94"/>
-      <c r="L78" s="106" t="s">
-        <v>268</v>
-      </c>
-      <c r="M78" s="100" t="s">
-        <v>318</v>
-      </c>
-      <c r="N78" s="108" t="s">
-        <v>319</v>
-      </c>
-      <c r="O78" s="100"/>
-      <c r="P78" s="100"/>
-      <c r="Q78" s="100"/>
-      <c r="R78" s="100"/>
-      <c r="S78" s="107"/>
-      <c r="T78" s="105"/>
-    </row>
-    <row r="79" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="94"/>
-      <c r="L79" s="106" t="s">
-        <v>204</v>
-      </c>
-      <c r="M79" s="100" t="s">
-        <v>320</v>
-      </c>
-      <c r="N79" s="100" t="s">
-        <v>320</v>
-      </c>
-      <c r="O79" s="100"/>
-      <c r="P79" s="100"/>
-      <c r="Q79" s="100"/>
-      <c r="R79" s="100"/>
-      <c r="S79" s="107"/>
-      <c r="T79" s="105"/>
-    </row>
-    <row r="80" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="94"/>
-      <c r="L80" s="106" t="s">
-        <v>272</v>
-      </c>
-      <c r="M80" s="100" t="s">
-        <v>320</v>
-      </c>
-      <c r="N80" s="100" t="s">
-        <v>320</v>
-      </c>
-      <c r="O80" s="100"/>
-      <c r="P80" s="100"/>
-      <c r="Q80" s="100"/>
-      <c r="R80" s="100"/>
-      <c r="S80" s="107"/>
-      <c r="T80" s="105"/>
-    </row>
-    <row r="81" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="94"/>
-      <c r="L81" s="106" t="s">
-        <v>210</v>
-      </c>
-      <c r="M81" s="100" t="s">
-        <v>321</v>
-      </c>
-      <c r="N81" s="108" t="s">
-        <v>322</v>
-      </c>
-      <c r="O81" s="100"/>
-      <c r="P81" s="100"/>
-      <c r="Q81" s="100"/>
-      <c r="R81" s="100"/>
-      <c r="S81" s="107"/>
-      <c r="T81" s="105"/>
-    </row>
-    <row r="82" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="C82" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="D82" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="94"/>
-      <c r="L82" s="106" t="s">
-        <v>208</v>
-      </c>
-      <c r="M82" s="100" t="s">
-        <v>323</v>
-      </c>
-      <c r="N82" s="108" t="s">
-        <v>324</v>
-      </c>
-      <c r="O82" s="100"/>
-      <c r="P82" s="100"/>
-      <c r="Q82" s="100"/>
-      <c r="R82" s="100"/>
-      <c r="S82" s="107"/>
-      <c r="T82" s="105"/>
-    </row>
-    <row r="83" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="32"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="94"/>
-      <c r="L83" s="106" t="s">
-        <v>212</v>
-      </c>
-      <c r="M83" s="100" t="s">
-        <v>325</v>
-      </c>
-      <c r="N83" s="108" t="s">
-        <v>322</v>
-      </c>
-      <c r="O83" s="100"/>
-      <c r="P83" s="100"/>
-      <c r="Q83" s="100"/>
-      <c r="R83" s="100"/>
-      <c r="S83" s="107"/>
-      <c r="T83" s="105"/>
-    </row>
-    <row r="84" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="94"/>
-      <c r="L84" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="M84" s="100" t="s">
-        <v>326</v>
-      </c>
-      <c r="N84" s="108" t="s">
-        <v>326</v>
-      </c>
-      <c r="O84" s="100"/>
-      <c r="P84" s="100"/>
-      <c r="Q84" s="100"/>
-      <c r="R84" s="100"/>
-      <c r="S84" s="107"/>
-      <c r="T84" s="105"/>
-    </row>
-    <row r="85" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="D85" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="27"/>
-      <c r="L85" s="60" t="s">
-        <v>327</v>
-      </c>
-      <c r="M85" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="N85" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="O85" s="57"/>
-      <c r="P85" s="57"/>
-      <c r="Q85" s="57"/>
-      <c r="R85" s="57"/>
-      <c r="S85" s="62"/>
-      <c r="T85" s="61"/>
-    </row>
-    <row r="86" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="78" t="s">
-        <v>278</v>
-      </c>
-      <c r="C86" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="D86" s="79" t="s">
-        <v>280</v>
-      </c>
-      <c r="E86" s="79"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="79"/>
-      <c r="H86" s="79"/>
-      <c r="I86" s="80"/>
-      <c r="J86" s="27"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="57"/>
-      <c r="N86" s="57"/>
-      <c r="O86" s="57"/>
-      <c r="P86" s="57"/>
-      <c r="Q86" s="57"/>
-      <c r="R86" s="57"/>
-      <c r="S86" s="62"/>
-      <c r="T86" s="61"/>
-    </row>
-    <row r="87" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="78" t="s">
-        <v>281</v>
-      </c>
-      <c r="C87" s="79" t="s">
-        <v>282</v>
-      </c>
-      <c r="D87" s="79" t="s">
-        <v>283</v>
-      </c>
-      <c r="E87" s="79"/>
-      <c r="F87" s="79"/>
-      <c r="G87" s="79"/>
-      <c r="H87" s="79"/>
-      <c r="I87" s="80"/>
-      <c r="J87" s="27"/>
-      <c r="L87" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="M87" s="57"/>
-      <c r="N87" s="57"/>
-      <c r="O87" s="57"/>
-      <c r="P87" s="57"/>
-      <c r="Q87" s="57"/>
-      <c r="R87" s="57"/>
-      <c r="S87" s="62"/>
-      <c r="T87" s="61"/>
-    </row>
-    <row r="88" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="78" t="s">
-        <v>215</v>
-      </c>
-      <c r="C88" s="79" t="s">
-        <v>284</v>
-      </c>
-      <c r="D88" s="79" t="s">
-        <v>285</v>
-      </c>
-      <c r="E88" s="79"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="79"/>
-      <c r="H88" s="79"/>
-      <c r="I88" s="80"/>
-      <c r="J88" s="27"/>
-      <c r="L88" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="M88" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="N88" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="O88" s="57"/>
-      <c r="P88" s="57"/>
-      <c r="Q88" s="57"/>
-      <c r="R88" s="57"/>
-      <c r="S88" s="62"/>
-      <c r="T88" s="61"/>
-    </row>
-    <row r="89" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="C89" s="79" t="s">
-        <v>287</v>
-      </c>
-      <c r="D89" s="79" t="s">
-        <v>288</v>
-      </c>
-      <c r="E89" s="79"/>
-      <c r="F89" s="79"/>
-      <c r="G89" s="79"/>
-      <c r="H89" s="79"/>
-      <c r="I89" s="80"/>
-      <c r="J89" s="27"/>
-      <c r="L89" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="M89" s="82" t="s">
-        <v>282</v>
-      </c>
-      <c r="N89" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="O89" s="82"/>
-      <c r="P89" s="82"/>
-      <c r="Q89" s="82"/>
-      <c r="R89" s="82"/>
-      <c r="S89" s="84"/>
-      <c r="T89" s="61"/>
-    </row>
-    <row r="90" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="D90" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="27"/>
-      <c r="L90" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="M90" s="82" t="s">
-        <v>330</v>
-      </c>
-      <c r="N90" s="83" t="s">
-        <v>280</v>
-      </c>
-      <c r="O90" s="82"/>
-      <c r="P90" s="82"/>
-      <c r="Q90" s="82"/>
-      <c r="R90" s="82"/>
-      <c r="S90" s="84"/>
-      <c r="T90" s="61"/>
-    </row>
-    <row r="91" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="C91" s="79" t="s">
-        <v>292</v>
-      </c>
-      <c r="D91" s="79" t="s">
-        <v>292</v>
-      </c>
-      <c r="E91" s="79"/>
-      <c r="F91" s="79"/>
-      <c r="G91" s="79"/>
-      <c r="H91" s="79"/>
-      <c r="I91" s="80"/>
-      <c r="J91" s="27"/>
-      <c r="L91" s="81" t="s">
-        <v>215</v>
-      </c>
-      <c r="M91" s="82" t="s">
-        <v>331</v>
-      </c>
-      <c r="N91" s="83" t="s">
-        <v>280</v>
-      </c>
-      <c r="O91" s="82"/>
-      <c r="P91" s="82"/>
-      <c r="Q91" s="82"/>
-      <c r="R91" s="82"/>
-      <c r="S91" s="84"/>
-      <c r="T91" s="61"/>
-    </row>
-    <row r="92" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="D92" s="13" t="s">
+      <c r="M93" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="N93" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="27"/>
-      <c r="L92" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="M92" s="57" t="s">
-        <v>332</v>
-      </c>
-      <c r="N92" s="58" t="s">
-        <v>333</v>
-      </c>
-      <c r="O92" s="57"/>
-      <c r="P92" s="57"/>
-      <c r="Q92" s="57"/>
-      <c r="R92" s="57"/>
-      <c r="S92" s="62"/>
-      <c r="T92" s="61"/>
-    </row>
-    <row r="93" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L93" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="M93" s="64" t="s">
-        <v>334</v>
-      </c>
-      <c r="N93" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="O93" s="64"/>
-      <c r="P93" s="64"/>
-      <c r="Q93" s="64"/>
-      <c r="R93" s="64"/>
-      <c r="S93" s="66"/>
-      <c r="T93" s="61"/>
+      <c r="O93" s="63"/>
+      <c r="P93" s="63"/>
+      <c r="Q93" s="63"/>
+      <c r="R93" s="63"/>
+      <c r="S93" s="65"/>
+      <c r="T93" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
     <mergeCell ref="L27:L29"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L4:P5"/>
@@ -7266,6 +7445,9 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F397091F-588C-4878-9539-A0701D197DB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE787954-9D3C-40FE-838B-C2F77268F0FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
@@ -2319,20 +2319,71 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2450,57 +2501,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2831,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AA6548-4DFA-4405-951F-1160BBC52D4F}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A64" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,19 +2842,19 @@
     <col min="3" max="3" width="30" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="210" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="151" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="157" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
@@ -2906,7 +2906,7 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="210">
+      <c r="G3" s="151">
         <v>1</v>
       </c>
       <c r="I3" s="69"/>
@@ -2929,7 +2929,7 @@
       <c r="E4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="210">
+      <c r="G4" s="151">
         <v>1</v>
       </c>
       <c r="I4" s="69"/>
@@ -2955,7 +2955,7 @@
       <c r="F5" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="210">
+      <c r="G5" s="151">
         <v>0</v>
       </c>
       <c r="I5" s="69"/>
@@ -2972,7 +2972,7 @@
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="153" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -2987,7 +2987,7 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="210" t="s">
+      <c r="G7" s="151" t="s">
         <v>379</v>
       </c>
       <c r="I7" s="69"/>
@@ -2997,7 +2997,7 @@
       <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="152"/>
+      <c r="A8" s="153"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="210" t="s">
+      <c r="G8" s="151" t="s">
         <v>379</v>
       </c>
       <c r="I8" s="69"/>
@@ -3020,7 +3020,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="152"/>
+      <c r="A9" s="153"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3033,7 +3033,7 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="210" t="s">
+      <c r="G9" s="151" t="s">
         <v>379</v>
       </c>
       <c r="I9" s="69"/>
@@ -3043,7 +3043,7 @@
       <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="152"/>
+      <c r="A10" s="153"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="210" t="s">
+      <c r="G10" s="151" t="s">
         <v>379</v>
       </c>
       <c r="I10" s="69"/>
@@ -3066,7 +3066,7 @@
       <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="152"/>
+      <c r="A11" s="153"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="E11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="210" t="s">
+      <c r="G11" s="151" t="s">
         <v>379</v>
       </c>
       <c r="I11" s="69"/>
@@ -3089,7 +3089,7 @@
       <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="152"/>
+      <c r="A12" s="153"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="210" t="s">
+      <c r="G12" s="151" t="s">
         <v>379</v>
       </c>
       <c r="I12" s="69"/>
@@ -3134,7 +3134,7 @@
       <c r="E14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="210">
+      <c r="G14" s="151">
         <v>1</v>
       </c>
       <c r="I14" s="69"/>
@@ -3151,7 +3151,7 @@
       <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="153" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3163,7 +3163,7 @@
       <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="G16" s="211">
+      <c r="G16" s="152">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
@@ -3174,7 +3174,7 @@
       <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
+      <c r="A17" s="153"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="G17" s="211">
+      <c r="G17" s="152">
         <v>2</v>
       </c>
       <c r="I17" s="69"/>
@@ -3194,7 +3194,7 @@
       <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
+      <c r="A18" s="153"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="G18" s="211">
+      <c r="G18" s="152">
         <v>1</v>
       </c>
       <c r="I18" s="69"/>
@@ -3214,7 +3214,7 @@
       <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
+      <c r="A19" s="153"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="D19" s="5">
         <v>10</v>
       </c>
-      <c r="G19" s="211">
+      <c r="G19" s="152">
         <f>3</f>
         <v>3</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="152"/>
+      <c r="A20" s="153"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="D20" s="5">
         <v>10</v>
       </c>
-      <c r="G20" s="211">
+      <c r="G20" s="152">
         <f>1+2</f>
         <v>3</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
+      <c r="A21" s="153"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="G21" s="211">
+      <c r="G21" s="152">
         <v>1</v>
       </c>
       <c r="I21" s="69"/>
@@ -3276,7 +3276,7 @@
       <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="152"/>
+      <c r="A22" s="153"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3286,7 +3286,7 @@
       <c r="D22" s="5">
         <v>20</v>
       </c>
-      <c r="G22" s="211">
+      <c r="G22" s="152">
         <f>2+4</f>
         <v>6</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="152"/>
+      <c r="A23" s="153"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3307,7 +3307,7 @@
       <c r="D23" s="5">
         <v>20</v>
       </c>
-      <c r="G23" s="211">
+      <c r="G23" s="152">
         <f>2+3+2</f>
         <v>7</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="152"/>
+      <c r="A24" s="153"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="D24" s="5">
         <v>10</v>
       </c>
-      <c r="G24" s="211">
+      <c r="G24" s="152">
         <v>4</v>
       </c>
       <c r="I24" s="69"/>
@@ -3338,7 +3338,7 @@
       <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
+      <c r="A25" s="153"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="G25" s="211">
+      <c r="G25" s="152">
         <v>1</v>
       </c>
       <c r="I25" s="69"/>
@@ -3358,7 +3358,7 @@
       <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="152"/>
+      <c r="A26" s="153"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="G26" s="211">
+      <c r="G26" s="152">
         <v>1</v>
       </c>
       <c r="I26" s="69"/>
@@ -3378,7 +3378,7 @@
       <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="152"/>
+      <c r="A27" s="153"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="G27" s="211">
+      <c r="G27" s="152">
         <v>2</v>
       </c>
       <c r="I27" s="69"/>
@@ -3405,7 +3405,7 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="152" t="s">
+      <c r="A29" s="153" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3417,7 +3417,7 @@
       <c r="D29" s="5">
         <v>15</v>
       </c>
-      <c r="G29" s="211">
+      <c r="G29" s="152">
         <f>2+3</f>
         <v>5</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="152"/>
+      <c r="A30" s="153"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3438,7 +3438,7 @@
       <c r="D30" s="5">
         <v>5</v>
       </c>
-      <c r="G30" s="211">
+      <c r="G30" s="152">
         <v>1</v>
       </c>
       <c r="I30" s="69"/>
@@ -3448,7 +3448,7 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="152"/>
+      <c r="A31" s="153"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3458,7 +3458,7 @@
       <c r="D31" s="5">
         <v>5</v>
       </c>
-      <c r="G31" s="211">
+      <c r="G31" s="152">
         <v>1</v>
       </c>
       <c r="I31" s="69"/>
@@ -3468,7 +3468,7 @@
       <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="152"/>
+      <c r="A32" s="153"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3478,7 +3478,7 @@
       <c r="D32" s="5">
         <v>30</v>
       </c>
-      <c r="G32" s="211">
+      <c r="G32" s="152">
         <v>14</v>
       </c>
       <c r="I32" s="69"/>
@@ -3488,7 +3488,7 @@
       <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="152"/>
+      <c r="A33" s="153"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="D33" s="5">
         <v>20</v>
       </c>
-      <c r="G33" s="211">
+      <c r="G33" s="152">
         <v>9</v>
       </c>
       <c r="I33" s="69"/>
@@ -3508,7 +3508,7 @@
       <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="152"/>
+      <c r="A34" s="153"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3521,7 +3521,7 @@
       <c r="E34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="210" t="s">
+      <c r="G34" s="151" t="s">
         <v>379</v>
       </c>
       <c r="I34" s="69"/>
@@ -3531,7 +3531,7 @@
       <c r="M34" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="153" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3543,12 +3543,12 @@
       <c r="D36" s="5">
         <v>4</v>
       </c>
-      <c r="G36" s="210">
+      <c r="G36" s="151">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="152"/>
+      <c r="A37" s="153"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3558,12 +3558,12 @@
       <c r="D37" s="5">
         <v>4</v>
       </c>
-      <c r="G37" s="210" t="s">
+      <c r="G37" s="151" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="152" t="s">
+      <c r="A39" s="153" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3581,12 +3581,12 @@
       <c r="F39" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="210">
+      <c r="G39" s="151">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="152"/>
+      <c r="A40" s="153"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3599,12 +3599,12 @@
       <c r="E40" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="210">
+      <c r="G40" s="151">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="152"/>
+      <c r="A41" s="153"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3617,12 +3617,12 @@
       <c r="E41" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="210">
+      <c r="G41" s="151">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="152"/>
+      <c r="A42" s="153"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3638,7 +3638,7 @@
       <c r="F42" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="210">
+      <c r="G42" s="151">
         <v>1</v>
       </c>
     </row>
@@ -3652,12 +3652,12 @@
       <c r="D43" s="5">
         <v>1</v>
       </c>
-      <c r="G43" s="210" t="s">
+      <c r="G43" s="151" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="153" t="s">
+      <c r="A45" s="156" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3672,12 +3672,12 @@
       <c r="E45" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="210">
+      <c r="G45" s="151">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="153"/>
+      <c r="A46" s="156"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="E46" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="210">
+      <c r="G46" s="151">
         <v>1</v>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="153" t="s">
+      <c r="A48" s="156" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3716,7 +3716,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="153"/>
+      <c r="A49" s="156"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3728,7 +3728,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="152" t="s">
+      <c r="A51" s="153" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3743,12 +3743,12 @@
       <c r="F51" t="s">
         <v>94</v>
       </c>
-      <c r="G51" s="210" t="s">
+      <c r="G51" s="151" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="152"/>
+      <c r="A52" s="153"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3758,12 +3758,12 @@
       <c r="D52" s="5">
         <v>4</v>
       </c>
-      <c r="G52" s="210">
+      <c r="G52" s="151">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="152"/>
+      <c r="A53" s="153"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3773,12 +3773,12 @@
       <c r="D53" s="5">
         <v>4</v>
       </c>
-      <c r="G53" s="210">
+      <c r="G53" s="151">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="152"/>
+      <c r="A54" s="153"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3788,12 +3788,12 @@
       <c r="D54" s="5">
         <v>5</v>
       </c>
-      <c r="G54" s="210">
+      <c r="G54" s="151">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="152"/>
+      <c r="A55" s="153"/>
       <c r="B55" s="37" t="s">
         <v>88</v>
       </c>
@@ -3806,12 +3806,12 @@
       <c r="E55" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="G55" s="210" t="s">
+      <c r="G55" s="151" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="152"/>
+      <c r="A56" s="153"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3821,12 +3821,12 @@
       <c r="D56" s="5">
         <v>4</v>
       </c>
-      <c r="G56" s="210">
+      <c r="G56" s="151">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="152"/>
+      <c r="A57" s="153"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3836,12 +3836,12 @@
       <c r="D57" s="5">
         <v>4</v>
       </c>
-      <c r="G57" s="210" t="s">
+      <c r="G57" s="151" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="152"/>
+      <c r="A58" s="153"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3851,12 +3851,12 @@
       <c r="D58" s="5">
         <v>5</v>
       </c>
-      <c r="G58" s="210">
+      <c r="G58" s="151">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="152"/>
+      <c r="A59" s="153"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3866,12 +3866,12 @@
       <c r="D59" s="5">
         <v>4</v>
       </c>
-      <c r="G59" s="210">
+      <c r="G59" s="151">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="152"/>
+      <c r="A60" s="153"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3886,7 +3886,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="152"/>
+      <c r="A61" s="153"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3899,12 +3899,12 @@
       <c r="E61" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G61" s="210">
+      <c r="G61" s="151">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="152"/>
+      <c r="A62" s="153"/>
       <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
@@ -3917,12 +3917,12 @@
       <c r="E62" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="G62" s="210" t="s">
+      <c r="G62" s="151" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="152"/>
+      <c r="A63" s="153"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3935,12 +3935,12 @@
       <c r="E63" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G63" s="210" t="s">
+      <c r="G63" s="151" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="152"/>
+      <c r="A64" s="153"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -3953,12 +3953,12 @@
       <c r="E64" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G64" s="210">
+      <c r="G64" s="151">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="152"/>
+      <c r="A65" s="153"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -3971,12 +3971,12 @@
       <c r="E65" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G65" s="210">
+      <c r="G65" s="151">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="152"/>
+      <c r="A66" s="153"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -3991,7 +3991,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="152"/>
+      <c r="A67" s="153"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4006,7 +4006,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="152"/>
+      <c r="A68" s="153"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4021,7 +4021,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="152" t="s">
+      <c r="A70" s="153" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4036,12 +4036,12 @@
       <c r="E70" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G70" s="210">
+      <c r="G70" s="151">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="152"/>
+      <c r="A71" s="153"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4053,7 +4053,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="152"/>
+      <c r="A72" s="153"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4069,7 +4069,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="152" t="s">
+      <c r="A74" s="153" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4084,13 +4084,13 @@
       <c r="E74" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G74" s="211"/>
+      <c r="G74" s="152"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="152"/>
+      <c r="A75" s="153"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4105,7 +4105,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="152"/>
+      <c r="A76" s="153"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4120,7 +4120,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="152"/>
+      <c r="A77" s="153"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4135,7 +4135,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="152"/>
+      <c r="A78" s="153"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4150,7 +4150,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="152"/>
+      <c r="A79" s="153"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4165,7 +4165,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="152"/>
+      <c r="A80" s="153"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4180,7 +4180,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="152"/>
+      <c r="A81" s="153"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4196,6 +4196,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4203,11 +4208,6 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4219,7 +4219,7 @@
   <dimension ref="A1:AD93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4237,106 +4237,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="182" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="167"/>
-      <c r="H1" s="198" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="184"/>
+      <c r="H1" s="161" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="199"/>
-      <c r="J1" s="200"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="163"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="168"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="170"/>
+      <c r="A2" s="185"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="187"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="182" t="s">
+      <c r="I2" s="199" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="183"/>
+      <c r="J2" s="200"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="171"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="173"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="190"/>
       <c r="H3" s="144"/>
-      <c r="I3" s="182" t="s">
+      <c r="I3" s="199" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="183"/>
+      <c r="J3" s="200"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="193" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="177"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="194"/>
       <c r="F4" s="44"/>
       <c r="G4" s="32"/>
       <c r="H4" s="145"/>
-      <c r="I4" s="184" t="s">
+      <c r="I4" s="201" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="185"/>
+      <c r="J4" s="202"/>
       <c r="K4" s="143"/>
-      <c r="L4" s="201" t="s">
+      <c r="L4" s="164" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="203"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="166"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="93"/>
       <c r="U4" s="93"/>
-      <c r="V4" s="156" t="s">
+      <c r="V4" s="173" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="157"/>
-      <c r="Z4" s="158"/>
+      <c r="W4" s="174"/>
+      <c r="X4" s="174"/>
+      <c r="Y4" s="174"/>
+      <c r="Z4" s="175"/>
       <c r="AA4" s="93"/>
       <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="179"/>
+      <c r="A5" s="195"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="196"/>
       <c r="F5" s="44"/>
       <c r="G5" s="32"/>
-      <c r="L5" s="204"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
-      <c r="O5" s="205"/>
-      <c r="P5" s="206"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="169"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="93"/>
       <c r="U5" s="93"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="160"/>
-      <c r="X5" s="160"/>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="161"/>
+      <c r="V5" s="176"/>
+      <c r="W5" s="177"/>
+      <c r="X5" s="177"/>
+      <c r="Y5" s="177"/>
+      <c r="Z5" s="178"/>
       <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4392,7 +4392,7 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="191" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="150" t="s">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="32"/>
-      <c r="L7" s="207" t="s">
+      <c r="L7" s="170" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
@@ -4444,7 +4444,7 @@
       <c r="AA7" s="93"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="174"/>
+      <c r="A8" s="191"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="32"/>
-      <c r="L8" s="208"/>
+      <c r="L8" s="171"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4492,7 +4492,7 @@
       <c r="AA8" s="93"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="174"/>
+      <c r="A9" s="191"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="32"/>
-      <c r="L9" s="208"/>
+      <c r="L9" s="171"/>
       <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
@@ -4540,7 +4540,7 @@
       <c r="AA9" s="93"/>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="174"/>
+      <c r="A10" s="191"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="32"/>
-      <c r="L10" s="208"/>
+      <c r="L10" s="171"/>
       <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="174"/>
+      <c r="A11" s="191"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>175</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="L11" s="208"/>
+      <c r="L11" s="171"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="174"/>
+      <c r="A12" s="191"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>177</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="L12" s="208"/>
+      <c r="L12" s="171"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="174"/>
+      <c r="A13" s="191"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>179</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="L13" s="208"/>
+      <c r="L13" s="171"/>
       <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
@@ -4699,7 +4699,7 @@
       <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="180"/>
+      <c r="A14" s="197"/>
       <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>182</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="L14" s="209"/>
+      <c r="L14" s="172"/>
       <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
@@ -4737,7 +4737,7 @@
       <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="198" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -4753,7 +4753,7 @@
         <v>187</v>
       </c>
       <c r="F15" s="14"/>
-      <c r="L15" s="192" t="s">
+      <c r="L15" s="209" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="112" t="s">
@@ -4769,19 +4769,19 @@
         <v>352</v>
       </c>
       <c r="Q15" s="44"/>
-      <c r="V15" s="186" t="s">
+      <c r="V15" s="203" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="187"/>
-      <c r="X15" s="187"/>
-      <c r="Y15" s="187"/>
-      <c r="Z15" s="187"/>
-      <c r="AA15" s="187"/>
-      <c r="AB15" s="187"/>
-      <c r="AC15" s="188"/>
+      <c r="W15" s="204"/>
+      <c r="X15" s="204"/>
+      <c r="Y15" s="204"/>
+      <c r="Z15" s="204"/>
+      <c r="AA15" s="204"/>
+      <c r="AB15" s="204"/>
+      <c r="AC15" s="205"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="174"/>
+      <c r="A16" s="191"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>184</v>
       </c>
       <c r="F16" s="14"/>
-      <c r="L16" s="193"/>
+      <c r="L16" s="210"/>
       <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
@@ -4822,7 +4822,7 @@
       <c r="AC16" s="146"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="180"/>
+      <c r="A17" s="197"/>
       <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>188</v>
       </c>
       <c r="F17" s="14"/>
-      <c r="L17" s="193"/>
+      <c r="L17" s="210"/>
       <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="181" t="s">
+      <c r="A18" s="198" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -4882,7 +4882,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="193"/>
+      <c r="L18" s="210"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -4912,7 +4912,7 @@
       <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="174"/>
+      <c r="A19" s="191"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="131"/>
-      <c r="L19" s="194"/>
+      <c r="L19" s="211"/>
       <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
@@ -4956,7 +4956,7 @@
       <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="174"/>
+      <c r="A20" s="191"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>194</v>
       </c>
       <c r="F20" s="131"/>
-      <c r="L20" s="192" t="s">
+      <c r="L20" s="209" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="109" t="s">
@@ -4996,7 +4996,7 @@
       <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="174"/>
+      <c r="A21" s="191"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="131"/>
-      <c r="L21" s="193"/>
+      <c r="L21" s="210"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="180"/>
+      <c r="A22" s="197"/>
       <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="131"/>
-      <c r="L22" s="193"/>
+      <c r="L22" s="210"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5080,7 +5080,7 @@
       <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="198" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="32" t="s">
@@ -5096,7 +5096,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="131"/>
-      <c r="L23" s="193"/>
+      <c r="L23" s="210"/>
       <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
@@ -5126,7 +5126,7 @@
       <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="174"/>
+      <c r="A24" s="191"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="131"/>
-      <c r="L24" s="193"/>
+      <c r="L24" s="210"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5170,7 +5170,7 @@
       <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="174"/>
+      <c r="A25" s="191"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>206</v>
       </c>
       <c r="F25" s="131"/>
-      <c r="L25" s="193"/>
+      <c r="L25" s="210"/>
       <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
@@ -5208,7 +5208,7 @@
       <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="174"/>
+      <c r="A26" s="191"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="131"/>
-      <c r="L26" s="194"/>
+      <c r="L26" s="211"/>
       <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="174"/>
+      <c r="A27" s="191"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="131"/>
-      <c r="L27" s="195" t="s">
+      <c r="L27" s="158" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="84" t="s">
@@ -5294,7 +5294,7 @@
       <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="174"/>
+      <c r="A28" s="191"/>
       <c r="B28" s="78" t="s">
         <v>376</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="131"/>
-      <c r="L28" s="196"/>
+      <c r="L28" s="159"/>
       <c r="M28" s="26"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -5330,7 +5330,7 @@
       <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="180"/>
+      <c r="A29" s="197"/>
       <c r="B29" s="136" t="s">
         <v>377</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="131"/>
-      <c r="L29" s="197"/>
+      <c r="L29" s="160"/>
       <c r="M29" s="113" t="s">
         <v>364</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="AC29" s="106"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="174" t="s">
+      <c r="A30" s="191" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="78" t="s">
@@ -5403,7 +5403,7 @@
       <c r="AC30" s="106"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="174"/>
+      <c r="A31" s="191"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5440,7 +5440,7 @@
       <c r="AC31" s="106"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="175"/>
+      <c r="A32" s="192"/>
       <c r="B32" s="42" t="s">
         <v>364</v>
       </c>
@@ -5504,27 +5504,27 @@
       <c r="AD33" s="93"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="162" t="s">
+      <c r="B34" s="179" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="163"/>
-      <c r="G34" s="163"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="164"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="181"/>
       <c r="J34" s="142"/>
-      <c r="L34" s="189" t="s">
+      <c r="L34" s="206" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="190"/>
-      <c r="N34" s="190"/>
-      <c r="O34" s="190"/>
-      <c r="P34" s="190"/>
-      <c r="Q34" s="190"/>
-      <c r="R34" s="190"/>
-      <c r="S34" s="191"/>
+      <c r="M34" s="207"/>
+      <c r="N34" s="207"/>
+      <c r="O34" s="207"/>
+      <c r="P34" s="207"/>
+      <c r="Q34" s="207"/>
+      <c r="R34" s="207"/>
+      <c r="S34" s="208"/>
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -7428,11 +7428,9 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7444,10 +7442,12 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
     <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE787954-9D3C-40FE-838B-C2F77268F0FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB4AACC-9B07-4933-A329-8F7AAFF601DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="384">
   <si>
     <t>Item#</t>
   </si>
@@ -1242,6 +1242,12 @@
   </si>
   <si>
     <t>? - ordered new ones</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -2325,20 +2331,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2403,78 +2499,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2483,24 +2507,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2831,7 +2837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AA6548-4DFA-4405-951F-1160BBC52D4F}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2849,12 +2855,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="153" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
@@ -2888,7 +2894,7 @@
       <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="156" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2916,7 +2922,7 @@
       <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="155"/>
+      <c r="A4" s="157"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2939,7 +2945,7 @@
       <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="155"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -2972,7 +2978,7 @@
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="154" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -2997,7 +3003,7 @@
       <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
+      <c r="A8" s="154"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3020,7 +3026,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
+      <c r="A9" s="154"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3043,7 +3049,7 @@
       <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="153"/>
+      <c r="A10" s="154"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3066,7 +3072,7 @@
       <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
+      <c r="A11" s="154"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3089,7 +3095,7 @@
       <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="153"/>
+      <c r="A12" s="154"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3151,7 +3157,7 @@
       <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3174,7 +3180,7 @@
       <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="153"/>
+      <c r="A17" s="154"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3194,7 +3200,7 @@
       <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="153"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3214,7 +3220,7 @@
       <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="153"/>
+      <c r="A19" s="154"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3235,7 +3241,7 @@
       <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="153"/>
+      <c r="A20" s="154"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3256,7 +3262,7 @@
       <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="153"/>
+      <c r="A21" s="154"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3276,7 +3282,7 @@
       <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="153"/>
+      <c r="A22" s="154"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3297,7 +3303,7 @@
       <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="153"/>
+      <c r="A23" s="154"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3318,7 +3324,7 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="153"/>
+      <c r="A24" s="154"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3338,7 +3344,7 @@
       <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="153"/>
+      <c r="A25" s="154"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3358,7 +3364,7 @@
       <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="153"/>
+      <c r="A26" s="154"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3378,7 +3384,7 @@
       <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="153"/>
+      <c r="A27" s="154"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3405,7 +3411,7 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="153" t="s">
+      <c r="A29" s="154" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3428,7 +3434,7 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="153"/>
+      <c r="A30" s="154"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3448,7 +3454,7 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="153"/>
+      <c r="A31" s="154"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3468,7 +3474,7 @@
       <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="153"/>
+      <c r="A32" s="154"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3488,7 +3494,7 @@
       <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="153"/>
+      <c r="A33" s="154"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3508,7 +3514,7 @@
       <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="153"/>
+      <c r="A34" s="154"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3531,7 +3537,7 @@
       <c r="M34" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="153" t="s">
+      <c r="A36" s="154" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3548,7 +3554,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="153"/>
+      <c r="A37" s="154"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3563,7 +3569,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="153" t="s">
+      <c r="A39" s="154" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3586,7 +3592,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="153"/>
+      <c r="A40" s="154"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3604,7 +3610,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="153"/>
+      <c r="A41" s="154"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3622,7 +3628,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="153"/>
+      <c r="A42" s="154"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3657,7 +3663,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="156" t="s">
+      <c r="A45" s="155" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3677,7 +3683,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="156"/>
+      <c r="A46" s="155"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3699,7 +3705,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="156" t="s">
+      <c r="A48" s="155" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3716,7 +3722,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="156"/>
+      <c r="A49" s="155"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3728,7 +3734,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="153" t="s">
+      <c r="A51" s="154" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3748,7 +3754,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="153"/>
+      <c r="A52" s="154"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3763,7 +3769,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="153"/>
+      <c r="A53" s="154"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3778,7 +3784,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="153"/>
+      <c r="A54" s="154"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3793,7 +3799,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="153"/>
+      <c r="A55" s="154"/>
       <c r="B55" s="37" t="s">
         <v>88</v>
       </c>
@@ -3811,7 +3817,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="153"/>
+      <c r="A56" s="154"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3826,7 +3832,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="153"/>
+      <c r="A57" s="154"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3841,7 +3847,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="153"/>
+      <c r="A58" s="154"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3856,7 +3862,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="153"/>
+      <c r="A59" s="154"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3871,7 +3877,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="153"/>
+      <c r="A60" s="154"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3886,7 +3892,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="153"/>
+      <c r="A61" s="154"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3904,7 +3910,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="153"/>
+      <c r="A62" s="154"/>
       <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
@@ -3922,7 +3928,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="153"/>
+      <c r="A63" s="154"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3940,7 +3946,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="153"/>
+      <c r="A64" s="154"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -3958,7 +3964,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="153"/>
+      <c r="A65" s="154"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -3976,7 +3982,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="153"/>
+      <c r="A66" s="154"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -3991,7 +3997,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="153"/>
+      <c r="A67" s="154"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4006,7 +4012,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="153"/>
+      <c r="A68" s="154"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4021,7 +4027,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="153" t="s">
+      <c r="A70" s="154" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4041,7 +4047,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="153"/>
+      <c r="A71" s="154"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4053,7 +4059,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="153"/>
+      <c r="A72" s="154"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4069,7 +4075,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="153" t="s">
+      <c r="A74" s="154" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4090,7 +4096,7 @@
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="153"/>
+      <c r="A75" s="154"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4105,7 +4111,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="153"/>
+      <c r="A76" s="154"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4120,7 +4126,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="153"/>
+      <c r="A77" s="154"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4135,7 +4141,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="153"/>
+      <c r="A78" s="154"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4150,7 +4156,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="153"/>
+      <c r="A79" s="154"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4165,7 +4171,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="153"/>
+      <c r="A80" s="154"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4180,7 +4186,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="153"/>
+      <c r="A81" s="154"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4196,11 +4202,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4208,6 +4209,11 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4219,7 +4225,7 @@
   <dimension ref="A1:AD93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4237,106 +4243,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="167" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="184"/>
-      <c r="H1" s="161" t="s">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="169"/>
+      <c r="H1" s="191" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="162"/>
-      <c r="J1" s="163"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="193"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185"/>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="187"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="172"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="199" t="s">
+      <c r="I2" s="184" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="200"/>
+      <c r="J2" s="185"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="188"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
+      <c r="A3" s="173"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="175"/>
       <c r="H3" s="144"/>
-      <c r="I3" s="199" t="s">
+      <c r="I3" s="184" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="200"/>
+      <c r="J3" s="185"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="178" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="194"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="179"/>
       <c r="F4" s="44"/>
       <c r="G4" s="32"/>
       <c r="H4" s="145"/>
-      <c r="I4" s="201" t="s">
+      <c r="I4" s="186" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="202"/>
+      <c r="J4" s="187"/>
       <c r="K4" s="143"/>
-      <c r="L4" s="164" t="s">
+      <c r="L4" s="194" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="165"/>
-      <c r="P4" s="166"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="196"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="93"/>
       <c r="U4" s="93"/>
-      <c r="V4" s="173" t="s">
+      <c r="V4" s="203" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="174"/>
-      <c r="X4" s="174"/>
-      <c r="Y4" s="174"/>
-      <c r="Z4" s="175"/>
+      <c r="W4" s="204"/>
+      <c r="X4" s="204"/>
+      <c r="Y4" s="204"/>
+      <c r="Z4" s="205"/>
       <c r="AA4" s="93"/>
       <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="195"/>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="196"/>
+      <c r="A5" s="180"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="181"/>
       <c r="F5" s="44"/>
       <c r="G5" s="32"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="169"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="198"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="199"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="93"/>
       <c r="U5" s="93"/>
-      <c r="V5" s="176"/>
-      <c r="W5" s="177"/>
-      <c r="X5" s="177"/>
-      <c r="Y5" s="177"/>
-      <c r="Z5" s="178"/>
+      <c r="V5" s="206"/>
+      <c r="W5" s="207"/>
+      <c r="X5" s="207"/>
+      <c r="Y5" s="207"/>
+      <c r="Z5" s="208"/>
       <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4392,7 +4398,7 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="191" t="s">
+      <c r="A7" s="176" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="150" t="s">
@@ -4409,7 +4415,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="32"/>
-      <c r="L7" s="170" t="s">
+      <c r="L7" s="200" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
@@ -4424,7 +4430,9 @@
       <c r="P7" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="Q7" s="44"/>
+      <c r="Q7" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="U7" s="93"/>
       <c r="V7" s="97" t="s">
         <v>19</v>
@@ -4444,7 +4452,7 @@
       <c r="AA7" s="93"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="191"/>
+      <c r="A8" s="176"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4459,7 +4467,7 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="32"/>
-      <c r="L8" s="171"/>
+      <c r="L8" s="201"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4472,7 +4480,9 @@
       <c r="P8" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="Q8" s="44"/>
+      <c r="Q8" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="U8" s="93"/>
       <c r="V8" s="98" t="s">
         <v>36</v>
@@ -4492,7 +4502,7 @@
       <c r="AA8" s="93"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="191"/>
+      <c r="A9" s="176"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4507,7 +4517,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="32"/>
-      <c r="L9" s="171"/>
+      <c r="L9" s="201"/>
       <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
@@ -4520,7 +4530,9 @@
       <c r="P9" s="111" t="s">
         <v>344</v>
       </c>
-      <c r="Q9" s="44"/>
+      <c r="Q9" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="U9" s="93"/>
       <c r="V9" s="127" t="s">
         <v>200</v>
@@ -4540,7 +4552,7 @@
       <c r="AA9" s="93"/>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="191"/>
+      <c r="A10" s="176"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4553,9 +4565,11 @@
       <c r="E10" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>382</v>
+      </c>
       <c r="G10" s="32"/>
-      <c r="L10" s="171"/>
+      <c r="L10" s="201"/>
       <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
@@ -4568,7 +4582,9 @@
       <c r="P10" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="Q10" s="44"/>
+      <c r="Q10" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="U10" s="93"/>
       <c r="V10" s="126" t="s">
         <v>213</v>
@@ -4588,7 +4604,7 @@
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="191"/>
+      <c r="A11" s="176"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4601,8 +4617,10 @@
       <c r="E11" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="L11" s="171"/>
+      <c r="F11" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="L11" s="201"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4615,7 +4633,9 @@
       <c r="P11" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="Q11" s="44"/>
+      <c r="Q11" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="U11" s="26"/>
       <c r="V11" s="34"/>
       <c r="W11" s="26"/>
@@ -4625,7 +4645,7 @@
       <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="191"/>
+      <c r="A12" s="176"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4638,8 +4658,10 @@
       <c r="E12" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="L12" s="171"/>
+      <c r="F12" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="L12" s="201"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4652,7 +4674,9 @@
       <c r="P12" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="Q12" s="44"/>
+      <c r="Q12" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="U12" s="93"/>
       <c r="V12" s="34"/>
       <c r="W12" s="26"/>
@@ -4662,7 +4686,7 @@
       <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="191"/>
+      <c r="A13" s="176"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4675,8 +4699,10 @@
       <c r="E13" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="L13" s="171"/>
+      <c r="F13" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="L13" s="201"/>
       <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
@@ -4689,7 +4715,9 @@
       <c r="P13" s="111" t="s">
         <v>349</v>
       </c>
-      <c r="Q13" s="44"/>
+      <c r="Q13" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="V13" s="100"/>
       <c r="W13" s="39"/>
       <c r="X13" s="50"/>
@@ -4699,7 +4727,7 @@
       <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="197"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
@@ -4712,8 +4740,10 @@
       <c r="E14" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="L14" s="172"/>
+      <c r="F14" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="L14" s="202"/>
       <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
@@ -4726,7 +4756,9 @@
       <c r="P14" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="Q14" s="44"/>
+      <c r="Q14" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="V14" s="93"/>
       <c r="W14" s="93"/>
       <c r="X14" s="93"/>
@@ -4737,7 +4769,7 @@
       <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="198" t="s">
+      <c r="A15" s="183" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -4753,7 +4785,7 @@
         <v>187</v>
       </c>
       <c r="F15" s="14"/>
-      <c r="L15" s="209" t="s">
+      <c r="L15" s="161" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="112" t="s">
@@ -4768,20 +4800,22 @@
       <c r="P15" s="111" t="s">
         <v>352</v>
       </c>
-      <c r="Q15" s="44"/>
-      <c r="V15" s="203" t="s">
+      <c r="Q15" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="V15" s="209" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="204"/>
-      <c r="X15" s="204"/>
-      <c r="Y15" s="204"/>
-      <c r="Z15" s="204"/>
-      <c r="AA15" s="204"/>
-      <c r="AB15" s="204"/>
-      <c r="AC15" s="205"/>
+      <c r="W15" s="210"/>
+      <c r="X15" s="210"/>
+      <c r="Y15" s="210"/>
+      <c r="Z15" s="210"/>
+      <c r="AA15" s="210"/>
+      <c r="AB15" s="210"/>
+      <c r="AC15" s="211"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="191"/>
+      <c r="A16" s="176"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4795,7 +4829,7 @@
         <v>184</v>
       </c>
       <c r="F16" s="14"/>
-      <c r="L16" s="210"/>
+      <c r="L16" s="162"/>
       <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
@@ -4822,7 +4856,7 @@
       <c r="AC16" s="146"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="197"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
@@ -4836,7 +4870,7 @@
         <v>188</v>
       </c>
       <c r="F17" s="14"/>
-      <c r="L17" s="210"/>
+      <c r="L17" s="162"/>
       <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
@@ -4866,7 +4900,7 @@
       <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="198" t="s">
+      <c r="A18" s="183" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -4882,7 +4916,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="210"/>
+      <c r="L18" s="162"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -4912,7 +4946,7 @@
       <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="191"/>
+      <c r="A19" s="176"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
@@ -4926,7 +4960,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="131"/>
-      <c r="L19" s="211"/>
+      <c r="L19" s="163"/>
       <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
@@ -4956,7 +4990,7 @@
       <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="191"/>
+      <c r="A20" s="176"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
@@ -4970,7 +5004,7 @@
         <v>194</v>
       </c>
       <c r="F20" s="131"/>
-      <c r="L20" s="209" t="s">
+      <c r="L20" s="161" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="109" t="s">
@@ -4996,7 +5030,7 @@
       <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="191"/>
+      <c r="A21" s="176"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
@@ -5010,7 +5044,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="131"/>
-      <c r="L21" s="210"/>
+      <c r="L21" s="162"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5036,7 +5070,7 @@
       <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="197"/>
+      <c r="A22" s="182"/>
       <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
@@ -5050,7 +5084,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="131"/>
-      <c r="L22" s="210"/>
+      <c r="L22" s="162"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5080,7 +5114,7 @@
       <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="198" t="s">
+      <c r="A23" s="183" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="32" t="s">
@@ -5096,7 +5130,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="131"/>
-      <c r="L23" s="210"/>
+      <c r="L23" s="162"/>
       <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
@@ -5126,7 +5160,7 @@
       <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="191"/>
+      <c r="A24" s="176"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5140,7 +5174,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="131"/>
-      <c r="L24" s="210"/>
+      <c r="L24" s="162"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5170,7 +5204,7 @@
       <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="191"/>
+      <c r="A25" s="176"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
@@ -5184,7 +5218,7 @@
         <v>206</v>
       </c>
       <c r="F25" s="131"/>
-      <c r="L25" s="210"/>
+      <c r="L25" s="162"/>
       <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
@@ -5208,7 +5242,7 @@
       <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="191"/>
+      <c r="A26" s="176"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5222,7 +5256,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="131"/>
-      <c r="L26" s="211"/>
+      <c r="L26" s="163"/>
       <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
@@ -5248,7 +5282,7 @@
       <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="191"/>
+      <c r="A27" s="176"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5262,7 +5296,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="131"/>
-      <c r="L27" s="158" t="s">
+      <c r="L27" s="188" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="84" t="s">
@@ -5294,7 +5328,7 @@
       <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="191"/>
+      <c r="A28" s="176"/>
       <c r="B28" s="78" t="s">
         <v>376</v>
       </c>
@@ -5308,7 +5342,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="131"/>
-      <c r="L28" s="159"/>
+      <c r="L28" s="189"/>
       <c r="M28" s="26"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -5330,7 +5364,7 @@
       <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="197"/>
+      <c r="A29" s="182"/>
       <c r="B29" s="136" t="s">
         <v>377</v>
       </c>
@@ -5344,7 +5378,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="131"/>
-      <c r="L29" s="160"/>
+      <c r="L29" s="190"/>
       <c r="M29" s="113" t="s">
         <v>364</v>
       </c>
@@ -5368,7 +5402,7 @@
       <c r="AC29" s="106"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="191" t="s">
+      <c r="A30" s="176" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="78" t="s">
@@ -5403,7 +5437,7 @@
       <c r="AC30" s="106"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="191"/>
+      <c r="A31" s="176"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5440,7 +5474,7 @@
       <c r="AC31" s="106"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="192"/>
+      <c r="A32" s="177"/>
       <c r="B32" s="42" t="s">
         <v>364</v>
       </c>
@@ -5504,27 +5538,27 @@
       <c r="AD33" s="93"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="179" t="s">
+      <c r="B34" s="164" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="180"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="181"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="166"/>
       <c r="J34" s="142"/>
-      <c r="L34" s="206" t="s">
+      <c r="L34" s="158" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="207"/>
-      <c r="N34" s="207"/>
-      <c r="O34" s="207"/>
-      <c r="P34" s="207"/>
-      <c r="Q34" s="207"/>
-      <c r="R34" s="207"/>
-      <c r="S34" s="208"/>
+      <c r="M34" s="159"/>
+      <c r="N34" s="159"/>
+      <c r="O34" s="159"/>
+      <c r="P34" s="159"/>
+      <c r="Q34" s="159"/>
+      <c r="R34" s="159"/>
+      <c r="S34" s="160"/>
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -7428,6 +7462,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
     <mergeCell ref="L34:S34"/>
     <mergeCell ref="L15:L19"/>
     <mergeCell ref="L20:L26"/>
@@ -7444,10 +7482,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="L27:L29"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB4AACC-9B07-4933-A329-8F7AAFF601DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AD09AC-EFB1-4990-BF61-372A4376D05F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="383">
   <si>
     <t>Item#</t>
   </si>
@@ -1245,9 +1245,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -2347,6 +2344,141 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2364,78 +2496,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2444,69 +2504,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4224,8 +4221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4243,106 +4240,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="161" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="169"/>
-      <c r="H1" s="191" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="163"/>
+      <c r="H1" s="182" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="192"/>
-      <c r="J1" s="193"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="184"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="172"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="166"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="184" t="s">
+      <c r="I2" s="178" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="185"/>
+      <c r="J2" s="179"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="173"/>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="169"/>
       <c r="H3" s="144"/>
-      <c r="I3" s="184" t="s">
+      <c r="I3" s="178" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="185"/>
+      <c r="J3" s="179"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="172" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="179"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="44"/>
       <c r="G4" s="32"/>
       <c r="H4" s="145"/>
-      <c r="I4" s="186" t="s">
+      <c r="I4" s="180" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="187"/>
+      <c r="J4" s="181"/>
       <c r="K4" s="143"/>
-      <c r="L4" s="194" t="s">
+      <c r="L4" s="185" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="196"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="186"/>
+      <c r="P4" s="187"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="93"/>
       <c r="U4" s="93"/>
-      <c r="V4" s="203" t="s">
+      <c r="V4" s="194" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="204"/>
-      <c r="X4" s="204"/>
-      <c r="Y4" s="204"/>
-      <c r="Z4" s="205"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="196"/>
       <c r="AA4" s="93"/>
       <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="180"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="181"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="175"/>
       <c r="F5" s="44"/>
       <c r="G5" s="32"/>
-      <c r="L5" s="197"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="199"/>
+      <c r="L5" s="188"/>
+      <c r="M5" s="189"/>
+      <c r="N5" s="189"/>
+      <c r="O5" s="189"/>
+      <c r="P5" s="190"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="93"/>
       <c r="U5" s="93"/>
-      <c r="V5" s="206"/>
-      <c r="W5" s="207"/>
-      <c r="X5" s="207"/>
-      <c r="Y5" s="207"/>
-      <c r="Z5" s="208"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="198"/>
+      <c r="X5" s="198"/>
+      <c r="Y5" s="198"/>
+      <c r="Z5" s="199"/>
       <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4398,7 +4395,7 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="170" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="150" t="s">
@@ -4415,7 +4412,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="32"/>
-      <c r="L7" s="200" t="s">
+      <c r="L7" s="191" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
@@ -4449,10 +4446,12 @@
       <c r="Z7" s="121" t="s">
         <v>343</v>
       </c>
-      <c r="AA7" s="93"/>
+      <c r="AA7" s="93" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="176"/>
+      <c r="A8" s="170"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4467,7 +4466,7 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="32"/>
-      <c r="L8" s="201"/>
+      <c r="L8" s="192"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4499,10 +4498,12 @@
       <c r="Z8" s="118" t="s">
         <v>366</v>
       </c>
-      <c r="AA8" s="93"/>
+      <c r="AA8" s="93" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="176"/>
+      <c r="A9" s="170"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4515,9 +4516,11 @@
       <c r="E9" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>382</v>
+      </c>
       <c r="G9" s="32"/>
-      <c r="L9" s="201"/>
+      <c r="L9" s="192"/>
       <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
@@ -4549,10 +4552,12 @@
       <c r="Z9" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="AA9" s="93"/>
+      <c r="AA9" s="93" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="176"/>
+      <c r="A10" s="170"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4569,7 +4574,7 @@
         <v>382</v>
       </c>
       <c r="G10" s="32"/>
-      <c r="L10" s="201"/>
+      <c r="L10" s="192"/>
       <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
@@ -4604,7 +4609,7 @@
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="176"/>
+      <c r="A11" s="170"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4620,7 +4625,7 @@
       <c r="F11" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L11" s="201"/>
+      <c r="L11" s="192"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4645,7 +4650,7 @@
       <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="176"/>
+      <c r="A12" s="170"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4661,7 +4666,7 @@
       <c r="F12" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L12" s="201"/>
+      <c r="L12" s="192"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4686,7 +4691,7 @@
       <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="176"/>
+      <c r="A13" s="170"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4702,7 +4707,7 @@
       <c r="F13" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L13" s="201"/>
+      <c r="L13" s="192"/>
       <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
@@ -4727,7 +4732,7 @@
       <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
+      <c r="A14" s="176"/>
       <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
@@ -4743,7 +4748,7 @@
       <c r="F14" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L14" s="202"/>
+      <c r="L14" s="193"/>
       <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
@@ -4769,7 +4774,7 @@
       <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="183" t="s">
+      <c r="A15" s="177" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -4784,8 +4789,10 @@
       <c r="E15" s="137" t="s">
         <v>187</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="L15" s="161" t="s">
+      <c r="F15" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="L15" s="206" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="112" t="s">
@@ -4801,21 +4808,21 @@
         <v>352</v>
       </c>
       <c r="Q15" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="V15" s="209" t="s">
+        <v>382</v>
+      </c>
+      <c r="V15" s="200" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="210"/>
-      <c r="X15" s="210"/>
-      <c r="Y15" s="210"/>
-      <c r="Z15" s="210"/>
-      <c r="AA15" s="210"/>
-      <c r="AB15" s="210"/>
-      <c r="AC15" s="211"/>
+      <c r="W15" s="201"/>
+      <c r="X15" s="201"/>
+      <c r="Y15" s="201"/>
+      <c r="Z15" s="201"/>
+      <c r="AA15" s="201"/>
+      <c r="AB15" s="201"/>
+      <c r="AC15" s="202"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="176"/>
+      <c r="A16" s="170"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4828,8 +4835,10 @@
       <c r="E16" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="L16" s="162"/>
+      <c r="F16" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="L16" s="207"/>
       <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
@@ -4842,7 +4851,9 @@
       <c r="P16" s="111" t="s">
         <v>353</v>
       </c>
-      <c r="Q16" s="44"/>
+      <c r="Q16" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="S16" s="32"/>
       <c r="V16" s="101" t="s">
         <v>19</v>
@@ -4856,7 +4867,7 @@
       <c r="AC16" s="146"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="182"/>
+      <c r="A17" s="176"/>
       <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
@@ -4869,8 +4880,10 @@
       <c r="E17" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="L17" s="162"/>
+      <c r="F17" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="L17" s="207"/>
       <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
@@ -4883,7 +4896,9 @@
       <c r="P17" s="111" t="s">
         <v>354</v>
       </c>
-      <c r="Q17" s="44"/>
+      <c r="Q17" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="V17" s="105" t="s">
         <v>220</v>
       </c>
@@ -4900,7 +4915,7 @@
       <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="183" t="s">
+      <c r="A18" s="177" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -4916,7 +4931,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="162"/>
+      <c r="L18" s="207"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -4929,7 +4944,9 @@
       <c r="P18" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="Q18" s="44"/>
+      <c r="Q18" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="V18" s="105" t="s">
         <v>223</v>
       </c>
@@ -4946,7 +4963,7 @@
       <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="176"/>
+      <c r="A19" s="170"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
@@ -4960,7 +4977,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="131"/>
-      <c r="L19" s="163"/>
+      <c r="L19" s="208"/>
       <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
@@ -4973,7 +4990,9 @@
       <c r="P19" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="Q19" s="44"/>
+      <c r="Q19" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="V19" s="105" t="s">
         <v>230</v>
       </c>
@@ -4990,7 +5009,7 @@
       <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="176"/>
+      <c r="A20" s="170"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
@@ -5004,7 +5023,7 @@
         <v>194</v>
       </c>
       <c r="F20" s="131"/>
-      <c r="L20" s="161" t="s">
+      <c r="L20" s="206" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="109" t="s">
@@ -5030,7 +5049,7 @@
       <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="176"/>
+      <c r="A21" s="170"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
@@ -5044,7 +5063,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="131"/>
-      <c r="L21" s="162"/>
+      <c r="L21" s="207"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5070,7 +5089,7 @@
       <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="182"/>
+      <c r="A22" s="176"/>
       <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
@@ -5084,7 +5103,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="131"/>
-      <c r="L22" s="162"/>
+      <c r="L22" s="207"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5114,7 +5133,7 @@
       <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="183" t="s">
+      <c r="A23" s="177" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="32" t="s">
@@ -5130,7 +5149,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="131"/>
-      <c r="L23" s="162"/>
+      <c r="L23" s="207"/>
       <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
@@ -5160,7 +5179,7 @@
       <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="176"/>
+      <c r="A24" s="170"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5174,7 +5193,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="131"/>
-      <c r="L24" s="162"/>
+      <c r="L24" s="207"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5204,7 +5223,7 @@
       <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="176"/>
+      <c r="A25" s="170"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
@@ -5218,7 +5237,7 @@
         <v>206</v>
       </c>
       <c r="F25" s="131"/>
-      <c r="L25" s="162"/>
+      <c r="L25" s="207"/>
       <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
@@ -5242,7 +5261,7 @@
       <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="176"/>
+      <c r="A26" s="170"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5256,7 +5275,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="131"/>
-      <c r="L26" s="163"/>
+      <c r="L26" s="208"/>
       <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
@@ -5282,7 +5301,7 @@
       <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="176"/>
+      <c r="A27" s="170"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5296,7 +5315,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="131"/>
-      <c r="L27" s="188" t="s">
+      <c r="L27" s="209" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="84" t="s">
@@ -5328,7 +5347,7 @@
       <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="176"/>
+      <c r="A28" s="170"/>
       <c r="B28" s="78" t="s">
         <v>376</v>
       </c>
@@ -5342,7 +5361,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="131"/>
-      <c r="L28" s="189"/>
+      <c r="L28" s="210"/>
       <c r="M28" s="26"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -5364,7 +5383,7 @@
       <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="182"/>
+      <c r="A29" s="176"/>
       <c r="B29" s="136" t="s">
         <v>377</v>
       </c>
@@ -5378,7 +5397,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="131"/>
-      <c r="L29" s="190"/>
+      <c r="L29" s="211"/>
       <c r="M29" s="113" t="s">
         <v>364</v>
       </c>
@@ -5402,19 +5421,19 @@
       <c r="AC29" s="106"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="176" t="s">
+      <c r="A30" s="170" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="149">
-        <v>1</v>
-      </c>
-      <c r="D30" s="149">
+      <c r="C30" s="35">
+        <v>1</v>
+      </c>
+      <c r="D30" s="35">
         <v>4</v>
       </c>
-      <c r="E30" s="79" t="s">
+      <c r="E30" s="47" t="s">
         <v>215</v>
       </c>
       <c r="F30" s="131"/>
@@ -5437,7 +5456,7 @@
       <c r="AC30" s="106"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="176"/>
+      <c r="A31" s="170"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5474,7 +5493,7 @@
       <c r="AC31" s="106"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="177"/>
+      <c r="A32" s="171"/>
       <c r="B32" s="42" t="s">
         <v>364</v>
       </c>
@@ -5538,27 +5557,27 @@
       <c r="AD33" s="93"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="164" t="s">
+      <c r="B34" s="158" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="166"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="160"/>
       <c r="J34" s="142"/>
-      <c r="L34" s="158" t="s">
+      <c r="L34" s="203" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="159"/>
-      <c r="N34" s="159"/>
-      <c r="O34" s="159"/>
-      <c r="P34" s="159"/>
-      <c r="Q34" s="159"/>
-      <c r="R34" s="159"/>
-      <c r="S34" s="160"/>
+      <c r="M34" s="204"/>
+      <c r="N34" s="204"/>
+      <c r="O34" s="204"/>
+      <c r="P34" s="204"/>
+      <c r="Q34" s="204"/>
+      <c r="R34" s="204"/>
+      <c r="S34" s="205"/>
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -7469,6 +7488,7 @@
     <mergeCell ref="L34:S34"/>
     <mergeCell ref="L15:L19"/>
     <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7480,7 +7500,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L27:L29"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AD09AC-EFB1-4990-BF61-372A4376D05F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265C1FF9-6A58-4487-92DF-ABFF42B94B26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="383">
   <si>
     <t>Item#</t>
   </si>
@@ -1946,7 +1946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2321,26 +2321,106 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2423,87 +2503,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2834,7 +2833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AA6548-4DFA-4405-951F-1160BBC52D4F}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2845,19 +2844,19 @@
     <col min="3" max="3" width="30" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="151" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="150" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="156" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
@@ -2891,7 +2890,7 @@
       <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="153" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2909,7 +2908,7 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="151">
+      <c r="G3" s="150">
         <v>1</v>
       </c>
       <c r="I3" s="69"/>
@@ -2919,7 +2918,7 @@
       <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157"/>
+      <c r="A4" s="154"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2932,7 +2931,7 @@
       <c r="E4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="151">
+      <c r="G4" s="150">
         <v>1</v>
       </c>
       <c r="I4" s="69"/>
@@ -2942,7 +2941,7 @@
       <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
+      <c r="A5" s="154"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -2958,7 +2957,7 @@
       <c r="F5" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="151">
+      <c r="G5" s="150">
         <v>0</v>
       </c>
       <c r="I5" s="69"/>
@@ -2975,7 +2974,7 @@
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="152" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -2990,7 +2989,7 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="151" t="s">
+      <c r="G7" s="150" t="s">
         <v>379</v>
       </c>
       <c r="I7" s="69"/>
@@ -3000,7 +2999,7 @@
       <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="154"/>
+      <c r="A8" s="152"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3013,7 +3012,7 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="151" t="s">
+      <c r="G8" s="150" t="s">
         <v>379</v>
       </c>
       <c r="I8" s="69"/>
@@ -3023,7 +3022,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="154"/>
+      <c r="A9" s="152"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3036,7 +3035,7 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="150" t="s">
         <v>379</v>
       </c>
       <c r="I9" s="69"/>
@@ -3046,7 +3045,7 @@
       <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="154"/>
+      <c r="A10" s="152"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3059,7 +3058,7 @@
       <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="151" t="s">
+      <c r="G10" s="150" t="s">
         <v>379</v>
       </c>
       <c r="I10" s="69"/>
@@ -3069,7 +3068,7 @@
       <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="154"/>
+      <c r="A11" s="152"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3082,7 +3081,7 @@
       <c r="E11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="151" t="s">
+      <c r="G11" s="150" t="s">
         <v>379</v>
       </c>
       <c r="I11" s="69"/>
@@ -3092,7 +3091,7 @@
       <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="154"/>
+      <c r="A12" s="152"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3105,7 +3104,7 @@
       <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="151" t="s">
+      <c r="G12" s="150" t="s">
         <v>379</v>
       </c>
       <c r="I12" s="69"/>
@@ -3137,7 +3136,7 @@
       <c r="E14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="151">
+      <c r="G14" s="150">
         <v>1</v>
       </c>
       <c r="I14" s="69"/>
@@ -3154,7 +3153,7 @@
       <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="152" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3166,7 +3165,7 @@
       <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="G16" s="152">
+      <c r="G16" s="151">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
@@ -3177,7 +3176,7 @@
       <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="154"/>
+      <c r="A17" s="152"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3187,7 +3186,7 @@
       <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="G17" s="152">
+      <c r="G17" s="151">
         <v>2</v>
       </c>
       <c r="I17" s="69"/>
@@ -3197,7 +3196,7 @@
       <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="152"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3207,7 +3206,7 @@
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="G18" s="152">
+      <c r="G18" s="151">
         <v>1</v>
       </c>
       <c r="I18" s="69"/>
@@ -3217,7 +3216,7 @@
       <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
+      <c r="A19" s="152"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3227,7 +3226,7 @@
       <c r="D19" s="5">
         <v>10</v>
       </c>
-      <c r="G19" s="152">
+      <c r="G19" s="151">
         <f>3</f>
         <v>3</v>
       </c>
@@ -3238,7 +3237,7 @@
       <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="154"/>
+      <c r="A20" s="152"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3248,7 +3247,7 @@
       <c r="D20" s="5">
         <v>10</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="151">
         <f>1+2</f>
         <v>3</v>
       </c>
@@ -3259,7 +3258,7 @@
       <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="154"/>
+      <c r="A21" s="152"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3269,7 +3268,7 @@
       <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="G21" s="152">
+      <c r="G21" s="151">
         <v>1</v>
       </c>
       <c r="I21" s="69"/>
@@ -3279,7 +3278,7 @@
       <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
+      <c r="A22" s="152"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3289,7 +3288,7 @@
       <c r="D22" s="5">
         <v>20</v>
       </c>
-      <c r="G22" s="152">
+      <c r="G22" s="151">
         <f>2+4</f>
         <v>6</v>
       </c>
@@ -3300,7 +3299,7 @@
       <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="154"/>
+      <c r="A23" s="152"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3310,7 +3309,7 @@
       <c r="D23" s="5">
         <v>20</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="151">
         <f>2+3+2</f>
         <v>7</v>
       </c>
@@ -3321,7 +3320,7 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="154"/>
+      <c r="A24" s="152"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3331,7 +3330,7 @@
       <c r="D24" s="5">
         <v>10</v>
       </c>
-      <c r="G24" s="152">
+      <c r="G24" s="151">
         <v>4</v>
       </c>
       <c r="I24" s="69"/>
@@ -3341,7 +3340,7 @@
       <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="154"/>
+      <c r="A25" s="152"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3351,7 +3350,7 @@
       <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="G25" s="152">
+      <c r="G25" s="151">
         <v>1</v>
       </c>
       <c r="I25" s="69"/>
@@ -3361,7 +3360,7 @@
       <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="154"/>
+      <c r="A26" s="152"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3371,7 +3370,7 @@
       <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="G26" s="152">
+      <c r="G26" s="151">
         <v>1</v>
       </c>
       <c r="I26" s="69"/>
@@ -3381,7 +3380,7 @@
       <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="154"/>
+      <c r="A27" s="152"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3391,7 +3390,7 @@
       <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="G27" s="152">
+      <c r="G27" s="151">
         <v>2</v>
       </c>
       <c r="I27" s="69"/>
@@ -3408,7 +3407,7 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="154" t="s">
+      <c r="A29" s="152" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3420,7 +3419,7 @@
       <c r="D29" s="5">
         <v>15</v>
       </c>
-      <c r="G29" s="152">
+      <c r="G29" s="151">
         <f>2+3</f>
         <v>5</v>
       </c>
@@ -3431,7 +3430,7 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="154"/>
+      <c r="A30" s="152"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3441,7 +3440,7 @@
       <c r="D30" s="5">
         <v>5</v>
       </c>
-      <c r="G30" s="152">
+      <c r="G30" s="151">
         <v>1</v>
       </c>
       <c r="I30" s="69"/>
@@ -3451,7 +3450,7 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="154"/>
+      <c r="A31" s="152"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3461,7 +3460,7 @@
       <c r="D31" s="5">
         <v>5</v>
       </c>
-      <c r="G31" s="152">
+      <c r="G31" s="151">
         <v>1</v>
       </c>
       <c r="I31" s="69"/>
@@ -3471,7 +3470,7 @@
       <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="154"/>
+      <c r="A32" s="152"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3481,7 +3480,7 @@
       <c r="D32" s="5">
         <v>30</v>
       </c>
-      <c r="G32" s="152">
+      <c r="G32" s="151">
         <v>14</v>
       </c>
       <c r="I32" s="69"/>
@@ -3491,7 +3490,7 @@
       <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="154"/>
+      <c r="A33" s="152"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3501,7 +3500,7 @@
       <c r="D33" s="5">
         <v>20</v>
       </c>
-      <c r="G33" s="152">
+      <c r="G33" s="151">
         <v>9</v>
       </c>
       <c r="I33" s="69"/>
@@ -3511,7 +3510,7 @@
       <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="154"/>
+      <c r="A34" s="152"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3524,7 +3523,7 @@
       <c r="E34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="151" t="s">
+      <c r="G34" s="150" t="s">
         <v>379</v>
       </c>
       <c r="I34" s="69"/>
@@ -3534,7 +3533,7 @@
       <c r="M34" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="154" t="s">
+      <c r="A36" s="152" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3546,12 +3545,12 @@
       <c r="D36" s="5">
         <v>4</v>
       </c>
-      <c r="G36" s="151">
+      <c r="G36" s="150">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="154"/>
+      <c r="A37" s="152"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3561,12 +3560,12 @@
       <c r="D37" s="5">
         <v>4</v>
       </c>
-      <c r="G37" s="151" t="s">
+      <c r="G37" s="150" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="154" t="s">
+      <c r="A39" s="152" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3584,12 +3583,12 @@
       <c r="F39" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="151">
+      <c r="G39" s="150">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="154"/>
+      <c r="A40" s="152"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3602,12 +3601,12 @@
       <c r="E40" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="151">
+      <c r="G40" s="150">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="154"/>
+      <c r="A41" s="152"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3620,12 +3619,12 @@
       <c r="E41" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="151">
+      <c r="G41" s="150">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="154"/>
+      <c r="A42" s="152"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3641,7 +3640,7 @@
       <c r="F42" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="151">
+      <c r="G42" s="150">
         <v>1</v>
       </c>
     </row>
@@ -3655,7 +3654,7 @@
       <c r="D43" s="5">
         <v>1</v>
       </c>
-      <c r="G43" s="151" t="s">
+      <c r="G43" s="150" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3675,7 +3674,7 @@
       <c r="E45" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="151">
+      <c r="G45" s="150">
         <v>1</v>
       </c>
     </row>
@@ -3693,7 +3692,7 @@
       <c r="E46" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="151">
+      <c r="G46" s="150">
         <v>1</v>
       </c>
     </row>
@@ -3731,7 +3730,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="154" t="s">
+      <c r="A51" s="152" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3746,12 +3745,12 @@
       <c r="F51" t="s">
         <v>94</v>
       </c>
-      <c r="G51" s="151" t="s">
+      <c r="G51" s="150" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="154"/>
+      <c r="A52" s="152"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3761,12 +3760,12 @@
       <c r="D52" s="5">
         <v>4</v>
       </c>
-      <c r="G52" s="151">
+      <c r="G52" s="150">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="154"/>
+      <c r="A53" s="152"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3776,12 +3775,12 @@
       <c r="D53" s="5">
         <v>4</v>
       </c>
-      <c r="G53" s="151">
+      <c r="G53" s="150">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="154"/>
+      <c r="A54" s="152"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3791,12 +3790,12 @@
       <c r="D54" s="5">
         <v>5</v>
       </c>
-      <c r="G54" s="151">
+      <c r="G54" s="150">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="154"/>
+      <c r="A55" s="152"/>
       <c r="B55" s="37" t="s">
         <v>88</v>
       </c>
@@ -3809,12 +3808,12 @@
       <c r="E55" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="G55" s="151" t="s">
+      <c r="G55" s="150" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="154"/>
+      <c r="A56" s="152"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3824,12 +3823,12 @@
       <c r="D56" s="5">
         <v>4</v>
       </c>
-      <c r="G56" s="151">
+      <c r="G56" s="150">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="154"/>
+      <c r="A57" s="152"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3839,12 +3838,12 @@
       <c r="D57" s="5">
         <v>4</v>
       </c>
-      <c r="G57" s="151" t="s">
+      <c r="G57" s="150" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="154"/>
+      <c r="A58" s="152"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3854,12 +3853,12 @@
       <c r="D58" s="5">
         <v>5</v>
       </c>
-      <c r="G58" s="151">
+      <c r="G58" s="150">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="154"/>
+      <c r="A59" s="152"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3869,12 +3868,12 @@
       <c r="D59" s="5">
         <v>4</v>
       </c>
-      <c r="G59" s="151">
+      <c r="G59" s="150">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="154"/>
+      <c r="A60" s="152"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3889,7 +3888,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="154"/>
+      <c r="A61" s="152"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3902,12 +3901,12 @@
       <c r="E61" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G61" s="151">
+      <c r="G61" s="150">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="154"/>
+      <c r="A62" s="152"/>
       <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
@@ -3920,12 +3919,12 @@
       <c r="E62" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="G62" s="151" t="s">
+      <c r="G62" s="150" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="154"/>
+      <c r="A63" s="152"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3938,12 +3937,12 @@
       <c r="E63" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G63" s="151" t="s">
+      <c r="G63" s="150" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="154"/>
+      <c r="A64" s="152"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -3956,12 +3955,12 @@
       <c r="E64" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G64" s="151">
+      <c r="G64" s="150">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="154"/>
+      <c r="A65" s="152"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -3974,12 +3973,12 @@
       <c r="E65" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G65" s="151">
+      <c r="G65" s="150">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="154"/>
+      <c r="A66" s="152"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -3994,7 +3993,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="154"/>
+      <c r="A67" s="152"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4009,7 +4008,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="154"/>
+      <c r="A68" s="152"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4024,7 +4023,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="154" t="s">
+      <c r="A70" s="152" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4039,12 +4038,12 @@
       <c r="E70" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G70" s="151">
+      <c r="G70" s="150">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="154"/>
+      <c r="A71" s="152"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4056,7 +4055,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="154"/>
+      <c r="A72" s="152"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4072,7 +4071,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="154" t="s">
+      <c r="A74" s="152" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4087,13 +4086,13 @@
       <c r="E74" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G74" s="152"/>
+      <c r="G74" s="151"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="154"/>
+      <c r="A75" s="152"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4108,7 +4107,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="154"/>
+      <c r="A76" s="152"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4123,7 +4122,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="154"/>
+      <c r="A77" s="152"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4138,7 +4137,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="154"/>
+      <c r="A78" s="152"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4153,7 +4152,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="154"/>
+      <c r="A79" s="152"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4168,7 +4167,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="154"/>
+      <c r="A80" s="152"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4183,7 +4182,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="154"/>
+      <c r="A81" s="152"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4199,6 +4198,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4206,11 +4210,6 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4221,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4240,106 +4239,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="187" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163"/>
-      <c r="H1" s="182" t="s">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="189"/>
+      <c r="H1" s="208" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="183"/>
-      <c r="J1" s="184"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="210"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="164"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="166"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="192"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="178" t="s">
+      <c r="I2" s="204" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="179"/>
+      <c r="J2" s="205"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="167"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="169"/>
+      <c r="A3" s="193"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="195"/>
       <c r="H3" s="144"/>
-      <c r="I3" s="178" t="s">
+      <c r="I3" s="204" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="179"/>
+      <c r="J3" s="205"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="198" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="173"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="199"/>
       <c r="F4" s="44"/>
       <c r="G4" s="32"/>
       <c r="H4" s="145"/>
-      <c r="I4" s="180" t="s">
+      <c r="I4" s="206" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="181"/>
+      <c r="J4" s="207"/>
       <c r="K4" s="143"/>
-      <c r="L4" s="185" t="s">
+      <c r="L4" s="157" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="186"/>
-      <c r="P4" s="187"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="159"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="93"/>
       <c r="U4" s="93"/>
-      <c r="V4" s="194" t="s">
+      <c r="V4" s="166" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="195"/>
-      <c r="X4" s="195"/>
-      <c r="Y4" s="195"/>
-      <c r="Z4" s="196"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="168"/>
       <c r="AA4" s="93"/>
       <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="174"/>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="175"/>
+      <c r="A5" s="200"/>
+      <c r="B5" s="200"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="201"/>
       <c r="F5" s="44"/>
       <c r="G5" s="32"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="189"/>
-      <c r="N5" s="189"/>
-      <c r="O5" s="189"/>
-      <c r="P5" s="190"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="162"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="93"/>
       <c r="U5" s="93"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="198"/>
-      <c r="Y5" s="198"/>
-      <c r="Z5" s="199"/>
+      <c r="V5" s="169"/>
+      <c r="W5" s="170"/>
+      <c r="X5" s="170"/>
+      <c r="Y5" s="170"/>
+      <c r="Z5" s="171"/>
       <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4395,24 +4394,24 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="149">
+      <c r="C7" s="35">
         <v>2</v>
       </c>
-      <c r="D7" s="149">
+      <c r="D7" s="35">
         <v>0</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="26" t="s">
         <v>166</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="32"/>
-      <c r="L7" s="191" t="s">
+      <c r="L7" s="163" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
@@ -4451,7 +4450,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
+      <c r="A8" s="196"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4464,9 +4463,11 @@
       <c r="E8" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="14" t="s">
+        <v>382</v>
+      </c>
       <c r="G8" s="32"/>
-      <c r="L8" s="192"/>
+      <c r="L8" s="164"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4503,7 +4504,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>382</v>
       </c>
       <c r="G9" s="32"/>
-      <c r="L9" s="192"/>
+      <c r="L9" s="164"/>
       <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
@@ -4557,7 +4558,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
+      <c r="A10" s="196"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4574,7 +4575,7 @@
         <v>382</v>
       </c>
       <c r="G10" s="32"/>
-      <c r="L10" s="192"/>
+      <c r="L10" s="164"/>
       <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
@@ -4609,7 +4610,7 @@
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
+      <c r="A11" s="196"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4625,7 +4626,7 @@
       <c r="F11" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L11" s="192"/>
+      <c r="L11" s="164"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4650,7 +4651,7 @@
       <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="170"/>
+      <c r="A12" s="196"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4666,7 +4667,7 @@
       <c r="F12" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L12" s="192"/>
+      <c r="L12" s="164"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4691,7 +4692,7 @@
       <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="170"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4707,7 +4708,7 @@
       <c r="F13" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L13" s="192"/>
+      <c r="L13" s="164"/>
       <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
@@ -4732,7 +4733,7 @@
       <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="176"/>
+      <c r="A14" s="202"/>
       <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
@@ -4748,7 +4749,7 @@
       <c r="F14" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L14" s="193"/>
+      <c r="L14" s="165"/>
       <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
@@ -4774,7 +4775,7 @@
       <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="203" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -4792,7 +4793,7 @@
       <c r="F15" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L15" s="206" t="s">
+      <c r="L15" s="178" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="112" t="s">
@@ -4810,19 +4811,19 @@
       <c r="Q15" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="V15" s="200" t="s">
+      <c r="V15" s="172" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="201"/>
-      <c r="X15" s="201"/>
-      <c r="Y15" s="201"/>
-      <c r="Z15" s="201"/>
-      <c r="AA15" s="201"/>
-      <c r="AB15" s="201"/>
-      <c r="AC15" s="202"/>
+      <c r="W15" s="173"/>
+      <c r="X15" s="173"/>
+      <c r="Y15" s="173"/>
+      <c r="Z15" s="173"/>
+      <c r="AA15" s="173"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="174"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="170"/>
+      <c r="A16" s="196"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4838,7 +4839,7 @@
       <c r="F16" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L16" s="207"/>
+      <c r="L16" s="179"/>
       <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
@@ -4867,7 +4868,7 @@
       <c r="AC16" s="146"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="176"/>
+      <c r="A17" s="202"/>
       <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
@@ -4883,7 +4884,7 @@
       <c r="F17" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L17" s="207"/>
+      <c r="L17" s="179"/>
       <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
@@ -4915,7 +4916,7 @@
       <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="177" t="s">
+      <c r="A18" s="203" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -4931,7 +4932,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="207"/>
+      <c r="L18" s="179"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -4963,7 +4964,7 @@
       <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="170"/>
+      <c r="A19" s="196"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="131"/>
-      <c r="L19" s="208"/>
+      <c r="L19" s="180"/>
       <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
@@ -5009,7 +5010,7 @@
       <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="170"/>
+      <c r="A20" s="196"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>194</v>
       </c>
       <c r="F20" s="131"/>
-      <c r="L20" s="206" t="s">
+      <c r="L20" s="178" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="109" t="s">
@@ -5049,7 +5050,7 @@
       <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="170"/>
+      <c r="A21" s="196"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="131"/>
-      <c r="L21" s="207"/>
+      <c r="L21" s="179"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5089,7 +5090,7 @@
       <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="176"/>
+      <c r="A22" s="202"/>
       <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="131"/>
-      <c r="L22" s="207"/>
+      <c r="L22" s="179"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5133,7 +5134,7 @@
       <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="177" t="s">
+      <c r="A23" s="203" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="32" t="s">
@@ -5149,7 +5150,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="131"/>
-      <c r="L23" s="207"/>
+      <c r="L23" s="179"/>
       <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
@@ -5179,7 +5180,7 @@
       <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="170"/>
+      <c r="A24" s="196"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5193,7 +5194,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="131"/>
-      <c r="L24" s="207"/>
+      <c r="L24" s="179"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5223,7 +5224,7 @@
       <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="170"/>
+      <c r="A25" s="196"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>206</v>
       </c>
       <c r="F25" s="131"/>
-      <c r="L25" s="207"/>
+      <c r="L25" s="179"/>
       <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
@@ -5261,7 +5262,7 @@
       <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="170"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5275,7 +5276,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="131"/>
-      <c r="L26" s="208"/>
+      <c r="L26" s="180"/>
       <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
@@ -5301,7 +5302,7 @@
       <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="170"/>
+      <c r="A27" s="196"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="131"/>
-      <c r="L27" s="209" t="s">
+      <c r="L27" s="181" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="84" t="s">
@@ -5347,7 +5348,7 @@
       <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="170"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="78" t="s">
         <v>376</v>
       </c>
@@ -5361,7 +5362,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="131"/>
-      <c r="L28" s="210"/>
+      <c r="L28" s="182"/>
       <c r="M28" s="26"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -5383,7 +5384,7 @@
       <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="176"/>
+      <c r="A29" s="202"/>
       <c r="B29" s="136" t="s">
         <v>377</v>
       </c>
@@ -5397,7 +5398,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="131"/>
-      <c r="L29" s="211"/>
+      <c r="L29" s="183"/>
       <c r="M29" s="113" t="s">
         <v>364</v>
       </c>
@@ -5421,7 +5422,7 @@
       <c r="AC29" s="106"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="196" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5456,7 +5457,7 @@
       <c r="AC30" s="106"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="170"/>
+      <c r="A31" s="196"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5493,7 +5494,7 @@
       <c r="AC31" s="106"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="171"/>
+      <c r="A32" s="197"/>
       <c r="B32" s="42" t="s">
         <v>364</v>
       </c>
@@ -5557,27 +5558,27 @@
       <c r="AD33" s="93"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="158" t="s">
+      <c r="B34" s="184" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="160"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="185"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="185"/>
+      <c r="G34" s="185"/>
+      <c r="H34" s="185"/>
+      <c r="I34" s="186"/>
       <c r="J34" s="142"/>
-      <c r="L34" s="203" t="s">
+      <c r="L34" s="175" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="204"/>
-      <c r="N34" s="204"/>
-      <c r="O34" s="204"/>
-      <c r="P34" s="204"/>
-      <c r="Q34" s="204"/>
-      <c r="R34" s="204"/>
-      <c r="S34" s="205"/>
+      <c r="M34" s="176"/>
+      <c r="N34" s="176"/>
+      <c r="O34" s="176"/>
+      <c r="P34" s="176"/>
+      <c r="Q34" s="176"/>
+      <c r="R34" s="176"/>
+      <c r="S34" s="177"/>
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -7481,14 +7482,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7501,6 +7494,14 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265C1FF9-6A58-4487-92DF-ABFF42B94B26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AF3F1A-4EDC-4DCD-B1A9-BF176B1DD426}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
@@ -1251,7 +1251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1339,6 +1339,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1946,7 +1952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2327,20 +2333,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2423,87 +2510,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2851,12 +2862,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="152" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
@@ -2890,7 +2901,7 @@
       <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2918,7 +2929,7 @@
       <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="154"/>
+      <c r="A4" s="156"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2941,7 +2952,7 @@
       <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="154"/>
+      <c r="A5" s="156"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -2974,7 +2985,7 @@
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="153" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -2999,7 +3010,7 @@
       <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="152"/>
+      <c r="A8" s="153"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3022,7 +3033,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="152"/>
+      <c r="A9" s="153"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3045,7 +3056,7 @@
       <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="152"/>
+      <c r="A10" s="153"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3068,7 +3079,7 @@
       <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="152"/>
+      <c r="A11" s="153"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3091,7 +3102,7 @@
       <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="152"/>
+      <c r="A12" s="153"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3153,7 +3164,7 @@
       <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="153" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3176,7 +3187,7 @@
       <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
+      <c r="A17" s="153"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3196,7 +3207,7 @@
       <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
+      <c r="A18" s="153"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3216,7 +3227,7 @@
       <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
+      <c r="A19" s="153"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3237,7 +3248,7 @@
       <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="152"/>
+      <c r="A20" s="153"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3258,7 +3269,7 @@
       <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
+      <c r="A21" s="153"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3278,7 +3289,7 @@
       <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="152"/>
+      <c r="A22" s="153"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3299,7 +3310,7 @@
       <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="152"/>
+      <c r="A23" s="153"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3320,7 +3331,7 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="152"/>
+      <c r="A24" s="153"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3340,7 +3351,7 @@
       <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
+      <c r="A25" s="153"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3360,7 +3371,7 @@
       <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="152"/>
+      <c r="A26" s="153"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3380,7 +3391,7 @@
       <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="152"/>
+      <c r="A27" s="153"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3407,7 +3418,7 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="152" t="s">
+      <c r="A29" s="153" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3430,7 +3441,7 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="152"/>
+      <c r="A30" s="153"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3450,7 +3461,7 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="152"/>
+      <c r="A31" s="153"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3470,7 +3481,7 @@
       <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="152"/>
+      <c r="A32" s="153"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3490,7 +3501,7 @@
       <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="152"/>
+      <c r="A33" s="153"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3510,7 +3521,7 @@
       <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="152"/>
+      <c r="A34" s="153"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3533,7 +3544,7 @@
       <c r="M34" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="153" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3550,7 +3561,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="152"/>
+      <c r="A37" s="153"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3565,7 +3576,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="152" t="s">
+      <c r="A39" s="153" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3588,7 +3599,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="152"/>
+      <c r="A40" s="153"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3606,7 +3617,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="152"/>
+      <c r="A41" s="153"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3624,7 +3635,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="152"/>
+      <c r="A42" s="153"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3659,7 +3670,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="154" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3679,7 +3690,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="155"/>
+      <c r="A46" s="154"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3701,7 +3712,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="155" t="s">
+      <c r="A48" s="154" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3718,7 +3729,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="155"/>
+      <c r="A49" s="154"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3730,7 +3741,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="152" t="s">
+      <c r="A51" s="153" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3750,7 +3761,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="152"/>
+      <c r="A52" s="153"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3765,7 +3776,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="152"/>
+      <c r="A53" s="153"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3780,7 +3791,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="152"/>
+      <c r="A54" s="153"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3795,7 +3806,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="152"/>
+      <c r="A55" s="153"/>
       <c r="B55" s="37" t="s">
         <v>88</v>
       </c>
@@ -3813,7 +3824,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="152"/>
+      <c r="A56" s="153"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3828,7 +3839,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="152"/>
+      <c r="A57" s="153"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3843,7 +3854,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="152"/>
+      <c r="A58" s="153"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3858,7 +3869,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="152"/>
+      <c r="A59" s="153"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3873,7 +3884,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="152"/>
+      <c r="A60" s="153"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3888,7 +3899,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="152"/>
+      <c r="A61" s="153"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3906,7 +3917,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="152"/>
+      <c r="A62" s="153"/>
       <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
@@ -3924,7 +3935,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="152"/>
+      <c r="A63" s="153"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3942,7 +3953,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="152"/>
+      <c r="A64" s="153"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -3960,7 +3971,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="152"/>
+      <c r="A65" s="153"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -3978,7 +3989,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="152"/>
+      <c r="A66" s="153"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -3993,7 +4004,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="152"/>
+      <c r="A67" s="153"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4008,7 +4019,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="152"/>
+      <c r="A68" s="153"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4023,7 +4034,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="152" t="s">
+      <c r="A70" s="153" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4043,7 +4054,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="152"/>
+      <c r="A71" s="153"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4055,7 +4066,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="152"/>
+      <c r="A72" s="153"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4071,7 +4082,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="152" t="s">
+      <c r="A74" s="153" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4092,7 +4103,7 @@
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="152"/>
+      <c r="A75" s="153"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4107,7 +4118,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="152"/>
+      <c r="A76" s="153"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4122,7 +4133,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="152"/>
+      <c r="A77" s="153"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4137,7 +4148,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="152"/>
+      <c r="A78" s="153"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4152,7 +4163,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="152"/>
+      <c r="A79" s="153"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4167,7 +4178,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="152"/>
+      <c r="A80" s="153"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4182,7 +4193,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="152"/>
+      <c r="A81" s="153"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4198,11 +4209,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4210,6 +4216,11 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4221,7 +4232,7 @@
   <dimension ref="A1:AD93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4239,106 +4250,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="160" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="189"/>
-      <c r="H1" s="208" t="s">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="162"/>
+      <c r="H1" s="181" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="209"/>
-      <c r="J1" s="210"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="183"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190"/>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="192"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="204" t="s">
+      <c r="I2" s="177" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="205"/>
+      <c r="J2" s="178"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="193"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="195"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168"/>
       <c r="H3" s="144"/>
-      <c r="I3" s="204" t="s">
+      <c r="I3" s="177" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="205"/>
+      <c r="J3" s="178"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="171" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="199"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="172"/>
       <c r="F4" s="44"/>
       <c r="G4" s="32"/>
       <c r="H4" s="145"/>
-      <c r="I4" s="206" t="s">
+      <c r="I4" s="179" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="207"/>
+      <c r="J4" s="180"/>
       <c r="K4" s="143"/>
-      <c r="L4" s="157" t="s">
+      <c r="L4" s="184" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="159"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="186"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="93"/>
       <c r="U4" s="93"/>
-      <c r="V4" s="166" t="s">
+      <c r="V4" s="193" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="167"/>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="167"/>
-      <c r="Z4" s="168"/>
+      <c r="W4" s="194"/>
+      <c r="X4" s="194"/>
+      <c r="Y4" s="194"/>
+      <c r="Z4" s="195"/>
       <c r="AA4" s="93"/>
       <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="200"/>
-      <c r="B5" s="200"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="201"/>
+      <c r="A5" s="173"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="174"/>
       <c r="F5" s="44"/>
       <c r="G5" s="32"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="162"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="188"/>
+      <c r="P5" s="189"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="93"/>
       <c r="U5" s="93"/>
-      <c r="V5" s="169"/>
-      <c r="W5" s="170"/>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="170"/>
-      <c r="Z5" s="171"/>
+      <c r="V5" s="196"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="198"/>
       <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4394,7 +4405,7 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="169" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="88" t="s">
@@ -4411,7 +4422,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="32"/>
-      <c r="L7" s="163" t="s">
+      <c r="L7" s="190" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
@@ -4450,7 +4461,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
+      <c r="A8" s="169"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4467,7 +4478,7 @@
         <v>382</v>
       </c>
       <c r="G8" s="32"/>
-      <c r="L8" s="164"/>
+      <c r="L8" s="191"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4504,7 +4515,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
+      <c r="A9" s="169"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4521,7 +4532,7 @@
         <v>382</v>
       </c>
       <c r="G9" s="32"/>
-      <c r="L9" s="164"/>
+      <c r="L9" s="191"/>
       <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
@@ -4558,7 +4569,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="196"/>
+      <c r="A10" s="169"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4575,7 +4586,7 @@
         <v>382</v>
       </c>
       <c r="G10" s="32"/>
-      <c r="L10" s="164"/>
+      <c r="L10" s="191"/>
       <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
@@ -4610,7 +4621,7 @@
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="196"/>
+      <c r="A11" s="169"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4626,7 +4637,7 @@
       <c r="F11" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L11" s="164"/>
+      <c r="L11" s="191"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4651,7 +4662,7 @@
       <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="196"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4667,7 +4678,7 @@
       <c r="F12" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L12" s="164"/>
+      <c r="L12" s="191"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4692,7 +4703,7 @@
       <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="196"/>
+      <c r="A13" s="169"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4708,7 +4719,7 @@
       <c r="F13" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L13" s="164"/>
+      <c r="L13" s="191"/>
       <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
@@ -4733,7 +4744,7 @@
       <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="202"/>
+      <c r="A14" s="175"/>
       <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
@@ -4749,7 +4760,7 @@
       <c r="F14" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L14" s="165"/>
+      <c r="L14" s="192"/>
       <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
@@ -4775,7 +4786,7 @@
       <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="203" t="s">
+      <c r="A15" s="176" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -4793,7 +4804,7 @@
       <c r="F15" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L15" s="178" t="s">
+      <c r="L15" s="205" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="112" t="s">
@@ -4811,19 +4822,19 @@
       <c r="Q15" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="V15" s="172" t="s">
+      <c r="V15" s="199" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="173"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="173"/>
-      <c r="AA15" s="173"/>
-      <c r="AB15" s="173"/>
-      <c r="AC15" s="174"/>
+      <c r="W15" s="200"/>
+      <c r="X15" s="200"/>
+      <c r="Y15" s="200"/>
+      <c r="Z15" s="200"/>
+      <c r="AA15" s="200"/>
+      <c r="AB15" s="200"/>
+      <c r="AC15" s="201"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="196"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4839,7 +4850,7 @@
       <c r="F16" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L16" s="179"/>
+      <c r="L16" s="206"/>
       <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
@@ -4868,7 +4879,7 @@
       <c r="AC16" s="146"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="202"/>
+      <c r="A17" s="175"/>
       <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
@@ -4884,7 +4895,7 @@
       <c r="F17" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L17" s="179"/>
+      <c r="L17" s="206"/>
       <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
@@ -4916,7 +4927,7 @@
       <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="203" t="s">
+      <c r="A18" s="176" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -4932,7 +4943,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="179"/>
+      <c r="L18" s="206"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -4964,7 +4975,7 @@
       <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="196"/>
+      <c r="A19" s="169"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
@@ -4978,7 +4989,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="131"/>
-      <c r="L19" s="180"/>
+      <c r="L19" s="207"/>
       <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
@@ -5010,7 +5021,7 @@
       <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="196"/>
+      <c r="A20" s="169"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
@@ -5024,7 +5035,7 @@
         <v>194</v>
       </c>
       <c r="F20" s="131"/>
-      <c r="L20" s="178" t="s">
+      <c r="L20" s="205" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="109" t="s">
@@ -5050,7 +5061,7 @@
       <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="196"/>
+      <c r="A21" s="169"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
@@ -5064,7 +5075,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="131"/>
-      <c r="L21" s="179"/>
+      <c r="L21" s="206"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5090,7 +5101,7 @@
       <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="202"/>
+      <c r="A22" s="175"/>
       <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
@@ -5104,7 +5115,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="131"/>
-      <c r="L22" s="179"/>
+      <c r="L22" s="206"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5134,23 +5145,23 @@
       <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="203" t="s">
+      <c r="A23" s="176" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="211" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="33">
-        <v>1</v>
-      </c>
-      <c r="D23" s="33">
-        <v>1</v>
-      </c>
-      <c r="E23" s="29" t="s">
+      <c r="C23" s="212">
+        <v>1</v>
+      </c>
+      <c r="D23" s="212">
+        <v>0</v>
+      </c>
+      <c r="E23" s="213" t="s">
         <v>202</v>
       </c>
       <c r="F23" s="131"/>
-      <c r="L23" s="179"/>
+      <c r="L23" s="206"/>
       <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
@@ -5180,7 +5191,7 @@
       <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="196"/>
+      <c r="A24" s="169"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5194,7 +5205,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="131"/>
-      <c r="L24" s="179"/>
+      <c r="L24" s="206"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5224,7 +5235,7 @@
       <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="196"/>
+      <c r="A25" s="169"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
@@ -5238,7 +5249,7 @@
         <v>206</v>
       </c>
       <c r="F25" s="131"/>
-      <c r="L25" s="179"/>
+      <c r="L25" s="206"/>
       <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
@@ -5262,7 +5273,7 @@
       <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="196"/>
+      <c r="A26" s="169"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5276,7 +5287,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="131"/>
-      <c r="L26" s="180"/>
+      <c r="L26" s="207"/>
       <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
@@ -5302,7 +5313,7 @@
       <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="196"/>
+      <c r="A27" s="169"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5316,7 +5327,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="131"/>
-      <c r="L27" s="181" t="s">
+      <c r="L27" s="208" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="84" t="s">
@@ -5348,7 +5359,7 @@
       <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="196"/>
+      <c r="A28" s="169"/>
       <c r="B28" s="78" t="s">
         <v>376</v>
       </c>
@@ -5362,7 +5373,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="131"/>
-      <c r="L28" s="182"/>
+      <c r="L28" s="209"/>
       <c r="M28" s="26"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -5384,7 +5395,7 @@
       <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="202"/>
+      <c r="A29" s="175"/>
       <c r="B29" s="136" t="s">
         <v>377</v>
       </c>
@@ -5398,7 +5409,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="131"/>
-      <c r="L29" s="183"/>
+      <c r="L29" s="210"/>
       <c r="M29" s="113" t="s">
         <v>364</v>
       </c>
@@ -5422,7 +5433,7 @@
       <c r="AC29" s="106"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="196" t="s">
+      <c r="A30" s="169" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5457,7 +5468,7 @@
       <c r="AC30" s="106"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="196"/>
+      <c r="A31" s="169"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5494,7 +5505,7 @@
       <c r="AC31" s="106"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="197"/>
+      <c r="A32" s="170"/>
       <c r="B32" s="42" t="s">
         <v>364</v>
       </c>
@@ -5558,27 +5569,27 @@
       <c r="AD33" s="93"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="184" t="s">
+      <c r="B34" s="157" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="185"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="185"/>
-      <c r="I34" s="186"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="159"/>
       <c r="J34" s="142"/>
-      <c r="L34" s="175" t="s">
+      <c r="L34" s="202" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="176"/>
-      <c r="N34" s="176"/>
-      <c r="O34" s="176"/>
-      <c r="P34" s="176"/>
-      <c r="Q34" s="176"/>
-      <c r="R34" s="176"/>
-      <c r="S34" s="177"/>
+      <c r="M34" s="203"/>
+      <c r="N34" s="203"/>
+      <c r="O34" s="203"/>
+      <c r="P34" s="203"/>
+      <c r="Q34" s="203"/>
+      <c r="R34" s="203"/>
+      <c r="S34" s="204"/>
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -7482,6 +7493,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7494,14 +7513,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AF3F1A-4EDC-4DCD-B1A9-BF176B1DD426}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83D1105-E576-4285-92D2-659E1510E2F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
+    <workbookView xWindow="12570" yWindow="390" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -2333,188 +2333,188 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2844,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AA6548-4DFA-4405-951F-1160BBC52D4F}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A32" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,12 +2862,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
@@ -2901,7 +2901,7 @@
       <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="156" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2929,7 +2929,7 @@
       <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="156"/>
+      <c r="A4" s="157"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="156"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="155" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3010,7 +3010,7 @@
       <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
+      <c r="A8" s="155"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3033,7 +3033,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
+      <c r="A9" s="155"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="153"/>
+      <c r="A10" s="155"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
+      <c r="A11" s="155"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="153"/>
+      <c r="A12" s="155"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="155" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3187,7 +3187,7 @@
       <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="153"/>
+      <c r="A17" s="155"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3207,7 +3207,7 @@
       <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="153"/>
+      <c r="A18" s="155"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="153"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3248,7 +3248,7 @@
       <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="153"/>
+      <c r="A20" s="155"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="153"/>
+      <c r="A21" s="155"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3289,7 +3289,7 @@
       <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="153"/>
+      <c r="A22" s="155"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="153"/>
+      <c r="A23" s="155"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="153"/>
+      <c r="A24" s="155"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="153"/>
+      <c r="A25" s="155"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="153"/>
+      <c r="A26" s="155"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="153"/>
+      <c r="A27" s="155"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="153" t="s">
+      <c r="A29" s="155" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3441,7 +3441,7 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="153"/>
+      <c r="A30" s="155"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3461,7 +3461,7 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="153"/>
+      <c r="A31" s="155"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3481,7 +3481,7 @@
       <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="153"/>
+      <c r="A32" s="155"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3501,7 +3501,7 @@
       <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="153"/>
+      <c r="A33" s="155"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3521,7 +3521,7 @@
       <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="153"/>
+      <c r="A34" s="155"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="M34" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="153" t="s">
+      <c r="A36" s="155" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3561,7 +3561,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="153"/>
+      <c r="A37" s="155"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3576,7 +3576,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="153" t="s">
+      <c r="A39" s="155" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3599,7 +3599,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="153"/>
+      <c r="A40" s="155"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3617,7 +3617,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="153"/>
+      <c r="A41" s="155"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3635,7 +3635,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="153"/>
+      <c r="A42" s="155"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3670,7 +3670,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="154" t="s">
+      <c r="A45" s="158" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3690,7 +3690,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="154"/>
+      <c r="A46" s="158"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="154" t="s">
+      <c r="A48" s="158" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3729,7 +3729,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="154"/>
+      <c r="A49" s="158"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3741,7 +3741,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="153" t="s">
+      <c r="A51" s="155" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3761,7 +3761,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="153"/>
+      <c r="A52" s="155"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3776,7 +3776,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="153"/>
+      <c r="A53" s="155"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3791,7 +3791,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="153"/>
+      <c r="A54" s="155"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3806,7 +3806,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="153"/>
+      <c r="A55" s="155"/>
       <c r="B55" s="37" t="s">
         <v>88</v>
       </c>
@@ -3824,7 +3824,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="153"/>
+      <c r="A56" s="155"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3839,7 +3839,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="153"/>
+      <c r="A57" s="155"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3854,7 +3854,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="153"/>
+      <c r="A58" s="155"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3869,7 +3869,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="153"/>
+      <c r="A59" s="155"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3884,7 +3884,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="153"/>
+      <c r="A60" s="155"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3899,7 +3899,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="153"/>
+      <c r="A61" s="155"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3917,7 +3917,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="153"/>
+      <c r="A62" s="155"/>
       <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
@@ -3935,7 +3935,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="153"/>
+      <c r="A63" s="155"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3953,7 +3953,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="153"/>
+      <c r="A64" s="155"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -3971,7 +3971,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="153"/>
+      <c r="A65" s="155"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -3989,7 +3989,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="153"/>
+      <c r="A66" s="155"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4004,7 +4004,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="153"/>
+      <c r="A67" s="155"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4019,7 +4019,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="153"/>
+      <c r="A68" s="155"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4034,7 +4034,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="153" t="s">
+      <c r="A70" s="155" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4054,7 +4054,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="153"/>
+      <c r="A71" s="155"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4066,7 +4066,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="153"/>
+      <c r="A72" s="155"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="153" t="s">
+      <c r="A74" s="155" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4103,7 +4103,7 @@
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="153"/>
+      <c r="A75" s="155"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4118,7 +4118,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="153"/>
+      <c r="A76" s="155"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4133,7 +4133,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="153"/>
+      <c r="A77" s="155"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4148,7 +4148,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="153"/>
+      <c r="A78" s="155"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4163,7 +4163,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="153"/>
+      <c r="A79" s="155"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4178,7 +4178,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="153"/>
+      <c r="A80" s="155"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4193,7 +4193,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="153"/>
+      <c r="A81" s="155"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4209,6 +4209,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4216,11 +4221,6 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4231,8 +4231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4250,106 +4250,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="190" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="162"/>
-      <c r="H1" s="181" t="s">
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="192"/>
+      <c r="H1" s="211" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="182"/>
-      <c r="J1" s="183"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="213"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="165"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="195"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="207" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="178"/>
+      <c r="J2" s="208"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="168"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="198"/>
       <c r="H3" s="144"/>
-      <c r="I3" s="177" t="s">
+      <c r="I3" s="207" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="178"/>
+      <c r="J3" s="208"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="201" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="172"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="202"/>
       <c r="F4" s="44"/>
       <c r="G4" s="32"/>
       <c r="H4" s="145"/>
-      <c r="I4" s="179" t="s">
+      <c r="I4" s="209" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="180"/>
+      <c r="J4" s="210"/>
       <c r="K4" s="143"/>
-      <c r="L4" s="184" t="s">
+      <c r="L4" s="160" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="185"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="186"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="162"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="93"/>
       <c r="U4" s="93"/>
-      <c r="V4" s="193" t="s">
+      <c r="V4" s="169" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="194"/>
-      <c r="X4" s="194"/>
-      <c r="Y4" s="194"/>
-      <c r="Z4" s="195"/>
+      <c r="W4" s="170"/>
+      <c r="X4" s="170"/>
+      <c r="Y4" s="170"/>
+      <c r="Z4" s="171"/>
       <c r="AA4" s="93"/>
       <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="173"/>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="174"/>
+      <c r="A5" s="203"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="204"/>
       <c r="F5" s="44"/>
       <c r="G5" s="32"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="188"/>
-      <c r="O5" s="188"/>
-      <c r="P5" s="189"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="165"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="93"/>
       <c r="U5" s="93"/>
-      <c r="V5" s="196"/>
-      <c r="W5" s="197"/>
-      <c r="X5" s="197"/>
-      <c r="Y5" s="197"/>
-      <c r="Z5" s="198"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="173"/>
+      <c r="Z5" s="174"/>
       <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4405,7 +4405,7 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="199" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="88" t="s">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="32"/>
-      <c r="L7" s="190" t="s">
+      <c r="L7" s="166" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
@@ -4461,7 +4461,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="169"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>382</v>
       </c>
       <c r="G8" s="32"/>
-      <c r="L8" s="191"/>
+      <c r="L8" s="167"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4515,7 +4515,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="169"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>382</v>
       </c>
       <c r="G9" s="32"/>
-      <c r="L9" s="191"/>
+      <c r="L9" s="167"/>
       <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
@@ -4569,7 +4569,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="169"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>382</v>
       </c>
       <c r="G10" s="32"/>
-      <c r="L10" s="191"/>
+      <c r="L10" s="167"/>
       <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
@@ -4621,7 +4621,7 @@
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="169"/>
+      <c r="A11" s="199"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="F11" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L11" s="191"/>
+      <c r="L11" s="167"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="169"/>
+      <c r="A12" s="199"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4678,7 +4678,7 @@
       <c r="F12" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L12" s="191"/>
+      <c r="L12" s="167"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4703,7 +4703,7 @@
       <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="169"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4719,7 +4719,7 @@
       <c r="F13" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L13" s="191"/>
+      <c r="L13" s="167"/>
       <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
@@ -4744,7 +4744,7 @@
       <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="175"/>
+      <c r="A14" s="205"/>
       <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="F14" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L14" s="192"/>
+      <c r="L14" s="168"/>
       <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
@@ -4786,7 +4786,7 @@
       <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="206" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -4804,7 +4804,7 @@
       <c r="F15" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L15" s="205" t="s">
+      <c r="L15" s="181" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="112" t="s">
@@ -4822,19 +4822,19 @@
       <c r="Q15" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="V15" s="199" t="s">
+      <c r="V15" s="175" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="200"/>
-      <c r="X15" s="200"/>
-      <c r="Y15" s="200"/>
-      <c r="Z15" s="200"/>
-      <c r="AA15" s="200"/>
-      <c r="AB15" s="200"/>
-      <c r="AC15" s="201"/>
+      <c r="W15" s="176"/>
+      <c r="X15" s="176"/>
+      <c r="Y15" s="176"/>
+      <c r="Z15" s="176"/>
+      <c r="AA15" s="176"/>
+      <c r="AB15" s="176"/>
+      <c r="AC15" s="177"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="169"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4850,7 +4850,7 @@
       <c r="F16" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L16" s="206"/>
+      <c r="L16" s="182"/>
       <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
@@ -4879,7 +4879,7 @@
       <c r="AC16" s="146"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="175"/>
+      <c r="A17" s="205"/>
       <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
@@ -4895,7 +4895,7 @@
       <c r="F17" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L17" s="206"/>
+      <c r="L17" s="182"/>
       <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
@@ -4927,7 +4927,7 @@
       <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="176" t="s">
+      <c r="A18" s="206" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -4943,7 +4943,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="206"/>
+      <c r="L18" s="182"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -4975,7 +4975,7 @@
       <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="169"/>
+      <c r="A19" s="199"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="131"/>
-      <c r="L19" s="207"/>
+      <c r="L19" s="183"/>
       <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
@@ -5021,7 +5021,7 @@
       <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="169"/>
+      <c r="A20" s="199"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>194</v>
       </c>
       <c r="F20" s="131"/>
-      <c r="L20" s="205" t="s">
+      <c r="L20" s="181" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="109" t="s">
@@ -5061,7 +5061,7 @@
       <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="169"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="131"/>
-      <c r="L21" s="206"/>
+      <c r="L21" s="182"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5101,7 +5101,7 @@
       <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="175"/>
+      <c r="A22" s="205"/>
       <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="131"/>
-      <c r="L22" s="206"/>
+      <c r="L22" s="182"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5145,23 +5145,23 @@
       <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="206" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="211" t="s">
+      <c r="B23" s="152" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="212">
-        <v>1</v>
-      </c>
-      <c r="D23" s="212">
+      <c r="C23" s="153">
+        <v>1</v>
+      </c>
+      <c r="D23" s="153">
         <v>0</v>
       </c>
-      <c r="E23" s="213" t="s">
+      <c r="E23" s="154" t="s">
         <v>202</v>
       </c>
       <c r="F23" s="131"/>
-      <c r="L23" s="206"/>
+      <c r="L23" s="182"/>
       <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
@@ -5191,7 +5191,7 @@
       <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="169"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="131"/>
-      <c r="L24" s="206"/>
+      <c r="L24" s="182"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5235,7 +5235,7 @@
       <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="169"/>
+      <c r="A25" s="199"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>206</v>
       </c>
       <c r="F25" s="131"/>
-      <c r="L25" s="206"/>
+      <c r="L25" s="182"/>
       <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
@@ -5273,7 +5273,7 @@
       <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="169"/>
+      <c r="A26" s="199"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="131"/>
-      <c r="L26" s="207"/>
+      <c r="L26" s="183"/>
       <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
@@ -5313,7 +5313,7 @@
       <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="169"/>
+      <c r="A27" s="199"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="131"/>
-      <c r="L27" s="208" t="s">
+      <c r="L27" s="184" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="84" t="s">
@@ -5359,7 +5359,7 @@
       <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="169"/>
+      <c r="A28" s="199"/>
       <c r="B28" s="78" t="s">
         <v>376</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="131"/>
-      <c r="L28" s="209"/>
+      <c r="L28" s="185"/>
       <c r="M28" s="26"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -5395,7 +5395,7 @@
       <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="175"/>
+      <c r="A29" s="205"/>
       <c r="B29" s="136" t="s">
         <v>377</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="131"/>
-      <c r="L29" s="210"/>
+      <c r="L29" s="186"/>
       <c r="M29" s="113" t="s">
         <v>364</v>
       </c>
@@ -5433,7 +5433,7 @@
       <c r="AC29" s="106"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="169" t="s">
+      <c r="A30" s="199" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5468,7 +5468,7 @@
       <c r="AC30" s="106"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="169"/>
+      <c r="A31" s="199"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5505,7 +5505,7 @@
       <c r="AC31" s="106"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="170"/>
+      <c r="A32" s="200"/>
       <c r="B32" s="42" t="s">
         <v>364</v>
       </c>
@@ -5569,27 +5569,27 @@
       <c r="AD33" s="93"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="157" t="s">
+      <c r="B34" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="159"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="189"/>
       <c r="J34" s="142"/>
-      <c r="L34" s="202" t="s">
+      <c r="L34" s="178" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="203"/>
-      <c r="N34" s="203"/>
-      <c r="O34" s="203"/>
-      <c r="P34" s="203"/>
-      <c r="Q34" s="203"/>
-      <c r="R34" s="203"/>
-      <c r="S34" s="204"/>
+      <c r="M34" s="179"/>
+      <c r="N34" s="179"/>
+      <c r="O34" s="179"/>
+      <c r="P34" s="179"/>
+      <c r="Q34" s="179"/>
+      <c r="R34" s="179"/>
+      <c r="S34" s="180"/>
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -5671,20 +5671,20 @@
       <c r="AD36" s="104"/>
     </row>
     <row r="37" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="D37" s="78" t="s">
+      <c r="D37" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="79"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="47"/>
       <c r="J37" s="26"/>
       <c r="L37" s="105" t="s">
         <v>223</v>
@@ -5705,20 +5705,20 @@
       <c r="AD37" s="104"/>
     </row>
     <row r="38" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="79"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="47"/>
       <c r="J38" s="26"/>
       <c r="L38" s="105" t="s">
         <v>226</v>
@@ -7493,14 +7493,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7513,6 +7505,14 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83D1105-E576-4285-92D2-659E1510E2F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090CF2FF-8646-4C46-ACF5-7A64A45ACEF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="390" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="383">
   <si>
     <t>Item#</t>
   </si>
@@ -2338,20 +2338,101 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2433,87 +2514,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2862,12 +2862,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
@@ -2901,7 +2901,7 @@
       <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="158" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2929,7 +2929,7 @@
       <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157"/>
+      <c r="A4" s="159"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="156" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3010,7 +3010,7 @@
       <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
+      <c r="A8" s="156"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3033,7 +3033,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
+      <c r="A9" s="156"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
+      <c r="A10" s="156"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
+      <c r="A11" s="156"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
+      <c r="A12" s="156"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="156" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3187,7 +3187,7 @@
       <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="155"/>
+      <c r="A17" s="156"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3207,7 +3207,7 @@
       <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="155"/>
+      <c r="A18" s="156"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
+      <c r="A19" s="156"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3248,7 +3248,7 @@
       <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="155"/>
+      <c r="A20" s="156"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="155"/>
+      <c r="A21" s="156"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3289,7 +3289,7 @@
       <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="155"/>
+      <c r="A22" s="156"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="155"/>
+      <c r="A23" s="156"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="155"/>
+      <c r="A24" s="156"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="155"/>
+      <c r="A25" s="156"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="155"/>
+      <c r="A26" s="156"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="155"/>
+      <c r="A27" s="156"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="155" t="s">
+      <c r="A29" s="156" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3441,7 +3441,7 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="155"/>
+      <c r="A30" s="156"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3461,7 +3461,7 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="155"/>
+      <c r="A31" s="156"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3481,7 +3481,7 @@
       <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="155"/>
+      <c r="A32" s="156"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3501,7 +3501,7 @@
       <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="155"/>
+      <c r="A33" s="156"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3521,7 +3521,7 @@
       <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="155"/>
+      <c r="A34" s="156"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="M34" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="155" t="s">
+      <c r="A36" s="156" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3561,7 +3561,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="155"/>
+      <c r="A37" s="156"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3576,7 +3576,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="155" t="s">
+      <c r="A39" s="156" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3599,7 +3599,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="155"/>
+      <c r="A40" s="156"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3617,7 +3617,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="155"/>
+      <c r="A41" s="156"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3635,7 +3635,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="155"/>
+      <c r="A42" s="156"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3670,7 +3670,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="158" t="s">
+      <c r="A45" s="157" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3690,7 +3690,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="158"/>
+      <c r="A46" s="157"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="158" t="s">
+      <c r="A48" s="157" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3729,7 +3729,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="158"/>
+      <c r="A49" s="157"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3741,7 +3741,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="155" t="s">
+      <c r="A51" s="156" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3761,7 +3761,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="155"/>
+      <c r="A52" s="156"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3776,7 +3776,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="155"/>
+      <c r="A53" s="156"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3791,7 +3791,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="155"/>
+      <c r="A54" s="156"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3806,7 +3806,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="155"/>
+      <c r="A55" s="156"/>
       <c r="B55" s="37" t="s">
         <v>88</v>
       </c>
@@ -3824,7 +3824,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="155"/>
+      <c r="A56" s="156"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3839,7 +3839,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="155"/>
+      <c r="A57" s="156"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3854,7 +3854,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="155"/>
+      <c r="A58" s="156"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3869,7 +3869,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="155"/>
+      <c r="A59" s="156"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3884,7 +3884,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="155"/>
+      <c r="A60" s="156"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3899,7 +3899,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="155"/>
+      <c r="A61" s="156"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3917,7 +3917,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="155"/>
+      <c r="A62" s="156"/>
       <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
@@ -3935,7 +3935,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="155"/>
+      <c r="A63" s="156"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3953,7 +3953,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="155"/>
+      <c r="A64" s="156"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -3971,7 +3971,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="155"/>
+      <c r="A65" s="156"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -3989,7 +3989,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="155"/>
+      <c r="A66" s="156"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4004,7 +4004,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="155"/>
+      <c r="A67" s="156"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4019,7 +4019,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="155"/>
+      <c r="A68" s="156"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4034,7 +4034,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="155" t="s">
+      <c r="A70" s="156" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4054,7 +4054,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="155"/>
+      <c r="A71" s="156"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4066,7 +4066,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="155"/>
+      <c r="A72" s="156"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="155" t="s">
+      <c r="A74" s="156" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4103,7 +4103,7 @@
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="155"/>
+      <c r="A75" s="156"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4118,7 +4118,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="155"/>
+      <c r="A76" s="156"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4133,7 +4133,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="155"/>
+      <c r="A77" s="156"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4148,7 +4148,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="155"/>
+      <c r="A78" s="156"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4163,7 +4163,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="155"/>
+      <c r="A79" s="156"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4178,7 +4178,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="155"/>
+      <c r="A80" s="156"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4193,7 +4193,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="155"/>
+      <c r="A81" s="156"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4209,11 +4209,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4221,6 +4216,11 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4231,8 +4231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4250,106 +4250,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="163" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="192"/>
-      <c r="H1" s="211" t="s">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="165"/>
+      <c r="H1" s="184" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="212"/>
-      <c r="J1" s="213"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="186"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="195"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="168"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="207" t="s">
+      <c r="I2" s="180" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="208"/>
+      <c r="J2" s="181"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="196"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="198"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
       <c r="H3" s="144"/>
-      <c r="I3" s="207" t="s">
+      <c r="I3" s="180" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="208"/>
+      <c r="J3" s="181"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="201"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="175"/>
       <c r="F4" s="44"/>
       <c r="G4" s="32"/>
       <c r="H4" s="145"/>
-      <c r="I4" s="209" t="s">
+      <c r="I4" s="182" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="210"/>
+      <c r="J4" s="183"/>
       <c r="K4" s="143"/>
-      <c r="L4" s="160" t="s">
+      <c r="L4" s="187" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="162"/>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="189"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="93"/>
       <c r="U4" s="93"/>
-      <c r="V4" s="169" t="s">
+      <c r="V4" s="196" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="170"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="171"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="197"/>
+      <c r="Y4" s="197"/>
+      <c r="Z4" s="198"/>
       <c r="AA4" s="93"/>
       <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="203"/>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="204"/>
+      <c r="A5" s="176"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="177"/>
       <c r="F5" s="44"/>
       <c r="G5" s="32"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="165"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="191"/>
+      <c r="O5" s="191"/>
+      <c r="P5" s="192"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="93"/>
       <c r="U5" s="93"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="173"/>
-      <c r="Z5" s="174"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="200"/>
+      <c r="X5" s="200"/>
+      <c r="Y5" s="200"/>
+      <c r="Z5" s="201"/>
       <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4405,7 +4405,7 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="172" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="88" t="s">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="32"/>
-      <c r="L7" s="166" t="s">
+      <c r="L7" s="193" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
@@ -4461,7 +4461,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
+      <c r="A8" s="172"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>382</v>
       </c>
       <c r="G8" s="32"/>
-      <c r="L8" s="167"/>
+      <c r="L8" s="194"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4515,7 +4515,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="199"/>
+      <c r="A9" s="172"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>382</v>
       </c>
       <c r="G9" s="32"/>
-      <c r="L9" s="167"/>
+      <c r="L9" s="194"/>
       <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
@@ -4569,7 +4569,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="199"/>
+      <c r="A10" s="172"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>382</v>
       </c>
       <c r="G10" s="32"/>
-      <c r="L10" s="167"/>
+      <c r="L10" s="194"/>
       <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
@@ -4621,7 +4621,7 @@
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="199"/>
+      <c r="A11" s="172"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="F11" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L11" s="167"/>
+      <c r="L11" s="194"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="199"/>
+      <c r="A12" s="172"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4678,7 +4678,7 @@
       <c r="F12" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L12" s="167"/>
+      <c r="L12" s="194"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4703,7 +4703,7 @@
       <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="199"/>
+      <c r="A13" s="172"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4719,7 +4719,7 @@
       <c r="F13" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L13" s="167"/>
+      <c r="L13" s="194"/>
       <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
@@ -4744,7 +4744,7 @@
       <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="205"/>
+      <c r="A14" s="178"/>
       <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="F14" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L14" s="168"/>
+      <c r="L14" s="195"/>
       <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
@@ -4786,7 +4786,7 @@
       <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="179" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -4804,7 +4804,7 @@
       <c r="F15" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L15" s="181" t="s">
+      <c r="L15" s="208" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="112" t="s">
@@ -4822,19 +4822,19 @@
       <c r="Q15" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="V15" s="175" t="s">
+      <c r="V15" s="202" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="176"/>
-      <c r="X15" s="176"/>
-      <c r="Y15" s="176"/>
-      <c r="Z15" s="176"/>
-      <c r="AA15" s="176"/>
-      <c r="AB15" s="176"/>
-      <c r="AC15" s="177"/>
+      <c r="W15" s="203"/>
+      <c r="X15" s="203"/>
+      <c r="Y15" s="203"/>
+      <c r="Z15" s="203"/>
+      <c r="AA15" s="203"/>
+      <c r="AB15" s="203"/>
+      <c r="AC15" s="204"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="199"/>
+      <c r="A16" s="172"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4850,7 +4850,7 @@
       <c r="F16" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L16" s="182"/>
+      <c r="L16" s="209"/>
       <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
@@ -4879,7 +4879,7 @@
       <c r="AC16" s="146"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="205"/>
+      <c r="A17" s="178"/>
       <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
@@ -4895,7 +4895,7 @@
       <c r="F17" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L17" s="182"/>
+      <c r="L17" s="209"/>
       <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
@@ -4927,7 +4927,7 @@
       <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="206" t="s">
+      <c r="A18" s="179" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -4943,7 +4943,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="182"/>
+      <c r="L18" s="209"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -4975,7 +4975,7 @@
       <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="199"/>
+      <c r="A19" s="172"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="131"/>
-      <c r="L19" s="183"/>
+      <c r="L19" s="210"/>
       <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
@@ -5021,7 +5021,7 @@
       <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="199"/>
+      <c r="A20" s="172"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>194</v>
       </c>
       <c r="F20" s="131"/>
-      <c r="L20" s="181" t="s">
+      <c r="L20" s="208" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="109" t="s">
@@ -5050,7 +5050,9 @@
       <c r="P20" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="Q20" s="44"/>
+      <c r="Q20" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="V20" s="105"/>
       <c r="W20" s="99"/>
       <c r="X20" s="99"/>
@@ -5061,7 +5063,7 @@
       <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="199"/>
+      <c r="A21" s="172"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
@@ -5075,7 +5077,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="131"/>
-      <c r="L21" s="182"/>
+      <c r="L21" s="209"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5088,7 +5090,9 @@
       <c r="P21" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="Q21" s="44"/>
+      <c r="Q21" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="V21" s="108" t="s">
         <v>36</v>
       </c>
@@ -5101,7 +5105,7 @@
       <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="205"/>
+      <c r="A22" s="178"/>
       <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
@@ -5115,7 +5119,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="131"/>
-      <c r="L22" s="182"/>
+      <c r="L22" s="209"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5145,7 +5149,7 @@
       <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="206" t="s">
+      <c r="A23" s="179" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="152" t="s">
@@ -5161,7 +5165,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="131"/>
-      <c r="L23" s="182"/>
+      <c r="L23" s="209"/>
       <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
@@ -5191,7 +5195,7 @@
       <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="199"/>
+      <c r="A24" s="172"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5205,7 +5209,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="131"/>
-      <c r="L24" s="182"/>
+      <c r="L24" s="209"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5235,7 +5239,7 @@
       <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="199"/>
+      <c r="A25" s="172"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
@@ -5249,7 +5253,7 @@
         <v>206</v>
       </c>
       <c r="F25" s="131"/>
-      <c r="L25" s="182"/>
+      <c r="L25" s="209"/>
       <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
@@ -5273,7 +5277,7 @@
       <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="199"/>
+      <c r="A26" s="172"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5287,7 +5291,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="131"/>
-      <c r="L26" s="183"/>
+      <c r="L26" s="210"/>
       <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
@@ -5313,7 +5317,7 @@
       <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="199"/>
+      <c r="A27" s="172"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5327,7 +5331,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="131"/>
-      <c r="L27" s="184" t="s">
+      <c r="L27" s="211" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="84" t="s">
@@ -5359,7 +5363,7 @@
       <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="199"/>
+      <c r="A28" s="172"/>
       <c r="B28" s="78" t="s">
         <v>376</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="131"/>
-      <c r="L28" s="185"/>
+      <c r="L28" s="212"/>
       <c r="M28" s="26"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -5395,7 +5399,7 @@
       <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="205"/>
+      <c r="A29" s="178"/>
       <c r="B29" s="136" t="s">
         <v>377</v>
       </c>
@@ -5409,7 +5413,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="131"/>
-      <c r="L29" s="186"/>
+      <c r="L29" s="213"/>
       <c r="M29" s="113" t="s">
         <v>364</v>
       </c>
@@ -5433,7 +5437,7 @@
       <c r="AC29" s="106"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="199" t="s">
+      <c r="A30" s="172" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5468,7 +5472,7 @@
       <c r="AC30" s="106"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="199"/>
+      <c r="A31" s="172"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5505,7 +5509,7 @@
       <c r="AC31" s="106"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="200"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="42" t="s">
         <v>364</v>
       </c>
@@ -5569,27 +5573,27 @@
       <c r="AD33" s="93"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="187" t="s">
+      <c r="B34" s="160" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="188"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="189"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="162"/>
       <c r="J34" s="142"/>
-      <c r="L34" s="178" t="s">
+      <c r="L34" s="205" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="179"/>
-      <c r="N34" s="179"/>
-      <c r="O34" s="179"/>
-      <c r="P34" s="179"/>
-      <c r="Q34" s="179"/>
-      <c r="R34" s="179"/>
-      <c r="S34" s="180"/>
+      <c r="M34" s="206"/>
+      <c r="N34" s="206"/>
+      <c r="O34" s="206"/>
+      <c r="P34" s="206"/>
+      <c r="Q34" s="206"/>
+      <c r="R34" s="206"/>
+      <c r="S34" s="207"/>
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -7493,6 +7497,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7505,14 +7517,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090CF2FF-8646-4C46-ACF5-7A64A45ACEF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C19006-CCE5-4E33-97E8-A91B59CEAD46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="385">
   <si>
     <t>Item#</t>
   </si>
@@ -1245,6 +1245,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Conduct?</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -1952,7 +1958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2338,19 +2344,100 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2434,85 +2521,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2844,8 +2853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AA6548-4DFA-4405-951F-1160BBC52D4F}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,12 +2871,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
@@ -2901,7 +2910,7 @@
       <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="156" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2929,7 +2938,7 @@
       <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159"/>
+      <c r="A4" s="157"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2952,7 +2961,7 @@
       <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="159"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -2985,7 +2994,7 @@
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="156" t="s">
+      <c r="A7" s="155" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3010,7 +3019,7 @@
       <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="156"/>
+      <c r="A8" s="155"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3033,7 +3042,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="156"/>
+      <c r="A9" s="155"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3056,7 +3065,7 @@
       <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156"/>
+      <c r="A10" s="155"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3079,7 +3088,7 @@
       <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="156"/>
+      <c r="A11" s="155"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3102,7 +3111,7 @@
       <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="156"/>
+      <c r="A12" s="155"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3164,7 +3173,7 @@
       <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="156" t="s">
+      <c r="A16" s="155" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3187,7 +3196,7 @@
       <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="156"/>
+      <c r="A17" s="155"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3207,7 +3216,7 @@
       <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="156"/>
+      <c r="A18" s="155"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3227,7 +3236,7 @@
       <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="156"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3248,7 +3257,7 @@
       <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="156"/>
+      <c r="A20" s="155"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3269,7 +3278,7 @@
       <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="156"/>
+      <c r="A21" s="155"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3289,7 +3298,7 @@
       <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="156"/>
+      <c r="A22" s="155"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3310,7 +3319,7 @@
       <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="156"/>
+      <c r="A23" s="155"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3331,7 +3340,7 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="156"/>
+      <c r="A24" s="155"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3351,7 +3360,7 @@
       <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156"/>
+      <c r="A25" s="155"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3371,7 +3380,7 @@
       <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="156"/>
+      <c r="A26" s="155"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3391,7 +3400,7 @@
       <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="156"/>
+      <c r="A27" s="155"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3418,7 +3427,7 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="156" t="s">
+      <c r="A29" s="155" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3441,7 +3450,7 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="156"/>
+      <c r="A30" s="155"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3461,7 +3470,7 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="156"/>
+      <c r="A31" s="155"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3481,7 +3490,7 @@
       <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="156"/>
+      <c r="A32" s="155"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3501,7 +3510,7 @@
       <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="156"/>
+      <c r="A33" s="155"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3521,7 +3530,7 @@
       <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="156"/>
+      <c r="A34" s="155"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3544,7 +3553,7 @@
       <c r="M34" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="156" t="s">
+      <c r="A36" s="155" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3561,7 +3570,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="156"/>
+      <c r="A37" s="155"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3576,7 +3585,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="156" t="s">
+      <c r="A39" s="155" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3599,7 +3608,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="156"/>
+      <c r="A40" s="155"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3617,7 +3626,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="156"/>
+      <c r="A41" s="155"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3635,7 +3644,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="156"/>
+      <c r="A42" s="155"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3670,7 +3679,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="158" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3690,7 +3699,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="157"/>
+      <c r="A46" s="158"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3712,7 +3721,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="157" t="s">
+      <c r="A48" s="158" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3729,7 +3738,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="157"/>
+      <c r="A49" s="158"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3741,7 +3750,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="156" t="s">
+      <c r="A51" s="155" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3761,7 +3770,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="156"/>
+      <c r="A52" s="155"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3776,7 +3785,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="156"/>
+      <c r="A53" s="155"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3791,7 +3800,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="156"/>
+      <c r="A54" s="155"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3806,7 +3815,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="156"/>
+      <c r="A55" s="155"/>
       <c r="B55" s="37" t="s">
         <v>88</v>
       </c>
@@ -3824,7 +3833,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="156"/>
+      <c r="A56" s="155"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3839,7 +3848,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="156"/>
+      <c r="A57" s="155"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3854,7 +3863,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="156"/>
+      <c r="A58" s="155"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3869,7 +3878,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="156"/>
+      <c r="A59" s="155"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3884,7 +3893,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="156"/>
+      <c r="A60" s="155"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3899,7 +3908,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="156"/>
+      <c r="A61" s="155"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3917,7 +3926,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="156"/>
+      <c r="A62" s="155"/>
       <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
@@ -3935,7 +3944,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="156"/>
+      <c r="A63" s="155"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3953,7 +3962,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="156"/>
+      <c r="A64" s="155"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -3971,7 +3980,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="156"/>
+      <c r="A65" s="155"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -3989,7 +3998,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="156"/>
+      <c r="A66" s="155"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4004,7 +4013,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="156"/>
+      <c r="A67" s="155"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4019,7 +4028,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="156"/>
+      <c r="A68" s="155"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4034,7 +4043,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="156" t="s">
+      <c r="A70" s="155" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4054,7 +4063,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="156"/>
+      <c r="A71" s="155"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4066,7 +4075,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="156"/>
+      <c r="A72" s="155"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4082,7 +4091,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="156" t="s">
+      <c r="A74" s="155" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4103,7 +4112,7 @@
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="156"/>
+      <c r="A75" s="155"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4118,7 +4127,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="156"/>
+      <c r="A76" s="155"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4133,7 +4142,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="156"/>
+      <c r="A77" s="155"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4148,7 +4157,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="156"/>
+      <c r="A78" s="155"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4163,7 +4172,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="156"/>
+      <c r="A79" s="155"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4178,7 +4187,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="156"/>
+      <c r="A80" s="155"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4193,7 +4202,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="156"/>
+      <c r="A81" s="155"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4209,6 +4218,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4216,11 +4230,6 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4232,7 +4241,7 @@
   <dimension ref="A1:AD93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4250,106 +4259,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="190" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="165"/>
-      <c r="H1" s="184" t="s">
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="192"/>
+      <c r="H1" s="211" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="185"/>
-      <c r="J1" s="186"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="213"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="168"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="195"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="180" t="s">
+      <c r="I2" s="207" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="181"/>
+      <c r="J2" s="208"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="169"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="198"/>
       <c r="H3" s="144"/>
-      <c r="I3" s="180" t="s">
+      <c r="I3" s="207" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="181"/>
+      <c r="J3" s="208"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="201" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="175"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="202"/>
       <c r="F4" s="44"/>
       <c r="G4" s="32"/>
       <c r="H4" s="145"/>
-      <c r="I4" s="182" t="s">
+      <c r="I4" s="209" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="183"/>
+      <c r="J4" s="210"/>
       <c r="K4" s="143"/>
-      <c r="L4" s="187" t="s">
+      <c r="L4" s="160" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="188"/>
-      <c r="N4" s="188"/>
-      <c r="O4" s="188"/>
-      <c r="P4" s="189"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="162"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="93"/>
       <c r="U4" s="93"/>
-      <c r="V4" s="196" t="s">
+      <c r="V4" s="169" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="197"/>
-      <c r="X4" s="197"/>
-      <c r="Y4" s="197"/>
-      <c r="Z4" s="198"/>
+      <c r="W4" s="170"/>
+      <c r="X4" s="170"/>
+      <c r="Y4" s="170"/>
+      <c r="Z4" s="171"/>
       <c r="AA4" s="93"/>
       <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="176"/>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="177"/>
+      <c r="A5" s="203"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="204"/>
       <c r="F5" s="44"/>
       <c r="G5" s="32"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="191"/>
-      <c r="N5" s="191"/>
-      <c r="O5" s="191"/>
-      <c r="P5" s="192"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="165"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="93"/>
       <c r="U5" s="93"/>
-      <c r="V5" s="199"/>
-      <c r="W5" s="200"/>
-      <c r="X5" s="200"/>
-      <c r="Y5" s="200"/>
-      <c r="Z5" s="201"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="173"/>
+      <c r="Z5" s="174"/>
       <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4369,7 +4378,9 @@
         <v>164</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="G6" s="214" t="s">
+        <v>383</v>
+      </c>
       <c r="L6" s="48" t="s">
         <v>3</v>
       </c>
@@ -4386,6 +4397,9 @@
         <v>164</v>
       </c>
       <c r="Q6" s="44"/>
+      <c r="R6" t="s">
+        <v>383</v>
+      </c>
       <c r="U6" s="93"/>
       <c r="V6" s="94" t="s">
         <v>3</v>
@@ -4405,7 +4419,7 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="199" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="88" t="s">
@@ -4422,7 +4436,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="32"/>
-      <c r="L7" s="193" t="s">
+      <c r="L7" s="166" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
@@ -4439,6 +4453,9 @@
       </c>
       <c r="Q7" s="44" t="s">
         <v>382</v>
+      </c>
+      <c r="R7" t="s">
+        <v>384</v>
       </c>
       <c r="U7" s="93"/>
       <c r="V7" s="97" t="s">
@@ -4461,7 +4478,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4477,8 +4494,10 @@
       <c r="F8" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="L8" s="194"/>
+      <c r="G8" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="L8" s="167"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4493,6 +4512,9 @@
       </c>
       <c r="Q8" s="44" t="s">
         <v>382</v>
+      </c>
+      <c r="R8" t="s">
+        <v>384</v>
       </c>
       <c r="U8" s="93"/>
       <c r="V8" s="98" t="s">
@@ -4515,7 +4537,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="172"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4531,8 +4553,10 @@
       <c r="F9" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="L9" s="194"/>
+      <c r="G9" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="L9" s="167"/>
       <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
@@ -4547,6 +4571,9 @@
       </c>
       <c r="Q9" s="44" t="s">
         <v>382</v>
+      </c>
+      <c r="R9" t="s">
+        <v>384</v>
       </c>
       <c r="U9" s="93"/>
       <c r="V9" s="127" t="s">
@@ -4569,7 +4596,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="172"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4585,8 +4612,10 @@
       <c r="F10" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="L10" s="194"/>
+      <c r="G10" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="L10" s="167"/>
       <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
@@ -4601,6 +4630,9 @@
       </c>
       <c r="Q10" s="44" t="s">
         <v>382</v>
+      </c>
+      <c r="R10" t="s">
+        <v>384</v>
       </c>
       <c r="U10" s="93"/>
       <c r="V10" s="126" t="s">
@@ -4621,7 +4653,7 @@
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="172"/>
+      <c r="A11" s="199"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4637,7 +4669,10 @@
       <c r="F11" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L11" s="194"/>
+      <c r="G11" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="L11" s="167"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4652,6 +4687,9 @@
       </c>
       <c r="Q11" s="44" t="s">
         <v>382</v>
+      </c>
+      <c r="R11" t="s">
+        <v>384</v>
       </c>
       <c r="U11" s="26"/>
       <c r="V11" s="34"/>
@@ -4662,7 +4700,7 @@
       <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="172"/>
+      <c r="A12" s="199"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4678,7 +4716,10 @@
       <c r="F12" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L12" s="194"/>
+      <c r="G12" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="L12" s="167"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4693,6 +4734,9 @@
       </c>
       <c r="Q12" s="44" t="s">
         <v>382</v>
+      </c>
+      <c r="R12" t="s">
+        <v>384</v>
       </c>
       <c r="U12" s="93"/>
       <c r="V12" s="34"/>
@@ -4703,7 +4747,7 @@
       <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="172"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4719,7 +4763,10 @@
       <c r="F13" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L13" s="194"/>
+      <c r="G13" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="L13" s="167"/>
       <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
@@ -4734,6 +4781,9 @@
       </c>
       <c r="Q13" s="44" t="s">
         <v>382</v>
+      </c>
+      <c r="R13" t="s">
+        <v>384</v>
       </c>
       <c r="V13" s="100"/>
       <c r="W13" s="39"/>
@@ -4744,7 +4794,7 @@
       <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="178"/>
+      <c r="A14" s="205"/>
       <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
@@ -4760,7 +4810,10 @@
       <c r="F14" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L14" s="195"/>
+      <c r="G14" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="L14" s="168"/>
       <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
@@ -4775,6 +4828,9 @@
       </c>
       <c r="Q14" s="44" t="s">
         <v>382</v>
+      </c>
+      <c r="R14" t="s">
+        <v>384</v>
       </c>
       <c r="V14" s="93"/>
       <c r="W14" s="93"/>
@@ -4786,7 +4842,7 @@
       <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="179" t="s">
+      <c r="A15" s="206" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -4804,7 +4860,10 @@
       <c r="F15" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L15" s="208" t="s">
+      <c r="G15" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="L15" s="181" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="112" t="s">
@@ -4822,19 +4881,22 @@
       <c r="Q15" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="V15" s="202" t="s">
+      <c r="R15" t="s">
+        <v>384</v>
+      </c>
+      <c r="V15" s="175" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="203"/>
-      <c r="X15" s="203"/>
-      <c r="Y15" s="203"/>
-      <c r="Z15" s="203"/>
-      <c r="AA15" s="203"/>
-      <c r="AB15" s="203"/>
-      <c r="AC15" s="204"/>
+      <c r="W15" s="176"/>
+      <c r="X15" s="176"/>
+      <c r="Y15" s="176"/>
+      <c r="Z15" s="176"/>
+      <c r="AA15" s="176"/>
+      <c r="AB15" s="176"/>
+      <c r="AC15" s="177"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="172"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4850,7 +4912,10 @@
       <c r="F16" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L16" s="209"/>
+      <c r="G16" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="L16" s="182"/>
       <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
@@ -4865,6 +4930,9 @@
       </c>
       <c r="Q16" s="44" t="s">
         <v>382</v>
+      </c>
+      <c r="R16" t="s">
+        <v>384</v>
       </c>
       <c r="S16" s="32"/>
       <c r="V16" s="101" t="s">
@@ -4879,7 +4947,7 @@
       <c r="AC16" s="146"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="178"/>
+      <c r="A17" s="205"/>
       <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
@@ -4895,7 +4963,10 @@
       <c r="F17" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L17" s="209"/>
+      <c r="G17" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="L17" s="182"/>
       <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
@@ -4910,6 +4981,9 @@
       </c>
       <c r="Q17" s="44" t="s">
         <v>382</v>
+      </c>
+      <c r="R17" t="s">
+        <v>384</v>
       </c>
       <c r="V17" s="105" t="s">
         <v>220</v>
@@ -4927,7 +5001,7 @@
       <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="179" t="s">
+      <c r="A18" s="206" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -4943,7 +5017,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="209"/>
+      <c r="L18" s="182"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -4958,6 +5032,9 @@
       </c>
       <c r="Q18" s="44" t="s">
         <v>382</v>
+      </c>
+      <c r="R18" t="s">
+        <v>384</v>
       </c>
       <c r="V18" s="105" t="s">
         <v>223</v>
@@ -4975,7 +5052,7 @@
       <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="172"/>
+      <c r="A19" s="199"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
@@ -4989,7 +5066,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="131"/>
-      <c r="L19" s="210"/>
+      <c r="L19" s="183"/>
       <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
@@ -5004,6 +5081,9 @@
       </c>
       <c r="Q19" s="44" t="s">
         <v>382</v>
+      </c>
+      <c r="R19" t="s">
+        <v>384</v>
       </c>
       <c r="V19" s="105" t="s">
         <v>230</v>
@@ -5021,7 +5101,7 @@
       <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="172"/>
+      <c r="A20" s="199"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
@@ -5035,7 +5115,7 @@
         <v>194</v>
       </c>
       <c r="F20" s="131"/>
-      <c r="L20" s="208" t="s">
+      <c r="L20" s="181" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="109" t="s">
@@ -5063,7 +5143,7 @@
       <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="172"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
@@ -5077,7 +5157,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="131"/>
-      <c r="L21" s="209"/>
+      <c r="L21" s="182"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5105,7 +5185,7 @@
       <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="178"/>
+      <c r="A22" s="205"/>
       <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
@@ -5119,7 +5199,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="131"/>
-      <c r="L22" s="209"/>
+      <c r="L22" s="182"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5149,7 +5229,7 @@
       <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="179" t="s">
+      <c r="A23" s="206" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="152" t="s">
@@ -5165,7 +5245,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="131"/>
-      <c r="L23" s="209"/>
+      <c r="L23" s="182"/>
       <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
@@ -5195,7 +5275,7 @@
       <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="172"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5209,7 +5289,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="131"/>
-      <c r="L24" s="209"/>
+      <c r="L24" s="182"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5239,7 +5319,7 @@
       <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="172"/>
+      <c r="A25" s="199"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
@@ -5253,7 +5333,7 @@
         <v>206</v>
       </c>
       <c r="F25" s="131"/>
-      <c r="L25" s="209"/>
+      <c r="L25" s="182"/>
       <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
@@ -5277,7 +5357,7 @@
       <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="172"/>
+      <c r="A26" s="199"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5291,7 +5371,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="131"/>
-      <c r="L26" s="210"/>
+      <c r="L26" s="183"/>
       <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
@@ -5317,7 +5397,7 @@
       <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="172"/>
+      <c r="A27" s="199"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5331,7 +5411,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="131"/>
-      <c r="L27" s="211" t="s">
+      <c r="L27" s="184" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="84" t="s">
@@ -5363,7 +5443,7 @@
       <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="172"/>
+      <c r="A28" s="199"/>
       <c r="B28" s="78" t="s">
         <v>376</v>
       </c>
@@ -5377,7 +5457,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="131"/>
-      <c r="L28" s="212"/>
+      <c r="L28" s="185"/>
       <c r="M28" s="26"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -5399,7 +5479,7 @@
       <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="178"/>
+      <c r="A29" s="205"/>
       <c r="B29" s="136" t="s">
         <v>377</v>
       </c>
@@ -5413,7 +5493,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="131"/>
-      <c r="L29" s="213"/>
+      <c r="L29" s="186"/>
       <c r="M29" s="113" t="s">
         <v>364</v>
       </c>
@@ -5437,7 +5517,7 @@
       <c r="AC29" s="106"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="199" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5472,7 +5552,7 @@
       <c r="AC30" s="106"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="172"/>
+      <c r="A31" s="199"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5509,7 +5589,7 @@
       <c r="AC31" s="106"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
+      <c r="A32" s="200"/>
       <c r="B32" s="42" t="s">
         <v>364</v>
       </c>
@@ -5573,27 +5653,27 @@
       <c r="AD33" s="93"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="162"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="189"/>
       <c r="J34" s="142"/>
-      <c r="L34" s="205" t="s">
+      <c r="L34" s="178" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="206"/>
-      <c r="N34" s="206"/>
-      <c r="O34" s="206"/>
-      <c r="P34" s="206"/>
-      <c r="Q34" s="206"/>
-      <c r="R34" s="206"/>
-      <c r="S34" s="207"/>
+      <c r="M34" s="179"/>
+      <c r="N34" s="179"/>
+      <c r="O34" s="179"/>
+      <c r="P34" s="179"/>
+      <c r="Q34" s="179"/>
+      <c r="R34" s="179"/>
+      <c r="S34" s="180"/>
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -7497,14 +7577,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7517,6 +7589,14 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C19006-CCE5-4E33-97E8-A91B59CEAD46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9872F805-4F87-4351-82F1-C69C678AE621}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
+    <workbookView xWindow="28680" yWindow="7320" windowWidth="29040" windowHeight="15990" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="386">
   <si>
     <t>Item#</t>
   </si>
@@ -1251,6 +1251,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Ordered</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1383,6 +1386,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -1958,7 +1967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2320,7 +2329,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2344,20 +2352,104 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2440,90 +2532,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2853,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AA6548-4DFA-4405-951F-1160BBC52D4F}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,19 +2877,19 @@
     <col min="3" max="3" width="30" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="150" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="149" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
@@ -2910,7 +2923,7 @@
       <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="158" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2928,7 +2941,7 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="150">
+      <c r="G3" s="149">
         <v>1</v>
       </c>
       <c r="I3" s="69"/>
@@ -2938,7 +2951,7 @@
       <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157"/>
+      <c r="A4" s="159"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2951,7 +2964,7 @@
       <c r="E4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="150">
+      <c r="G4" s="149">
         <v>1</v>
       </c>
       <c r="I4" s="69"/>
@@ -2961,7 +2974,7 @@
       <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -2977,7 +2990,7 @@
       <c r="F5" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="150">
+      <c r="G5" s="149">
         <v>0</v>
       </c>
       <c r="I5" s="69"/>
@@ -2994,7 +3007,7 @@
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="156" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3009,7 +3022,7 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="150" t="s">
+      <c r="G7" s="149" t="s">
         <v>379</v>
       </c>
       <c r="I7" s="69"/>
@@ -3019,7 +3032,7 @@
       <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
+      <c r="A8" s="156"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3032,7 +3045,7 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="150" t="s">
+      <c r="G8" s="149" t="s">
         <v>379</v>
       </c>
       <c r="I8" s="69"/>
@@ -3042,7 +3055,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
+      <c r="A9" s="156"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3055,7 +3068,7 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="150" t="s">
+      <c r="G9" s="149" t="s">
         <v>379</v>
       </c>
       <c r="I9" s="69"/>
@@ -3065,7 +3078,7 @@
       <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
+      <c r="A10" s="156"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3078,7 +3091,7 @@
       <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="150" t="s">
+      <c r="G10" s="149" t="s">
         <v>379</v>
       </c>
       <c r="I10" s="69"/>
@@ -3088,7 +3101,7 @@
       <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
+      <c r="A11" s="156"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3101,7 +3114,7 @@
       <c r="E11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="150" t="s">
+      <c r="G11" s="149" t="s">
         <v>379</v>
       </c>
       <c r="I11" s="69"/>
@@ -3111,7 +3124,7 @@
       <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
+      <c r="A12" s="156"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3124,7 +3137,7 @@
       <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="150" t="s">
+      <c r="G12" s="149" t="s">
         <v>379</v>
       </c>
       <c r="I12" s="69"/>
@@ -3156,7 +3169,7 @@
       <c r="E14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="150">
+      <c r="G14" s="149">
         <v>1</v>
       </c>
       <c r="I14" s="69"/>
@@ -3173,7 +3186,7 @@
       <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="156" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3185,7 +3198,7 @@
       <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="G16" s="151">
+      <c r="G16" s="150">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
@@ -3196,7 +3209,7 @@
       <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="155"/>
+      <c r="A17" s="156"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3206,7 +3219,7 @@
       <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="G17" s="151">
+      <c r="G17" s="150">
         <v>2</v>
       </c>
       <c r="I17" s="69"/>
@@ -3216,7 +3229,7 @@
       <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="155"/>
+      <c r="A18" s="156"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3226,7 +3239,7 @@
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="G18" s="151">
+      <c r="G18" s="150">
         <v>1</v>
       </c>
       <c r="I18" s="69"/>
@@ -3236,7 +3249,7 @@
       <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
+      <c r="A19" s="156"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3246,7 +3259,7 @@
       <c r="D19" s="5">
         <v>10</v>
       </c>
-      <c r="G19" s="151">
+      <c r="G19" s="150">
         <f>3</f>
         <v>3</v>
       </c>
@@ -3257,7 +3270,7 @@
       <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="155"/>
+      <c r="A20" s="156"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3267,7 +3280,7 @@
       <c r="D20" s="5">
         <v>10</v>
       </c>
-      <c r="G20" s="151">
+      <c r="G20" s="150">
         <f>1+2</f>
         <v>3</v>
       </c>
@@ -3278,7 +3291,7 @@
       <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="155"/>
+      <c r="A21" s="156"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3288,7 +3301,7 @@
       <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="G21" s="151">
+      <c r="G21" s="150">
         <v>1</v>
       </c>
       <c r="I21" s="69"/>
@@ -3298,7 +3311,7 @@
       <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="155"/>
+      <c r="A22" s="156"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3308,7 +3321,7 @@
       <c r="D22" s="5">
         <v>20</v>
       </c>
-      <c r="G22" s="151">
+      <c r="G22" s="150">
         <f>2+4</f>
         <v>6</v>
       </c>
@@ -3319,7 +3332,7 @@
       <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="155"/>
+      <c r="A23" s="156"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3329,7 +3342,7 @@
       <c r="D23" s="5">
         <v>20</v>
       </c>
-      <c r="G23" s="151">
+      <c r="G23" s="150">
         <f>2+3+2</f>
         <v>7</v>
       </c>
@@ -3340,7 +3353,7 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="155"/>
+      <c r="A24" s="156"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3350,7 +3363,7 @@
       <c r="D24" s="5">
         <v>10</v>
       </c>
-      <c r="G24" s="151">
+      <c r="G24" s="150">
         <v>4</v>
       </c>
       <c r="I24" s="69"/>
@@ -3360,7 +3373,7 @@
       <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="155"/>
+      <c r="A25" s="156"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3370,7 +3383,7 @@
       <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="G25" s="151">
+      <c r="G25" s="150">
         <v>1</v>
       </c>
       <c r="I25" s="69"/>
@@ -3380,7 +3393,7 @@
       <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="155"/>
+      <c r="A26" s="156"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3390,7 +3403,7 @@
       <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="G26" s="151">
+      <c r="G26" s="150">
         <v>1</v>
       </c>
       <c r="I26" s="69"/>
@@ -3400,7 +3413,7 @@
       <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="155"/>
+      <c r="A27" s="156"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3410,7 +3423,7 @@
       <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="G27" s="151">
+      <c r="G27" s="150">
         <v>2</v>
       </c>
       <c r="I27" s="69"/>
@@ -3427,7 +3440,7 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="155" t="s">
+      <c r="A29" s="156" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3439,7 +3452,7 @@
       <c r="D29" s="5">
         <v>15</v>
       </c>
-      <c r="G29" s="151">
+      <c r="G29" s="150">
         <f>2+3</f>
         <v>5</v>
       </c>
@@ -3450,7 +3463,7 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="155"/>
+      <c r="A30" s="156"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3460,7 +3473,7 @@
       <c r="D30" s="5">
         <v>5</v>
       </c>
-      <c r="G30" s="151">
+      <c r="G30" s="150">
         <v>1</v>
       </c>
       <c r="I30" s="69"/>
@@ -3470,7 +3483,7 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="155"/>
+      <c r="A31" s="156"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3480,7 +3493,7 @@
       <c r="D31" s="5">
         <v>5</v>
       </c>
-      <c r="G31" s="151">
+      <c r="G31" s="150">
         <v>1</v>
       </c>
       <c r="I31" s="69"/>
@@ -3490,7 +3503,7 @@
       <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="155"/>
+      <c r="A32" s="156"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3500,7 +3513,7 @@
       <c r="D32" s="5">
         <v>30</v>
       </c>
-      <c r="G32" s="151">
+      <c r="G32" s="150">
         <v>14</v>
       </c>
       <c r="I32" s="69"/>
@@ -3510,7 +3523,7 @@
       <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="155"/>
+      <c r="A33" s="156"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3520,7 +3533,7 @@
       <c r="D33" s="5">
         <v>20</v>
       </c>
-      <c r="G33" s="151">
+      <c r="G33" s="150">
         <v>9</v>
       </c>
       <c r="I33" s="69"/>
@@ -3530,7 +3543,7 @@
       <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="155"/>
+      <c r="A34" s="156"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3543,7 +3556,7 @@
       <c r="E34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="150" t="s">
+      <c r="G34" s="149" t="s">
         <v>379</v>
       </c>
       <c r="I34" s="69"/>
@@ -3553,7 +3566,7 @@
       <c r="M34" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="155" t="s">
+      <c r="A36" s="156" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3565,12 +3578,12 @@
       <c r="D36" s="5">
         <v>4</v>
       </c>
-      <c r="G36" s="150">
+      <c r="G36" s="149">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="155"/>
+      <c r="A37" s="156"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3580,12 +3593,12 @@
       <c r="D37" s="5">
         <v>4</v>
       </c>
-      <c r="G37" s="150" t="s">
+      <c r="G37" s="149" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="155" t="s">
+      <c r="A39" s="156" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3603,12 +3616,12 @@
       <c r="F39" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="150">
+      <c r="G39" s="149">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="155"/>
+      <c r="A40" s="156"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3621,12 +3634,12 @@
       <c r="E40" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="150">
+      <c r="G40" s="149">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="155"/>
+      <c r="A41" s="156"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3639,12 +3652,12 @@
       <c r="E41" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="150">
+      <c r="G41" s="149">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="155"/>
+      <c r="A42" s="156"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3660,7 +3673,7 @@
       <c r="F42" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="150">
+      <c r="G42" s="149">
         <v>1</v>
       </c>
     </row>
@@ -3674,12 +3687,12 @@
       <c r="D43" s="5">
         <v>1</v>
       </c>
-      <c r="G43" s="150" t="s">
+      <c r="G43" s="149" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="158" t="s">
+      <c r="A45" s="157" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3694,12 +3707,12 @@
       <c r="E45" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="150">
+      <c r="G45" s="149">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="158"/>
+      <c r="A46" s="157"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3712,7 +3725,7 @@
       <c r="E46" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="150">
+      <c r="G46" s="149">
         <v>1</v>
       </c>
     </row>
@@ -3721,7 +3734,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="158" t="s">
+      <c r="A48" s="157" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3738,7 +3751,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="158"/>
+      <c r="A49" s="157"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3750,7 +3763,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="155" t="s">
+      <c r="A51" s="156" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3765,12 +3778,12 @@
       <c r="F51" t="s">
         <v>94</v>
       </c>
-      <c r="G51" s="150" t="s">
+      <c r="G51" s="149" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="155"/>
+      <c r="A52" s="156"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3780,12 +3793,12 @@
       <c r="D52" s="5">
         <v>4</v>
       </c>
-      <c r="G52" s="150">
+      <c r="G52" s="149">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="155"/>
+      <c r="A53" s="156"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3795,12 +3808,12 @@
       <c r="D53" s="5">
         <v>4</v>
       </c>
-      <c r="G53" s="150">
+      <c r="G53" s="149">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="155"/>
+      <c r="A54" s="156"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3810,12 +3823,12 @@
       <c r="D54" s="5">
         <v>5</v>
       </c>
-      <c r="G54" s="150">
+      <c r="G54" s="149">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="155"/>
+      <c r="A55" s="156"/>
       <c r="B55" s="37" t="s">
         <v>88</v>
       </c>
@@ -3828,12 +3841,12 @@
       <c r="E55" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="G55" s="150" t="s">
+      <c r="G55" s="149" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="155"/>
+      <c r="A56" s="156"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3843,12 +3856,12 @@
       <c r="D56" s="5">
         <v>4</v>
       </c>
-      <c r="G56" s="150">
+      <c r="G56" s="149">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="155"/>
+      <c r="A57" s="156"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3858,12 +3871,12 @@
       <c r="D57" s="5">
         <v>4</v>
       </c>
-      <c r="G57" s="150" t="s">
+      <c r="G57" s="149" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="155"/>
+      <c r="A58" s="156"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3873,12 +3886,12 @@
       <c r="D58" s="5">
         <v>5</v>
       </c>
-      <c r="G58" s="150">
+      <c r="G58" s="149">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="155"/>
+      <c r="A59" s="156"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3888,12 +3901,12 @@
       <c r="D59" s="5">
         <v>4</v>
       </c>
-      <c r="G59" s="150">
+      <c r="G59" s="149">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="155"/>
+      <c r="A60" s="156"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3908,7 +3921,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="155"/>
+      <c r="A61" s="156"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3921,12 +3934,12 @@
       <c r="E61" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G61" s="150">
+      <c r="G61" s="149">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="155"/>
+      <c r="A62" s="156"/>
       <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
@@ -3939,12 +3952,12 @@
       <c r="E62" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="G62" s="150" t="s">
+      <c r="G62" s="149" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="155"/>
+      <c r="A63" s="156"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3957,12 +3970,12 @@
       <c r="E63" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G63" s="150" t="s">
+      <c r="G63" s="149" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="155"/>
+      <c r="A64" s="156"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -3975,12 +3988,12 @@
       <c r="E64" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G64" s="150">
+      <c r="G64" s="149">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="155"/>
+      <c r="A65" s="156"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -3993,12 +4006,12 @@
       <c r="E65" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G65" s="150">
+      <c r="G65" s="149">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="155"/>
+      <c r="A66" s="156"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4013,7 +4026,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="155"/>
+      <c r="A67" s="156"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4028,7 +4041,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="155"/>
+      <c r="A68" s="156"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4043,7 +4056,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="155" t="s">
+      <c r="A70" s="156" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4058,12 +4071,12 @@
       <c r="E70" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G70" s="150">
+      <c r="G70" s="149">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="155"/>
+      <c r="A71" s="156"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4075,7 +4088,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="155"/>
+      <c r="A72" s="156"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4091,7 +4104,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="155" t="s">
+      <c r="A74" s="156" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4106,13 +4119,13 @@
       <c r="E74" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G74" s="151"/>
+      <c r="G74" s="150"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="155"/>
+      <c r="A75" s="156"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4127,7 +4140,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="155"/>
+      <c r="A76" s="156"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4142,7 +4155,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="155"/>
+      <c r="A77" s="156"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4157,7 +4170,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="155"/>
+      <c r="A78" s="156"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4172,7 +4185,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="155"/>
+      <c r="A79" s="156"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4187,7 +4200,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="155"/>
+      <c r="A80" s="156"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4202,7 +4215,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="155"/>
+      <c r="A81" s="156"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4218,11 +4231,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4230,6 +4238,11 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4240,8 +4253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4259,106 +4272,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="163" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="192"/>
-      <c r="H1" s="211" t="s">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="165"/>
+      <c r="H1" s="184" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="212"/>
-      <c r="J1" s="213"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="186"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="195"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="168"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="207" t="s">
+      <c r="I2" s="180" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="208"/>
+      <c r="J2" s="181"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="196"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="198"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
       <c r="H3" s="144"/>
-      <c r="I3" s="207" t="s">
+      <c r="I3" s="180" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="208"/>
+      <c r="J3" s="181"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="201"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="175"/>
       <c r="F4" s="44"/>
       <c r="G4" s="32"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="209" t="s">
+      <c r="H4" s="214"/>
+      <c r="I4" s="180" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="210"/>
+      <c r="J4" s="181"/>
       <c r="K4" s="143"/>
-      <c r="L4" s="160" t="s">
+      <c r="L4" s="187" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="162"/>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="189"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="93"/>
       <c r="U4" s="93"/>
-      <c r="V4" s="169" t="s">
+      <c r="V4" s="196" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="170"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="171"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="197"/>
+      <c r="Y4" s="197"/>
+      <c r="Z4" s="198"/>
       <c r="AA4" s="93"/>
       <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="203"/>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="204"/>
+      <c r="A5" s="176"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="177"/>
       <c r="F5" s="44"/>
       <c r="G5" s="32"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="165"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="182" t="s">
+        <v>385</v>
+      </c>
+      <c r="J5" s="183"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="191"/>
+      <c r="O5" s="191"/>
+      <c r="P5" s="192"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="93"/>
       <c r="U5" s="93"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="173"/>
-      <c r="Z5" s="174"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="200"/>
+      <c r="X5" s="200"/>
+      <c r="Y5" s="200"/>
+      <c r="Z5" s="201"/>
       <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4378,7 +4396,7 @@
         <v>164</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="214" t="s">
+      <c r="G6" s="154" t="s">
         <v>383</v>
       </c>
       <c r="L6" s="48" t="s">
@@ -4419,7 +4437,7 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="172" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="88" t="s">
@@ -4436,7 +4454,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="32"/>
-      <c r="L7" s="166" t="s">
+      <c r="L7" s="193" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
@@ -4478,7 +4496,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
+      <c r="A8" s="172"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4497,7 +4515,7 @@
       <c r="G8" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L8" s="167"/>
+      <c r="L8" s="194"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4537,7 +4555,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="199"/>
+      <c r="A9" s="172"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4556,7 +4574,7 @@
       <c r="G9" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="167"/>
+      <c r="L9" s="194"/>
       <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
@@ -4596,7 +4614,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="199"/>
+      <c r="A10" s="172"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4615,7 +4633,7 @@
       <c r="G10" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="167"/>
+      <c r="L10" s="194"/>
       <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
@@ -4653,7 +4671,7 @@
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="199"/>
+      <c r="A11" s="172"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4672,7 +4690,7 @@
       <c r="G11" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="167"/>
+      <c r="L11" s="194"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4700,7 +4718,7 @@
       <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="199"/>
+      <c r="A12" s="172"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4719,7 +4737,7 @@
       <c r="G12" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L12" s="167"/>
+      <c r="L12" s="194"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4747,7 +4765,7 @@
       <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="199"/>
+      <c r="A13" s="172"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4766,7 +4784,7 @@
       <c r="G13" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="167"/>
+      <c r="L13" s="194"/>
       <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
@@ -4794,7 +4812,7 @@
       <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="205"/>
+      <c r="A14" s="178"/>
       <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
@@ -4813,7 +4831,7 @@
       <c r="G14" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L14" s="168"/>
+      <c r="L14" s="195"/>
       <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
@@ -4842,7 +4860,7 @@
       <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="179" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -4863,7 +4881,7 @@
       <c r="G15" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L15" s="181" t="s">
+      <c r="L15" s="208" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="112" t="s">
@@ -4884,19 +4902,19 @@
       <c r="R15" t="s">
         <v>384</v>
       </c>
-      <c r="V15" s="175" t="s">
+      <c r="V15" s="202" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="176"/>
-      <c r="X15" s="176"/>
-      <c r="Y15" s="176"/>
-      <c r="Z15" s="176"/>
-      <c r="AA15" s="176"/>
-      <c r="AB15" s="176"/>
-      <c r="AC15" s="177"/>
+      <c r="W15" s="203"/>
+      <c r="X15" s="203"/>
+      <c r="Y15" s="203"/>
+      <c r="Z15" s="203"/>
+      <c r="AA15" s="203"/>
+      <c r="AB15" s="203"/>
+      <c r="AC15" s="204"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="199"/>
+      <c r="A16" s="172"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4915,7 +4933,7 @@
       <c r="G16" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L16" s="182"/>
+      <c r="L16" s="209"/>
       <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
@@ -4944,10 +4962,10 @@
       <c r="Z16" s="102"/>
       <c r="AA16" s="102"/>
       <c r="AB16" s="102"/>
-      <c r="AC16" s="146"/>
+      <c r="AC16" s="145"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="205"/>
+      <c r="A17" s="178"/>
       <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
@@ -4966,7 +4984,7 @@
       <c r="G17" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L17" s="182"/>
+      <c r="L17" s="209"/>
       <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
@@ -5001,7 +5019,7 @@
       <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="206" t="s">
+      <c r="A18" s="179" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -5017,7 +5035,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="182"/>
+      <c r="L18" s="209"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -5052,7 +5070,7 @@
       <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="199"/>
+      <c r="A19" s="172"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
@@ -5066,7 +5084,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="131"/>
-      <c r="L19" s="183"/>
+      <c r="L19" s="210"/>
       <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
@@ -5101,7 +5119,7 @@
       <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="199"/>
+      <c r="A20" s="172"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
@@ -5115,7 +5133,7 @@
         <v>194</v>
       </c>
       <c r="F20" s="131"/>
-      <c r="L20" s="181" t="s">
+      <c r="L20" s="208" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="109" t="s">
@@ -5143,7 +5161,7 @@
       <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="199"/>
+      <c r="A21" s="172"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
@@ -5157,7 +5175,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="131"/>
-      <c r="L21" s="182"/>
+      <c r="L21" s="209"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5185,7 +5203,7 @@
       <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="205"/>
+      <c r="A22" s="178"/>
       <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
@@ -5199,7 +5217,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="131"/>
-      <c r="L22" s="182"/>
+      <c r="L22" s="209"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5229,23 +5247,23 @@
       <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="206" t="s">
+      <c r="A23" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="152" t="s">
+      <c r="B23" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <v>1</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <v>0</v>
       </c>
-      <c r="E23" s="154" t="s">
+      <c r="E23" s="153" t="s">
         <v>202</v>
       </c>
       <c r="F23" s="131"/>
-      <c r="L23" s="182"/>
+      <c r="L23" s="209"/>
       <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
@@ -5275,7 +5293,7 @@
       <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="199"/>
+      <c r="A24" s="172"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5289,7 +5307,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="131"/>
-      <c r="L24" s="182"/>
+      <c r="L24" s="209"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5319,7 +5337,7 @@
       <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="199"/>
+      <c r="A25" s="172"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
@@ -5333,7 +5351,7 @@
         <v>206</v>
       </c>
       <c r="F25" s="131"/>
-      <c r="L25" s="182"/>
+      <c r="L25" s="209"/>
       <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
@@ -5357,7 +5375,7 @@
       <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="199"/>
+      <c r="A26" s="172"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5371,7 +5389,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="131"/>
-      <c r="L26" s="183"/>
+      <c r="L26" s="210"/>
       <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
@@ -5397,7 +5415,7 @@
       <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="199"/>
+      <c r="A27" s="172"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5411,7 +5429,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="131"/>
-      <c r="L27" s="184" t="s">
+      <c r="L27" s="211" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="84" t="s">
@@ -5443,21 +5461,21 @@
       <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="199"/>
+      <c r="A28" s="172"/>
       <c r="B28" s="78" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="149">
+      <c r="C28" s="148">
         <v>1</v>
       </c>
-      <c r="D28" s="149">
+      <c r="D28" s="148">
         <v>0</v>
       </c>
       <c r="E28" s="79" t="s">
         <v>268</v>
       </c>
       <c r="F28" s="131"/>
-      <c r="L28" s="185"/>
+      <c r="L28" s="212"/>
       <c r="M28" s="26"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -5479,7 +5497,7 @@
       <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="205"/>
+      <c r="A29" s="178"/>
       <c r="B29" s="136" t="s">
         <v>377</v>
       </c>
@@ -5493,7 +5511,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="131"/>
-      <c r="L29" s="186"/>
+      <c r="L29" s="213"/>
       <c r="M29" s="113" t="s">
         <v>364</v>
       </c>
@@ -5517,7 +5535,7 @@
       <c r="AC29" s="106"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="199" t="s">
+      <c r="A30" s="172" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5552,7 +5570,7 @@
       <c r="AC30" s="106"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="199"/>
+      <c r="A31" s="172"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5589,7 +5607,7 @@
       <c r="AC31" s="106"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="200"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="42" t="s">
         <v>364</v>
       </c>
@@ -5649,31 +5667,31 @@
       <c r="Z33" s="93"/>
       <c r="AA33" s="93"/>
       <c r="AB33" s="93"/>
-      <c r="AC33" s="148"/>
+      <c r="AC33" s="147"/>
       <c r="AD33" s="93"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="187" t="s">
+      <c r="B34" s="160" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="188"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="189"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="162"/>
       <c r="J34" s="142"/>
-      <c r="L34" s="178" t="s">
+      <c r="L34" s="205" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="179"/>
-      <c r="N34" s="179"/>
-      <c r="O34" s="179"/>
-      <c r="P34" s="179"/>
-      <c r="Q34" s="179"/>
-      <c r="R34" s="179"/>
-      <c r="S34" s="180"/>
+      <c r="M34" s="206"/>
+      <c r="N34" s="206"/>
+      <c r="O34" s="206"/>
+      <c r="P34" s="206"/>
+      <c r="Q34" s="206"/>
+      <c r="R34" s="206"/>
+      <c r="S34" s="207"/>
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -5717,7 +5735,7 @@
       <c r="AA35" s="93"/>
       <c r="AB35" s="93"/>
       <c r="AC35" s="93"/>
-      <c r="AD35" s="147"/>
+      <c r="AD35" s="146"/>
     </row>
     <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="31" t="s">
@@ -7030,20 +7048,20 @@
       <c r="T75" s="104"/>
     </row>
     <row r="76" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="77" t="s">
+      <c r="B76" s="216" t="s">
         <v>268</v>
       </c>
-      <c r="C76" s="78" t="s">
+      <c r="C76" s="215" t="s">
         <v>269</v>
       </c>
-      <c r="D76" s="78" t="s">
+      <c r="D76" s="215" t="s">
         <v>270</v>
       </c>
-      <c r="E76" s="78"/>
-      <c r="F76" s="78"/>
-      <c r="G76" s="78"/>
-      <c r="H76" s="78"/>
-      <c r="I76" s="79"/>
+      <c r="E76" s="215"/>
+      <c r="F76" s="215"/>
+      <c r="G76" s="215"/>
+      <c r="H76" s="215"/>
+      <c r="I76" s="218"/>
       <c r="J76" s="26"/>
       <c r="K76" s="93"/>
       <c r="L76" s="105" t="s">
@@ -7495,20 +7513,20 @@
       <c r="T90" s="60"/>
     </row>
     <row r="91" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="77" t="s">
+      <c r="B91" s="216" t="s">
         <v>291</v>
       </c>
-      <c r="C91" s="78" t="s">
+      <c r="C91" s="215" t="s">
         <v>292</v>
       </c>
-      <c r="D91" s="78" t="s">
+      <c r="D91" s="215" t="s">
         <v>292</v>
       </c>
-      <c r="E91" s="78"/>
-      <c r="F91" s="78"/>
-      <c r="G91" s="78"/>
-      <c r="H91" s="78"/>
-      <c r="I91" s="79"/>
+      <c r="E91" s="215"/>
+      <c r="F91" s="215"/>
+      <c r="G91" s="215"/>
+      <c r="H91" s="215"/>
+      <c r="I91" s="218"/>
       <c r="J91" s="26"/>
       <c r="L91" s="80" t="s">
         <v>215</v>
@@ -7576,7 +7594,15 @@
       <c r="T93" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7589,14 +7615,7 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9872F805-4F87-4351-82F1-C69C678AE621}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9B3DCC-C5E5-435B-A1D5-75076DD37916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="7320" windowWidth="29040" windowHeight="15990" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
+    <workbookView xWindow="28680" yWindow="7320" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -2355,188 +2355,188 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2866,7 +2866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AA6548-4DFA-4405-951F-1160BBC52D4F}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
@@ -2884,12 +2884,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
@@ -2923,7 +2923,7 @@
       <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="161" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2951,7 +2951,7 @@
       <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159"/>
+      <c r="A4" s="162"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2974,7 +2974,7 @@
       <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="159"/>
+      <c r="A5" s="162"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3007,7 +3007,7 @@
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="156" t="s">
+      <c r="A7" s="160" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3032,7 +3032,7 @@
       <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="156"/>
+      <c r="A8" s="160"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3055,7 +3055,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="156"/>
+      <c r="A9" s="160"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3078,7 +3078,7 @@
       <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156"/>
+      <c r="A10" s="160"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="156"/>
+      <c r="A11" s="160"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="156"/>
+      <c r="A12" s="160"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="156" t="s">
+      <c r="A16" s="160" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3209,7 +3209,7 @@
       <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="156"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="156"/>
+      <c r="A18" s="160"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3249,7 +3249,7 @@
       <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="156"/>
+      <c r="A19" s="160"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="156"/>
+      <c r="A20" s="160"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="156"/>
+      <c r="A21" s="160"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="156"/>
+      <c r="A22" s="160"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="156"/>
+      <c r="A23" s="160"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="156"/>
+      <c r="A24" s="160"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="156"/>
+      <c r="A26" s="160"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="156"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="156" t="s">
+      <c r="A29" s="160" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3463,7 +3463,7 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="156"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="156"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3503,7 +3503,7 @@
       <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="156"/>
+      <c r="A32" s="160"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="156"/>
+      <c r="A33" s="160"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="156"/>
+      <c r="A34" s="160"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3566,7 +3566,7 @@
       <c r="M34" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="156" t="s">
+      <c r="A36" s="160" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3583,7 +3583,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="156"/>
+      <c r="A37" s="160"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3598,7 +3598,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="156" t="s">
+      <c r="A39" s="160" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3621,7 +3621,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="156"/>
+      <c r="A40" s="160"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3639,7 +3639,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="156"/>
+      <c r="A41" s="160"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3657,7 +3657,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="156"/>
+      <c r="A42" s="160"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3692,7 +3692,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="163" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3712,7 +3712,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="157"/>
+      <c r="A46" s="163"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="157" t="s">
+      <c r="A48" s="163" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3751,7 +3751,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="157"/>
+      <c r="A49" s="163"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3763,7 +3763,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="156" t="s">
+      <c r="A51" s="160" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3783,7 +3783,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="156"/>
+      <c r="A52" s="160"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3798,7 +3798,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="156"/>
+      <c r="A53" s="160"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3813,7 +3813,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="156"/>
+      <c r="A54" s="160"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3828,7 +3828,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="156"/>
+      <c r="A55" s="160"/>
       <c r="B55" s="37" t="s">
         <v>88</v>
       </c>
@@ -3846,7 +3846,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="156"/>
+      <c r="A56" s="160"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3861,7 +3861,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="156"/>
+      <c r="A57" s="160"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3876,7 +3876,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="156"/>
+      <c r="A58" s="160"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3891,7 +3891,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="156"/>
+      <c r="A59" s="160"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3906,7 +3906,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="156"/>
+      <c r="A60" s="160"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3921,7 +3921,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="156"/>
+      <c r="A61" s="160"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3939,7 +3939,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="156"/>
+      <c r="A62" s="160"/>
       <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
@@ -3957,7 +3957,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="156"/>
+      <c r="A63" s="160"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3975,7 +3975,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="156"/>
+      <c r="A64" s="160"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -3993,7 +3993,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="156"/>
+      <c r="A65" s="160"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -4011,7 +4011,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="156"/>
+      <c r="A66" s="160"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4026,7 +4026,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="156"/>
+      <c r="A67" s="160"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4041,7 +4041,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="156"/>
+      <c r="A68" s="160"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4056,7 +4056,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="156" t="s">
+      <c r="A70" s="160" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4076,7 +4076,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="156"/>
+      <c r="A71" s="160"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4088,7 +4088,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="156"/>
+      <c r="A72" s="160"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="156" t="s">
+      <c r="A74" s="160" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4125,7 +4125,7 @@
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="156"/>
+      <c r="A75" s="160"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4140,7 +4140,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="156"/>
+      <c r="A76" s="160"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4155,7 +4155,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="156"/>
+      <c r="A77" s="160"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4170,7 +4170,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="156"/>
+      <c r="A78" s="160"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="156"/>
+      <c r="A79" s="160"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4200,7 +4200,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="156"/>
+      <c r="A80" s="160"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4215,7 +4215,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="156"/>
+      <c r="A81" s="160"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4231,6 +4231,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4238,11 +4243,6 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4253,8 +4253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4272,111 +4272,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="195" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="165"/>
-      <c r="H1" s="184" t="s">
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="197"/>
+      <c r="H1" s="214" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="185"/>
-      <c r="J1" s="186"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="216"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="168"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="180" t="s">
+      <c r="I2" s="212" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="181"/>
+      <c r="J2" s="213"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="169"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="203"/>
       <c r="H3" s="144"/>
-      <c r="I3" s="180" t="s">
+      <c r="I3" s="212" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="181"/>
+      <c r="J3" s="213"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="206" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="175"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="207"/>
       <c r="F4" s="44"/>
       <c r="G4" s="32"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="180" t="s">
+      <c r="H4" s="155"/>
+      <c r="I4" s="212" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="181"/>
+      <c r="J4" s="213"/>
       <c r="K4" s="143"/>
-      <c r="L4" s="187" t="s">
+      <c r="L4" s="165" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="188"/>
-      <c r="N4" s="188"/>
-      <c r="O4" s="188"/>
-      <c r="P4" s="189"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="167"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="93"/>
       <c r="U4" s="93"/>
-      <c r="V4" s="196" t="s">
+      <c r="V4" s="174" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="197"/>
-      <c r="X4" s="197"/>
-      <c r="Y4" s="197"/>
-      <c r="Z4" s="198"/>
+      <c r="W4" s="175"/>
+      <c r="X4" s="175"/>
+      <c r="Y4" s="175"/>
+      <c r="Z4" s="176"/>
       <c r="AA4" s="93"/>
       <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="176"/>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="177"/>
+      <c r="A5" s="208"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="209"/>
       <c r="F5" s="44"/>
       <c r="G5" s="32"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="182" t="s">
+      <c r="H5" s="158"/>
+      <c r="I5" s="217" t="s">
         <v>385</v>
       </c>
-      <c r="J5" s="183"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="191"/>
-      <c r="N5" s="191"/>
-      <c r="O5" s="191"/>
-      <c r="P5" s="192"/>
+      <c r="J5" s="218"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="170"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="93"/>
       <c r="U5" s="93"/>
-      <c r="V5" s="199"/>
-      <c r="W5" s="200"/>
-      <c r="X5" s="200"/>
-      <c r="Y5" s="200"/>
-      <c r="Z5" s="201"/>
+      <c r="V5" s="177"/>
+      <c r="W5" s="178"/>
+      <c r="X5" s="178"/>
+      <c r="Y5" s="178"/>
+      <c r="Z5" s="179"/>
       <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4437,7 +4437,7 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="204" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="88" t="s">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="32"/>
-      <c r="L7" s="193" t="s">
+      <c r="L7" s="171" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
@@ -4496,7 +4496,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
+      <c r="A8" s="204"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="G8" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L8" s="194"/>
+      <c r="L8" s="172"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4555,7 +4555,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="172"/>
+      <c r="A9" s="204"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4574,7 +4574,7 @@
       <c r="G9" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="194"/>
+      <c r="L9" s="172"/>
       <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
@@ -4614,7 +4614,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="172"/>
+      <c r="A10" s="204"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4633,7 +4633,7 @@
       <c r="G10" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="194"/>
+      <c r="L10" s="172"/>
       <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
@@ -4671,7 +4671,7 @@
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="172"/>
+      <c r="A11" s="204"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4690,7 +4690,7 @@
       <c r="G11" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="194"/>
+      <c r="L11" s="172"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4718,7 +4718,7 @@
       <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="172"/>
+      <c r="A12" s="204"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4737,7 +4737,7 @@
       <c r="G12" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L12" s="194"/>
+      <c r="L12" s="172"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4765,7 +4765,7 @@
       <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="172"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="G13" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="194"/>
+      <c r="L13" s="172"/>
       <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="178"/>
+      <c r="A14" s="210"/>
       <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
@@ -4831,7 +4831,7 @@
       <c r="G14" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L14" s="195"/>
+      <c r="L14" s="173"/>
       <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
@@ -4860,7 +4860,7 @@
       <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="179" t="s">
+      <c r="A15" s="211" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -4881,7 +4881,7 @@
       <c r="G15" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L15" s="208" t="s">
+      <c r="L15" s="186" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="112" t="s">
@@ -4902,19 +4902,19 @@
       <c r="R15" t="s">
         <v>384</v>
       </c>
-      <c r="V15" s="202" t="s">
+      <c r="V15" s="180" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="203"/>
-      <c r="X15" s="203"/>
-      <c r="Y15" s="203"/>
-      <c r="Z15" s="203"/>
-      <c r="AA15" s="203"/>
-      <c r="AB15" s="203"/>
-      <c r="AC15" s="204"/>
+      <c r="W15" s="181"/>
+      <c r="X15" s="181"/>
+      <c r="Y15" s="181"/>
+      <c r="Z15" s="181"/>
+      <c r="AA15" s="181"/>
+      <c r="AB15" s="181"/>
+      <c r="AC15" s="182"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="172"/>
+      <c r="A16" s="204"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4933,7 +4933,7 @@
       <c r="G16" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L16" s="209"/>
+      <c r="L16" s="187"/>
       <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
@@ -4965,7 +4965,7 @@
       <c r="AC16" s="145"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="178"/>
+      <c r="A17" s="210"/>
       <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
@@ -4984,7 +4984,7 @@
       <c r="G17" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L17" s="209"/>
+      <c r="L17" s="187"/>
       <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
@@ -5019,7 +5019,7 @@
       <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="179" t="s">
+      <c r="A18" s="211" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -5035,7 +5035,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="209"/>
+      <c r="L18" s="187"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -5070,7 +5070,7 @@
       <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="172"/>
+      <c r="A19" s="204"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="131"/>
-      <c r="L19" s="210"/>
+      <c r="L19" s="188"/>
       <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
@@ -5119,7 +5119,7 @@
       <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="172"/>
+      <c r="A20" s="204"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>194</v>
       </c>
       <c r="F20" s="131"/>
-      <c r="L20" s="208" t="s">
+      <c r="L20" s="186" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="109" t="s">
@@ -5161,7 +5161,7 @@
       <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="172"/>
+      <c r="A21" s="204"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="131"/>
-      <c r="L21" s="209"/>
+      <c r="L21" s="187"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5203,7 +5203,7 @@
       <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="178"/>
+      <c r="A22" s="210"/>
       <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="131"/>
-      <c r="L22" s="209"/>
+      <c r="L22" s="187"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5247,7 +5247,7 @@
       <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="179" t="s">
+      <c r="A23" s="211" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="151" t="s">
@@ -5263,7 +5263,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="131"/>
-      <c r="L23" s="209"/>
+      <c r="L23" s="187"/>
       <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
@@ -5293,7 +5293,7 @@
       <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="172"/>
+      <c r="A24" s="204"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="131"/>
-      <c r="L24" s="209"/>
+      <c r="L24" s="187"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5337,7 +5337,7 @@
       <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="172"/>
+      <c r="A25" s="204"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>206</v>
       </c>
       <c r="F25" s="131"/>
-      <c r="L25" s="209"/>
+      <c r="L25" s="187"/>
       <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
@@ -5375,7 +5375,7 @@
       <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="172"/>
+      <c r="A26" s="204"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="131"/>
-      <c r="L26" s="210"/>
+      <c r="L26" s="188"/>
       <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
@@ -5415,7 +5415,7 @@
       <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="172"/>
+      <c r="A27" s="204"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="131"/>
-      <c r="L27" s="211" t="s">
+      <c r="L27" s="189" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="84" t="s">
@@ -5461,7 +5461,7 @@
       <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="172"/>
+      <c r="A28" s="204"/>
       <c r="B28" s="78" t="s">
         <v>376</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="131"/>
-      <c r="L28" s="212"/>
+      <c r="L28" s="190"/>
       <c r="M28" s="26"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -5497,7 +5497,7 @@
       <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="178"/>
+      <c r="A29" s="210"/>
       <c r="B29" s="136" t="s">
         <v>377</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="131"/>
-      <c r="L29" s="213"/>
+      <c r="L29" s="191"/>
       <c r="M29" s="113" t="s">
         <v>364</v>
       </c>
@@ -5535,7 +5535,7 @@
       <c r="AC29" s="106"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="204" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5570,7 +5570,7 @@
       <c r="AC30" s="106"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="172"/>
+      <c r="A31" s="204"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5607,7 +5607,7 @@
       <c r="AC31" s="106"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
+      <c r="A32" s="205"/>
       <c r="B32" s="42" t="s">
         <v>364</v>
       </c>
@@ -5671,27 +5671,27 @@
       <c r="AD33" s="93"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="192" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="162"/>
+      <c r="C34" s="193"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="194"/>
       <c r="J34" s="142"/>
-      <c r="L34" s="205" t="s">
+      <c r="L34" s="183" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="206"/>
-      <c r="N34" s="206"/>
-      <c r="O34" s="206"/>
-      <c r="P34" s="206"/>
-      <c r="Q34" s="206"/>
-      <c r="R34" s="206"/>
-      <c r="S34" s="207"/>
+      <c r="M34" s="184"/>
+      <c r="N34" s="184"/>
+      <c r="O34" s="184"/>
+      <c r="P34" s="184"/>
+      <c r="Q34" s="184"/>
+      <c r="R34" s="184"/>
+      <c r="S34" s="185"/>
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -7048,20 +7048,20 @@
       <c r="T75" s="104"/>
     </row>
     <row r="76" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="216" t="s">
+      <c r="B76" s="157" t="s">
         <v>268</v>
       </c>
-      <c r="C76" s="215" t="s">
+      <c r="C76" s="156" t="s">
         <v>269</v>
       </c>
-      <c r="D76" s="215" t="s">
+      <c r="D76" s="156" t="s">
         <v>270</v>
       </c>
-      <c r="E76" s="215"/>
-      <c r="F76" s="215"/>
-      <c r="G76" s="215"/>
-      <c r="H76" s="215"/>
-      <c r="I76" s="218"/>
+      <c r="E76" s="156"/>
+      <c r="F76" s="156"/>
+      <c r="G76" s="156"/>
+      <c r="H76" s="156"/>
+      <c r="I76" s="159"/>
       <c r="J76" s="26"/>
       <c r="K76" s="93"/>
       <c r="L76" s="105" t="s">
@@ -7513,20 +7513,20 @@
       <c r="T90" s="60"/>
     </row>
     <row r="91" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="216" t="s">
+      <c r="B91" s="157" t="s">
         <v>291</v>
       </c>
-      <c r="C91" s="215" t="s">
+      <c r="C91" s="156" t="s">
         <v>292</v>
       </c>
-      <c r="D91" s="215" t="s">
+      <c r="D91" s="156" t="s">
         <v>292</v>
       </c>
-      <c r="E91" s="215"/>
-      <c r="F91" s="215"/>
-      <c r="G91" s="215"/>
-      <c r="H91" s="215"/>
-      <c r="I91" s="218"/>
+      <c r="E91" s="156"/>
+      <c r="F91" s="156"/>
+      <c r="G91" s="156"/>
+      <c r="H91" s="156"/>
+      <c r="I91" s="159"/>
       <c r="J91" s="26"/>
       <c r="L91" s="80" t="s">
         <v>215</v>
@@ -7595,14 +7595,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7616,6 +7608,14 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9B3DCC-C5E5-435B-A1D5-75076DD37916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0153F5-A052-4292-8867-22458F3B1BA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="7320" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
+    <workbookView xWindow="-13710" yWindow="-90" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -2360,20 +2360,101 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2455,87 +2536,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2884,12 +2884,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
@@ -2923,7 +2923,7 @@
       <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="163" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2951,7 +2951,7 @@
       <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162"/>
+      <c r="A4" s="164"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2974,7 +2974,7 @@
       <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="162"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3007,7 +3007,7 @@
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="161" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3032,7 +3032,7 @@
       <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
+      <c r="A8" s="161"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3055,7 +3055,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
+      <c r="A9" s="161"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3078,7 +3078,7 @@
       <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
+      <c r="A10" s="161"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="160"/>
+      <c r="A11" s="161"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
+      <c r="A12" s="161"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="160" t="s">
+      <c r="A16" s="161" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3209,7 +3209,7 @@
       <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="160"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="160"/>
+      <c r="A18" s="161"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3249,7 +3249,7 @@
       <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="160"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="160"/>
+      <c r="A20" s="161"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="160"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
+      <c r="A22" s="161"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="160"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="160"/>
+      <c r="A24" s="161"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="160"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="160"/>
+      <c r="A26" s="161"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="160"/>
+      <c r="A27" s="161"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="160" t="s">
+      <c r="A29" s="161" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3463,7 +3463,7 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="160"/>
+      <c r="A30" s="161"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="160"/>
+      <c r="A31" s="161"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3503,7 +3503,7 @@
       <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="160"/>
+      <c r="A32" s="161"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="160"/>
+      <c r="A33" s="161"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="160"/>
+      <c r="A34" s="161"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3566,7 +3566,7 @@
       <c r="M34" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="161" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3583,7 +3583,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="160"/>
+      <c r="A37" s="161"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3598,7 +3598,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="160" t="s">
+      <c r="A39" s="161" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3621,7 +3621,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="160"/>
+      <c r="A40" s="161"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3639,7 +3639,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="160"/>
+      <c r="A41" s="161"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3657,7 +3657,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="160"/>
+      <c r="A42" s="161"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3692,7 +3692,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="162" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3712,7 +3712,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="163"/>
+      <c r="A46" s="162"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="163" t="s">
+      <c r="A48" s="162" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3751,7 +3751,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="163"/>
+      <c r="A49" s="162"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3763,7 +3763,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="160" t="s">
+      <c r="A51" s="161" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3783,7 +3783,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="160"/>
+      <c r="A52" s="161"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3798,7 +3798,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="160"/>
+      <c r="A53" s="161"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3813,7 +3813,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="160"/>
+      <c r="A54" s="161"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3828,7 +3828,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="160"/>
+      <c r="A55" s="161"/>
       <c r="B55" s="37" t="s">
         <v>88</v>
       </c>
@@ -3846,7 +3846,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="160"/>
+      <c r="A56" s="161"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3861,7 +3861,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="160"/>
+      <c r="A57" s="161"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3876,7 +3876,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="160"/>
+      <c r="A58" s="161"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3891,7 +3891,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="160"/>
+      <c r="A59" s="161"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3906,7 +3906,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="160"/>
+      <c r="A60" s="161"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3921,7 +3921,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="160"/>
+      <c r="A61" s="161"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3939,7 +3939,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="160"/>
+      <c r="A62" s="161"/>
       <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
@@ -3957,7 +3957,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="160"/>
+      <c r="A63" s="161"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3975,7 +3975,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="160"/>
+      <c r="A64" s="161"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -3993,7 +3993,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="160"/>
+      <c r="A65" s="161"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -4011,7 +4011,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="160"/>
+      <c r="A66" s="161"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4026,7 +4026,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="160"/>
+      <c r="A67" s="161"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4041,7 +4041,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="160"/>
+      <c r="A68" s="161"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4056,7 +4056,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="160" t="s">
+      <c r="A70" s="161" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4076,7 +4076,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="160"/>
+      <c r="A71" s="161"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4088,7 +4088,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="160"/>
+      <c r="A72" s="161"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="160" t="s">
+      <c r="A74" s="161" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4125,7 +4125,7 @@
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="160"/>
+      <c r="A75" s="161"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4140,7 +4140,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="160"/>
+      <c r="A76" s="161"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4155,7 +4155,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="160"/>
+      <c r="A77" s="161"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4170,7 +4170,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="160"/>
+      <c r="A78" s="161"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="160"/>
+      <c r="A79" s="161"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4200,7 +4200,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="160"/>
+      <c r="A80" s="161"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4215,7 +4215,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="160"/>
+      <c r="A81" s="161"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4231,11 +4231,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4243,6 +4238,11 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4253,8 +4253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4272,111 +4272,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="168" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="197"/>
-      <c r="H1" s="214" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="170"/>
+      <c r="H1" s="187" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="215"/>
-      <c r="J1" s="216"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="189"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="198"/>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="200"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="173"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="212" t="s">
+      <c r="I2" s="185" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="213"/>
+      <c r="J2" s="186"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="201"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="203"/>
+      <c r="A3" s="174"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="176"/>
       <c r="H3" s="144"/>
-      <c r="I3" s="212" t="s">
+      <c r="I3" s="185" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="213"/>
+      <c r="J3" s="186"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="206" t="s">
+      <c r="A4" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="206"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="207"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="180"/>
       <c r="F4" s="44"/>
       <c r="G4" s="32"/>
       <c r="H4" s="155"/>
-      <c r="I4" s="212" t="s">
+      <c r="I4" s="185" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="213"/>
+      <c r="J4" s="186"/>
       <c r="K4" s="143"/>
-      <c r="L4" s="165" t="s">
+      <c r="L4" s="192" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="167"/>
+      <c r="M4" s="193"/>
+      <c r="N4" s="193"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="194"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="93"/>
       <c r="U4" s="93"/>
-      <c r="V4" s="174" t="s">
+      <c r="V4" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="175"/>
-      <c r="X4" s="175"/>
-      <c r="Y4" s="175"/>
-      <c r="Z4" s="176"/>
+      <c r="W4" s="202"/>
+      <c r="X4" s="202"/>
+      <c r="Y4" s="202"/>
+      <c r="Z4" s="203"/>
       <c r="AA4" s="93"/>
       <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="208"/>
-      <c r="B5" s="208"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="209"/>
+      <c r="A5" s="181"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="182"/>
       <c r="F5" s="44"/>
       <c r="G5" s="32"/>
       <c r="H5" s="158"/>
-      <c r="I5" s="217" t="s">
+      <c r="I5" s="190" t="s">
         <v>385</v>
       </c>
-      <c r="J5" s="218"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="170"/>
+      <c r="J5" s="191"/>
+      <c r="L5" s="195"/>
+      <c r="M5" s="196"/>
+      <c r="N5" s="196"/>
+      <c r="O5" s="196"/>
+      <c r="P5" s="197"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="93"/>
       <c r="U5" s="93"/>
-      <c r="V5" s="177"/>
-      <c r="W5" s="178"/>
-      <c r="X5" s="178"/>
-      <c r="Y5" s="178"/>
-      <c r="Z5" s="179"/>
+      <c r="V5" s="204"/>
+      <c r="W5" s="205"/>
+      <c r="X5" s="205"/>
+      <c r="Y5" s="205"/>
+      <c r="Z5" s="206"/>
       <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4437,7 +4437,7 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="204" t="s">
+      <c r="A7" s="177" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="88" t="s">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="32"/>
-      <c r="L7" s="171" t="s">
+      <c r="L7" s="198" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
@@ -4496,7 +4496,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="204"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="G8" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L8" s="172"/>
+      <c r="L8" s="199"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4555,7 +4555,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="204"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4574,7 +4574,7 @@
       <c r="G9" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="172"/>
+      <c r="L9" s="199"/>
       <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
@@ -4614,7 +4614,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="204"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4633,7 +4633,7 @@
       <c r="G10" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="172"/>
+      <c r="L10" s="199"/>
       <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
@@ -4671,7 +4671,7 @@
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="204"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4690,7 +4690,7 @@
       <c r="G11" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="172"/>
+      <c r="L11" s="199"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4718,7 +4718,7 @@
       <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="204"/>
+      <c r="A12" s="177"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4737,7 +4737,7 @@
       <c r="G12" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L12" s="172"/>
+      <c r="L12" s="199"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4765,7 +4765,7 @@
       <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="204"/>
+      <c r="A13" s="177"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="G13" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="172"/>
+      <c r="L13" s="199"/>
       <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="210"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
@@ -4831,7 +4831,7 @@
       <c r="G14" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L14" s="173"/>
+      <c r="L14" s="200"/>
       <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
@@ -4860,7 +4860,7 @@
       <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="211" t="s">
+      <c r="A15" s="184" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -4881,7 +4881,7 @@
       <c r="G15" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L15" s="186" t="s">
+      <c r="L15" s="213" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="112" t="s">
@@ -4902,19 +4902,19 @@
       <c r="R15" t="s">
         <v>384</v>
       </c>
-      <c r="V15" s="180" t="s">
+      <c r="V15" s="207" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="181"/>
-      <c r="X15" s="181"/>
-      <c r="Y15" s="181"/>
-      <c r="Z15" s="181"/>
-      <c r="AA15" s="181"/>
-      <c r="AB15" s="181"/>
-      <c r="AC15" s="182"/>
+      <c r="W15" s="208"/>
+      <c r="X15" s="208"/>
+      <c r="Y15" s="208"/>
+      <c r="Z15" s="208"/>
+      <c r="AA15" s="208"/>
+      <c r="AB15" s="208"/>
+      <c r="AC15" s="209"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="204"/>
+      <c r="A16" s="177"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4933,7 +4933,7 @@
       <c r="G16" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L16" s="187"/>
+      <c r="L16" s="214"/>
       <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
@@ -4965,7 +4965,7 @@
       <c r="AC16" s="145"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="210"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
@@ -4984,7 +4984,7 @@
       <c r="G17" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L17" s="187"/>
+      <c r="L17" s="214"/>
       <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
@@ -5019,7 +5019,7 @@
       <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="211" t="s">
+      <c r="A18" s="184" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -5035,7 +5035,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="187"/>
+      <c r="L18" s="214"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -5070,7 +5070,7 @@
       <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="204"/>
+      <c r="A19" s="177"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="131"/>
-      <c r="L19" s="188"/>
+      <c r="L19" s="215"/>
       <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
@@ -5119,7 +5119,7 @@
       <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="204"/>
+      <c r="A20" s="177"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>194</v>
       </c>
       <c r="F20" s="131"/>
-      <c r="L20" s="186" t="s">
+      <c r="L20" s="213" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="109" t="s">
@@ -5161,7 +5161,7 @@
       <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="204"/>
+      <c r="A21" s="177"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="131"/>
-      <c r="L21" s="187"/>
+      <c r="L21" s="214"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5203,7 +5203,7 @@
       <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="210"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="131"/>
-      <c r="L22" s="187"/>
+      <c r="L22" s="214"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5247,7 +5247,7 @@
       <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="211" t="s">
+      <c r="A23" s="184" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="151" t="s">
@@ -5263,7 +5263,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="131"/>
-      <c r="L23" s="187"/>
+      <c r="L23" s="214"/>
       <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
@@ -5293,7 +5293,7 @@
       <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="204"/>
+      <c r="A24" s="177"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="131"/>
-      <c r="L24" s="187"/>
+      <c r="L24" s="214"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5337,7 +5337,7 @@
       <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="204"/>
+      <c r="A25" s="177"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>206</v>
       </c>
       <c r="F25" s="131"/>
-      <c r="L25" s="187"/>
+      <c r="L25" s="214"/>
       <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
@@ -5375,7 +5375,7 @@
       <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="204"/>
+      <c r="A26" s="177"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="131"/>
-      <c r="L26" s="188"/>
+      <c r="L26" s="215"/>
       <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
@@ -5415,7 +5415,7 @@
       <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="204"/>
+      <c r="A27" s="177"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="131"/>
-      <c r="L27" s="189" t="s">
+      <c r="L27" s="216" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="84" t="s">
@@ -5461,7 +5461,7 @@
       <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="204"/>
+      <c r="A28" s="177"/>
       <c r="B28" s="78" t="s">
         <v>376</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="131"/>
-      <c r="L28" s="190"/>
+      <c r="L28" s="217"/>
       <c r="M28" s="26"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -5497,7 +5497,7 @@
       <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="210"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="136" t="s">
         <v>377</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="131"/>
-      <c r="L29" s="191"/>
+      <c r="L29" s="218"/>
       <c r="M29" s="113" t="s">
         <v>364</v>
       </c>
@@ -5535,7 +5535,7 @@
       <c r="AC29" s="106"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="204" t="s">
+      <c r="A30" s="177" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5570,7 +5570,7 @@
       <c r="AC30" s="106"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="204"/>
+      <c r="A31" s="177"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5607,7 +5607,7 @@
       <c r="AC31" s="106"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="205"/>
+      <c r="A32" s="178"/>
       <c r="B32" s="42" t="s">
         <v>364</v>
       </c>
@@ -5671,27 +5671,27 @@
       <c r="AD33" s="93"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="192" t="s">
+      <c r="B34" s="165" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="193"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="194"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="166"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="167"/>
       <c r="J34" s="142"/>
-      <c r="L34" s="183" t="s">
+      <c r="L34" s="210" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="184"/>
-      <c r="N34" s="184"/>
-      <c r="O34" s="184"/>
-      <c r="P34" s="184"/>
-      <c r="Q34" s="184"/>
-      <c r="R34" s="184"/>
-      <c r="S34" s="185"/>
+      <c r="M34" s="211"/>
+      <c r="N34" s="211"/>
+      <c r="O34" s="211"/>
+      <c r="P34" s="211"/>
+      <c r="Q34" s="211"/>
+      <c r="R34" s="211"/>
+      <c r="S34" s="212"/>
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -7595,6 +7595,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7608,14 +7616,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0153F5-A052-4292-8867-22458F3B1BA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315788E9-B6D7-4BD3-AB04-21A1CC577F0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13710" yWindow="-90" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -1355,7 +1355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1392,6 +1392,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -1967,7 +1973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2272,18 +2278,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2315,15 +2309,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2338,9 +2323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2358,21 +2340,101 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2456,86 +2518,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2545,9 +2553,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC6600"/>
       <color rgb="FF666699"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FFCC6600"/>
       <color rgb="FF00CC66"/>
       <color rgb="FF009999"/>
       <color rgb="FFCC3300"/>
@@ -2877,19 +2885,19 @@
     <col min="3" max="3" width="30" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="149" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="141" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
@@ -2923,7 +2931,7 @@
       <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2941,7 +2949,7 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="149">
+      <c r="G3" s="141">
         <v>1</v>
       </c>
       <c r="I3" s="69"/>
@@ -2951,7 +2959,7 @@
       <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="164"/>
+      <c r="A4" s="153"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2964,7 +2972,7 @@
       <c r="E4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="149">
+      <c r="G4" s="141">
         <v>1</v>
       </c>
       <c r="I4" s="69"/>
@@ -2974,7 +2982,7 @@
       <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="164"/>
+      <c r="A5" s="153"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -2990,7 +2998,7 @@
       <c r="F5" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="149">
+      <c r="G5" s="141">
         <v>0</v>
       </c>
       <c r="I5" s="69"/>
@@ -3007,7 +3015,7 @@
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="151" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3022,7 +3030,7 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="149" t="s">
+      <c r="G7" s="141" t="s">
         <v>379</v>
       </c>
       <c r="I7" s="69"/>
@@ -3032,7 +3040,7 @@
       <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
+      <c r="A8" s="151"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3045,7 +3053,7 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="149" t="s">
+      <c r="G8" s="141" t="s">
         <v>379</v>
       </c>
       <c r="I8" s="69"/>
@@ -3055,7 +3063,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="161"/>
+      <c r="A9" s="151"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3068,7 +3076,7 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="149" t="s">
+      <c r="G9" s="141" t="s">
         <v>379</v>
       </c>
       <c r="I9" s="69"/>
@@ -3078,7 +3086,7 @@
       <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="161"/>
+      <c r="A10" s="151"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3091,7 +3099,7 @@
       <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="149" t="s">
+      <c r="G10" s="141" t="s">
         <v>379</v>
       </c>
       <c r="I10" s="69"/>
@@ -3101,7 +3109,7 @@
       <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="161"/>
+      <c r="A11" s="151"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3114,7 +3122,7 @@
       <c r="E11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="149" t="s">
+      <c r="G11" s="141" t="s">
         <v>379</v>
       </c>
       <c r="I11" s="69"/>
@@ -3124,7 +3132,7 @@
       <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="161"/>
+      <c r="A12" s="151"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3137,7 +3145,7 @@
       <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="149" t="s">
+      <c r="G12" s="141" t="s">
         <v>379</v>
       </c>
       <c r="I12" s="69"/>
@@ -3169,7 +3177,7 @@
       <c r="E14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="149">
+      <c r="G14" s="141">
         <v>1</v>
       </c>
       <c r="I14" s="69"/>
@@ -3186,7 +3194,7 @@
       <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="151" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3198,7 +3206,7 @@
       <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="G16" s="150">
+      <c r="G16" s="142">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
@@ -3209,7 +3217,7 @@
       <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3219,7 +3227,7 @@
       <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="G17" s="150">
+      <c r="G17" s="142">
         <v>2</v>
       </c>
       <c r="I17" s="69"/>
@@ -3229,7 +3237,7 @@
       <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
+      <c r="A18" s="151"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3239,7 +3247,7 @@
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="G18" s="150">
+      <c r="G18" s="142">
         <v>1</v>
       </c>
       <c r="I18" s="69"/>
@@ -3249,7 +3257,7 @@
       <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
+      <c r="A19" s="151"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3259,7 +3267,7 @@
       <c r="D19" s="5">
         <v>10</v>
       </c>
-      <c r="G19" s="150">
+      <c r="G19" s="142">
         <f>3</f>
         <v>3</v>
       </c>
@@ -3270,7 +3278,7 @@
       <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
+      <c r="A20" s="151"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3280,7 +3288,7 @@
       <c r="D20" s="5">
         <v>10</v>
       </c>
-      <c r="G20" s="150">
+      <c r="G20" s="142">
         <f>1+2</f>
         <v>3</v>
       </c>
@@ -3291,7 +3299,7 @@
       <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="161"/>
+      <c r="A21" s="151"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3301,7 +3309,7 @@
       <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="G21" s="150">
+      <c r="G21" s="142">
         <v>1</v>
       </c>
       <c r="I21" s="69"/>
@@ -3311,7 +3319,7 @@
       <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
+      <c r="A22" s="151"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3321,7 +3329,7 @@
       <c r="D22" s="5">
         <v>20</v>
       </c>
-      <c r="G22" s="150">
+      <c r="G22" s="142">
         <f>2+4</f>
         <v>6</v>
       </c>
@@ -3332,7 +3340,7 @@
       <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="161"/>
+      <c r="A23" s="151"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3342,7 +3350,7 @@
       <c r="D23" s="5">
         <v>20</v>
       </c>
-      <c r="G23" s="150">
+      <c r="G23" s="142">
         <f>2+3+2</f>
         <v>7</v>
       </c>
@@ -3353,7 +3361,7 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
+      <c r="A24" s="151"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3363,7 +3371,7 @@
       <c r="D24" s="5">
         <v>10</v>
       </c>
-      <c r="G24" s="150">
+      <c r="G24" s="142">
         <v>4</v>
       </c>
       <c r="I24" s="69"/>
@@ -3373,7 +3381,7 @@
       <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="161"/>
+      <c r="A25" s="151"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3383,7 +3391,7 @@
       <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="G25" s="150">
+      <c r="G25" s="142">
         <v>1</v>
       </c>
       <c r="I25" s="69"/>
@@ -3393,7 +3401,7 @@
       <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="161"/>
+      <c r="A26" s="151"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3403,7 +3411,7 @@
       <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="G26" s="150">
+      <c r="G26" s="142">
         <v>1</v>
       </c>
       <c r="I26" s="69"/>
@@ -3413,7 +3421,7 @@
       <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="161"/>
+      <c r="A27" s="151"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3423,7 +3431,7 @@
       <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="142">
         <v>2</v>
       </c>
       <c r="I27" s="69"/>
@@ -3440,7 +3448,7 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="151" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3452,7 +3460,7 @@
       <c r="D29" s="5">
         <v>15</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="142">
         <f>2+3</f>
         <v>5</v>
       </c>
@@ -3463,7 +3471,7 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="161"/>
+      <c r="A30" s="151"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3473,7 +3481,7 @@
       <c r="D30" s="5">
         <v>5</v>
       </c>
-      <c r="G30" s="150">
+      <c r="G30" s="142">
         <v>1</v>
       </c>
       <c r="I30" s="69"/>
@@ -3483,7 +3491,7 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="161"/>
+      <c r="A31" s="151"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3493,7 +3501,7 @@
       <c r="D31" s="5">
         <v>5</v>
       </c>
-      <c r="G31" s="150">
+      <c r="G31" s="142">
         <v>1</v>
       </c>
       <c r="I31" s="69"/>
@@ -3503,7 +3511,7 @@
       <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="161"/>
+      <c r="A32" s="151"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3513,7 +3521,7 @@
       <c r="D32" s="5">
         <v>30</v>
       </c>
-      <c r="G32" s="150">
+      <c r="G32" s="142">
         <v>14</v>
       </c>
       <c r="I32" s="69"/>
@@ -3523,7 +3531,7 @@
       <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="161"/>
+      <c r="A33" s="151"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3533,7 +3541,7 @@
       <c r="D33" s="5">
         <v>20</v>
       </c>
-      <c r="G33" s="150">
+      <c r="G33" s="142">
         <v>9</v>
       </c>
       <c r="I33" s="69"/>
@@ -3543,7 +3551,7 @@
       <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="161"/>
+      <c r="A34" s="151"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3556,7 +3564,7 @@
       <c r="E34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="149" t="s">
+      <c r="G34" s="141" t="s">
         <v>379</v>
       </c>
       <c r="I34" s="69"/>
@@ -3566,7 +3574,7 @@
       <c r="M34" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="161" t="s">
+      <c r="A36" s="151" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3578,12 +3586,12 @@
       <c r="D36" s="5">
         <v>4</v>
       </c>
-      <c r="G36" s="149">
+      <c r="G36" s="141">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="161"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3593,12 +3601,12 @@
       <c r="D37" s="5">
         <v>4</v>
       </c>
-      <c r="G37" s="149" t="s">
+      <c r="G37" s="141" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="151" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3616,12 +3624,12 @@
       <c r="F39" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="149">
+      <c r="G39" s="141">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="161"/>
+      <c r="A40" s="151"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3634,12 +3642,12 @@
       <c r="E40" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="149">
+      <c r="G40" s="141">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="161"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3652,12 +3660,12 @@
       <c r="E41" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="149">
+      <c r="G41" s="141">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="161"/>
+      <c r="A42" s="151"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3673,7 +3681,7 @@
       <c r="F42" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="149">
+      <c r="G42" s="141">
         <v>1</v>
       </c>
     </row>
@@ -3687,12 +3695,12 @@
       <c r="D43" s="5">
         <v>1</v>
       </c>
-      <c r="G43" s="149" t="s">
+      <c r="G43" s="141" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="154" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3707,12 +3715,12 @@
       <c r="E45" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="149">
+      <c r="G45" s="141">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="162"/>
+      <c r="A46" s="154"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3725,7 +3733,7 @@
       <c r="E46" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="149">
+      <c r="G46" s="141">
         <v>1</v>
       </c>
     </row>
@@ -3734,7 +3742,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="162" t="s">
+      <c r="A48" s="154" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3751,7 +3759,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="162"/>
+      <c r="A49" s="154"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3763,7 +3771,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="161" t="s">
+      <c r="A51" s="151" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3778,12 +3786,12 @@
       <c r="F51" t="s">
         <v>94</v>
       </c>
-      <c r="G51" s="149" t="s">
+      <c r="G51" s="141" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="161"/>
+      <c r="A52" s="151"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3793,12 +3801,12 @@
       <c r="D52" s="5">
         <v>4</v>
       </c>
-      <c r="G52" s="149">
+      <c r="G52" s="141">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="161"/>
+      <c r="A53" s="151"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3808,12 +3816,12 @@
       <c r="D53" s="5">
         <v>4</v>
       </c>
-      <c r="G53" s="149">
+      <c r="G53" s="141">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="161"/>
+      <c r="A54" s="151"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3823,12 +3831,12 @@
       <c r="D54" s="5">
         <v>5</v>
       </c>
-      <c r="G54" s="149">
+      <c r="G54" s="141">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="161"/>
+      <c r="A55" s="151"/>
       <c r="B55" s="37" t="s">
         <v>88</v>
       </c>
@@ -3841,12 +3849,12 @@
       <c r="E55" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="G55" s="149" t="s">
+      <c r="G55" s="141" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="161"/>
+      <c r="A56" s="151"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3856,12 +3864,12 @@
       <c r="D56" s="5">
         <v>4</v>
       </c>
-      <c r="G56" s="149">
+      <c r="G56" s="141">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="161"/>
+      <c r="A57" s="151"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3871,12 +3879,12 @@
       <c r="D57" s="5">
         <v>4</v>
       </c>
-      <c r="G57" s="149" t="s">
+      <c r="G57" s="141" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="161"/>
+      <c r="A58" s="151"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3886,12 +3894,12 @@
       <c r="D58" s="5">
         <v>5</v>
       </c>
-      <c r="G58" s="149">
+      <c r="G58" s="141">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="161"/>
+      <c r="A59" s="151"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3901,12 +3909,12 @@
       <c r="D59" s="5">
         <v>4</v>
       </c>
-      <c r="G59" s="149">
+      <c r="G59" s="141">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="161"/>
+      <c r="A60" s="151"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3921,7 +3929,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="161"/>
+      <c r="A61" s="151"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3934,12 +3942,12 @@
       <c r="E61" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G61" s="149">
+      <c r="G61" s="141">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="161"/>
+      <c r="A62" s="151"/>
       <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
@@ -3952,12 +3960,12 @@
       <c r="E62" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="G62" s="149" t="s">
+      <c r="G62" s="141" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="161"/>
+      <c r="A63" s="151"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3970,12 +3978,12 @@
       <c r="E63" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G63" s="149" t="s">
+      <c r="G63" s="141" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="161"/>
+      <c r="A64" s="151"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -3988,12 +3996,12 @@
       <c r="E64" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G64" s="149">
+      <c r="G64" s="141">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="161"/>
+      <c r="A65" s="151"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -4006,12 +4014,12 @@
       <c r="E65" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G65" s="149">
+      <c r="G65" s="141">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="161"/>
+      <c r="A66" s="151"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4026,7 +4034,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="161"/>
+      <c r="A67" s="151"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4041,7 +4049,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="161"/>
+      <c r="A68" s="151"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4056,7 +4064,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="161" t="s">
+      <c r="A70" s="151" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4071,12 +4079,12 @@
       <c r="E70" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G70" s="149">
+      <c r="G70" s="141">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="161"/>
+      <c r="A71" s="151"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4088,7 +4096,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="161"/>
+      <c r="A72" s="151"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4104,7 +4112,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="161" t="s">
+      <c r="A74" s="151" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4119,13 +4127,13 @@
       <c r="E74" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G74" s="150"/>
+      <c r="G74" s="142"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="161"/>
+      <c r="A75" s="151"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4140,7 +4148,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="161"/>
+      <c r="A76" s="151"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4155,7 +4163,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="161"/>
+      <c r="A77" s="151"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4170,7 +4178,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="161"/>
+      <c r="A78" s="151"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4185,7 +4193,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="161"/>
+      <c r="A79" s="151"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4200,7 +4208,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="161"/>
+      <c r="A80" s="151"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4215,7 +4223,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="161"/>
+      <c r="A81" s="151"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4231,6 +4239,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4238,11 +4251,6 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4253,8 +4261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4272,115 +4280,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="186" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="170"/>
-      <c r="H1" s="187" t="s">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="188"/>
+      <c r="H1" s="205" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="188"/>
-      <c r="J1" s="189"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="207"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="173"/>
+      <c r="A2" s="189"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="191"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="185" t="s">
+      <c r="I2" s="203" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="186"/>
+      <c r="J2" s="204"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="174"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="176"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="185" t="s">
+      <c r="A3" s="192"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="194"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="203" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="186"/>
+      <c r="J3" s="204"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="197" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="180"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="198"/>
       <c r="F4" s="44"/>
       <c r="G4" s="32"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="185" t="s">
+      <c r="H4" s="147"/>
+      <c r="I4" s="203" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="186"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="192" t="s">
+      <c r="J4" s="204"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="156" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="193"/>
-      <c r="N4" s="193"/>
-      <c r="O4" s="193"/>
-      <c r="P4" s="194"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="158"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="93"/>
       <c r="U4" s="93"/>
-      <c r="V4" s="201" t="s">
+      <c r="V4" s="165" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="202"/>
-      <c r="X4" s="202"/>
-      <c r="Y4" s="202"/>
-      <c r="Z4" s="203"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="166"/>
+      <c r="Z4" s="167"/>
       <c r="AA4" s="93"/>
       <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="181"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="182"/>
+      <c r="A5" s="199"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="200"/>
       <c r="F5" s="44"/>
       <c r="G5" s="32"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="190" t="s">
+      <c r="H5" s="213"/>
+      <c r="I5" s="208" t="s">
         <v>385</v>
       </c>
-      <c r="J5" s="191"/>
-      <c r="L5" s="195"/>
-      <c r="M5" s="196"/>
-      <c r="N5" s="196"/>
-      <c r="O5" s="196"/>
-      <c r="P5" s="197"/>
+      <c r="J5" s="209"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="161"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="93"/>
       <c r="U5" s="93"/>
-      <c r="V5" s="204"/>
-      <c r="W5" s="205"/>
-      <c r="X5" s="205"/>
-      <c r="Y5" s="205"/>
-      <c r="Z5" s="206"/>
+      <c r="V5" s="168"/>
+      <c r="W5" s="169"/>
+      <c r="X5" s="169"/>
+      <c r="Y5" s="169"/>
+      <c r="Z5" s="170"/>
       <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="128" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -4396,7 +4404,7 @@
         <v>164</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="154" t="s">
+      <c r="G6" s="146" t="s">
         <v>383</v>
       </c>
       <c r="L6" s="48" t="s">
@@ -4437,7 +4445,7 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="177" t="s">
+      <c r="A7" s="195" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="88" t="s">
@@ -4454,7 +4462,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="32"/>
-      <c r="L7" s="198" t="s">
+      <c r="L7" s="162" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
@@ -4496,7 +4504,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="177"/>
+      <c r="A8" s="195"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4515,7 +4523,7 @@
       <c r="G8" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L8" s="199"/>
+      <c r="L8" s="163"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4555,7 +4563,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="177"/>
+      <c r="A9" s="195"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4574,7 +4582,7 @@
       <c r="G9" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="199"/>
+      <c r="L9" s="163"/>
       <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
@@ -4594,19 +4602,19 @@
         <v>384</v>
       </c>
       <c r="U9" s="93"/>
-      <c r="V9" s="127" t="s">
+      <c r="V9" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="W9" s="128" t="s">
+      <c r="W9" s="124" t="s">
         <v>367</v>
       </c>
-      <c r="X9" s="129">
+      <c r="X9" s="125">
         <v>1</v>
       </c>
-      <c r="Y9" s="129">
+      <c r="Y9" s="125">
         <v>5</v>
       </c>
-      <c r="Z9" s="130" t="s">
+      <c r="Z9" s="126" t="s">
         <v>202</v>
       </c>
       <c r="AA9" s="93" t="s">
@@ -4614,7 +4622,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="177"/>
+      <c r="A10" s="195"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4633,7 +4641,7 @@
       <c r="G10" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="199"/>
+      <c r="L10" s="163"/>
       <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
@@ -4653,25 +4661,25 @@
         <v>384</v>
       </c>
       <c r="U10" s="93"/>
-      <c r="V10" s="126" t="s">
+      <c r="V10" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="W10" s="141" t="s">
+      <c r="W10" s="218" t="s">
         <v>368</v>
       </c>
-      <c r="X10" s="139" t="s">
+      <c r="X10" s="219" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" s="139" t="s">
+      <c r="Y10" s="219" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="140" t="s">
+      <c r="Z10" s="220" t="s">
         <v>278</v>
       </c>
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="177"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4690,7 +4698,7 @@
       <c r="G11" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="199"/>
+      <c r="L11" s="163"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4718,7 +4726,7 @@
       <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="177"/>
+      <c r="A12" s="195"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4737,7 +4745,7 @@
       <c r="G12" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L12" s="199"/>
+      <c r="L12" s="163"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4765,7 +4773,7 @@
       <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="177"/>
+      <c r="A13" s="195"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4784,7 +4792,7 @@
       <c r="G13" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="199"/>
+      <c r="L13" s="163"/>
       <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
@@ -4812,17 +4820,17 @@
       <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="183"/>
+      <c r="A14" s="201"/>
       <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="133">
+      <c r="C14" s="129">
         <v>4</v>
       </c>
-      <c r="D14" s="133">
+      <c r="D14" s="129">
         <v>20</v>
       </c>
-      <c r="E14" s="135" t="s">
+      <c r="E14" s="131" t="s">
         <v>182</v>
       </c>
       <c r="F14" s="14" t="s">
@@ -4831,7 +4839,7 @@
       <c r="G14" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L14" s="200"/>
+      <c r="L14" s="164"/>
       <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
@@ -4860,7 +4868,7 @@
       <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184" t="s">
+      <c r="A15" s="202" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -4872,7 +4880,7 @@
       <c r="D15" s="50">
         <v>30</v>
       </c>
-      <c r="E15" s="137" t="s">
+      <c r="E15" s="133" t="s">
         <v>187</v>
       </c>
       <c r="F15" s="14" t="s">
@@ -4881,7 +4889,7 @@
       <c r="G15" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L15" s="213" t="s">
+      <c r="L15" s="177" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="112" t="s">
@@ -4902,19 +4910,19 @@
       <c r="R15" t="s">
         <v>384</v>
       </c>
-      <c r="V15" s="207" t="s">
+      <c r="V15" s="171" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="208"/>
-      <c r="X15" s="208"/>
-      <c r="Y15" s="208"/>
-      <c r="Z15" s="208"/>
-      <c r="AA15" s="208"/>
-      <c r="AB15" s="208"/>
-      <c r="AC15" s="209"/>
+      <c r="W15" s="172"/>
+      <c r="X15" s="172"/>
+      <c r="Y15" s="172"/>
+      <c r="Z15" s="172"/>
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="172"/>
+      <c r="AC15" s="173"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="177"/>
+      <c r="A16" s="195"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4933,7 +4941,7 @@
       <c r="G16" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L16" s="214"/>
+      <c r="L16" s="178"/>
       <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
@@ -4962,20 +4970,20 @@
       <c r="Z16" s="102"/>
       <c r="AA16" s="102"/>
       <c r="AB16" s="102"/>
-      <c r="AC16" s="145"/>
+      <c r="AC16" s="138"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="183"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="133">
+      <c r="C17" s="129">
         <v>5</v>
       </c>
-      <c r="D17" s="133">
+      <c r="D17" s="129">
         <v>20</v>
       </c>
-      <c r="E17" s="135" t="s">
+      <c r="E17" s="131" t="s">
         <v>188</v>
       </c>
       <c r="F17" s="14" t="s">
@@ -4984,7 +4992,7 @@
       <c r="G17" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L17" s="214"/>
+      <c r="L17" s="178"/>
       <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
@@ -5019,7 +5027,7 @@
       <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="184" t="s">
+      <c r="A18" s="202" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -5035,7 +5043,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="214"/>
+      <c r="L18" s="178"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -5070,7 +5078,7 @@
       <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="177"/>
+      <c r="A19" s="195"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
@@ -5083,8 +5091,8 @@
       <c r="E19" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="L19" s="215"/>
+      <c r="F19" s="127"/>
+      <c r="L19" s="179"/>
       <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
@@ -5119,7 +5127,7 @@
       <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="177"/>
+      <c r="A20" s="195"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
@@ -5132,8 +5140,8 @@
       <c r="E20" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="131"/>
-      <c r="L20" s="213" t="s">
+      <c r="F20" s="127"/>
+      <c r="L20" s="177" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="109" t="s">
@@ -5161,7 +5169,7 @@
       <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="177"/>
+      <c r="A21" s="195"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
@@ -5174,8 +5182,8 @@
       <c r="E21" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="131"/>
-      <c r="L21" s="214"/>
+      <c r="F21" s="127"/>
+      <c r="L21" s="178"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5203,21 +5211,21 @@
       <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="183"/>
+      <c r="A22" s="201"/>
       <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="133">
+      <c r="C22" s="129">
         <v>1</v>
       </c>
-      <c r="D22" s="133">
+      <c r="D22" s="129">
         <v>4</v>
       </c>
-      <c r="E22" s="135" t="s">
+      <c r="E22" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="131"/>
-      <c r="L22" s="214"/>
+      <c r="F22" s="127"/>
+      <c r="L22" s="178"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5247,23 +5255,23 @@
       <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="184" t="s">
+      <c r="A23" s="202" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="152">
+      <c r="C23" s="144">
         <v>1</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="144">
         <v>0</v>
       </c>
-      <c r="E23" s="153" t="s">
+      <c r="E23" s="145" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="131"/>
-      <c r="L23" s="214"/>
+      <c r="F23" s="127"/>
+      <c r="L23" s="178"/>
       <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
@@ -5293,7 +5301,7 @@
       <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="177"/>
+      <c r="A24" s="195"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5306,8 +5314,8 @@
       <c r="E24" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="131"/>
-      <c r="L24" s="214"/>
+      <c r="F24" s="127"/>
+      <c r="L24" s="178"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5337,7 +5345,7 @@
       <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="177"/>
+      <c r="A25" s="195"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
@@ -5350,8 +5358,8 @@
       <c r="E25" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="F25" s="131"/>
-      <c r="L25" s="214"/>
+      <c r="F25" s="127"/>
+      <c r="L25" s="178"/>
       <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
@@ -5375,7 +5383,7 @@
       <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="177"/>
+      <c r="A26" s="195"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5388,8 +5396,8 @@
       <c r="E26" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F26" s="131"/>
-      <c r="L26" s="215"/>
+      <c r="F26" s="127"/>
+      <c r="L26" s="179"/>
       <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
@@ -5415,7 +5423,7 @@
       <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="177"/>
+      <c r="A27" s="195"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5428,8 +5436,8 @@
       <c r="E27" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="F27" s="131"/>
-      <c r="L27" s="216" t="s">
+      <c r="F27" s="127"/>
+      <c r="L27" s="180" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="84" t="s">
@@ -5461,21 +5469,21 @@
       <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="177"/>
-      <c r="B28" s="78" t="s">
+      <c r="A28" s="195"/>
+      <c r="B28" s="210" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="148">
+      <c r="C28" s="211">
         <v>1</v>
       </c>
-      <c r="D28" s="148">
+      <c r="D28" s="211">
         <v>0</v>
       </c>
-      <c r="E28" s="79" t="s">
+      <c r="E28" s="212" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="131"/>
-      <c r="L28" s="217"/>
+      <c r="F28" s="127"/>
+      <c r="L28" s="181"/>
       <c r="M28" s="26"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -5497,21 +5505,21 @@
       <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="183"/>
-      <c r="B29" s="136" t="s">
+      <c r="A29" s="201"/>
+      <c r="B29" s="132" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="134">
+      <c r="C29" s="130">
         <v>1</v>
       </c>
-      <c r="D29" s="134">
+      <c r="D29" s="130">
         <v>4</v>
       </c>
-      <c r="E29" s="138" t="s">
+      <c r="E29" s="134" t="s">
         <v>212</v>
       </c>
-      <c r="F29" s="131"/>
-      <c r="L29" s="218"/>
+      <c r="F29" s="127"/>
+      <c r="L29" s="182"/>
       <c r="M29" s="113" t="s">
         <v>364</v>
       </c>
@@ -5535,7 +5543,7 @@
       <c r="AC29" s="106"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="177" t="s">
+      <c r="A30" s="195" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5550,7 +5558,7 @@
       <c r="E30" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="131"/>
+      <c r="F30" s="127"/>
       <c r="K30" s="32"/>
       <c r="L30" s="34"/>
       <c r="M30" s="26"/>
@@ -5570,7 +5578,7 @@
       <c r="AC30" s="106"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="177"/>
+      <c r="A31" s="195"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5583,7 +5591,7 @@
       <c r="E31" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="F31" s="131"/>
+      <c r="F31" s="127"/>
       <c r="K31" s="32"/>
       <c r="L31" s="34"/>
       <c r="M31" s="26"/>
@@ -5607,7 +5615,7 @@
       <c r="AC31" s="106"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="178"/>
+      <c r="A32" s="196"/>
       <c r="B32" s="42" t="s">
         <v>364</v>
       </c>
@@ -5629,20 +5637,20 @@
       <c r="P32" s="54"/>
       <c r="Q32" s="44"/>
       <c r="U32" s="93"/>
-      <c r="V32" s="122" t="s">
+      <c r="V32" s="214" t="s">
         <v>278</v>
       </c>
-      <c r="W32" s="123" t="s">
+      <c r="W32" s="215" t="s">
         <v>335</v>
       </c>
-      <c r="X32" s="124" t="s">
+      <c r="X32" s="216" t="s">
         <v>336</v>
       </c>
-      <c r="Y32" s="123"/>
-      <c r="Z32" s="123"/>
-      <c r="AA32" s="123"/>
-      <c r="AB32" s="123"/>
-      <c r="AC32" s="125"/>
+      <c r="Y32" s="215"/>
+      <c r="Z32" s="215"/>
+      <c r="AA32" s="215"/>
+      <c r="AB32" s="215"/>
+      <c r="AC32" s="217"/>
       <c r="AD32" s="93"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
@@ -5667,31 +5675,31 @@
       <c r="Z33" s="93"/>
       <c r="AA33" s="93"/>
       <c r="AB33" s="93"/>
-      <c r="AC33" s="147"/>
+      <c r="AC33" s="140"/>
       <c r="AD33" s="93"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="166"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="142"/>
-      <c r="L34" s="210" t="s">
+      <c r="C34" s="184"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="135"/>
+      <c r="L34" s="174" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="211"/>
-      <c r="N34" s="211"/>
-      <c r="O34" s="211"/>
-      <c r="P34" s="211"/>
-      <c r="Q34" s="211"/>
-      <c r="R34" s="211"/>
-      <c r="S34" s="212"/>
+      <c r="M34" s="175"/>
+      <c r="N34" s="175"/>
+      <c r="O34" s="175"/>
+      <c r="P34" s="175"/>
+      <c r="Q34" s="175"/>
+      <c r="R34" s="175"/>
+      <c r="S34" s="176"/>
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -5735,7 +5743,7 @@
       <c r="AA35" s="93"/>
       <c r="AB35" s="93"/>
       <c r="AC35" s="93"/>
-      <c r="AD35" s="146"/>
+      <c r="AD35" s="139"/>
     </row>
     <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="31" t="s">
@@ -7048,20 +7056,20 @@
       <c r="T75" s="104"/>
     </row>
     <row r="76" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="157" t="s">
+      <c r="B76" s="149" t="s">
         <v>268</v>
       </c>
-      <c r="C76" s="156" t="s">
+      <c r="C76" s="148" t="s">
         <v>269</v>
       </c>
-      <c r="D76" s="156" t="s">
+      <c r="D76" s="148" t="s">
         <v>270</v>
       </c>
-      <c r="E76" s="156"/>
-      <c r="F76" s="156"/>
-      <c r="G76" s="156"/>
-      <c r="H76" s="156"/>
-      <c r="I76" s="159"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="148"/>
+      <c r="G76" s="148"/>
+      <c r="H76" s="148"/>
+      <c r="I76" s="150"/>
       <c r="J76" s="26"/>
       <c r="K76" s="93"/>
       <c r="L76" s="105" t="s">
@@ -7389,20 +7397,20 @@
       <c r="T86" s="60"/>
     </row>
     <row r="87" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="77" t="s">
+      <c r="B87" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C87" s="78" t="s">
+      <c r="C87" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="D87" s="78" t="s">
+      <c r="D87" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="E87" s="78"/>
-      <c r="F87" s="78"/>
-      <c r="G87" s="78"/>
-      <c r="H87" s="78"/>
-      <c r="I87" s="79"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="47"/>
       <c r="J87" s="26"/>
       <c r="L87" s="59" t="s">
         <v>213</v>
@@ -7417,20 +7425,20 @@
       <c r="T87" s="60"/>
     </row>
     <row r="88" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="77" t="s">
+      <c r="B88" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="C88" s="78" t="s">
+      <c r="C88" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="D88" s="78" t="s">
+      <c r="D88" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="E88" s="78"/>
-      <c r="F88" s="78"/>
-      <c r="G88" s="78"/>
-      <c r="H88" s="78"/>
-      <c r="I88" s="79"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="47"/>
       <c r="J88" s="26"/>
       <c r="L88" s="59" t="s">
         <v>220</v>
@@ -7464,20 +7472,20 @@
       <c r="H89" s="78"/>
       <c r="I89" s="79"/>
       <c r="J89" s="26"/>
-      <c r="L89" s="80" t="s">
+      <c r="L89" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="M89" s="81" t="s">
+      <c r="M89" s="99" t="s">
         <v>282</v>
       </c>
-      <c r="N89" s="82" t="s">
+      <c r="N89" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="O89" s="81"/>
-      <c r="P89" s="81"/>
-      <c r="Q89" s="81"/>
-      <c r="R89" s="81"/>
-      <c r="S89" s="83"/>
+      <c r="O89" s="99"/>
+      <c r="P89" s="99"/>
+      <c r="Q89" s="99"/>
+      <c r="R89" s="99"/>
+      <c r="S89" s="106"/>
       <c r="T89" s="60"/>
     </row>
     <row r="90" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7513,20 +7521,20 @@
       <c r="T90" s="60"/>
     </row>
     <row r="91" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="157" t="s">
+      <c r="B91" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="C91" s="156" t="s">
+      <c r="C91" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="D91" s="156" t="s">
+      <c r="D91" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
-      <c r="H91" s="156"/>
-      <c r="I91" s="159"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="47"/>
       <c r="J91" s="26"/>
       <c r="L91" s="80" t="s">
         <v>215</v>
@@ -7595,14 +7603,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7616,6 +7616,14 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315788E9-B6D7-4BD3-AB04-21A1CC577F0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99522CC2-CDE9-4E6A-9B2C-2D9728DF0CF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="390">
   <si>
     <t>Item#</t>
   </si>
@@ -1254,6 +1254,18 @@
   </si>
   <si>
     <t>Ordered</t>
+  </si>
+  <si>
+    <t>non-polarized</t>
+  </si>
+  <si>
+    <t>non-polarized?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  changes dir. Of mag. Field</t>
+  </si>
+  <si>
+    <t>~x</t>
   </si>
 </sst>
 </file>
@@ -2341,183 +2353,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2544,6 +2379,183 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2874,8 +2886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AA6548-4DFA-4405-951F-1160BBC52D4F}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,12 +2904,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
@@ -2931,7 +2943,7 @@
       <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="165" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2959,7 +2971,7 @@
       <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
+      <c r="A4" s="166"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2982,7 +2994,7 @@
       <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
+      <c r="A5" s="166"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3015,7 +3027,7 @@
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="163" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3040,7 +3052,7 @@
       <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="151"/>
+      <c r="A8" s="163"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3063,7 +3075,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="151"/>
+      <c r="A9" s="163"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3086,7 +3098,7 @@
       <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="151"/>
+      <c r="A10" s="163"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3109,7 +3121,7 @@
       <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="151"/>
+      <c r="A11" s="163"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3132,7 +3144,7 @@
       <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="151"/>
+      <c r="A12" s="163"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3194,7 +3206,7 @@
       <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="163" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3217,7 +3229,7 @@
       <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="151"/>
+      <c r="A17" s="163"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3237,7 +3249,7 @@
       <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="151"/>
+      <c r="A18" s="163"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3257,7 +3269,7 @@
       <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="151"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3278,7 +3290,7 @@
       <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="151"/>
+      <c r="A20" s="163"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3299,7 +3311,7 @@
       <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="151"/>
+      <c r="A21" s="163"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3319,7 +3331,7 @@
       <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="151"/>
+      <c r="A22" s="163"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3340,7 +3352,7 @@
       <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="151"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3361,7 +3373,7 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="151"/>
+      <c r="A24" s="163"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3381,7 +3393,7 @@
       <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="151"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3401,7 +3413,7 @@
       <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="151"/>
+      <c r="A26" s="163"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3421,7 +3433,7 @@
       <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="151"/>
+      <c r="A27" s="163"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3448,7 +3460,7 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="151" t="s">
+      <c r="A29" s="163" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3471,7 +3483,7 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="151"/>
+      <c r="A30" s="163"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3491,7 +3503,7 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="151"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3511,7 +3523,7 @@
       <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="151"/>
+      <c r="A32" s="163"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3531,7 +3543,7 @@
       <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="151"/>
+      <c r="A33" s="163"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3551,7 +3563,7 @@
       <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="151"/>
+      <c r="A34" s="163"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3574,7 +3586,7 @@
       <c r="M34" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="151" t="s">
+      <c r="A36" s="163" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3591,7 +3603,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="151"/>
+      <c r="A37" s="163"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3606,7 +3618,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="151" t="s">
+      <c r="A39" s="163" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3629,7 +3641,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="151"/>
+      <c r="A40" s="163"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3647,7 +3659,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="151"/>
+      <c r="A41" s="163"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3665,7 +3677,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="151"/>
+      <c r="A42" s="163"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3700,7 +3712,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="154" t="s">
+      <c r="A45" s="164" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3720,7 +3732,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="154"/>
+      <c r="A46" s="164"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3742,7 +3754,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="154" t="s">
+      <c r="A48" s="164" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3759,7 +3771,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="154"/>
+      <c r="A49" s="164"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3771,7 +3783,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="151" t="s">
+      <c r="A51" s="163" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3791,7 +3803,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="151"/>
+      <c r="A52" s="163"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3806,7 +3818,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="151"/>
+      <c r="A53" s="163"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3821,7 +3833,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="151"/>
+      <c r="A54" s="163"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3836,7 +3848,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="151"/>
+      <c r="A55" s="163"/>
       <c r="B55" s="37" t="s">
         <v>88</v>
       </c>
@@ -3854,7 +3866,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="151"/>
+      <c r="A56" s="163"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3869,7 +3881,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="151"/>
+      <c r="A57" s="163"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3884,7 +3896,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="151"/>
+      <c r="A58" s="163"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3899,7 +3911,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="151"/>
+      <c r="A59" s="163"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3914,7 +3926,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="151"/>
+      <c r="A60" s="163"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3929,7 +3941,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="151"/>
+      <c r="A61" s="163"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3947,7 +3959,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="151"/>
+      <c r="A62" s="163"/>
       <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
@@ -3965,7 +3977,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="151"/>
+      <c r="A63" s="163"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3983,7 +3995,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="151"/>
+      <c r="A64" s="163"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -4001,7 +4013,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="151"/>
+      <c r="A65" s="163"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -4019,7 +4031,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="151"/>
+      <c r="A66" s="163"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4034,7 +4046,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="151"/>
+      <c r="A67" s="163"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4049,7 +4061,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="151"/>
+      <c r="A68" s="163"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4064,7 +4076,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="151" t="s">
+      <c r="A70" s="163" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4084,7 +4096,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="151"/>
+      <c r="A71" s="163"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4096,7 +4108,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="151"/>
+      <c r="A72" s="163"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4112,7 +4124,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="151" t="s">
+      <c r="A74" s="163" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4133,7 +4145,7 @@
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="151"/>
+      <c r="A75" s="163"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4148,7 +4160,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="151"/>
+      <c r="A76" s="163"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4163,7 +4175,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="151"/>
+      <c r="A77" s="163"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4178,7 +4190,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="151"/>
+      <c r="A78" s="163"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4193,7 +4205,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="151"/>
+      <c r="A79" s="163"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4208,7 +4220,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="151"/>
+      <c r="A80" s="163"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4223,7 +4235,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="151"/>
+      <c r="A81" s="163"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4239,11 +4251,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4251,6 +4258,11 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4261,8 +4273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4280,111 +4292,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="170" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="188"/>
-      <c r="H1" s="205" t="s">
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="172"/>
+      <c r="H1" s="189" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="206"/>
-      <c r="J1" s="207"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="191"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="189"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="191"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="175"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="203" t="s">
+      <c r="I2" s="187" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="204"/>
+      <c r="J2" s="188"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="192"/>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="194"/>
+      <c r="A3" s="176"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="178"/>
       <c r="H3" s="137"/>
-      <c r="I3" s="203" t="s">
+      <c r="I3" s="187" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="204"/>
+      <c r="J3" s="188"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="197" t="s">
+      <c r="A4" s="181" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="197"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="198"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="182"/>
       <c r="F4" s="44"/>
       <c r="G4" s="32"/>
       <c r="H4" s="147"/>
-      <c r="I4" s="203" t="s">
+      <c r="I4" s="187" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="204"/>
+      <c r="J4" s="188"/>
       <c r="K4" s="136"/>
-      <c r="L4" s="156" t="s">
+      <c r="L4" s="194" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="158"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="196"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="93"/>
       <c r="U4" s="93"/>
-      <c r="V4" s="165" t="s">
+      <c r="V4" s="203" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="166"/>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="166"/>
-      <c r="Z4" s="167"/>
+      <c r="W4" s="204"/>
+      <c r="X4" s="204"/>
+      <c r="Y4" s="204"/>
+      <c r="Z4" s="205"/>
       <c r="AA4" s="93"/>
       <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199"/>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="200"/>
+      <c r="A5" s="183"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="44"/>
       <c r="G5" s="32"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="208" t="s">
+      <c r="H5" s="154"/>
+      <c r="I5" s="192" t="s">
         <v>385</v>
       </c>
-      <c r="J5" s="209"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="161"/>
+      <c r="J5" s="193"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="198"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="199"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="93"/>
       <c r="U5" s="93"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="169"/>
-      <c r="X5" s="169"/>
-      <c r="Y5" s="169"/>
-      <c r="Z5" s="170"/>
+      <c r="V5" s="206"/>
+      <c r="W5" s="207"/>
+      <c r="X5" s="207"/>
+      <c r="Y5" s="207"/>
+      <c r="Z5" s="208"/>
       <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4445,7 +4457,7 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="179" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="88" t="s">
@@ -4462,7 +4474,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="32"/>
-      <c r="L7" s="162" t="s">
+      <c r="L7" s="200" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
@@ -4504,7 +4516,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="195"/>
+      <c r="A8" s="179"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4523,7 +4535,7 @@
       <c r="G8" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L8" s="163"/>
+      <c r="L8" s="201"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4563,7 +4575,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="195"/>
+      <c r="A9" s="179"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4582,7 +4594,7 @@
       <c r="G9" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="163"/>
+      <c r="L9" s="201"/>
       <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
@@ -4622,7 +4634,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="195"/>
+      <c r="A10" s="179"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4641,7 +4653,7 @@
       <c r="G10" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="163"/>
+      <c r="L10" s="201"/>
       <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
@@ -4664,22 +4676,22 @@
       <c r="V10" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="W10" s="218" t="s">
+      <c r="W10" s="159" t="s">
         <v>368</v>
       </c>
-      <c r="X10" s="219" t="s">
+      <c r="X10" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" s="219" t="s">
+      <c r="Y10" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="220" t="s">
+      <c r="Z10" s="161" t="s">
         <v>278</v>
       </c>
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="195"/>
+      <c r="A11" s="179"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4698,7 +4710,7 @@
       <c r="G11" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="163"/>
+      <c r="L11" s="201"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4726,7 +4738,7 @@
       <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="195"/>
+      <c r="A12" s="179"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4745,7 +4757,7 @@
       <c r="G12" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L12" s="163"/>
+      <c r="L12" s="201"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4773,7 +4785,7 @@
       <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="195"/>
+      <c r="A13" s="179"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4792,7 +4804,7 @@
       <c r="G13" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="163"/>
+      <c r="L13" s="201"/>
       <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
@@ -4820,7 +4832,7 @@
       <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="201"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
@@ -4839,7 +4851,7 @@
       <c r="G14" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L14" s="164"/>
+      <c r="L14" s="202"/>
       <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
@@ -4868,7 +4880,7 @@
       <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="202" t="s">
+      <c r="A15" s="186" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -4889,7 +4901,7 @@
       <c r="G15" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L15" s="177" t="s">
+      <c r="L15" s="215" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="112" t="s">
@@ -4910,19 +4922,19 @@
       <c r="R15" t="s">
         <v>384</v>
       </c>
-      <c r="V15" s="171" t="s">
+      <c r="V15" s="209" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="172"/>
-      <c r="X15" s="172"/>
-      <c r="Y15" s="172"/>
-      <c r="Z15" s="172"/>
-      <c r="AA15" s="172"/>
-      <c r="AB15" s="172"/>
-      <c r="AC15" s="173"/>
+      <c r="W15" s="210"/>
+      <c r="X15" s="210"/>
+      <c r="Y15" s="210"/>
+      <c r="Z15" s="210"/>
+      <c r="AA15" s="210"/>
+      <c r="AB15" s="210"/>
+      <c r="AC15" s="211"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="195"/>
+      <c r="A16" s="179"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4941,7 +4953,7 @@
       <c r="G16" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L16" s="178"/>
+      <c r="L16" s="216"/>
       <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
@@ -4973,7 +4985,7 @@
       <c r="AC16" s="138"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="201"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
@@ -4992,7 +5004,7 @@
       <c r="G17" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L17" s="178"/>
+      <c r="L17" s="216"/>
       <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
@@ -5027,7 +5039,7 @@
       <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="202" t="s">
+      <c r="A18" s="186" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -5043,7 +5055,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="178"/>
+      <c r="L18" s="216"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -5078,7 +5090,7 @@
       <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="195"/>
+      <c r="A19" s="179"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
@@ -5092,7 +5104,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="127"/>
-      <c r="L19" s="179"/>
+      <c r="L19" s="217"/>
       <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
@@ -5127,7 +5139,7 @@
       <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="195"/>
+      <c r="A20" s="179"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
@@ -5141,7 +5153,7 @@
         <v>194</v>
       </c>
       <c r="F20" s="127"/>
-      <c r="L20" s="177" t="s">
+      <c r="L20" s="215" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="109" t="s">
@@ -5169,7 +5181,7 @@
       <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="195"/>
+      <c r="A21" s="179"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
@@ -5183,7 +5195,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="127"/>
-      <c r="L21" s="178"/>
+      <c r="L21" s="216"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5211,7 +5223,7 @@
       <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="201"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
@@ -5225,7 +5237,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="127"/>
-      <c r="L22" s="178"/>
+      <c r="L22" s="216"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5238,7 +5250,9 @@
       <c r="P22" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="Q22" s="44"/>
+      <c r="Q22" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="V22" s="105" t="s">
         <v>220</v>
       </c>
@@ -5255,7 +5269,7 @@
       <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="202" t="s">
+      <c r="A23" s="186" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="143" t="s">
@@ -5271,7 +5285,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="127"/>
-      <c r="L23" s="178"/>
+      <c r="L23" s="216"/>
       <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
@@ -5301,7 +5315,7 @@
       <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="195"/>
+      <c r="A24" s="179"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5315,7 +5329,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="127"/>
-      <c r="L24" s="178"/>
+      <c r="L24" s="216"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5328,7 +5342,9 @@
       <c r="P24" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="Q24" s="44"/>
+      <c r="Q24" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="V24" s="105" t="s">
         <v>248</v>
       </c>
@@ -5345,7 +5361,7 @@
       <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="195"/>
+      <c r="A25" s="179"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
@@ -5359,7 +5375,7 @@
         <v>206</v>
       </c>
       <c r="F25" s="127"/>
-      <c r="L25" s="178"/>
+      <c r="L25" s="216"/>
       <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
@@ -5372,7 +5388,9 @@
       <c r="P25" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="Q25" s="44"/>
+      <c r="Q25" s="44" t="s">
+        <v>389</v>
+      </c>
       <c r="V25" s="105"/>
       <c r="W25" s="99"/>
       <c r="X25" s="99"/>
@@ -5383,7 +5401,7 @@
       <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="195"/>
+      <c r="A26" s="179"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5397,7 +5415,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="127"/>
-      <c r="L26" s="179"/>
+      <c r="L26" s="217"/>
       <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
@@ -5410,7 +5428,9 @@
       <c r="P26" s="76" t="s">
         <v>327</v>
       </c>
-      <c r="Q26" s="44"/>
+      <c r="Q26" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="V26" s="105" t="s">
         <v>200</v>
       </c>
@@ -5423,7 +5443,7 @@
       <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="195"/>
+      <c r="A27" s="179"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5437,7 +5457,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="127"/>
-      <c r="L27" s="180" t="s">
+      <c r="L27" s="218" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="84" t="s">
@@ -5453,6 +5473,9 @@
         <v>286</v>
       </c>
       <c r="Q27" s="44"/>
+      <c r="S27" t="s">
+        <v>386</v>
+      </c>
       <c r="V27" s="105" t="s">
         <v>220</v>
       </c>
@@ -5469,21 +5492,21 @@
       <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="195"/>
-      <c r="B28" s="210" t="s">
+      <c r="A28" s="179"/>
+      <c r="B28" s="151" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="211">
+      <c r="C28" s="152">
         <v>1</v>
       </c>
-      <c r="D28" s="211">
+      <c r="D28" s="152">
         <v>0</v>
       </c>
-      <c r="E28" s="212" t="s">
+      <c r="E28" s="153" t="s">
         <v>268</v>
       </c>
       <c r="F28" s="127"/>
-      <c r="L28" s="181"/>
+      <c r="L28" s="219"/>
       <c r="M28" s="26"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -5505,7 +5528,7 @@
       <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="201"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="132" t="s">
         <v>377</v>
       </c>
@@ -5519,7 +5542,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="127"/>
-      <c r="L29" s="182"/>
+      <c r="L29" s="220"/>
       <c r="M29" s="113" t="s">
         <v>364</v>
       </c>
@@ -5533,6 +5556,9 @@
         <v>219</v>
       </c>
       <c r="Q29" s="44"/>
+      <c r="S29" t="s">
+        <v>387</v>
+      </c>
       <c r="V29" s="105"/>
       <c r="W29" s="99"/>
       <c r="X29" s="99"/>
@@ -5543,7 +5569,7 @@
       <c r="AC29" s="106"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="195" t="s">
+      <c r="A30" s="179" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5566,6 +5592,9 @@
       <c r="O30" s="50"/>
       <c r="P30" s="54"/>
       <c r="Q30" s="44"/>
+      <c r="S30" t="s">
+        <v>388</v>
+      </c>
       <c r="V30" s="105" t="s">
         <v>213</v>
       </c>
@@ -5578,7 +5607,7 @@
       <c r="AC30" s="106"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="195"/>
+      <c r="A31" s="179"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5615,7 +5644,7 @@
       <c r="AC31" s="106"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="196"/>
+      <c r="A32" s="180"/>
       <c r="B32" s="42" t="s">
         <v>364</v>
       </c>
@@ -5637,20 +5666,20 @@
       <c r="P32" s="54"/>
       <c r="Q32" s="44"/>
       <c r="U32" s="93"/>
-      <c r="V32" s="214" t="s">
+      <c r="V32" s="155" t="s">
         <v>278</v>
       </c>
-      <c r="W32" s="215" t="s">
+      <c r="W32" s="156" t="s">
         <v>335</v>
       </c>
-      <c r="X32" s="216" t="s">
+      <c r="X32" s="157" t="s">
         <v>336</v>
       </c>
-      <c r="Y32" s="215"/>
-      <c r="Z32" s="215"/>
-      <c r="AA32" s="215"/>
-      <c r="AB32" s="215"/>
-      <c r="AC32" s="217"/>
+      <c r="Y32" s="156"/>
+      <c r="Z32" s="156"/>
+      <c r="AA32" s="156"/>
+      <c r="AB32" s="156"/>
+      <c r="AC32" s="158"/>
       <c r="AD32" s="93"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
@@ -5679,27 +5708,27 @@
       <c r="AD33" s="93"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="183" t="s">
+      <c r="B34" s="167" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="184"/>
-      <c r="D34" s="184"/>
-      <c r="E34" s="184"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="185"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="168"/>
+      <c r="F34" s="168"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="169"/>
       <c r="J34" s="135"/>
-      <c r="L34" s="174" t="s">
+      <c r="L34" s="212" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="175"/>
-      <c r="N34" s="175"/>
-      <c r="O34" s="175"/>
-      <c r="P34" s="175"/>
-      <c r="Q34" s="175"/>
-      <c r="R34" s="175"/>
-      <c r="S34" s="176"/>
+      <c r="M34" s="213"/>
+      <c r="N34" s="213"/>
+      <c r="O34" s="213"/>
+      <c r="P34" s="213"/>
+      <c r="Q34" s="213"/>
+      <c r="R34" s="213"/>
+      <c r="S34" s="214"/>
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -7603,6 +7632,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7616,14 +7653,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99522CC2-CDE9-4E6A-9B2C-2D9728DF0CF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD3C471-0ACE-4867-89DB-222A50782044}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="390">
   <si>
     <t>Item#</t>
   </si>
@@ -2380,19 +2380,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2475,87 +2556,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2904,12 +2904,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="166" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
@@ -2943,7 +2943,7 @@
       <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="163" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2971,7 +2971,7 @@
       <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="166"/>
+      <c r="A4" s="164"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="166"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3027,7 +3027,7 @@
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="162" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3052,7 +3052,7 @@
       <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
+      <c r="A8" s="162"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
+      <c r="A9" s="162"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
+      <c r="A10" s="162"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
+      <c r="A11" s="162"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
+      <c r="A12" s="162"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="162" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3229,7 +3229,7 @@
       <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
+      <c r="A17" s="162"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3249,7 +3249,7 @@
       <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="163"/>
+      <c r="A18" s="162"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="163"/>
+      <c r="A19" s="162"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="163"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="163"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="163"/>
+      <c r="A22" s="162"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="163"/>
+      <c r="A23" s="162"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="163"/>
+      <c r="A24" s="162"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="163"/>
+      <c r="A25" s="162"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="163"/>
+      <c r="A26" s="162"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="163"/>
+      <c r="A27" s="162"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="163" t="s">
+      <c r="A29" s="162" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3483,7 +3483,7 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="163"/>
+      <c r="A30" s="162"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3503,7 +3503,7 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="163"/>
+      <c r="A31" s="162"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="163"/>
+      <c r="A32" s="162"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="163"/>
+      <c r="A33" s="162"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="163"/>
+      <c r="A34" s="162"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3586,7 +3586,7 @@
       <c r="M34" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="163" t="s">
+      <c r="A36" s="162" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3603,7 +3603,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="163"/>
+      <c r="A37" s="162"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3618,7 +3618,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="163" t="s">
+      <c r="A39" s="162" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3641,7 +3641,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="163"/>
+      <c r="A40" s="162"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3659,7 +3659,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="163"/>
+      <c r="A41" s="162"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3677,7 +3677,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="163"/>
+      <c r="A42" s="162"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3712,7 +3712,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="164" t="s">
+      <c r="A45" s="165" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3732,7 +3732,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="164"/>
+      <c r="A46" s="165"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="164" t="s">
+      <c r="A48" s="165" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3771,7 +3771,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="164"/>
+      <c r="A49" s="165"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3783,7 +3783,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="163" t="s">
+      <c r="A51" s="162" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3803,7 +3803,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="163"/>
+      <c r="A52" s="162"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="163"/>
+      <c r="A53" s="162"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3833,7 +3833,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="163"/>
+      <c r="A54" s="162"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3848,7 +3848,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="163"/>
+      <c r="A55" s="162"/>
       <c r="B55" s="37" t="s">
         <v>88</v>
       </c>
@@ -3866,7 +3866,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="163"/>
+      <c r="A56" s="162"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3881,7 +3881,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="163"/>
+      <c r="A57" s="162"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="163"/>
+      <c r="A58" s="162"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3911,7 +3911,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="163"/>
+      <c r="A59" s="162"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3926,7 +3926,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="163"/>
+      <c r="A60" s="162"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3941,7 +3941,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="163"/>
+      <c r="A61" s="162"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3959,7 +3959,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="163"/>
+      <c r="A62" s="162"/>
       <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
@@ -3977,7 +3977,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="163"/>
+      <c r="A63" s="162"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3995,7 +3995,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="163"/>
+      <c r="A64" s="162"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -4013,7 +4013,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="163"/>
+      <c r="A65" s="162"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -4031,7 +4031,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="163"/>
+      <c r="A66" s="162"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4046,7 +4046,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="163"/>
+      <c r="A67" s="162"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4061,7 +4061,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="163"/>
+      <c r="A68" s="162"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4076,7 +4076,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="163" t="s">
+      <c r="A70" s="162" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4096,7 +4096,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="163"/>
+      <c r="A71" s="162"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4108,7 +4108,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="163"/>
+      <c r="A72" s="162"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4124,7 +4124,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="163" t="s">
+      <c r="A74" s="162" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4145,7 +4145,7 @@
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="163"/>
+      <c r="A75" s="162"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4160,7 +4160,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="163"/>
+      <c r="A76" s="162"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4175,7 +4175,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="163"/>
+      <c r="A77" s="162"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4190,7 +4190,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="163"/>
+      <c r="A78" s="162"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4205,7 +4205,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="163"/>
+      <c r="A79" s="162"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4220,7 +4220,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="163"/>
+      <c r="A80" s="162"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4235,7 +4235,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="163"/>
+      <c r="A81" s="162"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4251,6 +4251,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4258,11 +4263,6 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4273,8 +4273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M93" sqref="M93"/>
+    <sheetView tabSelected="1" topLeftCell="L7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4292,111 +4292,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="197" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="172"/>
-      <c r="H1" s="189" t="s">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="199"/>
+      <c r="H1" s="216" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="190"/>
-      <c r="J1" s="191"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="218"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="173"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="175"/>
+      <c r="A2" s="200"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="187" t="s">
+      <c r="I2" s="214" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="188"/>
+      <c r="J2" s="215"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="176"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="178"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="205"/>
       <c r="H3" s="137"/>
-      <c r="I3" s="187" t="s">
+      <c r="I3" s="214" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="188"/>
+      <c r="J3" s="215"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="208" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="182"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="209"/>
       <c r="F4" s="44"/>
       <c r="G4" s="32"/>
       <c r="H4" s="147"/>
-      <c r="I4" s="187" t="s">
+      <c r="I4" s="214" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="188"/>
+      <c r="J4" s="215"/>
       <c r="K4" s="136"/>
-      <c r="L4" s="194" t="s">
+      <c r="L4" s="167" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="196"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="169"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="93"/>
       <c r="U4" s="93"/>
-      <c r="V4" s="203" t="s">
+      <c r="V4" s="176" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="204"/>
-      <c r="X4" s="204"/>
-      <c r="Y4" s="204"/>
-      <c r="Z4" s="205"/>
+      <c r="W4" s="177"/>
+      <c r="X4" s="177"/>
+      <c r="Y4" s="177"/>
+      <c r="Z4" s="178"/>
       <c r="AA4" s="93"/>
       <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="183"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="184"/>
+      <c r="A5" s="210"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="211"/>
       <c r="F5" s="44"/>
       <c r="G5" s="32"/>
       <c r="H5" s="154"/>
-      <c r="I5" s="192" t="s">
+      <c r="I5" s="219" t="s">
         <v>385</v>
       </c>
-      <c r="J5" s="193"/>
-      <c r="L5" s="197"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="199"/>
+      <c r="J5" s="220"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="172"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="93"/>
       <c r="U5" s="93"/>
-      <c r="V5" s="206"/>
-      <c r="W5" s="207"/>
-      <c r="X5" s="207"/>
-      <c r="Y5" s="207"/>
-      <c r="Z5" s="208"/>
+      <c r="V5" s="179"/>
+      <c r="W5" s="180"/>
+      <c r="X5" s="180"/>
+      <c r="Y5" s="180"/>
+      <c r="Z5" s="181"/>
       <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4457,7 +4457,7 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="179" t="s">
+      <c r="A7" s="206" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="88" t="s">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="32"/>
-      <c r="L7" s="200" t="s">
+      <c r="L7" s="173" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
@@ -4516,7 +4516,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="179"/>
+      <c r="A8" s="206"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4535,7 +4535,7 @@
       <c r="G8" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L8" s="201"/>
+      <c r="L8" s="174"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4575,7 +4575,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="179"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4594,7 +4594,7 @@
       <c r="G9" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="201"/>
+      <c r="L9" s="174"/>
       <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
@@ -4634,7 +4634,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="179"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4653,7 +4653,7 @@
       <c r="G10" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="201"/>
+      <c r="L10" s="174"/>
       <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
@@ -4691,7 +4691,7 @@
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="179"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4710,7 +4710,7 @@
       <c r="G11" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="201"/>
+      <c r="L11" s="174"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4738,7 +4738,7 @@
       <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="179"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4757,7 +4757,7 @@
       <c r="G12" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L12" s="201"/>
+      <c r="L12" s="174"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="179"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4804,7 +4804,7 @@
       <c r="G13" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="201"/>
+      <c r="L13" s="174"/>
       <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="212"/>
       <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
@@ -4851,7 +4851,7 @@
       <c r="G14" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L14" s="202"/>
+      <c r="L14" s="175"/>
       <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
@@ -4880,7 +4880,7 @@
       <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="186" t="s">
+      <c r="A15" s="213" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -4901,7 +4901,7 @@
       <c r="G15" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L15" s="215" t="s">
+      <c r="L15" s="188" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="112" t="s">
@@ -4922,19 +4922,19 @@
       <c r="R15" t="s">
         <v>384</v>
       </c>
-      <c r="V15" s="209" t="s">
+      <c r="V15" s="182" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="210"/>
-      <c r="X15" s="210"/>
-      <c r="Y15" s="210"/>
-      <c r="Z15" s="210"/>
-      <c r="AA15" s="210"/>
-      <c r="AB15" s="210"/>
-      <c r="AC15" s="211"/>
+      <c r="W15" s="183"/>
+      <c r="X15" s="183"/>
+      <c r="Y15" s="183"/>
+      <c r="Z15" s="183"/>
+      <c r="AA15" s="183"/>
+      <c r="AB15" s="183"/>
+      <c r="AC15" s="184"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="179"/>
+      <c r="A16" s="206"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4953,7 +4953,7 @@
       <c r="G16" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L16" s="216"/>
+      <c r="L16" s="189"/>
       <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
@@ -4985,7 +4985,7 @@
       <c r="AC16" s="138"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="185"/>
+      <c r="A17" s="212"/>
       <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
@@ -5004,7 +5004,7 @@
       <c r="G17" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L17" s="216"/>
+      <c r="L17" s="189"/>
       <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
@@ -5039,7 +5039,7 @@
       <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="186" t="s">
+      <c r="A18" s="213" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -5055,7 +5055,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="216"/>
+      <c r="L18" s="189"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -5090,7 +5090,7 @@
       <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="179"/>
+      <c r="A19" s="206"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="127"/>
-      <c r="L19" s="217"/>
+      <c r="L19" s="190"/>
       <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
@@ -5139,7 +5139,7 @@
       <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="179"/>
+      <c r="A20" s="206"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>194</v>
       </c>
       <c r="F20" s="127"/>
-      <c r="L20" s="215" t="s">
+      <c r="L20" s="188" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="109" t="s">
@@ -5181,7 +5181,7 @@
       <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="179"/>
+      <c r="A21" s="206"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="127"/>
-      <c r="L21" s="216"/>
+      <c r="L21" s="189"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5223,7 +5223,7 @@
       <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="185"/>
+      <c r="A22" s="212"/>
       <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="127"/>
-      <c r="L22" s="216"/>
+      <c r="L22" s="189"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5269,7 +5269,7 @@
       <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="186" t="s">
+      <c r="A23" s="213" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="143" t="s">
@@ -5285,7 +5285,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="127"/>
-      <c r="L23" s="216"/>
+      <c r="L23" s="189"/>
       <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
@@ -5298,7 +5298,9 @@
       <c r="P23" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="Q23" s="44"/>
+      <c r="Q23" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="V23" s="105" t="s">
         <v>245</v>
       </c>
@@ -5315,7 +5317,7 @@
       <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="179"/>
+      <c r="A24" s="206"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5329,7 +5331,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="127"/>
-      <c r="L24" s="216"/>
+      <c r="L24" s="189"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5361,7 +5363,7 @@
       <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="179"/>
+      <c r="A25" s="206"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
@@ -5375,7 +5377,7 @@
         <v>206</v>
       </c>
       <c r="F25" s="127"/>
-      <c r="L25" s="216"/>
+      <c r="L25" s="189"/>
       <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
@@ -5401,7 +5403,7 @@
       <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="179"/>
+      <c r="A26" s="206"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5415,7 +5417,7 @@
         <v>208</v>
       </c>
       <c r="F26" s="127"/>
-      <c r="L26" s="217"/>
+      <c r="L26" s="190"/>
       <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
@@ -5443,7 +5445,7 @@
       <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="179"/>
+      <c r="A27" s="206"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5457,7 +5459,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="127"/>
-      <c r="L27" s="218" t="s">
+      <c r="L27" s="191" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="84" t="s">
@@ -5472,7 +5474,9 @@
       <c r="P27" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="Q27" s="44"/>
+      <c r="Q27" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="S27" t="s">
         <v>386</v>
       </c>
@@ -5492,7 +5496,7 @@
       <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="179"/>
+      <c r="A28" s="206"/>
       <c r="B28" s="151" t="s">
         <v>376</v>
       </c>
@@ -5506,7 +5510,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="127"/>
-      <c r="L28" s="219"/>
+      <c r="L28" s="192"/>
       <c r="M28" s="26"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -5528,7 +5532,7 @@
       <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="185"/>
+      <c r="A29" s="212"/>
       <c r="B29" s="132" t="s">
         <v>377</v>
       </c>
@@ -5542,7 +5546,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="127"/>
-      <c r="L29" s="220"/>
+      <c r="L29" s="193"/>
       <c r="M29" s="113" t="s">
         <v>364</v>
       </c>
@@ -5569,7 +5573,7 @@
       <c r="AC29" s="106"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="206" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5607,7 +5611,7 @@
       <c r="AC30" s="106"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="179"/>
+      <c r="A31" s="206"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5644,7 +5648,7 @@
       <c r="AC31" s="106"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="180"/>
+      <c r="A32" s="207"/>
       <c r="B32" s="42" t="s">
         <v>364</v>
       </c>
@@ -5708,27 +5712,27 @@
       <c r="AD33" s="93"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="194" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="168"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="168"/>
-      <c r="I34" s="169"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="196"/>
       <c r="J34" s="135"/>
-      <c r="L34" s="212" t="s">
+      <c r="L34" s="185" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="213"/>
-      <c r="N34" s="213"/>
-      <c r="O34" s="213"/>
-      <c r="P34" s="213"/>
-      <c r="Q34" s="213"/>
-      <c r="R34" s="213"/>
-      <c r="S34" s="214"/>
+      <c r="M34" s="186"/>
+      <c r="N34" s="186"/>
+      <c r="O34" s="186"/>
+      <c r="P34" s="186"/>
+      <c r="Q34" s="186"/>
+      <c r="R34" s="186"/>
+      <c r="S34" s="187"/>
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -7632,14 +7636,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7653,6 +7649,14 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD3C471-0ACE-4867-89DB-222A50782044}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FAC94F-628C-488F-AC96-BC8759BAD20D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="390">
   <si>
     <t>Item#</t>
   </si>
@@ -2380,20 +2380,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2475,87 +2556,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2904,12 +2904,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
@@ -2943,7 +2943,7 @@
       <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="165" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2971,7 +2971,7 @@
       <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="164"/>
+      <c r="A4" s="166"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="164"/>
+      <c r="A5" s="166"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3027,7 +3027,7 @@
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="163" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3052,7 +3052,7 @@
       <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
+      <c r="A8" s="163"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="162"/>
+      <c r="A9" s="163"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="162"/>
+      <c r="A10" s="163"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="162"/>
+      <c r="A11" s="163"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="162"/>
+      <c r="A12" s="163"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="163" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3229,7 +3229,7 @@
       <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="162"/>
+      <c r="A17" s="163"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3249,7 +3249,7 @@
       <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="162"/>
+      <c r="A18" s="163"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="162"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
+      <c r="A20" s="163"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
+      <c r="A21" s="163"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="162"/>
+      <c r="A22" s="163"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="M23" s="69"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="162"/>
+      <c r="A24" s="163"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="162"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="162"/>
+      <c r="A26" s="163"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="162"/>
+      <c r="A27" s="163"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="162" t="s">
+      <c r="A29" s="163" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3483,7 +3483,7 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="162"/>
+      <c r="A30" s="163"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3503,7 +3503,7 @@
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="162"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="162"/>
+      <c r="A32" s="163"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="162"/>
+      <c r="A33" s="163"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162"/>
+      <c r="A34" s="163"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3586,7 +3586,7 @@
       <c r="M34" s="69"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="162" t="s">
+      <c r="A36" s="163" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3603,7 +3603,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="162"/>
+      <c r="A37" s="163"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3618,7 +3618,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="162" t="s">
+      <c r="A39" s="163" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3641,7 +3641,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="162"/>
+      <c r="A40" s="163"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3659,7 +3659,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="162"/>
+      <c r="A41" s="163"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3677,7 +3677,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="162"/>
+      <c r="A42" s="163"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3712,7 +3712,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="165" t="s">
+      <c r="A45" s="164" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3732,7 +3732,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="165"/>
+      <c r="A46" s="164"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="165" t="s">
+      <c r="A48" s="164" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3771,7 +3771,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="165"/>
+      <c r="A49" s="164"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3783,7 +3783,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="162" t="s">
+      <c r="A51" s="163" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3803,7 +3803,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="162"/>
+      <c r="A52" s="163"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="162"/>
+      <c r="A53" s="163"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3833,7 +3833,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="162"/>
+      <c r="A54" s="163"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3848,7 +3848,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="162"/>
+      <c r="A55" s="163"/>
       <c r="B55" s="37" t="s">
         <v>88</v>
       </c>
@@ -3866,7 +3866,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="162"/>
+      <c r="A56" s="163"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3881,7 +3881,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="162"/>
+      <c r="A57" s="163"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="162"/>
+      <c r="A58" s="163"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3911,7 +3911,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="162"/>
+      <c r="A59" s="163"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3926,7 +3926,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="162"/>
+      <c r="A60" s="163"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3941,7 +3941,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="162"/>
+      <c r="A61" s="163"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3959,7 +3959,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="162"/>
+      <c r="A62" s="163"/>
       <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
@@ -3977,7 +3977,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="162"/>
+      <c r="A63" s="163"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3995,7 +3995,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="162"/>
+      <c r="A64" s="163"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -4013,7 +4013,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="162"/>
+      <c r="A65" s="163"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -4031,7 +4031,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="162"/>
+      <c r="A66" s="163"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4046,7 +4046,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="162"/>
+      <c r="A67" s="163"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4061,7 +4061,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="162"/>
+      <c r="A68" s="163"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4076,7 +4076,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="162" t="s">
+      <c r="A70" s="163" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4096,7 +4096,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="162"/>
+      <c r="A71" s="163"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4108,7 +4108,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="162"/>
+      <c r="A72" s="163"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4124,7 +4124,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="162" t="s">
+      <c r="A74" s="163" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4145,7 +4145,7 @@
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="162"/>
+      <c r="A75" s="163"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4160,7 +4160,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="162"/>
+      <c r="A76" s="163"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4175,7 +4175,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="162"/>
+      <c r="A77" s="163"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4190,7 +4190,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="162"/>
+      <c r="A78" s="163"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4205,7 +4205,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="162"/>
+      <c r="A79" s="163"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4220,7 +4220,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="162"/>
+      <c r="A80" s="163"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4235,7 +4235,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="162"/>
+      <c r="A81" s="163"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4251,11 +4251,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4263,6 +4258,11 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4273,8 +4273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4292,111 +4292,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="170" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="199"/>
-      <c r="H1" s="216" t="s">
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="172"/>
+      <c r="H1" s="189" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="217"/>
-      <c r="J1" s="218"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="191"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="200"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="175"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="214" t="s">
+      <c r="I2" s="187" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="215"/>
+      <c r="J2" s="188"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="203"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="205"/>
+      <c r="A3" s="176"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="178"/>
       <c r="H3" s="137"/>
-      <c r="I3" s="214" t="s">
+      <c r="I3" s="187" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="215"/>
+      <c r="J3" s="188"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="181" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="182"/>
       <c r="F4" s="44"/>
       <c r="G4" s="32"/>
       <c r="H4" s="147"/>
-      <c r="I4" s="214" t="s">
+      <c r="I4" s="187" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="215"/>
+      <c r="J4" s="188"/>
       <c r="K4" s="136"/>
-      <c r="L4" s="167" t="s">
+      <c r="L4" s="194" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="169"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="196"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="93"/>
       <c r="U4" s="93"/>
-      <c r="V4" s="176" t="s">
+      <c r="V4" s="203" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="177"/>
-      <c r="X4" s="177"/>
-      <c r="Y4" s="177"/>
-      <c r="Z4" s="178"/>
+      <c r="W4" s="204"/>
+      <c r="X4" s="204"/>
+      <c r="Y4" s="204"/>
+      <c r="Z4" s="205"/>
       <c r="AA4" s="93"/>
       <c r="AB4" s="32"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210"/>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="211"/>
+      <c r="A5" s="183"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="44"/>
       <c r="G5" s="32"/>
       <c r="H5" s="154"/>
-      <c r="I5" s="219" t="s">
+      <c r="I5" s="192" t="s">
         <v>385</v>
       </c>
-      <c r="J5" s="220"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="171"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="172"/>
+      <c r="J5" s="193"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="198"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="199"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="93"/>
       <c r="U5" s="93"/>
-      <c r="V5" s="179"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="181"/>
+      <c r="V5" s="206"/>
+      <c r="W5" s="207"/>
+      <c r="X5" s="207"/>
+      <c r="Y5" s="207"/>
+      <c r="Z5" s="208"/>
       <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4457,7 +4457,7 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="206" t="s">
+      <c r="A7" s="179" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="88" t="s">
@@ -4472,9 +4472,11 @@
       <c r="E7" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>382</v>
+      </c>
       <c r="G7" s="32"/>
-      <c r="L7" s="173" t="s">
+      <c r="L7" s="200" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
@@ -4516,7 +4518,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="206"/>
+      <c r="A8" s="179"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4535,7 +4537,7 @@
       <c r="G8" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L8" s="174"/>
+      <c r="L8" s="201"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4575,7 +4577,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="206"/>
+      <c r="A9" s="179"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4594,7 +4596,7 @@
       <c r="G9" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="174"/>
+      <c r="L9" s="201"/>
       <c r="M9" s="70" t="s">
         <v>173</v>
       </c>
@@ -4634,7 +4636,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="206"/>
+      <c r="A10" s="179"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4653,7 +4655,7 @@
       <c r="G10" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="174"/>
+      <c r="L10" s="201"/>
       <c r="M10" s="70" t="s">
         <v>178</v>
       </c>
@@ -4691,7 +4693,7 @@
       <c r="AA10" s="93"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="206"/>
+      <c r="A11" s="179"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4710,7 +4712,7 @@
       <c r="G11" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="174"/>
+      <c r="L11" s="201"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4738,7 +4740,7 @@
       <c r="AA11" s="32"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="206"/>
+      <c r="A12" s="179"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4757,7 +4759,7 @@
       <c r="G12" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L12" s="174"/>
+      <c r="L12" s="201"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4785,7 +4787,7 @@
       <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="206"/>
+      <c r="A13" s="179"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4804,7 +4806,7 @@
       <c r="G13" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="174"/>
+      <c r="L13" s="201"/>
       <c r="M13" s="70" t="s">
         <v>181</v>
       </c>
@@ -4832,7 +4834,7 @@
       <c r="AB13" s="93"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="212"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="91" t="s">
         <v>181</v>
       </c>
@@ -4851,7 +4853,7 @@
       <c r="G14" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L14" s="175"/>
+      <c r="L14" s="202"/>
       <c r="M14" s="91" t="s">
         <v>350</v>
       </c>
@@ -4880,7 +4882,7 @@
       <c r="AC14" s="93"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="213" t="s">
+      <c r="A15" s="186" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -4901,7 +4903,7 @@
       <c r="G15" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L15" s="188" t="s">
+      <c r="L15" s="215" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="112" t="s">
@@ -4922,19 +4924,19 @@
       <c r="R15" t="s">
         <v>384</v>
       </c>
-      <c r="V15" s="182" t="s">
+      <c r="V15" s="209" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="183"/>
-      <c r="X15" s="183"/>
-      <c r="Y15" s="183"/>
-      <c r="Z15" s="183"/>
-      <c r="AA15" s="183"/>
-      <c r="AB15" s="183"/>
-      <c r="AC15" s="184"/>
+      <c r="W15" s="210"/>
+      <c r="X15" s="210"/>
+      <c r="Y15" s="210"/>
+      <c r="Z15" s="210"/>
+      <c r="AA15" s="210"/>
+      <c r="AB15" s="210"/>
+      <c r="AC15" s="211"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="206"/>
+      <c r="A16" s="179"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4953,7 +4955,7 @@
       <c r="G16" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L16" s="189"/>
+      <c r="L16" s="216"/>
       <c r="M16" s="70" t="s">
         <v>183</v>
       </c>
@@ -4985,7 +4987,7 @@
       <c r="AC16" s="138"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="212"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="91" t="s">
         <v>185</v>
       </c>
@@ -5004,7 +5006,7 @@
       <c r="G17" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L17" s="189"/>
+      <c r="L17" s="216"/>
       <c r="M17" s="70" t="s">
         <v>185</v>
       </c>
@@ -5039,7 +5041,7 @@
       <c r="AC17" s="103"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="213" t="s">
+      <c r="A18" s="186" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -5055,7 +5057,7 @@
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="189"/>
+      <c r="L18" s="216"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -5090,7 +5092,7 @@
       <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="206"/>
+      <c r="A19" s="179"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
@@ -5104,7 +5106,7 @@
         <v>192</v>
       </c>
       <c r="F19" s="127"/>
-      <c r="L19" s="190"/>
+      <c r="L19" s="217"/>
       <c r="M19" s="91" t="s">
         <v>356</v>
       </c>
@@ -5139,7 +5141,7 @@
       <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="206"/>
+      <c r="A20" s="179"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
@@ -5153,7 +5155,7 @@
         <v>194</v>
       </c>
       <c r="F20" s="127"/>
-      <c r="L20" s="188" t="s">
+      <c r="L20" s="215" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="109" t="s">
@@ -5181,7 +5183,7 @@
       <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="206"/>
+      <c r="A21" s="179"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="127"/>
-      <c r="L21" s="189"/>
+      <c r="L21" s="216"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5223,7 +5225,7 @@
       <c r="AC21" s="106"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="212"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="91" t="s">
         <v>197</v>
       </c>
@@ -5237,7 +5239,7 @@
         <v>198</v>
       </c>
       <c r="F22" s="127"/>
-      <c r="L22" s="189"/>
+      <c r="L22" s="216"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5269,7 +5271,7 @@
       <c r="AC22" s="106"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="213" t="s">
+      <c r="A23" s="186" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="143" t="s">
@@ -5285,7 +5287,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="127"/>
-      <c r="L23" s="189"/>
+      <c r="L23" s="216"/>
       <c r="M23" s="109" t="s">
         <v>359</v>
       </c>
@@ -5317,7 +5319,7 @@
       <c r="AC23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="206"/>
+      <c r="A24" s="179"/>
       <c r="B24" s="26" t="s">
         <v>203</v>
       </c>
@@ -5331,7 +5333,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="127"/>
-      <c r="L24" s="189"/>
+      <c r="L24" s="216"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5363,7 +5365,7 @@
       <c r="AC24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="206"/>
+      <c r="A25" s="179"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
@@ -5377,7 +5379,7 @@
         <v>206</v>
       </c>
       <c r="F25" s="127"/>
-      <c r="L25" s="189"/>
+      <c r="L25" s="216"/>
       <c r="M25" s="71" t="s">
         <v>361</v>
       </c>
@@ -5403,7 +5405,7 @@
       <c r="AC25" s="106"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="206"/>
+      <c r="A26" s="179"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5416,8 +5418,10 @@
       <c r="E26" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F26" s="127"/>
-      <c r="L26" s="190"/>
+      <c r="F26" s="127" t="s">
+        <v>382</v>
+      </c>
+      <c r="L26" s="217"/>
       <c r="M26" s="74" t="s">
         <v>362</v>
       </c>
@@ -5445,7 +5449,7 @@
       <c r="AC26" s="106"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="206"/>
+      <c r="A27" s="179"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5459,7 +5463,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="127"/>
-      <c r="L27" s="191" t="s">
+      <c r="L27" s="218" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="84" t="s">
@@ -5496,7 +5500,7 @@
       <c r="AC27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="206"/>
+      <c r="A28" s="179"/>
       <c r="B28" s="151" t="s">
         <v>376</v>
       </c>
@@ -5510,7 +5514,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="127"/>
-      <c r="L28" s="192"/>
+      <c r="L28" s="219"/>
       <c r="M28" s="26"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -5532,7 +5536,7 @@
       <c r="AC28" s="106"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="212"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="132" t="s">
         <v>377</v>
       </c>
@@ -5546,7 +5550,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="127"/>
-      <c r="L29" s="193"/>
+      <c r="L29" s="220"/>
       <c r="M29" s="113" t="s">
         <v>364</v>
       </c>
@@ -5559,7 +5563,9 @@
       <c r="P29" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="Q29" s="44"/>
+      <c r="Q29" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="S29" t="s">
         <v>387</v>
       </c>
@@ -5573,7 +5579,7 @@
       <c r="AC29" s="106"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="206" t="s">
+      <c r="A30" s="179" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5611,7 +5617,7 @@
       <c r="AC30" s="106"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="206"/>
+      <c r="A31" s="179"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5648,7 +5654,7 @@
       <c r="AC31" s="106"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="207"/>
+      <c r="A32" s="180"/>
       <c r="B32" s="42" t="s">
         <v>364</v>
       </c>
@@ -5712,27 +5718,27 @@
       <c r="AD33" s="93"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="194" t="s">
+      <c r="B34" s="167" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="195"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="195"/>
-      <c r="F34" s="195"/>
-      <c r="G34" s="195"/>
-      <c r="H34" s="195"/>
-      <c r="I34" s="196"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="168"/>
+      <c r="F34" s="168"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="169"/>
       <c r="J34" s="135"/>
-      <c r="L34" s="185" t="s">
+      <c r="L34" s="212" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="186"/>
-      <c r="N34" s="186"/>
-      <c r="O34" s="186"/>
-      <c r="P34" s="186"/>
-      <c r="Q34" s="186"/>
-      <c r="R34" s="186"/>
-      <c r="S34" s="187"/>
+      <c r="M34" s="213"/>
+      <c r="N34" s="213"/>
+      <c r="O34" s="213"/>
+      <c r="P34" s="213"/>
+      <c r="Q34" s="213"/>
+      <c r="R34" s="213"/>
+      <c r="S34" s="214"/>
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -7636,6 +7642,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7649,14 +7663,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FAC94F-628C-488F-AC96-BC8759BAD20D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64221909-3AC4-404A-B1A7-D82C130927AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="392">
   <si>
     <t>Item#</t>
   </si>
@@ -1266,6 +1266,12 @@
   </si>
   <si>
     <t>~x</t>
+  </si>
+  <si>
+    <t>***Solid and flex pcb both soldered</t>
+  </si>
+  <si>
+    <t>8.0 MHz Resonator</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +1991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2055,7 +2061,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -2084,10 +2089,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2380,6 +2381,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2434,9 +2443,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2556,6 +2562,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2897,24 +2912,24 @@
     <col min="3" max="3" width="30" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="141" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="138" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="163" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2936,14 +2951,14 @@
       <c r="G2" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="166" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2961,17 +2976,17 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="141">
+      <c r="G3" s="138">
         <v>1</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="166"/>
+      <c r="A4" s="167"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2984,17 +2999,17 @@
       <c r="E4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="141">
+      <c r="G4" s="138">
         <v>1</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="166"/>
+      <c r="A5" s="167"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3010,24 +3025,24 @@
       <c r="F5" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="141">
+      <c r="G5" s="138">
         <v>0</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="164" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3042,17 +3057,17 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="141" t="s">
+      <c r="G7" s="138" t="s">
         <v>379</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
+      <c r="A8" s="164"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3065,17 +3080,17 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="141" t="s">
+      <c r="G8" s="138" t="s">
         <v>379</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
+      <c r="A9" s="164"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3088,17 +3103,17 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="141" t="s">
+      <c r="G9" s="138" t="s">
         <v>379</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
+      <c r="A10" s="164"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3111,17 +3126,17 @@
       <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="141" t="s">
+      <c r="G10" s="138" t="s">
         <v>379</v>
       </c>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
+      <c r="A11" s="164"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3134,17 +3149,17 @@
       <c r="E11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="141" t="s">
+      <c r="G11" s="138" t="s">
         <v>379</v>
       </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
+      <c r="A12" s="164"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3157,21 +3172,21 @@
       <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="141" t="s">
+      <c r="G12" s="138" t="s">
         <v>379</v>
       </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
     </row>
     <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -3189,24 +3204,24 @@
       <c r="E14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="141">
+      <c r="G14" s="138">
         <v>1</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="164" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3218,18 +3233,18 @@
       <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="G16" s="142">
+      <c r="G16" s="139">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
+      <c r="A17" s="164"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3239,17 +3254,17 @@
       <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="G17" s="142">
+      <c r="G17" s="139">
         <v>2</v>
       </c>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="163"/>
+      <c r="A18" s="164"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3259,17 +3274,17 @@
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="G18" s="142">
+      <c r="G18" s="139">
         <v>1</v>
       </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="163"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3279,18 +3294,18 @@
       <c r="D19" s="5">
         <v>10</v>
       </c>
-      <c r="G19" s="142">
+      <c r="G19" s="139">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="163"/>
+      <c r="A20" s="164"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3300,18 +3315,18 @@
       <c r="D20" s="5">
         <v>10</v>
       </c>
-      <c r="G20" s="142">
+      <c r="G20" s="139">
         <f>1+2</f>
         <v>3</v>
       </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="163"/>
+      <c r="A21" s="164"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3321,17 +3336,17 @@
       <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="G21" s="142">
+      <c r="G21" s="139">
         <v>1</v>
       </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="163"/>
+      <c r="A22" s="164"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3341,18 +3356,18 @@
       <c r="D22" s="5">
         <v>20</v>
       </c>
-      <c r="G22" s="142">
+      <c r="G22" s="139">
         <f>2+4</f>
         <v>6</v>
       </c>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="163"/>
+      <c r="A23" s="164"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3362,18 +3377,18 @@
       <c r="D23" s="5">
         <v>20</v>
       </c>
-      <c r="G23" s="142">
+      <c r="G23" s="139">
         <f>2+3+2</f>
         <v>7</v>
       </c>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="163"/>
+      <c r="A24" s="164"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3383,17 +3398,17 @@
       <c r="D24" s="5">
         <v>10</v>
       </c>
-      <c r="G24" s="142">
+      <c r="G24" s="139">
         <v>4</v>
       </c>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="163"/>
+      <c r="A25" s="164"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3403,17 +3418,17 @@
       <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="G25" s="142">
+      <c r="G25" s="139">
         <v>1</v>
       </c>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="163"/>
+      <c r="A26" s="164"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3423,17 +3438,17 @@
       <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="G26" s="142">
+      <c r="G26" s="139">
         <v>1</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="163"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3443,24 +3458,24 @@
       <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="G27" s="142">
+      <c r="G27" s="139">
         <v>2</v>
       </c>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
     </row>
     <row r="28" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="163" t="s">
+      <c r="A29" s="164" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3472,18 +3487,18 @@
       <c r="D29" s="5">
         <v>15</v>
       </c>
-      <c r="G29" s="142">
+      <c r="G29" s="139">
         <f>2+3</f>
         <v>5</v>
       </c>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="163"/>
+      <c r="A30" s="164"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3493,17 +3508,17 @@
       <c r="D30" s="5">
         <v>5</v>
       </c>
-      <c r="G30" s="142">
+      <c r="G30" s="139">
         <v>1</v>
       </c>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="163"/>
+      <c r="A31" s="164"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3513,17 +3528,17 @@
       <c r="D31" s="5">
         <v>5</v>
       </c>
-      <c r="G31" s="142">
+      <c r="G31" s="139">
         <v>1</v>
       </c>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="163"/>
+      <c r="A32" s="164"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3533,17 +3548,17 @@
       <c r="D32" s="5">
         <v>30</v>
       </c>
-      <c r="G32" s="142">
+      <c r="G32" s="139">
         <v>14</v>
       </c>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="163"/>
+      <c r="A33" s="164"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3553,17 +3568,17 @@
       <c r="D33" s="5">
         <v>20</v>
       </c>
-      <c r="G33" s="142">
+      <c r="G33" s="139">
         <v>9</v>
       </c>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="163"/>
+      <c r="A34" s="164"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3576,17 +3591,17 @@
       <c r="E34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="141" t="s">
+      <c r="G34" s="138" t="s">
         <v>379</v>
       </c>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="163" t="s">
+      <c r="A36" s="164" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3598,12 +3613,12 @@
       <c r="D36" s="5">
         <v>4</v>
       </c>
-      <c r="G36" s="141">
+      <c r="G36" s="138">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="163"/>
+      <c r="A37" s="164"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3613,12 +3628,12 @@
       <c r="D37" s="5">
         <v>4</v>
       </c>
-      <c r="G37" s="141" t="s">
+      <c r="G37" s="138" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="163" t="s">
+      <c r="A39" s="164" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3636,12 +3651,12 @@
       <c r="F39" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="141">
+      <c r="G39" s="138">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="163"/>
+      <c r="A40" s="164"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3654,12 +3669,12 @@
       <c r="E40" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="141">
+      <c r="G40" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="163"/>
+      <c r="A41" s="164"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3672,12 +3687,12 @@
       <c r="E41" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="141">
+      <c r="G41" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="163"/>
+      <c r="A42" s="164"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3693,7 +3708,7 @@
       <c r="F42" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="141">
+      <c r="G42" s="138">
         <v>1</v>
       </c>
     </row>
@@ -3707,12 +3722,12 @@
       <c r="D43" s="5">
         <v>1</v>
       </c>
-      <c r="G43" s="141" t="s">
+      <c r="G43" s="138" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="164" t="s">
+      <c r="A45" s="165" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3727,12 +3742,12 @@
       <c r="E45" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="141">
+      <c r="G45" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="164"/>
+      <c r="A46" s="165"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3745,7 +3760,7 @@
       <c r="E46" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="141">
+      <c r="G46" s="138">
         <v>1</v>
       </c>
     </row>
@@ -3754,7 +3769,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="164" t="s">
+      <c r="A48" s="165" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3771,7 +3786,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="164"/>
+      <c r="A49" s="165"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3783,7 +3798,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="163" t="s">
+      <c r="A51" s="164" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3798,12 +3813,12 @@
       <c r="F51" t="s">
         <v>94</v>
       </c>
-      <c r="G51" s="141" t="s">
+      <c r="G51" s="138" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="163"/>
+      <c r="A52" s="164"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3813,12 +3828,12 @@
       <c r="D52" s="5">
         <v>4</v>
       </c>
-      <c r="G52" s="141">
+      <c r="G52" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="163"/>
+      <c r="A53" s="164"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3828,12 +3843,12 @@
       <c r="D53" s="5">
         <v>4</v>
       </c>
-      <c r="G53" s="141">
+      <c r="G53" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="163"/>
+      <c r="A54" s="164"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3843,30 +3858,30 @@
       <c r="D54" s="5">
         <v>5</v>
       </c>
-      <c r="G54" s="141">
+      <c r="G54" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="163"/>
-      <c r="B55" s="37" t="s">
+      <c r="A55" s="164"/>
+      <c r="B55" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="C55" s="37" t="s">
         <v>89</v>
       </c>
       <c r="D55" s="24">
         <v>4</v>
       </c>
-      <c r="E55" s="38" t="s">
+      <c r="E55" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G55" s="141" t="s">
+      <c r="G55" s="138" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="163"/>
+      <c r="A56" s="164"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3876,12 +3891,12 @@
       <c r="D56" s="5">
         <v>4</v>
       </c>
-      <c r="G56" s="141">
+      <c r="G56" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="163"/>
+      <c r="A57" s="164"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3891,12 +3906,12 @@
       <c r="D57" s="5">
         <v>4</v>
       </c>
-      <c r="G57" s="141" t="s">
+      <c r="G57" s="138" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="163"/>
+      <c r="A58" s="164"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3906,12 +3921,12 @@
       <c r="D58" s="5">
         <v>5</v>
       </c>
-      <c r="G58" s="141">
+      <c r="G58" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="163"/>
+      <c r="A59" s="164"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3921,12 +3936,12 @@
       <c r="D59" s="5">
         <v>4</v>
       </c>
-      <c r="G59" s="141">
+      <c r="G59" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="163"/>
+      <c r="A60" s="164"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3941,7 +3956,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="163"/>
+      <c r="A61" s="164"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3954,30 +3969,30 @@
       <c r="E61" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G61" s="141">
+      <c r="G61" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="163"/>
-      <c r="B62" s="37" t="s">
+      <c r="A62" s="164"/>
+      <c r="B62" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="37" t="s">
         <v>89</v>
       </c>
       <c r="D62" s="24">
         <v>4</v>
       </c>
-      <c r="E62" s="38" t="s">
+      <c r="E62" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="G62" s="141" t="s">
+      <c r="G62" s="138" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="163"/>
+      <c r="A63" s="164"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3990,12 +4005,12 @@
       <c r="E63" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G63" s="141" t="s">
+      <c r="G63" s="138" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="163"/>
+      <c r="A64" s="164"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -4008,12 +4023,12 @@
       <c r="E64" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G64" s="141">
+      <c r="G64" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="163"/>
+      <c r="A65" s="164"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -4026,12 +4041,12 @@
       <c r="E65" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G65" s="141">
+      <c r="G65" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="163"/>
+      <c r="A66" s="164"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4046,7 +4061,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="163"/>
+      <c r="A67" s="164"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4061,7 +4076,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="163"/>
+      <c r="A68" s="164"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4076,7 +4091,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="163" t="s">
+      <c r="A70" s="164" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4091,12 +4106,12 @@
       <c r="E70" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G70" s="141">
+      <c r="G70" s="138">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="163"/>
+      <c r="A71" s="164"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4108,7 +4123,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="163"/>
+      <c r="A72" s="164"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4124,7 +4139,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="163" t="s">
+      <c r="A74" s="164" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4139,13 +4154,13 @@
       <c r="E74" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G74" s="142"/>
+      <c r="G74" s="139"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="163"/>
+      <c r="A75" s="164"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4160,7 +4175,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="163"/>
+      <c r="A76" s="164"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4175,7 +4190,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="163"/>
+      <c r="A77" s="164"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4190,7 +4205,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="163"/>
+      <c r="A78" s="164"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4205,7 +4220,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="163"/>
+      <c r="A79" s="164"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4220,7 +4235,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="163"/>
+      <c r="A80" s="164"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4235,7 +4250,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="163"/>
+      <c r="A81" s="164"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4271,10 +4286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
-  <dimension ref="A1:AD93"/>
+  <dimension ref="A1:AE94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4285,21 +4300,21 @@
     <col min="12" max="12" width="8.7109375" style="5" customWidth="1"/>
     <col min="13" max="13" width="40.7109375" customWidth="1"/>
     <col min="14" max="15" width="9.140625" style="5"/>
-    <col min="16" max="16" width="15.7109375" style="51" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="48" customWidth="1"/>
     <col min="22" max="22" width="12.7109375" customWidth="1"/>
     <col min="23" max="23" width="35.7109375" customWidth="1"/>
     <col min="26" max="26" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="171" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="172"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="173"/>
       <c r="H1" s="189" t="s">
         <v>369</v>
       </c>
@@ -4307,35 +4322,35 @@
       <c r="J1" s="191"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="173"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="175"/>
-      <c r="H2" s="77"/>
+    <row r="2" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="174"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="176"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="187" t="s">
         <v>370</v>
       </c>
       <c r="J2" s="188"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="176"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="178"/>
-      <c r="H3" s="137"/>
+    <row r="3" spans="1:31" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="177"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
+      <c r="H3" s="134"/>
       <c r="I3" s="187" t="s">
         <v>365</v>
       </c>
       <c r="J3" s="188"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="181" t="s">
         <v>180</v>
       </c>
@@ -4343,14 +4358,14 @@
       <c r="C4" s="181"/>
       <c r="D4" s="181"/>
       <c r="E4" s="182"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="147"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="144"/>
       <c r="I4" s="187" t="s">
         <v>371</v>
       </c>
       <c r="J4" s="188"/>
-      <c r="K4" s="136"/>
+      <c r="K4" s="133"/>
       <c r="L4" s="194" t="s">
         <v>357</v>
       </c>
@@ -4358,9 +4373,9 @@
       <c r="N4" s="195"/>
       <c r="O4" s="195"/>
       <c r="P4" s="196"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="93"/>
-      <c r="U4" s="93"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="90"/>
+      <c r="U4" s="90"/>
       <c r="V4" s="203" t="s">
         <v>372</v>
       </c>
@@ -4368,18 +4383,18 @@
       <c r="X4" s="204"/>
       <c r="Y4" s="204"/>
       <c r="Z4" s="205"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="32"/>
-    </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="31"/>
+    </row>
+    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="183"/>
       <c r="B5" s="183"/>
       <c r="C5" s="183"/>
       <c r="D5" s="183"/>
       <c r="E5" s="184"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="154"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="151"/>
       <c r="I5" s="192" t="s">
         <v>385</v>
       </c>
@@ -4389,21 +4404,21 @@
       <c r="N5" s="198"/>
       <c r="O5" s="198"/>
       <c r="P5" s="199"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="93"/>
-      <c r="U5" s="93"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="90"/>
+      <c r="U5" s="90"/>
       <c r="V5" s="206"/>
       <c r="W5" s="207"/>
       <c r="X5" s="207"/>
       <c r="Y5" s="207"/>
       <c r="Z5" s="208"/>
-      <c r="AA5" s="93"/>
-    </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="128" t="s">
+      <c r="AA5" s="90"/>
+    </row>
+    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -4412,17 +4427,17 @@
       <c r="D6" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="146" t="s">
+      <c r="F6" s="31"/>
+      <c r="G6" s="143" t="s">
         <v>383</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="27" t="s">
         <v>162</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -4431,42 +4446,48 @@
       <c r="O6" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="Q6" s="44"/>
+      <c r="Q6" s="41"/>
       <c r="R6" t="s">
         <v>383</v>
       </c>
-      <c r="U6" s="93"/>
-      <c r="V6" s="94" t="s">
+      <c r="U6" s="90"/>
+      <c r="V6" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="W6" s="95" t="s">
+      <c r="W6" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="X6" s="96" t="s">
+      <c r="X6" s="93" t="s">
         <v>163</v>
       </c>
-      <c r="Y6" s="96" t="s">
+      <c r="Y6" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="Z6" s="55" t="s">
+      <c r="Z6" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="AA6" s="93"/>
-    </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="179" t="s">
+      <c r="AA6" s="221" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB6" s="222"/>
+      <c r="AC6" s="222"/>
+      <c r="AD6" s="222"/>
+      <c r="AE6" s="222"/>
+    </row>
+    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <v>2</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <v>0</v>
       </c>
       <c r="E7" s="26" t="s">
@@ -4475,57 +4496,57 @@
       <c r="F7" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="31"/>
       <c r="L7" s="200" t="s">
         <v>339</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="85" t="s">
         <v>340</v>
       </c>
-      <c r="N7" s="89">
+      <c r="N7" s="86">
         <v>1</v>
       </c>
-      <c r="O7" s="89">
+      <c r="O7" s="86">
         <v>5</v>
       </c>
-      <c r="P7" s="90" t="s">
+      <c r="P7" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="Q7" s="44" t="s">
+      <c r="Q7" s="41" t="s">
         <v>382</v>
       </c>
       <c r="R7" t="s">
         <v>384</v>
       </c>
-      <c r="U7" s="93"/>
-      <c r="V7" s="97" t="s">
+      <c r="U7" s="90"/>
+      <c r="V7" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="119" t="s">
+      <c r="W7" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="X7" s="120">
+      <c r="X7" s="117">
         <v>2</v>
       </c>
-      <c r="Y7" s="120">
+      <c r="Y7" s="117">
         <v>20</v>
       </c>
-      <c r="Z7" s="121" t="s">
+      <c r="Z7" s="118" t="s">
         <v>343</v>
       </c>
-      <c r="AA7" s="93" t="s">
+      <c r="AA7" s="90" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="179"/>
+    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="180"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>1</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>5</v>
       </c>
       <c r="E8" s="26" t="s">
@@ -4534,119 +4555,119 @@
       <c r="F8" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>384</v>
       </c>
       <c r="L8" s="201"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="N8" s="50">
+      <c r="N8" s="47">
         <v>1</v>
       </c>
-      <c r="O8" s="50">
+      <c r="O8" s="47">
         <v>5</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="Q8" s="44" t="s">
+      <c r="Q8" s="41" t="s">
         <v>382</v>
       </c>
       <c r="R8" t="s">
         <v>384</v>
       </c>
-      <c r="U8" s="93"/>
-      <c r="V8" s="98" t="s">
+      <c r="U8" s="90"/>
+      <c r="V8" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="116" t="s">
+      <c r="W8" s="113" t="s">
         <v>351</v>
       </c>
-      <c r="X8" s="117">
+      <c r="X8" s="114">
         <v>2</v>
       </c>
-      <c r="Y8" s="117">
+      <c r="Y8" s="114">
         <v>30</v>
       </c>
-      <c r="Z8" s="118" t="s">
+      <c r="Z8" s="115" t="s">
         <v>366</v>
       </c>
-      <c r="AA8" s="93" t="s">
+      <c r="AA8" s="90" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="179"/>
+    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="180"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>3</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>10</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="44" t="s">
         <v>171</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="31" t="s">
         <v>384</v>
       </c>
       <c r="L9" s="201"/>
-      <c r="M9" s="70" t="s">
+      <c r="M9" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="N9" s="110">
+      <c r="N9" s="107">
         <v>3</v>
       </c>
-      <c r="O9" s="110">
+      <c r="O9" s="107">
         <v>20</v>
       </c>
-      <c r="P9" s="111" t="s">
+      <c r="P9" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="Q9" s="44" t="s">
+      <c r="Q9" s="41" t="s">
         <v>382</v>
       </c>
       <c r="R9" t="s">
         <v>384</v>
       </c>
-      <c r="U9" s="93"/>
-      <c r="V9" s="123" t="s">
+      <c r="U9" s="90"/>
+      <c r="V9" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="121" t="s">
         <v>367</v>
       </c>
-      <c r="X9" s="125">
+      <c r="X9" s="122">
         <v>1</v>
       </c>
-      <c r="Y9" s="125">
+      <c r="Y9" s="122">
         <v>5</v>
       </c>
-      <c r="Z9" s="126" t="s">
+      <c r="Z9" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="AA9" s="93" t="s">
+      <c r="AA9" s="90" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="179"/>
+    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="180"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="34">
         <v>1</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <v>5</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="44" t="s">
         <v>174</v>
       </c>
       <c r="F10" s="14" t="s">
@@ -4656,54 +4677,54 @@
         <v>384</v>
       </c>
       <c r="L10" s="201"/>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="N10" s="110">
+      <c r="N10" s="107">
         <v>2</v>
       </c>
-      <c r="O10" s="110">
+      <c r="O10" s="107">
         <v>10</v>
       </c>
-      <c r="P10" s="111" t="s">
+      <c r="P10" s="108" t="s">
         <v>166</v>
       </c>
-      <c r="Q10" s="44" t="s">
+      <c r="Q10" s="41" t="s">
         <v>382</v>
       </c>
       <c r="R10" t="s">
         <v>384</v>
       </c>
-      <c r="U10" s="93"/>
-      <c r="V10" s="122" t="s">
+      <c r="U10" s="90"/>
+      <c r="V10" s="119" t="s">
         <v>213</v>
       </c>
-      <c r="W10" s="159" t="s">
+      <c r="W10" s="156" t="s">
         <v>368</v>
       </c>
-      <c r="X10" s="160" t="s">
+      <c r="X10" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" s="160" t="s">
+      <c r="Y10" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="161" t="s">
+      <c r="Z10" s="158" t="s">
         <v>278</v>
       </c>
-      <c r="AA10" s="93"/>
-    </row>
-    <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="179"/>
+      <c r="AA10" s="90"/>
+    </row>
+    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="180"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="34">
         <v>2</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>20</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="44" t="s">
         <v>175</v>
       </c>
       <c r="F11" s="14" t="s">
@@ -4716,41 +4737,41 @@
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="N11" s="50">
+      <c r="N11" s="47">
         <v>2</v>
       </c>
-      <c r="O11" s="50">
+      <c r="O11" s="47">
         <v>5</v>
       </c>
-      <c r="P11" s="53" t="s">
+      <c r="P11" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="Q11" s="44" t="s">
+      <c r="Q11" s="41" t="s">
         <v>382</v>
       </c>
       <c r="R11" t="s">
         <v>384</v>
       </c>
       <c r="U11" s="26"/>
-      <c r="V11" s="34"/>
+      <c r="V11" s="33"/>
       <c r="W11" s="26"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="32"/>
-    </row>
-    <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="179"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="31"/>
+    </row>
+    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="180"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="34">
         <v>2</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="34">
         <v>5</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="44" t="s">
         <v>177</v>
       </c>
       <c r="F12" s="14" t="s">
@@ -4763,41 +4784,41 @@
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="N12" s="50">
+      <c r="N12" s="47">
         <v>4</v>
       </c>
-      <c r="O12" s="50">
+      <c r="O12" s="47">
         <v>10</v>
       </c>
-      <c r="P12" s="53" t="s">
+      <c r="P12" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="Q12" s="44" t="s">
+      <c r="Q12" s="41" t="s">
         <v>382</v>
       </c>
       <c r="R12" t="s">
         <v>384</v>
       </c>
-      <c r="U12" s="93"/>
-      <c r="V12" s="34"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="33"/>
       <c r="W12" s="26"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="32"/>
-    </row>
-    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="179"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="31"/>
+    </row>
+    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="180"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="34">
         <v>1</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>10</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="44" t="s">
         <v>179</v>
       </c>
       <c r="F13" s="14" t="s">
@@ -4807,44 +4828,44 @@
         <v>384</v>
       </c>
       <c r="L13" s="201"/>
-      <c r="M13" s="70" t="s">
+      <c r="M13" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="N13" s="110">
+      <c r="N13" s="107">
         <v>2</v>
       </c>
-      <c r="O13" s="110">
+      <c r="O13" s="107">
         <v>20</v>
       </c>
-      <c r="P13" s="111" t="s">
+      <c r="P13" s="108" t="s">
         <v>349</v>
       </c>
-      <c r="Q13" s="44" t="s">
+      <c r="Q13" s="41" t="s">
         <v>382</v>
       </c>
       <c r="R13" t="s">
         <v>384</v>
       </c>
-      <c r="V13" s="100"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="54"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="51"/>
       <c r="AA13" s="26"/>
-      <c r="AB13" s="93"/>
-    </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB13" s="90"/>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="185"/>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="129">
+      <c r="C14" s="126">
         <v>4</v>
       </c>
-      <c r="D14" s="129">
+      <c r="D14" s="126">
         <v>20</v>
       </c>
-      <c r="E14" s="131" t="s">
+      <c r="E14" s="128" t="s">
         <v>182</v>
       </c>
       <c r="F14" s="14" t="s">
@@ -4854,47 +4875,47 @@
         <v>384</v>
       </c>
       <c r="L14" s="202"/>
-      <c r="M14" s="91" t="s">
+      <c r="M14" s="88" t="s">
         <v>350</v>
       </c>
-      <c r="N14" s="75">
+      <c r="N14" s="72">
         <v>1</v>
       </c>
-      <c r="O14" s="75">
+      <c r="O14" s="72">
         <v>5</v>
       </c>
-      <c r="P14" s="76" t="s">
+      <c r="P14" s="73" t="s">
         <v>244</v>
       </c>
-      <c r="Q14" s="44" t="s">
+      <c r="Q14" s="41" t="s">
         <v>382</v>
       </c>
       <c r="R14" t="s">
         <v>384</v>
       </c>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-    </row>
-    <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+    </row>
+    <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="47">
         <v>1</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="47">
         <v>30</v>
       </c>
-      <c r="E15" s="133" t="s">
+      <c r="E15" s="130" t="s">
         <v>187</v>
       </c>
       <c r="F15" s="14" t="s">
@@ -4906,19 +4927,19 @@
       <c r="L15" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="112" t="s">
+      <c r="M15" s="109" t="s">
         <v>351</v>
       </c>
-      <c r="N15" s="110">
+      <c r="N15" s="107">
         <v>10</v>
       </c>
-      <c r="O15" s="110">
+      <c r="O15" s="107">
         <v>30</v>
       </c>
-      <c r="P15" s="111" t="s">
+      <c r="P15" s="108" t="s">
         <v>352</v>
       </c>
-      <c r="Q15" s="44" t="s">
+      <c r="Q15" s="41" t="s">
         <v>382</v>
       </c>
       <c r="R15" t="s">
@@ -4935,18 +4956,18 @@
       <c r="AB15" s="210"/>
       <c r="AC15" s="211"/>
     </row>
-    <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="179"/>
+    <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="180"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <v>2</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>15</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="44" t="s">
         <v>184</v>
       </c>
       <c r="F16" s="14" t="s">
@@ -4956,48 +4977,48 @@
         <v>384</v>
       </c>
       <c r="L16" s="216"/>
-      <c r="M16" s="70" t="s">
+      <c r="M16" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="N16" s="110">
+      <c r="N16" s="107">
         <v>3</v>
       </c>
-      <c r="O16" s="110">
+      <c r="O16" s="107">
         <v>15</v>
       </c>
-      <c r="P16" s="111" t="s">
+      <c r="P16" s="108" t="s">
         <v>353</v>
       </c>
-      <c r="Q16" s="44" t="s">
+      <c r="Q16" s="41" t="s">
         <v>382</v>
       </c>
       <c r="R16" t="s">
         <v>384</v>
       </c>
-      <c r="S16" s="32"/>
-      <c r="V16" s="101" t="s">
+      <c r="S16" s="31"/>
+      <c r="V16" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="W16" s="102"/>
-      <c r="X16" s="102"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
-      <c r="AC16" s="138"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
+      <c r="Y16" s="99"/>
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="135"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="185"/>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="129">
+      <c r="C17" s="126">
         <v>5</v>
       </c>
-      <c r="D17" s="129">
+      <c r="D17" s="126">
         <v>20</v>
       </c>
-      <c r="E17" s="131" t="s">
+      <c r="E17" s="128" t="s">
         <v>188</v>
       </c>
       <c r="F17" s="14" t="s">
@@ -5007,38 +5028,38 @@
         <v>384</v>
       </c>
       <c r="L17" s="216"/>
-      <c r="M17" s="70" t="s">
+      <c r="M17" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="N17" s="110">
+      <c r="N17" s="107">
         <v>4</v>
       </c>
-      <c r="O17" s="110">
+      <c r="O17" s="107">
         <v>20</v>
       </c>
-      <c r="P17" s="111" t="s">
+      <c r="P17" s="108" t="s">
         <v>354</v>
       </c>
-      <c r="Q17" s="44" t="s">
+      <c r="Q17" s="41" t="s">
         <v>382</v>
       </c>
       <c r="R17" t="s">
         <v>384</v>
       </c>
-      <c r="V17" s="105" t="s">
+      <c r="V17" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="W17" s="99" t="s">
+      <c r="W17" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="X17" s="99" t="s">
+      <c r="X17" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="103"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="96"/>
+      <c r="AC17" s="100"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="186" t="s">
@@ -5047,13 +5068,13 @@
       <c r="B18" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>1</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="34">
         <v>5</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="44" t="s">
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
@@ -5061,801 +5082,802 @@
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="N18" s="50">
+      <c r="N18" s="47">
         <v>1</v>
       </c>
-      <c r="O18" s="50">
+      <c r="O18" s="47">
         <v>5</v>
       </c>
-      <c r="P18" s="53" t="s">
+      <c r="P18" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="Q18" s="44" t="s">
+      <c r="Q18" s="41" t="s">
         <v>382</v>
       </c>
       <c r="R18" t="s">
         <v>384</v>
       </c>
-      <c r="V18" s="105" t="s">
+      <c r="V18" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="W18" s="99" t="s">
+      <c r="W18" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="X18" s="107" t="s">
+      <c r="X18" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="106"/>
+      <c r="Y18" s="96"/>
+      <c r="Z18" s="96"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="96"/>
+      <c r="AC18" s="103"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="179"/>
+      <c r="A19" s="180"/>
       <c r="B19" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>1</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="34">
         <v>5</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="127"/>
+      <c r="F19" s="124"/>
       <c r="L19" s="217"/>
-      <c r="M19" s="91" t="s">
+      <c r="M19" s="88" t="s">
         <v>356</v>
       </c>
-      <c r="N19" s="75">
+      <c r="N19" s="72">
         <v>1</v>
       </c>
-      <c r="O19" s="75">
+      <c r="O19" s="72">
         <v>5</v>
       </c>
-      <c r="P19" s="76" t="s">
+      <c r="P19" s="73" t="s">
         <v>303</v>
       </c>
-      <c r="Q19" s="44" t="s">
+      <c r="Q19" s="41" t="s">
         <v>382</v>
       </c>
       <c r="R19" t="s">
         <v>384</v>
       </c>
-      <c r="V19" s="105" t="s">
+      <c r="V19" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="W19" s="99" t="s">
+      <c r="W19" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="X19" s="107" t="s">
+      <c r="X19" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="106"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="96"/>
+      <c r="AB19" s="96"/>
+      <c r="AC19" s="103"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="179"/>
+      <c r="A20" s="180"/>
       <c r="B20" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="34">
         <v>1</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="34">
         <v>4</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="127"/>
+      <c r="F20" s="124"/>
       <c r="L20" s="215" t="s">
         <v>200</v>
       </c>
-      <c r="M20" s="109" t="s">
+      <c r="M20" s="106" t="s">
         <v>373</v>
       </c>
-      <c r="N20" s="72">
+      <c r="N20" s="69">
         <v>1</v>
       </c>
-      <c r="O20" s="72">
+      <c r="O20" s="69">
         <v>1</v>
       </c>
-      <c r="P20" s="73" t="s">
+      <c r="P20" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="Q20" s="44" t="s">
+      <c r="Q20" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V20" s="105"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="106"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="96"/>
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="96"/>
+      <c r="AB20" s="96"/>
+      <c r="AC20" s="103"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="179"/>
+      <c r="A21" s="180"/>
       <c r="B21" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <v>1</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="34">
         <v>5</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="127"/>
+      <c r="F21" s="124"/>
       <c r="L21" s="216"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="N21" s="50">
+      <c r="N21" s="47">
         <v>2</v>
       </c>
-      <c r="O21" s="50">
+      <c r="O21" s="47">
         <v>5</v>
       </c>
-      <c r="P21" s="53" t="s">
+      <c r="P21" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="Q21" s="44" t="s">
+      <c r="Q21" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V21" s="108" t="s">
+      <c r="V21" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="W21" s="99"/>
-      <c r="X21" s="99"/>
-      <c r="Y21" s="99"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="106"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="96"/>
+      <c r="AB21" s="96"/>
+      <c r="AC21" s="103"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="185"/>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="129">
+      <c r="C22" s="126">
         <v>1</v>
       </c>
-      <c r="D22" s="129">
+      <c r="D22" s="126">
         <v>4</v>
       </c>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="128" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="127"/>
+      <c r="F22" s="124"/>
       <c r="L22" s="216"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="N22" s="50">
+      <c r="N22" s="47">
         <v>1</v>
       </c>
-      <c r="O22" s="50">
+      <c r="O22" s="47">
         <v>4</v>
       </c>
-      <c r="P22" s="53" t="s">
+      <c r="P22" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="Q22" s="44" t="s">
+      <c r="Q22" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V22" s="105" t="s">
+      <c r="V22" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="W22" s="99" t="s">
+      <c r="W22" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="X22" s="99" t="s">
+      <c r="X22" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="106"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="103"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="186" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="140" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="144">
+      <c r="C23" s="141">
         <v>1</v>
       </c>
-      <c r="D23" s="144">
+      <c r="D23" s="141">
         <v>0</v>
       </c>
-      <c r="E23" s="145" t="s">
+      <c r="E23" s="142" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="127"/>
+      <c r="F23" s="124"/>
       <c r="L23" s="216"/>
-      <c r="M23" s="109" t="s">
+      <c r="M23" s="106" t="s">
         <v>359</v>
       </c>
-      <c r="N23" s="72">
+      <c r="N23" s="69">
         <v>1</v>
       </c>
-      <c r="O23" s="72">
+      <c r="O23" s="69">
         <v>3</v>
       </c>
-      <c r="P23" s="73" t="s">
+      <c r="P23" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="Q23" s="44" t="s">
+      <c r="Q23" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V23" s="105" t="s">
+      <c r="V23" s="102" t="s">
         <v>245</v>
       </c>
-      <c r="W23" s="99" t="s">
+      <c r="W23" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="X23" s="107" t="s">
+      <c r="X23" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="106"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="96"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="103"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="179"/>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="180"/>
+      <c r="B24" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="223">
         <v>1</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="223">
         <v>2</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="127"/>
+      <c r="F24" s="124"/>
       <c r="L24" s="216"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="N24" s="50">
+      <c r="N24" s="47">
         <v>1</v>
       </c>
-      <c r="O24" s="50">
+      <c r="O24" s="47">
         <v>4</v>
       </c>
-      <c r="P24" s="53" t="s">
+      <c r="P24" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="Q24" s="44" t="s">
+      <c r="Q24" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V24" s="105" t="s">
+      <c r="V24" s="102" t="s">
         <v>248</v>
       </c>
-      <c r="W24" s="99" t="s">
+      <c r="W24" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="X24" s="107" t="s">
+      <c r="X24" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="106"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="103"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="179"/>
+      <c r="A25" s="180"/>
       <c r="B25" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="34">
         <v>2</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="34">
         <v>5</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="F25" s="127"/>
+      <c r="F25" s="124"/>
       <c r="L25" s="216"/>
-      <c r="M25" s="71" t="s">
+      <c r="M25" s="68" t="s">
         <v>361</v>
       </c>
-      <c r="N25" s="72">
+      <c r="N25" s="69">
         <v>1</v>
       </c>
-      <c r="O25" s="72">
+      <c r="O25" s="69">
         <v>2</v>
       </c>
-      <c r="P25" s="73" t="s">
+      <c r="P25" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="Q25" s="44" t="s">
+      <c r="Q25" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="V25" s="105"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="99"/>
-      <c r="Y25" s="99"/>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="99"/>
-      <c r="AC25" s="106"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="96"/>
+      <c r="Z25" s="96"/>
+      <c r="AA25" s="96"/>
+      <c r="AB25" s="96"/>
+      <c r="AC25" s="103"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="179"/>
+      <c r="A26" s="180"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="34">
         <v>1</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="34">
         <v>1</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="F26" s="127" t="s">
+      <c r="F26" s="124" t="s">
         <v>382</v>
       </c>
       <c r="L26" s="217"/>
-      <c r="M26" s="74" t="s">
+      <c r="M26" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="N26" s="75">
+      <c r="N26" s="72">
         <v>1</v>
       </c>
-      <c r="O26" s="75">
+      <c r="O26" s="72">
         <v>4</v>
       </c>
-      <c r="P26" s="76" t="s">
+      <c r="P26" s="73" t="s">
         <v>327</v>
       </c>
-      <c r="Q26" s="44" t="s">
+      <c r="Q26" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V26" s="105" t="s">
+      <c r="V26" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="99"/>
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="99"/>
-      <c r="AC26" s="106"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="96"/>
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="96"/>
+      <c r="AA26" s="96"/>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="103"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="179"/>
+      <c r="A27" s="180"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="34">
         <v>1</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="34">
         <v>4</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="F27" s="127"/>
+      <c r="F27" s="124" t="s">
+        <v>382</v>
+      </c>
       <c r="L27" s="218" t="s">
         <v>213</v>
       </c>
-      <c r="M27" s="84" t="s">
+      <c r="M27" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="N27" s="85">
+      <c r="N27" s="82">
         <v>1</v>
       </c>
-      <c r="O27" s="85">
+      <c r="O27" s="82">
         <v>4</v>
       </c>
-      <c r="P27" s="86" t="s">
+      <c r="P27" s="83" t="s">
         <v>286</v>
       </c>
-      <c r="Q27" s="44" t="s">
+      <c r="Q27" s="41" t="s">
         <v>382</v>
       </c>
       <c r="S27" t="s">
         <v>386</v>
       </c>
-      <c r="V27" s="105" t="s">
+      <c r="V27" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="W27" s="99" t="s">
+      <c r="W27" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="X27" s="99" t="s">
+      <c r="X27" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="Y27" s="99"/>
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="99"/>
-      <c r="AC27" s="106"/>
+      <c r="Y27" s="96"/>
+      <c r="Z27" s="96"/>
+      <c r="AA27" s="96"/>
+      <c r="AB27" s="96"/>
+      <c r="AC27" s="103"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="179"/>
-      <c r="B28" s="151" t="s">
+      <c r="A28" s="180"/>
+      <c r="B28" s="148" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="152">
+      <c r="C28" s="149">
         <v>1</v>
       </c>
-      <c r="D28" s="152">
+      <c r="D28" s="149">
         <v>0</v>
       </c>
-      <c r="E28" s="153" t="s">
+      <c r="E28" s="150" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="127"/>
+      <c r="F28" s="124"/>
       <c r="L28" s="219"/>
       <c r="M28" s="26"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="44"/>
-      <c r="V28" s="105" t="s">
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="41"/>
+      <c r="V28" s="102" t="s">
         <v>202</v>
       </c>
-      <c r="W28" s="99" t="s">
+      <c r="W28" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="X28" s="99" t="s">
+      <c r="X28" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="Y28" s="99"/>
-      <c r="Z28" s="99"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="99"/>
-      <c r="AC28" s="106"/>
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="96"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="103"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="185"/>
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="129" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="127">
         <v>1</v>
       </c>
-      <c r="D29" s="130">
+      <c r="D29" s="127">
         <v>4</v>
       </c>
-      <c r="E29" s="134" t="s">
+      <c r="E29" s="131" t="s">
         <v>212</v>
       </c>
-      <c r="F29" s="127"/>
+      <c r="F29" s="124"/>
       <c r="L29" s="220"/>
-      <c r="M29" s="113" t="s">
+      <c r="M29" s="110" t="s">
         <v>364</v>
       </c>
-      <c r="N29" s="114">
+      <c r="N29" s="111">
         <v>1</v>
       </c>
-      <c r="O29" s="114">
+      <c r="O29" s="111">
         <v>4</v>
       </c>
-      <c r="P29" s="115" t="s">
+      <c r="P29" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="Q29" s="44" t="s">
+      <c r="Q29" s="41" t="s">
         <v>382</v>
       </c>
       <c r="S29" t="s">
         <v>387</v>
       </c>
-      <c r="V29" s="105"/>
-      <c r="W29" s="99"/>
-      <c r="X29" s="99"/>
-      <c r="Y29" s="99"/>
-      <c r="Z29" s="99"/>
-      <c r="AA29" s="99"/>
-      <c r="AB29" s="99"/>
-      <c r="AC29" s="106"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="96"/>
+      <c r="X29" s="96"/>
+      <c r="Y29" s="96"/>
+      <c r="Z29" s="96"/>
+      <c r="AA29" s="96"/>
+      <c r="AB29" s="96"/>
+      <c r="AC29" s="103"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="180" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="34">
         <v>1</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="34">
         <v>4</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="127"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="34"/>
+      <c r="F30" s="124"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="33"/>
       <c r="M30" s="26"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="44"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="41"/>
       <c r="S30" t="s">
         <v>388</v>
       </c>
-      <c r="V30" s="105" t="s">
+      <c r="V30" s="102" t="s">
         <v>213</v>
       </c>
-      <c r="W30" s="99"/>
-      <c r="X30" s="99"/>
-      <c r="Y30" s="99"/>
-      <c r="Z30" s="99"/>
-      <c r="AA30" s="99"/>
-      <c r="AB30" s="99"/>
-      <c r="AC30" s="106"/>
+      <c r="W30" s="96"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="96"/>
+      <c r="AB30" s="96"/>
+      <c r="AC30" s="103"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="179"/>
+      <c r="A31" s="180"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="34">
         <v>1</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="F31" s="127"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="34"/>
+      <c r="F31" s="124"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="33"/>
       <c r="M31" s="26"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="44"/>
-      <c r="V31" s="105" t="s">
+      <c r="N31" s="47"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="41"/>
+      <c r="V31" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="W31" s="99" t="s">
+      <c r="W31" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="X31" s="99" t="s">
+      <c r="X31" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="Y31" s="99"/>
-      <c r="Z31" s="99"/>
-      <c r="AA31" s="99"/>
-      <c r="AB31" s="99"/>
-      <c r="AC31" s="106"/>
+      <c r="Y31" s="96"/>
+      <c r="Z31" s="96"/>
+      <c r="AA31" s="96"/>
+      <c r="AB31" s="96"/>
+      <c r="AC31" s="103"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="180"/>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="34">
         <v>1</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="34">
         <v>4</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F32" s="45"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="44"/>
-      <c r="U32" s="93"/>
-      <c r="V32" s="155" t="s">
+      <c r="F32" s="42"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="41"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="152" t="s">
         <v>278</v>
       </c>
-      <c r="W32" s="156" t="s">
+      <c r="W32" s="153" t="s">
         <v>335</v>
       </c>
-      <c r="X32" s="157" t="s">
+      <c r="X32" s="154" t="s">
         <v>336</v>
       </c>
-      <c r="Y32" s="156"/>
-      <c r="Z32" s="156"/>
-      <c r="AA32" s="156"/>
-      <c r="AB32" s="156"/>
-      <c r="AC32" s="158"/>
-      <c r="AD32" s="93"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="41"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="40"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="93"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="140"/>
-      <c r="AD33" s="93"/>
-    </row>
-    <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="167" t="s">
+      <c r="Y32" s="153"/>
+      <c r="Z32" s="153"/>
+      <c r="AA32" s="153"/>
+      <c r="AB32" s="153"/>
+      <c r="AC32" s="155"/>
+      <c r="AD32" s="90"/>
+    </row>
+    <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="159"/>
+      <c r="B33" s="160" t="s">
+        <v>391</v>
+      </c>
+      <c r="C33" s="161">
+        <v>1</v>
+      </c>
+      <c r="D33" s="161">
+        <v>0</v>
+      </c>
+      <c r="E33" s="162" t="s">
+        <v>286</v>
+      </c>
+      <c r="F33" s="124"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="41"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="90"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="40"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="39"/>
+      <c r="U34" s="90"/>
+      <c r="V34" s="90"/>
+      <c r="W34" s="90"/>
+      <c r="X34" s="90"/>
+      <c r="Y34" s="90"/>
+      <c r="Z34" s="90"/>
+      <c r="AA34" s="90"/>
+      <c r="AB34" s="90"/>
+      <c r="AC34" s="137"/>
+      <c r="AD34" s="90"/>
+    </row>
+    <row r="35" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="168" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="168"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="168"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="135"/>
-      <c r="L34" s="212" t="s">
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="169"/>
+      <c r="G35" s="169"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="132"/>
+      <c r="L35" s="212" t="s">
         <v>338</v>
       </c>
-      <c r="M34" s="213"/>
-      <c r="N34" s="213"/>
-      <c r="O34" s="213"/>
-      <c r="P34" s="213"/>
-      <c r="Q34" s="213"/>
-      <c r="R34" s="213"/>
-      <c r="S34" s="214"/>
-      <c r="U34" s="93"/>
-      <c r="V34" s="93"/>
-      <c r="W34" s="93"/>
-      <c r="X34" s="93"/>
-      <c r="Y34" s="93"/>
-      <c r="Z34" s="93"/>
-      <c r="AA34" s="93"/>
-      <c r="AB34" s="93"/>
-      <c r="AC34" s="93"/>
-      <c r="AD34" s="26"/>
-    </row>
-    <row r="35" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="31" t="s">
+      <c r="M35" s="213"/>
+      <c r="N35" s="213"/>
+      <c r="O35" s="213"/>
+      <c r="P35" s="213"/>
+      <c r="Q35" s="213"/>
+      <c r="R35" s="213"/>
+      <c r="S35" s="214"/>
+      <c r="U35" s="90"/>
+      <c r="V35" s="90"/>
+      <c r="W35" s="90"/>
+      <c r="X35" s="90"/>
+      <c r="Y35" s="90"/>
+      <c r="Z35" s="90"/>
+      <c r="AA35" s="90"/>
+      <c r="AB35" s="90"/>
+      <c r="AC35" s="90"/>
+      <c r="AD35" s="26"/>
+    </row>
+    <row r="36" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="32"/>
-      <c r="L35" s="66" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="31"/>
+      <c r="L36" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="93"/>
-      <c r="V35" s="93"/>
-      <c r="W35" s="93"/>
-      <c r="X35" s="93"/>
-      <c r="Y35" s="93"/>
-      <c r="Z35" s="93"/>
-      <c r="AA35" s="93"/>
-      <c r="AB35" s="93"/>
-      <c r="AC35" s="93"/>
-      <c r="AD35" s="139"/>
-    </row>
-    <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="31" t="s">
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="90"/>
+      <c r="W36" s="90"/>
+      <c r="X36" s="90"/>
+      <c r="Y36" s="90"/>
+      <c r="Z36" s="90"/>
+      <c r="AA36" s="90"/>
+      <c r="AB36" s="90"/>
+      <c r="AC36" s="90"/>
+      <c r="AD36" s="136"/>
+    </row>
+    <row r="37" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C37" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D37" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="32"/>
-      <c r="L36" s="105" t="s">
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="31"/>
+      <c r="L37" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="M36" s="99" t="s">
+      <c r="M37" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="N36" s="99" t="s">
+      <c r="N37" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="O36" s="99"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="99"/>
-      <c r="S36" s="106"/>
-      <c r="T36" s="104"/>
-      <c r="U36" s="93"/>
-      <c r="AC36" s="93"/>
-      <c r="AD36" s="104"/>
-    </row>
-    <row r="37" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="87" t="s">
+      <c r="O37" s="96"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="96"/>
+      <c r="R37" s="96"/>
+      <c r="S37" s="103"/>
+      <c r="T37" s="101"/>
+      <c r="U37" s="90"/>
+      <c r="AC37" s="90"/>
+      <c r="AD37" s="101"/>
+    </row>
+    <row r="38" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="84" t="s">
         <v>223</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="26"/>
-      <c r="L37" s="105" t="s">
-        <v>223</v>
-      </c>
-      <c r="M37" s="99" t="s">
-        <v>231</v>
-      </c>
-      <c r="N37" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="O37" s="99"/>
-      <c r="P37" s="99"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="99"/>
-      <c r="S37" s="106"/>
-      <c r="T37" s="104"/>
-      <c r="U37" s="93"/>
-      <c r="AD37" s="104"/>
-    </row>
-    <row r="38" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="87" t="s">
-        <v>226</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>224</v>
@@ -5867,64 +5889,63 @@
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
       <c r="H38" s="26"/>
-      <c r="I38" s="47"/>
+      <c r="I38" s="44"/>
       <c r="J38" s="26"/>
-      <c r="L38" s="105" t="s">
+      <c r="L38" s="102" t="s">
+        <v>223</v>
+      </c>
+      <c r="M38" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="N38" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="O38" s="96"/>
+      <c r="P38" s="96"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="96"/>
+      <c r="S38" s="103"/>
+      <c r="T38" s="101"/>
+      <c r="U38" s="90"/>
+      <c r="AD38" s="101"/>
+    </row>
+    <row r="39" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="M38" s="99" t="s">
-        <v>231</v>
-      </c>
-      <c r="N38" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="O38" s="99"/>
-      <c r="P38" s="99"/>
-      <c r="Q38" s="99"/>
-      <c r="R38" s="99"/>
-      <c r="S38" s="106"/>
-      <c r="T38" s="104"/>
-      <c r="U38" s="93"/>
-      <c r="AD38" s="104"/>
-    </row>
-    <row r="39" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="87" t="s">
-        <v>227</v>
-      </c>
       <c r="C39" s="26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
-      <c r="I39" s="47"/>
+      <c r="I39" s="44"/>
       <c r="J39" s="26"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="105" t="s">
+      <c r="L39" s="102" t="s">
+        <v>226</v>
+      </c>
+      <c r="M39" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="N39" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="O39" s="96"/>
+      <c r="P39" s="96"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="103"/>
+      <c r="T39" s="101"/>
+      <c r="U39" s="90"/>
+      <c r="AD39" s="101"/>
+    </row>
+    <row r="40" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="84" t="s">
         <v>227</v>
-      </c>
-      <c r="M39" s="99" t="s">
-        <v>297</v>
-      </c>
-      <c r="N39" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="O39" s="99"/>
-      <c r="P39" s="99"/>
-      <c r="Q39" s="99"/>
-      <c r="R39" s="99"/>
-      <c r="S39" s="106"/>
-      <c r="T39" s="104"/>
-      <c r="U39" s="93"/>
-      <c r="AD39" s="104"/>
-    </row>
-    <row r="40" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="87" t="s">
-        <v>230</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>228</v>
@@ -5936,33 +5957,33 @@
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
-      <c r="I40" s="47"/>
+      <c r="I40" s="44"/>
       <c r="J40" s="26"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="105" t="s">
+      <c r="K40" s="90"/>
+      <c r="L40" s="102" t="s">
+        <v>227</v>
+      </c>
+      <c r="M40" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="N40" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="O40" s="96"/>
+      <c r="P40" s="96"/>
+      <c r="Q40" s="96"/>
+      <c r="R40" s="96"/>
+      <c r="S40" s="103"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="90"/>
+      <c r="AD40" s="101"/>
+    </row>
+    <row r="41" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="M40" s="99" t="s">
-        <v>298</v>
-      </c>
-      <c r="N40" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="O40" s="99"/>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="99"/>
-      <c r="S40" s="106"/>
-      <c r="T40" s="104"/>
-      <c r="U40" s="93"/>
-      <c r="AD40" s="104"/>
-    </row>
-    <row r="41" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="87" t="s">
-        <v>179</v>
-      </c>
       <c r="C41" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>229</v>
@@ -5971,33 +5992,33 @@
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
-      <c r="I41" s="47"/>
+      <c r="I41" s="44"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="93"/>
-      <c r="L41" s="105" t="s">
+      <c r="K41" s="90"/>
+      <c r="L41" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="M41" s="96" t="s">
+        <v>298</v>
+      </c>
+      <c r="N41" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="O41" s="96"/>
+      <c r="P41" s="96"/>
+      <c r="Q41" s="96"/>
+      <c r="R41" s="96"/>
+      <c r="S41" s="103"/>
+      <c r="T41" s="101"/>
+      <c r="U41" s="90"/>
+      <c r="AD41" s="101"/>
+    </row>
+    <row r="42" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="M41" s="99" t="s">
-        <v>298</v>
-      </c>
-      <c r="N41" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="O41" s="99"/>
-      <c r="P41" s="99"/>
-      <c r="Q41" s="99"/>
-      <c r="R41" s="99"/>
-      <c r="S41" s="106"/>
-      <c r="T41" s="104"/>
-      <c r="U41" s="93"/>
-      <c r="AD41" s="104"/>
-    </row>
-    <row r="42" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="87" t="s">
-        <v>232</v>
-      </c>
       <c r="C42" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D42" s="26" t="s">
         <v>229</v>
@@ -6006,33 +6027,33 @@
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
-      <c r="I42" s="47"/>
+      <c r="I42" s="44"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="105" t="s">
+      <c r="K42" s="90"/>
+      <c r="L42" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="M42" s="96" t="s">
+        <v>298</v>
+      </c>
+      <c r="N42" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="O42" s="96"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="96"/>
+      <c r="R42" s="96"/>
+      <c r="S42" s="103"/>
+      <c r="T42" s="101"/>
+      <c r="U42" s="90"/>
+      <c r="AD42" s="101"/>
+    </row>
+    <row r="43" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="84" t="s">
         <v>232</v>
       </c>
-      <c r="M42" s="99" t="s">
-        <v>298</v>
-      </c>
-      <c r="N42" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="O42" s="99"/>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="99"/>
-      <c r="S42" s="106"/>
-      <c r="T42" s="60"/>
-      <c r="U42" s="93"/>
-      <c r="AD42" s="104"/>
-    </row>
-    <row r="43" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="87" t="s">
-        <v>234</v>
-      </c>
       <c r="C43" s="26" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D43" s="26" t="s">
         <v>229</v>
@@ -6041,30 +6062,30 @@
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
-      <c r="I43" s="47"/>
+      <c r="I43" s="44"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="105" t="s">
+      <c r="K43" s="90"/>
+      <c r="L43" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="M43" s="96" t="s">
+        <v>298</v>
+      </c>
+      <c r="N43" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="103"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="90"/>
+      <c r="AD43" s="101"/>
+    </row>
+    <row r="44" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="84" t="s">
         <v>234</v>
-      </c>
-      <c r="M43" s="99" t="s">
-        <v>298</v>
-      </c>
-      <c r="N43" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="O43" s="99"/>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="106"/>
-      <c r="T43" s="60"/>
-      <c r="U43" s="93"/>
-      <c r="AD43" s="104"/>
-    </row>
-    <row r="44" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="87" t="s">
-        <v>235</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>228</v>
@@ -6076,33 +6097,33 @@
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
-      <c r="I44" s="47"/>
+      <c r="I44" s="44"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="105" t="s">
+      <c r="K44" s="90"/>
+      <c r="L44" s="102" t="s">
+        <v>234</v>
+      </c>
+      <c r="M44" s="96" t="s">
+        <v>298</v>
+      </c>
+      <c r="N44" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="O44" s="96"/>
+      <c r="P44" s="96"/>
+      <c r="Q44" s="96"/>
+      <c r="R44" s="96"/>
+      <c r="S44" s="103"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="90"/>
+      <c r="AD44" s="101"/>
+    </row>
+    <row r="45" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="M44" s="99" t="s">
-        <v>297</v>
-      </c>
-      <c r="N44" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="O44" s="99"/>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="99"/>
-      <c r="S44" s="106"/>
-      <c r="T44" s="60"/>
-      <c r="U44" s="93"/>
-      <c r="AD44" s="104"/>
-    </row>
-    <row r="45" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="87" t="s">
-        <v>174</v>
-      </c>
       <c r="C45" s="26" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D45" s="26" t="s">
         <v>229</v>
@@ -6111,33 +6132,33 @@
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
-      <c r="I45" s="47"/>
+      <c r="I45" s="44"/>
       <c r="J45" s="26"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="105" t="s">
+      <c r="K45" s="90"/>
+      <c r="L45" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="M45" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="N45" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="O45" s="96"/>
+      <c r="P45" s="96"/>
+      <c r="Q45" s="96"/>
+      <c r="R45" s="96"/>
+      <c r="S45" s="103"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="90"/>
+      <c r="AD45" s="101"/>
+    </row>
+    <row r="46" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="M45" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="N45" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="O45" s="99"/>
-      <c r="P45" s="99"/>
-      <c r="Q45" s="99"/>
-      <c r="R45" s="99"/>
-      <c r="S45" s="106"/>
-      <c r="T45" s="60"/>
-      <c r="U45" s="93"/>
-      <c r="AD45" s="104"/>
-    </row>
-    <row r="46" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="87" t="s">
-        <v>237</v>
-      </c>
       <c r="C46" s="26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D46" s="26" t="s">
         <v>229</v>
@@ -6146,30 +6167,30 @@
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
-      <c r="I46" s="47"/>
+      <c r="I46" s="44"/>
       <c r="J46" s="26"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="105" t="s">
+      <c r="K46" s="90"/>
+      <c r="L46" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="M46" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="N46" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="O46" s="96"/>
+      <c r="P46" s="96"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="103"/>
+      <c r="T46" s="57"/>
+      <c r="U46" s="90"/>
+      <c r="AD46" s="101"/>
+    </row>
+    <row r="47" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="84" t="s">
         <v>237</v>
-      </c>
-      <c r="M46" s="99" t="s">
-        <v>299</v>
-      </c>
-      <c r="N46" s="107" t="s">
-        <v>225</v>
-      </c>
-      <c r="O46" s="99"/>
-      <c r="P46" s="99"/>
-      <c r="Q46" s="99"/>
-      <c r="R46" s="99"/>
-      <c r="S46" s="106"/>
-      <c r="T46" s="60"/>
-      <c r="U46" s="93"/>
-      <c r="AD46" s="104"/>
-    </row>
-    <row r="47" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="87" t="s">
-        <v>239</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>238</v>
@@ -6181,33 +6202,33 @@
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
-      <c r="I47" s="47"/>
+      <c r="I47" s="44"/>
       <c r="J47" s="26"/>
-      <c r="K47" s="93"/>
-      <c r="L47" s="105" t="s">
+      <c r="K47" s="90"/>
+      <c r="L47" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="M47" s="96" t="s">
+        <v>299</v>
+      </c>
+      <c r="N47" s="104" t="s">
+        <v>225</v>
+      </c>
+      <c r="O47" s="96"/>
+      <c r="P47" s="96"/>
+      <c r="Q47" s="96"/>
+      <c r="R47" s="96"/>
+      <c r="S47" s="103"/>
+      <c r="T47" s="57"/>
+      <c r="U47" s="90"/>
+      <c r="AD47" s="101"/>
+    </row>
+    <row r="48" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="M47" s="99" t="s">
-        <v>300</v>
-      </c>
-      <c r="N47" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="O47" s="99"/>
-      <c r="P47" s="99"/>
-      <c r="Q47" s="99"/>
-      <c r="R47" s="99"/>
-      <c r="S47" s="106"/>
-      <c r="T47" s="60"/>
-      <c r="U47" s="93"/>
-      <c r="AD47" s="104"/>
-    </row>
-    <row r="48" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="87" t="s">
-        <v>240</v>
-      </c>
       <c r="C48" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D48" s="26" t="s">
         <v>229</v>
@@ -6216,30 +6237,30 @@
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
-      <c r="I48" s="47"/>
+      <c r="I48" s="44"/>
       <c r="J48" s="26"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="105" t="s">
+      <c r="K48" s="90"/>
+      <c r="L48" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="M48" s="96" t="s">
+        <v>300</v>
+      </c>
+      <c r="N48" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="O48" s="96"/>
+      <c r="P48" s="96"/>
+      <c r="Q48" s="96"/>
+      <c r="R48" s="96"/>
+      <c r="S48" s="103"/>
+      <c r="T48" s="57"/>
+      <c r="U48" s="90"/>
+      <c r="AD48" s="101"/>
+    </row>
+    <row r="49" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="84" t="s">
         <v>240</v>
-      </c>
-      <c r="M48" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="N48" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="O48" s="99"/>
-      <c r="P48" s="99"/>
-      <c r="Q48" s="99"/>
-      <c r="R48" s="99"/>
-      <c r="S48" s="106"/>
-      <c r="T48" s="60"/>
-      <c r="U48" s="93"/>
-      <c r="AD48" s="104"/>
-    </row>
-    <row r="49" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="87" t="s">
-        <v>242</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>241</v>
@@ -6251,33 +6272,33 @@
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
-      <c r="I49" s="47"/>
+      <c r="I49" s="44"/>
       <c r="J49" s="26"/>
-      <c r="K49" s="93"/>
-      <c r="L49" s="105" t="s">
+      <c r="K49" s="90"/>
+      <c r="L49" s="102" t="s">
+        <v>240</v>
+      </c>
+      <c r="M49" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="N49" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="O49" s="96"/>
+      <c r="P49" s="96"/>
+      <c r="Q49" s="96"/>
+      <c r="R49" s="96"/>
+      <c r="S49" s="103"/>
+      <c r="T49" s="57"/>
+      <c r="U49" s="90"/>
+      <c r="AD49" s="101"/>
+    </row>
+    <row r="50" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="84" t="s">
         <v>242</v>
       </c>
-      <c r="M49" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="N49" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="O49" s="99"/>
-      <c r="P49" s="99"/>
-      <c r="Q49" s="99"/>
-      <c r="R49" s="99"/>
-      <c r="S49" s="106"/>
-      <c r="T49" s="60"/>
-      <c r="U49" s="93"/>
-      <c r="AD49" s="104"/>
-    </row>
-    <row r="50" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="87" t="s">
-        <v>243</v>
-      </c>
       <c r="C50" s="26" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D50" s="26" t="s">
         <v>229</v>
@@ -6286,30 +6307,30 @@
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
-      <c r="I50" s="47"/>
+      <c r="I50" s="44"/>
       <c r="J50" s="26"/>
-      <c r="K50" s="93"/>
-      <c r="L50" s="105" t="s">
+      <c r="K50" s="90"/>
+      <c r="L50" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="M50" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="N50" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="O50" s="96"/>
+      <c r="P50" s="96"/>
+      <c r="Q50" s="96"/>
+      <c r="R50" s="96"/>
+      <c r="S50" s="103"/>
+      <c r="T50" s="57"/>
+      <c r="U50" s="90"/>
+      <c r="AD50" s="101"/>
+    </row>
+    <row r="51" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="84" t="s">
         <v>243</v>
-      </c>
-      <c r="M50" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="N50" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="O50" s="99"/>
-      <c r="P50" s="99"/>
-      <c r="Q50" s="99"/>
-      <c r="R50" s="99"/>
-      <c r="S50" s="106"/>
-      <c r="T50" s="60"/>
-      <c r="U50" s="93"/>
-      <c r="AD50" s="104"/>
-    </row>
-    <row r="51" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="87" t="s">
-        <v>244</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>233</v>
@@ -6321,33 +6342,33 @@
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
-      <c r="I51" s="47"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="26"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="105" t="s">
+      <c r="K51" s="90"/>
+      <c r="L51" s="102" t="s">
+        <v>243</v>
+      </c>
+      <c r="M51" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="N51" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="O51" s="96"/>
+      <c r="P51" s="96"/>
+      <c r="Q51" s="96"/>
+      <c r="R51" s="96"/>
+      <c r="S51" s="103"/>
+      <c r="T51" s="57"/>
+      <c r="U51" s="90"/>
+      <c r="AD51" s="101"/>
+    </row>
+    <row r="52" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="84" t="s">
         <v>244</v>
       </c>
-      <c r="M51" s="99" t="s">
-        <v>301</v>
-      </c>
-      <c r="N51" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="O51" s="99"/>
-      <c r="P51" s="99"/>
-      <c r="Q51" s="99"/>
-      <c r="R51" s="99"/>
-      <c r="S51" s="106"/>
-      <c r="T51" s="60"/>
-      <c r="U51" s="93"/>
-      <c r="AD51" s="104"/>
-    </row>
-    <row r="52" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="87" t="s">
-        <v>170</v>
-      </c>
       <c r="C52" s="26" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D52" s="26" t="s">
         <v>229</v>
@@ -6356,149 +6377,151 @@
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
       <c r="H52" s="26"/>
-      <c r="I52" s="47"/>
+      <c r="I52" s="44"/>
       <c r="J52" s="26"/>
-      <c r="K52" s="93"/>
-      <c r="L52" s="105" t="s">
+      <c r="K52" s="90"/>
+      <c r="L52" s="102" t="s">
+        <v>244</v>
+      </c>
+      <c r="M52" s="96" t="s">
+        <v>301</v>
+      </c>
+      <c r="N52" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="O52" s="96"/>
+      <c r="P52" s="96"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="96"/>
+      <c r="S52" s="103"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="90"/>
+      <c r="AD52" s="101"/>
+    </row>
+    <row r="53" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="84" t="s">
         <v>170</v>
       </c>
-      <c r="M52" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="N52" s="107" t="s">
+      <c r="C53" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="O52" s="99"/>
-      <c r="P52" s="99"/>
-      <c r="Q52" s="99"/>
-      <c r="R52" s="99"/>
-      <c r="S52" s="106"/>
-      <c r="T52" s="60"/>
-      <c r="U52" s="93"/>
-      <c r="AD52" s="93"/>
-    </row>
-    <row r="53" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="87"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
-      <c r="I53" s="47"/>
+      <c r="I53" s="44"/>
       <c r="J53" s="26"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="105"/>
-      <c r="M53" s="99"/>
-      <c r="N53" s="99"/>
-      <c r="O53" s="99"/>
-      <c r="P53" s="99"/>
-      <c r="Q53" s="99"/>
-      <c r="R53" s="99"/>
-      <c r="S53" s="106"/>
-      <c r="T53" s="60"/>
-      <c r="U53" s="93"/>
-      <c r="AD53" s="93"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="M53" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="N53" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="O53" s="96"/>
+      <c r="P53" s="96"/>
+      <c r="Q53" s="96"/>
+      <c r="R53" s="96"/>
+      <c r="S53" s="103"/>
+      <c r="T53" s="57"/>
+      <c r="U53" s="90"/>
+      <c r="AD53" s="90"/>
     </row>
     <row r="54" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="87" t="s">
-        <v>36</v>
-      </c>
+      <c r="B54" s="84"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
       <c r="H54" s="26"/>
-      <c r="I54" s="47"/>
+      <c r="I54" s="44"/>
       <c r="J54" s="26"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="108" t="s">
+      <c r="K54" s="90"/>
+      <c r="L54" s="102"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="96"/>
+      <c r="O54" s="96"/>
+      <c r="P54" s="96"/>
+      <c r="Q54" s="96"/>
+      <c r="R54" s="96"/>
+      <c r="S54" s="103"/>
+      <c r="T54" s="57"/>
+      <c r="U54" s="90"/>
+      <c r="AD54" s="90"/>
+    </row>
+    <row r="55" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="M54" s="99"/>
-      <c r="N54" s="99"/>
-      <c r="O54" s="99"/>
-      <c r="P54" s="99"/>
-      <c r="Q54" s="99"/>
-      <c r="R54" s="99"/>
-      <c r="S54" s="106"/>
-      <c r="T54" s="60"/>
-      <c r="U54" s="93"/>
-      <c r="AD54" s="93"/>
-    </row>
-    <row r="55" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="87" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>222</v>
-      </c>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
       <c r="H55" s="26"/>
-      <c r="I55" s="47"/>
+      <c r="I55" s="44"/>
       <c r="J55" s="26"/>
-      <c r="K55" s="93"/>
+      <c r="K55" s="90"/>
       <c r="L55" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" s="96"/>
+      <c r="N55" s="96"/>
+      <c r="O55" s="96"/>
+      <c r="P55" s="96"/>
+      <c r="Q55" s="96"/>
+      <c r="R55" s="96"/>
+      <c r="S55" s="103"/>
+      <c r="T55" s="57"/>
+      <c r="U55" s="90"/>
+      <c r="AD55" s="90"/>
+    </row>
+    <row r="56" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="M55" s="99" t="s">
+      <c r="C56" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="N55" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="O55" s="99"/>
-      <c r="P55" s="99"/>
-      <c r="Q55" s="99"/>
-      <c r="R55" s="99"/>
-      <c r="S55" s="106"/>
-      <c r="T55" s="60"/>
-    </row>
-    <row r="56" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>246</v>
-      </c>
       <c r="D56" s="26" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="E56" s="26"/>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
       <c r="H56" s="26"/>
-      <c r="I56" s="47"/>
+      <c r="I56" s="44"/>
       <c r="J56" s="26"/>
-      <c r="K56" s="93"/>
-      <c r="L56" s="105" t="s">
+      <c r="K56" s="90"/>
+      <c r="L56" s="102" t="s">
+        <v>220</v>
+      </c>
+      <c r="M56" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="N56" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="O56" s="96"/>
+      <c r="P56" s="96"/>
+      <c r="Q56" s="96"/>
+      <c r="R56" s="96"/>
+      <c r="S56" s="103"/>
+      <c r="T56" s="57"/>
+    </row>
+    <row r="57" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="M56" s="99" t="s">
-        <v>249</v>
-      </c>
-      <c r="N56" s="107" t="s">
-        <v>247</v>
-      </c>
-      <c r="O56" s="99"/>
-      <c r="P56" s="99"/>
-      <c r="Q56" s="99"/>
-      <c r="R56" s="99"/>
-      <c r="S56" s="106"/>
-      <c r="T56" s="60"/>
-    </row>
-    <row r="57" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="87" t="s">
-        <v>248</v>
-      </c>
       <c r="C57" s="26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>247</v>
@@ -6507,28 +6530,28 @@
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
-      <c r="I57" s="47"/>
+      <c r="I57" s="44"/>
       <c r="J57" s="26"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="105" t="s">
-        <v>250</v>
-      </c>
-      <c r="M57" s="99" t="s">
-        <v>255</v>
-      </c>
-      <c r="N57" s="107" t="s">
+      <c r="K57" s="90"/>
+      <c r="L57" s="102" t="s">
+        <v>245</v>
+      </c>
+      <c r="M57" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="N57" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O57" s="99"/>
-      <c r="P57" s="99"/>
-      <c r="Q57" s="99"/>
-      <c r="R57" s="99"/>
-      <c r="S57" s="106"/>
-      <c r="T57" s="60"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="96"/>
+      <c r="Q57" s="96"/>
+      <c r="R57" s="96"/>
+      <c r="S57" s="103"/>
+      <c r="T57" s="57"/>
     </row>
     <row r="58" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="87" t="s">
-        <v>250</v>
+      <c r="B58" s="84" t="s">
+        <v>248</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>249</v>
@@ -6540,28 +6563,28 @@
       <c r="F58" s="26"/>
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
-      <c r="I58" s="47"/>
+      <c r="I58" s="44"/>
       <c r="J58" s="26"/>
-      <c r="K58" s="93"/>
-      <c r="L58" s="105" t="s">
-        <v>251</v>
-      </c>
-      <c r="M58" s="99" t="s">
+      <c r="K58" s="90"/>
+      <c r="L58" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="M58" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="N58" s="107" t="s">
+      <c r="N58" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O58" s="99"/>
-      <c r="P58" s="99"/>
-      <c r="Q58" s="99"/>
-      <c r="R58" s="99"/>
-      <c r="S58" s="106"/>
-      <c r="T58" s="60"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="96"/>
+      <c r="Q58" s="96"/>
+      <c r="R58" s="96"/>
+      <c r="S58" s="103"/>
+      <c r="T58" s="57"/>
     </row>
     <row r="59" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="87" t="s">
-        <v>251</v>
+      <c r="B59" s="84" t="s">
+        <v>250</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>249</v>
@@ -6573,28 +6596,28 @@
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
-      <c r="I59" s="47"/>
+      <c r="I59" s="44"/>
       <c r="J59" s="26"/>
-      <c r="K59" s="93"/>
-      <c r="L59" s="105" t="s">
-        <v>252</v>
-      </c>
-      <c r="M59" s="99" t="s">
+      <c r="K59" s="90"/>
+      <c r="L59" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="M59" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="N59" s="107" t="s">
+      <c r="N59" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O59" s="99"/>
-      <c r="P59" s="99"/>
-      <c r="Q59" s="99"/>
-      <c r="R59" s="99"/>
-      <c r="S59" s="106"/>
-      <c r="T59" s="60"/>
+      <c r="O59" s="96"/>
+      <c r="P59" s="96"/>
+      <c r="Q59" s="96"/>
+      <c r="R59" s="96"/>
+      <c r="S59" s="103"/>
+      <c r="T59" s="57"/>
     </row>
     <row r="60" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="87" t="s">
-        <v>252</v>
+      <c r="B60" s="84" t="s">
+        <v>251</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>249</v>
@@ -6606,31 +6629,31 @@
       <c r="F60" s="26"/>
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
-      <c r="I60" s="47"/>
+      <c r="I60" s="44"/>
       <c r="J60" s="26"/>
-      <c r="K60" s="93"/>
-      <c r="L60" s="105" t="s">
-        <v>253</v>
-      </c>
-      <c r="M60" s="99" t="s">
+      <c r="K60" s="90"/>
+      <c r="L60" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="M60" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="N60" s="107" t="s">
+      <c r="N60" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O60" s="99"/>
-      <c r="P60" s="99"/>
-      <c r="Q60" s="99"/>
-      <c r="R60" s="99"/>
-      <c r="S60" s="106"/>
-      <c r="T60" s="60"/>
+      <c r="O60" s="96"/>
+      <c r="P60" s="96"/>
+      <c r="Q60" s="96"/>
+      <c r="R60" s="96"/>
+      <c r="S60" s="103"/>
+      <c r="T60" s="57"/>
     </row>
     <row r="61" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="87" t="s">
-        <v>253</v>
+      <c r="B61" s="84" t="s">
+        <v>252</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>247</v>
@@ -6639,31 +6662,31 @@
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
-      <c r="I61" s="47"/>
+      <c r="I61" s="44"/>
       <c r="J61" s="26"/>
-      <c r="K61" s="93"/>
-      <c r="L61" s="105" t="s">
-        <v>254</v>
-      </c>
-      <c r="M61" s="99" t="s">
+      <c r="K61" s="90"/>
+      <c r="L61" s="102" t="s">
+        <v>253</v>
+      </c>
+      <c r="M61" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="N61" s="107" t="s">
+      <c r="N61" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O61" s="99"/>
-      <c r="P61" s="99"/>
-      <c r="Q61" s="99"/>
-      <c r="R61" s="99"/>
-      <c r="S61" s="106"/>
-      <c r="T61" s="104"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="96"/>
+      <c r="Q61" s="96"/>
+      <c r="R61" s="96"/>
+      <c r="S61" s="103"/>
+      <c r="T61" s="57"/>
     </row>
     <row r="62" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="87" t="s">
-        <v>254</v>
+      <c r="B62" s="84" t="s">
+        <v>253</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>247</v>
@@ -6672,31 +6695,31 @@
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
-      <c r="I62" s="47"/>
+      <c r="I62" s="44"/>
       <c r="J62" s="26"/>
-      <c r="K62" s="93"/>
-      <c r="L62" s="105" t="s">
-        <v>187</v>
-      </c>
-      <c r="M62" s="99" t="s">
+      <c r="K62" s="90"/>
+      <c r="L62" s="102" t="s">
+        <v>254</v>
+      </c>
+      <c r="M62" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="N62" s="107" t="s">
+      <c r="N62" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O62" s="99"/>
-      <c r="P62" s="99"/>
-      <c r="Q62" s="99"/>
-      <c r="R62" s="99"/>
-      <c r="S62" s="106"/>
-      <c r="T62" s="104"/>
+      <c r="O62" s="96"/>
+      <c r="P62" s="96"/>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="96"/>
+      <c r="S62" s="103"/>
+      <c r="T62" s="101"/>
     </row>
     <row r="63" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="87" t="s">
-        <v>187</v>
+      <c r="B63" s="84" t="s">
+        <v>254</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D63" s="26" t="s">
         <v>247</v>
@@ -6705,952 +6728,986 @@
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
       <c r="H63" s="26"/>
-      <c r="I63" s="47"/>
+      <c r="I63" s="44"/>
       <c r="J63" s="26"/>
-      <c r="K63" s="93"/>
-      <c r="L63" s="105" t="s">
+      <c r="K63" s="90"/>
+      <c r="L63" s="102" t="s">
+        <v>187</v>
+      </c>
+      <c r="M63" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="N63" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="O63" s="96"/>
+      <c r="P63" s="96"/>
+      <c r="Q63" s="96"/>
+      <c r="R63" s="96"/>
+      <c r="S63" s="103"/>
+      <c r="T63" s="101"/>
+    </row>
+    <row r="64" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="84" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="90"/>
+      <c r="L64" s="102" t="s">
         <v>303</v>
       </c>
-      <c r="M63" s="99" t="s">
+      <c r="M64" s="96" t="s">
         <v>304</v>
       </c>
-      <c r="N63" s="107" t="s">
+      <c r="N64" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O63" s="99"/>
-      <c r="P63" s="99"/>
-      <c r="Q63" s="99"/>
-      <c r="R63" s="99"/>
-      <c r="S63" s="106"/>
-      <c r="T63" s="104"/>
-    </row>
-    <row r="64" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="31"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="93"/>
-      <c r="L64" s="105" t="s">
+      <c r="O64" s="96"/>
+      <c r="P64" s="96"/>
+      <c r="Q64" s="96"/>
+      <c r="R64" s="96"/>
+      <c r="S64" s="103"/>
+      <c r="T64" s="101"/>
+    </row>
+    <row r="65" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="30"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="90"/>
+      <c r="L65" s="102" t="s">
         <v>305</v>
       </c>
-      <c r="M64" s="99" t="s">
+      <c r="M65" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="N64" s="107" t="s">
+      <c r="N65" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O64" s="99"/>
-      <c r="P64" s="99"/>
-      <c r="Q64" s="99"/>
-      <c r="R64" s="99"/>
-      <c r="S64" s="106"/>
-      <c r="T64" s="104"/>
-    </row>
-    <row r="65" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="31" t="s">
+      <c r="O65" s="96"/>
+      <c r="P65" s="96"/>
+      <c r="Q65" s="96"/>
+      <c r="R65" s="96"/>
+      <c r="S65" s="103"/>
+      <c r="T65" s="101"/>
+    </row>
+    <row r="66" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="93"/>
-      <c r="L65" s="105" t="s">
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="90"/>
+      <c r="L66" s="102" t="s">
         <v>306</v>
       </c>
-      <c r="M65" s="99" t="s">
+      <c r="M66" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="N65" s="107" t="s">
+      <c r="N66" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O65" s="99"/>
-      <c r="P65" s="99"/>
-      <c r="Q65" s="99"/>
-      <c r="R65" s="99"/>
-      <c r="S65" s="106"/>
-      <c r="T65" s="104"/>
-    </row>
-    <row r="66" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="31" t="s">
+      <c r="O66" s="96"/>
+      <c r="P66" s="96"/>
+      <c r="Q66" s="96"/>
+      <c r="R66" s="96"/>
+      <c r="S66" s="103"/>
+      <c r="T66" s="101"/>
+    </row>
+    <row r="67" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C67" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D67" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="93"/>
-      <c r="L66" s="105" t="s">
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="90"/>
+      <c r="L67" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="M66" s="99" t="s">
+      <c r="M67" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="N66" s="107" t="s">
+      <c r="N67" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O66" s="99"/>
-      <c r="P66" s="99"/>
-      <c r="Q66" s="99"/>
-      <c r="R66" s="99"/>
-      <c r="S66" s="106"/>
-      <c r="T66" s="104"/>
-    </row>
-    <row r="67" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="31" t="s">
+      <c r="O67" s="96"/>
+      <c r="P67" s="96"/>
+      <c r="Q67" s="96"/>
+      <c r="R67" s="96"/>
+      <c r="S67" s="103"/>
+      <c r="T67" s="101"/>
+    </row>
+    <row r="68" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C68" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D68" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="93"/>
-      <c r="L67" s="105" t="s">
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="90"/>
+      <c r="L68" s="102" t="s">
         <v>308</v>
       </c>
-      <c r="M67" s="99" t="s">
+      <c r="M68" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="N67" s="107" t="s">
+      <c r="N68" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O67" s="99"/>
-      <c r="P67" s="99"/>
-      <c r="Q67" s="99"/>
-      <c r="R67" s="99"/>
-      <c r="S67" s="106"/>
-      <c r="T67" s="104"/>
-    </row>
-    <row r="68" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="31" t="s">
+      <c r="O68" s="96"/>
+      <c r="P68" s="96"/>
+      <c r="Q68" s="96"/>
+      <c r="R68" s="96"/>
+      <c r="S68" s="103"/>
+      <c r="T68" s="101"/>
+    </row>
+    <row r="69" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C69" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="D68" s="32" t="s">
+      <c r="D69" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="93"/>
-      <c r="L68" s="105" t="s">
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="102" t="s">
         <v>309</v>
       </c>
-      <c r="M68" s="99" t="s">
+      <c r="M69" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="N68" s="107" t="s">
+      <c r="N69" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O68" s="99"/>
-      <c r="P68" s="99"/>
-      <c r="Q68" s="99"/>
-      <c r="R68" s="99"/>
-      <c r="S68" s="106"/>
-      <c r="T68" s="104"/>
-    </row>
-    <row r="69" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="31" t="s">
+      <c r="O69" s="96"/>
+      <c r="P69" s="96"/>
+      <c r="Q69" s="96"/>
+      <c r="R69" s="96"/>
+      <c r="S69" s="103"/>
+      <c r="T69" s="101"/>
+    </row>
+    <row r="70" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C70" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D70" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="93"/>
-      <c r="L69" s="105" t="s">
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="90"/>
+      <c r="L70" s="102" t="s">
         <v>310</v>
       </c>
-      <c r="M69" s="99" t="s">
+      <c r="M70" s="96" t="s">
         <v>311</v>
       </c>
-      <c r="N69" s="107" t="s">
+      <c r="N70" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O69" s="99"/>
-      <c r="P69" s="99"/>
-      <c r="Q69" s="99"/>
-      <c r="R69" s="99"/>
-      <c r="S69" s="106"/>
-      <c r="T69" s="104"/>
-    </row>
-    <row r="70" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="31" t="s">
+      <c r="O70" s="96"/>
+      <c r="P70" s="96"/>
+      <c r="Q70" s="96"/>
+      <c r="R70" s="96"/>
+      <c r="S70" s="103"/>
+      <c r="T70" s="101"/>
+    </row>
+    <row r="71" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C71" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D71" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="93"/>
-      <c r="L70" s="105" t="s">
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="90"/>
+      <c r="L71" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="M70" s="99" t="s">
+      <c r="M71" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="N70" s="107" t="s">
+      <c r="N71" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O70" s="99"/>
-      <c r="P70" s="99"/>
-      <c r="Q70" s="99"/>
-      <c r="R70" s="99"/>
-      <c r="S70" s="106"/>
-      <c r="T70" s="104"/>
-    </row>
-    <row r="71" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="31" t="s">
+      <c r="O71" s="96"/>
+      <c r="P71" s="96"/>
+      <c r="Q71" s="96"/>
+      <c r="R71" s="96"/>
+      <c r="S71" s="103"/>
+      <c r="T71" s="101"/>
+    </row>
+    <row r="72" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="C72" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D72" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="93"/>
-      <c r="L71" s="105" t="s">
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="90"/>
+      <c r="L72" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="M71" s="99" t="s">
+      <c r="M72" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="N71" s="107" t="s">
+      <c r="N72" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O71" s="99"/>
-      <c r="P71" s="99"/>
-      <c r="Q71" s="99"/>
-      <c r="R71" s="99"/>
-      <c r="S71" s="106"/>
-      <c r="T71" s="104"/>
-    </row>
-    <row r="72" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="31"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="93"/>
-      <c r="L72" s="105" t="s">
+      <c r="O72" s="96"/>
+      <c r="P72" s="96"/>
+      <c r="Q72" s="96"/>
+      <c r="R72" s="96"/>
+      <c r="S72" s="103"/>
+      <c r="T72" s="101"/>
+    </row>
+    <row r="73" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="30"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="90"/>
+      <c r="L73" s="102" t="s">
         <v>314</v>
       </c>
-      <c r="M72" s="99" t="s">
+      <c r="M73" s="96" t="s">
         <v>315</v>
       </c>
-      <c r="N72" s="107" t="s">
+      <c r="N73" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O72" s="99"/>
-      <c r="P72" s="99"/>
-      <c r="Q72" s="99"/>
-      <c r="R72" s="99"/>
-      <c r="S72" s="106"/>
-      <c r="T72" s="104"/>
-    </row>
-    <row r="73" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="31" t="s">
+      <c r="O73" s="96"/>
+      <c r="P73" s="96"/>
+      <c r="Q73" s="96"/>
+      <c r="R73" s="96"/>
+      <c r="S73" s="103"/>
+      <c r="T73" s="101"/>
+    </row>
+    <row r="74" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="93"/>
-      <c r="L73" s="105" t="s">
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="90"/>
+      <c r="L74" s="102" t="s">
         <v>316</v>
       </c>
-      <c r="M73" s="99" t="s">
+      <c r="M74" s="96" t="s">
         <v>315</v>
       </c>
-      <c r="N73" s="107" t="s">
+      <c r="N74" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O73" s="99"/>
-      <c r="P73" s="99"/>
-      <c r="Q73" s="99"/>
-      <c r="R73" s="99"/>
-      <c r="S73" s="106"/>
-      <c r="T73" s="104"/>
-    </row>
-    <row r="74" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="31" t="s">
+      <c r="O74" s="96"/>
+      <c r="P74" s="96"/>
+      <c r="Q74" s="96"/>
+      <c r="R74" s="96"/>
+      <c r="S74" s="103"/>
+      <c r="T74" s="101"/>
+    </row>
+    <row r="75" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C75" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="32" t="s">
+      <c r="D75" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="93"/>
-      <c r="L74" s="105" t="s">
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="90"/>
+      <c r="L75" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="M74" s="99" t="s">
+      <c r="M75" s="96" t="s">
         <v>315</v>
       </c>
-      <c r="N74" s="107" t="s">
+      <c r="N75" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O74" s="99"/>
-      <c r="P74" s="99"/>
-      <c r="Q74" s="99"/>
-      <c r="R74" s="99"/>
-      <c r="S74" s="106"/>
-      <c r="T74" s="104"/>
-    </row>
-    <row r="75" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="31" t="s">
+      <c r="O75" s="96"/>
+      <c r="P75" s="96"/>
+      <c r="Q75" s="96"/>
+      <c r="R75" s="96"/>
+      <c r="S75" s="103"/>
+      <c r="T75" s="101"/>
+    </row>
+    <row r="76" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C76" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D76" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="93"/>
-      <c r="L75" s="105"/>
-      <c r="M75" s="99"/>
-      <c r="N75" s="99"/>
-      <c r="O75" s="99"/>
-      <c r="P75" s="99"/>
-      <c r="Q75" s="99"/>
-      <c r="R75" s="99"/>
-      <c r="S75" s="106"/>
-      <c r="T75" s="104"/>
-    </row>
-    <row r="76" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="149" t="s">
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="90"/>
+      <c r="L76" s="102"/>
+      <c r="M76" s="96"/>
+      <c r="N76" s="96"/>
+      <c r="O76" s="96"/>
+      <c r="P76" s="96"/>
+      <c r="Q76" s="96"/>
+      <c r="R76" s="96"/>
+      <c r="S76" s="103"/>
+      <c r="T76" s="101"/>
+    </row>
+    <row r="77" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="146" t="s">
         <v>268</v>
       </c>
-      <c r="C76" s="148" t="s">
+      <c r="C77" s="145" t="s">
         <v>269</v>
       </c>
-      <c r="D76" s="148" t="s">
+      <c r="D77" s="145" t="s">
         <v>270</v>
       </c>
-      <c r="E76" s="148"/>
-      <c r="F76" s="148"/>
-      <c r="G76" s="148"/>
-      <c r="H76" s="148"/>
-      <c r="I76" s="150"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="93"/>
-      <c r="L76" s="105" t="s">
+      <c r="E77" s="145"/>
+      <c r="F77" s="145"/>
+      <c r="G77" s="145"/>
+      <c r="H77" s="145"/>
+      <c r="I77" s="147"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="90"/>
+      <c r="L77" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="M76" s="99"/>
-      <c r="N76" s="99"/>
-      <c r="O76" s="99"/>
-      <c r="P76" s="99"/>
-      <c r="Q76" s="99"/>
-      <c r="R76" s="99"/>
-      <c r="S76" s="106"/>
-      <c r="T76" s="104"/>
-    </row>
-    <row r="77" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="31" t="s">
+      <c r="M77" s="96"/>
+      <c r="N77" s="96"/>
+      <c r="O77" s="96"/>
+      <c r="P77" s="96"/>
+      <c r="Q77" s="96"/>
+      <c r="R77" s="96"/>
+      <c r="S77" s="103"/>
+      <c r="T77" s="101"/>
+    </row>
+    <row r="78" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C78" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="D77" s="32" t="s">
+      <c r="D78" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="93"/>
-      <c r="L77" s="105" t="s">
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="90"/>
+      <c r="L78" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="M77" s="99" t="s">
+      <c r="M78" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="N77" s="99" t="s">
+      <c r="N78" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="O77" s="99"/>
-      <c r="P77" s="99"/>
-      <c r="Q77" s="99"/>
-      <c r="R77" s="99"/>
-      <c r="S77" s="106"/>
-      <c r="T77" s="104"/>
-    </row>
-    <row r="78" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="31" t="s">
+      <c r="O78" s="96"/>
+      <c r="P78" s="96"/>
+      <c r="Q78" s="96"/>
+      <c r="R78" s="96"/>
+      <c r="S78" s="103"/>
+      <c r="T78" s="101"/>
+    </row>
+    <row r="79" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C79" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="D78" s="32" t="s">
+      <c r="D79" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="93"/>
-      <c r="L78" s="105" t="s">
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="102" t="s">
         <v>268</v>
       </c>
-      <c r="M78" s="99" t="s">
+      <c r="M79" s="96" t="s">
         <v>318</v>
       </c>
-      <c r="N78" s="107" t="s">
+      <c r="N79" s="104" t="s">
         <v>319</v>
       </c>
-      <c r="O78" s="99"/>
-      <c r="P78" s="99"/>
-      <c r="Q78" s="99"/>
-      <c r="R78" s="99"/>
-      <c r="S78" s="106"/>
-      <c r="T78" s="104"/>
-    </row>
-    <row r="79" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="31" t="s">
+      <c r="O79" s="96"/>
+      <c r="P79" s="96"/>
+      <c r="Q79" s="96"/>
+      <c r="R79" s="96"/>
+      <c r="S79" s="103"/>
+      <c r="T79" s="101"/>
+    </row>
+    <row r="80" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="C79" s="32" t="s">
+      <c r="C80" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="D79" s="32" t="s">
+      <c r="D80" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="93"/>
-      <c r="L79" s="105" t="s">
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="90"/>
+      <c r="L80" s="102" t="s">
         <v>204</v>
       </c>
-      <c r="M79" s="99" t="s">
+      <c r="M80" s="96" t="s">
         <v>320</v>
       </c>
-      <c r="N79" s="99" t="s">
+      <c r="N80" s="96" t="s">
         <v>320</v>
       </c>
-      <c r="O79" s="99"/>
-      <c r="P79" s="99"/>
-      <c r="Q79" s="99"/>
-      <c r="R79" s="99"/>
-      <c r="S79" s="106"/>
-      <c r="T79" s="104"/>
-    </row>
-    <row r="80" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="31" t="s">
+      <c r="O80" s="96"/>
+      <c r="P80" s="96"/>
+      <c r="Q80" s="96"/>
+      <c r="R80" s="96"/>
+      <c r="S80" s="103"/>
+      <c r="T80" s="101"/>
+    </row>
+    <row r="81" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="C81" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="D81" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="93"/>
-      <c r="L80" s="105" t="s">
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="90"/>
+      <c r="L81" s="102" t="s">
         <v>272</v>
       </c>
-      <c r="M80" s="99" t="s">
+      <c r="M81" s="96" t="s">
         <v>320</v>
       </c>
-      <c r="N80" s="99" t="s">
+      <c r="N81" s="96" t="s">
         <v>320</v>
       </c>
-      <c r="O80" s="99"/>
-      <c r="P80" s="99"/>
-      <c r="Q80" s="99"/>
-      <c r="R80" s="99"/>
-      <c r="S80" s="106"/>
-      <c r="T80" s="104"/>
-    </row>
-    <row r="81" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="31" t="s">
+      <c r="O81" s="96"/>
+      <c r="P81" s="96"/>
+      <c r="Q81" s="96"/>
+      <c r="R81" s="96"/>
+      <c r="S81" s="103"/>
+      <c r="T81" s="101"/>
+    </row>
+    <row r="82" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="C82" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="D82" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="93"/>
-      <c r="L81" s="105" t="s">
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="90"/>
+      <c r="L82" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="M81" s="99" t="s">
+      <c r="M82" s="96" t="s">
         <v>321</v>
       </c>
-      <c r="N81" s="107" t="s">
+      <c r="N82" s="104" t="s">
         <v>322</v>
       </c>
-      <c r="O81" s="99"/>
-      <c r="P81" s="99"/>
-      <c r="Q81" s="99"/>
-      <c r="R81" s="99"/>
-      <c r="S81" s="106"/>
-      <c r="T81" s="104"/>
-    </row>
-    <row r="82" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="31" t="s">
+      <c r="O82" s="96"/>
+      <c r="P82" s="96"/>
+      <c r="Q82" s="96"/>
+      <c r="R82" s="96"/>
+      <c r="S82" s="103"/>
+      <c r="T82" s="101"/>
+    </row>
+    <row r="83" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="C82" s="32" t="s">
+      <c r="C83" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="D82" s="32" t="s">
+      <c r="D83" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="93"/>
-      <c r="L82" s="105" t="s">
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="90"/>
+      <c r="L83" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="M82" s="99" t="s">
+      <c r="M83" s="96" t="s">
         <v>323</v>
       </c>
-      <c r="N82" s="107" t="s">
+      <c r="N83" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="O82" s="99"/>
-      <c r="P82" s="99"/>
-      <c r="Q82" s="99"/>
-      <c r="R82" s="99"/>
-      <c r="S82" s="106"/>
-      <c r="T82" s="104"/>
-    </row>
-    <row r="83" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="31"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="93"/>
-      <c r="L83" s="105" t="s">
+      <c r="O83" s="96"/>
+      <c r="P83" s="96"/>
+      <c r="Q83" s="96"/>
+      <c r="R83" s="96"/>
+      <c r="S83" s="103"/>
+      <c r="T83" s="101"/>
+    </row>
+    <row r="84" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="30"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="90"/>
+      <c r="L84" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="M83" s="99" t="s">
+      <c r="M84" s="96" t="s">
         <v>325</v>
       </c>
-      <c r="N83" s="107" t="s">
+      <c r="N84" s="104" t="s">
         <v>322</v>
       </c>
-      <c r="O83" s="99"/>
-      <c r="P83" s="99"/>
-      <c r="Q83" s="99"/>
-      <c r="R83" s="99"/>
-      <c r="S83" s="106"/>
-      <c r="T83" s="104"/>
-    </row>
-    <row r="84" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="31" t="s">
+      <c r="O84" s="96"/>
+      <c r="P84" s="96"/>
+      <c r="Q84" s="96"/>
+      <c r="R84" s="96"/>
+      <c r="S84" s="103"/>
+      <c r="T84" s="101"/>
+    </row>
+    <row r="85" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="93"/>
-      <c r="L84" s="105" t="s">
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="90"/>
+      <c r="L85" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="M84" s="99" t="s">
+      <c r="M85" s="96" t="s">
         <v>326</v>
       </c>
-      <c r="N84" s="107" t="s">
+      <c r="N85" s="104" t="s">
         <v>326</v>
       </c>
-      <c r="O84" s="99"/>
-      <c r="P84" s="99"/>
-      <c r="Q84" s="99"/>
-      <c r="R84" s="99"/>
-      <c r="S84" s="106"/>
-      <c r="T84" s="104"/>
-    </row>
-    <row r="85" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="31" t="s">
+      <c r="O85" s="96"/>
+      <c r="P85" s="96"/>
+      <c r="Q85" s="96"/>
+      <c r="R85" s="96"/>
+      <c r="S85" s="103"/>
+      <c r="T85" s="101"/>
+    </row>
+    <row r="86" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="C85" s="32" t="s">
+      <c r="C86" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="D85" s="32" t="s">
+      <c r="D86" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="26"/>
-      <c r="L85" s="59" t="s">
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="26"/>
+      <c r="L86" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="M85" s="56" t="s">
+      <c r="M86" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="N85" s="57" t="s">
+      <c r="N86" s="54" t="s">
         <v>329</v>
       </c>
-      <c r="O85" s="56"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="56"/>
-      <c r="R85" s="56"/>
-      <c r="S85" s="61"/>
-      <c r="T85" s="60"/>
-    </row>
-    <row r="86" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="77" t="s">
+      <c r="O86" s="53"/>
+      <c r="P86" s="53"/>
+      <c r="Q86" s="53"/>
+      <c r="R86" s="53"/>
+      <c r="S86" s="58"/>
+      <c r="T86" s="57"/>
+    </row>
+    <row r="87" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="74" t="s">
         <v>278</v>
       </c>
-      <c r="C86" s="78" t="s">
+      <c r="C87" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="D86" s="78" t="s">
+      <c r="D87" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="E86" s="78"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="78"/>
-      <c r="H86" s="78"/>
-      <c r="I86" s="79"/>
-      <c r="J86" s="26"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="56"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="56"/>
-      <c r="R86" s="56"/>
-      <c r="S86" s="61"/>
-      <c r="T86" s="60"/>
-    </row>
-    <row r="87" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="87" t="s">
+      <c r="E87" s="75"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="75"/>
+      <c r="H87" s="75"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="26"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="53"/>
+      <c r="N87" s="53"/>
+      <c r="O87" s="53"/>
+      <c r="P87" s="53"/>
+      <c r="Q87" s="53"/>
+      <c r="R87" s="53"/>
+      <c r="S87" s="58"/>
+      <c r="T87" s="57"/>
+    </row>
+    <row r="88" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C88" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="D87" s="26" t="s">
+      <c r="D88" s="26" t="s">
         <v>283</v>
-      </c>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="47"/>
-      <c r="J87" s="26"/>
-      <c r="L87" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="56"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="56"/>
-      <c r="R87" s="56"/>
-      <c r="S87" s="61"/>
-      <c r="T87" s="60"/>
-    </row>
-    <row r="88" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="87" t="s">
-        <v>215</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>285</v>
       </c>
       <c r="E88" s="26"/>
       <c r="F88" s="26"/>
       <c r="G88" s="26"/>
       <c r="H88" s="26"/>
-      <c r="I88" s="47"/>
+      <c r="I88" s="44"/>
       <c r="J88" s="26"/>
-      <c r="L88" s="59" t="s">
+      <c r="L88" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="M88" s="53"/>
+      <c r="N88" s="53"/>
+      <c r="O88" s="53"/>
+      <c r="P88" s="53"/>
+      <c r="Q88" s="53"/>
+      <c r="R88" s="53"/>
+      <c r="S88" s="58"/>
+      <c r="T88" s="57"/>
+    </row>
+    <row r="89" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="26"/>
+      <c r="L89" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="M88" s="56" t="s">
+      <c r="M89" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="N88" s="56" t="s">
+      <c r="N89" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="O88" s="56"/>
-      <c r="P88" s="56"/>
-      <c r="Q88" s="56"/>
-      <c r="R88" s="56"/>
-      <c r="S88" s="61"/>
-      <c r="T88" s="60"/>
-    </row>
-    <row r="89" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="77" t="s">
+      <c r="O89" s="53"/>
+      <c r="P89" s="53"/>
+      <c r="Q89" s="53"/>
+      <c r="R89" s="53"/>
+      <c r="S89" s="58"/>
+      <c r="T89" s="57"/>
+    </row>
+    <row r="90" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="74" t="s">
         <v>286</v>
       </c>
-      <c r="C89" s="78" t="s">
+      <c r="C90" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="D89" s="78" t="s">
+      <c r="D90" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="E89" s="78"/>
-      <c r="F89" s="78"/>
-      <c r="G89" s="78"/>
-      <c r="H89" s="78"/>
-      <c r="I89" s="79"/>
-      <c r="J89" s="26"/>
-      <c r="L89" s="105" t="s">
+      <c r="E90" s="75"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="26"/>
+      <c r="L90" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="M89" s="99" t="s">
+      <c r="M90" s="96" t="s">
         <v>282</v>
       </c>
-      <c r="N89" s="107" t="s">
+      <c r="N90" s="104" t="s">
         <v>283</v>
       </c>
-      <c r="O89" s="99"/>
-      <c r="P89" s="99"/>
-      <c r="Q89" s="99"/>
-      <c r="R89" s="99"/>
-      <c r="S89" s="106"/>
-      <c r="T89" s="60"/>
-    </row>
-    <row r="90" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="31" t="s">
+      <c r="O90" s="96"/>
+      <c r="P90" s="96"/>
+      <c r="Q90" s="96"/>
+      <c r="R90" s="96"/>
+      <c r="S90" s="103"/>
+      <c r="T90" s="57"/>
+    </row>
+    <row r="91" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C91" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="D90" s="32" t="s">
+      <c r="D91" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="26"/>
-      <c r="L90" s="80" t="s">
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="26"/>
+      <c r="L91" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="M90" s="81" t="s">
+      <c r="M91" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="N90" s="82" t="s">
+      <c r="N91" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="O90" s="81"/>
-      <c r="P90" s="81"/>
-      <c r="Q90" s="81"/>
-      <c r="R90" s="81"/>
-      <c r="S90" s="83"/>
-      <c r="T90" s="60"/>
-    </row>
-    <row r="91" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="87" t="s">
+      <c r="O91" s="78"/>
+      <c r="P91" s="78"/>
+      <c r="Q91" s="78"/>
+      <c r="R91" s="78"/>
+      <c r="S91" s="80"/>
+      <c r="T91" s="57"/>
+    </row>
+    <row r="92" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C92" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="D91" s="26" t="s">
+      <c r="D92" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="26"/>
-      <c r="L91" s="80" t="s">
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="26"/>
+      <c r="L92" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="M91" s="81" t="s">
+      <c r="M92" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="N91" s="82" t="s">
+      <c r="N92" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="O91" s="81"/>
-      <c r="P91" s="81"/>
-      <c r="Q91" s="81"/>
-      <c r="R91" s="81"/>
-      <c r="S91" s="83"/>
-      <c r="T91" s="60"/>
-    </row>
-    <row r="92" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="58" t="s">
+      <c r="O92" s="78"/>
+      <c r="P92" s="78"/>
+      <c r="Q92" s="78"/>
+      <c r="R92" s="78"/>
+      <c r="S92" s="80"/>
+      <c r="T92" s="57"/>
+    </row>
+    <row r="93" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C93" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D93" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="26"/>
-      <c r="L92" s="59" t="s">
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="26"/>
+      <c r="L93" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="M92" s="56" t="s">
+      <c r="M93" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="N92" s="57" t="s">
+      <c r="N93" s="54" t="s">
         <v>333</v>
       </c>
-      <c r="O92" s="56"/>
-      <c r="P92" s="56"/>
-      <c r="Q92" s="56"/>
-      <c r="R92" s="56"/>
-      <c r="S92" s="61"/>
-      <c r="T92" s="60"/>
-    </row>
-    <row r="93" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L93" s="62" t="s">
+      <c r="O93" s="53"/>
+      <c r="P93" s="53"/>
+      <c r="Q93" s="53"/>
+      <c r="R93" s="53"/>
+      <c r="S93" s="58"/>
+      <c r="T93" s="57"/>
+    </row>
+    <row r="94" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L94" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="M93" s="63" t="s">
+      <c r="M94" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="N93" s="64" t="s">
+      <c r="N94" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="O93" s="63"/>
-      <c r="P93" s="63"/>
-      <c r="Q93" s="63"/>
-      <c r="R93" s="63"/>
-      <c r="S93" s="65"/>
-      <c r="T93" s="60"/>
+      <c r="O94" s="60"/>
+      <c r="P94" s="60"/>
+      <c r="Q94" s="60"/>
+      <c r="R94" s="60"/>
+      <c r="S94" s="62"/>
+      <c r="T94" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="L4:P5"/>
     <mergeCell ref="L7:L14"/>
     <mergeCell ref="V4:Z5"/>
     <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L35:S35"/>
     <mergeCell ref="L15:L19"/>
     <mergeCell ref="L20:L26"/>
     <mergeCell ref="L27:L29"/>
-    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="AA6:AE6"/>
+    <mergeCell ref="B35:I35"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A4:E5"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64221909-3AC4-404A-B1A7-D82C130927AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A727C5-F7B0-4C5E-B3E4-3229BF998045}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="392">
   <si>
     <t>Item#</t>
   </si>
@@ -1373,18 +1373,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1991,7 +1985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2163,38 +2157,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2260,37 +2241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2313,20 +2263,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2342,24 +2287,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2384,11 +2329,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2567,9 +2548,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2912,19 +2890,19 @@
     <col min="3" max="3" width="30" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="138" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="117" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
       <c r="I1" s="66"/>
       <c r="J1" s="66"/>
       <c r="K1" s="66"/>
@@ -2958,7 +2936,7 @@
       <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="163" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2976,7 +2954,7 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="138">
+      <c r="G3" s="117">
         <v>1</v>
       </c>
       <c r="I3" s="66"/>
@@ -2986,7 +2964,7 @@
       <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="167"/>
+      <c r="A4" s="164"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2999,7 +2977,7 @@
       <c r="E4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="138">
+      <c r="G4" s="117">
         <v>1</v>
       </c>
       <c r="I4" s="66"/>
@@ -3009,7 +2987,7 @@
       <c r="M4" s="66"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="167"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3025,7 +3003,7 @@
       <c r="F5" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="138">
+      <c r="G5" s="117">
         <v>0</v>
       </c>
       <c r="I5" s="66"/>
@@ -3042,7 +3020,7 @@
       <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="161" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3057,7 +3035,7 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="138" t="s">
+      <c r="G7" s="117" t="s">
         <v>379</v>
       </c>
       <c r="I7" s="66"/>
@@ -3067,7 +3045,7 @@
       <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="164"/>
+      <c r="A8" s="161"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3080,7 +3058,7 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="138" t="s">
+      <c r="G8" s="117" t="s">
         <v>379</v>
       </c>
       <c r="I8" s="66"/>
@@ -3090,7 +3068,7 @@
       <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="164"/>
+      <c r="A9" s="161"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3103,7 +3081,7 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="138" t="s">
+      <c r="G9" s="117" t="s">
         <v>379</v>
       </c>
       <c r="I9" s="66"/>
@@ -3113,7 +3091,7 @@
       <c r="M9" s="66"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="164"/>
+      <c r="A10" s="161"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3126,7 +3104,7 @@
       <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="138" t="s">
+      <c r="G10" s="117" t="s">
         <v>379</v>
       </c>
       <c r="I10" s="66"/>
@@ -3136,7 +3114,7 @@
       <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="164"/>
+      <c r="A11" s="161"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3149,7 +3127,7 @@
       <c r="E11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="138" t="s">
+      <c r="G11" s="117" t="s">
         <v>379</v>
       </c>
       <c r="I11" s="66"/>
@@ -3159,7 +3137,7 @@
       <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="164"/>
+      <c r="A12" s="161"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3172,7 +3150,7 @@
       <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="138" t="s">
+      <c r="G12" s="117" t="s">
         <v>379</v>
       </c>
       <c r="I12" s="66"/>
@@ -3204,7 +3182,7 @@
       <c r="E14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="138">
+      <c r="G14" s="117">
         <v>1</v>
       </c>
       <c r="I14" s="66"/>
@@ -3221,7 +3199,7 @@
       <c r="M15" s="66"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="164" t="s">
+      <c r="A16" s="161" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3233,7 +3211,7 @@
       <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="G16" s="139">
+      <c r="G16" s="118">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
@@ -3244,7 +3222,7 @@
       <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="164"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3254,7 +3232,7 @@
       <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="G17" s="139">
+      <c r="G17" s="118">
         <v>2</v>
       </c>
       <c r="I17" s="66"/>
@@ -3264,7 +3242,7 @@
       <c r="M17" s="66"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="164"/>
+      <c r="A18" s="161"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3274,7 +3252,7 @@
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="G18" s="139">
+      <c r="G18" s="118">
         <v>1</v>
       </c>
       <c r="I18" s="66"/>
@@ -3284,7 +3262,7 @@
       <c r="M18" s="66"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="164"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3294,7 +3272,7 @@
       <c r="D19" s="5">
         <v>10</v>
       </c>
-      <c r="G19" s="139">
+      <c r="G19" s="118">
         <f>3</f>
         <v>3</v>
       </c>
@@ -3305,7 +3283,7 @@
       <c r="M19" s="66"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="164"/>
+      <c r="A20" s="161"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3315,7 +3293,7 @@
       <c r="D20" s="5">
         <v>10</v>
       </c>
-      <c r="G20" s="139">
+      <c r="G20" s="118">
         <f>1+2</f>
         <v>3</v>
       </c>
@@ -3326,7 +3304,7 @@
       <c r="M20" s="66"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="164"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3336,7 +3314,7 @@
       <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="G21" s="139">
+      <c r="G21" s="118">
         <v>1</v>
       </c>
       <c r="I21" s="66"/>
@@ -3346,7 +3324,7 @@
       <c r="M21" s="66"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="164"/>
+      <c r="A22" s="161"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3356,7 +3334,7 @@
       <c r="D22" s="5">
         <v>20</v>
       </c>
-      <c r="G22" s="139">
+      <c r="G22" s="118">
         <f>2+4</f>
         <v>6</v>
       </c>
@@ -3367,7 +3345,7 @@
       <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="164"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3377,7 +3355,7 @@
       <c r="D23" s="5">
         <v>20</v>
       </c>
-      <c r="G23" s="139">
+      <c r="G23" s="118">
         <f>2+3+2</f>
         <v>7</v>
       </c>
@@ -3388,7 +3366,7 @@
       <c r="M23" s="66"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="164"/>
+      <c r="A24" s="161"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3398,7 +3376,7 @@
       <c r="D24" s="5">
         <v>10</v>
       </c>
-      <c r="G24" s="139">
+      <c r="G24" s="118">
         <v>4</v>
       </c>
       <c r="I24" s="66"/>
@@ -3408,7 +3386,7 @@
       <c r="M24" s="66"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="164"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3418,7 +3396,7 @@
       <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="G25" s="139">
+      <c r="G25" s="118">
         <v>1</v>
       </c>
       <c r="I25" s="66"/>
@@ -3428,7 +3406,7 @@
       <c r="M25" s="66"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="164"/>
+      <c r="A26" s="161"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3438,7 +3416,7 @@
       <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="G26" s="139">
+      <c r="G26" s="118">
         <v>1</v>
       </c>
       <c r="I26" s="66"/>
@@ -3448,7 +3426,7 @@
       <c r="M26" s="66"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="164"/>
+      <c r="A27" s="161"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3458,7 +3436,7 @@
       <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="G27" s="139">
+      <c r="G27" s="118">
         <v>2</v>
       </c>
       <c r="I27" s="66"/>
@@ -3475,7 +3453,7 @@
       <c r="M28" s="66"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="164" t="s">
+      <c r="A29" s="161" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3487,7 +3465,7 @@
       <c r="D29" s="5">
         <v>15</v>
       </c>
-      <c r="G29" s="139">
+      <c r="G29" s="118">
         <f>2+3</f>
         <v>5</v>
       </c>
@@ -3498,7 +3476,7 @@
       <c r="M29" s="66"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="164"/>
+      <c r="A30" s="161"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3508,7 +3486,7 @@
       <c r="D30" s="5">
         <v>5</v>
       </c>
-      <c r="G30" s="139">
+      <c r="G30" s="118">
         <v>1</v>
       </c>
       <c r="I30" s="66"/>
@@ -3518,7 +3496,7 @@
       <c r="M30" s="66"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="164"/>
+      <c r="A31" s="161"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3528,7 +3506,7 @@
       <c r="D31" s="5">
         <v>5</v>
       </c>
-      <c r="G31" s="139">
+      <c r="G31" s="118">
         <v>1</v>
       </c>
       <c r="I31" s="66"/>
@@ -3538,7 +3516,7 @@
       <c r="M31" s="66"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="164"/>
+      <c r="A32" s="161"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3548,7 +3526,7 @@
       <c r="D32" s="5">
         <v>30</v>
       </c>
-      <c r="G32" s="139">
+      <c r="G32" s="118">
         <v>14</v>
       </c>
       <c r="I32" s="66"/>
@@ -3558,7 +3536,7 @@
       <c r="M32" s="66"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="164"/>
+      <c r="A33" s="161"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3568,7 +3546,7 @@
       <c r="D33" s="5">
         <v>20</v>
       </c>
-      <c r="G33" s="139">
+      <c r="G33" s="118">
         <v>9</v>
       </c>
       <c r="I33" s="66"/>
@@ -3578,7 +3556,7 @@
       <c r="M33" s="66"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="164"/>
+      <c r="A34" s="161"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3591,7 +3569,7 @@
       <c r="E34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="138" t="s">
+      <c r="G34" s="117" t="s">
         <v>379</v>
       </c>
       <c r="I34" s="66"/>
@@ -3601,7 +3579,7 @@
       <c r="M34" s="66"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="164" t="s">
+      <c r="A36" s="161" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3613,12 +3591,12 @@
       <c r="D36" s="5">
         <v>4</v>
       </c>
-      <c r="G36" s="138">
+      <c r="G36" s="117">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="164"/>
+      <c r="A37" s="161"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3628,12 +3606,12 @@
       <c r="D37" s="5">
         <v>4</v>
       </c>
-      <c r="G37" s="138" t="s">
+      <c r="G37" s="117" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="164" t="s">
+      <c r="A39" s="161" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3651,12 +3629,12 @@
       <c r="F39" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="138">
+      <c r="G39" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="164"/>
+      <c r="A40" s="161"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3669,12 +3647,12 @@
       <c r="E40" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="138">
+      <c r="G40" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="164"/>
+      <c r="A41" s="161"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3687,12 +3665,12 @@
       <c r="E41" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="138">
+      <c r="G41" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="164"/>
+      <c r="A42" s="161"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3708,7 +3686,7 @@
       <c r="F42" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="138">
+      <c r="G42" s="117">
         <v>1</v>
       </c>
     </row>
@@ -3722,12 +3700,12 @@
       <c r="D43" s="5">
         <v>1</v>
       </c>
-      <c r="G43" s="138" t="s">
+      <c r="G43" s="117" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="165" t="s">
+      <c r="A45" s="162" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3742,12 +3720,12 @@
       <c r="E45" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="138">
+      <c r="G45" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="165"/>
+      <c r="A46" s="162"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3760,7 +3738,7 @@
       <c r="E46" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="138">
+      <c r="G46" s="117">
         <v>1</v>
       </c>
     </row>
@@ -3769,7 +3747,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="165" t="s">
+      <c r="A48" s="162" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3786,7 +3764,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="165"/>
+      <c r="A49" s="162"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3798,7 +3776,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="164" t="s">
+      <c r="A51" s="161" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3813,12 +3791,12 @@
       <c r="F51" t="s">
         <v>94</v>
       </c>
-      <c r="G51" s="138" t="s">
+      <c r="G51" s="117" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="164"/>
+      <c r="A52" s="161"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3828,12 +3806,12 @@
       <c r="D52" s="5">
         <v>4</v>
       </c>
-      <c r="G52" s="138">
+      <c r="G52" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="164"/>
+      <c r="A53" s="161"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3843,12 +3821,12 @@
       <c r="D53" s="5">
         <v>4</v>
       </c>
-      <c r="G53" s="138">
+      <c r="G53" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="164"/>
+      <c r="A54" s="161"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3858,12 +3836,12 @@
       <c r="D54" s="5">
         <v>5</v>
       </c>
-      <c r="G54" s="138">
+      <c r="G54" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="164"/>
+      <c r="A55" s="161"/>
       <c r="B55" s="36" t="s">
         <v>88</v>
       </c>
@@ -3876,12 +3854,12 @@
       <c r="E55" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G55" s="138" t="s">
+      <c r="G55" s="117" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="164"/>
+      <c r="A56" s="161"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3891,12 +3869,12 @@
       <c r="D56" s="5">
         <v>4</v>
       </c>
-      <c r="G56" s="138">
+      <c r="G56" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="164"/>
+      <c r="A57" s="161"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3906,12 +3884,12 @@
       <c r="D57" s="5">
         <v>4</v>
       </c>
-      <c r="G57" s="138" t="s">
+      <c r="G57" s="117" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="164"/>
+      <c r="A58" s="161"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3921,12 +3899,12 @@
       <c r="D58" s="5">
         <v>5</v>
       </c>
-      <c r="G58" s="138">
+      <c r="G58" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="164"/>
+      <c r="A59" s="161"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3936,12 +3914,12 @@
       <c r="D59" s="5">
         <v>4</v>
       </c>
-      <c r="G59" s="138">
+      <c r="G59" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="164"/>
+      <c r="A60" s="161"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3956,7 +3934,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="164"/>
+      <c r="A61" s="161"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3969,12 +3947,12 @@
       <c r="E61" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G61" s="138">
+      <c r="G61" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="164"/>
+      <c r="A62" s="161"/>
       <c r="B62" s="36" t="s">
         <v>121</v>
       </c>
@@ -3987,12 +3965,12 @@
       <c r="E62" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="G62" s="138" t="s">
+      <c r="G62" s="117" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="164"/>
+      <c r="A63" s="161"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -4005,12 +3983,12 @@
       <c r="E63" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G63" s="138" t="s">
+      <c r="G63" s="117" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="164"/>
+      <c r="A64" s="161"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -4023,12 +4001,12 @@
       <c r="E64" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G64" s="138">
+      <c r="G64" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="164"/>
+      <c r="A65" s="161"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -4041,12 +4019,12 @@
       <c r="E65" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G65" s="138">
+      <c r="G65" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="164"/>
+      <c r="A66" s="161"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4061,7 +4039,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="164"/>
+      <c r="A67" s="161"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4076,7 +4054,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="164"/>
+      <c r="A68" s="161"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4091,7 +4069,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="164" t="s">
+      <c r="A70" s="161" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4106,12 +4084,12 @@
       <c r="E70" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G70" s="138">
+      <c r="G70" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="164"/>
+      <c r="A71" s="161"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4123,7 +4101,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="164"/>
+      <c r="A72" s="161"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4139,7 +4117,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="164" t="s">
+      <c r="A74" s="161" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4154,13 +4132,13 @@
       <c r="E74" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G74" s="139"/>
+      <c r="G74" s="118"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="164"/>
+      <c r="A75" s="161"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4175,7 +4153,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="164"/>
+      <c r="A76" s="161"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4190,7 +4168,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="164"/>
+      <c r="A77" s="161"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4205,7 +4183,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="164"/>
+      <c r="A78" s="161"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4220,7 +4198,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="164"/>
+      <c r="A79" s="161"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4235,7 +4213,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="164"/>
+      <c r="A80" s="161"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4250,7 +4228,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="164"/>
+      <c r="A81" s="161"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4288,8 +4266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AE94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4307,115 +4285,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="168" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="173"/>
-      <c r="H1" s="189" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="170"/>
+      <c r="H1" s="186" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="190"/>
-      <c r="J1" s="191"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="188"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="176"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="187" t="s">
+      <c r="A2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="173"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="184" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="188"/>
+      <c r="J2" s="185"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:31" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="177"/>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="187" t="s">
+      <c r="A3" s="174"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="176"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="184" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="188"/>
+      <c r="J3" s="185"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="178" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="182"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="179"/>
       <c r="F4" s="41"/>
       <c r="G4" s="31"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="187" t="s">
+      <c r="H4" s="123"/>
+      <c r="I4" s="184" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="188"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="194" t="s">
+      <c r="J4" s="185"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="191" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="196"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="192"/>
+      <c r="P4" s="193"/>
       <c r="Q4" s="41"/>
-      <c r="R4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="203" t="s">
+      <c r="R4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="200" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="204"/>
-      <c r="X4" s="204"/>
-      <c r="Y4" s="204"/>
-      <c r="Z4" s="205"/>
-      <c r="AA4" s="90"/>
+      <c r="W4" s="201"/>
+      <c r="X4" s="201"/>
+      <c r="Y4" s="201"/>
+      <c r="Z4" s="202"/>
+      <c r="AA4" s="85"/>
       <c r="AB4" s="31"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="183"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="184"/>
+      <c r="A5" s="180"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="181"/>
       <c r="F5" s="41"/>
       <c r="G5" s="31"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="192" t="s">
+      <c r="H5" s="130"/>
+      <c r="I5" s="189" t="s">
         <v>385</v>
       </c>
-      <c r="J5" s="193"/>
-      <c r="L5" s="197"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="199"/>
+      <c r="J5" s="190"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
+      <c r="O5" s="195"/>
+      <c r="P5" s="196"/>
       <c r="Q5" s="41"/>
-      <c r="R5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="206"/>
-      <c r="W5" s="207"/>
-      <c r="X5" s="207"/>
-      <c r="Y5" s="207"/>
-      <c r="Z5" s="208"/>
-      <c r="AA5" s="90"/>
+      <c r="R5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="203"/>
+      <c r="W5" s="204"/>
+      <c r="X5" s="204"/>
+      <c r="Y5" s="204"/>
+      <c r="Z5" s="205"/>
+      <c r="AA5" s="85"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="107" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -4431,7 +4409,7 @@
         <v>164</v>
       </c>
       <c r="F6" s="31"/>
-      <c r="G6" s="143" t="s">
+      <c r="G6" s="122" t="s">
         <v>383</v>
       </c>
       <c r="L6" s="45" t="s">
@@ -4453,35 +4431,35 @@
       <c r="R6" t="s">
         <v>383</v>
       </c>
-      <c r="U6" s="90"/>
-      <c r="V6" s="91" t="s">
+      <c r="U6" s="85"/>
+      <c r="V6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="W6" s="92" t="s">
+      <c r="W6" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="X6" s="93" t="s">
+      <c r="X6" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="Y6" s="93" t="s">
+      <c r="Y6" s="88" t="s">
         <v>168</v>
       </c>
       <c r="Z6" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="AA6" s="221" t="s">
+      <c r="AA6" s="218" t="s">
         <v>390</v>
       </c>
-      <c r="AB6" s="222"/>
-      <c r="AC6" s="222"/>
-      <c r="AD6" s="222"/>
-      <c r="AE6" s="222"/>
+      <c r="AB6" s="219"/>
+      <c r="AC6" s="219"/>
+      <c r="AD6" s="219"/>
+      <c r="AE6" s="219"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="180" t="s">
+      <c r="A7" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="80" t="s">
         <v>165</v>
       </c>
       <c r="C7" s="34">
@@ -4497,19 +4475,19 @@
         <v>382</v>
       </c>
       <c r="G7" s="31"/>
-      <c r="L7" s="200" t="s">
+      <c r="L7" s="197" t="s">
         <v>339</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="80" t="s">
         <v>340</v>
       </c>
-      <c r="N7" s="86">
+      <c r="N7" s="81">
         <v>1</v>
       </c>
-      <c r="O7" s="86">
+      <c r="O7" s="81">
         <v>5</v>
       </c>
-      <c r="P7" s="87" t="s">
+      <c r="P7" s="82" t="s">
         <v>237</v>
       </c>
       <c r="Q7" s="41" t="s">
@@ -4518,28 +4496,28 @@
       <c r="R7" t="s">
         <v>384</v>
       </c>
-      <c r="U7" s="90"/>
-      <c r="V7" s="94" t="s">
+      <c r="U7" s="85"/>
+      <c r="V7" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="116" t="s">
+      <c r="W7" s="146" t="s">
         <v>342</v>
       </c>
-      <c r="X7" s="117">
+      <c r="X7" s="147">
         <v>2</v>
       </c>
-      <c r="Y7" s="117">
+      <c r="Y7" s="147">
         <v>20</v>
       </c>
-      <c r="Z7" s="118" t="s">
+      <c r="Z7" s="148" t="s">
         <v>343</v>
       </c>
-      <c r="AA7" s="90" t="s">
+      <c r="AA7" s="85" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="180"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4558,7 +4536,7 @@
       <c r="G8" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="L8" s="201"/>
+      <c r="L8" s="198"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4577,28 +4555,28 @@
       <c r="R8" t="s">
         <v>384</v>
       </c>
-      <c r="U8" s="90"/>
-      <c r="V8" s="95" t="s">
+      <c r="U8" s="85"/>
+      <c r="V8" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="113" t="s">
+      <c r="W8" s="149" t="s">
         <v>351</v>
       </c>
-      <c r="X8" s="114">
+      <c r="X8" s="150">
         <v>2</v>
       </c>
-      <c r="Y8" s="114">
+      <c r="Y8" s="150">
         <v>30</v>
       </c>
-      <c r="Z8" s="115" t="s">
+      <c r="Z8" s="151" t="s">
         <v>366</v>
       </c>
-      <c r="AA8" s="90" t="s">
+      <c r="AA8" s="85" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="180"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4617,17 +4595,17 @@
       <c r="G9" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="201"/>
-      <c r="M9" s="67" t="s">
+      <c r="L9" s="198"/>
+      <c r="M9" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="N9" s="107">
+      <c r="N9" s="47">
         <v>3</v>
       </c>
-      <c r="O9" s="107">
+      <c r="O9" s="47">
         <v>20</v>
       </c>
-      <c r="P9" s="108" t="s">
+      <c r="P9" s="50" t="s">
         <v>344</v>
       </c>
       <c r="Q9" s="41" t="s">
@@ -4636,28 +4614,28 @@
       <c r="R9" t="s">
         <v>384</v>
       </c>
-      <c r="U9" s="90"/>
-      <c r="V9" s="120" t="s">
+      <c r="U9" s="85"/>
+      <c r="V9" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="W9" s="121" t="s">
+      <c r="W9" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="X9" s="122">
+      <c r="X9" s="104">
         <v>1</v>
       </c>
-      <c r="Y9" s="122">
+      <c r="Y9" s="104">
         <v>5</v>
       </c>
-      <c r="Z9" s="123" t="s">
+      <c r="Z9" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="AA9" s="90" t="s">
+      <c r="AA9" s="85" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="180"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4676,17 +4654,17 @@
       <c r="G10" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="201"/>
-      <c r="M10" s="67" t="s">
+      <c r="L10" s="198"/>
+      <c r="M10" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="N10" s="107">
+      <c r="N10" s="47">
         <v>2</v>
       </c>
-      <c r="O10" s="107">
+      <c r="O10" s="47">
         <v>10</v>
       </c>
-      <c r="P10" s="108" t="s">
+      <c r="P10" s="50" t="s">
         <v>166</v>
       </c>
       <c r="Q10" s="41" t="s">
@@ -4695,26 +4673,26 @@
       <c r="R10" t="s">
         <v>384</v>
       </c>
-      <c r="U10" s="90"/>
-      <c r="V10" s="119" t="s">
+      <c r="U10" s="85"/>
+      <c r="V10" s="101" t="s">
         <v>213</v>
       </c>
-      <c r="W10" s="156" t="s">
+      <c r="W10" s="135" t="s">
         <v>368</v>
       </c>
-      <c r="X10" s="157" t="s">
+      <c r="X10" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" s="157" t="s">
+      <c r="Y10" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="158" t="s">
+      <c r="Z10" s="137" t="s">
         <v>278</v>
       </c>
-      <c r="AA10" s="90"/>
+      <c r="AA10" s="85"/>
     </row>
     <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="180"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4733,7 +4711,7 @@
       <c r="G11" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="201"/>
+      <c r="L11" s="198"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4761,7 +4739,7 @@
       <c r="AA11" s="31"/>
     </row>
     <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="180"/>
+      <c r="A12" s="177"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4780,7 +4758,7 @@
       <c r="G12" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L12" s="201"/>
+      <c r="L12" s="198"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4799,16 +4777,16 @@
       <c r="R12" t="s">
         <v>384</v>
       </c>
-      <c r="U12" s="90"/>
+      <c r="U12" s="85"/>
       <c r="V12" s="33"/>
       <c r="W12" s="26"/>
       <c r="X12" s="47"/>
-      <c r="Y12" s="46"/>
+      <c r="Y12" s="47"/>
       <c r="Z12" s="51"/>
       <c r="AA12" s="31"/>
     </row>
     <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="180"/>
+      <c r="A13" s="177"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4827,17 +4805,17 @@
       <c r="G13" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="201"/>
-      <c r="M13" s="67" t="s">
+      <c r="L13" s="198"/>
+      <c r="M13" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="N13" s="107">
+      <c r="N13" s="47">
         <v>2</v>
       </c>
-      <c r="O13" s="107">
+      <c r="O13" s="47">
         <v>20</v>
       </c>
-      <c r="P13" s="108" t="s">
+      <c r="P13" s="50" t="s">
         <v>349</v>
       </c>
       <c r="Q13" s="41" t="s">
@@ -4846,26 +4824,26 @@
       <c r="R13" t="s">
         <v>384</v>
       </c>
-      <c r="V13" s="97"/>
+      <c r="V13" s="92"/>
       <c r="W13" s="38"/>
       <c r="X13" s="47"/>
       <c r="Y13" s="47"/>
       <c r="Z13" s="51"/>
       <c r="AA13" s="26"/>
-      <c r="AB13" s="90"/>
+      <c r="AB13" s="85"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="185"/>
-      <c r="B14" s="88" t="s">
+      <c r="A14" s="182"/>
+      <c r="B14" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="126">
+      <c r="C14" s="108">
         <v>4</v>
       </c>
-      <c r="D14" s="126">
+      <c r="D14" s="108">
         <v>20</v>
       </c>
-      <c r="E14" s="128" t="s">
+      <c r="E14" s="109" t="s">
         <v>182</v>
       </c>
       <c r="F14" s="14" t="s">
@@ -4874,17 +4852,17 @@
       <c r="G14" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L14" s="202"/>
-      <c r="M14" s="88" t="s">
+      <c r="L14" s="199"/>
+      <c r="M14" s="83" t="s">
         <v>350</v>
       </c>
-      <c r="N14" s="72">
+      <c r="N14" s="67">
         <v>1</v>
       </c>
-      <c r="O14" s="72">
+      <c r="O14" s="67">
         <v>5</v>
       </c>
-      <c r="P14" s="73" t="s">
+      <c r="P14" s="68" t="s">
         <v>244</v>
       </c>
       <c r="Q14" s="41" t="s">
@@ -4893,20 +4871,20 @@
       <c r="R14" t="s">
         <v>384</v>
       </c>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="85"/>
+      <c r="AC14" s="85"/>
     </row>
     <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="186" t="s">
+      <c r="A15" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="84" t="s">
         <v>186</v>
       </c>
       <c r="C15" s="47">
@@ -4915,7 +4893,7 @@
       <c r="D15" s="47">
         <v>30</v>
       </c>
-      <c r="E15" s="130" t="s">
+      <c r="E15" s="110" t="s">
         <v>187</v>
       </c>
       <c r="F15" s="14" t="s">
@@ -4924,19 +4902,19 @@
       <c r="G15" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L15" s="215" t="s">
+      <c r="L15" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="109" t="s">
+      <c r="M15" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="N15" s="107">
+      <c r="N15" s="47">
         <v>10</v>
       </c>
-      <c r="O15" s="107">
+      <c r="O15" s="47">
         <v>30</v>
       </c>
-      <c r="P15" s="108" t="s">
+      <c r="P15" s="50" t="s">
         <v>352</v>
       </c>
       <c r="Q15" s="41" t="s">
@@ -4945,19 +4923,19 @@
       <c r="R15" t="s">
         <v>384</v>
       </c>
-      <c r="V15" s="209" t="s">
+      <c r="V15" s="206" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="210"/>
-      <c r="X15" s="210"/>
-      <c r="Y15" s="210"/>
-      <c r="Z15" s="210"/>
-      <c r="AA15" s="210"/>
-      <c r="AB15" s="210"/>
-      <c r="AC15" s="211"/>
+      <c r="W15" s="207"/>
+      <c r="X15" s="207"/>
+      <c r="Y15" s="207"/>
+      <c r="Z15" s="207"/>
+      <c r="AA15" s="207"/>
+      <c r="AB15" s="207"/>
+      <c r="AC15" s="208"/>
     </row>
     <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="180"/>
+      <c r="A16" s="177"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4976,17 +4954,17 @@
       <c r="G16" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L16" s="216"/>
-      <c r="M16" s="67" t="s">
+      <c r="L16" s="213"/>
+      <c r="M16" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="N16" s="107">
+      <c r="N16" s="47">
         <v>3</v>
       </c>
-      <c r="O16" s="107">
+      <c r="O16" s="47">
         <v>15</v>
       </c>
-      <c r="P16" s="108" t="s">
+      <c r="P16" s="50" t="s">
         <v>353</v>
       </c>
       <c r="Q16" s="41" t="s">
@@ -4996,29 +4974,29 @@
         <v>384</v>
       </c>
       <c r="S16" s="31"/>
-      <c r="V16" s="98" t="s">
+      <c r="V16" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="135"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="114"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="185"/>
-      <c r="B17" s="88" t="s">
+      <c r="A17" s="182"/>
+      <c r="B17" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="126">
+      <c r="C17" s="108">
         <v>5</v>
       </c>
-      <c r="D17" s="126">
+      <c r="D17" s="108">
         <v>20</v>
       </c>
-      <c r="E17" s="128" t="s">
+      <c r="E17" s="109" t="s">
         <v>188</v>
       </c>
       <c r="F17" s="14" t="s">
@@ -5027,17 +5005,17 @@
       <c r="G17" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L17" s="216"/>
-      <c r="M17" s="67" t="s">
+      <c r="L17" s="213"/>
+      <c r="M17" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="N17" s="107">
+      <c r="N17" s="47">
         <v>4</v>
       </c>
-      <c r="O17" s="107">
+      <c r="O17" s="47">
         <v>20</v>
       </c>
-      <c r="P17" s="108" t="s">
+      <c r="P17" s="50" t="s">
         <v>354</v>
       </c>
       <c r="Q17" s="41" t="s">
@@ -5046,39 +5024,39 @@
       <c r="R17" t="s">
         <v>384</v>
       </c>
-      <c r="V17" s="102" t="s">
+      <c r="V17" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="W17" s="96" t="s">
+      <c r="W17" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="X17" s="96" t="s">
+      <c r="X17" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="100"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="95"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="186" t="s">
+      <c r="A18" s="183" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="152" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="153">
         <v>1</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="153">
         <v>5</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="154" t="s">
         <v>190</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="L18" s="216"/>
+      <c r="L18" s="213"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -5097,47 +5075,47 @@
       <c r="R18" t="s">
         <v>384</v>
       </c>
-      <c r="V18" s="102" t="s">
+      <c r="V18" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="W18" s="96" t="s">
+      <c r="W18" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="X18" s="104" t="s">
+      <c r="X18" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="103"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="98"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="180"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="177"/>
+      <c r="B19" s="152" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="153">
         <v>1</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="153">
         <v>5</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="124"/>
-      <c r="L19" s="217"/>
-      <c r="M19" s="88" t="s">
+      <c r="F19" s="106"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="N19" s="72">
+      <c r="N19" s="67">
         <v>1</v>
       </c>
-      <c r="O19" s="72">
+      <c r="O19" s="67">
         <v>5</v>
       </c>
-      <c r="P19" s="73" t="s">
+      <c r="P19" s="68" t="s">
         <v>303</v>
       </c>
       <c r="Q19" s="41" t="s">
@@ -5146,79 +5124,79 @@
       <c r="R19" t="s">
         <v>384</v>
       </c>
-      <c r="V19" s="102" t="s">
+      <c r="V19" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="W19" s="96" t="s">
+      <c r="W19" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="X19" s="104" t="s">
+      <c r="X19" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="103"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="98"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="180"/>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="177"/>
+      <c r="B20" s="152" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="153">
         <v>1</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="153">
         <v>4</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="124"/>
-      <c r="L20" s="215" t="s">
+      <c r="F20" s="106"/>
+      <c r="L20" s="212" t="s">
         <v>200</v>
       </c>
-      <c r="M20" s="106" t="s">
+      <c r="M20" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="N20" s="69">
+      <c r="N20" s="47">
         <v>1</v>
       </c>
-      <c r="O20" s="69">
+      <c r="O20" s="47">
         <v>1</v>
       </c>
-      <c r="P20" s="70" t="s">
+      <c r="P20" s="50" t="s">
         <v>268</v>
       </c>
       <c r="Q20" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V20" s="102"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="103"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="91"/>
+      <c r="AA20" s="91"/>
+      <c r="AB20" s="91"/>
+      <c r="AC20" s="98"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="180"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="177"/>
+      <c r="B21" s="152" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="153">
         <v>1</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="153">
         <v>5</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="154" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="124"/>
-      <c r="L21" s="216"/>
+      <c r="F21" s="106"/>
+      <c r="L21" s="213"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5234,33 +5212,33 @@
       <c r="Q21" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V21" s="105" t="s">
+      <c r="V21" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="103"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="91"/>
+      <c r="AB21" s="91"/>
+      <c r="AC21" s="98"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="185"/>
-      <c r="B22" s="88" t="s">
+      <c r="A22" s="182"/>
+      <c r="B22" s="157" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="126">
+      <c r="C22" s="158">
         <v>1</v>
       </c>
-      <c r="D22" s="126">
+      <c r="D22" s="158">
         <v>4</v>
       </c>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="159" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="124"/>
-      <c r="L22" s="216"/>
+      <c r="F22" s="106"/>
+      <c r="L22" s="213"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5276,85 +5254,85 @@
       <c r="Q22" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V22" s="102" t="s">
+      <c r="V22" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="W22" s="96" t="s">
+      <c r="W22" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="X22" s="96" t="s">
+      <c r="X22" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="103"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="91"/>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="91"/>
+      <c r="AC22" s="98"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="186" t="s">
+      <c r="A23" s="183" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="119" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="141">
+      <c r="C23" s="120">
         <v>1</v>
       </c>
-      <c r="D23" s="141">
+      <c r="D23" s="120">
         <v>0</v>
       </c>
-      <c r="E23" s="142" t="s">
+      <c r="E23" s="121" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="124"/>
-      <c r="L23" s="216"/>
-      <c r="M23" s="106" t="s">
+      <c r="F23" s="106"/>
+      <c r="L23" s="213"/>
+      <c r="M23" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="N23" s="69">
+      <c r="N23" s="47">
         <v>1</v>
       </c>
-      <c r="O23" s="69">
+      <c r="O23" s="47">
         <v>3</v>
       </c>
-      <c r="P23" s="70" t="s">
+      <c r="P23" s="50" t="s">
         <v>208</v>
       </c>
       <c r="Q23" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V23" s="102" t="s">
+      <c r="V23" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="W23" s="96" t="s">
+      <c r="W23" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="X23" s="104" t="s">
+      <c r="X23" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="103"/>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="91"/>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="91"/>
+      <c r="AC23" s="98"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="180"/>
-      <c r="B24" s="75" t="s">
+      <c r="A24" s="177"/>
+      <c r="B24" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="223">
+      <c r="C24" s="143">
         <v>1</v>
       </c>
-      <c r="D24" s="223">
+      <c r="D24" s="143">
         <v>2</v>
       </c>
-      <c r="E24" s="76" t="s">
+      <c r="E24" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="124"/>
-      <c r="L24" s="216"/>
+      <c r="F24" s="106"/>
+      <c r="L24" s="213"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5370,63 +5348,65 @@
       <c r="Q24" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V24" s="102" t="s">
+      <c r="V24" s="97" t="s">
         <v>248</v>
       </c>
-      <c r="W24" s="96" t="s">
+      <c r="W24" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="X24" s="104" t="s">
+      <c r="X24" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="103"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="91"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="91"/>
+      <c r="AC24" s="98"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="180"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="177"/>
+      <c r="B25" s="152" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="153">
         <v>2</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="153">
         <v>5</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="154" t="s">
         <v>206</v>
       </c>
-      <c r="F25" s="124"/>
-      <c r="L25" s="216"/>
-      <c r="M25" s="68" t="s">
+      <c r="F25" s="106" t="s">
+        <v>382</v>
+      </c>
+      <c r="L25" s="213"/>
+      <c r="M25" s="91" t="s">
         <v>361</v>
       </c>
-      <c r="N25" s="69">
+      <c r="N25" s="47">
         <v>1</v>
       </c>
-      <c r="O25" s="69">
+      <c r="O25" s="47">
         <v>2</v>
       </c>
-      <c r="P25" s="70" t="s">
+      <c r="P25" s="50" t="s">
         <v>277</v>
       </c>
       <c r="Q25" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="V25" s="102"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="103"/>
+      <c r="V25" s="97"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="91"/>
+      <c r="AA25" s="91"/>
+      <c r="AB25" s="91"/>
+      <c r="AC25" s="98"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="180"/>
+      <c r="A26" s="177"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5439,38 +5419,38 @@
       <c r="E26" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="F26" s="124" t="s">
+      <c r="F26" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="L26" s="217"/>
-      <c r="M26" s="71" t="s">
+      <c r="L26" s="214"/>
+      <c r="M26" s="144" t="s">
         <v>362</v>
       </c>
-      <c r="N26" s="72">
+      <c r="N26" s="67">
         <v>1</v>
       </c>
-      <c r="O26" s="72">
+      <c r="O26" s="67">
         <v>4</v>
       </c>
-      <c r="P26" s="73" t="s">
+      <c r="P26" s="68" t="s">
         <v>327</v>
       </c>
       <c r="Q26" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V26" s="102" t="s">
+      <c r="V26" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="103"/>
+      <c r="W26" s="91"/>
+      <c r="X26" s="91"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="91"/>
+      <c r="AA26" s="91"/>
+      <c r="AB26" s="91"/>
+      <c r="AC26" s="98"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="180"/>
+      <c r="A27" s="177"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5483,22 +5463,22 @@
       <c r="E27" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="F27" s="124" t="s">
+      <c r="F27" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="L27" s="218" t="s">
+      <c r="L27" s="215" t="s">
         <v>213</v>
       </c>
-      <c r="M27" s="81" t="s">
+      <c r="M27" s="76" t="s">
         <v>363</v>
       </c>
-      <c r="N27" s="82">
+      <c r="N27" s="77">
         <v>1</v>
       </c>
-      <c r="O27" s="82">
+      <c r="O27" s="77">
         <v>4</v>
       </c>
-      <c r="P27" s="83" t="s">
+      <c r="P27" s="78" t="s">
         <v>286</v>
       </c>
       <c r="Q27" s="41" t="s">
@@ -5507,83 +5487,85 @@
       <c r="S27" t="s">
         <v>386</v>
       </c>
-      <c r="V27" s="102" t="s">
+      <c r="V27" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="W27" s="96" t="s">
+      <c r="W27" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="X27" s="96" t="s">
+      <c r="X27" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="96"/>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="103"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="91"/>
+      <c r="AA27" s="91"/>
+      <c r="AB27" s="91"/>
+      <c r="AC27" s="98"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="180"/>
-      <c r="B28" s="148" t="s">
+      <c r="A28" s="177"/>
+      <c r="B28" s="127" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="149">
+      <c r="C28" s="128">
         <v>1</v>
       </c>
-      <c r="D28" s="149">
+      <c r="D28" s="128">
         <v>0</v>
       </c>
-      <c r="E28" s="150" t="s">
+      <c r="E28" s="129" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="124"/>
-      <c r="L28" s="219"/>
+      <c r="F28" s="106"/>
+      <c r="L28" s="216"/>
       <c r="M28" s="26"/>
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
       <c r="P28" s="50"/>
       <c r="Q28" s="41"/>
-      <c r="V28" s="102" t="s">
+      <c r="V28" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="W28" s="96" t="s">
+      <c r="W28" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="X28" s="96" t="s">
+      <c r="X28" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="103"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="91"/>
+      <c r="AA28" s="91"/>
+      <c r="AB28" s="91"/>
+      <c r="AC28" s="98"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="185"/>
-      <c r="B29" s="129" t="s">
+      <c r="A29" s="182"/>
+      <c r="B29" s="155" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="127">
+      <c r="C29" s="142">
         <v>1</v>
       </c>
-      <c r="D29" s="127">
+      <c r="D29" s="142">
         <v>4</v>
       </c>
-      <c r="E29" s="131" t="s">
+      <c r="E29" s="156" t="s">
         <v>212</v>
       </c>
-      <c r="F29" s="124"/>
-      <c r="L29" s="220"/>
-      <c r="M29" s="110" t="s">
+      <c r="F29" s="106" t="s">
+        <v>382</v>
+      </c>
+      <c r="L29" s="217"/>
+      <c r="M29" s="145" t="s">
         <v>364</v>
       </c>
-      <c r="N29" s="111">
+      <c r="N29" s="136">
         <v>1</v>
       </c>
-      <c r="O29" s="111">
+      <c r="O29" s="136">
         <v>4</v>
       </c>
-      <c r="P29" s="112" t="s">
+      <c r="P29" s="137" t="s">
         <v>219</v>
       </c>
       <c r="Q29" s="41" t="s">
@@ -5592,17 +5574,17 @@
       <c r="S29" t="s">
         <v>387</v>
       </c>
-      <c r="V29" s="102"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
-      <c r="AC29" s="103"/>
+      <c r="V29" s="97"/>
+      <c r="W29" s="91"/>
+      <c r="X29" s="91"/>
+      <c r="Y29" s="91"/>
+      <c r="Z29" s="91"/>
+      <c r="AA29" s="91"/>
+      <c r="AB29" s="91"/>
+      <c r="AC29" s="98"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="180" t="s">
+      <c r="A30" s="177" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5617,7 +5599,7 @@
       <c r="E30" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="124"/>
+      <c r="F30" s="106"/>
       <c r="K30" s="31"/>
       <c r="L30" s="33"/>
       <c r="M30" s="26"/>
@@ -5628,19 +5610,19 @@
       <c r="S30" t="s">
         <v>388</v>
       </c>
-      <c r="V30" s="102" t="s">
+      <c r="V30" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="103"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="91"/>
+      <c r="AB30" s="91"/>
+      <c r="AC30" s="98"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="180"/>
+      <c r="A31" s="177"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5653,7 +5635,7 @@
       <c r="E31" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="F31" s="124"/>
+      <c r="F31" s="106"/>
       <c r="K31" s="31"/>
       <c r="L31" s="33"/>
       <c r="M31" s="26"/>
@@ -5661,23 +5643,23 @@
       <c r="O31" s="46"/>
       <c r="P31" s="51"/>
       <c r="Q31" s="41"/>
-      <c r="V31" s="102" t="s">
+      <c r="V31" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="W31" s="96" t="s">
+      <c r="W31" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="X31" s="96" t="s">
+      <c r="X31" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="103"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="91"/>
+      <c r="AC31" s="98"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="180"/>
+      <c r="A32" s="177"/>
       <c r="B32" s="38" t="s">
         <v>364</v>
       </c>
@@ -5698,38 +5680,38 @@
       <c r="O32" s="47"/>
       <c r="P32" s="51"/>
       <c r="Q32" s="41"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="152" t="s">
+      <c r="U32" s="85"/>
+      <c r="V32" s="131" t="s">
         <v>278</v>
       </c>
-      <c r="W32" s="153" t="s">
+      <c r="W32" s="132" t="s">
         <v>335</v>
       </c>
-      <c r="X32" s="154" t="s">
+      <c r="X32" s="133" t="s">
         <v>336</v>
       </c>
-      <c r="Y32" s="153"/>
-      <c r="Z32" s="153"/>
-      <c r="AA32" s="153"/>
-      <c r="AB32" s="153"/>
-      <c r="AC32" s="155"/>
-      <c r="AD32" s="90"/>
+      <c r="Y32" s="132"/>
+      <c r="Z32" s="132"/>
+      <c r="AA32" s="132"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="134"/>
+      <c r="AD32" s="85"/>
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="159"/>
-      <c r="B33" s="160" t="s">
+      <c r="A33" s="138"/>
+      <c r="B33" s="139" t="s">
         <v>391</v>
       </c>
-      <c r="C33" s="161">
+      <c r="C33" s="140">
         <v>1</v>
       </c>
-      <c r="D33" s="161">
+      <c r="D33" s="140">
         <v>0</v>
       </c>
-      <c r="E33" s="162" t="s">
+      <c r="E33" s="141" t="s">
         <v>286</v>
       </c>
-      <c r="F33" s="124"/>
+      <c r="F33" s="106"/>
       <c r="K33" s="31"/>
       <c r="L33" s="33"/>
       <c r="M33" s="38"/>
@@ -5737,16 +5719,16 @@
       <c r="O33" s="47"/>
       <c r="P33" s="51"/>
       <c r="Q33" s="41"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="137"/>
-      <c r="W33" s="137"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="137"/>
-      <c r="Z33" s="137"/>
-      <c r="AA33" s="137"/>
-      <c r="AB33" s="137"/>
-      <c r="AC33" s="137"/>
-      <c r="AD33" s="90"/>
+      <c r="U33" s="85"/>
+      <c r="V33" s="116"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="84"/>
+      <c r="Y33" s="116"/>
+      <c r="Z33" s="116"/>
+      <c r="AA33" s="116"/>
+      <c r="AB33" s="116"/>
+      <c r="AC33" s="116"/>
+      <c r="AD33" s="85"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
@@ -5762,48 +5744,48 @@
       <c r="O34" s="47"/>
       <c r="P34" s="51"/>
       <c r="Q34" s="39"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="90"/>
-      <c r="W34" s="90"/>
-      <c r="X34" s="90"/>
-      <c r="Y34" s="90"/>
-      <c r="Z34" s="90"/>
-      <c r="AA34" s="90"/>
-      <c r="AB34" s="90"/>
-      <c r="AC34" s="137"/>
-      <c r="AD34" s="90"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="85"/>
+      <c r="AB34" s="85"/>
+      <c r="AC34" s="116"/>
+      <c r="AD34" s="85"/>
     </row>
     <row r="35" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="168" t="s">
+      <c r="B35" s="165" t="s">
         <v>295</v>
       </c>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="169"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="132"/>
-      <c r="L35" s="212" t="s">
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="111"/>
+      <c r="L35" s="209" t="s">
         <v>338</v>
       </c>
-      <c r="M35" s="213"/>
-      <c r="N35" s="213"/>
-      <c r="O35" s="213"/>
-      <c r="P35" s="213"/>
-      <c r="Q35" s="213"/>
-      <c r="R35" s="213"/>
-      <c r="S35" s="214"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="90"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="90"/>
-      <c r="Z35" s="90"/>
-      <c r="AA35" s="90"/>
-      <c r="AB35" s="90"/>
-      <c r="AC35" s="90"/>
+      <c r="M35" s="210"/>
+      <c r="N35" s="210"/>
+      <c r="O35" s="210"/>
+      <c r="P35" s="210"/>
+      <c r="Q35" s="210"/>
+      <c r="R35" s="210"/>
+      <c r="S35" s="211"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="85"/>
+      <c r="AB35" s="85"/>
+      <c r="AC35" s="85"/>
       <c r="AD35" s="26"/>
     </row>
     <row r="36" spans="1:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5829,16 +5811,16 @@
       <c r="R36" s="64"/>
       <c r="S36" s="65"/>
       <c r="T36" s="57"/>
-      <c r="U36" s="90"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="90"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="90"/>
-      <c r="Z36" s="90"/>
-      <c r="AA36" s="90"/>
-      <c r="AB36" s="90"/>
-      <c r="AC36" s="90"/>
-      <c r="AD36" s="136"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="85"/>
+      <c r="Y36" s="85"/>
+      <c r="Z36" s="85"/>
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="85"/>
+      <c r="AC36" s="85"/>
+      <c r="AD36" s="115"/>
     </row>
     <row r="37" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="30" t="s">
@@ -5856,27 +5838,27 @@
       <c r="H37" s="31"/>
       <c r="I37" s="28"/>
       <c r="J37" s="31"/>
-      <c r="L37" s="102" t="s">
+      <c r="L37" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="M37" s="96" t="s">
+      <c r="M37" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="N37" s="96" t="s">
+      <c r="N37" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="103"/>
-      <c r="T37" s="101"/>
-      <c r="U37" s="90"/>
-      <c r="AC37" s="90"/>
-      <c r="AD37" s="101"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="91"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="91"/>
+      <c r="S37" s="98"/>
+      <c r="T37" s="96"/>
+      <c r="U37" s="85"/>
+      <c r="AC37" s="85"/>
+      <c r="AD37" s="96"/>
     </row>
     <row r="38" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="79" t="s">
         <v>223</v>
       </c>
       <c r="C38" s="26" t="s">
@@ -5891,26 +5873,26 @@
       <c r="H38" s="26"/>
       <c r="I38" s="44"/>
       <c r="J38" s="26"/>
-      <c r="L38" s="102" t="s">
+      <c r="L38" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="M38" s="96" t="s">
+      <c r="M38" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="N38" s="104" t="s">
+      <c r="N38" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="O38" s="96"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="96"/>
-      <c r="S38" s="103"/>
-      <c r="T38" s="101"/>
-      <c r="U38" s="90"/>
-      <c r="AD38" s="101"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="91"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="91"/>
+      <c r="S38" s="98"/>
+      <c r="T38" s="96"/>
+      <c r="U38" s="85"/>
+      <c r="AD38" s="96"/>
     </row>
     <row r="39" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="79" t="s">
         <v>226</v>
       </c>
       <c r="C39" s="26" t="s">
@@ -5925,26 +5907,26 @@
       <c r="H39" s="26"/>
       <c r="I39" s="44"/>
       <c r="J39" s="26"/>
-      <c r="L39" s="102" t="s">
+      <c r="L39" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="M39" s="96" t="s">
+      <c r="M39" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="N39" s="104" t="s">
+      <c r="N39" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="103"/>
-      <c r="T39" s="101"/>
-      <c r="U39" s="90"/>
-      <c r="AD39" s="101"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="91"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="91"/>
+      <c r="S39" s="98"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="85"/>
+      <c r="AD39" s="96"/>
     </row>
     <row r="40" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="79" t="s">
         <v>227</v>
       </c>
       <c r="C40" s="26" t="s">
@@ -5959,27 +5941,27 @@
       <c r="H40" s="26"/>
       <c r="I40" s="44"/>
       <c r="J40" s="26"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="102" t="s">
+      <c r="K40" s="85"/>
+      <c r="L40" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="M40" s="96" t="s">
+      <c r="M40" s="91" t="s">
         <v>297</v>
       </c>
-      <c r="N40" s="104" t="s">
+      <c r="N40" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="O40" s="96"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="96"/>
-      <c r="S40" s="103"/>
-      <c r="T40" s="101"/>
-      <c r="U40" s="90"/>
-      <c r="AD40" s="101"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="91"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="91"/>
+      <c r="S40" s="98"/>
+      <c r="T40" s="96"/>
+      <c r="U40" s="85"/>
+      <c r="AD40" s="96"/>
     </row>
     <row r="41" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="79" t="s">
         <v>230</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -5994,27 +5976,27 @@
       <c r="H41" s="26"/>
       <c r="I41" s="44"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="102" t="s">
+      <c r="K41" s="85"/>
+      <c r="L41" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="M41" s="96" t="s">
+      <c r="M41" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="N41" s="104" t="s">
+      <c r="N41" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="103"/>
-      <c r="T41" s="101"/>
-      <c r="U41" s="90"/>
-      <c r="AD41" s="101"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="91"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="91"/>
+      <c r="S41" s="98"/>
+      <c r="T41" s="96"/>
+      <c r="U41" s="85"/>
+      <c r="AD41" s="96"/>
     </row>
     <row r="42" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="79" t="s">
         <v>179</v>
       </c>
       <c r="C42" s="26" t="s">
@@ -6029,27 +6011,27 @@
       <c r="H42" s="26"/>
       <c r="I42" s="44"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="102" t="s">
+      <c r="K42" s="85"/>
+      <c r="L42" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="M42" s="96" t="s">
+      <c r="M42" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="N42" s="104" t="s">
+      <c r="N42" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
-      <c r="S42" s="103"/>
-      <c r="T42" s="101"/>
-      <c r="U42" s="90"/>
-      <c r="AD42" s="101"/>
+      <c r="O42" s="91"/>
+      <c r="P42" s="91"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="91"/>
+      <c r="S42" s="98"/>
+      <c r="T42" s="96"/>
+      <c r="U42" s="85"/>
+      <c r="AD42" s="96"/>
     </row>
     <row r="43" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="79" t="s">
         <v>232</v>
       </c>
       <c r="C43" s="26" t="s">
@@ -6064,27 +6046,27 @@
       <c r="H43" s="26"/>
       <c r="I43" s="44"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="102" t="s">
+      <c r="K43" s="85"/>
+      <c r="L43" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="M43" s="96" t="s">
+      <c r="M43" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="N43" s="104" t="s">
+      <c r="N43" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="103"/>
+      <c r="O43" s="91"/>
+      <c r="P43" s="91"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="91"/>
+      <c r="S43" s="98"/>
       <c r="T43" s="57"/>
-      <c r="U43" s="90"/>
-      <c r="AD43" s="101"/>
+      <c r="U43" s="85"/>
+      <c r="AD43" s="96"/>
     </row>
     <row r="44" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="79" t="s">
         <v>234</v>
       </c>
       <c r="C44" s="26" t="s">
@@ -6099,27 +6081,27 @@
       <c r="H44" s="26"/>
       <c r="I44" s="44"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="102" t="s">
+      <c r="K44" s="85"/>
+      <c r="L44" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="M44" s="96" t="s">
+      <c r="M44" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="N44" s="104" t="s">
+      <c r="N44" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
-      <c r="S44" s="103"/>
+      <c r="O44" s="91"/>
+      <c r="P44" s="91"/>
+      <c r="Q44" s="91"/>
+      <c r="R44" s="91"/>
+      <c r="S44" s="98"/>
       <c r="T44" s="57"/>
-      <c r="U44" s="90"/>
-      <c r="AD44" s="101"/>
+      <c r="U44" s="85"/>
+      <c r="AD44" s="96"/>
     </row>
     <row r="45" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="79" t="s">
         <v>235</v>
       </c>
       <c r="C45" s="26" t="s">
@@ -6134,27 +6116,27 @@
       <c r="H45" s="26"/>
       <c r="I45" s="44"/>
       <c r="J45" s="26"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="102" t="s">
+      <c r="K45" s="85"/>
+      <c r="L45" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="M45" s="96" t="s">
+      <c r="M45" s="91" t="s">
         <v>297</v>
       </c>
-      <c r="N45" s="104" t="s">
+      <c r="N45" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="O45" s="96"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="103"/>
+      <c r="O45" s="91"/>
+      <c r="P45" s="91"/>
+      <c r="Q45" s="91"/>
+      <c r="R45" s="91"/>
+      <c r="S45" s="98"/>
       <c r="T45" s="57"/>
-      <c r="U45" s="90"/>
-      <c r="AD45" s="101"/>
+      <c r="U45" s="85"/>
+      <c r="AD45" s="96"/>
     </row>
     <row r="46" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="79" t="s">
         <v>174</v>
       </c>
       <c r="C46" s="26" t="s">
@@ -6169,27 +6151,27 @@
       <c r="H46" s="26"/>
       <c r="I46" s="44"/>
       <c r="J46" s="26"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="102" t="s">
+      <c r="K46" s="85"/>
+      <c r="L46" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="M46" s="96" t="s">
+      <c r="M46" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="N46" s="104" t="s">
+      <c r="N46" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="96"/>
-      <c r="S46" s="103"/>
+      <c r="O46" s="91"/>
+      <c r="P46" s="91"/>
+      <c r="Q46" s="91"/>
+      <c r="R46" s="91"/>
+      <c r="S46" s="98"/>
       <c r="T46" s="57"/>
-      <c r="U46" s="90"/>
-      <c r="AD46" s="101"/>
+      <c r="U46" s="85"/>
+      <c r="AD46" s="96"/>
     </row>
     <row r="47" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="79" t="s">
         <v>237</v>
       </c>
       <c r="C47" s="26" t="s">
@@ -6204,27 +6186,27 @@
       <c r="H47" s="26"/>
       <c r="I47" s="44"/>
       <c r="J47" s="26"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="102" t="s">
+      <c r="K47" s="85"/>
+      <c r="L47" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="M47" s="96" t="s">
+      <c r="M47" s="91" t="s">
         <v>299</v>
       </c>
-      <c r="N47" s="104" t="s">
+      <c r="N47" s="99" t="s">
         <v>225</v>
       </c>
-      <c r="O47" s="96"/>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="96"/>
-      <c r="S47" s="103"/>
+      <c r="O47" s="91"/>
+      <c r="P47" s="91"/>
+      <c r="Q47" s="91"/>
+      <c r="R47" s="91"/>
+      <c r="S47" s="98"/>
       <c r="T47" s="57"/>
-      <c r="U47" s="90"/>
-      <c r="AD47" s="101"/>
+      <c r="U47" s="85"/>
+      <c r="AD47" s="96"/>
     </row>
     <row r="48" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="79" t="s">
         <v>239</v>
       </c>
       <c r="C48" s="26" t="s">
@@ -6239,27 +6221,27 @@
       <c r="H48" s="26"/>
       <c r="I48" s="44"/>
       <c r="J48" s="26"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="102" t="s">
+      <c r="K48" s="85"/>
+      <c r="L48" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="M48" s="96" t="s">
+      <c r="M48" s="91" t="s">
         <v>300</v>
       </c>
-      <c r="N48" s="104" t="s">
+      <c r="N48" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="O48" s="96"/>
-      <c r="P48" s="96"/>
-      <c r="Q48" s="96"/>
-      <c r="R48" s="96"/>
-      <c r="S48" s="103"/>
+      <c r="O48" s="91"/>
+      <c r="P48" s="91"/>
+      <c r="Q48" s="91"/>
+      <c r="R48" s="91"/>
+      <c r="S48" s="98"/>
       <c r="T48" s="57"/>
-      <c r="U48" s="90"/>
-      <c r="AD48" s="101"/>
+      <c r="U48" s="85"/>
+      <c r="AD48" s="96"/>
     </row>
     <row r="49" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="79" t="s">
         <v>240</v>
       </c>
       <c r="C49" s="26" t="s">
@@ -6274,27 +6256,27 @@
       <c r="H49" s="26"/>
       <c r="I49" s="44"/>
       <c r="J49" s="26"/>
-      <c r="K49" s="90"/>
-      <c r="L49" s="102" t="s">
+      <c r="K49" s="85"/>
+      <c r="L49" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="M49" s="96" t="s">
+      <c r="M49" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="N49" s="104" t="s">
+      <c r="N49" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="O49" s="96"/>
-      <c r="P49" s="96"/>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="96"/>
-      <c r="S49" s="103"/>
+      <c r="O49" s="91"/>
+      <c r="P49" s="91"/>
+      <c r="Q49" s="91"/>
+      <c r="R49" s="91"/>
+      <c r="S49" s="98"/>
       <c r="T49" s="57"/>
-      <c r="U49" s="90"/>
-      <c r="AD49" s="101"/>
+      <c r="U49" s="85"/>
+      <c r="AD49" s="96"/>
     </row>
     <row r="50" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="84" t="s">
+      <c r="B50" s="79" t="s">
         <v>242</v>
       </c>
       <c r="C50" s="26" t="s">
@@ -6309,27 +6291,27 @@
       <c r="H50" s="26"/>
       <c r="I50" s="44"/>
       <c r="J50" s="26"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="102" t="s">
+      <c r="K50" s="85"/>
+      <c r="L50" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="M50" s="96" t="s">
+      <c r="M50" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="N50" s="104" t="s">
+      <c r="N50" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="O50" s="96"/>
-      <c r="P50" s="96"/>
-      <c r="Q50" s="96"/>
-      <c r="R50" s="96"/>
-      <c r="S50" s="103"/>
+      <c r="O50" s="91"/>
+      <c r="P50" s="91"/>
+      <c r="Q50" s="91"/>
+      <c r="R50" s="91"/>
+      <c r="S50" s="98"/>
       <c r="T50" s="57"/>
-      <c r="U50" s="90"/>
-      <c r="AD50" s="101"/>
+      <c r="U50" s="85"/>
+      <c r="AD50" s="96"/>
     </row>
     <row r="51" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="84" t="s">
+      <c r="B51" s="79" t="s">
         <v>243</v>
       </c>
       <c r="C51" s="26" t="s">
@@ -6344,27 +6326,27 @@
       <c r="H51" s="26"/>
       <c r="I51" s="44"/>
       <c r="J51" s="26"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="102" t="s">
+      <c r="K51" s="85"/>
+      <c r="L51" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="M51" s="96" t="s">
+      <c r="M51" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="N51" s="104" t="s">
+      <c r="N51" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="O51" s="96"/>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="96"/>
-      <c r="S51" s="103"/>
+      <c r="O51" s="91"/>
+      <c r="P51" s="91"/>
+      <c r="Q51" s="91"/>
+      <c r="R51" s="91"/>
+      <c r="S51" s="98"/>
       <c r="T51" s="57"/>
-      <c r="U51" s="90"/>
-      <c r="AD51" s="101"/>
+      <c r="U51" s="85"/>
+      <c r="AD51" s="96"/>
     </row>
     <row r="52" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="84" t="s">
+      <c r="B52" s="79" t="s">
         <v>244</v>
       </c>
       <c r="C52" s="26" t="s">
@@ -6379,27 +6361,27 @@
       <c r="H52" s="26"/>
       <c r="I52" s="44"/>
       <c r="J52" s="26"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="102" t="s">
+      <c r="K52" s="85"/>
+      <c r="L52" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="M52" s="96" t="s">
+      <c r="M52" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="N52" s="104" t="s">
+      <c r="N52" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="O52" s="96"/>
-      <c r="P52" s="96"/>
-      <c r="Q52" s="96"/>
-      <c r="R52" s="96"/>
-      <c r="S52" s="103"/>
+      <c r="O52" s="91"/>
+      <c r="P52" s="91"/>
+      <c r="Q52" s="91"/>
+      <c r="R52" s="91"/>
+      <c r="S52" s="98"/>
       <c r="T52" s="57"/>
-      <c r="U52" s="90"/>
-      <c r="AD52" s="101"/>
+      <c r="U52" s="85"/>
+      <c r="AD52" s="96"/>
     </row>
     <row r="53" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="84" t="s">
+      <c r="B53" s="79" t="s">
         <v>170</v>
       </c>
       <c r="C53" s="26" t="s">
@@ -6414,27 +6396,27 @@
       <c r="H53" s="26"/>
       <c r="I53" s="44"/>
       <c r="J53" s="26"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="102" t="s">
+      <c r="K53" s="85"/>
+      <c r="L53" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="M53" s="96" t="s">
+      <c r="M53" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="N53" s="104" t="s">
+      <c r="N53" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="O53" s="96"/>
-      <c r="P53" s="96"/>
-      <c r="Q53" s="96"/>
-      <c r="R53" s="96"/>
-      <c r="S53" s="103"/>
+      <c r="O53" s="91"/>
+      <c r="P53" s="91"/>
+      <c r="Q53" s="91"/>
+      <c r="R53" s="91"/>
+      <c r="S53" s="98"/>
       <c r="T53" s="57"/>
-      <c r="U53" s="90"/>
-      <c r="AD53" s="90"/>
+      <c r="U53" s="85"/>
+      <c r="AD53" s="85"/>
     </row>
     <row r="54" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="84"/>
+      <c r="B54" s="79"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
@@ -6443,21 +6425,21 @@
       <c r="H54" s="26"/>
       <c r="I54" s="44"/>
       <c r="J54" s="26"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="102"/>
-      <c r="M54" s="96"/>
-      <c r="N54" s="96"/>
-      <c r="O54" s="96"/>
-      <c r="P54" s="96"/>
-      <c r="Q54" s="96"/>
-      <c r="R54" s="96"/>
-      <c r="S54" s="103"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="97"/>
+      <c r="M54" s="91"/>
+      <c r="N54" s="91"/>
+      <c r="O54" s="91"/>
+      <c r="P54" s="91"/>
+      <c r="Q54" s="91"/>
+      <c r="R54" s="91"/>
+      <c r="S54" s="98"/>
       <c r="T54" s="57"/>
-      <c r="U54" s="90"/>
-      <c r="AD54" s="90"/>
+      <c r="U54" s="85"/>
+      <c r="AD54" s="85"/>
     </row>
     <row r="55" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="84" t="s">
+      <c r="B55" s="79" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="26"/>
@@ -6468,23 +6450,23 @@
       <c r="H55" s="26"/>
       <c r="I55" s="44"/>
       <c r="J55" s="26"/>
-      <c r="K55" s="90"/>
-      <c r="L55" s="105" t="s">
+      <c r="K55" s="85"/>
+      <c r="L55" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="M55" s="96"/>
-      <c r="N55" s="96"/>
-      <c r="O55" s="96"/>
-      <c r="P55" s="96"/>
-      <c r="Q55" s="96"/>
-      <c r="R55" s="96"/>
-      <c r="S55" s="103"/>
+      <c r="M55" s="91"/>
+      <c r="N55" s="91"/>
+      <c r="O55" s="91"/>
+      <c r="P55" s="91"/>
+      <c r="Q55" s="91"/>
+      <c r="R55" s="91"/>
+      <c r="S55" s="98"/>
       <c r="T55" s="57"/>
-      <c r="U55" s="90"/>
-      <c r="AD55" s="90"/>
+      <c r="U55" s="85"/>
+      <c r="AD55" s="85"/>
     </row>
     <row r="56" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="84" t="s">
+      <c r="B56" s="79" t="s">
         <v>220</v>
       </c>
       <c r="C56" s="26" t="s">
@@ -6499,25 +6481,25 @@
       <c r="H56" s="26"/>
       <c r="I56" s="44"/>
       <c r="J56" s="26"/>
-      <c r="K56" s="90"/>
-      <c r="L56" s="102" t="s">
+      <c r="K56" s="85"/>
+      <c r="L56" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="M56" s="96" t="s">
+      <c r="M56" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="N56" s="96" t="s">
+      <c r="N56" s="91" t="s">
         <v>302</v>
       </c>
-      <c r="O56" s="96"/>
-      <c r="P56" s="96"/>
-      <c r="Q56" s="96"/>
-      <c r="R56" s="96"/>
-      <c r="S56" s="103"/>
+      <c r="O56" s="91"/>
+      <c r="P56" s="91"/>
+      <c r="Q56" s="91"/>
+      <c r="R56" s="91"/>
+      <c r="S56" s="98"/>
       <c r="T56" s="57"/>
     </row>
     <row r="57" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="84" t="s">
+      <c r="B57" s="79" t="s">
         <v>245</v>
       </c>
       <c r="C57" s="26" t="s">
@@ -6532,25 +6514,25 @@
       <c r="H57" s="26"/>
       <c r="I57" s="44"/>
       <c r="J57" s="26"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="102" t="s">
+      <c r="K57" s="85"/>
+      <c r="L57" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="M57" s="96" t="s">
+      <c r="M57" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="N57" s="104" t="s">
+      <c r="N57" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O57" s="96"/>
-      <c r="P57" s="96"/>
-      <c r="Q57" s="96"/>
-      <c r="R57" s="96"/>
-      <c r="S57" s="103"/>
+      <c r="O57" s="91"/>
+      <c r="P57" s="91"/>
+      <c r="Q57" s="91"/>
+      <c r="R57" s="91"/>
+      <c r="S57" s="98"/>
       <c r="T57" s="57"/>
     </row>
     <row r="58" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="84" t="s">
+      <c r="B58" s="79" t="s">
         <v>248</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -6565,25 +6547,25 @@
       <c r="H58" s="26"/>
       <c r="I58" s="44"/>
       <c r="J58" s="26"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="102" t="s">
+      <c r="K58" s="85"/>
+      <c r="L58" s="97" t="s">
         <v>250</v>
       </c>
-      <c r="M58" s="96" t="s">
+      <c r="M58" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="N58" s="104" t="s">
+      <c r="N58" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O58" s="96"/>
-      <c r="P58" s="96"/>
-      <c r="Q58" s="96"/>
-      <c r="R58" s="96"/>
-      <c r="S58" s="103"/>
+      <c r="O58" s="91"/>
+      <c r="P58" s="91"/>
+      <c r="Q58" s="91"/>
+      <c r="R58" s="91"/>
+      <c r="S58" s="98"/>
       <c r="T58" s="57"/>
     </row>
     <row r="59" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="84" t="s">
+      <c r="B59" s="79" t="s">
         <v>250</v>
       </c>
       <c r="C59" s="26" t="s">
@@ -6598,25 +6580,25 @@
       <c r="H59" s="26"/>
       <c r="I59" s="44"/>
       <c r="J59" s="26"/>
-      <c r="K59" s="90"/>
-      <c r="L59" s="102" t="s">
+      <c r="K59" s="85"/>
+      <c r="L59" s="97" t="s">
         <v>251</v>
       </c>
-      <c r="M59" s="96" t="s">
+      <c r="M59" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="N59" s="104" t="s">
+      <c r="N59" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O59" s="96"/>
-      <c r="P59" s="96"/>
-      <c r="Q59" s="96"/>
-      <c r="R59" s="96"/>
-      <c r="S59" s="103"/>
+      <c r="O59" s="91"/>
+      <c r="P59" s="91"/>
+      <c r="Q59" s="91"/>
+      <c r="R59" s="91"/>
+      <c r="S59" s="98"/>
       <c r="T59" s="57"/>
     </row>
     <row r="60" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="84" t="s">
+      <c r="B60" s="79" t="s">
         <v>251</v>
       </c>
       <c r="C60" s="26" t="s">
@@ -6631,25 +6613,25 @@
       <c r="H60" s="26"/>
       <c r="I60" s="44"/>
       <c r="J60" s="26"/>
-      <c r="K60" s="90"/>
-      <c r="L60" s="102" t="s">
+      <c r="K60" s="85"/>
+      <c r="L60" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="M60" s="96" t="s">
+      <c r="M60" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="N60" s="104" t="s">
+      <c r="N60" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O60" s="96"/>
-      <c r="P60" s="96"/>
-      <c r="Q60" s="96"/>
-      <c r="R60" s="96"/>
-      <c r="S60" s="103"/>
+      <c r="O60" s="91"/>
+      <c r="P60" s="91"/>
+      <c r="Q60" s="91"/>
+      <c r="R60" s="91"/>
+      <c r="S60" s="98"/>
       <c r="T60" s="57"/>
     </row>
     <row r="61" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="84" t="s">
+      <c r="B61" s="79" t="s">
         <v>252</v>
       </c>
       <c r="C61" s="26" t="s">
@@ -6664,25 +6646,25 @@
       <c r="H61" s="26"/>
       <c r="I61" s="44"/>
       <c r="J61" s="26"/>
-      <c r="K61" s="90"/>
-      <c r="L61" s="102" t="s">
+      <c r="K61" s="85"/>
+      <c r="L61" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="M61" s="96" t="s">
+      <c r="M61" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="N61" s="104" t="s">
+      <c r="N61" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O61" s="96"/>
-      <c r="P61" s="96"/>
-      <c r="Q61" s="96"/>
-      <c r="R61" s="96"/>
-      <c r="S61" s="103"/>
+      <c r="O61" s="91"/>
+      <c r="P61" s="91"/>
+      <c r="Q61" s="91"/>
+      <c r="R61" s="91"/>
+      <c r="S61" s="98"/>
       <c r="T61" s="57"/>
     </row>
     <row r="62" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="84" t="s">
+      <c r="B62" s="79" t="s">
         <v>253</v>
       </c>
       <c r="C62" s="26" t="s">
@@ -6697,25 +6679,25 @@
       <c r="H62" s="26"/>
       <c r="I62" s="44"/>
       <c r="J62" s="26"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="102" t="s">
+      <c r="K62" s="85"/>
+      <c r="L62" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="M62" s="96" t="s">
+      <c r="M62" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="N62" s="104" t="s">
+      <c r="N62" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O62" s="96"/>
-      <c r="P62" s="96"/>
-      <c r="Q62" s="96"/>
-      <c r="R62" s="96"/>
-      <c r="S62" s="103"/>
-      <c r="T62" s="101"/>
+      <c r="O62" s="91"/>
+      <c r="P62" s="91"/>
+      <c r="Q62" s="91"/>
+      <c r="R62" s="91"/>
+      <c r="S62" s="98"/>
+      <c r="T62" s="96"/>
     </row>
     <row r="63" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="84" t="s">
+      <c r="B63" s="79" t="s">
         <v>254</v>
       </c>
       <c r="C63" s="26" t="s">
@@ -6730,25 +6712,25 @@
       <c r="H63" s="26"/>
       <c r="I63" s="44"/>
       <c r="J63" s="26"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="102" t="s">
+      <c r="K63" s="85"/>
+      <c r="L63" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="M63" s="96" t="s">
+      <c r="M63" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="N63" s="104" t="s">
+      <c r="N63" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O63" s="96"/>
-      <c r="P63" s="96"/>
-      <c r="Q63" s="96"/>
-      <c r="R63" s="96"/>
-      <c r="S63" s="103"/>
-      <c r="T63" s="101"/>
+      <c r="O63" s="91"/>
+      <c r="P63" s="91"/>
+      <c r="Q63" s="91"/>
+      <c r="R63" s="91"/>
+      <c r="S63" s="98"/>
+      <c r="T63" s="96"/>
     </row>
     <row r="64" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="84" t="s">
+      <c r="B64" s="79" t="s">
         <v>187</v>
       </c>
       <c r="C64" s="26" t="s">
@@ -6763,22 +6745,22 @@
       <c r="H64" s="26"/>
       <c r="I64" s="44"/>
       <c r="J64" s="26"/>
-      <c r="K64" s="90"/>
-      <c r="L64" s="102" t="s">
+      <c r="K64" s="85"/>
+      <c r="L64" s="97" t="s">
         <v>303</v>
       </c>
-      <c r="M64" s="96" t="s">
+      <c r="M64" s="91" t="s">
         <v>304</v>
       </c>
-      <c r="N64" s="104" t="s">
+      <c r="N64" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O64" s="96"/>
-      <c r="P64" s="96"/>
-      <c r="Q64" s="96"/>
-      <c r="R64" s="96"/>
-      <c r="S64" s="103"/>
-      <c r="T64" s="101"/>
+      <c r="O64" s="91"/>
+      <c r="P64" s="91"/>
+      <c r="Q64" s="91"/>
+      <c r="R64" s="91"/>
+      <c r="S64" s="98"/>
+      <c r="T64" s="96"/>
     </row>
     <row r="65" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="30"/>
@@ -6790,22 +6772,22 @@
       <c r="H65" s="31"/>
       <c r="I65" s="28"/>
       <c r="J65" s="31"/>
-      <c r="K65" s="90"/>
-      <c r="L65" s="102" t="s">
+      <c r="K65" s="85"/>
+      <c r="L65" s="97" t="s">
         <v>305</v>
       </c>
-      <c r="M65" s="96" t="s">
+      <c r="M65" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="N65" s="104" t="s">
+      <c r="N65" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O65" s="96"/>
-      <c r="P65" s="96"/>
-      <c r="Q65" s="96"/>
-      <c r="R65" s="96"/>
-      <c r="S65" s="103"/>
-      <c r="T65" s="101"/>
+      <c r="O65" s="91"/>
+      <c r="P65" s="91"/>
+      <c r="Q65" s="91"/>
+      <c r="R65" s="91"/>
+      <c r="S65" s="98"/>
+      <c r="T65" s="96"/>
     </row>
     <row r="66" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="30" t="s">
@@ -6819,22 +6801,22 @@
       <c r="H66" s="31"/>
       <c r="I66" s="28"/>
       <c r="J66" s="31"/>
-      <c r="K66" s="90"/>
-      <c r="L66" s="102" t="s">
+      <c r="K66" s="85"/>
+      <c r="L66" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="M66" s="96" t="s">
+      <c r="M66" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="N66" s="104" t="s">
+      <c r="N66" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O66" s="96"/>
-      <c r="P66" s="96"/>
-      <c r="Q66" s="96"/>
-      <c r="R66" s="96"/>
-      <c r="S66" s="103"/>
-      <c r="T66" s="101"/>
+      <c r="O66" s="91"/>
+      <c r="P66" s="91"/>
+      <c r="Q66" s="91"/>
+      <c r="R66" s="91"/>
+      <c r="S66" s="98"/>
+      <c r="T66" s="96"/>
     </row>
     <row r="67" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="30" t="s">
@@ -6852,22 +6834,22 @@
       <c r="H67" s="31"/>
       <c r="I67" s="28"/>
       <c r="J67" s="31"/>
-      <c r="K67" s="90"/>
-      <c r="L67" s="102" t="s">
+      <c r="K67" s="85"/>
+      <c r="L67" s="97" t="s">
         <v>307</v>
       </c>
-      <c r="M67" s="96" t="s">
+      <c r="M67" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="N67" s="104" t="s">
+      <c r="N67" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O67" s="96"/>
-      <c r="P67" s="96"/>
-      <c r="Q67" s="96"/>
-      <c r="R67" s="96"/>
-      <c r="S67" s="103"/>
-      <c r="T67" s="101"/>
+      <c r="O67" s="91"/>
+      <c r="P67" s="91"/>
+      <c r="Q67" s="91"/>
+      <c r="R67" s="91"/>
+      <c r="S67" s="98"/>
+      <c r="T67" s="96"/>
     </row>
     <row r="68" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="30" t="s">
@@ -6885,22 +6867,22 @@
       <c r="H68" s="31"/>
       <c r="I68" s="28"/>
       <c r="J68" s="31"/>
-      <c r="K68" s="90"/>
-      <c r="L68" s="102" t="s">
+      <c r="K68" s="85"/>
+      <c r="L68" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="M68" s="96" t="s">
+      <c r="M68" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="N68" s="104" t="s">
+      <c r="N68" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O68" s="96"/>
-      <c r="P68" s="96"/>
-      <c r="Q68" s="96"/>
-      <c r="R68" s="96"/>
-      <c r="S68" s="103"/>
-      <c r="T68" s="101"/>
+      <c r="O68" s="91"/>
+      <c r="P68" s="91"/>
+      <c r="Q68" s="91"/>
+      <c r="R68" s="91"/>
+      <c r="S68" s="98"/>
+      <c r="T68" s="96"/>
     </row>
     <row r="69" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="30" t="s">
@@ -6918,22 +6900,22 @@
       <c r="H69" s="31"/>
       <c r="I69" s="28"/>
       <c r="J69" s="31"/>
-      <c r="K69" s="90"/>
-      <c r="L69" s="102" t="s">
+      <c r="K69" s="85"/>
+      <c r="L69" s="97" t="s">
         <v>309</v>
       </c>
-      <c r="M69" s="96" t="s">
+      <c r="M69" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="N69" s="104" t="s">
+      <c r="N69" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O69" s="96"/>
-      <c r="P69" s="96"/>
-      <c r="Q69" s="96"/>
-      <c r="R69" s="96"/>
-      <c r="S69" s="103"/>
-      <c r="T69" s="101"/>
+      <c r="O69" s="91"/>
+      <c r="P69" s="91"/>
+      <c r="Q69" s="91"/>
+      <c r="R69" s="91"/>
+      <c r="S69" s="98"/>
+      <c r="T69" s="96"/>
     </row>
     <row r="70" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="30" t="s">
@@ -6951,22 +6933,22 @@
       <c r="H70" s="31"/>
       <c r="I70" s="28"/>
       <c r="J70" s="31"/>
-      <c r="K70" s="90"/>
-      <c r="L70" s="102" t="s">
+      <c r="K70" s="85"/>
+      <c r="L70" s="97" t="s">
         <v>310</v>
       </c>
-      <c r="M70" s="96" t="s">
+      <c r="M70" s="91" t="s">
         <v>311</v>
       </c>
-      <c r="N70" s="104" t="s">
+      <c r="N70" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O70" s="96"/>
-      <c r="P70" s="96"/>
-      <c r="Q70" s="96"/>
-      <c r="R70" s="96"/>
-      <c r="S70" s="103"/>
-      <c r="T70" s="101"/>
+      <c r="O70" s="91"/>
+      <c r="P70" s="91"/>
+      <c r="Q70" s="91"/>
+      <c r="R70" s="91"/>
+      <c r="S70" s="98"/>
+      <c r="T70" s="96"/>
     </row>
     <row r="71" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="30" t="s">
@@ -6984,22 +6966,22 @@
       <c r="H71" s="31"/>
       <c r="I71" s="28"/>
       <c r="J71" s="31"/>
-      <c r="K71" s="90"/>
-      <c r="L71" s="102" t="s">
+      <c r="K71" s="85"/>
+      <c r="L71" s="97" t="s">
         <v>312</v>
       </c>
-      <c r="M71" s="96" t="s">
+      <c r="M71" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="N71" s="104" t="s">
+      <c r="N71" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O71" s="96"/>
-      <c r="P71" s="96"/>
-      <c r="Q71" s="96"/>
-      <c r="R71" s="96"/>
-      <c r="S71" s="103"/>
-      <c r="T71" s="101"/>
+      <c r="O71" s="91"/>
+      <c r="P71" s="91"/>
+      <c r="Q71" s="91"/>
+      <c r="R71" s="91"/>
+      <c r="S71" s="98"/>
+      <c r="T71" s="96"/>
     </row>
     <row r="72" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="30" t="s">
@@ -7017,22 +6999,22 @@
       <c r="H72" s="31"/>
       <c r="I72" s="28"/>
       <c r="J72" s="31"/>
-      <c r="K72" s="90"/>
-      <c r="L72" s="102" t="s">
+      <c r="K72" s="85"/>
+      <c r="L72" s="97" t="s">
         <v>313</v>
       </c>
-      <c r="M72" s="96" t="s">
+      <c r="M72" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="N72" s="104" t="s">
+      <c r="N72" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O72" s="96"/>
-      <c r="P72" s="96"/>
-      <c r="Q72" s="96"/>
-      <c r="R72" s="96"/>
-      <c r="S72" s="103"/>
-      <c r="T72" s="101"/>
+      <c r="O72" s="91"/>
+      <c r="P72" s="91"/>
+      <c r="Q72" s="91"/>
+      <c r="R72" s="91"/>
+      <c r="S72" s="98"/>
+      <c r="T72" s="96"/>
     </row>
     <row r="73" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="30"/>
@@ -7044,22 +7026,22 @@
       <c r="H73" s="31"/>
       <c r="I73" s="28"/>
       <c r="J73" s="31"/>
-      <c r="K73" s="90"/>
-      <c r="L73" s="102" t="s">
+      <c r="K73" s="85"/>
+      <c r="L73" s="97" t="s">
         <v>314</v>
       </c>
-      <c r="M73" s="96" t="s">
+      <c r="M73" s="91" t="s">
         <v>315</v>
       </c>
-      <c r="N73" s="104" t="s">
+      <c r="N73" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O73" s="96"/>
-      <c r="P73" s="96"/>
-      <c r="Q73" s="96"/>
-      <c r="R73" s="96"/>
-      <c r="S73" s="103"/>
-      <c r="T73" s="101"/>
+      <c r="O73" s="91"/>
+      <c r="P73" s="91"/>
+      <c r="Q73" s="91"/>
+      <c r="R73" s="91"/>
+      <c r="S73" s="98"/>
+      <c r="T73" s="96"/>
     </row>
     <row r="74" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="30" t="s">
@@ -7073,22 +7055,22 @@
       <c r="H74" s="31"/>
       <c r="I74" s="28"/>
       <c r="J74" s="31"/>
-      <c r="K74" s="90"/>
-      <c r="L74" s="102" t="s">
+      <c r="K74" s="85"/>
+      <c r="L74" s="97" t="s">
         <v>316</v>
       </c>
-      <c r="M74" s="96" t="s">
+      <c r="M74" s="91" t="s">
         <v>315</v>
       </c>
-      <c r="N74" s="104" t="s">
+      <c r="N74" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O74" s="96"/>
-      <c r="P74" s="96"/>
-      <c r="Q74" s="96"/>
-      <c r="R74" s="96"/>
-      <c r="S74" s="103"/>
-      <c r="T74" s="101"/>
+      <c r="O74" s="91"/>
+      <c r="P74" s="91"/>
+      <c r="Q74" s="91"/>
+      <c r="R74" s="91"/>
+      <c r="S74" s="98"/>
+      <c r="T74" s="96"/>
     </row>
     <row r="75" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="30" t="s">
@@ -7106,22 +7088,22 @@
       <c r="H75" s="31"/>
       <c r="I75" s="28"/>
       <c r="J75" s="31"/>
-      <c r="K75" s="90"/>
-      <c r="L75" s="102" t="s">
+      <c r="K75" s="85"/>
+      <c r="L75" s="97" t="s">
         <v>317</v>
       </c>
-      <c r="M75" s="96" t="s">
+      <c r="M75" s="91" t="s">
         <v>315</v>
       </c>
-      <c r="N75" s="104" t="s">
+      <c r="N75" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="O75" s="96"/>
-      <c r="P75" s="96"/>
-      <c r="Q75" s="96"/>
-      <c r="R75" s="96"/>
-      <c r="S75" s="103"/>
-      <c r="T75" s="101"/>
+      <c r="O75" s="91"/>
+      <c r="P75" s="91"/>
+      <c r="Q75" s="91"/>
+      <c r="R75" s="91"/>
+      <c r="S75" s="98"/>
+      <c r="T75" s="96"/>
     </row>
     <row r="76" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="30" t="s">
@@ -7139,78 +7121,78 @@
       <c r="H76" s="31"/>
       <c r="I76" s="28"/>
       <c r="J76" s="31"/>
-      <c r="K76" s="90"/>
-      <c r="L76" s="102"/>
-      <c r="M76" s="96"/>
-      <c r="N76" s="96"/>
-      <c r="O76" s="96"/>
-      <c r="P76" s="96"/>
-      <c r="Q76" s="96"/>
-      <c r="R76" s="96"/>
-      <c r="S76" s="103"/>
-      <c r="T76" s="101"/>
+      <c r="K76" s="85"/>
+      <c r="L76" s="97"/>
+      <c r="M76" s="91"/>
+      <c r="N76" s="91"/>
+      <c r="O76" s="91"/>
+      <c r="P76" s="91"/>
+      <c r="Q76" s="91"/>
+      <c r="R76" s="91"/>
+      <c r="S76" s="98"/>
+      <c r="T76" s="96"/>
     </row>
     <row r="77" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="146" t="s">
+      <c r="B77" s="125" t="s">
         <v>268</v>
       </c>
-      <c r="C77" s="145" t="s">
+      <c r="C77" s="124" t="s">
         <v>269</v>
       </c>
-      <c r="D77" s="145" t="s">
+      <c r="D77" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="E77" s="145"/>
-      <c r="F77" s="145"/>
-      <c r="G77" s="145"/>
-      <c r="H77" s="145"/>
-      <c r="I77" s="147"/>
+      <c r="E77" s="124"/>
+      <c r="F77" s="124"/>
+      <c r="G77" s="124"/>
+      <c r="H77" s="124"/>
+      <c r="I77" s="126"/>
       <c r="J77" s="26"/>
-      <c r="K77" s="90"/>
-      <c r="L77" s="102" t="s">
+      <c r="K77" s="85"/>
+      <c r="L77" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="M77" s="96"/>
-      <c r="N77" s="96"/>
-      <c r="O77" s="96"/>
-      <c r="P77" s="96"/>
-      <c r="Q77" s="96"/>
-      <c r="R77" s="96"/>
-      <c r="S77" s="103"/>
-      <c r="T77" s="101"/>
+      <c r="M77" s="91"/>
+      <c r="N77" s="91"/>
+      <c r="O77" s="91"/>
+      <c r="P77" s="91"/>
+      <c r="Q77" s="91"/>
+      <c r="R77" s="91"/>
+      <c r="S77" s="98"/>
+      <c r="T77" s="96"/>
     </row>
     <row r="78" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="28"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="71"/>
       <c r="J78" s="26"/>
-      <c r="K78" s="90"/>
-      <c r="L78" s="102" t="s">
+      <c r="K78" s="85"/>
+      <c r="L78" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="M78" s="96" t="s">
+      <c r="M78" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="N78" s="96" t="s">
+      <c r="N78" s="91" t="s">
         <v>302</v>
       </c>
-      <c r="O78" s="96"/>
-      <c r="P78" s="96"/>
-      <c r="Q78" s="96"/>
-      <c r="R78" s="96"/>
-      <c r="S78" s="103"/>
-      <c r="T78" s="101"/>
+      <c r="O78" s="91"/>
+      <c r="P78" s="91"/>
+      <c r="Q78" s="91"/>
+      <c r="R78" s="91"/>
+      <c r="S78" s="98"/>
+      <c r="T78" s="96"/>
     </row>
     <row r="79" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="30" t="s">
@@ -7228,22 +7210,22 @@
       <c r="H79" s="31"/>
       <c r="I79" s="28"/>
       <c r="J79" s="26"/>
-      <c r="K79" s="90"/>
-      <c r="L79" s="102" t="s">
+      <c r="K79" s="85"/>
+      <c r="L79" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="M79" s="96" t="s">
+      <c r="M79" s="91" t="s">
         <v>318</v>
       </c>
-      <c r="N79" s="104" t="s">
+      <c r="N79" s="99" t="s">
         <v>319</v>
       </c>
-      <c r="O79" s="96"/>
-      <c r="P79" s="96"/>
-      <c r="Q79" s="96"/>
-      <c r="R79" s="96"/>
-      <c r="S79" s="103"/>
-      <c r="T79" s="101"/>
+      <c r="O79" s="91"/>
+      <c r="P79" s="91"/>
+      <c r="Q79" s="91"/>
+      <c r="R79" s="91"/>
+      <c r="S79" s="98"/>
+      <c r="T79" s="96"/>
     </row>
     <row r="80" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="30" t="s">
@@ -7261,22 +7243,22 @@
       <c r="H80" s="31"/>
       <c r="I80" s="28"/>
       <c r="J80" s="26"/>
-      <c r="K80" s="90"/>
-      <c r="L80" s="102" t="s">
+      <c r="K80" s="85"/>
+      <c r="L80" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="M80" s="96" t="s">
+      <c r="M80" s="91" t="s">
         <v>320</v>
       </c>
-      <c r="N80" s="96" t="s">
+      <c r="N80" s="91" t="s">
         <v>320</v>
       </c>
-      <c r="O80" s="96"/>
-      <c r="P80" s="96"/>
-      <c r="Q80" s="96"/>
-      <c r="R80" s="96"/>
-      <c r="S80" s="103"/>
-      <c r="T80" s="101"/>
+      <c r="O80" s="91"/>
+      <c r="P80" s="91"/>
+      <c r="Q80" s="91"/>
+      <c r="R80" s="91"/>
+      <c r="S80" s="98"/>
+      <c r="T80" s="96"/>
     </row>
     <row r="81" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="30" t="s">
@@ -7294,22 +7276,22 @@
       <c r="H81" s="31"/>
       <c r="I81" s="28"/>
       <c r="J81" s="26"/>
-      <c r="K81" s="90"/>
-      <c r="L81" s="102" t="s">
+      <c r="K81" s="85"/>
+      <c r="L81" s="97" t="s">
         <v>272</v>
       </c>
-      <c r="M81" s="96" t="s">
+      <c r="M81" s="91" t="s">
         <v>320</v>
       </c>
-      <c r="N81" s="96" t="s">
+      <c r="N81" s="91" t="s">
         <v>320</v>
       </c>
-      <c r="O81" s="96"/>
-      <c r="P81" s="96"/>
-      <c r="Q81" s="96"/>
-      <c r="R81" s="96"/>
-      <c r="S81" s="103"/>
-      <c r="T81" s="101"/>
+      <c r="O81" s="91"/>
+      <c r="P81" s="91"/>
+      <c r="Q81" s="91"/>
+      <c r="R81" s="91"/>
+      <c r="S81" s="98"/>
+      <c r="T81" s="96"/>
     </row>
     <row r="82" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="30" t="s">
@@ -7327,22 +7309,22 @@
       <c r="H82" s="31"/>
       <c r="I82" s="28"/>
       <c r="J82" s="26"/>
-      <c r="K82" s="90"/>
-      <c r="L82" s="102" t="s">
+      <c r="K82" s="85"/>
+      <c r="L82" s="97" t="s">
         <v>210</v>
       </c>
-      <c r="M82" s="96" t="s">
+      <c r="M82" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="N82" s="104" t="s">
+      <c r="N82" s="99" t="s">
         <v>322</v>
       </c>
-      <c r="O82" s="96"/>
-      <c r="P82" s="96"/>
-      <c r="Q82" s="96"/>
-      <c r="R82" s="96"/>
-      <c r="S82" s="103"/>
-      <c r="T82" s="101"/>
+      <c r="O82" s="91"/>
+      <c r="P82" s="91"/>
+      <c r="Q82" s="91"/>
+      <c r="R82" s="91"/>
+      <c r="S82" s="98"/>
+      <c r="T82" s="96"/>
     </row>
     <row r="83" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="30" t="s">
@@ -7360,22 +7342,22 @@
       <c r="H83" s="31"/>
       <c r="I83" s="28"/>
       <c r="J83" s="26"/>
-      <c r="K83" s="90"/>
-      <c r="L83" s="102" t="s">
+      <c r="K83" s="85"/>
+      <c r="L83" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="M83" s="96" t="s">
+      <c r="M83" s="91" t="s">
         <v>323</v>
       </c>
-      <c r="N83" s="104" t="s">
+      <c r="N83" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="O83" s="96"/>
-      <c r="P83" s="96"/>
-      <c r="Q83" s="96"/>
-      <c r="R83" s="96"/>
-      <c r="S83" s="103"/>
-      <c r="T83" s="101"/>
+      <c r="O83" s="91"/>
+      <c r="P83" s="91"/>
+      <c r="Q83" s="91"/>
+      <c r="R83" s="91"/>
+      <c r="S83" s="98"/>
+      <c r="T83" s="96"/>
     </row>
     <row r="84" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="30"/>
@@ -7387,22 +7369,22 @@
       <c r="H84" s="31"/>
       <c r="I84" s="28"/>
       <c r="J84" s="26"/>
-      <c r="K84" s="90"/>
-      <c r="L84" s="102" t="s">
+      <c r="K84" s="85"/>
+      <c r="L84" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="M84" s="96" t="s">
+      <c r="M84" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="N84" s="104" t="s">
+      <c r="N84" s="99" t="s">
         <v>322</v>
       </c>
-      <c r="O84" s="96"/>
-      <c r="P84" s="96"/>
-      <c r="Q84" s="96"/>
-      <c r="R84" s="96"/>
-      <c r="S84" s="103"/>
-      <c r="T84" s="101"/>
+      <c r="O84" s="91"/>
+      <c r="P84" s="91"/>
+      <c r="Q84" s="91"/>
+      <c r="R84" s="91"/>
+      <c r="S84" s="98"/>
+      <c r="T84" s="96"/>
     </row>
     <row r="85" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="30" t="s">
@@ -7416,22 +7398,22 @@
       <c r="H85" s="31"/>
       <c r="I85" s="28"/>
       <c r="J85" s="26"/>
-      <c r="K85" s="90"/>
-      <c r="L85" s="102" t="s">
+      <c r="K85" s="85"/>
+      <c r="L85" s="97" t="s">
         <v>277</v>
       </c>
-      <c r="M85" s="96" t="s">
+      <c r="M85" s="91" t="s">
         <v>326</v>
       </c>
-      <c r="N85" s="104" t="s">
+      <c r="N85" s="99" t="s">
         <v>326</v>
       </c>
-      <c r="O85" s="96"/>
-      <c r="P85" s="96"/>
-      <c r="Q85" s="96"/>
-      <c r="R85" s="96"/>
-      <c r="S85" s="103"/>
-      <c r="T85" s="101"/>
+      <c r="O85" s="91"/>
+      <c r="P85" s="91"/>
+      <c r="Q85" s="91"/>
+      <c r="R85" s="91"/>
+      <c r="S85" s="98"/>
+      <c r="T85" s="96"/>
     </row>
     <row r="86" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="30" t="s">
@@ -7466,20 +7448,20 @@
       <c r="T86" s="57"/>
     </row>
     <row r="87" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="74" t="s">
+      <c r="B87" s="69" t="s">
         <v>278</v>
       </c>
-      <c r="C87" s="75" t="s">
+      <c r="C87" s="70" t="s">
         <v>279</v>
       </c>
-      <c r="D87" s="75" t="s">
+      <c r="D87" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="E87" s="75"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="75"/>
-      <c r="H87" s="75"/>
-      <c r="I87" s="76"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="71"/>
       <c r="J87" s="26"/>
       <c r="L87" s="56"/>
       <c r="M87" s="53"/>
@@ -7492,7 +7474,7 @@
       <c r="T87" s="57"/>
     </row>
     <row r="88" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="84" t="s">
+      <c r="B88" s="79" t="s">
         <v>281</v>
       </c>
       <c r="C88" s="26" t="s">
@@ -7520,7 +7502,7 @@
       <c r="T88" s="57"/>
     </row>
     <row r="89" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="84" t="s">
+      <c r="B89" s="79" t="s">
         <v>215</v>
       </c>
       <c r="C89" s="26" t="s">
@@ -7552,35 +7534,35 @@
       <c r="T89" s="57"/>
     </row>
     <row r="90" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="74" t="s">
+      <c r="B90" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="C90" s="75" t="s">
+      <c r="C90" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D90" s="75" t="s">
+      <c r="D90" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="E90" s="75"/>
-      <c r="F90" s="75"/>
-      <c r="G90" s="75"/>
-      <c r="H90" s="75"/>
-      <c r="I90" s="76"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="70"/>
+      <c r="H90" s="70"/>
+      <c r="I90" s="71"/>
       <c r="J90" s="26"/>
-      <c r="L90" s="102" t="s">
+      <c r="L90" s="97" t="s">
         <v>278</v>
       </c>
-      <c r="M90" s="96" t="s">
+      <c r="M90" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="N90" s="104" t="s">
+      <c r="N90" s="99" t="s">
         <v>283</v>
       </c>
-      <c r="O90" s="96"/>
-      <c r="P90" s="96"/>
-      <c r="Q90" s="96"/>
-      <c r="R90" s="96"/>
-      <c r="S90" s="103"/>
+      <c r="O90" s="91"/>
+      <c r="P90" s="91"/>
+      <c r="Q90" s="91"/>
+      <c r="R90" s="91"/>
+      <c r="S90" s="98"/>
       <c r="T90" s="57"/>
     </row>
     <row r="91" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7599,24 +7581,24 @@
       <c r="H91" s="31"/>
       <c r="I91" s="28"/>
       <c r="J91" s="26"/>
-      <c r="L91" s="77" t="s">
+      <c r="L91" s="72" t="s">
         <v>281</v>
       </c>
-      <c r="M91" s="78" t="s">
+      <c r="M91" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="N91" s="79" t="s">
+      <c r="N91" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="O91" s="78"/>
-      <c r="P91" s="78"/>
-      <c r="Q91" s="78"/>
-      <c r="R91" s="78"/>
-      <c r="S91" s="80"/>
+      <c r="O91" s="73"/>
+      <c r="P91" s="73"/>
+      <c r="Q91" s="73"/>
+      <c r="R91" s="73"/>
+      <c r="S91" s="75"/>
       <c r="T91" s="57"/>
     </row>
     <row r="92" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="84" t="s">
+      <c r="B92" s="79" t="s">
         <v>291</v>
       </c>
       <c r="C92" s="26" t="s">
@@ -7631,20 +7613,20 @@
       <c r="H92" s="26"/>
       <c r="I92" s="44"/>
       <c r="J92" s="26"/>
-      <c r="L92" s="77" t="s">
+      <c r="L92" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="M92" s="78" t="s">
+      <c r="M92" s="73" t="s">
         <v>331</v>
       </c>
-      <c r="N92" s="79" t="s">
+      <c r="N92" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="O92" s="78"/>
-      <c r="P92" s="78"/>
-      <c r="Q92" s="78"/>
-      <c r="R92" s="78"/>
-      <c r="S92" s="80"/>
+      <c r="O92" s="73"/>
+      <c r="P92" s="73"/>
+      <c r="Q92" s="73"/>
+      <c r="R92" s="73"/>
+      <c r="S92" s="75"/>
       <c r="T92" s="57"/>
     </row>
     <row r="93" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A727C5-F7B0-4C5E-B3E4-3229BF998045}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0137A0-9FF0-47B9-9240-D36E631E798B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="392">
   <si>
     <t>Item#</t>
   </si>
@@ -2370,20 +2370,107 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2461,93 +2548,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2897,12 +2897,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
       <c r="I1" s="66"/>
       <c r="J1" s="66"/>
       <c r="K1" s="66"/>
@@ -2936,7 +2936,7 @@
       <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="161" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2964,7 +2964,7 @@
       <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="164"/>
+      <c r="A4" s="162"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="M4" s="66"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="164"/>
+      <c r="A5" s="162"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3020,7 +3020,7 @@
       <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="160" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3045,7 +3045,7 @@
       <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
+      <c r="A8" s="160"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3068,7 +3068,7 @@
       <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="161"/>
+      <c r="A9" s="160"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="M9" s="66"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="161"/>
+      <c r="A10" s="160"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3114,7 +3114,7 @@
       <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="161"/>
+      <c r="A11" s="160"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="161"/>
+      <c r="A12" s="160"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3199,7 +3199,7 @@
       <c r="M15" s="66"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="160" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3222,7 +3222,7 @@
       <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="M17" s="66"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
+      <c r="A18" s="160"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="M18" s="66"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
+      <c r="A19" s="160"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="M19" s="66"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
+      <c r="A20" s="160"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="M20" s="66"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="161"/>
+      <c r="A21" s="160"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="M21" s="66"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
+      <c r="A22" s="160"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="161"/>
+      <c r="A23" s="160"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="M23" s="66"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
+      <c r="A24" s="160"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="M24" s="66"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="161"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="M25" s="66"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="161"/>
+      <c r="A26" s="160"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="M26" s="66"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="161"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="M28" s="66"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="160" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3476,7 +3476,7 @@
       <c r="M29" s="66"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="161"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="M30" s="66"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="161"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="M31" s="66"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="161"/>
+      <c r="A32" s="160"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3536,7 +3536,7 @@
       <c r="M32" s="66"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="161"/>
+      <c r="A33" s="160"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="M33" s="66"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="161"/>
+      <c r="A34" s="160"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3579,7 +3579,7 @@
       <c r="M34" s="66"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="161" t="s">
+      <c r="A36" s="160" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3596,7 +3596,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="161"/>
+      <c r="A37" s="160"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3611,7 +3611,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="160" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3634,7 +3634,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="161"/>
+      <c r="A40" s="160"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3652,7 +3652,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="161"/>
+      <c r="A41" s="160"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3670,7 +3670,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="161"/>
+      <c r="A42" s="160"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3705,7 +3705,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="163" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3725,7 +3725,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="162"/>
+      <c r="A46" s="163"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3747,7 +3747,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="162" t="s">
+      <c r="A48" s="163" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3764,7 +3764,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="162"/>
+      <c r="A49" s="163"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3776,7 +3776,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="161" t="s">
+      <c r="A51" s="160" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3796,7 +3796,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="161"/>
+      <c r="A52" s="160"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3811,7 +3811,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="161"/>
+      <c r="A53" s="160"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3826,7 +3826,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="161"/>
+      <c r="A54" s="160"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3841,7 +3841,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="161"/>
+      <c r="A55" s="160"/>
       <c r="B55" s="36" t="s">
         <v>88</v>
       </c>
@@ -3859,7 +3859,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="161"/>
+      <c r="A56" s="160"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3874,7 +3874,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="161"/>
+      <c r="A57" s="160"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3889,7 +3889,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="161"/>
+      <c r="A58" s="160"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3904,7 +3904,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="161"/>
+      <c r="A59" s="160"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3919,7 +3919,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="161"/>
+      <c r="A60" s="160"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3934,7 +3934,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="161"/>
+      <c r="A61" s="160"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3952,7 +3952,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="161"/>
+      <c r="A62" s="160"/>
       <c r="B62" s="36" t="s">
         <v>121</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="161"/>
+      <c r="A63" s="160"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3988,7 +3988,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="161"/>
+      <c r="A64" s="160"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -4006,7 +4006,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="161"/>
+      <c r="A65" s="160"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -4024,7 +4024,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="161"/>
+      <c r="A66" s="160"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4039,7 +4039,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="161"/>
+      <c r="A67" s="160"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4054,7 +4054,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="161"/>
+      <c r="A68" s="160"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4069,7 +4069,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="161" t="s">
+      <c r="A70" s="160" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4089,7 +4089,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="161"/>
+      <c r="A71" s="160"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4101,7 +4101,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="161"/>
+      <c r="A72" s="160"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="161" t="s">
+      <c r="A74" s="160" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4138,7 +4138,7 @@
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="161"/>
+      <c r="A75" s="160"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4153,7 +4153,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="161"/>
+      <c r="A76" s="160"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4168,7 +4168,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="161"/>
+      <c r="A77" s="160"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4183,7 +4183,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="161"/>
+      <c r="A78" s="160"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4198,7 +4198,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="161"/>
+      <c r="A79" s="160"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4213,7 +4213,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="161"/>
+      <c r="A80" s="160"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4228,7 +4228,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="161"/>
+      <c r="A81" s="160"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4244,6 +4244,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4251,11 +4256,6 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4266,8 +4266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AE94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4285,111 +4285,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="197" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="170"/>
-      <c r="H1" s="186" t="s">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="199"/>
+      <c r="H1" s="215" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="187"/>
-      <c r="J1" s="188"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="217"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="173"/>
+      <c r="A2" s="200"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
       <c r="H2" s="69"/>
-      <c r="I2" s="184" t="s">
+      <c r="I2" s="213" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="185"/>
+      <c r="J2" s="214"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:31" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="174"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="176"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="205"/>
       <c r="H3" s="113"/>
-      <c r="I3" s="184" t="s">
+      <c r="I3" s="213" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="185"/>
+      <c r="J3" s="214"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="207" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="179"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="208"/>
       <c r="F4" s="41"/>
       <c r="G4" s="31"/>
       <c r="H4" s="123"/>
-      <c r="I4" s="184" t="s">
+      <c r="I4" s="213" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="185"/>
+      <c r="J4" s="214"/>
       <c r="K4" s="112"/>
-      <c r="L4" s="191" t="s">
+      <c r="L4" s="165" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="192"/>
-      <c r="N4" s="192"/>
-      <c r="O4" s="192"/>
-      <c r="P4" s="193"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="167"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="85"/>
       <c r="U4" s="85"/>
-      <c r="V4" s="200" t="s">
+      <c r="V4" s="174" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="201"/>
-      <c r="X4" s="201"/>
-      <c r="Y4" s="201"/>
-      <c r="Z4" s="202"/>
+      <c r="W4" s="175"/>
+      <c r="X4" s="175"/>
+      <c r="Y4" s="175"/>
+      <c r="Z4" s="176"/>
       <c r="AA4" s="85"/>
       <c r="AB4" s="31"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="180"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="181"/>
+      <c r="A5" s="209"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="210"/>
       <c r="F5" s="41"/>
       <c r="G5" s="31"/>
       <c r="H5" s="130"/>
-      <c r="I5" s="189" t="s">
+      <c r="I5" s="218" t="s">
         <v>385</v>
       </c>
-      <c r="J5" s="190"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="195"/>
-      <c r="O5" s="195"/>
-      <c r="P5" s="196"/>
+      <c r="J5" s="219"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="170"/>
       <c r="Q5" s="41"/>
       <c r="R5" s="85"/>
       <c r="U5" s="85"/>
-      <c r="V5" s="203"/>
-      <c r="W5" s="204"/>
-      <c r="X5" s="204"/>
-      <c r="Y5" s="204"/>
-      <c r="Z5" s="205"/>
+      <c r="V5" s="177"/>
+      <c r="W5" s="178"/>
+      <c r="X5" s="178"/>
+      <c r="Y5" s="178"/>
+      <c r="Z5" s="179"/>
       <c r="AA5" s="85"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4447,16 +4447,16 @@
       <c r="Z6" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="AA6" s="218" t="s">
+      <c r="AA6" s="192" t="s">
         <v>390</v>
       </c>
-      <c r="AB6" s="219"/>
-      <c r="AC6" s="219"/>
-      <c r="AD6" s="219"/>
-      <c r="AE6" s="219"/>
+      <c r="AB6" s="193"/>
+      <c r="AC6" s="193"/>
+      <c r="AD6" s="193"/>
+      <c r="AE6" s="193"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="177" t="s">
+      <c r="A7" s="206" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="80" t="s">
@@ -4475,7 +4475,7 @@
         <v>382</v>
       </c>
       <c r="G7" s="31"/>
-      <c r="L7" s="197" t="s">
+      <c r="L7" s="171" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="80" t="s">
@@ -4517,7 +4517,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="177"/>
+      <c r="A8" s="206"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4536,7 +4536,7 @@
       <c r="G8" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="L8" s="198"/>
+      <c r="L8" s="172"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4576,7 +4576,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="177"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4595,7 +4595,7 @@
       <c r="G9" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="198"/>
+      <c r="L9" s="172"/>
       <c r="M9" s="26" t="s">
         <v>173</v>
       </c>
@@ -4635,7 +4635,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="177"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4654,7 +4654,7 @@
       <c r="G10" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="198"/>
+      <c r="L10" s="172"/>
       <c r="M10" s="26" t="s">
         <v>178</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="AA10" s="85"/>
     </row>
     <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="177"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4711,7 +4711,7 @@
       <c r="G11" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="198"/>
+      <c r="L11" s="172"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="AA11" s="31"/>
     </row>
     <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="177"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4758,7 +4758,7 @@
       <c r="G12" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L12" s="198"/>
+      <c r="L12" s="172"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4786,7 +4786,7 @@
       <c r="AA12" s="31"/>
     </row>
     <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="177"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4805,7 +4805,7 @@
       <c r="G13" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="198"/>
+      <c r="L13" s="172"/>
       <c r="M13" s="26" t="s">
         <v>181</v>
       </c>
@@ -4833,7 +4833,7 @@
       <c r="AB13" s="85"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
+      <c r="A14" s="211"/>
       <c r="B14" s="83" t="s">
         <v>181</v>
       </c>
@@ -4852,7 +4852,7 @@
       <c r="G14" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L14" s="199"/>
+      <c r="L14" s="173"/>
       <c r="M14" s="83" t="s">
         <v>350</v>
       </c>
@@ -4881,7 +4881,7 @@
       <c r="AC14" s="85"/>
     </row>
     <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="183" t="s">
+      <c r="A15" s="212" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="84" t="s">
@@ -4902,7 +4902,7 @@
       <c r="G15" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L15" s="212" t="s">
+      <c r="L15" s="186" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="84" t="s">
@@ -4923,19 +4923,19 @@
       <c r="R15" t="s">
         <v>384</v>
       </c>
-      <c r="V15" s="206" t="s">
+      <c r="V15" s="180" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="207"/>
-      <c r="X15" s="207"/>
-      <c r="Y15" s="207"/>
-      <c r="Z15" s="207"/>
-      <c r="AA15" s="207"/>
-      <c r="AB15" s="207"/>
-      <c r="AC15" s="208"/>
+      <c r="W15" s="181"/>
+      <c r="X15" s="181"/>
+      <c r="Y15" s="181"/>
+      <c r="Z15" s="181"/>
+      <c r="AA15" s="181"/>
+      <c r="AB15" s="181"/>
+      <c r="AC15" s="182"/>
     </row>
     <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="177"/>
+      <c r="A16" s="206"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4954,7 +4954,7 @@
       <c r="G16" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L16" s="213"/>
+      <c r="L16" s="187"/>
       <c r="M16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4986,7 +4986,7 @@
       <c r="AC16" s="114"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="182"/>
+      <c r="A17" s="211"/>
       <c r="B17" s="83" t="s">
         <v>185</v>
       </c>
@@ -5005,7 +5005,7 @@
       <c r="G17" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L17" s="213"/>
+      <c r="L17" s="187"/>
       <c r="M17" s="26" t="s">
         <v>185</v>
       </c>
@@ -5040,7 +5040,7 @@
       <c r="AC17" s="95"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="183" t="s">
+      <c r="A18" s="212" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="152" t="s">
@@ -5055,8 +5055,10 @@
       <c r="E18" s="154" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="L18" s="213"/>
+      <c r="F18" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="L18" s="187"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -5091,7 +5093,7 @@
       <c r="AC18" s="98"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="177"/>
+      <c r="A19" s="206"/>
       <c r="B19" s="152" t="s">
         <v>191</v>
       </c>
@@ -5104,8 +5106,10 @@
       <c r="E19" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="106"/>
-      <c r="L19" s="214"/>
+      <c r="F19" s="106" t="s">
+        <v>382</v>
+      </c>
+      <c r="L19" s="188"/>
       <c r="M19" s="83" t="s">
         <v>356</v>
       </c>
@@ -5140,7 +5144,7 @@
       <c r="AC19" s="98"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="177"/>
+      <c r="A20" s="206"/>
       <c r="B20" s="152" t="s">
         <v>193</v>
       </c>
@@ -5153,8 +5157,10 @@
       <c r="E20" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="106"/>
-      <c r="L20" s="212" t="s">
+      <c r="F20" s="106" t="s">
+        <v>382</v>
+      </c>
+      <c r="L20" s="186" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="26" t="s">
@@ -5182,7 +5188,7 @@
       <c r="AC20" s="98"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="177"/>
+      <c r="A21" s="206"/>
       <c r="B21" s="152" t="s">
         <v>195</v>
       </c>
@@ -5195,8 +5201,10 @@
       <c r="E21" s="154" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="106"/>
-      <c r="L21" s="213"/>
+      <c r="F21" s="106" t="s">
+        <v>382</v>
+      </c>
+      <c r="L21" s="187"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5224,7 +5232,7 @@
       <c r="AC21" s="98"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="182"/>
+      <c r="A22" s="211"/>
       <c r="B22" s="157" t="s">
         <v>197</v>
       </c>
@@ -5237,8 +5245,10 @@
       <c r="E22" s="159" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="106"/>
-      <c r="L22" s="213"/>
+      <c r="F22" s="106" t="s">
+        <v>382</v>
+      </c>
+      <c r="L22" s="187"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5270,7 +5280,7 @@
       <c r="AC22" s="98"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="183" t="s">
+      <c r="A23" s="212" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="119" t="s">
@@ -5286,7 +5296,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="106"/>
-      <c r="L23" s="213"/>
+      <c r="L23" s="187"/>
       <c r="M23" s="26" t="s">
         <v>359</v>
       </c>
@@ -5318,7 +5328,7 @@
       <c r="AC23" s="98"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="177"/>
+      <c r="A24" s="206"/>
       <c r="B24" s="70" t="s">
         <v>203</v>
       </c>
@@ -5332,7 +5342,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="106"/>
-      <c r="L24" s="213"/>
+      <c r="L24" s="187"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5364,7 +5374,7 @@
       <c r="AC24" s="98"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="177"/>
+      <c r="A25" s="206"/>
       <c r="B25" s="152" t="s">
         <v>205</v>
       </c>
@@ -5380,7 +5390,7 @@
       <c r="F25" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="L25" s="213"/>
+      <c r="L25" s="187"/>
       <c r="M25" s="91" t="s">
         <v>361</v>
       </c>
@@ -5406,7 +5416,7 @@
       <c r="AC25" s="98"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="177"/>
+      <c r="A26" s="206"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5422,7 +5432,7 @@
       <c r="F26" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="L26" s="214"/>
+      <c r="L26" s="188"/>
       <c r="M26" s="144" t="s">
         <v>362</v>
       </c>
@@ -5450,7 +5460,7 @@
       <c r="AC26" s="98"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="177"/>
+      <c r="A27" s="206"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5466,7 +5476,7 @@
       <c r="F27" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="L27" s="215" t="s">
+      <c r="L27" s="189" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="76" t="s">
@@ -5503,7 +5513,7 @@
       <c r="AC27" s="98"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="177"/>
+      <c r="A28" s="206"/>
       <c r="B28" s="127" t="s">
         <v>376</v>
       </c>
@@ -5517,7 +5527,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="106"/>
-      <c r="L28" s="216"/>
+      <c r="L28" s="190"/>
       <c r="M28" s="26"/>
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
@@ -5539,7 +5549,7 @@
       <c r="AC28" s="98"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="182"/>
+      <c r="A29" s="211"/>
       <c r="B29" s="155" t="s">
         <v>377</v>
       </c>
@@ -5555,7 +5565,7 @@
       <c r="F29" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="L29" s="217"/>
+      <c r="L29" s="191"/>
       <c r="M29" s="145" t="s">
         <v>364</v>
       </c>
@@ -5584,7 +5594,7 @@
       <c r="AC29" s="98"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="177" t="s">
+      <c r="A30" s="206" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5599,7 +5609,9 @@
       <c r="E30" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="106"/>
+      <c r="F30" s="106" t="s">
+        <v>382</v>
+      </c>
       <c r="K30" s="31"/>
       <c r="L30" s="33"/>
       <c r="M30" s="26"/>
@@ -5622,7 +5634,7 @@
       <c r="AC30" s="98"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="177"/>
+      <c r="A31" s="206"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5659,7 +5671,7 @@
       <c r="AC31" s="98"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="177"/>
+      <c r="A32" s="206"/>
       <c r="B32" s="38" t="s">
         <v>364</v>
       </c>
@@ -5756,27 +5768,27 @@
       <c r="AD34" s="85"/>
     </row>
     <row r="35" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="165" t="s">
+      <c r="B35" s="194" t="s">
         <v>295</v>
       </c>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="166"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="167"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="195"/>
+      <c r="H35" s="195"/>
+      <c r="I35" s="196"/>
       <c r="J35" s="111"/>
-      <c r="L35" s="209" t="s">
+      <c r="L35" s="183" t="s">
         <v>338</v>
       </c>
-      <c r="M35" s="210"/>
-      <c r="N35" s="210"/>
-      <c r="O35" s="210"/>
-      <c r="P35" s="210"/>
-      <c r="Q35" s="210"/>
-      <c r="R35" s="210"/>
-      <c r="S35" s="211"/>
+      <c r="M35" s="184"/>
+      <c r="N35" s="184"/>
+      <c r="O35" s="184"/>
+      <c r="P35" s="184"/>
+      <c r="Q35" s="184"/>
+      <c r="R35" s="184"/>
+      <c r="S35" s="185"/>
       <c r="U35" s="85"/>
       <c r="V35" s="85"/>
       <c r="W35" s="85"/>
@@ -7680,15 +7692,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L35:S35"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="AA6:AE6"/>
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7702,6 +7705,15 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L35:S35"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="AA6:AE6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0137A0-9FF0-47B9-9240-D36E631E798B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEBC1E8-69CA-4DE2-960F-862E3F8ACFC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
@@ -2370,20 +2370,98 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2470,84 +2548,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2897,12 +2897,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
       <c r="I1" s="66"/>
       <c r="J1" s="66"/>
       <c r="K1" s="66"/>
@@ -2936,7 +2936,7 @@
       <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="163" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2964,7 +2964,7 @@
       <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162"/>
+      <c r="A4" s="164"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="M4" s="66"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="162"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3020,7 +3020,7 @@
       <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="161" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3045,7 +3045,7 @@
       <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
+      <c r="A8" s="161"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3068,7 +3068,7 @@
       <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
+      <c r="A9" s="161"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="M9" s="66"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
+      <c r="A10" s="161"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3114,7 +3114,7 @@
       <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="160"/>
+      <c r="A11" s="161"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
+      <c r="A12" s="161"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3199,7 +3199,7 @@
       <c r="M15" s="66"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="160" t="s">
+      <c r="A16" s="161" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3222,7 +3222,7 @@
       <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="160"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="M17" s="66"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="160"/>
+      <c r="A18" s="161"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="M18" s="66"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="160"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="M19" s="66"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="160"/>
+      <c r="A20" s="161"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="M20" s="66"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="160"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="M21" s="66"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
+      <c r="A22" s="161"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="160"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="M23" s="66"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="160"/>
+      <c r="A24" s="161"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="M24" s="66"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="160"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="M25" s="66"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="160"/>
+      <c r="A26" s="161"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="M26" s="66"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="160"/>
+      <c r="A27" s="161"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="M28" s="66"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="160" t="s">
+      <c r="A29" s="161" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3476,7 +3476,7 @@
       <c r="M29" s="66"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="160"/>
+      <c r="A30" s="161"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="M30" s="66"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="160"/>
+      <c r="A31" s="161"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="M31" s="66"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="160"/>
+      <c r="A32" s="161"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3536,7 +3536,7 @@
       <c r="M32" s="66"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="160"/>
+      <c r="A33" s="161"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="M33" s="66"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="160"/>
+      <c r="A34" s="161"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3579,7 +3579,7 @@
       <c r="M34" s="66"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="161" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3596,7 +3596,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="160"/>
+      <c r="A37" s="161"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3611,7 +3611,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="160" t="s">
+      <c r="A39" s="161" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3634,7 +3634,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="160"/>
+      <c r="A40" s="161"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3652,7 +3652,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="160"/>
+      <c r="A41" s="161"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3670,7 +3670,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="160"/>
+      <c r="A42" s="161"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3705,7 +3705,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="162" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3725,7 +3725,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="163"/>
+      <c r="A46" s="162"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3747,7 +3747,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="163" t="s">
+      <c r="A48" s="162" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3764,7 +3764,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="163"/>
+      <c r="A49" s="162"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3776,7 +3776,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="160" t="s">
+      <c r="A51" s="161" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3796,7 +3796,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="160"/>
+      <c r="A52" s="161"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3811,7 +3811,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="160"/>
+      <c r="A53" s="161"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3826,7 +3826,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="160"/>
+      <c r="A54" s="161"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3841,7 +3841,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="160"/>
+      <c r="A55" s="161"/>
       <c r="B55" s="36" t="s">
         <v>88</v>
       </c>
@@ -3859,7 +3859,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="160"/>
+      <c r="A56" s="161"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3874,7 +3874,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="160"/>
+      <c r="A57" s="161"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3889,7 +3889,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="160"/>
+      <c r="A58" s="161"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3904,7 +3904,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="160"/>
+      <c r="A59" s="161"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3919,7 +3919,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="160"/>
+      <c r="A60" s="161"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3934,7 +3934,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="160"/>
+      <c r="A61" s="161"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3952,7 +3952,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="160"/>
+      <c r="A62" s="161"/>
       <c r="B62" s="36" t="s">
         <v>121</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="160"/>
+      <c r="A63" s="161"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3988,7 +3988,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="160"/>
+      <c r="A64" s="161"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -4006,7 +4006,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="160"/>
+      <c r="A65" s="161"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -4024,7 +4024,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="160"/>
+      <c r="A66" s="161"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4039,7 +4039,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="160"/>
+      <c r="A67" s="161"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4054,7 +4054,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="160"/>
+      <c r="A68" s="161"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4069,7 +4069,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="160" t="s">
+      <c r="A70" s="161" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4089,7 +4089,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="160"/>
+      <c r="A71" s="161"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4101,7 +4101,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="160"/>
+      <c r="A72" s="161"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="160" t="s">
+      <c r="A74" s="161" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4138,7 +4138,7 @@
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="160"/>
+      <c r="A75" s="161"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4153,7 +4153,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="160"/>
+      <c r="A76" s="161"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4168,7 +4168,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="160"/>
+      <c r="A77" s="161"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4183,7 +4183,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="160"/>
+      <c r="A78" s="161"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4198,7 +4198,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="160"/>
+      <c r="A79" s="161"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4213,7 +4213,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="160"/>
+      <c r="A80" s="161"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4228,7 +4228,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="160"/>
+      <c r="A81" s="161"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4244,11 +4244,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4256,6 +4251,11 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4266,8 +4266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AE94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4285,111 +4285,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="168" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="199"/>
-      <c r="H1" s="215" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="170"/>
+      <c r="H1" s="186" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="216"/>
-      <c r="J1" s="217"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="188"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="200"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="173"/>
       <c r="H2" s="69"/>
-      <c r="I2" s="213" t="s">
+      <c r="I2" s="184" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="214"/>
+      <c r="J2" s="185"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:31" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="203"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="205"/>
+      <c r="A3" s="174"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="176"/>
       <c r="H3" s="113"/>
-      <c r="I3" s="213" t="s">
+      <c r="I3" s="184" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="214"/>
+      <c r="J3" s="185"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="178" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="207"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="179"/>
       <c r="F4" s="41"/>
       <c r="G4" s="31"/>
       <c r="H4" s="123"/>
-      <c r="I4" s="213" t="s">
+      <c r="I4" s="184" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="214"/>
+      <c r="J4" s="185"/>
       <c r="K4" s="112"/>
-      <c r="L4" s="165" t="s">
+      <c r="L4" s="191" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="167"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="192"/>
+      <c r="P4" s="193"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="85"/>
       <c r="U4" s="85"/>
-      <c r="V4" s="174" t="s">
+      <c r="V4" s="200" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="175"/>
-      <c r="X4" s="175"/>
-      <c r="Y4" s="175"/>
-      <c r="Z4" s="176"/>
+      <c r="W4" s="201"/>
+      <c r="X4" s="201"/>
+      <c r="Y4" s="201"/>
+      <c r="Z4" s="202"/>
       <c r="AA4" s="85"/>
       <c r="AB4" s="31"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="209"/>
-      <c r="B5" s="209"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="210"/>
+      <c r="A5" s="180"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="181"/>
       <c r="F5" s="41"/>
       <c r="G5" s="31"/>
       <c r="H5" s="130"/>
-      <c r="I5" s="218" t="s">
+      <c r="I5" s="189" t="s">
         <v>385</v>
       </c>
-      <c r="J5" s="219"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="170"/>
+      <c r="J5" s="190"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
+      <c r="O5" s="195"/>
+      <c r="P5" s="196"/>
       <c r="Q5" s="41"/>
       <c r="R5" s="85"/>
       <c r="U5" s="85"/>
-      <c r="V5" s="177"/>
-      <c r="W5" s="178"/>
-      <c r="X5" s="178"/>
-      <c r="Y5" s="178"/>
-      <c r="Z5" s="179"/>
+      <c r="V5" s="203"/>
+      <c r="W5" s="204"/>
+      <c r="X5" s="204"/>
+      <c r="Y5" s="204"/>
+      <c r="Z5" s="205"/>
       <c r="AA5" s="85"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4447,16 +4447,16 @@
       <c r="Z6" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="AA6" s="192" t="s">
+      <c r="AA6" s="218" t="s">
         <v>390</v>
       </c>
-      <c r="AB6" s="193"/>
-      <c r="AC6" s="193"/>
-      <c r="AD6" s="193"/>
-      <c r="AE6" s="193"/>
+      <c r="AB6" s="219"/>
+      <c r="AC6" s="219"/>
+      <c r="AD6" s="219"/>
+      <c r="AE6" s="219"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="206" t="s">
+      <c r="A7" s="177" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="80" t="s">
@@ -4475,7 +4475,7 @@
         <v>382</v>
       </c>
       <c r="G7" s="31"/>
-      <c r="L7" s="171" t="s">
+      <c r="L7" s="197" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="80" t="s">
@@ -4517,7 +4517,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="206"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4536,7 +4536,7 @@
       <c r="G8" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="L8" s="172"/>
+      <c r="L8" s="198"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4576,7 +4576,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="206"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4595,7 +4595,7 @@
       <c r="G9" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="172"/>
+      <c r="L9" s="198"/>
       <c r="M9" s="26" t="s">
         <v>173</v>
       </c>
@@ -4635,7 +4635,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="206"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4654,7 +4654,7 @@
       <c r="G10" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="172"/>
+      <c r="L10" s="198"/>
       <c r="M10" s="26" t="s">
         <v>178</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="AA10" s="85"/>
     </row>
     <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="206"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4711,7 +4711,7 @@
       <c r="G11" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="172"/>
+      <c r="L11" s="198"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="AA11" s="31"/>
     </row>
     <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="206"/>
+      <c r="A12" s="177"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4758,7 +4758,7 @@
       <c r="G12" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L12" s="172"/>
+      <c r="L12" s="198"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4786,7 +4786,7 @@
       <c r="AA12" s="31"/>
     </row>
     <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="206"/>
+      <c r="A13" s="177"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4805,7 +4805,7 @@
       <c r="G13" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="172"/>
+      <c r="L13" s="198"/>
       <c r="M13" s="26" t="s">
         <v>181</v>
       </c>
@@ -4833,7 +4833,7 @@
       <c r="AB13" s="85"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="211"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="83" t="s">
         <v>181</v>
       </c>
@@ -4852,7 +4852,7 @@
       <c r="G14" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L14" s="173"/>
+      <c r="L14" s="199"/>
       <c r="M14" s="83" t="s">
         <v>350</v>
       </c>
@@ -4881,7 +4881,7 @@
       <c r="AC14" s="85"/>
     </row>
     <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="212" t="s">
+      <c r="A15" s="183" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="84" t="s">
@@ -4902,7 +4902,7 @@
       <c r="G15" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L15" s="186" t="s">
+      <c r="L15" s="212" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="84" t="s">
@@ -4923,19 +4923,19 @@
       <c r="R15" t="s">
         <v>384</v>
       </c>
-      <c r="V15" s="180" t="s">
+      <c r="V15" s="206" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="181"/>
-      <c r="X15" s="181"/>
-      <c r="Y15" s="181"/>
-      <c r="Z15" s="181"/>
-      <c r="AA15" s="181"/>
-      <c r="AB15" s="181"/>
-      <c r="AC15" s="182"/>
+      <c r="W15" s="207"/>
+      <c r="X15" s="207"/>
+      <c r="Y15" s="207"/>
+      <c r="Z15" s="207"/>
+      <c r="AA15" s="207"/>
+      <c r="AB15" s="207"/>
+      <c r="AC15" s="208"/>
     </row>
     <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="206"/>
+      <c r="A16" s="177"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4954,7 +4954,7 @@
       <c r="G16" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L16" s="187"/>
+      <c r="L16" s="213"/>
       <c r="M16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4986,7 +4986,7 @@
       <c r="AC16" s="114"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="211"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="83" t="s">
         <v>185</v>
       </c>
@@ -5005,7 +5005,7 @@
       <c r="G17" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L17" s="187"/>
+      <c r="L17" s="213"/>
       <c r="M17" s="26" t="s">
         <v>185</v>
       </c>
@@ -5040,7 +5040,7 @@
       <c r="AC17" s="95"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="212" t="s">
+      <c r="A18" s="183" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="152" t="s">
@@ -5058,7 +5058,7 @@
       <c r="F18" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L18" s="187"/>
+      <c r="L18" s="213"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -5093,7 +5093,7 @@
       <c r="AC18" s="98"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="206"/>
+      <c r="A19" s="177"/>
       <c r="B19" s="152" t="s">
         <v>191</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="F19" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="L19" s="188"/>
+      <c r="L19" s="214"/>
       <c r="M19" s="83" t="s">
         <v>356</v>
       </c>
@@ -5144,7 +5144,7 @@
       <c r="AC19" s="98"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="206"/>
+      <c r="A20" s="177"/>
       <c r="B20" s="152" t="s">
         <v>193</v>
       </c>
@@ -5160,7 +5160,7 @@
       <c r="F20" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="L20" s="186" t="s">
+      <c r="L20" s="212" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="26" t="s">
@@ -5188,7 +5188,7 @@
       <c r="AC20" s="98"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="206"/>
+      <c r="A21" s="177"/>
       <c r="B21" s="152" t="s">
         <v>195</v>
       </c>
@@ -5204,7 +5204,7 @@
       <c r="F21" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="L21" s="187"/>
+      <c r="L21" s="213"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5232,7 +5232,7 @@
       <c r="AC21" s="98"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="211"/>
+      <c r="A22" s="182"/>
       <c r="B22" s="157" t="s">
         <v>197</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="F22" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="L22" s="187"/>
+      <c r="L22" s="213"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5280,7 +5280,7 @@
       <c r="AC22" s="98"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="212" t="s">
+      <c r="A23" s="183" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="119" t="s">
@@ -5296,7 +5296,7 @@
         <v>202</v>
       </c>
       <c r="F23" s="106"/>
-      <c r="L23" s="187"/>
+      <c r="L23" s="213"/>
       <c r="M23" s="26" t="s">
         <v>359</v>
       </c>
@@ -5328,7 +5328,7 @@
       <c r="AC23" s="98"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="206"/>
+      <c r="A24" s="177"/>
       <c r="B24" s="70" t="s">
         <v>203</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="106"/>
-      <c r="L24" s="187"/>
+      <c r="L24" s="213"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5374,7 +5374,7 @@
       <c r="AC24" s="98"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="206"/>
+      <c r="A25" s="177"/>
       <c r="B25" s="152" t="s">
         <v>205</v>
       </c>
@@ -5390,7 +5390,7 @@
       <c r="F25" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="L25" s="187"/>
+      <c r="L25" s="213"/>
       <c r="M25" s="91" t="s">
         <v>361</v>
       </c>
@@ -5416,7 +5416,7 @@
       <c r="AC25" s="98"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="206"/>
+      <c r="A26" s="177"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5432,7 +5432,7 @@
       <c r="F26" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="L26" s="188"/>
+      <c r="L26" s="214"/>
       <c r="M26" s="144" t="s">
         <v>362</v>
       </c>
@@ -5460,7 +5460,7 @@
       <c r="AC26" s="98"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="206"/>
+      <c r="A27" s="177"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5476,7 +5476,7 @@
       <c r="F27" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="L27" s="189" t="s">
+      <c r="L27" s="215" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="76" t="s">
@@ -5513,7 +5513,7 @@
       <c r="AC27" s="98"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="206"/>
+      <c r="A28" s="177"/>
       <c r="B28" s="127" t="s">
         <v>376</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>268</v>
       </c>
       <c r="F28" s="106"/>
-      <c r="L28" s="190"/>
+      <c r="L28" s="216"/>
       <c r="M28" s="26"/>
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
@@ -5549,7 +5549,7 @@
       <c r="AC28" s="98"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="211"/>
+      <c r="A29" s="182"/>
       <c r="B29" s="155" t="s">
         <v>377</v>
       </c>
@@ -5565,7 +5565,7 @@
       <c r="F29" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="L29" s="191"/>
+      <c r="L29" s="217"/>
       <c r="M29" s="145" t="s">
         <v>364</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="AC29" s="98"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="206" t="s">
+      <c r="A30" s="177" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5634,7 +5634,7 @@
       <c r="AC30" s="98"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="206"/>
+      <c r="A31" s="177"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5671,7 +5671,7 @@
       <c r="AC31" s="98"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="206"/>
+      <c r="A32" s="177"/>
       <c r="B32" s="38" t="s">
         <v>364</v>
       </c>
@@ -5768,27 +5768,27 @@
       <c r="AD34" s="85"/>
     </row>
     <row r="35" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="194" t="s">
+      <c r="B35" s="165" t="s">
         <v>295</v>
       </c>
-      <c r="C35" s="195"/>
-      <c r="D35" s="195"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="195"/>
-      <c r="H35" s="195"/>
-      <c r="I35" s="196"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="167"/>
       <c r="J35" s="111"/>
-      <c r="L35" s="183" t="s">
+      <c r="L35" s="209" t="s">
         <v>338</v>
       </c>
-      <c r="M35" s="184"/>
-      <c r="N35" s="184"/>
-      <c r="O35" s="184"/>
-      <c r="P35" s="184"/>
-      <c r="Q35" s="184"/>
-      <c r="R35" s="184"/>
-      <c r="S35" s="185"/>
+      <c r="M35" s="210"/>
+      <c r="N35" s="210"/>
+      <c r="O35" s="210"/>
+      <c r="P35" s="210"/>
+      <c r="Q35" s="210"/>
+      <c r="R35" s="210"/>
+      <c r="S35" s="211"/>
       <c r="U35" s="85"/>
       <c r="V35" s="85"/>
       <c r="W35" s="85"/>
@@ -7692,6 +7692,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="L35:S35"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="AA6:AE6"/>
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A30:A32"/>
@@ -7705,15 +7714,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="L7:L14"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="L35:S35"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="AA6:AE6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Hydration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEBC1E8-69CA-4DE2-960F-862E3F8ACFC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DED2FA1-1452-41AC-80FA-DEBAC2C23AAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3AD9D2E-3E69-485C-A23B-91E4490D16E1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="392">
   <si>
     <t>Item#</t>
   </si>
@@ -1985,7 +1985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2164,20 +2164,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2287,11 +2273,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2329,15 +2310,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2370,20 +2343,107 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2463,93 +2523,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2890,19 +2874,19 @@
     <col min="3" max="3" width="30" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="117" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="111" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="151" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
       <c r="I1" s="66"/>
       <c r="J1" s="66"/>
       <c r="K1" s="66"/>
@@ -2936,7 +2920,7 @@
       <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="148" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2954,7 +2938,7 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="111">
         <v>1</v>
       </c>
       <c r="I3" s="66"/>
@@ -2964,7 +2948,7 @@
       <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="164"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -2977,7 +2961,7 @@
       <c r="E4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="117">
+      <c r="G4" s="111">
         <v>1</v>
       </c>
       <c r="I4" s="66"/>
@@ -2987,7 +2971,7 @@
       <c r="M4" s="66"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="164"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3003,7 +2987,7 @@
       <c r="F5" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="111">
         <v>0</v>
       </c>
       <c r="I5" s="66"/>
@@ -3020,7 +3004,7 @@
       <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="147" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3035,7 +3019,7 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="111" t="s">
         <v>379</v>
       </c>
       <c r="I7" s="66"/>
@@ -3045,7 +3029,7 @@
       <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
+      <c r="A8" s="147"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3058,7 +3042,7 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="117" t="s">
+      <c r="G8" s="111" t="s">
         <v>379</v>
       </c>
       <c r="I8" s="66"/>
@@ -3068,7 +3052,7 @@
       <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="161"/>
+      <c r="A9" s="147"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3081,7 +3065,7 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="111" t="s">
         <v>379</v>
       </c>
       <c r="I9" s="66"/>
@@ -3091,7 +3075,7 @@
       <c r="M9" s="66"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="161"/>
+      <c r="A10" s="147"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -3104,7 +3088,7 @@
       <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="111" t="s">
         <v>379</v>
       </c>
       <c r="I10" s="66"/>
@@ -3114,7 +3098,7 @@
       <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="161"/>
+      <c r="A11" s="147"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3127,7 +3111,7 @@
       <c r="E11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="117" t="s">
+      <c r="G11" s="111" t="s">
         <v>379</v>
       </c>
       <c r="I11" s="66"/>
@@ -3137,7 +3121,7 @@
       <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="161"/>
+      <c r="A12" s="147"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3150,7 +3134,7 @@
       <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="117" t="s">
+      <c r="G12" s="111" t="s">
         <v>379</v>
       </c>
       <c r="I12" s="66"/>
@@ -3182,7 +3166,7 @@
       <c r="E14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="117">
+      <c r="G14" s="111">
         <v>1</v>
       </c>
       <c r="I14" s="66"/>
@@ -3199,7 +3183,7 @@
       <c r="M15" s="66"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="147" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3211,7 +3195,7 @@
       <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="G16" s="118">
+      <c r="G16" s="112">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
@@ -3222,7 +3206,7 @@
       <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3232,7 +3216,7 @@
       <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="G17" s="118">
+      <c r="G17" s="112">
         <v>2</v>
       </c>
       <c r="I17" s="66"/>
@@ -3242,7 +3226,7 @@
       <c r="M17" s="66"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3252,7 +3236,7 @@
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="G18" s="118">
+      <c r="G18" s="112">
         <v>1</v>
       </c>
       <c r="I18" s="66"/>
@@ -3262,7 +3246,7 @@
       <c r="M18" s="66"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3272,7 +3256,7 @@
       <c r="D19" s="5">
         <v>10</v>
       </c>
-      <c r="G19" s="118">
+      <c r="G19" s="112">
         <f>3</f>
         <v>3</v>
       </c>
@@ -3283,7 +3267,7 @@
       <c r="M19" s="66"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -3293,7 +3277,7 @@
       <c r="D20" s="5">
         <v>10</v>
       </c>
-      <c r="G20" s="118">
+      <c r="G20" s="112">
         <f>1+2</f>
         <v>3</v>
       </c>
@@ -3304,7 +3288,7 @@
       <c r="M20" s="66"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="161"/>
+      <c r="A21" s="147"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3314,7 +3298,7 @@
       <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="G21" s="118">
+      <c r="G21" s="112">
         <v>1</v>
       </c>
       <c r="I21" s="66"/>
@@ -3324,7 +3308,7 @@
       <c r="M21" s="66"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
+      <c r="A22" s="147"/>
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3334,7 +3318,7 @@
       <c r="D22" s="5">
         <v>20</v>
       </c>
-      <c r="G22" s="118">
+      <c r="G22" s="112">
         <f>2+4</f>
         <v>6</v>
       </c>
@@ -3345,7 +3329,7 @@
       <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="161"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -3355,7 +3339,7 @@
       <c r="D23" s="5">
         <v>20</v>
       </c>
-      <c r="G23" s="118">
+      <c r="G23" s="112">
         <f>2+3+2</f>
         <v>7</v>
       </c>
@@ -3366,7 +3350,7 @@
       <c r="M23" s="66"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
+      <c r="A24" s="147"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -3376,7 +3360,7 @@
       <c r="D24" s="5">
         <v>10</v>
       </c>
-      <c r="G24" s="118">
+      <c r="G24" s="112">
         <v>4</v>
       </c>
       <c r="I24" s="66"/>
@@ -3386,7 +3370,7 @@
       <c r="M24" s="66"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="161"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -3396,7 +3380,7 @@
       <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="G25" s="118">
+      <c r="G25" s="112">
         <v>1</v>
       </c>
       <c r="I25" s="66"/>
@@ -3406,7 +3390,7 @@
       <c r="M25" s="66"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="161"/>
+      <c r="A26" s="147"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -3416,7 +3400,7 @@
       <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="G26" s="118">
+      <c r="G26" s="112">
         <v>1</v>
       </c>
       <c r="I26" s="66"/>
@@ -3426,7 +3410,7 @@
       <c r="M26" s="66"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="161"/>
+      <c r="A27" s="147"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3436,7 +3420,7 @@
       <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="G27" s="118">
+      <c r="G27" s="112">
         <v>2</v>
       </c>
       <c r="I27" s="66"/>
@@ -3453,7 +3437,7 @@
       <c r="M28" s="66"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="147" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3465,7 +3449,7 @@
       <c r="D29" s="5">
         <v>15</v>
       </c>
-      <c r="G29" s="118">
+      <c r="G29" s="112">
         <f>2+3</f>
         <v>5</v>
       </c>
@@ -3476,7 +3460,7 @@
       <c r="M29" s="66"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="161"/>
+      <c r="A30" s="147"/>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3486,7 +3470,7 @@
       <c r="D30" s="5">
         <v>5</v>
       </c>
-      <c r="G30" s="118">
+      <c r="G30" s="112">
         <v>1</v>
       </c>
       <c r="I30" s="66"/>
@@ -3496,7 +3480,7 @@
       <c r="M30" s="66"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="161"/>
+      <c r="A31" s="147"/>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3506,7 +3490,7 @@
       <c r="D31" s="5">
         <v>5</v>
       </c>
-      <c r="G31" s="118">
+      <c r="G31" s="112">
         <v>1</v>
       </c>
       <c r="I31" s="66"/>
@@ -3516,7 +3500,7 @@
       <c r="M31" s="66"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="161"/>
+      <c r="A32" s="147"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
@@ -3526,7 +3510,7 @@
       <c r="D32" s="5">
         <v>30</v>
       </c>
-      <c r="G32" s="118">
+      <c r="G32" s="112">
         <v>14</v>
       </c>
       <c r="I32" s="66"/>
@@ -3536,7 +3520,7 @@
       <c r="M32" s="66"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="161"/>
+      <c r="A33" s="147"/>
       <c r="B33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3546,7 +3530,7 @@
       <c r="D33" s="5">
         <v>20</v>
       </c>
-      <c r="G33" s="118">
+      <c r="G33" s="112">
         <v>9</v>
       </c>
       <c r="I33" s="66"/>
@@ -3556,7 +3540,7 @@
       <c r="M33" s="66"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="161"/>
+      <c r="A34" s="147"/>
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3569,7 +3553,7 @@
       <c r="E34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="117" t="s">
+      <c r="G34" s="111" t="s">
         <v>379</v>
       </c>
       <c r="I34" s="66"/>
@@ -3579,7 +3563,7 @@
       <c r="M34" s="66"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="161" t="s">
+      <c r="A36" s="147" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3591,12 +3575,12 @@
       <c r="D36" s="5">
         <v>4</v>
       </c>
-      <c r="G36" s="117">
+      <c r="G36" s="111">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="161"/>
+      <c r="A37" s="147"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -3606,12 +3590,12 @@
       <c r="D37" s="5">
         <v>4</v>
       </c>
-      <c r="G37" s="117" t="s">
+      <c r="G37" s="111" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="147" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3629,12 +3613,12 @@
       <c r="F39" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="117">
+      <c r="G39" s="111">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="161"/>
+      <c r="A40" s="147"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -3647,12 +3631,12 @@
       <c r="E40" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="117">
+      <c r="G40" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="161"/>
+      <c r="A41" s="147"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -3665,12 +3649,12 @@
       <c r="E41" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="117">
+      <c r="G41" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="161"/>
+      <c r="A42" s="147"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -3686,7 +3670,7 @@
       <c r="F42" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="117">
+      <c r="G42" s="111">
         <v>1</v>
       </c>
     </row>
@@ -3700,12 +3684,12 @@
       <c r="D43" s="5">
         <v>1</v>
       </c>
-      <c r="G43" s="117" t="s">
+      <c r="G43" s="111" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="150" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3720,12 +3704,12 @@
       <c r="E45" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="117">
+      <c r="G45" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="162"/>
+      <c r="A46" s="150"/>
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3738,7 +3722,7 @@
       <c r="E46" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="117">
+      <c r="G46" s="111">
         <v>1</v>
       </c>
     </row>
@@ -3747,7 +3731,7 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="162" t="s">
+      <c r="A48" s="150" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3764,7 +3748,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="162"/>
+      <c r="A49" s="150"/>
       <c r="B49" s="4" t="s">
         <v>140</v>
       </c>
@@ -3776,7 +3760,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="161" t="s">
+      <c r="A51" s="147" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -3791,12 +3775,12 @@
       <c r="F51" t="s">
         <v>94</v>
       </c>
-      <c r="G51" s="117" t="s">
+      <c r="G51" s="111" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="161"/>
+      <c r="A52" s="147"/>
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
@@ -3806,12 +3790,12 @@
       <c r="D52" s="5">
         <v>4</v>
       </c>
-      <c r="G52" s="117">
+      <c r="G52" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="161"/>
+      <c r="A53" s="147"/>
       <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3821,12 +3805,12 @@
       <c r="D53" s="5">
         <v>4</v>
       </c>
-      <c r="G53" s="117">
+      <c r="G53" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="161"/>
+      <c r="A54" s="147"/>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
@@ -3836,12 +3820,12 @@
       <c r="D54" s="5">
         <v>5</v>
       </c>
-      <c r="G54" s="117">
+      <c r="G54" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="161"/>
+      <c r="A55" s="147"/>
       <c r="B55" s="36" t="s">
         <v>88</v>
       </c>
@@ -3854,12 +3838,12 @@
       <c r="E55" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G55" s="117" t="s">
+      <c r="G55" s="111" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="161"/>
+      <c r="A56" s="147"/>
       <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
@@ -3869,12 +3853,12 @@
       <c r="D56" s="5">
         <v>4</v>
       </c>
-      <c r="G56" s="117">
+      <c r="G56" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="161"/>
+      <c r="A57" s="147"/>
       <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3884,12 +3868,12 @@
       <c r="D57" s="5">
         <v>4</v>
       </c>
-      <c r="G57" s="117" t="s">
+      <c r="G57" s="111" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="161"/>
+      <c r="A58" s="147"/>
       <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
@@ -3899,12 +3883,12 @@
       <c r="D58" s="5">
         <v>5</v>
       </c>
-      <c r="G58" s="117">
+      <c r="G58" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="161"/>
+      <c r="A59" s="147"/>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -3914,12 +3898,12 @@
       <c r="D59" s="5">
         <v>4</v>
       </c>
-      <c r="G59" s="117">
+      <c r="G59" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="161"/>
+      <c r="A60" s="147"/>
       <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
@@ -3934,7 +3918,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="161"/>
+      <c r="A61" s="147"/>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
@@ -3947,12 +3931,12 @@
       <c r="E61" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G61" s="117">
+      <c r="G61" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="161"/>
+      <c r="A62" s="147"/>
       <c r="B62" s="36" t="s">
         <v>121</v>
       </c>
@@ -3965,12 +3949,12 @@
       <c r="E62" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="G62" s="117" t="s">
+      <c r="G62" s="111" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="161"/>
+      <c r="A63" s="147"/>
       <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
@@ -3983,12 +3967,12 @@
       <c r="E63" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G63" s="117" t="s">
+      <c r="G63" s="111" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="161"/>
+      <c r="A64" s="147"/>
       <c r="B64" s="4" t="s">
         <v>130</v>
       </c>
@@ -4001,12 +3985,12 @@
       <c r="E64" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G64" s="117">
+      <c r="G64" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="161"/>
+      <c r="A65" s="147"/>
       <c r="B65" s="4" t="s">
         <v>133</v>
       </c>
@@ -4019,12 +4003,12 @@
       <c r="E65" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G65" s="117">
+      <c r="G65" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="161"/>
+      <c r="A66" s="147"/>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
@@ -4039,7 +4023,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="161"/>
+      <c r="A67" s="147"/>
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
@@ -4054,7 +4038,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="161"/>
+      <c r="A68" s="147"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -4069,7 +4053,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="161" t="s">
+      <c r="A70" s="147" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4084,12 +4068,12 @@
       <c r="E70" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G70" s="117">
+      <c r="G70" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="161"/>
+      <c r="A71" s="147"/>
       <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
@@ -4101,7 +4085,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="161"/>
+      <c r="A72" s="147"/>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
@@ -4117,7 +4101,7 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="161" t="s">
+      <c r="A74" s="147" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4132,13 +4116,13 @@
       <c r="E74" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G74" s="118"/>
+      <c r="G74" s="112"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="161"/>
+      <c r="A75" s="147"/>
       <c r="B75" s="16">
         <v>2601151022113</v>
       </c>
@@ -4153,7 +4137,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="161"/>
+      <c r="A76" s="147"/>
       <c r="B76" s="16">
         <v>261151044113</v>
       </c>
@@ -4168,7 +4152,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="161"/>
+      <c r="A77" s="147"/>
       <c r="B77" s="16">
         <v>20012107818</v>
       </c>
@@ -4183,7 +4167,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="161"/>
+      <c r="A78" s="147"/>
       <c r="B78" s="16" t="s">
         <v>155</v>
       </c>
@@ -4198,7 +4182,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="161"/>
+      <c r="A79" s="147"/>
       <c r="B79" s="17">
         <v>260151022110</v>
       </c>
@@ -4213,7 +4197,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="161"/>
+      <c r="A80" s="147"/>
       <c r="B80" s="16">
         <v>260121011717</v>
       </c>
@@ -4228,7 +4212,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="161"/>
+      <c r="A81" s="147"/>
       <c r="B81" s="16">
         <v>20012104412</v>
       </c>
@@ -4244,6 +4228,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A3:A5"/>
@@ -4251,11 +4240,6 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A51:A68"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4266,8 +4250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D154C8AB-27F7-4A13-8063-275E3E6867F6}">
   <dimension ref="A1:AE94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31:M32"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4285,115 +4269,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="184" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="170"/>
-      <c r="H1" s="186" t="s">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="186"/>
+      <c r="H1" s="202" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="187"/>
-      <c r="J1" s="188"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="204"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="173"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="189"/>
       <c r="H2" s="69"/>
-      <c r="I2" s="184" t="s">
+      <c r="I2" s="200" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="185"/>
+      <c r="J2" s="201"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:31" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="174"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="176"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="184" t="s">
+      <c r="A3" s="190"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="192"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="200" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="185"/>
+      <c r="J3" s="201"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="194" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="179"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="195"/>
       <c r="F4" s="41"/>
       <c r="G4" s="31"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="184" t="s">
+      <c r="H4" s="114"/>
+      <c r="I4" s="200" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="185"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="191" t="s">
+      <c r="J4" s="201"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="152" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="192"/>
-      <c r="N4" s="192"/>
-      <c r="O4" s="192"/>
-      <c r="P4" s="193"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="154"/>
       <c r="Q4" s="41"/>
-      <c r="R4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="200" t="s">
+      <c r="R4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="161" t="s">
         <v>372</v>
       </c>
-      <c r="W4" s="201"/>
-      <c r="X4" s="201"/>
-      <c r="Y4" s="201"/>
-      <c r="Z4" s="202"/>
-      <c r="AA4" s="85"/>
+      <c r="W4" s="162"/>
+      <c r="X4" s="162"/>
+      <c r="Y4" s="162"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="79"/>
       <c r="AB4" s="31"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="180"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="181"/>
+      <c r="A5" s="196"/>
+      <c r="B5" s="196"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="197"/>
       <c r="F5" s="41"/>
       <c r="G5" s="31"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="189" t="s">
+      <c r="H5" s="121"/>
+      <c r="I5" s="205" t="s">
         <v>385</v>
       </c>
-      <c r="J5" s="190"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="195"/>
-      <c r="O5" s="195"/>
-      <c r="P5" s="196"/>
+      <c r="J5" s="206"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="157"/>
       <c r="Q5" s="41"/>
-      <c r="R5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="203"/>
-      <c r="W5" s="204"/>
-      <c r="X5" s="204"/>
-      <c r="Y5" s="204"/>
-      <c r="Z5" s="205"/>
-      <c r="AA5" s="85"/>
+      <c r="R5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="166"/>
+      <c r="AA5" s="79"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="101" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -4409,7 +4393,7 @@
         <v>164</v>
       </c>
       <c r="F6" s="31"/>
-      <c r="G6" s="122" t="s">
+      <c r="G6" s="113" t="s">
         <v>383</v>
       </c>
       <c r="L6" s="45" t="s">
@@ -4431,35 +4415,35 @@
       <c r="R6" t="s">
         <v>383</v>
       </c>
-      <c r="U6" s="85"/>
-      <c r="V6" s="86" t="s">
+      <c r="U6" s="79"/>
+      <c r="V6" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="W6" s="87" t="s">
+      <c r="W6" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="X6" s="88" t="s">
+      <c r="X6" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="Y6" s="88" t="s">
+      <c r="Y6" s="82" t="s">
         <v>168</v>
       </c>
       <c r="Z6" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="AA6" s="218" t="s">
+      <c r="AA6" s="179" t="s">
         <v>390</v>
       </c>
-      <c r="AB6" s="219"/>
-      <c r="AC6" s="219"/>
-      <c r="AD6" s="219"/>
-      <c r="AE6" s="219"/>
+      <c r="AB6" s="180"/>
+      <c r="AC6" s="180"/>
+      <c r="AD6" s="180"/>
+      <c r="AE6" s="180"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="177" t="s">
+      <c r="A7" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="74" t="s">
         <v>165</v>
       </c>
       <c r="C7" s="34">
@@ -4475,19 +4459,19 @@
         <v>382</v>
       </c>
       <c r="G7" s="31"/>
-      <c r="L7" s="197" t="s">
+      <c r="L7" s="158" t="s">
         <v>339</v>
       </c>
-      <c r="M7" s="80" t="s">
+      <c r="M7" s="74" t="s">
         <v>340</v>
       </c>
-      <c r="N7" s="81">
+      <c r="N7" s="75">
         <v>1</v>
       </c>
-      <c r="O7" s="81">
+      <c r="O7" s="75">
         <v>5</v>
       </c>
-      <c r="P7" s="82" t="s">
+      <c r="P7" s="76" t="s">
         <v>237</v>
       </c>
       <c r="Q7" s="41" t="s">
@@ -4496,28 +4480,28 @@
       <c r="R7" t="s">
         <v>384</v>
       </c>
-      <c r="U7" s="85"/>
-      <c r="V7" s="89" t="s">
+      <c r="U7" s="79"/>
+      <c r="V7" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="146" t="s">
+      <c r="W7" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="X7" s="147">
+      <c r="X7" s="134">
         <v>2</v>
       </c>
-      <c r="Y7" s="147">
+      <c r="Y7" s="134">
         <v>20</v>
       </c>
-      <c r="Z7" s="148" t="s">
+      <c r="Z7" s="135" t="s">
         <v>343</v>
       </c>
-      <c r="AA7" s="85" t="s">
+      <c r="AA7" s="79" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="177"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
@@ -4536,7 +4520,7 @@
       <c r="G8" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="L8" s="198"/>
+      <c r="L8" s="159"/>
       <c r="M8" s="26" t="s">
         <v>341</v>
       </c>
@@ -4555,28 +4539,28 @@
       <c r="R8" t="s">
         <v>384</v>
       </c>
-      <c r="U8" s="85"/>
-      <c r="V8" s="90" t="s">
+      <c r="U8" s="79"/>
+      <c r="V8" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="149" t="s">
+      <c r="W8" s="136" t="s">
         <v>351</v>
       </c>
-      <c r="X8" s="150">
+      <c r="X8" s="137">
         <v>2</v>
       </c>
-      <c r="Y8" s="150">
+      <c r="Y8" s="137">
         <v>30</v>
       </c>
-      <c r="Z8" s="151" t="s">
+      <c r="Z8" s="138" t="s">
         <v>366</v>
       </c>
-      <c r="AA8" s="85" t="s">
+      <c r="AA8" s="79" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="177"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="26" t="s">
         <v>169</v>
       </c>
@@ -4595,7 +4579,7 @@
       <c r="G9" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="198"/>
+      <c r="L9" s="159"/>
       <c r="M9" s="26" t="s">
         <v>173</v>
       </c>
@@ -4614,28 +4598,28 @@
       <c r="R9" t="s">
         <v>384</v>
       </c>
-      <c r="U9" s="85"/>
-      <c r="V9" s="102" t="s">
+      <c r="U9" s="79"/>
+      <c r="V9" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="W9" s="103" t="s">
+      <c r="W9" s="97" t="s">
         <v>367</v>
       </c>
-      <c r="X9" s="104">
+      <c r="X9" s="98">
         <v>1</v>
       </c>
-      <c r="Y9" s="104">
+      <c r="Y9" s="98">
         <v>5</v>
       </c>
-      <c r="Z9" s="105" t="s">
+      <c r="Z9" s="99" t="s">
         <v>202</v>
       </c>
-      <c r="AA9" s="85" t="s">
+      <c r="AA9" s="79" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="177"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
@@ -4654,7 +4638,7 @@
       <c r="G10" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="198"/>
+      <c r="L10" s="159"/>
       <c r="M10" s="26" t="s">
         <v>178</v>
       </c>
@@ -4673,26 +4657,26 @@
       <c r="R10" t="s">
         <v>384</v>
       </c>
-      <c r="U10" s="85"/>
-      <c r="V10" s="101" t="s">
+      <c r="U10" s="79"/>
+      <c r="V10" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="W10" s="135" t="s">
+      <c r="W10" s="126" t="s">
         <v>368</v>
       </c>
-      <c r="X10" s="136" t="s">
+      <c r="X10" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" s="136" t="s">
+      <c r="Y10" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="137" t="s">
+      <c r="Z10" s="128" t="s">
         <v>278</v>
       </c>
-      <c r="AA10" s="85"/>
+      <c r="AA10" s="79"/>
     </row>
     <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="177"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
@@ -4711,7 +4695,7 @@
       <c r="G11" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="198"/>
+      <c r="L11" s="159"/>
       <c r="M11" s="26" t="s">
         <v>345</v>
       </c>
@@ -4739,7 +4723,7 @@
       <c r="AA11" s="31"/>
     </row>
     <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="177"/>
+      <c r="A12" s="193"/>
       <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
@@ -4758,7 +4742,7 @@
       <c r="G12" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L12" s="198"/>
+      <c r="L12" s="159"/>
       <c r="M12" s="26" t="s">
         <v>348</v>
       </c>
@@ -4777,7 +4761,7 @@
       <c r="R12" t="s">
         <v>384</v>
       </c>
-      <c r="U12" s="85"/>
+      <c r="U12" s="79"/>
       <c r="V12" s="33"/>
       <c r="W12" s="26"/>
       <c r="X12" s="47"/>
@@ -4786,7 +4770,7 @@
       <c r="AA12" s="31"/>
     </row>
     <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="177"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="26" t="s">
         <v>178</v>
       </c>
@@ -4805,7 +4789,7 @@
       <c r="G13" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="198"/>
+      <c r="L13" s="159"/>
       <c r="M13" s="26" t="s">
         <v>181</v>
       </c>
@@ -4824,26 +4808,26 @@
       <c r="R13" t="s">
         <v>384</v>
       </c>
-      <c r="V13" s="92"/>
+      <c r="V13" s="86"/>
       <c r="W13" s="38"/>
       <c r="X13" s="47"/>
       <c r="Y13" s="47"/>
       <c r="Z13" s="51"/>
       <c r="AA13" s="26"/>
-      <c r="AB13" s="85"/>
+      <c r="AB13" s="79"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
-      <c r="B14" s="83" t="s">
+      <c r="A14" s="198"/>
+      <c r="B14" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="108">
+      <c r="C14" s="102">
         <v>4</v>
       </c>
-      <c r="D14" s="108">
+      <c r="D14" s="102">
         <v>20</v>
       </c>
-      <c r="E14" s="109" t="s">
+      <c r="E14" s="103" t="s">
         <v>182</v>
       </c>
       <c r="F14" s="14" t="s">
@@ -4852,8 +4836,8 @@
       <c r="G14" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L14" s="199"/>
-      <c r="M14" s="83" t="s">
+      <c r="L14" s="160"/>
+      <c r="M14" s="77" t="s">
         <v>350</v>
       </c>
       <c r="N14" s="67">
@@ -4871,20 +4855,20 @@
       <c r="R14" t="s">
         <v>384</v>
       </c>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="85"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="79"/>
     </row>
     <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="183" t="s">
+      <c r="A15" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="78" t="s">
         <v>186</v>
       </c>
       <c r="C15" s="47">
@@ -4893,7 +4877,7 @@
       <c r="D15" s="47">
         <v>30</v>
       </c>
-      <c r="E15" s="110" t="s">
+      <c r="E15" s="104" t="s">
         <v>187</v>
       </c>
       <c r="F15" s="14" t="s">
@@ -4902,10 +4886,10 @@
       <c r="G15" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L15" s="212" t="s">
+      <c r="L15" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="84" t="s">
+      <c r="M15" s="78" t="s">
         <v>351</v>
       </c>
       <c r="N15" s="47">
@@ -4923,19 +4907,19 @@
       <c r="R15" t="s">
         <v>384</v>
       </c>
-      <c r="V15" s="206" t="s">
+      <c r="V15" s="167" t="s">
         <v>337</v>
       </c>
-      <c r="W15" s="207"/>
-      <c r="X15" s="207"/>
-      <c r="Y15" s="207"/>
-      <c r="Z15" s="207"/>
-      <c r="AA15" s="207"/>
-      <c r="AB15" s="207"/>
-      <c r="AC15" s="208"/>
+      <c r="W15" s="168"/>
+      <c r="X15" s="168"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="168"/>
+      <c r="AA15" s="168"/>
+      <c r="AB15" s="168"/>
+      <c r="AC15" s="169"/>
     </row>
     <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="177"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4954,7 +4938,7 @@
       <c r="G16" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L16" s="213"/>
+      <c r="L16" s="174"/>
       <c r="M16" s="26" t="s">
         <v>183</v>
       </c>
@@ -4974,29 +4958,29 @@
         <v>384</v>
       </c>
       <c r="S16" s="31"/>
-      <c r="V16" s="93" t="s">
+      <c r="V16" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="114"/>
+      <c r="W16" s="88"/>
+      <c r="X16" s="88"/>
+      <c r="Y16" s="88"/>
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="88"/>
+      <c r="AB16" s="88"/>
+      <c r="AC16" s="108"/>
     </row>
     <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="182"/>
-      <c r="B17" s="83" t="s">
+      <c r="A17" s="198"/>
+      <c r="B17" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="108">
+      <c r="C17" s="102">
         <v>5</v>
       </c>
-      <c r="D17" s="108">
+      <c r="D17" s="102">
         <v>20</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="103" t="s">
         <v>188</v>
       </c>
       <c r="F17" s="14" t="s">
@@ -5005,7 +4989,7 @@
       <c r="G17" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L17" s="213"/>
+      <c r="L17" s="174"/>
       <c r="M17" s="26" t="s">
         <v>185</v>
       </c>
@@ -5024,41 +5008,41 @@
       <c r="R17" t="s">
         <v>384</v>
       </c>
-      <c r="V17" s="97" t="s">
+      <c r="V17" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="W17" s="91" t="s">
+      <c r="W17" s="85" t="s">
         <v>221</v>
       </c>
-      <c r="X17" s="91" t="s">
+      <c r="X17" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="91"/>
-      <c r="AC17" s="95"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="85"/>
+      <c r="AC17" s="89"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="183" t="s">
+      <c r="A18" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="152" t="s">
+      <c r="B18" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="140">
         <v>1</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="140">
         <v>5</v>
       </c>
-      <c r="E18" s="154" t="s">
+      <c r="E18" s="141" t="s">
         <v>190</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="L18" s="213"/>
+      <c r="L18" s="174"/>
       <c r="M18" s="26" t="s">
         <v>355</v>
       </c>
@@ -5077,40 +5061,40 @@
       <c r="R18" t="s">
         <v>384</v>
       </c>
-      <c r="V18" s="97" t="s">
+      <c r="V18" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="W18" s="91" t="s">
+      <c r="W18" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="X18" s="99" t="s">
+      <c r="X18" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="Y18" s="91"/>
-      <c r="Z18" s="91"/>
-      <c r="AA18" s="91"/>
-      <c r="AB18" s="91"/>
-      <c r="AC18" s="98"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="85"/>
+      <c r="AC18" s="92"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="177"/>
-      <c r="B19" s="152" t="s">
+      <c r="A19" s="193"/>
+      <c r="B19" s="139" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="153">
+      <c r="C19" s="140">
         <v>1</v>
       </c>
-      <c r="D19" s="153">
+      <c r="D19" s="140">
         <v>5</v>
       </c>
-      <c r="E19" s="154" t="s">
+      <c r="E19" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="106" t="s">
+      <c r="F19" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L19" s="214"/>
-      <c r="M19" s="83" t="s">
+      <c r="L19" s="175"/>
+      <c r="M19" s="77" t="s">
         <v>356</v>
       </c>
       <c r="N19" s="67">
@@ -5128,39 +5112,39 @@
       <c r="R19" t="s">
         <v>384</v>
       </c>
-      <c r="V19" s="97" t="s">
+      <c r="V19" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="W19" s="91" t="s">
+      <c r="W19" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="X19" s="99" t="s">
+      <c r="X19" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="91"/>
-      <c r="AA19" s="91"/>
-      <c r="AB19" s="91"/>
-      <c r="AC19" s="98"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="85"/>
+      <c r="AC19" s="92"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="177"/>
-      <c r="B20" s="152" t="s">
+      <c r="A20" s="193"/>
+      <c r="B20" s="139" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="140">
         <v>1</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="140">
         <v>4</v>
       </c>
-      <c r="E20" s="154" t="s">
+      <c r="E20" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="106" t="s">
+      <c r="F20" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L20" s="212" t="s">
+      <c r="L20" s="173" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="26" t="s">
@@ -5178,33 +5162,33 @@
       <c r="Q20" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V20" s="97"/>
-      <c r="W20" s="91"/>
-      <c r="X20" s="91"/>
-      <c r="Y20" s="91"/>
-      <c r="Z20" s="91"/>
-      <c r="AA20" s="91"/>
-      <c r="AB20" s="91"/>
-      <c r="AC20" s="98"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="92"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="177"/>
-      <c r="B21" s="152" t="s">
+      <c r="A21" s="193"/>
+      <c r="B21" s="139" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="153">
+      <c r="C21" s="140">
         <v>1</v>
       </c>
-      <c r="D21" s="153">
+      <c r="D21" s="140">
         <v>5</v>
       </c>
-      <c r="E21" s="154" t="s">
+      <c r="E21" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="106" t="s">
+      <c r="F21" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L21" s="213"/>
+      <c r="L21" s="174"/>
       <c r="M21" s="26" t="s">
         <v>374</v>
       </c>
@@ -5220,35 +5204,35 @@
       <c r="Q21" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V21" s="100" t="s">
+      <c r="V21" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="W21" s="91"/>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="91"/>
-      <c r="AB21" s="91"/>
-      <c r="AC21" s="98"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="92"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="182"/>
-      <c r="B22" s="157" t="s">
+      <c r="A22" s="198"/>
+      <c r="B22" s="144" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="158">
+      <c r="C22" s="145">
         <v>1</v>
       </c>
-      <c r="D22" s="158">
+      <c r="D22" s="145">
         <v>4</v>
       </c>
-      <c r="E22" s="159" t="s">
+      <c r="E22" s="146" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="106" t="s">
+      <c r="F22" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L22" s="213"/>
+      <c r="L22" s="174"/>
       <c r="M22" s="26" t="s">
         <v>375</v>
       </c>
@@ -5264,39 +5248,39 @@
       <c r="Q22" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V22" s="97" t="s">
+      <c r="V22" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="W22" s="91" t="s">
+      <c r="W22" s="85" t="s">
         <v>221</v>
       </c>
-      <c r="X22" s="91" t="s">
+      <c r="X22" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="91"/>
-      <c r="AA22" s="91"/>
-      <c r="AB22" s="91"/>
-      <c r="AC22" s="98"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="85"/>
+      <c r="AC22" s="92"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="183" t="s">
+      <c r="A23" s="199" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="207" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="120">
+      <c r="C23" s="208">
         <v>1</v>
       </c>
-      <c r="D23" s="120">
+      <c r="D23" s="208">
         <v>0</v>
       </c>
-      <c r="E23" s="121" t="s">
+      <c r="E23" s="209" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="106"/>
-      <c r="L23" s="213"/>
+      <c r="F23" s="100"/>
+      <c r="L23" s="174"/>
       <c r="M23" s="26" t="s">
         <v>359</v>
       </c>
@@ -5312,37 +5296,37 @@
       <c r="Q23" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V23" s="97" t="s">
+      <c r="V23" s="91" t="s">
         <v>245</v>
       </c>
-      <c r="W23" s="91" t="s">
+      <c r="W23" s="85" t="s">
         <v>255</v>
       </c>
-      <c r="X23" s="99" t="s">
+      <c r="X23" s="93" t="s">
         <v>247</v>
       </c>
-      <c r="Y23" s="91"/>
-      <c r="Z23" s="91"/>
-      <c r="AA23" s="91"/>
-      <c r="AB23" s="91"/>
-      <c r="AC23" s="98"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="85"/>
+      <c r="AC23" s="92"/>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="177"/>
-      <c r="B24" s="70" t="s">
+      <c r="A24" s="193"/>
+      <c r="B24" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="143">
+      <c r="C24" s="119">
         <v>1</v>
       </c>
-      <c r="D24" s="143">
+      <c r="D24" s="119">
         <v>2</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="106"/>
-      <c r="L24" s="213"/>
+      <c r="F24" s="100"/>
+      <c r="L24" s="174"/>
       <c r="M24" s="26" t="s">
         <v>360</v>
       </c>
@@ -5358,40 +5342,40 @@
       <c r="Q24" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V24" s="97" t="s">
+      <c r="V24" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="W24" s="91" t="s">
+      <c r="W24" s="85" t="s">
         <v>255</v>
       </c>
-      <c r="X24" s="99" t="s">
+      <c r="X24" s="93" t="s">
         <v>247</v>
       </c>
-      <c r="Y24" s="91"/>
-      <c r="Z24" s="91"/>
-      <c r="AA24" s="91"/>
-      <c r="AB24" s="91"/>
-      <c r="AC24" s="98"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="85"/>
+      <c r="AB24" s="85"/>
+      <c r="AC24" s="92"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="177"/>
-      <c r="B25" s="152" t="s">
+      <c r="A25" s="193"/>
+      <c r="B25" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="153">
+      <c r="C25" s="140">
         <v>2</v>
       </c>
-      <c r="D25" s="153">
+      <c r="D25" s="140">
         <v>5</v>
       </c>
-      <c r="E25" s="154" t="s">
+      <c r="E25" s="141" t="s">
         <v>206</v>
       </c>
-      <c r="F25" s="106" t="s">
+      <c r="F25" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L25" s="213"/>
-      <c r="M25" s="91" t="s">
+      <c r="L25" s="174"/>
+      <c r="M25" s="85" t="s">
         <v>361</v>
       </c>
       <c r="N25" s="47">
@@ -5406,17 +5390,17 @@
       <c r="Q25" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="V25" s="97"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="91"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="91"/>
-      <c r="AA25" s="91"/>
-      <c r="AB25" s="91"/>
-      <c r="AC25" s="98"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="85"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="85"/>
+      <c r="AC25" s="92"/>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="177"/>
+      <c r="A26" s="193"/>
       <c r="B26" s="26" t="s">
         <v>207</v>
       </c>
@@ -5429,11 +5413,11 @@
       <c r="E26" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="F26" s="106" t="s">
+      <c r="F26" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L26" s="214"/>
-      <c r="M26" s="144" t="s">
+      <c r="L26" s="175"/>
+      <c r="M26" s="131" t="s">
         <v>362</v>
       </c>
       <c r="N26" s="67">
@@ -5448,19 +5432,19 @@
       <c r="Q26" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V26" s="97" t="s">
+      <c r="V26" s="91" t="s">
         <v>200</v>
       </c>
-      <c r="W26" s="91"/>
-      <c r="X26" s="91"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="91"/>
-      <c r="AB26" s="91"/>
-      <c r="AC26" s="98"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="85"/>
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="85"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="85"/>
+      <c r="AC26" s="92"/>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="177"/>
+      <c r="A27" s="193"/>
       <c r="B27" s="26" t="s">
         <v>209</v>
       </c>
@@ -5473,22 +5457,22 @@
       <c r="E27" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="F27" s="106" t="s">
+      <c r="F27" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L27" s="215" t="s">
+      <c r="L27" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="M27" s="76" t="s">
+      <c r="M27" s="70" t="s">
         <v>363</v>
       </c>
-      <c r="N27" s="77">
+      <c r="N27" s="71">
         <v>1</v>
       </c>
-      <c r="O27" s="77">
+      <c r="O27" s="71">
         <v>4</v>
       </c>
-      <c r="P27" s="78" t="s">
+      <c r="P27" s="72" t="s">
         <v>286</v>
       </c>
       <c r="Q27" s="41" t="s">
@@ -5497,85 +5481,85 @@
       <c r="S27" t="s">
         <v>386</v>
       </c>
-      <c r="V27" s="97" t="s">
+      <c r="V27" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="W27" s="91" t="s">
+      <c r="W27" s="85" t="s">
         <v>221</v>
       </c>
-      <c r="X27" s="91" t="s">
+      <c r="X27" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="91"/>
-      <c r="AC27" s="98"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="85"/>
+      <c r="AC27" s="92"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="177"/>
-      <c r="B28" s="127" t="s">
+      <c r="A28" s="193"/>
+      <c r="B28" s="118" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="128">
+      <c r="C28" s="119">
         <v>1</v>
       </c>
-      <c r="D28" s="128">
+      <c r="D28" s="119">
         <v>0</v>
       </c>
-      <c r="E28" s="129" t="s">
+      <c r="E28" s="120" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="106"/>
-      <c r="L28" s="216"/>
+      <c r="F28" s="100"/>
+      <c r="L28" s="177"/>
       <c r="M28" s="26"/>
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
       <c r="P28" s="50"/>
       <c r="Q28" s="41"/>
-      <c r="V28" s="97" t="s">
+      <c r="V28" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="W28" s="91" t="s">
+      <c r="W28" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="X28" s="91" t="s">
+      <c r="X28" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="91"/>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="91"/>
-      <c r="AC28" s="98"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="92"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="182"/>
-      <c r="B29" s="155" t="s">
+      <c r="A29" s="198"/>
+      <c r="B29" s="142" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="142">
+      <c r="C29" s="130">
         <v>1</v>
       </c>
-      <c r="D29" s="142">
+      <c r="D29" s="130">
         <v>4</v>
       </c>
-      <c r="E29" s="156" t="s">
+      <c r="E29" s="143" t="s">
         <v>212</v>
       </c>
-      <c r="F29" s="106" t="s">
+      <c r="F29" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="L29" s="217"/>
-      <c r="M29" s="145" t="s">
+      <c r="L29" s="178"/>
+      <c r="M29" s="132" t="s">
         <v>364</v>
       </c>
-      <c r="N29" s="136">
+      <c r="N29" s="127">
         <v>1</v>
       </c>
-      <c r="O29" s="136">
+      <c r="O29" s="127">
         <v>4</v>
       </c>
-      <c r="P29" s="137" t="s">
+      <c r="P29" s="128" t="s">
         <v>219</v>
       </c>
       <c r="Q29" s="41" t="s">
@@ -5584,17 +5568,17 @@
       <c r="S29" t="s">
         <v>387</v>
       </c>
-      <c r="V29" s="97"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="91"/>
-      <c r="Y29" s="91"/>
-      <c r="Z29" s="91"/>
-      <c r="AA29" s="91"/>
-      <c r="AB29" s="91"/>
-      <c r="AC29" s="98"/>
+      <c r="V29" s="91"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="85"/>
+      <c r="AB29" s="85"/>
+      <c r="AC29" s="92"/>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="177" t="s">
+      <c r="A30" s="193" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5609,7 +5593,7 @@
       <c r="E30" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="106" t="s">
+      <c r="F30" s="100" t="s">
         <v>382</v>
       </c>
       <c r="K30" s="31"/>
@@ -5622,19 +5606,19 @@
       <c r="S30" t="s">
         <v>388</v>
       </c>
-      <c r="V30" s="97" t="s">
+      <c r="V30" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="W30" s="91"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="91"/>
-      <c r="AB30" s="91"/>
-      <c r="AC30" s="98"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="85"/>
+      <c r="AB30" s="85"/>
+      <c r="AC30" s="92"/>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="177"/>
+      <c r="A31" s="193"/>
       <c r="B31" s="26" t="s">
         <v>216</v>
       </c>
@@ -5647,7 +5631,7 @@
       <c r="E31" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="F31" s="106"/>
+      <c r="F31" s="100"/>
       <c r="K31" s="31"/>
       <c r="L31" s="33"/>
       <c r="M31" s="26"/>
@@ -5655,23 +5639,23 @@
       <c r="O31" s="46"/>
       <c r="P31" s="51"/>
       <c r="Q31" s="41"/>
-      <c r="V31" s="97" t="s">
+      <c r="V31" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="W31" s="91" t="s">
+      <c r="W31" s="85" t="s">
         <v>221</v>
       </c>
-      <c r="X31" s="91" t="s">
+      <c r="X31" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="91"/>
-      <c r="AC31" s="98"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="85"/>
+      <c r="AA31" s="85"/>
+      <c r="AB31" s="85"/>
+      <c r="AC31" s="92"/>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="177"/>
+      <c r="A32" s="193"/>
       <c r="B32" s="38" t="s">
         <v>364</v>
       </c>
@@ -5684,7 +5668,9 @@
       <c r="E32" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="42" t="s">
+        <v>382</v>
+      </c>
       <c r="K32" s="31"/>
       <c r="L32" s="33"/>
       <c r="M32" s="38"/>
@@ -5692,38 +5678,38 @@
       <c r="O32" s="47"/>
       <c r="P32" s="51"/>
       <c r="Q32" s="41"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="131" t="s">
+      <c r="U32" s="79"/>
+      <c r="V32" s="122" t="s">
         <v>278</v>
       </c>
-      <c r="W32" s="132" t="s">
+      <c r="W32" s="123" t="s">
         <v>335</v>
       </c>
-      <c r="X32" s="133" t="s">
+      <c r="X32" s="124" t="s">
         <v>336</v>
       </c>
-      <c r="Y32" s="132"/>
-      <c r="Z32" s="132"/>
-      <c r="AA32" s="132"/>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="134"/>
-      <c r="AD32" s="85"/>
+      <c r="Y32" s="123"/>
+      <c r="Z32" s="123"/>
+      <c r="AA32" s="123"/>
+      <c r="AB32" s="123"/>
+      <c r="AC32" s="125"/>
+      <c r="AD32" s="79"/>
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="138"/>
-      <c r="B33" s="139" t="s">
+      <c r="A33" s="129"/>
+      <c r="B33" s="210" t="s">
         <v>391</v>
       </c>
-      <c r="C33" s="140">
+      <c r="C33" s="211">
         <v>1</v>
       </c>
-      <c r="D33" s="140">
+      <c r="D33" s="211">
         <v>0</v>
       </c>
-      <c r="E33" s="141" t="s">
+      <c r="E33" s="212" t="s">
         <v>286</v>
       </c>
-      <c r="F33" s="106"/>
+      <c r="F33" s="100"/>
       <c r="K33" s="31"/>
       <c r="L33" s="33"/>
       <c r="M33" s="38"/>
@@ -5731,16 +5717,16 @@
       <c r="O33" s="47"/>
       <c r="P33" s="51"/>
       <c r="Q33" s="41"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="116"/>
-      <c r="W33" s="116"/>
-      <c r="X33" s="84"/>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="116"/>
-      <c r="AA33" s="116"/>
-      <c r="AB33" s="116"/>
-      <c r="AC33" s="116"/>
-      <c r="AD33" s="85"/>
+      <c r="U33" s="79"/>
+      <c r="V33" s="110"/>
+      <c r="W33" s="110"/>
+      <c r="X33" s="78"/>
+      <c r="Y33" s="110"/>
+      <c r="Z33" s="110"/>
+      <c r="AA33" s="110"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="110"/>
+      <c r="AD33" s="79"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
@@ -5756,48 +5742,48 @@
       <c r="O34" s="47"/>
       <c r="P34" s="51"/>
       <c r="Q34" s="39"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="85"/>
-      <c r="X34" s="85"/>
-      <c r="Y34" s="85"/>
-      <c r="Z34" s="85"/>
-      <c r="AA34" s="85"/>
-      <c r="AB34" s="85"/>
-      <c r="AC34" s="116"/>
-      <c r="AD34" s="85"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="79"/>
+      <c r="AC34" s="110"/>
+      <c r="AD34" s="79"/>
     </row>
     <row r="35" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="165" t="s">
+      <c r="B35" s="181" t="s">
         <v>295</v>
       </c>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="166"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="111"/>
-      <c r="L35" s="209" t="s">
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="182"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="105"/>
+      <c r="L35" s="170" t="s">
         <v>338</v>
       </c>
-      <c r="M